--- a/SampleData.xlsx
+++ b/SampleData.xlsx
@@ -412,7 +412,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BI13"/>
+  <dimension ref="A1:BI16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
@@ -4451,6 +4451,927 @@
         </is>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2022-01-16 11:41:32</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>15.4 °C</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>23.8 °C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.0 °C</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>**.* °C</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>23.9 °C</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>**.* °C</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>41 %</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>**.* %</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>0 mV</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>0 mV</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>**.* mV</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>**.* mV</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>31 %</t>
+        </is>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>67 %</t>
+        </is>
+      </c>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>#.## g/m³</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr">
+        <is>
+          <t>8.86 g/m³</t>
+        </is>
+      </c>
+      <c r="AA14" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="AB14" t="inlineStr">
+        <is>
+          <t>7:00-22:00</t>
+        </is>
+      </c>
+      <c r="AC14" t="inlineStr">
+        <is>
+          <t>AWAY              22:00</t>
+        </is>
+      </c>
+      <c r="AD14" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="AE14" t="inlineStr">
+        <is>
+          <t>15.4 °C</t>
+        </is>
+      </c>
+      <c r="AF14" t="inlineStr">
+        <is>
+          <t>23.8 °C</t>
+        </is>
+      </c>
+      <c r="AG14" t="inlineStr">
+        <is>
+          <t>1.9 °C</t>
+        </is>
+      </c>
+      <c r="AH14" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI14" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AJ14" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AK14" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AL14" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AM14" t="inlineStr">
+        <is>
+          <t>31 %</t>
+        </is>
+      </c>
+      <c r="AN14" t="inlineStr">
+        <is>
+          <t>89 %</t>
+        </is>
+      </c>
+      <c r="AO14" t="inlineStr">
+        <is>
+          <t>1057 W</t>
+        </is>
+      </c>
+      <c r="AP14" t="inlineStr">
+        <is>
+          <t>537 W</t>
+        </is>
+      </c>
+      <c r="AQ14" t="inlineStr">
+        <is>
+          <t>500 W</t>
+        </is>
+      </c>
+      <c r="AR14" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="AS14" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="AT14" t="inlineStr">
+        <is>
+          <t>3.23 kWh</t>
+        </is>
+      </c>
+      <c r="AU14" t="inlineStr">
+        <is>
+          <t>289.08 kWh</t>
+        </is>
+      </c>
+      <c r="AV14" t="inlineStr">
+        <is>
+          <t>2669.97 kWh</t>
+        </is>
+      </c>
+      <c r="AW14" t="inlineStr">
+        <is>
+          <t>2.92 kWh</t>
+        </is>
+      </c>
+      <c r="AX14" t="inlineStr">
+        <is>
+          <t>267.23 kWh</t>
+        </is>
+      </c>
+      <c r="AY14" t="inlineStr">
+        <is>
+          <t>2121.16 kWh</t>
+        </is>
+      </c>
+      <c r="AZ14" t="inlineStr">
+        <is>
+          <t>7.21 kWh</t>
+        </is>
+      </c>
+      <c r="BA14" t="inlineStr">
+        <is>
+          <t>657.29 kWh</t>
+        </is>
+      </c>
+      <c r="BB14" t="inlineStr">
+        <is>
+          <t>8221.34 kWh</t>
+        </is>
+      </c>
+      <c r="BC14" t="inlineStr">
+        <is>
+          <t>19.0 °C</t>
+        </is>
+      </c>
+      <c r="BD14" t="inlineStr">
+        <is>
+          <t>--.- °C</t>
+        </is>
+      </c>
+      <c r="BE14" t="inlineStr">
+        <is>
+          <t>--.- %</t>
+        </is>
+      </c>
+      <c r="BF14" t="inlineStr">
+        <is>
+          <t>41 %</t>
+        </is>
+      </c>
+      <c r="BG14" t="inlineStr">
+        <is>
+          <t>--.- %</t>
+        </is>
+      </c>
+      <c r="BH14" t="inlineStr">
+        <is>
+          <t>41 %</t>
+        </is>
+      </c>
+      <c r="BI14" t="inlineStr">
+        <is>
+          <t>146030620</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2022-01-16 12:34:31</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>17.3 °C</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>25.0 °C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.5 °C</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>**.* °C</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>24.1 °C</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>**.* °C</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>42 %</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>**.* %</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>0 mV</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>0 mV</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>**.* mV</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>**.* mV</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>31 %</t>
+        </is>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>68 %</t>
+        </is>
+      </c>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>#.## g/m³</t>
+        </is>
+      </c>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>9.18 g/m³</t>
+        </is>
+      </c>
+      <c r="AA15" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="AB15" t="inlineStr">
+        <is>
+          <t>7:00-22:00</t>
+        </is>
+      </c>
+      <c r="AC15" t="inlineStr">
+        <is>
+          <t>AWAY              22:00</t>
+        </is>
+      </c>
+      <c r="AD15" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="AE15" t="inlineStr">
+        <is>
+          <t>17.4 °C</t>
+        </is>
+      </c>
+      <c r="AF15" t="inlineStr">
+        <is>
+          <t>25.1 °C</t>
+        </is>
+      </c>
+      <c r="AG15" t="inlineStr">
+        <is>
+          <t>2.3 °C</t>
+        </is>
+      </c>
+      <c r="AH15" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI15" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AJ15" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AK15" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AL15" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AM15" t="inlineStr">
+        <is>
+          <t>31 %</t>
+        </is>
+      </c>
+      <c r="AN15" t="inlineStr">
+        <is>
+          <t>89 %</t>
+        </is>
+      </c>
+      <c r="AO15" t="inlineStr">
+        <is>
+          <t>1089 W</t>
+        </is>
+      </c>
+      <c r="AP15" t="inlineStr">
+        <is>
+          <t>537 W</t>
+        </is>
+      </c>
+      <c r="AQ15" t="inlineStr">
+        <is>
+          <t>500 W</t>
+        </is>
+      </c>
+      <c r="AR15" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="AS15" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="AT15" t="inlineStr">
+        <is>
+          <t>3.71 kWh</t>
+        </is>
+      </c>
+      <c r="AU15" t="inlineStr">
+        <is>
+          <t>289.56 kWh</t>
+        </is>
+      </c>
+      <c r="AV15" t="inlineStr">
+        <is>
+          <t>2670.44 kWh</t>
+        </is>
+      </c>
+      <c r="AW15" t="inlineStr">
+        <is>
+          <t>3.36 kWh</t>
+        </is>
+      </c>
+      <c r="AX15" t="inlineStr">
+        <is>
+          <t>267.67 kWh</t>
+        </is>
+      </c>
+      <c r="AY15" t="inlineStr">
+        <is>
+          <t>2121.61 kWh</t>
+        </is>
+      </c>
+      <c r="AZ15" t="inlineStr">
+        <is>
+          <t>8.17 kWh</t>
+        </is>
+      </c>
+      <c r="BA15" t="inlineStr">
+        <is>
+          <t>658.25 kWh</t>
+        </is>
+      </c>
+      <c r="BB15" t="inlineStr">
+        <is>
+          <t>8222.30 kWh</t>
+        </is>
+      </c>
+      <c r="BC15" t="inlineStr">
+        <is>
+          <t>19.0 °C</t>
+        </is>
+      </c>
+      <c r="BD15" t="inlineStr">
+        <is>
+          <t>--.- °C</t>
+        </is>
+      </c>
+      <c r="BE15" t="inlineStr">
+        <is>
+          <t>--.- %</t>
+        </is>
+      </c>
+      <c r="BF15" t="inlineStr">
+        <is>
+          <t>42 %</t>
+        </is>
+      </c>
+      <c r="BG15" t="inlineStr">
+        <is>
+          <t>--.- %</t>
+        </is>
+      </c>
+      <c r="BH15" t="inlineStr">
+        <is>
+          <t>42 %</t>
+        </is>
+      </c>
+      <c r="BI15" t="inlineStr">
+        <is>
+          <t>146030620</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2022-01-16 12:40:56</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>17.3 °C</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>25.0 °C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.5 °C</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>**.* °C</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>24.1 °C</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>**.* °C</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>42 %</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>**.* %</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>0 mV</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>0 mV</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>**.* mV</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>**.* mV</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>31 %</t>
+        </is>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>68 %</t>
+        </is>
+      </c>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>#.## g/m³</t>
+        </is>
+      </c>
+      <c r="Z16" t="inlineStr">
+        <is>
+          <t>9.18 g/m³</t>
+        </is>
+      </c>
+      <c r="AA16" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="AB16" t="inlineStr">
+        <is>
+          <t>7:00-22:00</t>
+        </is>
+      </c>
+      <c r="AC16" t="inlineStr">
+        <is>
+          <t>AWAY              22:00</t>
+        </is>
+      </c>
+      <c r="AD16" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="AE16" t="inlineStr">
+        <is>
+          <t>17.4 °C</t>
+        </is>
+      </c>
+      <c r="AF16" t="inlineStr">
+        <is>
+          <t>24.9 °C</t>
+        </is>
+      </c>
+      <c r="AG16" t="inlineStr">
+        <is>
+          <t>2.4 °C</t>
+        </is>
+      </c>
+      <c r="AH16" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI16" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AJ16" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AK16" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AL16" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AM16" t="inlineStr">
+        <is>
+          <t>31 %</t>
+        </is>
+      </c>
+      <c r="AN16" t="inlineStr">
+        <is>
+          <t>89 %</t>
+        </is>
+      </c>
+      <c r="AO16" t="inlineStr">
+        <is>
+          <t>1084 W</t>
+        </is>
+      </c>
+      <c r="AP16" t="inlineStr">
+        <is>
+          <t>537 W</t>
+        </is>
+      </c>
+      <c r="AQ16" t="inlineStr">
+        <is>
+          <t>500 W</t>
+        </is>
+      </c>
+      <c r="AR16" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="AS16" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="AT16" t="inlineStr">
+        <is>
+          <t>3.76 kWh</t>
+        </is>
+      </c>
+      <c r="AU16" t="inlineStr">
+        <is>
+          <t>289.61 kWh</t>
+        </is>
+      </c>
+      <c r="AV16" t="inlineStr">
+        <is>
+          <t>2670.50 kWh</t>
+        </is>
+      </c>
+      <c r="AW16" t="inlineStr">
+        <is>
+          <t>3.41 kWh</t>
+        </is>
+      </c>
+      <c r="AX16" t="inlineStr">
+        <is>
+          <t>267.72 kWh</t>
+        </is>
+      </c>
+      <c r="AY16" t="inlineStr">
+        <is>
+          <t>2121.66 kWh</t>
+        </is>
+      </c>
+      <c r="AZ16" t="inlineStr">
+        <is>
+          <t>8.29 kWh</t>
+        </is>
+      </c>
+      <c r="BA16" t="inlineStr">
+        <is>
+          <t>658.37 kWh</t>
+        </is>
+      </c>
+      <c r="BB16" t="inlineStr">
+        <is>
+          <t>8222.42 kWh</t>
+        </is>
+      </c>
+      <c r="BC16" t="inlineStr">
+        <is>
+          <t>19.0 °C</t>
+        </is>
+      </c>
+      <c r="BD16" t="inlineStr">
+        <is>
+          <t>--.- °C</t>
+        </is>
+      </c>
+      <c r="BE16" t="inlineStr">
+        <is>
+          <t>--.- %</t>
+        </is>
+      </c>
+      <c r="BF16" t="inlineStr">
+        <is>
+          <t>42 %</t>
+        </is>
+      </c>
+      <c r="BG16" t="inlineStr">
+        <is>
+          <t>--.- %</t>
+        </is>
+      </c>
+      <c r="BH16" t="inlineStr">
+        <is>
+          <t>42 %</t>
+        </is>
+      </c>
+      <c r="BI16" t="inlineStr">
+        <is>
+          <t>146030620</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/SampleData.xlsx
+++ b/SampleData.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12900" windowWidth="41280" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sheet_name" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="sheet_name" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -412,7 +412,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BI16"/>
+  <dimension ref="A1:BI18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
@@ -5372,6 +5372,620 @@
         </is>
       </c>
     </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2022-01-17 09:45:53</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>16.9 °C</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>24.5 °C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.3 °C</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>**.* °C</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>23.7 °C</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>**.* °C</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>42 %</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>**.* %</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>0 mV</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>0 mV</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>**.* mV</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>**.* mV</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>32 %</t>
+        </is>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>68 %</t>
+        </is>
+      </c>
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>#.## g/m³</t>
+        </is>
+      </c>
+      <c r="Z17" t="inlineStr">
+        <is>
+          <t>8.97 g/m³</t>
+        </is>
+      </c>
+      <c r="AA17" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="AB17" t="inlineStr">
+        <is>
+          <t>7:00-22:00</t>
+        </is>
+      </c>
+      <c r="AC17" t="inlineStr">
+        <is>
+          <t>AWAY              22:00</t>
+        </is>
+      </c>
+      <c r="AD17" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="AE17" t="inlineStr">
+        <is>
+          <t>17.0 °C</t>
+        </is>
+      </c>
+      <c r="AF17" t="inlineStr">
+        <is>
+          <t>24.5 °C</t>
+        </is>
+      </c>
+      <c r="AG17" t="inlineStr">
+        <is>
+          <t>1.5 °C</t>
+        </is>
+      </c>
+      <c r="AH17" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI17" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AJ17" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AK17" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AL17" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AM17" t="inlineStr">
+        <is>
+          <t>32 %</t>
+        </is>
+      </c>
+      <c r="AN17" t="inlineStr">
+        <is>
+          <t>89 %</t>
+        </is>
+      </c>
+      <c r="AO17" t="inlineStr">
+        <is>
+          <t>1110 W</t>
+        </is>
+      </c>
+      <c r="AP17" t="inlineStr">
+        <is>
+          <t>537 W</t>
+        </is>
+      </c>
+      <c r="AQ17" t="inlineStr">
+        <is>
+          <t>500 W</t>
+        </is>
+      </c>
+      <c r="AR17" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="AS17" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="AT17" t="inlineStr">
+        <is>
+          <t>2.14 kWh</t>
+        </is>
+      </c>
+      <c r="AU17" t="inlineStr">
+        <is>
+          <t>292.39 kWh</t>
+        </is>
+      </c>
+      <c r="AV17" t="inlineStr">
+        <is>
+          <t>2677.95 kWh</t>
+        </is>
+      </c>
+      <c r="AW17" t="inlineStr">
+        <is>
+          <t>1.90 kWh</t>
+        </is>
+      </c>
+      <c r="AX17" t="inlineStr">
+        <is>
+          <t>270.61 kWh</t>
+        </is>
+      </c>
+      <c r="AY17" t="inlineStr">
+        <is>
+          <t>2128.48 kWh</t>
+        </is>
+      </c>
+      <c r="AZ17" t="inlineStr">
+        <is>
+          <t>4.88 kWh</t>
+        </is>
+      </c>
+      <c r="BA17" t="inlineStr">
+        <is>
+          <t>656.20 kWh</t>
+        </is>
+      </c>
+      <c r="BB17" t="inlineStr">
+        <is>
+          <t>8237.50 kWh</t>
+        </is>
+      </c>
+      <c r="BC17" t="inlineStr">
+        <is>
+          <t>19.0 °C</t>
+        </is>
+      </c>
+      <c r="BD17" t="inlineStr">
+        <is>
+          <t>--.- °C</t>
+        </is>
+      </c>
+      <c r="BE17" t="inlineStr">
+        <is>
+          <t>--.- %</t>
+        </is>
+      </c>
+      <c r="BF17" t="inlineStr">
+        <is>
+          <t>42 %</t>
+        </is>
+      </c>
+      <c r="BG17" t="inlineStr">
+        <is>
+          <t>--.- %</t>
+        </is>
+      </c>
+      <c r="BH17" t="inlineStr">
+        <is>
+          <t>42 %</t>
+        </is>
+      </c>
+      <c r="BI17" t="inlineStr">
+        <is>
+          <t>144982044</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2022-01-18 15:10:41</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>13.9 °C</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>23.8 °C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>-1.5 °C</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>**.* °C</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>24.2 °C</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>**.* °C</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>37 %</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>**.* %</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>0 mV</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>0 mV</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>**.* mV</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>**.* mV</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>32 %</t>
+        </is>
+      </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>71 %</t>
+        </is>
+      </c>
+      <c r="Y18" t="inlineStr">
+        <is>
+          <t>#.## g/m³</t>
+        </is>
+      </c>
+      <c r="Z18" t="inlineStr">
+        <is>
+          <t>8.14 g/m³</t>
+        </is>
+      </c>
+      <c r="AA18" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="AB18" t="inlineStr">
+        <is>
+          <t>7:00-22:00</t>
+        </is>
+      </c>
+      <c r="AC18" t="inlineStr">
+        <is>
+          <t>AWAY              22:00</t>
+        </is>
+      </c>
+      <c r="AD18" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="AE18" t="inlineStr">
+        <is>
+          <t>13.9 °C</t>
+        </is>
+      </c>
+      <c r="AF18" t="inlineStr">
+        <is>
+          <t>23.8 °C</t>
+        </is>
+      </c>
+      <c r="AG18" t="inlineStr">
+        <is>
+          <t>-1.7 °C</t>
+        </is>
+      </c>
+      <c r="AH18" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI18" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AJ18" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AK18" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AL18" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AM18" t="inlineStr">
+        <is>
+          <t>32 %</t>
+        </is>
+      </c>
+      <c r="AN18" t="inlineStr">
+        <is>
+          <t>90 %</t>
+        </is>
+      </c>
+      <c r="AO18" t="inlineStr">
+        <is>
+          <t>1233 W</t>
+        </is>
+      </c>
+      <c r="AP18" t="inlineStr">
+        <is>
+          <t>536 W</t>
+        </is>
+      </c>
+      <c r="AQ18" t="inlineStr">
+        <is>
+          <t>500 W</t>
+        </is>
+      </c>
+      <c r="AR18" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="AS18" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="AT18" t="inlineStr">
+        <is>
+          <t>5.15 kWh</t>
+        </is>
+      </c>
+      <c r="AU18" t="inlineStr">
+        <is>
+          <t>297.83 kWh</t>
+        </is>
+      </c>
+      <c r="AV18" t="inlineStr">
+        <is>
+          <t>2690.30 kWh</t>
+        </is>
+      </c>
+      <c r="AW18" t="inlineStr">
+        <is>
+          <t>4.71 kWh</t>
+        </is>
+      </c>
+      <c r="AX18" t="inlineStr">
+        <is>
+          <t>275.86 kWh</t>
+        </is>
+      </c>
+      <c r="AY18" t="inlineStr">
+        <is>
+          <t>2139.89 kWh</t>
+        </is>
+      </c>
+      <c r="AZ18" t="inlineStr">
+        <is>
+          <t>11.89 kWh</t>
+        </is>
+      </c>
+      <c r="BA18" t="inlineStr">
+        <is>
+          <t>663.67 kWh</t>
+        </is>
+      </c>
+      <c r="BB18" t="inlineStr">
+        <is>
+          <t>8264.42 kWh</t>
+        </is>
+      </c>
+      <c r="BC18" t="inlineStr">
+        <is>
+          <t>19.0 °C</t>
+        </is>
+      </c>
+      <c r="BD18" t="inlineStr">
+        <is>
+          <t>--.- °C</t>
+        </is>
+      </c>
+      <c r="BE18" t="inlineStr">
+        <is>
+          <t>--.- %</t>
+        </is>
+      </c>
+      <c r="BF18" t="inlineStr">
+        <is>
+          <t>37 %</t>
+        </is>
+      </c>
+      <c r="BG18" t="inlineStr">
+        <is>
+          <t>--.- %</t>
+        </is>
+      </c>
+      <c r="BH18" t="inlineStr">
+        <is>
+          <t>37 %</t>
+        </is>
+      </c>
+      <c r="BI18" t="inlineStr">
+        <is>
+          <t>144982044</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/SampleData.xlsx
+++ b/SampleData.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12900" windowWidth="41280" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="sheet_name" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sheet_name" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -412,7 +412,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BI18"/>
+  <dimension ref="A1:BI19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
@@ -5986,6 +5986,313 @@
         </is>
       </c>
     </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2022-01-18 18:01:30</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>14.7 °C</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>23.6 °C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>-0.2 °C</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>**.* °C</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>24.2 °C</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>**.* °C</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>43 %</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>**.* %</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>0 mV</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>0 mV</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>**.* mV</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>**.* mV</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>32 %</t>
+        </is>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>70 %</t>
+        </is>
+      </c>
+      <c r="Y19" t="inlineStr">
+        <is>
+          <t>#.## g/m³</t>
+        </is>
+      </c>
+      <c r="Z19" t="inlineStr">
+        <is>
+          <t>9.46 g/m³</t>
+        </is>
+      </c>
+      <c r="AA19" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="AB19" t="inlineStr">
+        <is>
+          <t>7:00-22:00</t>
+        </is>
+      </c>
+      <c r="AC19" t="inlineStr">
+        <is>
+          <t>AWAY              22:00</t>
+        </is>
+      </c>
+      <c r="AD19" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="AE19" t="inlineStr">
+        <is>
+          <t>14.9 °C</t>
+        </is>
+      </c>
+      <c r="AF19" t="inlineStr">
+        <is>
+          <t>23.7 °C</t>
+        </is>
+      </c>
+      <c r="AG19" t="inlineStr">
+        <is>
+          <t>-0.4 °C</t>
+        </is>
+      </c>
+      <c r="AH19" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI19" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AJ19" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AK19" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AL19" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AM19" t="inlineStr">
+        <is>
+          <t>32 %</t>
+        </is>
+      </c>
+      <c r="AN19" t="inlineStr">
+        <is>
+          <t>90 %</t>
+        </is>
+      </c>
+      <c r="AO19" t="inlineStr">
+        <is>
+          <t>1169 W</t>
+        </is>
+      </c>
+      <c r="AP19" t="inlineStr">
+        <is>
+          <t>537 W</t>
+        </is>
+      </c>
+      <c r="AQ19" t="inlineStr">
+        <is>
+          <t>500 W</t>
+        </is>
+      </c>
+      <c r="AR19" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="AS19" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="AT19" t="inlineStr">
+        <is>
+          <t>6.68 kWh</t>
+        </is>
+      </c>
+      <c r="AU19" t="inlineStr">
+        <is>
+          <t>299.36 kWh</t>
+        </is>
+      </c>
+      <c r="AV19" t="inlineStr">
+        <is>
+          <t>2691.82 kWh</t>
+        </is>
+      </c>
+      <c r="AW19" t="inlineStr">
+        <is>
+          <t>6.14 kWh</t>
+        </is>
+      </c>
+      <c r="AX19" t="inlineStr">
+        <is>
+          <t>277.29 kWh</t>
+        </is>
+      </c>
+      <c r="AY19" t="inlineStr">
+        <is>
+          <t>2141.31 kWh</t>
+        </is>
+      </c>
+      <c r="AZ19" t="inlineStr">
+        <is>
+          <t>15.31 kWh</t>
+        </is>
+      </c>
+      <c r="BA19" t="inlineStr">
+        <is>
+          <t>667.10 kWh</t>
+        </is>
+      </c>
+      <c r="BB19" t="inlineStr">
+        <is>
+          <t>8267.84 kWh</t>
+        </is>
+      </c>
+      <c r="BC19" t="inlineStr">
+        <is>
+          <t>19.0 °C</t>
+        </is>
+      </c>
+      <c r="BD19" t="inlineStr">
+        <is>
+          <t>--.- °C</t>
+        </is>
+      </c>
+      <c r="BE19" t="inlineStr">
+        <is>
+          <t>--.- %</t>
+        </is>
+      </c>
+      <c r="BF19" t="inlineStr">
+        <is>
+          <t>43 %</t>
+        </is>
+      </c>
+      <c r="BG19" t="inlineStr">
+        <is>
+          <t>--.- %</t>
+        </is>
+      </c>
+      <c r="BH19" t="inlineStr">
+        <is>
+          <t>43 %</t>
+        </is>
+      </c>
+      <c r="BI19" t="inlineStr">
+        <is>
+          <t>146030620</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/SampleData.xlsx
+++ b/SampleData.xlsx
@@ -412,7 +412,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BI19"/>
+  <dimension ref="A1:BI20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
@@ -6293,6 +6293,313 @@
         </is>
       </c>
     </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2022-01-19 16:16:03</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>18.5 °C</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>24.9 °C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.5 °C</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>**.* °C</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>24.2 °C</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>**.* °C</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>40 %</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>**.* %</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>0 mV</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>0 mV</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>**.* mV</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>**.* mV</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>33 %</t>
+        </is>
+      </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>66 %</t>
+        </is>
+      </c>
+      <c r="Y20" t="inlineStr">
+        <is>
+          <t>#.## g/m³</t>
+        </is>
+      </c>
+      <c r="Z20" t="inlineStr">
+        <is>
+          <t>8.80 g/m³</t>
+        </is>
+      </c>
+      <c r="AA20" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="AB20" t="inlineStr">
+        <is>
+          <t>7:00-22:00</t>
+        </is>
+      </c>
+      <c r="AC20" t="inlineStr">
+        <is>
+          <t>AWAY              22:00</t>
+        </is>
+      </c>
+      <c r="AD20" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="AE20" t="inlineStr">
+        <is>
+          <t>18.6 °C</t>
+        </is>
+      </c>
+      <c r="AF20" t="inlineStr">
+        <is>
+          <t>25.0 °C</t>
+        </is>
+      </c>
+      <c r="AG20" t="inlineStr">
+        <is>
+          <t>4.6 °C</t>
+        </is>
+      </c>
+      <c r="AH20" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI20" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AJ20" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AK20" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AL20" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AM20" t="inlineStr">
+        <is>
+          <t>33 %</t>
+        </is>
+      </c>
+      <c r="AN20" t="inlineStr">
+        <is>
+          <t>89 %</t>
+        </is>
+      </c>
+      <c r="AO20" t="inlineStr">
+        <is>
+          <t>966 W</t>
+        </is>
+      </c>
+      <c r="AP20" t="inlineStr">
+        <is>
+          <t>537 W</t>
+        </is>
+      </c>
+      <c r="AQ20" t="inlineStr">
+        <is>
+          <t>500 W</t>
+        </is>
+      </c>
+      <c r="AR20" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="AS20" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="AT20" t="inlineStr">
+        <is>
+          <t>5.41 kWh</t>
+        </is>
+      </c>
+      <c r="AU20" t="inlineStr">
+        <is>
+          <t>297.49 kWh</t>
+        </is>
+      </c>
+      <c r="AV20" t="inlineStr">
+        <is>
+          <t>2699.64 kWh</t>
+        </is>
+      </c>
+      <c r="AW20" t="inlineStr">
+        <is>
+          <t>4.92 kWh</t>
+        </is>
+      </c>
+      <c r="AX20" t="inlineStr">
+        <is>
+          <t>275.48 kWh</t>
+        </is>
+      </c>
+      <c r="AY20" t="inlineStr">
+        <is>
+          <t>2148.46 kWh</t>
+        </is>
+      </c>
+      <c r="AZ20" t="inlineStr">
+        <is>
+          <t>11.39 kWh</t>
+        </is>
+      </c>
+      <c r="BA20" t="inlineStr">
+        <is>
+          <t>658.58 kWh</t>
+        </is>
+      </c>
+      <c r="BB20" t="inlineStr">
+        <is>
+          <t>8284.27 kWh</t>
+        </is>
+      </c>
+      <c r="BC20" t="inlineStr">
+        <is>
+          <t>19.0 °C</t>
+        </is>
+      </c>
+      <c r="BD20" t="inlineStr">
+        <is>
+          <t>--.- °C</t>
+        </is>
+      </c>
+      <c r="BE20" t="inlineStr">
+        <is>
+          <t>--.- %</t>
+        </is>
+      </c>
+      <c r="BF20" t="inlineStr">
+        <is>
+          <t>40 %</t>
+        </is>
+      </c>
+      <c r="BG20" t="inlineStr">
+        <is>
+          <t>--.- %</t>
+        </is>
+      </c>
+      <c r="BH20" t="inlineStr">
+        <is>
+          <t>40 %</t>
+        </is>
+      </c>
+      <c r="BI20" t="inlineStr">
+        <is>
+          <t>144982044</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/SampleData.xlsx
+++ b/SampleData.xlsx
@@ -412,7 +412,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BI20"/>
+  <dimension ref="A1:BI22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
@@ -6600,6 +6600,620 @@
         </is>
       </c>
     </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2022-01-19 19:28:18</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>18.9 °C</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>24.5 °C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.5 °C</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>**.* °C</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>24.2 °C</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>**.* °C</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>46 %</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>**.* %</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>0 mV</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>0 mV</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>**.* mV</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>**.* mV</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>99 %</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>33 %</t>
+        </is>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>65 %</t>
+        </is>
+      </c>
+      <c r="Y21" t="inlineStr">
+        <is>
+          <t>#.## g/m³</t>
+        </is>
+      </c>
+      <c r="Z21" t="inlineStr">
+        <is>
+          <t>10.11 g/m³</t>
+        </is>
+      </c>
+      <c r="AA21" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="AB21" t="inlineStr">
+        <is>
+          <t>7:00-22:00</t>
+        </is>
+      </c>
+      <c r="AC21" t="inlineStr">
+        <is>
+          <t>AWAY              22:00</t>
+        </is>
+      </c>
+      <c r="AD21" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="AE21" t="inlineStr">
+        <is>
+          <t>19.0 °C</t>
+        </is>
+      </c>
+      <c r="AF21" t="inlineStr">
+        <is>
+          <t>24.5 °C</t>
+        </is>
+      </c>
+      <c r="AG21" t="inlineStr">
+        <is>
+          <t>4.3 °C</t>
+        </is>
+      </c>
+      <c r="AH21" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI21" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AJ21" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AK21" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AL21" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AM21" t="inlineStr">
+        <is>
+          <t>33 %</t>
+        </is>
+      </c>
+      <c r="AN21" t="inlineStr">
+        <is>
+          <t>88 %</t>
+        </is>
+      </c>
+      <c r="AO21" t="inlineStr">
+        <is>
+          <t>955 W</t>
+        </is>
+      </c>
+      <c r="AP21" t="inlineStr">
+        <is>
+          <t>533 W</t>
+        </is>
+      </c>
+      <c r="AQ21" t="inlineStr">
+        <is>
+          <t>496 W</t>
+        </is>
+      </c>
+      <c r="AR21" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="AS21" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="AT21" t="inlineStr">
+        <is>
+          <t>7.13 kWh</t>
+        </is>
+      </c>
+      <c r="AU21" t="inlineStr">
+        <is>
+          <t>299.21 kWh</t>
+        </is>
+      </c>
+      <c r="AV21" t="inlineStr">
+        <is>
+          <t>2701.36 kWh</t>
+        </is>
+      </c>
+      <c r="AW21" t="inlineStr">
+        <is>
+          <t>6.53 kWh</t>
+        </is>
+      </c>
+      <c r="AX21" t="inlineStr">
+        <is>
+          <t>277.08 kWh</t>
+        </is>
+      </c>
+      <c r="AY21" t="inlineStr">
+        <is>
+          <t>2150.06 kWh</t>
+        </is>
+      </c>
+      <c r="AZ21" t="inlineStr">
+        <is>
+          <t>14.47 kWh</t>
+        </is>
+      </c>
+      <c r="BA21" t="inlineStr">
+        <is>
+          <t>661.66 kWh</t>
+        </is>
+      </c>
+      <c r="BB21" t="inlineStr">
+        <is>
+          <t>8287.35 kWh</t>
+        </is>
+      </c>
+      <c r="BC21" t="inlineStr">
+        <is>
+          <t>19.0 °C</t>
+        </is>
+      </c>
+      <c r="BD21" t="inlineStr">
+        <is>
+          <t>--.- °C</t>
+        </is>
+      </c>
+      <c r="BE21" t="inlineStr">
+        <is>
+          <t>--.- %</t>
+        </is>
+      </c>
+      <c r="BF21" t="inlineStr">
+        <is>
+          <t>46 %</t>
+        </is>
+      </c>
+      <c r="BG21" t="inlineStr">
+        <is>
+          <t>--.- %</t>
+        </is>
+      </c>
+      <c r="BH21" t="inlineStr">
+        <is>
+          <t>46 %</t>
+        </is>
+      </c>
+      <c r="BI21" t="inlineStr">
+        <is>
+          <t>146030620</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2022-01-20 18:28:06</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>16.9 °C</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>24.4 °C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.5 °C</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>**.* °C</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>24.3 °C</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>**.* °C</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>43 %</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>**.* %</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>0 mV</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>0 mV</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>**.* mV</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>**.* mV</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>34 %</t>
+        </is>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>68 %</t>
+        </is>
+      </c>
+      <c r="Y22" t="inlineStr">
+        <is>
+          <t>#.## g/m³</t>
+        </is>
+      </c>
+      <c r="Z22" t="inlineStr">
+        <is>
+          <t>9.51 g/m³</t>
+        </is>
+      </c>
+      <c r="AA22" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="AB22" t="inlineStr">
+        <is>
+          <t>7:00-22:00</t>
+        </is>
+      </c>
+      <c r="AC22" t="inlineStr">
+        <is>
+          <t>AWAY              22:00</t>
+        </is>
+      </c>
+      <c r="AD22" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="AE22" t="inlineStr">
+        <is>
+          <t>16.8 °C</t>
+        </is>
+      </c>
+      <c r="AF22" t="inlineStr">
+        <is>
+          <t>24.3 °C</t>
+        </is>
+      </c>
+      <c r="AG22" t="inlineStr">
+        <is>
+          <t>1.4 °C</t>
+        </is>
+      </c>
+      <c r="AH22" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI22" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AJ22" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AK22" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AL22" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AM22" t="inlineStr">
+        <is>
+          <t>34 %</t>
+        </is>
+      </c>
+      <c r="AN22" t="inlineStr">
+        <is>
+          <t>88 %</t>
+        </is>
+      </c>
+      <c r="AO22" t="inlineStr">
+        <is>
+          <t>1094 W</t>
+        </is>
+      </c>
+      <c r="AP22" t="inlineStr">
+        <is>
+          <t>537 W</t>
+        </is>
+      </c>
+      <c r="AQ22" t="inlineStr">
+        <is>
+          <t>500 W</t>
+        </is>
+      </c>
+      <c r="AR22" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="AS22" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="AT22" t="inlineStr">
+        <is>
+          <t>7.02 kWh</t>
+        </is>
+      </c>
+      <c r="AU22" t="inlineStr">
+        <is>
+          <t>297.84 kWh</t>
+        </is>
+      </c>
+      <c r="AV22" t="inlineStr">
+        <is>
+          <t>2710.00 kWh</t>
+        </is>
+      </c>
+      <c r="AW22" t="inlineStr">
+        <is>
+          <t>6.46 kWh</t>
+        </is>
+      </c>
+      <c r="AX22" t="inlineStr">
+        <is>
+          <t>275.78 kWh</t>
+        </is>
+      </c>
+      <c r="AY22" t="inlineStr">
+        <is>
+          <t>2158.00 kWh</t>
+        </is>
+      </c>
+      <c r="AZ22" t="inlineStr">
+        <is>
+          <t>14.55 kWh</t>
+        </is>
+      </c>
+      <c r="BA22" t="inlineStr">
+        <is>
+          <t>653.09 kWh</t>
+        </is>
+      </c>
+      <c r="BB22" t="inlineStr">
+        <is>
+          <t>8304.94 kWh</t>
+        </is>
+      </c>
+      <c r="BC22" t="inlineStr">
+        <is>
+          <t>19.0 °C</t>
+        </is>
+      </c>
+      <c r="BD22" t="inlineStr">
+        <is>
+          <t>--.- °C</t>
+        </is>
+      </c>
+      <c r="BE22" t="inlineStr">
+        <is>
+          <t>--.- %</t>
+        </is>
+      </c>
+      <c r="BF22" t="inlineStr">
+        <is>
+          <t>43 %</t>
+        </is>
+      </c>
+      <c r="BG22" t="inlineStr">
+        <is>
+          <t>--.- %</t>
+        </is>
+      </c>
+      <c r="BH22" t="inlineStr">
+        <is>
+          <t>43 %</t>
+        </is>
+      </c>
+      <c r="BI22" t="inlineStr">
+        <is>
+          <t>146030620</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/SampleData.xlsx
+++ b/SampleData.xlsx
@@ -412,7 +412,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BI22"/>
+  <dimension ref="A1:BI23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
@@ -7214,6 +7214,313 @@
         </is>
       </c>
     </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2022-01-21 15:50:51</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>15.1 °C</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>23.6 °C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>-0.8 °C</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>**.* °C</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>23.8 °C</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>**.* °C</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>40 %</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>**.* %</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>0 mV</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>0 mV</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>**.* mV</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>**.* mV</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>34 %</t>
+        </is>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>70 %</t>
+        </is>
+      </c>
+      <c r="Y23" t="inlineStr">
+        <is>
+          <t>#.## g/m³</t>
+        </is>
+      </c>
+      <c r="Z23" t="inlineStr">
+        <is>
+          <t>8.60 g/m³</t>
+        </is>
+      </c>
+      <c r="AA23" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="AB23" t="inlineStr">
+        <is>
+          <t>7:00-22:00</t>
+        </is>
+      </c>
+      <c r="AC23" t="inlineStr">
+        <is>
+          <t>AWAY              22:00</t>
+        </is>
+      </c>
+      <c r="AD23" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="AE23" t="inlineStr">
+        <is>
+          <t>15.1 °C</t>
+        </is>
+      </c>
+      <c r="AF23" t="inlineStr">
+        <is>
+          <t>23.7 °C</t>
+        </is>
+      </c>
+      <c r="AG23" t="inlineStr">
+        <is>
+          <t>-0.5 °C</t>
+        </is>
+      </c>
+      <c r="AH23" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI23" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AJ23" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AK23" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AL23" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AM23" t="inlineStr">
+        <is>
+          <t>34 %</t>
+        </is>
+      </c>
+      <c r="AN23" t="inlineStr">
+        <is>
+          <t>89 %</t>
+        </is>
+      </c>
+      <c r="AO23" t="inlineStr">
+        <is>
+          <t>1169 W</t>
+        </is>
+      </c>
+      <c r="AP23" t="inlineStr">
+        <is>
+          <t>536 W</t>
+        </is>
+      </c>
+      <c r="AQ23" t="inlineStr">
+        <is>
+          <t>500 W</t>
+        </is>
+      </c>
+      <c r="AR23" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="AS23" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="AT23" t="inlineStr">
+        <is>
+          <t>5.37 kWh</t>
+        </is>
+      </c>
+      <c r="AU23" t="inlineStr">
+        <is>
+          <t>292.75 kWh</t>
+        </is>
+      </c>
+      <c r="AV23" t="inlineStr">
+        <is>
+          <t>2717.65 kWh</t>
+        </is>
+      </c>
+      <c r="AW23" t="inlineStr">
+        <is>
+          <t>4.91 kWh</t>
+        </is>
+      </c>
+      <c r="AX23" t="inlineStr">
+        <is>
+          <t>270.80 kWh</t>
+        </is>
+      </c>
+      <c r="AY23" t="inlineStr">
+        <is>
+          <t>2165.03 kWh</t>
+        </is>
+      </c>
+      <c r="AZ23" t="inlineStr">
+        <is>
+          <t>12.27 kWh</t>
+        </is>
+      </c>
+      <c r="BA23" t="inlineStr">
+        <is>
+          <t>644.54 kWh</t>
+        </is>
+      </c>
+      <c r="BB23" t="inlineStr">
+        <is>
+          <t>8321.71 kWh</t>
+        </is>
+      </c>
+      <c r="BC23" t="inlineStr">
+        <is>
+          <t>19.0 °C</t>
+        </is>
+      </c>
+      <c r="BD23" t="inlineStr">
+        <is>
+          <t>--.- °C</t>
+        </is>
+      </c>
+      <c r="BE23" t="inlineStr">
+        <is>
+          <t>--.- %</t>
+        </is>
+      </c>
+      <c r="BF23" t="inlineStr">
+        <is>
+          <t>40 %</t>
+        </is>
+      </c>
+      <c r="BG23" t="inlineStr">
+        <is>
+          <t>--.- %</t>
+        </is>
+      </c>
+      <c r="BH23" t="inlineStr">
+        <is>
+          <t>40 %</t>
+        </is>
+      </c>
+      <c r="BI23" t="inlineStr">
+        <is>
+          <t>146030620</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/SampleData.xlsx
+++ b/SampleData.xlsx
@@ -412,7 +412,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BI23"/>
+  <dimension ref="A1:BI25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
@@ -7521,6 +7521,620 @@
         </is>
       </c>
     </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2022-01-22 13:02:20</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>14.4 °C</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>23.5 °C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>-1.1 °C</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>**.* °C</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>23.8 °C</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>**.* °C</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>41 %</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>**.* %</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>0 mV</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>0 mV</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>**.* mV</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>**.* mV</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>35 %</t>
+        </is>
+      </c>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>70 %</t>
+        </is>
+      </c>
+      <c r="Y24" t="inlineStr">
+        <is>
+          <t>#.## g/m³</t>
+        </is>
+      </c>
+      <c r="Z24" t="inlineStr">
+        <is>
+          <t>8.81 g/m³</t>
+        </is>
+      </c>
+      <c r="AA24" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="AB24" t="inlineStr">
+        <is>
+          <t>7:00-22:00</t>
+        </is>
+      </c>
+      <c r="AC24" t="inlineStr">
+        <is>
+          <t>AWAY              22:00</t>
+        </is>
+      </c>
+      <c r="AD24" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="AE24" t="inlineStr">
+        <is>
+          <t>14.4 °C</t>
+        </is>
+      </c>
+      <c r="AF24" t="inlineStr">
+        <is>
+          <t>23.6 °C</t>
+        </is>
+      </c>
+      <c r="AG24" t="inlineStr">
+        <is>
+          <t>-1.0 °C</t>
+        </is>
+      </c>
+      <c r="AH24" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI24" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AJ24" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AK24" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AL24" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AM24" t="inlineStr">
+        <is>
+          <t>35 %</t>
+        </is>
+      </c>
+      <c r="AN24" t="inlineStr">
+        <is>
+          <t>90 %</t>
+        </is>
+      </c>
+      <c r="AO24" t="inlineStr">
+        <is>
+          <t>1206 W</t>
+        </is>
+      </c>
+      <c r="AP24" t="inlineStr">
+        <is>
+          <t>537 W</t>
+        </is>
+      </c>
+      <c r="AQ24" t="inlineStr">
+        <is>
+          <t>500 W</t>
+        </is>
+      </c>
+      <c r="AR24" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="AS24" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="AT24" t="inlineStr">
+        <is>
+          <t>3.95 kWh</t>
+        </is>
+      </c>
+      <c r="AU24" t="inlineStr">
+        <is>
+          <t>290.44 kWh</t>
+        </is>
+      </c>
+      <c r="AV24" t="inlineStr">
+        <is>
+          <t>2725.51 kWh</t>
+        </is>
+      </c>
+      <c r="AW24" t="inlineStr">
+        <is>
+          <t>3.59 kWh</t>
+        </is>
+      </c>
+      <c r="AX24" t="inlineStr">
+        <is>
+          <t>268.61 kWh</t>
+        </is>
+      </c>
+      <c r="AY24" t="inlineStr">
+        <is>
+          <t>2172.26 kWh</t>
+        </is>
+      </c>
+      <c r="AZ24" t="inlineStr">
+        <is>
+          <t>9.43 kWh</t>
+        </is>
+      </c>
+      <c r="BA24" t="inlineStr">
+        <is>
+          <t>639.94 kWh</t>
+        </is>
+      </c>
+      <c r="BB24" t="inlineStr">
+        <is>
+          <t>8339.10 kWh</t>
+        </is>
+      </c>
+      <c r="BC24" t="inlineStr">
+        <is>
+          <t>19.0 °C</t>
+        </is>
+      </c>
+      <c r="BD24" t="inlineStr">
+        <is>
+          <t>--.- °C</t>
+        </is>
+      </c>
+      <c r="BE24" t="inlineStr">
+        <is>
+          <t>--.- %</t>
+        </is>
+      </c>
+      <c r="BF24" t="inlineStr">
+        <is>
+          <t>41 %</t>
+        </is>
+      </c>
+      <c r="BG24" t="inlineStr">
+        <is>
+          <t>--.- %</t>
+        </is>
+      </c>
+      <c r="BH24" t="inlineStr">
+        <is>
+          <t>41 %</t>
+        </is>
+      </c>
+      <c r="BI24" t="inlineStr">
+        <is>
+          <t>146030620</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2022-01-23 10:26:16</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>13.0 °C</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>23.6 °C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>-2.8 °C</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>**.* °C</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>24.0 °C</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>**.* °C</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>41 %</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>**.* %</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>0 mV</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>5 mV</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>**.* mV</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>**.* mV</t>
+        </is>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="W25" t="inlineStr">
+        <is>
+          <t>35 %</t>
+        </is>
+      </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>71 %</t>
+        </is>
+      </c>
+      <c r="Y25" t="inlineStr">
+        <is>
+          <t>#.## g/m³</t>
+        </is>
+      </c>
+      <c r="Z25" t="inlineStr">
+        <is>
+          <t>8.92 g/m³</t>
+        </is>
+      </c>
+      <c r="AA25" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="AB25" t="inlineStr">
+        <is>
+          <t>7:00-22:00</t>
+        </is>
+      </c>
+      <c r="AC25" t="inlineStr">
+        <is>
+          <t>AWAY              22:00</t>
+        </is>
+      </c>
+      <c r="AD25" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="AE25" t="inlineStr">
+        <is>
+          <t>13.0 °C</t>
+        </is>
+      </c>
+      <c r="AF25" t="inlineStr">
+        <is>
+          <t>23.6 °C</t>
+        </is>
+      </c>
+      <c r="AG25" t="inlineStr">
+        <is>
+          <t>-2.7 °C</t>
+        </is>
+      </c>
+      <c r="AH25" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI25" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AJ25" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AK25" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AL25" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AM25" t="inlineStr">
+        <is>
+          <t>35 %</t>
+        </is>
+      </c>
+      <c r="AN25" t="inlineStr">
+        <is>
+          <t>90 %</t>
+        </is>
+      </c>
+      <c r="AO25" t="inlineStr">
+        <is>
+          <t>1276 W</t>
+        </is>
+      </c>
+      <c r="AP25" t="inlineStr">
+        <is>
+          <t>537 W</t>
+        </is>
+      </c>
+      <c r="AQ25" t="inlineStr">
+        <is>
+          <t>500 W</t>
+        </is>
+      </c>
+      <c r="AR25" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="AS25" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="AT25" t="inlineStr">
+        <is>
+          <t>5.29 kWh</t>
+        </is>
+      </c>
+      <c r="AU25" t="inlineStr">
+        <is>
+          <t>292.13 kWh</t>
+        </is>
+      </c>
+      <c r="AV25" t="inlineStr">
+        <is>
+          <t>2736.66 kWh</t>
+        </is>
+      </c>
+      <c r="AW25" t="inlineStr">
+        <is>
+          <t>5.02 kWh</t>
+        </is>
+      </c>
+      <c r="AX25" t="inlineStr">
+        <is>
+          <t>270.41 kWh</t>
+        </is>
+      </c>
+      <c r="AY25" t="inlineStr">
+        <is>
+          <t>2182.77 kWh</t>
+        </is>
+      </c>
+      <c r="AZ25" t="inlineStr">
+        <is>
+          <t>6.65 kWh</t>
+        </is>
+      </c>
+      <c r="BA25" t="inlineStr">
+        <is>
+          <t>632.49 kWh</t>
+        </is>
+      </c>
+      <c r="BB25" t="inlineStr">
+        <is>
+          <t>8357.57 kWh</t>
+        </is>
+      </c>
+      <c r="BC25" t="inlineStr">
+        <is>
+          <t>19.0 °C</t>
+        </is>
+      </c>
+      <c r="BD25" t="inlineStr">
+        <is>
+          <t>--.- °C</t>
+        </is>
+      </c>
+      <c r="BE25" t="inlineStr">
+        <is>
+          <t>--.- %</t>
+        </is>
+      </c>
+      <c r="BF25" t="inlineStr">
+        <is>
+          <t>41 %</t>
+        </is>
+      </c>
+      <c r="BG25" t="inlineStr">
+        <is>
+          <t>--.- %</t>
+        </is>
+      </c>
+      <c r="BH25" t="inlineStr">
+        <is>
+          <t>41 %</t>
+        </is>
+      </c>
+      <c r="BI25" t="inlineStr">
+        <is>
+          <t>146030620</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/SampleData.xlsx
+++ b/SampleData.xlsx
@@ -412,7 +412,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BI25"/>
+  <dimension ref="A1:BI28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
@@ -8135,6 +8135,927 @@
         </is>
       </c>
     </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2022-01-23 17:46:09</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>15.7 °C</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>24.3 °C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.3 °C</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>**.* °C</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>24.0 °C</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>**.* °C</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>43 %</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>**.* %</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>0 mV</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>0 mV</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>**.* mV</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>**.* mV</t>
+        </is>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>36 %</t>
+        </is>
+      </c>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>68 %</t>
+        </is>
+      </c>
+      <c r="Y26" t="inlineStr">
+        <is>
+          <t>#.## g/m³</t>
+        </is>
+      </c>
+      <c r="Z26" t="inlineStr">
+        <is>
+          <t>9.35 g/m³</t>
+        </is>
+      </c>
+      <c r="AA26" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="AB26" t="inlineStr">
+        <is>
+          <t>7:00-22:00</t>
+        </is>
+      </c>
+      <c r="AC26" t="inlineStr">
+        <is>
+          <t>AWAY              22:00</t>
+        </is>
+      </c>
+      <c r="AD26" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="AE26" t="inlineStr">
+        <is>
+          <t>15.9 °C</t>
+        </is>
+      </c>
+      <c r="AF26" t="inlineStr">
+        <is>
+          <t>24.3 °C</t>
+        </is>
+      </c>
+      <c r="AG26" t="inlineStr">
+        <is>
+          <t>1.3 °C</t>
+        </is>
+      </c>
+      <c r="AH26" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI26" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AJ26" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AK26" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AL26" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AM26" t="inlineStr">
+        <is>
+          <t>36 %</t>
+        </is>
+      </c>
+      <c r="AN26" t="inlineStr">
+        <is>
+          <t>90 %</t>
+        </is>
+      </c>
+      <c r="AO26" t="inlineStr">
+        <is>
+          <t>1116 W</t>
+        </is>
+      </c>
+      <c r="AP26" t="inlineStr">
+        <is>
+          <t>537 W</t>
+        </is>
+      </c>
+      <c r="AQ26" t="inlineStr">
+        <is>
+          <t>500 W</t>
+        </is>
+      </c>
+      <c r="AR26" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="AS26" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="AT26" t="inlineStr">
+        <is>
+          <t>9.23 kWh</t>
+        </is>
+      </c>
+      <c r="AU26" t="inlineStr">
+        <is>
+          <t>296.07 kWh</t>
+        </is>
+      </c>
+      <c r="AV26" t="inlineStr">
+        <is>
+          <t>2740.59 kWh</t>
+        </is>
+      </c>
+      <c r="AW26" t="inlineStr">
+        <is>
+          <t>8.68 kWh</t>
+        </is>
+      </c>
+      <c r="AX26" t="inlineStr">
+        <is>
+          <t>274.08 kWh</t>
+        </is>
+      </c>
+      <c r="AY26" t="inlineStr">
+        <is>
+          <t>2186.44 kWh</t>
+        </is>
+      </c>
+      <c r="AZ26" t="inlineStr">
+        <is>
+          <t>15.32 kWh</t>
+        </is>
+      </c>
+      <c r="BA26" t="inlineStr">
+        <is>
+          <t>641.15 kWh</t>
+        </is>
+      </c>
+      <c r="BB26" t="inlineStr">
+        <is>
+          <t>8366.24 kWh</t>
+        </is>
+      </c>
+      <c r="BC26" t="inlineStr">
+        <is>
+          <t>19.0 °C</t>
+        </is>
+      </c>
+      <c r="BD26" t="inlineStr">
+        <is>
+          <t>--.- °C</t>
+        </is>
+      </c>
+      <c r="BE26" t="inlineStr">
+        <is>
+          <t>--.- %</t>
+        </is>
+      </c>
+      <c r="BF26" t="inlineStr">
+        <is>
+          <t>43 %</t>
+        </is>
+      </c>
+      <c r="BG26" t="inlineStr">
+        <is>
+          <t>--.- %</t>
+        </is>
+      </c>
+      <c r="BH26" t="inlineStr">
+        <is>
+          <t>43 %</t>
+        </is>
+      </c>
+      <c r="BI26" t="inlineStr">
+        <is>
+          <t>144982044</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2022-01-24 15:59:49</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>17.7 °C</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>24.2 °C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3.5 °C</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>**.* °C</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>24.1 °C</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>**.* °C</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>40 %</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>**.* %</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>0 mV</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>0 mV</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>**.* mV</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>**.* mV</t>
+        </is>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="W27" t="inlineStr">
+        <is>
+          <t>36 %</t>
+        </is>
+      </c>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>66 %</t>
+        </is>
+      </c>
+      <c r="Y27" t="inlineStr">
+        <is>
+          <t>#.## g/m³</t>
+        </is>
+      </c>
+      <c r="Z27" t="inlineStr">
+        <is>
+          <t>8.75 g/m³</t>
+        </is>
+      </c>
+      <c r="AA27" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="AB27" t="inlineStr">
+        <is>
+          <t>7:00-22:00</t>
+        </is>
+      </c>
+      <c r="AC27" t="inlineStr">
+        <is>
+          <t>AWAY              22:00</t>
+        </is>
+      </c>
+      <c r="AD27" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="AE27" t="inlineStr">
+        <is>
+          <t>17.6 °C</t>
+        </is>
+      </c>
+      <c r="AF27" t="inlineStr">
+        <is>
+          <t>24.3 °C</t>
+        </is>
+      </c>
+      <c r="AG27" t="inlineStr">
+        <is>
+          <t>3.5 °C</t>
+        </is>
+      </c>
+      <c r="AH27" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI27" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AJ27" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AK27" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AL27" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AM27" t="inlineStr">
+        <is>
+          <t>36 %</t>
+        </is>
+      </c>
+      <c r="AN27" t="inlineStr">
+        <is>
+          <t>89 %</t>
+        </is>
+      </c>
+      <c r="AO27" t="inlineStr">
+        <is>
+          <t>982 W</t>
+        </is>
+      </c>
+      <c r="AP27" t="inlineStr">
+        <is>
+          <t>537 W</t>
+        </is>
+      </c>
+      <c r="AQ27" t="inlineStr">
+        <is>
+          <t>500 W</t>
+        </is>
+      </c>
+      <c r="AR27" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="AS27" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="AT27" t="inlineStr">
+        <is>
+          <t>5.60 kWh</t>
+        </is>
+      </c>
+      <c r="AU27" t="inlineStr">
+        <is>
+          <t>291.73 kWh</t>
+        </is>
+      </c>
+      <c r="AV27" t="inlineStr">
+        <is>
+          <t>2748.82 kWh</t>
+        </is>
+      </c>
+      <c r="AW27" t="inlineStr">
+        <is>
+          <t>5.13 kWh</t>
+        </is>
+      </c>
+      <c r="AX27" t="inlineStr">
+        <is>
+          <t>269.81 kWh</t>
+        </is>
+      </c>
+      <c r="AY27" t="inlineStr">
+        <is>
+          <t>2193.99 kWh</t>
+        </is>
+      </c>
+      <c r="AZ27" t="inlineStr">
+        <is>
+          <t>11.06 kWh</t>
+        </is>
+      </c>
+      <c r="BA27" t="inlineStr">
+        <is>
+          <t>631.80 kWh</t>
+        </is>
+      </c>
+      <c r="BB27" t="inlineStr">
+        <is>
+          <t>8382.45 kWh</t>
+        </is>
+      </c>
+      <c r="BC27" t="inlineStr">
+        <is>
+          <t>19.0 °C</t>
+        </is>
+      </c>
+      <c r="BD27" t="inlineStr">
+        <is>
+          <t>--.- °C</t>
+        </is>
+      </c>
+      <c r="BE27" t="inlineStr">
+        <is>
+          <t>--.- %</t>
+        </is>
+      </c>
+      <c r="BF27" t="inlineStr">
+        <is>
+          <t>40 %</t>
+        </is>
+      </c>
+      <c r="BG27" t="inlineStr">
+        <is>
+          <t>--.- %</t>
+        </is>
+      </c>
+      <c r="BH27" t="inlineStr">
+        <is>
+          <t>40 %</t>
+        </is>
+      </c>
+      <c r="BI27" t="inlineStr">
+        <is>
+          <t>146030620</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2022-01-24 16:01:56</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>17.5 °C</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>24.1 °C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3.4 °C</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>**.* °C</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>24.2 °C</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>**.* °C</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>40 %</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>**.* %</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>0 mV</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>0 mV</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>**.* mV</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>**.* mV</t>
+        </is>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>36 %</t>
+        </is>
+      </c>
+      <c r="X28" t="inlineStr">
+        <is>
+          <t>66 %</t>
+        </is>
+      </c>
+      <c r="Y28" t="inlineStr">
+        <is>
+          <t>#.## g/m³</t>
+        </is>
+      </c>
+      <c r="Z28" t="inlineStr">
+        <is>
+          <t>8.80 g/m³</t>
+        </is>
+      </c>
+      <c r="AA28" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="AB28" t="inlineStr">
+        <is>
+          <t>7:00-22:00</t>
+        </is>
+      </c>
+      <c r="AC28" t="inlineStr">
+        <is>
+          <t>AWAY              22:00</t>
+        </is>
+      </c>
+      <c r="AD28" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="AE28" t="inlineStr">
+        <is>
+          <t>17.4 °C</t>
+        </is>
+      </c>
+      <c r="AF28" t="inlineStr">
+        <is>
+          <t>24.0 °C</t>
+        </is>
+      </c>
+      <c r="AG28" t="inlineStr">
+        <is>
+          <t>3.5 °C</t>
+        </is>
+      </c>
+      <c r="AH28" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI28" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AJ28" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AK28" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AL28" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AM28" t="inlineStr">
+        <is>
+          <t>36 %</t>
+        </is>
+      </c>
+      <c r="AN28" t="inlineStr">
+        <is>
+          <t>89 %</t>
+        </is>
+      </c>
+      <c r="AO28" t="inlineStr">
+        <is>
+          <t>987 W</t>
+        </is>
+      </c>
+      <c r="AP28" t="inlineStr">
+        <is>
+          <t>537 W</t>
+        </is>
+      </c>
+      <c r="AQ28" t="inlineStr">
+        <is>
+          <t>500 W</t>
+        </is>
+      </c>
+      <c r="AR28" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="AS28" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="AT28" t="inlineStr">
+        <is>
+          <t>5.62 kWh</t>
+        </is>
+      </c>
+      <c r="AU28" t="inlineStr">
+        <is>
+          <t>291.75 kWh</t>
+        </is>
+      </c>
+      <c r="AV28" t="inlineStr">
+        <is>
+          <t>2748.84 kWh</t>
+        </is>
+      </c>
+      <c r="AW28" t="inlineStr">
+        <is>
+          <t>5.15 kWh</t>
+        </is>
+      </c>
+      <c r="AX28" t="inlineStr">
+        <is>
+          <t>269.82 kWh</t>
+        </is>
+      </c>
+      <c r="AY28" t="inlineStr">
+        <is>
+          <t>2194.01 kWh</t>
+        </is>
+      </c>
+      <c r="AZ28" t="inlineStr">
+        <is>
+          <t>11.09 kWh</t>
+        </is>
+      </c>
+      <c r="BA28" t="inlineStr">
+        <is>
+          <t>631.84 kWh</t>
+        </is>
+      </c>
+      <c r="BB28" t="inlineStr">
+        <is>
+          <t>8382.48 kWh</t>
+        </is>
+      </c>
+      <c r="BC28" t="inlineStr">
+        <is>
+          <t>19.0 °C</t>
+        </is>
+      </c>
+      <c r="BD28" t="inlineStr">
+        <is>
+          <t>--.- °C</t>
+        </is>
+      </c>
+      <c r="BE28" t="inlineStr">
+        <is>
+          <t>--.- %</t>
+        </is>
+      </c>
+      <c r="BF28" t="inlineStr">
+        <is>
+          <t>40 %</t>
+        </is>
+      </c>
+      <c r="BG28" t="inlineStr">
+        <is>
+          <t>--.- %</t>
+        </is>
+      </c>
+      <c r="BH28" t="inlineStr">
+        <is>
+          <t>40 %</t>
+        </is>
+      </c>
+      <c r="BI28" t="inlineStr">
+        <is>
+          <t>146030620</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/SampleData.xlsx
+++ b/SampleData.xlsx
@@ -412,7 +412,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BI28"/>
+  <dimension ref="A1:BI30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
@@ -9056,6 +9056,620 @@
         </is>
       </c>
     </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2022-01-25 18:21:29</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>14.5 °C</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>23.6 °C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>-0.7 °C</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>**.* °C</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>23.9 °C</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>**.* °C</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>38 %</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>**.* %</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>0 mV</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>0 mV</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>**.* mV</t>
+        </is>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>**.* mV</t>
+        </is>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>37 %</t>
+        </is>
+      </c>
+      <c r="X29" t="inlineStr">
+        <is>
+          <t>69 %</t>
+        </is>
+      </c>
+      <c r="Y29" t="inlineStr">
+        <is>
+          <t>#.## g/m³</t>
+        </is>
+      </c>
+      <c r="Z29" t="inlineStr">
+        <is>
+          <t>8.22 g/m³</t>
+        </is>
+      </c>
+      <c r="AA29" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="AB29" t="inlineStr">
+        <is>
+          <t>7:00-22:00</t>
+        </is>
+      </c>
+      <c r="AC29" t="inlineStr">
+        <is>
+          <t>AWAY              22:00</t>
+        </is>
+      </c>
+      <c r="AD29" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="AE29" t="inlineStr">
+        <is>
+          <t>14.5 °C</t>
+        </is>
+      </c>
+      <c r="AF29" t="inlineStr">
+        <is>
+          <t>23.6 °C</t>
+        </is>
+      </c>
+      <c r="AG29" t="inlineStr">
+        <is>
+          <t>-0.5 °C</t>
+        </is>
+      </c>
+      <c r="AH29" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI29" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AJ29" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AK29" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AL29" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AM29" t="inlineStr">
+        <is>
+          <t>37 %</t>
+        </is>
+      </c>
+      <c r="AN29" t="inlineStr">
+        <is>
+          <t>89 %</t>
+        </is>
+      </c>
+      <c r="AO29" t="inlineStr">
+        <is>
+          <t>1169 W</t>
+        </is>
+      </c>
+      <c r="AP29" t="inlineStr">
+        <is>
+          <t>537 W</t>
+        </is>
+      </c>
+      <c r="AQ29" t="inlineStr">
+        <is>
+          <t>500 W</t>
+        </is>
+      </c>
+      <c r="AR29" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="AS29" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="AT29" t="inlineStr">
+        <is>
+          <t>6.24 kWh</t>
+        </is>
+      </c>
+      <c r="AU29" t="inlineStr">
+        <is>
+          <t>289.25 kWh</t>
+        </is>
+      </c>
+      <c r="AV29" t="inlineStr">
+        <is>
+          <t>2758.54 kWh</t>
+        </is>
+      </c>
+      <c r="AW29" t="inlineStr">
+        <is>
+          <t>5.68 kWh</t>
+        </is>
+      </c>
+      <c r="AX29" t="inlineStr">
+        <is>
+          <t>267.25 kWh</t>
+        </is>
+      </c>
+      <c r="AY29" t="inlineStr">
+        <is>
+          <t>2202.89 kWh</t>
+        </is>
+      </c>
+      <c r="AZ29" t="inlineStr">
+        <is>
+          <t>13.16 kWh</t>
+        </is>
+      </c>
+      <c r="BA29" t="inlineStr">
+        <is>
+          <t>624.88 kWh</t>
+        </is>
+      </c>
+      <c r="BB29" t="inlineStr">
+        <is>
+          <t>8401.95 kWh</t>
+        </is>
+      </c>
+      <c r="BC29" t="inlineStr">
+        <is>
+          <t>19.0 °C</t>
+        </is>
+      </c>
+      <c r="BD29" t="inlineStr">
+        <is>
+          <t>--.- °C</t>
+        </is>
+      </c>
+      <c r="BE29" t="inlineStr">
+        <is>
+          <t>--.- %</t>
+        </is>
+      </c>
+      <c r="BF29" t="inlineStr">
+        <is>
+          <t>38 %</t>
+        </is>
+      </c>
+      <c r="BG29" t="inlineStr">
+        <is>
+          <t>--.- %</t>
+        </is>
+      </c>
+      <c r="BH29" t="inlineStr">
+        <is>
+          <t>38 %</t>
+        </is>
+      </c>
+      <c r="BI29" t="inlineStr">
+        <is>
+          <t>146030620</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2022-01-26 17:39:50</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>15.0 °C</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>23.8 °C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.7 °C</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>**.* °C</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>24.7 °C</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>**.* °C</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>40 %</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>**.* %</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>0 mV</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>0 mV</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>**.* mV</t>
+        </is>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>**.* mV</t>
+        </is>
+      </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>38 %</t>
+        </is>
+      </c>
+      <c r="X30" t="inlineStr">
+        <is>
+          <t>69 %</t>
+        </is>
+      </c>
+      <c r="Y30" t="inlineStr">
+        <is>
+          <t>#.## g/m³</t>
+        </is>
+      </c>
+      <c r="Z30" t="inlineStr">
+        <is>
+          <t>9.05 g/m³</t>
+        </is>
+      </c>
+      <c r="AA30" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="AB30" t="inlineStr">
+        <is>
+          <t>7:00-22:00</t>
+        </is>
+      </c>
+      <c r="AC30" t="inlineStr">
+        <is>
+          <t>AWAY              22:00</t>
+        </is>
+      </c>
+      <c r="AD30" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="AE30" t="inlineStr">
+        <is>
+          <t>15.1 °C</t>
+        </is>
+      </c>
+      <c r="AF30" t="inlineStr">
+        <is>
+          <t>23.7 °C</t>
+        </is>
+      </c>
+      <c r="AG30" t="inlineStr">
+        <is>
+          <t>0.7 °C</t>
+        </is>
+      </c>
+      <c r="AH30" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI30" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AJ30" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AK30" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AL30" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AM30" t="inlineStr">
+        <is>
+          <t>38 %</t>
+        </is>
+      </c>
+      <c r="AN30" t="inlineStr">
+        <is>
+          <t>91 %</t>
+        </is>
+      </c>
+      <c r="AO30" t="inlineStr">
+        <is>
+          <t>1132 W</t>
+        </is>
+      </c>
+      <c r="AP30" t="inlineStr">
+        <is>
+          <t>537 W</t>
+        </is>
+      </c>
+      <c r="AQ30" t="inlineStr">
+        <is>
+          <t>500 W</t>
+        </is>
+      </c>
+      <c r="AR30" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="AS30" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="AT30" t="inlineStr">
+        <is>
+          <t>9.02 kWh</t>
+        </is>
+      </c>
+      <c r="AU30" t="inlineStr">
+        <is>
+          <t>291.36 kWh</t>
+        </is>
+      </c>
+      <c r="AV30" t="inlineStr">
+        <is>
+          <t>2770.51 kWh</t>
+        </is>
+      </c>
+      <c r="AW30" t="inlineStr">
+        <is>
+          <t>8.48 kWh</t>
+        </is>
+      </c>
+      <c r="AX30" t="inlineStr">
+        <is>
+          <t>269.38 kWh</t>
+        </is>
+      </c>
+      <c r="AY30" t="inlineStr">
+        <is>
+          <t>2214.14 kWh</t>
+        </is>
+      </c>
+      <c r="AZ30" t="inlineStr">
+        <is>
+          <t>15.21 kWh</t>
+        </is>
+      </c>
+      <c r="BA30" t="inlineStr">
+        <is>
+          <t>621.19 kWh</t>
+        </is>
+      </c>
+      <c r="BB30" t="inlineStr">
+        <is>
+          <t>8422.06 kWh</t>
+        </is>
+      </c>
+      <c r="BC30" t="inlineStr">
+        <is>
+          <t>19.0 °C</t>
+        </is>
+      </c>
+      <c r="BD30" t="inlineStr">
+        <is>
+          <t>--.- °C</t>
+        </is>
+      </c>
+      <c r="BE30" t="inlineStr">
+        <is>
+          <t>--.- %</t>
+        </is>
+      </c>
+      <c r="BF30" t="inlineStr">
+        <is>
+          <t>40 %</t>
+        </is>
+      </c>
+      <c r="BG30" t="inlineStr">
+        <is>
+          <t>--.- %</t>
+        </is>
+      </c>
+      <c r="BH30" t="inlineStr">
+        <is>
+          <t>40 %</t>
+        </is>
+      </c>
+      <c r="BI30" t="inlineStr">
+        <is>
+          <t>146030620</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/SampleData.xlsx
+++ b/SampleData.xlsx
@@ -412,7 +412,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BI30"/>
+  <dimension ref="A1:BI31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
@@ -9670,6 +9670,313 @@
         </is>
       </c>
     </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2022-01-27 16:24:17</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>16.2 °C</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>23.8 °C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.9 °C</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>**.* °C</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>23.7 °C</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>**.* °C</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>41 %</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>**.* %</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>0 mV</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>0 mV</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>**.* mV</t>
+        </is>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>**.* mV</t>
+        </is>
+      </c>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>38 %</t>
+        </is>
+      </c>
+      <c r="X31" t="inlineStr">
+        <is>
+          <t>68 %</t>
+        </is>
+      </c>
+      <c r="Y31" t="inlineStr">
+        <is>
+          <t>#.## g/m³</t>
+        </is>
+      </c>
+      <c r="Z31" t="inlineStr">
+        <is>
+          <t>8.77 g/m³</t>
+        </is>
+      </c>
+      <c r="AA31" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="AB31" t="inlineStr">
+        <is>
+          <t>7:00-22:00</t>
+        </is>
+      </c>
+      <c r="AC31" t="inlineStr">
+        <is>
+          <t>AWAY              22:00</t>
+        </is>
+      </c>
+      <c r="AD31" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="AE31" t="inlineStr">
+        <is>
+          <t>16.3 °C</t>
+        </is>
+      </c>
+      <c r="AF31" t="inlineStr">
+        <is>
+          <t>23.9 °C</t>
+        </is>
+      </c>
+      <c r="AG31" t="inlineStr">
+        <is>
+          <t>1.9 °C</t>
+        </is>
+      </c>
+      <c r="AH31" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI31" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AJ31" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AK31" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AL31" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AM31" t="inlineStr">
+        <is>
+          <t>38 %</t>
+        </is>
+      </c>
+      <c r="AN31" t="inlineStr">
+        <is>
+          <t>89 %</t>
+        </is>
+      </c>
+      <c r="AO31" t="inlineStr">
+        <is>
+          <t>1052 W</t>
+        </is>
+      </c>
+      <c r="AP31" t="inlineStr">
+        <is>
+          <t>536 W</t>
+        </is>
+      </c>
+      <c r="AQ31" t="inlineStr">
+        <is>
+          <t>500 W</t>
+        </is>
+      </c>
+      <c r="AR31" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="AS31" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="AT31" t="inlineStr">
+        <is>
+          <t>5.75 kWh</t>
+        </is>
+      </c>
+      <c r="AU31" t="inlineStr">
+        <is>
+          <t>287.13 kWh</t>
+        </is>
+      </c>
+      <c r="AV31" t="inlineStr">
+        <is>
+          <t>2779.01 kWh</t>
+        </is>
+      </c>
+      <c r="AW31" t="inlineStr">
+        <is>
+          <t>5.26 kWh</t>
+        </is>
+      </c>
+      <c r="AX31" t="inlineStr">
+        <is>
+          <t>265.21 kWh</t>
+        </is>
+      </c>
+      <c r="AY31" t="inlineStr">
+        <is>
+          <t>2221.95 kWh</t>
+        </is>
+      </c>
+      <c r="AZ31" t="inlineStr">
+        <is>
+          <t>11.90 kWh</t>
+        </is>
+      </c>
+      <c r="BA31" t="inlineStr">
+        <is>
+          <t>614.70 kWh</t>
+        </is>
+      </c>
+      <c r="BB31" t="inlineStr">
+        <is>
+          <t>8439.50 kWh</t>
+        </is>
+      </c>
+      <c r="BC31" t="inlineStr">
+        <is>
+          <t>19.0 °C</t>
+        </is>
+      </c>
+      <c r="BD31" t="inlineStr">
+        <is>
+          <t>--.- °C</t>
+        </is>
+      </c>
+      <c r="BE31" t="inlineStr">
+        <is>
+          <t>--.- %</t>
+        </is>
+      </c>
+      <c r="BF31" t="inlineStr">
+        <is>
+          <t>41 %</t>
+        </is>
+      </c>
+      <c r="BG31" t="inlineStr">
+        <is>
+          <t>--.- %</t>
+        </is>
+      </c>
+      <c r="BH31" t="inlineStr">
+        <is>
+          <t>41 %</t>
+        </is>
+      </c>
+      <c r="BI31" t="inlineStr">
+        <is>
+          <t>146030620</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/SampleData.xlsx
+++ b/SampleData.xlsx
@@ -412,7 +412,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BI31"/>
+  <dimension ref="A1:BI33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
@@ -9977,6 +9977,620 @@
         </is>
       </c>
     </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2022-01-28 17:44:05</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>15.6 °C</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>23.7 °C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.6 °C</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>**.* °C</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>23.9 °C</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>**.* °C</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>44 %</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>**.* %</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>0 mV</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>0 mV</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>**.* mV</t>
+        </is>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>**.* mV</t>
+        </is>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>39 %</t>
+        </is>
+      </c>
+      <c r="X32" t="inlineStr">
+        <is>
+          <t>69 %</t>
+        </is>
+      </c>
+      <c r="Y32" t="inlineStr">
+        <is>
+          <t>#.## g/m³</t>
+        </is>
+      </c>
+      <c r="Z32" t="inlineStr">
+        <is>
+          <t>9.52 g/m³</t>
+        </is>
+      </c>
+      <c r="AA32" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="AB32" t="inlineStr">
+        <is>
+          <t>7:00-22:00</t>
+        </is>
+      </c>
+      <c r="AC32" t="inlineStr">
+        <is>
+          <t>AWAY              22:00</t>
+        </is>
+      </c>
+      <c r="AD32" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="AE32" t="inlineStr">
+        <is>
+          <t>15.6 °C</t>
+        </is>
+      </c>
+      <c r="AF32" t="inlineStr">
+        <is>
+          <t>23.6 °C</t>
+        </is>
+      </c>
+      <c r="AG32" t="inlineStr">
+        <is>
+          <t>0.7 °C</t>
+        </is>
+      </c>
+      <c r="AH32" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI32" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AJ32" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AK32" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AL32" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AM32" t="inlineStr">
+        <is>
+          <t>39 %</t>
+        </is>
+      </c>
+      <c r="AN32" t="inlineStr">
+        <is>
+          <t>89 %</t>
+        </is>
+      </c>
+      <c r="AO32" t="inlineStr">
+        <is>
+          <t>1116 W</t>
+        </is>
+      </c>
+      <c r="AP32" t="inlineStr">
+        <is>
+          <t>537 W</t>
+        </is>
+      </c>
+      <c r="AQ32" t="inlineStr">
+        <is>
+          <t>500 W</t>
+        </is>
+      </c>
+      <c r="AR32" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="AS32" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="AT32" t="inlineStr">
+        <is>
+          <t>6.38 kWh</t>
+        </is>
+      </c>
+      <c r="AU32" t="inlineStr">
+        <is>
+          <t>285.02 kWh</t>
+        </is>
+      </c>
+      <c r="AV32" t="inlineStr">
+        <is>
+          <t>2788.75 kWh</t>
+        </is>
+      </c>
+      <c r="AW32" t="inlineStr">
+        <is>
+          <t>5.85 kWh</t>
+        </is>
+      </c>
+      <c r="AX32" t="inlineStr">
+        <is>
+          <t>263.07 kWh</t>
+        </is>
+      </c>
+      <c r="AY32" t="inlineStr">
+        <is>
+          <t>2230.91 kWh</t>
+        </is>
+      </c>
+      <c r="AZ32" t="inlineStr">
+        <is>
+          <t>13.60 kWh</t>
+        </is>
+      </c>
+      <c r="BA32" t="inlineStr">
+        <is>
+          <t>609.35 kWh</t>
+        </is>
+      </c>
+      <c r="BB32" t="inlineStr">
+        <is>
+          <t>8459.64 kWh</t>
+        </is>
+      </c>
+      <c r="BC32" t="inlineStr">
+        <is>
+          <t>19.0 °C</t>
+        </is>
+      </c>
+      <c r="BD32" t="inlineStr">
+        <is>
+          <t>--.- °C</t>
+        </is>
+      </c>
+      <c r="BE32" t="inlineStr">
+        <is>
+          <t>--.- %</t>
+        </is>
+      </c>
+      <c r="BF32" t="inlineStr">
+        <is>
+          <t>44 %</t>
+        </is>
+      </c>
+      <c r="BG32" t="inlineStr">
+        <is>
+          <t>--.- %</t>
+        </is>
+      </c>
+      <c r="BH32" t="inlineStr">
+        <is>
+          <t>44 %</t>
+        </is>
+      </c>
+      <c r="BI32" t="inlineStr">
+        <is>
+          <t>144982044</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2022-01-29 11:36:06</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>14.6 °C</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>24.1 °C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>-0.7 °C</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>**.* °C</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>23.8 °C</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>**.* °C</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>39 %</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>**.* %</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>0 mV</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>0 mV</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>**.* mV</t>
+        </is>
+      </c>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>**.* mV</t>
+        </is>
+      </c>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>39 %</t>
+        </is>
+      </c>
+      <c r="X33" t="inlineStr">
+        <is>
+          <t>70 %</t>
+        </is>
+      </c>
+      <c r="Y33" t="inlineStr">
+        <is>
+          <t>#.## g/m³</t>
+        </is>
+      </c>
+      <c r="Z33" t="inlineStr">
+        <is>
+          <t>8.39 g/m³</t>
+        </is>
+      </c>
+      <c r="AA33" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="AB33" t="inlineStr">
+        <is>
+          <t>7:00-22:00</t>
+        </is>
+      </c>
+      <c r="AC33" t="inlineStr">
+        <is>
+          <t>AWAY              22:00</t>
+        </is>
+      </c>
+      <c r="AD33" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="AE33" t="inlineStr">
+        <is>
+          <t>14.5 °C</t>
+        </is>
+      </c>
+      <c r="AF33" t="inlineStr">
+        <is>
+          <t>24.1 °C</t>
+        </is>
+      </c>
+      <c r="AG33" t="inlineStr">
+        <is>
+          <t>-0.5 °C</t>
+        </is>
+      </c>
+      <c r="AH33" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI33" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AJ33" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AK33" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AL33" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AM33" t="inlineStr">
+        <is>
+          <t>39 %</t>
+        </is>
+      </c>
+      <c r="AN33" t="inlineStr">
+        <is>
+          <t>91 %</t>
+        </is>
+      </c>
+      <c r="AO33" t="inlineStr">
+        <is>
+          <t>1222 W</t>
+        </is>
+      </c>
+      <c r="AP33" t="inlineStr">
+        <is>
+          <t>537 W</t>
+        </is>
+      </c>
+      <c r="AQ33" t="inlineStr">
+        <is>
+          <t>500 W</t>
+        </is>
+      </c>
+      <c r="AR33" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="AS33" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="AT33" t="inlineStr">
+        <is>
+          <t>4.49 kWh</t>
+        </is>
+      </c>
+      <c r="AU33" t="inlineStr">
+        <is>
+          <t>282.84 kWh</t>
+        </is>
+      </c>
+      <c r="AV33" t="inlineStr">
+        <is>
+          <t>2796.12 kWh</t>
+        </is>
+      </c>
+      <c r="AW33" t="inlineStr">
+        <is>
+          <t>4.18 kWh</t>
+        </is>
+      </c>
+      <c r="AX33" t="inlineStr">
+        <is>
+          <t>261.13 kWh</t>
+        </is>
+      </c>
+      <c r="AY33" t="inlineStr">
+        <is>
+          <t>2237.77 kWh</t>
+        </is>
+      </c>
+      <c r="AZ33" t="inlineStr">
+        <is>
+          <t>8.16 kWh</t>
+        </is>
+      </c>
+      <c r="BA33" t="inlineStr">
+        <is>
+          <t>597.87 kWh</t>
+        </is>
+      </c>
+      <c r="BB33" t="inlineStr">
+        <is>
+          <t>8473.25 kWh</t>
+        </is>
+      </c>
+      <c r="BC33" t="inlineStr">
+        <is>
+          <t>19.0 °C</t>
+        </is>
+      </c>
+      <c r="BD33" t="inlineStr">
+        <is>
+          <t>--.- °C</t>
+        </is>
+      </c>
+      <c r="BE33" t="inlineStr">
+        <is>
+          <t>--.- %</t>
+        </is>
+      </c>
+      <c r="BF33" t="inlineStr">
+        <is>
+          <t>39 %</t>
+        </is>
+      </c>
+      <c r="BG33" t="inlineStr">
+        <is>
+          <t>--.- %</t>
+        </is>
+      </c>
+      <c r="BH33" t="inlineStr">
+        <is>
+          <t>39 %</t>
+        </is>
+      </c>
+      <c r="BI33" t="inlineStr">
+        <is>
+          <t>146030620</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/SampleData.xlsx
+++ b/SampleData.xlsx
@@ -412,7 +412,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BI33"/>
+  <dimension ref="A1:BI34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
@@ -10591,6 +10591,313 @@
         </is>
       </c>
     </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2022-01-30 09:46:43</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>17.9 °C</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>24.7 °C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.9 °C</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>**.* °C</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>24.6 °C</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>**.* °C</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>40 %</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>**.* %</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>0 mV</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>0 mV</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>**.* mV</t>
+        </is>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>**.* mV</t>
+        </is>
+      </c>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>40 %</t>
+        </is>
+      </c>
+      <c r="X34" t="inlineStr">
+        <is>
+          <t>68 %</t>
+        </is>
+      </c>
+      <c r="Y34" t="inlineStr">
+        <is>
+          <t>#.## g/m³</t>
+        </is>
+      </c>
+      <c r="Z34" t="inlineStr">
+        <is>
+          <t>9.00 g/m³</t>
+        </is>
+      </c>
+      <c r="AA34" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="AB34" t="inlineStr">
+        <is>
+          <t>7:00-22:00</t>
+        </is>
+      </c>
+      <c r="AC34" t="inlineStr">
+        <is>
+          <t>AWAY              22:00</t>
+        </is>
+      </c>
+      <c r="AD34" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="AE34" t="inlineStr">
+        <is>
+          <t>17.8 °C</t>
+        </is>
+      </c>
+      <c r="AF34" t="inlineStr">
+        <is>
+          <t>24.7 °C</t>
+        </is>
+      </c>
+      <c r="AG34" t="inlineStr">
+        <is>
+          <t>2.0 °C</t>
+        </is>
+      </c>
+      <c r="AH34" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI34" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AJ34" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AK34" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AL34" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AM34" t="inlineStr">
+        <is>
+          <t>40 %</t>
+        </is>
+      </c>
+      <c r="AN34" t="inlineStr">
+        <is>
+          <t>88 %</t>
+        </is>
+      </c>
+      <c r="AO34" t="inlineStr">
+        <is>
+          <t>1089 W</t>
+        </is>
+      </c>
+      <c r="AP34" t="inlineStr">
+        <is>
+          <t>536 W</t>
+        </is>
+      </c>
+      <c r="AQ34" t="inlineStr">
+        <is>
+          <t>500 W</t>
+        </is>
+      </c>
+      <c r="AR34" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="AS34" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="AT34" t="inlineStr">
+        <is>
+          <t>2.55 kWh</t>
+        </is>
+      </c>
+      <c r="AU34" t="inlineStr">
+        <is>
+          <t>282.47 kWh</t>
+        </is>
+      </c>
+      <c r="AV34" t="inlineStr">
+        <is>
+          <t>2804.80 kWh</t>
+        </is>
+      </c>
+      <c r="AW34" t="inlineStr">
+        <is>
+          <t>2.31 kWh</t>
+        </is>
+      </c>
+      <c r="AX34" t="inlineStr">
+        <is>
+          <t>260.83 kWh</t>
+        </is>
+      </c>
+      <c r="AY34" t="inlineStr">
+        <is>
+          <t>2245.78 kWh</t>
+        </is>
+      </c>
+      <c r="AZ34" t="inlineStr">
+        <is>
+          <t>5.13 kWh</t>
+        </is>
+      </c>
+      <c r="BA34" t="inlineStr">
+        <is>
+          <t>595.39 kWh</t>
+        </is>
+      </c>
+      <c r="BB34" t="inlineStr">
+        <is>
+          <t>8490.94 kWh</t>
+        </is>
+      </c>
+      <c r="BC34" t="inlineStr">
+        <is>
+          <t>19.0 °C</t>
+        </is>
+      </c>
+      <c r="BD34" t="inlineStr">
+        <is>
+          <t>--.- °C</t>
+        </is>
+      </c>
+      <c r="BE34" t="inlineStr">
+        <is>
+          <t>--.- %</t>
+        </is>
+      </c>
+      <c r="BF34" t="inlineStr">
+        <is>
+          <t>40 %</t>
+        </is>
+      </c>
+      <c r="BG34" t="inlineStr">
+        <is>
+          <t>--.- %</t>
+        </is>
+      </c>
+      <c r="BH34" t="inlineStr">
+        <is>
+          <t>40 %</t>
+        </is>
+      </c>
+      <c r="BI34" t="inlineStr">
+        <is>
+          <t>146030620</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/SampleData.xlsx
+++ b/SampleData.xlsx
@@ -412,7 +412,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BI34"/>
+  <dimension ref="A1:BI38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
@@ -10898,6 +10898,1234 @@
         </is>
       </c>
     </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2022-01-31 18:00:59</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>13.5 °C</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>23.9 °C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>-2.5 °C</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>**.* °C</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>23.9 °C</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>**.* °C</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>42 %</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>**.* %</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>0 mV</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>0 mV</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>**.* mV</t>
+        </is>
+      </c>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>**.* mV</t>
+        </is>
+      </c>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>41 %</t>
+        </is>
+      </c>
+      <c r="X35" t="inlineStr">
+        <is>
+          <t>71 %</t>
+        </is>
+      </c>
+      <c r="Y35" t="inlineStr">
+        <is>
+          <t>#.## g/m³</t>
+        </is>
+      </c>
+      <c r="Z35" t="inlineStr">
+        <is>
+          <t>9.07 g/m³</t>
+        </is>
+      </c>
+      <c r="AA35" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="AB35" t="inlineStr">
+        <is>
+          <t>7:00-22:00</t>
+        </is>
+      </c>
+      <c r="AC35" t="inlineStr">
+        <is>
+          <t>AWAY              22:00</t>
+        </is>
+      </c>
+      <c r="AD35" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="AE35" t="inlineStr">
+        <is>
+          <t>13.6 °C</t>
+        </is>
+      </c>
+      <c r="AF35" t="inlineStr">
+        <is>
+          <t>23.9 °C</t>
+        </is>
+      </c>
+      <c r="AG35" t="inlineStr">
+        <is>
+          <t>-2.6 °C</t>
+        </is>
+      </c>
+      <c r="AH35" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI35" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AJ35" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AK35" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AL35" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AM35" t="inlineStr">
+        <is>
+          <t>41 %</t>
+        </is>
+      </c>
+      <c r="AN35" t="inlineStr">
+        <is>
+          <t>89 %</t>
+        </is>
+      </c>
+      <c r="AO35" t="inlineStr">
+        <is>
+          <t>1265 W</t>
+        </is>
+      </c>
+      <c r="AP35" t="inlineStr">
+        <is>
+          <t>536 W</t>
+        </is>
+      </c>
+      <c r="AQ35" t="inlineStr">
+        <is>
+          <t>500 W</t>
+        </is>
+      </c>
+      <c r="AR35" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="AS35" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="AT35" t="inlineStr">
+        <is>
+          <t>6.64 kWh</t>
+        </is>
+      </c>
+      <c r="AU35" t="inlineStr">
+        <is>
+          <t>286.55 kWh</t>
+        </is>
+      </c>
+      <c r="AV35" t="inlineStr">
+        <is>
+          <t>2818.67 kWh</t>
+        </is>
+      </c>
+      <c r="AW35" t="inlineStr">
+        <is>
+          <t>6.10 kWh</t>
+        </is>
+      </c>
+      <c r="AX35" t="inlineStr">
+        <is>
+          <t>264.62 kWh</t>
+        </is>
+      </c>
+      <c r="AY35" t="inlineStr">
+        <is>
+          <t>2258.62 kWh</t>
+        </is>
+      </c>
+      <c r="AZ35" t="inlineStr">
+        <is>
+          <t>15.67 kWh</t>
+        </is>
+      </c>
+      <c r="BA35" t="inlineStr">
+        <is>
+          <t>603.46 kWh</t>
+        </is>
+      </c>
+      <c r="BB35" t="inlineStr">
+        <is>
+          <t>8520.96 kWh</t>
+        </is>
+      </c>
+      <c r="BC35" t="inlineStr">
+        <is>
+          <t>19.0 °C</t>
+        </is>
+      </c>
+      <c r="BD35" t="inlineStr">
+        <is>
+          <t>--.- °C</t>
+        </is>
+      </c>
+      <c r="BE35" t="inlineStr">
+        <is>
+          <t>--.- %</t>
+        </is>
+      </c>
+      <c r="BF35" t="inlineStr">
+        <is>
+          <t>42 %</t>
+        </is>
+      </c>
+      <c r="BG35" t="inlineStr">
+        <is>
+          <t>--.- %</t>
+        </is>
+      </c>
+      <c r="BH35" t="inlineStr">
+        <is>
+          <t>42 %</t>
+        </is>
+      </c>
+      <c r="BI35" t="inlineStr">
+        <is>
+          <t>146030620</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2022-02-01 17:50:00</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>12.5 °C</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>22.8 °C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>-3.3 °C</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>**.* °C</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>23.6 °C</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>**.* °C</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>40 %</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>**.* %</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>0 mV</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>0 mV</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>**.* mV</t>
+        </is>
+      </c>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>**.* mV</t>
+        </is>
+      </c>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>41 %</t>
+        </is>
+      </c>
+      <c r="X36" t="inlineStr">
+        <is>
+          <t>71 %</t>
+        </is>
+      </c>
+      <c r="Y36" t="inlineStr">
+        <is>
+          <t>#.## g/m³</t>
+        </is>
+      </c>
+      <c r="Z36" t="inlineStr">
+        <is>
+          <t>8.50 g/m³</t>
+        </is>
+      </c>
+      <c r="AA36" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="AB36" t="inlineStr">
+        <is>
+          <t>7:00-22:00</t>
+        </is>
+      </c>
+      <c r="AC36" t="inlineStr">
+        <is>
+          <t>AWAY              22:00</t>
+        </is>
+      </c>
+      <c r="AD36" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="AE36" t="inlineStr">
+        <is>
+          <t>12.5 °C</t>
+        </is>
+      </c>
+      <c r="AF36" t="inlineStr">
+        <is>
+          <t>22.8 °C</t>
+        </is>
+      </c>
+      <c r="AG36" t="inlineStr">
+        <is>
+          <t>-3.2 °C</t>
+        </is>
+      </c>
+      <c r="AH36" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI36" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AJ36" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AK36" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AL36" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AM36" t="inlineStr">
+        <is>
+          <t>41 %</t>
+        </is>
+      </c>
+      <c r="AN36" t="inlineStr">
+        <is>
+          <t>89 %</t>
+        </is>
+      </c>
+      <c r="AO36" t="inlineStr">
+        <is>
+          <t>1238 W</t>
+        </is>
+      </c>
+      <c r="AP36" t="inlineStr">
+        <is>
+          <t>536 W</t>
+        </is>
+      </c>
+      <c r="AQ36" t="inlineStr">
+        <is>
+          <t>500 W</t>
+        </is>
+      </c>
+      <c r="AR36" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="AS36" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="AT36" t="inlineStr">
+        <is>
+          <t>9.43 kWh</t>
+        </is>
+      </c>
+      <c r="AU36" t="inlineStr">
+        <is>
+          <t>287.31 kWh</t>
+        </is>
+      </c>
+      <c r="AV36" t="inlineStr">
+        <is>
+          <t>2831.29 kWh</t>
+        </is>
+      </c>
+      <c r="AW36" t="inlineStr">
+        <is>
+          <t>8.89 kWh</t>
+        </is>
+      </c>
+      <c r="AX36" t="inlineStr">
+        <is>
+          <t>265.41 kWh</t>
+        </is>
+      </c>
+      <c r="AY36" t="inlineStr">
+        <is>
+          <t>2270.51 kWh</t>
+        </is>
+      </c>
+      <c r="AZ36" t="inlineStr">
+        <is>
+          <t>15.68 kWh</t>
+        </is>
+      </c>
+      <c r="BA36" t="inlineStr">
+        <is>
+          <t>600.44 kWh</t>
+        </is>
+      </c>
+      <c r="BB36" t="inlineStr">
+        <is>
+          <t>8542.27 kWh</t>
+        </is>
+      </c>
+      <c r="BC36" t="inlineStr">
+        <is>
+          <t>19.0 °C</t>
+        </is>
+      </c>
+      <c r="BD36" t="inlineStr">
+        <is>
+          <t>--.- °C</t>
+        </is>
+      </c>
+      <c r="BE36" t="inlineStr">
+        <is>
+          <t>--.- %</t>
+        </is>
+      </c>
+      <c r="BF36" t="inlineStr">
+        <is>
+          <t>41 %</t>
+        </is>
+      </c>
+      <c r="BG36" t="inlineStr">
+        <is>
+          <t>--.- %</t>
+        </is>
+      </c>
+      <c r="BH36" t="inlineStr">
+        <is>
+          <t>41 %</t>
+        </is>
+      </c>
+      <c r="BI36" t="inlineStr">
+        <is>
+          <t>146030620</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2022-02-04 16:17:41</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>11.2 °C</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>22.0 °C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>-3.4 °C</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>**.* °C</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>24.2 °C</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>**.* °C</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>39 %</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>**.* %</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>0 mV</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>0 mV</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>**.* mV</t>
+        </is>
+      </c>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>**.* mV</t>
+        </is>
+      </c>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>43 %</t>
+        </is>
+      </c>
+      <c r="X37" t="inlineStr">
+        <is>
+          <t>71 %</t>
+        </is>
+      </c>
+      <c r="Y37" t="inlineStr">
+        <is>
+          <t>#.## g/m³</t>
+        </is>
+      </c>
+      <c r="Z37" t="inlineStr">
+        <is>
+          <t>8.57 g/m³</t>
+        </is>
+      </c>
+      <c r="AA37" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="AB37" t="inlineStr">
+        <is>
+          <t>7:00-22:00</t>
+        </is>
+      </c>
+      <c r="AC37" t="inlineStr">
+        <is>
+          <t>AWAY              22:00</t>
+        </is>
+      </c>
+      <c r="AD37" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="AE37" t="inlineStr">
+        <is>
+          <t>11.2 °C</t>
+        </is>
+      </c>
+      <c r="AF37" t="inlineStr">
+        <is>
+          <t>21.9 °C</t>
+        </is>
+      </c>
+      <c r="AG37" t="inlineStr">
+        <is>
+          <t>-3.5 °C</t>
+        </is>
+      </c>
+      <c r="AH37" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI37" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AJ37" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AK37" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AL37" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AM37" t="inlineStr">
+        <is>
+          <t>43 %</t>
+        </is>
+      </c>
+      <c r="AN37" t="inlineStr">
+        <is>
+          <t>91 %</t>
+        </is>
+      </c>
+      <c r="AO37" t="inlineStr">
+        <is>
+          <t>1238 W</t>
+        </is>
+      </c>
+      <c r="AP37" t="inlineStr">
+        <is>
+          <t>538 W</t>
+        </is>
+      </c>
+      <c r="AQ37" t="inlineStr">
+        <is>
+          <t>500 W</t>
+        </is>
+      </c>
+      <c r="AR37" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="AS37" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="AT37" t="inlineStr">
+        <is>
+          <t>8.62 kWh</t>
+        </is>
+      </c>
+      <c r="AU37" t="inlineStr">
+        <is>
+          <t>297.49 kWh</t>
+        </is>
+      </c>
+      <c r="AV37" t="inlineStr">
+        <is>
+          <t>2868.67 kWh</t>
+        </is>
+      </c>
+      <c r="AW37" t="inlineStr">
+        <is>
+          <t>8.13 kWh</t>
+        </is>
+      </c>
+      <c r="AX37" t="inlineStr">
+        <is>
+          <t>275.66 kWh</t>
+        </is>
+      </c>
+      <c r="AY37" t="inlineStr">
+        <is>
+          <t>2305.74 kWh</t>
+        </is>
+      </c>
+      <c r="AZ37" t="inlineStr">
+        <is>
+          <t>14.38 kWh</t>
+        </is>
+      </c>
+      <c r="BA37" t="inlineStr">
+        <is>
+          <t>604.78 kWh</t>
+        </is>
+      </c>
+      <c r="BB37" t="inlineStr">
+        <is>
+          <t>8606.84 kWh</t>
+        </is>
+      </c>
+      <c r="BC37" t="inlineStr">
+        <is>
+          <t>19.0 °C</t>
+        </is>
+      </c>
+      <c r="BD37" t="inlineStr">
+        <is>
+          <t>--.- °C</t>
+        </is>
+      </c>
+      <c r="BE37" t="inlineStr">
+        <is>
+          <t>--.- %</t>
+        </is>
+      </c>
+      <c r="BF37" t="inlineStr">
+        <is>
+          <t>39 %</t>
+        </is>
+      </c>
+      <c r="BG37" t="inlineStr">
+        <is>
+          <t>--.- %</t>
+        </is>
+      </c>
+      <c r="BH37" t="inlineStr">
+        <is>
+          <t>39 %</t>
+        </is>
+      </c>
+      <c r="BI37" t="inlineStr">
+        <is>
+          <t>144982044</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2022-02-05 10:35:40</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>15.3 °C</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>24.0 °C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.7 °C</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>**.* °C</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>24.3 °C</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>**.* °C</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>36 %</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>**.* %</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>0 mV</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>0 mV</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>**.* mV</t>
+        </is>
+      </c>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>**.* mV</t>
+        </is>
+      </c>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>44 %</t>
+        </is>
+      </c>
+      <c r="X38" t="inlineStr">
+        <is>
+          <t>69 %</t>
+        </is>
+      </c>
+      <c r="Y38" t="inlineStr">
+        <is>
+          <t>#.## g/m³</t>
+        </is>
+      </c>
+      <c r="Z38" t="inlineStr">
+        <is>
+          <t>7.96 g/m³</t>
+        </is>
+      </c>
+      <c r="AA38" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="AB38" t="inlineStr">
+        <is>
+          <t>7:00-22:00</t>
+        </is>
+      </c>
+      <c r="AC38" t="inlineStr">
+        <is>
+          <t>AWAY              22:00</t>
+        </is>
+      </c>
+      <c r="AD38" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="AE38" t="inlineStr">
+        <is>
+          <t>15.3 °C</t>
+        </is>
+      </c>
+      <c r="AF38" t="inlineStr">
+        <is>
+          <t>24.1 °C</t>
+        </is>
+      </c>
+      <c r="AG38" t="inlineStr">
+        <is>
+          <t>0.6 °C</t>
+        </is>
+      </c>
+      <c r="AH38" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI38" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AJ38" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AK38" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AL38" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AM38" t="inlineStr">
+        <is>
+          <t>44 %</t>
+        </is>
+      </c>
+      <c r="AN38" t="inlineStr">
+        <is>
+          <t>91 %</t>
+        </is>
+      </c>
+      <c r="AO38" t="inlineStr">
+        <is>
+          <t>1148 W</t>
+        </is>
+      </c>
+      <c r="AP38" t="inlineStr">
+        <is>
+          <t>538 W</t>
+        </is>
+      </c>
+      <c r="AQ38" t="inlineStr">
+        <is>
+          <t>500 W</t>
+        </is>
+      </c>
+      <c r="AR38" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="AS38" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="AT38" t="inlineStr">
+        <is>
+          <t>4.93 kWh</t>
+        </is>
+      </c>
+      <c r="AU38" t="inlineStr">
+        <is>
+          <t>297.24 kWh</t>
+        </is>
+      </c>
+      <c r="AV38" t="inlineStr">
+        <is>
+          <t>2877.72 kWh</t>
+        </is>
+      </c>
+      <c r="AW38" t="inlineStr">
+        <is>
+          <t>4.66 kWh</t>
+        </is>
+      </c>
+      <c r="AX38" t="inlineStr">
+        <is>
+          <t>275.62 kWh</t>
+        </is>
+      </c>
+      <c r="AY38" t="inlineStr">
+        <is>
+          <t>2314.27 kWh</t>
+        </is>
+      </c>
+      <c r="AZ38" t="inlineStr">
+        <is>
+          <t>6.69 kWh</t>
+        </is>
+      </c>
+      <c r="BA38" t="inlineStr">
+        <is>
+          <t>597.30 kWh</t>
+        </is>
+      </c>
+      <c r="BB38" t="inlineStr">
+        <is>
+          <t>8621.34 kWh</t>
+        </is>
+      </c>
+      <c r="BC38" t="inlineStr">
+        <is>
+          <t>19.0 °C</t>
+        </is>
+      </c>
+      <c r="BD38" t="inlineStr">
+        <is>
+          <t>--.- °C</t>
+        </is>
+      </c>
+      <c r="BE38" t="inlineStr">
+        <is>
+          <t>--.- %</t>
+        </is>
+      </c>
+      <c r="BF38" t="inlineStr">
+        <is>
+          <t>36 %</t>
+        </is>
+      </c>
+      <c r="BG38" t="inlineStr">
+        <is>
+          <t>--.- %</t>
+        </is>
+      </c>
+      <c r="BH38" t="inlineStr">
+        <is>
+          <t>36 %</t>
+        </is>
+      </c>
+      <c r="BI38" t="inlineStr">
+        <is>
+          <t>144982044</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/SampleData.xlsx
+++ b/SampleData.xlsx
@@ -412,7 +412,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BI38"/>
+  <dimension ref="A1:BI39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
@@ -12126,6 +12126,313 @@
         </is>
       </c>
     </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2022-02-06 12:26:58</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>15.8 °C</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>23.5 °C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.1 °C</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>**.* °C</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>24.3 °C</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>**.* °C</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>43 %</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>**.* %</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>0 mV</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>0 mV</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>**.* mV</t>
+        </is>
+      </c>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>**.* mV</t>
+        </is>
+      </c>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr">
+        <is>
+          <t>44 %</t>
+        </is>
+      </c>
+      <c r="X39" t="inlineStr">
+        <is>
+          <t>67 %</t>
+        </is>
+      </c>
+      <c r="Y39" t="inlineStr">
+        <is>
+          <t>#.## g/m³</t>
+        </is>
+      </c>
+      <c r="Z39" t="inlineStr">
+        <is>
+          <t>9.51 g/m³</t>
+        </is>
+      </c>
+      <c r="AA39" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="AB39" t="inlineStr">
+        <is>
+          <t>7:00-22:00</t>
+        </is>
+      </c>
+      <c r="AC39" t="inlineStr">
+        <is>
+          <t>AWAY              22:00</t>
+        </is>
+      </c>
+      <c r="AD39" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="AE39" t="inlineStr">
+        <is>
+          <t>15.9 °C</t>
+        </is>
+      </c>
+      <c r="AF39" t="inlineStr">
+        <is>
+          <t>23.5 °C</t>
+        </is>
+      </c>
+      <c r="AG39" t="inlineStr">
+        <is>
+          <t>2.0 °C</t>
+        </is>
+      </c>
+      <c r="AH39" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI39" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AJ39" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AK39" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AL39" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AM39" t="inlineStr">
+        <is>
+          <t>44 %</t>
+        </is>
+      </c>
+      <c r="AN39" t="inlineStr">
+        <is>
+          <t>90 %</t>
+        </is>
+      </c>
+      <c r="AO39" t="inlineStr">
+        <is>
+          <t>1030 W</t>
+        </is>
+      </c>
+      <c r="AP39" t="inlineStr">
+        <is>
+          <t>537 W</t>
+        </is>
+      </c>
+      <c r="AQ39" t="inlineStr">
+        <is>
+          <t>500 W</t>
+        </is>
+      </c>
+      <c r="AR39" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="AS39" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="AT39" t="inlineStr">
+        <is>
+          <t>3.66 kWh</t>
+        </is>
+      </c>
+      <c r="AU39" t="inlineStr">
+        <is>
+          <t>297.54 kWh</t>
+        </is>
+      </c>
+      <c r="AV39" t="inlineStr">
+        <is>
+          <t>2887.88 kWh</t>
+        </is>
+      </c>
+      <c r="AW39" t="inlineStr">
+        <is>
+          <t>3.32 kWh</t>
+        </is>
+      </c>
+      <c r="AX39" t="inlineStr">
+        <is>
+          <t>275.86 kWh</t>
+        </is>
+      </c>
+      <c r="AY39" t="inlineStr">
+        <is>
+          <t>2323.62 kWh</t>
+        </is>
+      </c>
+      <c r="AZ39" t="inlineStr">
+        <is>
+          <t>7.54 kWh</t>
+        </is>
+      </c>
+      <c r="BA39" t="inlineStr">
+        <is>
+          <t>594.36 kWh</t>
+        </is>
+      </c>
+      <c r="BB39" t="inlineStr">
+        <is>
+          <t>8641.74 kWh</t>
+        </is>
+      </c>
+      <c r="BC39" t="inlineStr">
+        <is>
+          <t>19.0 °C</t>
+        </is>
+      </c>
+      <c r="BD39" t="inlineStr">
+        <is>
+          <t>--.- °C</t>
+        </is>
+      </c>
+      <c r="BE39" t="inlineStr">
+        <is>
+          <t>--.- %</t>
+        </is>
+      </c>
+      <c r="BF39" t="inlineStr">
+        <is>
+          <t>43 %</t>
+        </is>
+      </c>
+      <c r="BG39" t="inlineStr">
+        <is>
+          <t>--.- %</t>
+        </is>
+      </c>
+      <c r="BH39" t="inlineStr">
+        <is>
+          <t>43 %</t>
+        </is>
+      </c>
+      <c r="BI39" t="inlineStr">
+        <is>
+          <t>144982044</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/SampleData.xlsx
+++ b/SampleData.xlsx
@@ -412,7 +412,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BI39"/>
+  <dimension ref="A1:BI42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
@@ -12433,6 +12433,927 @@
         </is>
       </c>
     </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2022-02-07 16:47:42</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>16.0 °C</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>24.3 °C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.5 °C</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>**.* °C</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>24.0 °C</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>**.* °C</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>40 %</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>**.* %</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>0 mV</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>0 mV</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>**.* mV</t>
+        </is>
+      </c>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>**.* mV</t>
+        </is>
+      </c>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="W40" t="inlineStr">
+        <is>
+          <t>45 %</t>
+        </is>
+      </c>
+      <c r="X40" t="inlineStr">
+        <is>
+          <t>68 %</t>
+        </is>
+      </c>
+      <c r="Y40" t="inlineStr">
+        <is>
+          <t>#.## g/m³</t>
+        </is>
+      </c>
+      <c r="Z40" t="inlineStr">
+        <is>
+          <t>8.69 g/m³</t>
+        </is>
+      </c>
+      <c r="AA40" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="AB40" t="inlineStr">
+        <is>
+          <t>7:00-22:00</t>
+        </is>
+      </c>
+      <c r="AC40" t="inlineStr">
+        <is>
+          <t>AWAY              22:00</t>
+        </is>
+      </c>
+      <c r="AD40" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="AE40" t="inlineStr">
+        <is>
+          <t>16.1 °C</t>
+        </is>
+      </c>
+      <c r="AF40" t="inlineStr">
+        <is>
+          <t>24.2 °C</t>
+        </is>
+      </c>
+      <c r="AG40" t="inlineStr">
+        <is>
+          <t>1.6 °C</t>
+        </is>
+      </c>
+      <c r="AH40" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI40" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AJ40" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AK40" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AL40" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AM40" t="inlineStr">
+        <is>
+          <t>45 %</t>
+        </is>
+      </c>
+      <c r="AN40" t="inlineStr">
+        <is>
+          <t>88 %</t>
+        </is>
+      </c>
+      <c r="AO40" t="inlineStr">
+        <is>
+          <t>1084 W</t>
+        </is>
+      </c>
+      <c r="AP40" t="inlineStr">
+        <is>
+          <t>537 W</t>
+        </is>
+      </c>
+      <c r="AQ40" t="inlineStr">
+        <is>
+          <t>500 W</t>
+        </is>
+      </c>
+      <c r="AR40" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="AS40" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="AT40" t="inlineStr">
+        <is>
+          <t>6.02 kWh</t>
+        </is>
+      </c>
+      <c r="AU40" t="inlineStr">
+        <is>
+          <t>296.35 kWh</t>
+        </is>
+      </c>
+      <c r="AV40" t="inlineStr">
+        <is>
+          <t>2899.40 kWh</t>
+        </is>
+      </c>
+      <c r="AW40" t="inlineStr">
+        <is>
+          <t>5.52 kWh</t>
+        </is>
+      </c>
+      <c r="AX40" t="inlineStr">
+        <is>
+          <t>274.53 kWh</t>
+        </is>
+      </c>
+      <c r="AY40" t="inlineStr">
+        <is>
+          <t>2334.25 kWh</t>
+        </is>
+      </c>
+      <c r="AZ40" t="inlineStr">
+        <is>
+          <t>12.06 kWh</t>
+        </is>
+      </c>
+      <c r="BA40" t="inlineStr">
+        <is>
+          <t>592.60 kWh</t>
+        </is>
+      </c>
+      <c r="BB40" t="inlineStr">
+        <is>
+          <t>8664.27 kWh</t>
+        </is>
+      </c>
+      <c r="BC40" t="inlineStr">
+        <is>
+          <t>19.0 °C</t>
+        </is>
+      </c>
+      <c r="BD40" t="inlineStr">
+        <is>
+          <t>--.- °C</t>
+        </is>
+      </c>
+      <c r="BE40" t="inlineStr">
+        <is>
+          <t>--.- %</t>
+        </is>
+      </c>
+      <c r="BF40" t="inlineStr">
+        <is>
+          <t>40 %</t>
+        </is>
+      </c>
+      <c r="BG40" t="inlineStr">
+        <is>
+          <t>--.- %</t>
+        </is>
+      </c>
+      <c r="BH40" t="inlineStr">
+        <is>
+          <t>40 %</t>
+        </is>
+      </c>
+      <c r="BI40" t="inlineStr">
+        <is>
+          <t>146030620</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2022-02-11 16:32:54</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>16.3 °C</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>24.5 °C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.6 °C</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>**.* °C</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>23.9 °C</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>**.* °C</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>40 %</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>**.* %</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>0 mV</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>0 mV</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>**.* mV</t>
+        </is>
+      </c>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>**.* mV</t>
+        </is>
+      </c>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="W41" t="inlineStr">
+        <is>
+          <t>48 %</t>
+        </is>
+      </c>
+      <c r="X41" t="inlineStr">
+        <is>
+          <t>68 %</t>
+        </is>
+      </c>
+      <c r="Y41" t="inlineStr">
+        <is>
+          <t>#.## g/m³</t>
+        </is>
+      </c>
+      <c r="Z41" t="inlineStr">
+        <is>
+          <t>8.64 g/m³</t>
+        </is>
+      </c>
+      <c r="AA41" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="AB41" t="inlineStr">
+        <is>
+          <t>7:00-22:00</t>
+        </is>
+      </c>
+      <c r="AC41" t="inlineStr">
+        <is>
+          <t>AWAY              22:00</t>
+        </is>
+      </c>
+      <c r="AD41" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="AE41" t="inlineStr">
+        <is>
+          <t>16.3 °C</t>
+        </is>
+      </c>
+      <c r="AF41" t="inlineStr">
+        <is>
+          <t>24.5 °C</t>
+        </is>
+      </c>
+      <c r="AG41" t="inlineStr">
+        <is>
+          <t>1.5 °C</t>
+        </is>
+      </c>
+      <c r="AH41" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI41" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AJ41" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AK41" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AL41" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AM41" t="inlineStr">
+        <is>
+          <t>48 %</t>
+        </is>
+      </c>
+      <c r="AN41" t="inlineStr">
+        <is>
+          <t>89 %</t>
+        </is>
+      </c>
+      <c r="AO41" t="inlineStr">
+        <is>
+          <t>1105 W</t>
+        </is>
+      </c>
+      <c r="AP41" t="inlineStr">
+        <is>
+          <t>537 W</t>
+        </is>
+      </c>
+      <c r="AQ41" t="inlineStr">
+        <is>
+          <t>500 W</t>
+        </is>
+      </c>
+      <c r="AR41" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="AS41" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="AT41" t="inlineStr">
+        <is>
+          <t>5.83 kWh</t>
+        </is>
+      </c>
+      <c r="AU41" t="inlineStr">
+        <is>
+          <t>291.88 kWh</t>
+        </is>
+      </c>
+      <c r="AV41" t="inlineStr">
+        <is>
+          <t>2935.32 kWh</t>
+        </is>
+      </c>
+      <c r="AW41" t="inlineStr">
+        <is>
+          <t>5.33 kWh</t>
+        </is>
+      </c>
+      <c r="AX41" t="inlineStr">
+        <is>
+          <t>270.08 kWh</t>
+        </is>
+      </c>
+      <c r="AY41" t="inlineStr">
+        <is>
+          <t>2367.25 kWh</t>
+        </is>
+      </c>
+      <c r="AZ41" t="inlineStr">
+        <is>
+          <t>12.18 kWh</t>
+        </is>
+      </c>
+      <c r="BA41" t="inlineStr">
+        <is>
+          <t>574.23 kWh</t>
+        </is>
+      </c>
+      <c r="BB41" t="inlineStr">
+        <is>
+          <t>8737.69 kWh</t>
+        </is>
+      </c>
+      <c r="BC41" t="inlineStr">
+        <is>
+          <t>19.0 °C</t>
+        </is>
+      </c>
+      <c r="BD41" t="inlineStr">
+        <is>
+          <t>--.- °C</t>
+        </is>
+      </c>
+      <c r="BE41" t="inlineStr">
+        <is>
+          <t>--.- %</t>
+        </is>
+      </c>
+      <c r="BF41" t="inlineStr">
+        <is>
+          <t>40 %</t>
+        </is>
+      </c>
+      <c r="BG41" t="inlineStr">
+        <is>
+          <t>--.- %</t>
+        </is>
+      </c>
+      <c r="BH41" t="inlineStr">
+        <is>
+          <t>40 %</t>
+        </is>
+      </c>
+      <c r="BI41" t="inlineStr">
+        <is>
+          <t>144982044</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2022-02-12 11:09:50</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>17.1 °C</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>24.2 °C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2.5 °C</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>**.* °C</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>23.5 °C</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>**.* °C</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>39 %</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>**.* %</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>0 mV</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>0 mV</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>**.* mV</t>
+        </is>
+      </c>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>**.* mV</t>
+        </is>
+      </c>
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="W42" t="inlineStr">
+        <is>
+          <t>48 %</t>
+        </is>
+      </c>
+      <c r="X42" t="inlineStr">
+        <is>
+          <t>67 %</t>
+        </is>
+      </c>
+      <c r="Y42" t="inlineStr">
+        <is>
+          <t>#.## g/m³</t>
+        </is>
+      </c>
+      <c r="Z42" t="inlineStr">
+        <is>
+          <t>8.23 g/m³</t>
+        </is>
+      </c>
+      <c r="AA42" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="AB42" t="inlineStr">
+        <is>
+          <t>7:00-22:00</t>
+        </is>
+      </c>
+      <c r="AC42" t="inlineStr">
+        <is>
+          <t>AWAY              22:00</t>
+        </is>
+      </c>
+      <c r="AD42" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="AE42" t="inlineStr">
+        <is>
+          <t>17.2 °C</t>
+        </is>
+      </c>
+      <c r="AF42" t="inlineStr">
+        <is>
+          <t>24.2 °C</t>
+        </is>
+      </c>
+      <c r="AG42" t="inlineStr">
+        <is>
+          <t>2.5 °C</t>
+        </is>
+      </c>
+      <c r="AH42" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI42" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AJ42" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AK42" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AL42" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AM42" t="inlineStr">
+        <is>
+          <t>48 %</t>
+        </is>
+      </c>
+      <c r="AN42" t="inlineStr">
+        <is>
+          <t>90 %</t>
+        </is>
+      </c>
+      <c r="AO42" t="inlineStr">
+        <is>
+          <t>1041 W</t>
+        </is>
+      </c>
+      <c r="AP42" t="inlineStr">
+        <is>
+          <t>537 W</t>
+        </is>
+      </c>
+      <c r="AQ42" t="inlineStr">
+        <is>
+          <t>500 W</t>
+        </is>
+      </c>
+      <c r="AR42" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="AS42" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="AT42" t="inlineStr">
+        <is>
+          <t>3.07 kWh</t>
+        </is>
+      </c>
+      <c r="AU42" t="inlineStr">
+        <is>
+          <t>292.21 kWh</t>
+        </is>
+      </c>
+      <c r="AV42" t="inlineStr">
+        <is>
+          <t>2941.79 kWh</t>
+        </is>
+      </c>
+      <c r="AW42" t="inlineStr">
+        <is>
+          <t>2.78 kWh</t>
+        </is>
+      </c>
+      <c r="AX42" t="inlineStr">
+        <is>
+          <t>270.61 kWh</t>
+        </is>
+      </c>
+      <c r="AY42" t="inlineStr">
+        <is>
+          <t>2373.17 kWh</t>
+        </is>
+      </c>
+      <c r="AZ42" t="inlineStr">
+        <is>
+          <t>7.09 kWh</t>
+        </is>
+      </c>
+      <c r="BA42" t="inlineStr">
+        <is>
+          <t>572.79 kWh</t>
+        </is>
+      </c>
+      <c r="BB42" t="inlineStr">
+        <is>
+          <t>8751.68 kWh</t>
+        </is>
+      </c>
+      <c r="BC42" t="inlineStr">
+        <is>
+          <t>19.0 °C</t>
+        </is>
+      </c>
+      <c r="BD42" t="inlineStr">
+        <is>
+          <t>--.- °C</t>
+        </is>
+      </c>
+      <c r="BE42" t="inlineStr">
+        <is>
+          <t>--.- %</t>
+        </is>
+      </c>
+      <c r="BF42" t="inlineStr">
+        <is>
+          <t>39 %</t>
+        </is>
+      </c>
+      <c r="BG42" t="inlineStr">
+        <is>
+          <t>--.- %</t>
+        </is>
+      </c>
+      <c r="BH42" t="inlineStr">
+        <is>
+          <t>39 %</t>
+        </is>
+      </c>
+      <c r="BI42" t="inlineStr">
+        <is>
+          <t>146030620</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/SampleData.xlsx
+++ b/SampleData.xlsx
@@ -412,7 +412,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BI42"/>
+  <dimension ref="A1:BI44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
@@ -13354,6 +13354,620 @@
         </is>
       </c>
     </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2022-02-13 13:42:39</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>17.5 °C</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>23.8 °C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>3.3 °C</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>**.* °C</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>24.3 °C</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>**.* °C</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>40 %</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>**.* %</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>0 mV</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>0 mV</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>**.* mV</t>
+        </is>
+      </c>
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>**.* mV</t>
+        </is>
+      </c>
+      <c r="R43" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="W43" t="inlineStr">
+        <is>
+          <t>49 %</t>
+        </is>
+      </c>
+      <c r="X43" t="inlineStr">
+        <is>
+          <t>66 %</t>
+        </is>
+      </c>
+      <c r="Y43" t="inlineStr">
+        <is>
+          <t>#.## g/m³</t>
+        </is>
+      </c>
+      <c r="Z43" t="inlineStr">
+        <is>
+          <t>8.85 g/m³</t>
+        </is>
+      </c>
+      <c r="AA43" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="AB43" t="inlineStr">
+        <is>
+          <t>7:00-22:00</t>
+        </is>
+      </c>
+      <c r="AC43" t="inlineStr">
+        <is>
+          <t>AWAY              22:00</t>
+        </is>
+      </c>
+      <c r="AD43" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="AE43" t="inlineStr">
+        <is>
+          <t>17.4 °C</t>
+        </is>
+      </c>
+      <c r="AF43" t="inlineStr">
+        <is>
+          <t>23.8 °C</t>
+        </is>
+      </c>
+      <c r="AG43" t="inlineStr">
+        <is>
+          <t>3.4 °C</t>
+        </is>
+      </c>
+      <c r="AH43" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI43" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AJ43" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AK43" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AL43" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AM43" t="inlineStr">
+        <is>
+          <t>49 %</t>
+        </is>
+      </c>
+      <c r="AN43" t="inlineStr">
+        <is>
+          <t>89 %</t>
+        </is>
+      </c>
+      <c r="AO43" t="inlineStr">
+        <is>
+          <t>998 W</t>
+        </is>
+      </c>
+      <c r="AP43" t="inlineStr">
+        <is>
+          <t>538 W</t>
+        </is>
+      </c>
+      <c r="AQ43" t="inlineStr">
+        <is>
+          <t>500 W</t>
+        </is>
+      </c>
+      <c r="AR43" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="AS43" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="AT43" t="inlineStr">
+        <is>
+          <t>4.30 kWh</t>
+        </is>
+      </c>
+      <c r="AU43" t="inlineStr">
+        <is>
+          <t>293.97 kWh</t>
+        </is>
+      </c>
+      <c r="AV43" t="inlineStr">
+        <is>
+          <t>2952.17 kWh</t>
+        </is>
+      </c>
+      <c r="AW43" t="inlineStr">
+        <is>
+          <t>3.91 kWh</t>
+        </is>
+      </c>
+      <c r="AX43" t="inlineStr">
+        <is>
+          <t>272.27 kWh</t>
+        </is>
+      </c>
+      <c r="AY43" t="inlineStr">
+        <is>
+          <t>2382.72 kWh</t>
+        </is>
+      </c>
+      <c r="AZ43" t="inlineStr">
+        <is>
+          <t>8.59 kWh</t>
+        </is>
+      </c>
+      <c r="BA43" t="inlineStr">
+        <is>
+          <t>575.75 kWh</t>
+        </is>
+      </c>
+      <c r="BB43" t="inlineStr">
+        <is>
+          <t>8771.77 kWh</t>
+        </is>
+      </c>
+      <c r="BC43" t="inlineStr">
+        <is>
+          <t>19.0 °C</t>
+        </is>
+      </c>
+      <c r="BD43" t="inlineStr">
+        <is>
+          <t>--.- °C</t>
+        </is>
+      </c>
+      <c r="BE43" t="inlineStr">
+        <is>
+          <t>--.- %</t>
+        </is>
+      </c>
+      <c r="BF43" t="inlineStr">
+        <is>
+          <t>40 %</t>
+        </is>
+      </c>
+      <c r="BG43" t="inlineStr">
+        <is>
+          <t>--.- %</t>
+        </is>
+      </c>
+      <c r="BH43" t="inlineStr">
+        <is>
+          <t>40 %</t>
+        </is>
+      </c>
+      <c r="BI43" t="inlineStr">
+        <is>
+          <t>144982044</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2022-02-15 12:58:51</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>16.8 °C</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>23.2 °C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>3.3 °C</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>**.* °C</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>24.0 °C</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>**.* °C</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>43 %</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>**.* %</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>0 mV</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>0 mV</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>**.* mV</t>
+        </is>
+      </c>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>**.* mV</t>
+        </is>
+      </c>
+      <c r="R44" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="W44" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="X44" t="inlineStr">
+        <is>
+          <t>65 %</t>
+        </is>
+      </c>
+      <c r="Y44" t="inlineStr">
+        <is>
+          <t>#.## g/m³</t>
+        </is>
+      </c>
+      <c r="Z44" t="inlineStr">
+        <is>
+          <t>9.35 g/m³</t>
+        </is>
+      </c>
+      <c r="AA44" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="AB44" t="inlineStr">
+        <is>
+          <t>7:00-22:00</t>
+        </is>
+      </c>
+      <c r="AC44" t="inlineStr">
+        <is>
+          <t>AWAY              22:00</t>
+        </is>
+      </c>
+      <c r="AD44" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="AE44" t="inlineStr">
+        <is>
+          <t>16.8 °C</t>
+        </is>
+      </c>
+      <c r="AF44" t="inlineStr">
+        <is>
+          <t>23.4 °C</t>
+        </is>
+      </c>
+      <c r="AG44" t="inlineStr">
+        <is>
+          <t>3.3 °C</t>
+        </is>
+      </c>
+      <c r="AH44" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI44" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AJ44" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AK44" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AL44" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AM44" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AN44" t="inlineStr">
+        <is>
+          <t>89 %</t>
+        </is>
+      </c>
+      <c r="AO44" t="inlineStr">
+        <is>
+          <t>961 W</t>
+        </is>
+      </c>
+      <c r="AP44" t="inlineStr">
+        <is>
+          <t>536 W</t>
+        </is>
+      </c>
+      <c r="AQ44" t="inlineStr">
+        <is>
+          <t>500 W</t>
+        </is>
+      </c>
+      <c r="AR44" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="AS44" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="AT44" t="inlineStr">
+        <is>
+          <t>3.95 kWh</t>
+        </is>
+      </c>
+      <c r="AU44" t="inlineStr">
+        <is>
+          <t>294.06 kWh</t>
+        </is>
+      </c>
+      <c r="AV44" t="inlineStr">
+        <is>
+          <t>2969.86 kWh</t>
+        </is>
+      </c>
+      <c r="AW44" t="inlineStr">
+        <is>
+          <t>3.59 kWh</t>
+        </is>
+      </c>
+      <c r="AX44" t="inlineStr">
+        <is>
+          <t>272.40 kWh</t>
+        </is>
+      </c>
+      <c r="AY44" t="inlineStr">
+        <is>
+          <t>2398.98 kWh</t>
+        </is>
+      </c>
+      <c r="AZ44" t="inlineStr">
+        <is>
+          <t>7.64 kWh</t>
+        </is>
+      </c>
+      <c r="BA44" t="inlineStr">
+        <is>
+          <t>573.02 kWh</t>
+        </is>
+      </c>
+      <c r="BB44" t="inlineStr">
+        <is>
+          <t>8805.64 kWh</t>
+        </is>
+      </c>
+      <c r="BC44" t="inlineStr">
+        <is>
+          <t>19.0 °C</t>
+        </is>
+      </c>
+      <c r="BD44" t="inlineStr">
+        <is>
+          <t>--.- °C</t>
+        </is>
+      </c>
+      <c r="BE44" t="inlineStr">
+        <is>
+          <t>--.- %</t>
+        </is>
+      </c>
+      <c r="BF44" t="inlineStr">
+        <is>
+          <t>43 %</t>
+        </is>
+      </c>
+      <c r="BG44" t="inlineStr">
+        <is>
+          <t>--.- %</t>
+        </is>
+      </c>
+      <c r="BH44" t="inlineStr">
+        <is>
+          <t>43 %</t>
+        </is>
+      </c>
+      <c r="BI44" t="inlineStr">
+        <is>
+          <t>144982044</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/SampleData.xlsx
+++ b/SampleData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12900" windowWidth="41280" xWindow="0" yWindow="0"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="41280" windowHeight="12900" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sheet_name" sheetId="1" state="visible" r:id="rId1"/>
@@ -43,15 +43,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -412,52 +412,52 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BI44"/>
+  <dimension ref="A1:BI54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
-      <selection activeCell="A4" pane="bottomLeft" sqref="A4:XFD4"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" width="18.109375"/>
-    <col customWidth="1" max="2" min="2" width="18"/>
-    <col customWidth="1" max="4" min="3" width="19"/>
-    <col customWidth="1" max="5" min="5" width="10"/>
-    <col customWidth="1" max="9" min="6" width="19"/>
-    <col customWidth="1" max="10" min="10" width="10"/>
-    <col customWidth="1" max="11" min="11" width="11"/>
-    <col customWidth="1" max="17" min="12" width="10"/>
-    <col customWidth="1" max="18" min="18" width="14"/>
-    <col customWidth="1" max="19" min="19" width="10"/>
-    <col customWidth="1" max="20" min="20" width="15"/>
-    <col customWidth="1" max="21" min="21" width="10"/>
-    <col customWidth="1" max="22" min="22" width="11"/>
-    <col customWidth="1" max="23" min="23" width="15"/>
-    <col customWidth="1" max="24" min="24" width="13"/>
-    <col customWidth="1" max="25" min="25" width="10"/>
-    <col customWidth="1" max="26" min="26" width="18"/>
-    <col customWidth="1" max="27" min="27" width="20"/>
-    <col customWidth="1" max="28" min="28" width="15"/>
-    <col customWidth="1" max="29" min="29" width="9"/>
-    <col customWidth="1" max="30" min="30" width="19"/>
-    <col customWidth="1" max="31" min="31" width="18"/>
-    <col customWidth="1" max="33" min="32" width="19"/>
-    <col customWidth="1" max="38" min="34" width="10"/>
-    <col customWidth="1" max="39" min="39" width="15"/>
-    <col customWidth="1" max="40" min="40" width="25"/>
-    <col customWidth="1" max="41" min="41" width="13"/>
-    <col customWidth="1" max="42" min="42" width="17"/>
-    <col customWidth="1" max="43" min="43" width="13"/>
-    <col customWidth="1" max="44" min="44" width="21"/>
-    <col customWidth="1" max="45" min="45" width="18"/>
-    <col customWidth="1" max="46" min="46" width="19"/>
-    <col customWidth="1" max="48" min="47" width="21"/>
-    <col customWidth="1" max="49" min="49" width="18"/>
-    <col customWidth="1" max="52" min="50" width="20"/>
-    <col customWidth="1" max="54" min="53" width="22"/>
-    <col customWidth="1" max="61" min="55" width="10"/>
+    <col width="18.109375" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="18" customWidth="1" min="2" max="2"/>
+    <col width="19" customWidth="1" min="3" max="4"/>
+    <col width="10" customWidth="1" min="5" max="5"/>
+    <col width="19" customWidth="1" min="6" max="9"/>
+    <col width="10" customWidth="1" min="10" max="10"/>
+    <col width="11" customWidth="1" min="11" max="11"/>
+    <col width="10" customWidth="1" min="12" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="10" customWidth="1" min="19" max="19"/>
+    <col width="15" customWidth="1" min="20" max="20"/>
+    <col width="10" customWidth="1" min="21" max="21"/>
+    <col width="11" customWidth="1" min="22" max="22"/>
+    <col width="15" customWidth="1" min="23" max="23"/>
+    <col width="13" customWidth="1" min="24" max="24"/>
+    <col width="10" customWidth="1" min="25" max="25"/>
+    <col width="18" customWidth="1" min="26" max="26"/>
+    <col width="20" customWidth="1" min="27" max="27"/>
+    <col width="15" customWidth="1" min="28" max="28"/>
+    <col width="9" customWidth="1" min="29" max="29"/>
+    <col width="19" customWidth="1" min="30" max="30"/>
+    <col width="18" customWidth="1" min="31" max="31"/>
+    <col width="19" customWidth="1" min="32" max="33"/>
+    <col width="10" customWidth="1" min="34" max="38"/>
+    <col width="15" customWidth="1" min="39" max="39"/>
+    <col width="25" customWidth="1" min="40" max="40"/>
+    <col width="13" customWidth="1" min="41" max="41"/>
+    <col width="17" customWidth="1" min="42" max="42"/>
+    <col width="13" customWidth="1" min="43" max="43"/>
+    <col width="21" customWidth="1" min="44" max="44"/>
+    <col width="18" customWidth="1" min="45" max="45"/>
+    <col width="19" customWidth="1" min="46" max="46"/>
+    <col width="21" customWidth="1" min="47" max="48"/>
+    <col width="18" customWidth="1" min="49" max="49"/>
+    <col width="20" customWidth="1" min="50" max="52"/>
+    <col width="22" customWidth="1" min="53" max="54"/>
+    <col width="10" customWidth="1" min="55" max="61"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -13968,7 +13968,3077 @@
         </is>
       </c>
     </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2022-02-16 14:35:42</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>17.5 °C</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>23.7 °C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>4.0 °C</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>**.* °C</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>24.0 °C</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>**.* °C</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>40 %</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>**.* %</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>0 mV</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>0 mV</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>**.* mV</t>
+        </is>
+      </c>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>**.* mV</t>
+        </is>
+      </c>
+      <c r="R45" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="W45" t="inlineStr">
+        <is>
+          <t>51 %</t>
+        </is>
+      </c>
+      <c r="X45" t="inlineStr">
+        <is>
+          <t>65 %</t>
+        </is>
+      </c>
+      <c r="Y45" t="inlineStr">
+        <is>
+          <t>#.## g/m³</t>
+        </is>
+      </c>
+      <c r="Z45" t="inlineStr">
+        <is>
+          <t>8.69 g/m³</t>
+        </is>
+      </c>
+      <c r="AA45" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="AB45" t="inlineStr">
+        <is>
+          <t>7:00-22:00</t>
+        </is>
+      </c>
+      <c r="AC45" t="inlineStr">
+        <is>
+          <t>AWAY              22:00</t>
+        </is>
+      </c>
+      <c r="AD45" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="AE45" t="inlineStr">
+        <is>
+          <t>17.5 °C</t>
+        </is>
+      </c>
+      <c r="AF45" t="inlineStr">
+        <is>
+          <t>23.7 °C</t>
+        </is>
+      </c>
+      <c r="AG45" t="inlineStr">
+        <is>
+          <t>4.0 °C</t>
+        </is>
+      </c>
+      <c r="AH45" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI45" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AJ45" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AK45" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AL45" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AM45" t="inlineStr">
+        <is>
+          <t>51 %</t>
+        </is>
+      </c>
+      <c r="AN45" t="inlineStr">
+        <is>
+          <t>89 %</t>
+        </is>
+      </c>
+      <c r="AO45" t="inlineStr">
+        <is>
+          <t>950 W</t>
+        </is>
+      </c>
+      <c r="AP45" t="inlineStr">
+        <is>
+          <t>537 W</t>
+        </is>
+      </c>
+      <c r="AQ45" t="inlineStr">
+        <is>
+          <t>500 W</t>
+        </is>
+      </c>
+      <c r="AR45" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="AS45" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="AT45" t="inlineStr">
+        <is>
+          <t>4.78 kWh</t>
+        </is>
+      </c>
+      <c r="AU45" t="inlineStr">
+        <is>
+          <t>294.68 kWh</t>
+        </is>
+      </c>
+      <c r="AV45" t="inlineStr">
+        <is>
+          <t>2979.82 kWh</t>
+        </is>
+      </c>
+      <c r="AW45" t="inlineStr">
+        <is>
+          <t>4.36 kWh</t>
+        </is>
+      </c>
+      <c r="AX45" t="inlineStr">
+        <is>
+          <t>272.96 kWh</t>
+        </is>
+      </c>
+      <c r="AY45" t="inlineStr">
+        <is>
+          <t>2408.14 kWh</t>
+        </is>
+      </c>
+      <c r="AZ45" t="inlineStr">
+        <is>
+          <t>9.30 kWh</t>
+        </is>
+      </c>
+      <c r="BA45" t="inlineStr">
+        <is>
+          <t>571.80 kWh</t>
+        </is>
+      </c>
+      <c r="BB45" t="inlineStr">
+        <is>
+          <t>8824.33 kWh</t>
+        </is>
+      </c>
+      <c r="BC45" t="inlineStr">
+        <is>
+          <t>19.0 °C</t>
+        </is>
+      </c>
+      <c r="BD45" t="inlineStr">
+        <is>
+          <t>--.- °C</t>
+        </is>
+      </c>
+      <c r="BE45" t="inlineStr">
+        <is>
+          <t>--.- %</t>
+        </is>
+      </c>
+      <c r="BF45" t="inlineStr">
+        <is>
+          <t>40 %</t>
+        </is>
+      </c>
+      <c r="BG45" t="inlineStr">
+        <is>
+          <t>--.- %</t>
+        </is>
+      </c>
+      <c r="BH45" t="inlineStr">
+        <is>
+          <t>40 %</t>
+        </is>
+      </c>
+      <c r="BI45" t="inlineStr">
+        <is>
+          <t>144982044</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>2022-02-16 14:41:20</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>17.5 °C</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>23.6 °C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>4.0 °C</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>**.* °C</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>24.0 °C</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>**.* °C</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>40 %</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>**.* %</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>0 mV</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>5 mV</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>**.* mV</t>
+        </is>
+      </c>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>**.* mV</t>
+        </is>
+      </c>
+      <c r="R46" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="W46" t="inlineStr">
+        <is>
+          <t>51 %</t>
+        </is>
+      </c>
+      <c r="X46" t="inlineStr">
+        <is>
+          <t>65 %</t>
+        </is>
+      </c>
+      <c r="Y46" t="inlineStr">
+        <is>
+          <t>#.## g/m³</t>
+        </is>
+      </c>
+      <c r="Z46" t="inlineStr">
+        <is>
+          <t>8.69 g/m³</t>
+        </is>
+      </c>
+      <c r="AA46" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="AB46" t="inlineStr">
+        <is>
+          <t>7:00-22:00</t>
+        </is>
+      </c>
+      <c r="AC46" t="inlineStr">
+        <is>
+          <t>AWAY              22:00</t>
+        </is>
+      </c>
+      <c r="AD46" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="AE46" t="inlineStr">
+        <is>
+          <t>17.4 °C</t>
+        </is>
+      </c>
+      <c r="AF46" t="inlineStr">
+        <is>
+          <t>23.5 °C</t>
+        </is>
+      </c>
+      <c r="AG46" t="inlineStr">
+        <is>
+          <t>4.0 °C</t>
+        </is>
+      </c>
+      <c r="AH46" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI46" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AJ46" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AK46" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AL46" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AM46" t="inlineStr">
+        <is>
+          <t>51 %</t>
+        </is>
+      </c>
+      <c r="AN46" t="inlineStr">
+        <is>
+          <t>89 %</t>
+        </is>
+      </c>
+      <c r="AO46" t="inlineStr">
+        <is>
+          <t>945 W</t>
+        </is>
+      </c>
+      <c r="AP46" t="inlineStr">
+        <is>
+          <t>538 W</t>
+        </is>
+      </c>
+      <c r="AQ46" t="inlineStr">
+        <is>
+          <t>500 W</t>
+        </is>
+      </c>
+      <c r="AR46" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="AS46" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="AT46" t="inlineStr">
+        <is>
+          <t>4.83 kWh</t>
+        </is>
+      </c>
+      <c r="AU46" t="inlineStr">
+        <is>
+          <t>294.73 kWh</t>
+        </is>
+      </c>
+      <c r="AV46" t="inlineStr">
+        <is>
+          <t>2979.87 kWh</t>
+        </is>
+      </c>
+      <c r="AW46" t="inlineStr">
+        <is>
+          <t>4.41 kWh</t>
+        </is>
+      </c>
+      <c r="AX46" t="inlineStr">
+        <is>
+          <t>273.01 kWh</t>
+        </is>
+      </c>
+      <c r="AY46" t="inlineStr">
+        <is>
+          <t>2408.19 kWh</t>
+        </is>
+      </c>
+      <c r="AZ46" t="inlineStr">
+        <is>
+          <t>9.39 kWh</t>
+        </is>
+      </c>
+      <c r="BA46" t="inlineStr">
+        <is>
+          <t>571.89 kWh</t>
+        </is>
+      </c>
+      <c r="BB46" t="inlineStr">
+        <is>
+          <t>8824.42 kWh</t>
+        </is>
+      </c>
+      <c r="BC46" t="inlineStr">
+        <is>
+          <t>19.0 °C</t>
+        </is>
+      </c>
+      <c r="BD46" t="inlineStr">
+        <is>
+          <t>--.- °C</t>
+        </is>
+      </c>
+      <c r="BE46" t="inlineStr">
+        <is>
+          <t>--.- %</t>
+        </is>
+      </c>
+      <c r="BF46" t="inlineStr">
+        <is>
+          <t>40 %</t>
+        </is>
+      </c>
+      <c r="BG46" t="inlineStr">
+        <is>
+          <t>--.- %</t>
+        </is>
+      </c>
+      <c r="BH46" t="inlineStr">
+        <is>
+          <t>40 %</t>
+        </is>
+      </c>
+      <c r="BI46" t="inlineStr">
+        <is>
+          <t>144982044</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2022-02-16 16:58:12</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>16.7 °C</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>23.4 °C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>3.2 °C</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>**.* °C</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>24.1 °C</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>**.* °C</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>40 %</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>**.* %</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>0 mV</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>0 mV</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>**.* mV</t>
+        </is>
+      </c>
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>**.* mV</t>
+        </is>
+      </c>
+      <c r="R47" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="T47" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="W47" t="inlineStr">
+        <is>
+          <t>51 %</t>
+        </is>
+      </c>
+      <c r="X47" t="inlineStr">
+        <is>
+          <t>65 %</t>
+        </is>
+      </c>
+      <c r="Y47" t="inlineStr">
+        <is>
+          <t>#.## g/m³</t>
+        </is>
+      </c>
+      <c r="Z47" t="inlineStr">
+        <is>
+          <t>8.75 g/m³</t>
+        </is>
+      </c>
+      <c r="AA47" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="AB47" t="inlineStr">
+        <is>
+          <t>7:00-22:00</t>
+        </is>
+      </c>
+      <c r="AC47" t="inlineStr">
+        <is>
+          <t>AWAY              22:00</t>
+        </is>
+      </c>
+      <c r="AD47" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="AE47" t="inlineStr">
+        <is>
+          <t>16.8 °C</t>
+        </is>
+      </c>
+      <c r="AF47" t="inlineStr">
+        <is>
+          <t>23.2 °C</t>
+        </is>
+      </c>
+      <c r="AG47" t="inlineStr">
+        <is>
+          <t>3.2 °C</t>
+        </is>
+      </c>
+      <c r="AH47" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI47" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AJ47" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AK47" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AL47" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AM47" t="inlineStr">
+        <is>
+          <t>51 %</t>
+        </is>
+      </c>
+      <c r="AN47" t="inlineStr">
+        <is>
+          <t>89 %</t>
+        </is>
+      </c>
+      <c r="AO47" t="inlineStr">
+        <is>
+          <t>966 W</t>
+        </is>
+      </c>
+      <c r="AP47" t="inlineStr">
+        <is>
+          <t>536 W</t>
+        </is>
+      </c>
+      <c r="AQ47" t="inlineStr">
+        <is>
+          <t>500 W</t>
+        </is>
+      </c>
+      <c r="AR47" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="AS47" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="AT47" t="inlineStr">
+        <is>
+          <t>6.05 kWh</t>
+        </is>
+      </c>
+      <c r="AU47" t="inlineStr">
+        <is>
+          <t>295.95 kWh</t>
+        </is>
+      </c>
+      <c r="AV47" t="inlineStr">
+        <is>
+          <t>2981.09 kWh</t>
+        </is>
+      </c>
+      <c r="AW47" t="inlineStr">
+        <is>
+          <t>5.55 kWh</t>
+        </is>
+      </c>
+      <c r="AX47" t="inlineStr">
+        <is>
+          <t>274.15 kWh</t>
+        </is>
+      </c>
+      <c r="AY47" t="inlineStr">
+        <is>
+          <t>2409.32 kWh</t>
+        </is>
+      </c>
+      <c r="AZ47" t="inlineStr">
+        <is>
+          <t>11.61 kWh</t>
+        </is>
+      </c>
+      <c r="BA47" t="inlineStr">
+        <is>
+          <t>574.11 kWh</t>
+        </is>
+      </c>
+      <c r="BB47" t="inlineStr">
+        <is>
+          <t>8826.64 kWh</t>
+        </is>
+      </c>
+      <c r="BC47" t="inlineStr">
+        <is>
+          <t>19.0 °C</t>
+        </is>
+      </c>
+      <c r="BD47" t="inlineStr">
+        <is>
+          <t>--.- °C</t>
+        </is>
+      </c>
+      <c r="BE47" t="inlineStr">
+        <is>
+          <t>--.- %</t>
+        </is>
+      </c>
+      <c r="BF47" t="inlineStr">
+        <is>
+          <t>40 %</t>
+        </is>
+      </c>
+      <c r="BG47" t="inlineStr">
+        <is>
+          <t>--.- %</t>
+        </is>
+      </c>
+      <c r="BH47" t="inlineStr">
+        <is>
+          <t>40 %</t>
+        </is>
+      </c>
+      <c r="BI47" t="inlineStr">
+        <is>
+          <t>146030620</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2022-02-17 09:49:41</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>18.9 °C</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>24.1 °C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>4.6 °C</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>**.* °C</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>23.9 °C</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>**.* °C</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>42 %</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>**.* %</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>0 mV</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>0 mV</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>**.* mV</t>
+        </is>
+      </c>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>**.* mV</t>
+        </is>
+      </c>
+      <c r="R48" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="T48" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="W48" t="inlineStr">
+        <is>
+          <t>51 %</t>
+        </is>
+      </c>
+      <c r="X48" t="inlineStr">
+        <is>
+          <t>65 %</t>
+        </is>
+      </c>
+      <c r="Y48" t="inlineStr">
+        <is>
+          <t>#.## g/m³</t>
+        </is>
+      </c>
+      <c r="Z48" t="inlineStr">
+        <is>
+          <t>9.07 g/m³</t>
+        </is>
+      </c>
+      <c r="AA48" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="AB48" t="inlineStr">
+        <is>
+          <t>7:00-22:00</t>
+        </is>
+      </c>
+      <c r="AC48" t="inlineStr">
+        <is>
+          <t>AWAY              22:00</t>
+        </is>
+      </c>
+      <c r="AD48" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="AE48" t="inlineStr">
+        <is>
+          <t>18.8 °C</t>
+        </is>
+      </c>
+      <c r="AF48" t="inlineStr">
+        <is>
+          <t>24.1 °C</t>
+        </is>
+      </c>
+      <c r="AG48" t="inlineStr">
+        <is>
+          <t>4.7 °C</t>
+        </is>
+      </c>
+      <c r="AH48" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI48" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AJ48" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AK48" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AL48" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AM48" t="inlineStr">
+        <is>
+          <t>51 %</t>
+        </is>
+      </c>
+      <c r="AN48" t="inlineStr">
+        <is>
+          <t>88 %</t>
+        </is>
+      </c>
+      <c r="AO48" t="inlineStr">
+        <is>
+          <t>929 W</t>
+        </is>
+      </c>
+      <c r="AP48" t="inlineStr">
+        <is>
+          <t>537 W</t>
+        </is>
+      </c>
+      <c r="AQ48" t="inlineStr">
+        <is>
+          <t>500 W</t>
+        </is>
+      </c>
+      <c r="AR48" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="AS48" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="AT48" t="inlineStr">
+        <is>
+          <t>2.24 kWh</t>
+        </is>
+      </c>
+      <c r="AU48" t="inlineStr">
+        <is>
+          <t>292.12 kWh</t>
+        </is>
+      </c>
+      <c r="AV48" t="inlineStr">
+        <is>
+          <t>2986.35 kWh</t>
+        </is>
+      </c>
+      <c r="AW48" t="inlineStr">
+        <is>
+          <t>2.00 kWh</t>
+        </is>
+      </c>
+      <c r="AX48" t="inlineStr">
+        <is>
+          <t>270.58 kWh</t>
+        </is>
+      </c>
+      <c r="AY48" t="inlineStr">
+        <is>
+          <t>2414.12 kWh</t>
+        </is>
+      </c>
+      <c r="AZ48" t="inlineStr">
+        <is>
+          <t>4.50 kWh</t>
+        </is>
+      </c>
+      <c r="BA48" t="inlineStr">
+        <is>
+          <t>563.69 kWh</t>
+        </is>
+      </c>
+      <c r="BB48" t="inlineStr">
+        <is>
+          <t>8836.57 kWh</t>
+        </is>
+      </c>
+      <c r="BC48" t="inlineStr">
+        <is>
+          <t>19.0 °C</t>
+        </is>
+      </c>
+      <c r="BD48" t="inlineStr">
+        <is>
+          <t>--.- °C</t>
+        </is>
+      </c>
+      <c r="BE48" t="inlineStr">
+        <is>
+          <t>--.- %</t>
+        </is>
+      </c>
+      <c r="BF48" t="inlineStr">
+        <is>
+          <t>42 %</t>
+        </is>
+      </c>
+      <c r="BG48" t="inlineStr">
+        <is>
+          <t>--.- %</t>
+        </is>
+      </c>
+      <c r="BH48" t="inlineStr">
+        <is>
+          <t>42 %</t>
+        </is>
+      </c>
+      <c r="BI48" t="inlineStr">
+        <is>
+          <t>146030620</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2022-02-17 11:55:42</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>18.8 °C</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>24.7 °C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>4.7 °C</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>**.* °C</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>24.7 °C</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>**.* °C</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>46 %</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>**.* %</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>0 mV</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>0 mV</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>**.* mV</t>
+        </is>
+      </c>
+      <c r="Q49" t="inlineStr">
+        <is>
+          <t>**.* mV</t>
+        </is>
+      </c>
+      <c r="R49" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="T49" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="U49" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="V49" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="W49" t="inlineStr">
+        <is>
+          <t>52 %</t>
+        </is>
+      </c>
+      <c r="X49" t="inlineStr">
+        <is>
+          <t>65 %</t>
+        </is>
+      </c>
+      <c r="Y49" t="inlineStr">
+        <is>
+          <t>#.## g/m³</t>
+        </is>
+      </c>
+      <c r="Z49" t="inlineStr">
+        <is>
+          <t>10.40 g/m³</t>
+        </is>
+      </c>
+      <c r="AA49" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="AB49" t="inlineStr">
+        <is>
+          <t>7:00-22:00</t>
+        </is>
+      </c>
+      <c r="AC49" t="inlineStr">
+        <is>
+          <t>AWAY              22:00</t>
+        </is>
+      </c>
+      <c r="AD49" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="AE49" t="inlineStr">
+        <is>
+          <t>18.7 °C</t>
+        </is>
+      </c>
+      <c r="AF49" t="inlineStr">
+        <is>
+          <t>24.7 °C</t>
+        </is>
+      </c>
+      <c r="AG49" t="inlineStr">
+        <is>
+          <t>4.7 °C</t>
+        </is>
+      </c>
+      <c r="AH49" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI49" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AJ49" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AK49" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AL49" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AM49" t="inlineStr">
+        <is>
+          <t>52 %</t>
+        </is>
+      </c>
+      <c r="AN49" t="inlineStr">
+        <is>
+          <t>88 %</t>
+        </is>
+      </c>
+      <c r="AO49" t="inlineStr">
+        <is>
+          <t>939 W</t>
+        </is>
+      </c>
+      <c r="AP49" t="inlineStr">
+        <is>
+          <t>536 W</t>
+        </is>
+      </c>
+      <c r="AQ49" t="inlineStr">
+        <is>
+          <t>500 W</t>
+        </is>
+      </c>
+      <c r="AR49" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="AS49" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="AT49" t="inlineStr">
+        <is>
+          <t>3.37 kWh</t>
+        </is>
+      </c>
+      <c r="AU49" t="inlineStr">
+        <is>
+          <t>293.25 kWh</t>
+        </is>
+      </c>
+      <c r="AV49" t="inlineStr">
+        <is>
+          <t>2987.48 kWh</t>
+        </is>
+      </c>
+      <c r="AW49" t="inlineStr">
+        <is>
+          <t>3.05 kWh</t>
+        </is>
+      </c>
+      <c r="AX49" t="inlineStr">
+        <is>
+          <t>271.63 kWh</t>
+        </is>
+      </c>
+      <c r="AY49" t="inlineStr">
+        <is>
+          <t>2415.17 kWh</t>
+        </is>
+      </c>
+      <c r="AZ49" t="inlineStr">
+        <is>
+          <t>6.41 kWh</t>
+        </is>
+      </c>
+      <c r="BA49" t="inlineStr">
+        <is>
+          <t>565.61 kWh</t>
+        </is>
+      </c>
+      <c r="BB49" t="inlineStr">
+        <is>
+          <t>8838.49 kWh</t>
+        </is>
+      </c>
+      <c r="BC49" t="inlineStr">
+        <is>
+          <t>19.0 °C</t>
+        </is>
+      </c>
+      <c r="BD49" t="inlineStr">
+        <is>
+          <t>--.- °C</t>
+        </is>
+      </c>
+      <c r="BE49" t="inlineStr">
+        <is>
+          <t>--.- %</t>
+        </is>
+      </c>
+      <c r="BF49" t="inlineStr">
+        <is>
+          <t>46 %</t>
+        </is>
+      </c>
+      <c r="BG49" t="inlineStr">
+        <is>
+          <t>--.- %</t>
+        </is>
+      </c>
+      <c r="BH49" t="inlineStr">
+        <is>
+          <t>46 %</t>
+        </is>
+      </c>
+      <c r="BI49" t="inlineStr">
+        <is>
+          <t>144982044</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>2022-02-18 15:20:00</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>17.0 °C</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>23.2 °C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2.7 °C</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>**.* °C</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>24.2 °C</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>**.* °C</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>44 %</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>**.* %</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>0 mV</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>0 mV</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>**.* mV</t>
+        </is>
+      </c>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>**.* mV</t>
+        </is>
+      </c>
+      <c r="R50" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="T50" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="U50" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="V50" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="W50" t="inlineStr">
+        <is>
+          <t>52 %</t>
+        </is>
+      </c>
+      <c r="X50" t="inlineStr">
+        <is>
+          <t>66 %</t>
+        </is>
+      </c>
+      <c r="Y50" t="inlineStr">
+        <is>
+          <t>#.## g/m³</t>
+        </is>
+      </c>
+      <c r="Z50" t="inlineStr">
+        <is>
+          <t>9.68 g/m³</t>
+        </is>
+      </c>
+      <c r="AA50" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="AB50" t="inlineStr">
+        <is>
+          <t>7:00-22:00</t>
+        </is>
+      </c>
+      <c r="AC50" t="inlineStr">
+        <is>
+          <t>AWAY              22:00</t>
+        </is>
+      </c>
+      <c r="AD50" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="AE50" t="inlineStr">
+        <is>
+          <t>16.9 °C</t>
+        </is>
+      </c>
+      <c r="AF50" t="inlineStr">
+        <is>
+          <t>23.2 °C</t>
+        </is>
+      </c>
+      <c r="AG50" t="inlineStr">
+        <is>
+          <t>2.8 °C</t>
+        </is>
+      </c>
+      <c r="AH50" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI50" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AJ50" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AK50" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AL50" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AM50" t="inlineStr">
+        <is>
+          <t>52 %</t>
+        </is>
+      </c>
+      <c r="AN50" t="inlineStr">
+        <is>
+          <t>87 %</t>
+        </is>
+      </c>
+      <c r="AO50" t="inlineStr">
+        <is>
+          <t>966 W</t>
+        </is>
+      </c>
+      <c r="AP50" t="inlineStr">
+        <is>
+          <t>536 W</t>
+        </is>
+      </c>
+      <c r="AQ50" t="inlineStr">
+        <is>
+          <t>500 W</t>
+        </is>
+      </c>
+      <c r="AR50" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="AS50" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="AT50" t="inlineStr">
+        <is>
+          <t>5.01 kWh</t>
+        </is>
+      </c>
+      <c r="AU50" t="inlineStr">
+        <is>
+          <t>295.19 kWh</t>
+        </is>
+      </c>
+      <c r="AV50" t="inlineStr">
+        <is>
+          <t>2998.17 kWh</t>
+        </is>
+      </c>
+      <c r="AW50" t="inlineStr">
+        <is>
+          <t>4.57 kWh</t>
+        </is>
+      </c>
+      <c r="AX50" t="inlineStr">
+        <is>
+          <t>273.47 kWh</t>
+        </is>
+      </c>
+      <c r="AY50" t="inlineStr">
+        <is>
+          <t>2425.01 kWh</t>
+        </is>
+      </c>
+      <c r="AZ50" t="inlineStr">
+        <is>
+          <t>10.09 kWh</t>
+        </is>
+      </c>
+      <c r="BA50" t="inlineStr">
+        <is>
+          <t>568.17 kWh</t>
+        </is>
+      </c>
+      <c r="BB50" t="inlineStr">
+        <is>
+          <t>8858.56 kWh</t>
+        </is>
+      </c>
+      <c r="BC50" t="inlineStr">
+        <is>
+          <t>19.0 °C</t>
+        </is>
+      </c>
+      <c r="BD50" t="inlineStr">
+        <is>
+          <t>--.- °C</t>
+        </is>
+      </c>
+      <c r="BE50" t="inlineStr">
+        <is>
+          <t>--.- %</t>
+        </is>
+      </c>
+      <c r="BF50" t="inlineStr">
+        <is>
+          <t>44 %</t>
+        </is>
+      </c>
+      <c r="BG50" t="inlineStr">
+        <is>
+          <t>--.- %</t>
+        </is>
+      </c>
+      <c r="BH50" t="inlineStr">
+        <is>
+          <t>44 %</t>
+        </is>
+      </c>
+      <c r="BI50" t="inlineStr">
+        <is>
+          <t>146030620</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2022-02-19 08:50:10</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>17.7 °C</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>24.0 °C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.5 °C</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>**.* °C</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>23.8 °C</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>**.* °C</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>42 %</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>**.* %</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>0 mV</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>0 mV</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>**.* mV</t>
+        </is>
+      </c>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>**.* mV</t>
+        </is>
+      </c>
+      <c r="R51" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="S51" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="T51" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="U51" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="V51" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="W51" t="inlineStr">
+        <is>
+          <t>53 %</t>
+        </is>
+      </c>
+      <c r="X51" t="inlineStr">
+        <is>
+          <t>68 %</t>
+        </is>
+      </c>
+      <c r="Y51" t="inlineStr">
+        <is>
+          <t>#.## g/m³</t>
+        </is>
+      </c>
+      <c r="Z51" t="inlineStr">
+        <is>
+          <t>9.02 g/m³</t>
+        </is>
+      </c>
+      <c r="AA51" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="AB51" t="inlineStr">
+        <is>
+          <t>7:00-22:00</t>
+        </is>
+      </c>
+      <c r="AC51" t="inlineStr">
+        <is>
+          <t>AWAY              22:00</t>
+        </is>
+      </c>
+      <c r="AD51" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="AE51" t="inlineStr">
+        <is>
+          <t>17.6 °C</t>
+        </is>
+      </c>
+      <c r="AF51" t="inlineStr">
+        <is>
+          <t>24.1 °C</t>
+        </is>
+      </c>
+      <c r="AG51" t="inlineStr">
+        <is>
+          <t>1.5 °C</t>
+        </is>
+      </c>
+      <c r="AH51" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI51" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AJ51" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AK51" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AL51" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AM51" t="inlineStr">
+        <is>
+          <t>53 %</t>
+        </is>
+      </c>
+      <c r="AN51" t="inlineStr">
+        <is>
+          <t>88 %</t>
+        </is>
+      </c>
+      <c r="AO51" t="inlineStr">
+        <is>
+          <t>1089 W</t>
+        </is>
+      </c>
+      <c r="AP51" t="inlineStr">
+        <is>
+          <t>536 W</t>
+        </is>
+      </c>
+      <c r="AQ51" t="inlineStr">
+        <is>
+          <t>500 W</t>
+        </is>
+      </c>
+      <c r="AR51" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="AS51" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="AT51" t="inlineStr">
+        <is>
+          <t>1.80 kWh</t>
+        </is>
+      </c>
+      <c r="AU51" t="inlineStr">
+        <is>
+          <t>291.65 kWh</t>
+        </is>
+      </c>
+      <c r="AV51" t="inlineStr">
+        <is>
+          <t>3003.93 kWh</t>
+        </is>
+      </c>
+      <c r="AW51" t="inlineStr">
+        <is>
+          <t>1.59 kWh</t>
+        </is>
+      </c>
+      <c r="AX51" t="inlineStr">
+        <is>
+          <t>270.17 kWh</t>
+        </is>
+      </c>
+      <c r="AY51" t="inlineStr">
+        <is>
+          <t>2430.29 kWh</t>
+        </is>
+      </c>
+      <c r="AZ51" t="inlineStr">
+        <is>
+          <t>3.75 kWh</t>
+        </is>
+      </c>
+      <c r="BA51" t="inlineStr">
+        <is>
+          <t>560.17 kWh</t>
+        </is>
+      </c>
+      <c r="BB51" t="inlineStr">
+        <is>
+          <t>8869.61 kWh</t>
+        </is>
+      </c>
+      <c r="BC51" t="inlineStr">
+        <is>
+          <t>19.0 °C</t>
+        </is>
+      </c>
+      <c r="BD51" t="inlineStr">
+        <is>
+          <t>--.- °C</t>
+        </is>
+      </c>
+      <c r="BE51" t="inlineStr">
+        <is>
+          <t>--.- %</t>
+        </is>
+      </c>
+      <c r="BF51" t="inlineStr">
+        <is>
+          <t>42 %</t>
+        </is>
+      </c>
+      <c r="BG51" t="inlineStr">
+        <is>
+          <t>--.- %</t>
+        </is>
+      </c>
+      <c r="BH51" t="inlineStr">
+        <is>
+          <t>42 %</t>
+        </is>
+      </c>
+      <c r="BI51" t="inlineStr">
+        <is>
+          <t>144982044</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>2022-02-20 14:51:20</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>19.2 °C</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>24.8 °C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>3.5 °C</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>**.* °C</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>24.2 °C</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>**.* °C</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>45 %</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>**.* %</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>0 mV</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>0 mV</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>**.* mV</t>
+        </is>
+      </c>
+      <c r="Q52" t="inlineStr">
+        <is>
+          <t>**.* mV</t>
+        </is>
+      </c>
+      <c r="R52" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="S52" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="T52" t="inlineStr">
+        <is>
+          <t>58 %</t>
+        </is>
+      </c>
+      <c r="U52" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="V52" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="W52" t="inlineStr">
+        <is>
+          <t>54 %</t>
+        </is>
+      </c>
+      <c r="X52" t="inlineStr">
+        <is>
+          <t>77 %</t>
+        </is>
+      </c>
+      <c r="Y52" t="inlineStr">
+        <is>
+          <t>#.## g/m³</t>
+        </is>
+      </c>
+      <c r="Z52" t="inlineStr">
+        <is>
+          <t>9.89 g/m³</t>
+        </is>
+      </c>
+      <c r="AA52" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="AB52" t="inlineStr">
+        <is>
+          <t>7:00-22:00</t>
+        </is>
+      </c>
+      <c r="AC52" t="inlineStr">
+        <is>
+          <t>AWAY              22:00</t>
+        </is>
+      </c>
+      <c r="AD52" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="AE52" t="inlineStr">
+        <is>
+          <t>19.2 °C</t>
+        </is>
+      </c>
+      <c r="AF52" t="inlineStr">
+        <is>
+          <t>24.8 °C</t>
+        </is>
+      </c>
+      <c r="AG52" t="inlineStr">
+        <is>
+          <t>3.6 °C</t>
+        </is>
+      </c>
+      <c r="AH52" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI52" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AJ52" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AK52" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AL52" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AM52" t="inlineStr">
+        <is>
+          <t>54 %</t>
+        </is>
+      </c>
+      <c r="AN52" t="inlineStr">
+        <is>
+          <t>89 %</t>
+        </is>
+      </c>
+      <c r="AO52" t="inlineStr">
+        <is>
+          <t>1003 W</t>
+        </is>
+      </c>
+      <c r="AP52" t="inlineStr">
+        <is>
+          <t>326 W</t>
+        </is>
+      </c>
+      <c r="AQ52" t="inlineStr">
+        <is>
+          <t>289 W</t>
+        </is>
+      </c>
+      <c r="AR52" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="AS52" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="AT52" t="inlineStr">
+        <is>
+          <t>2.91 kWh</t>
+        </is>
+      </c>
+      <c r="AU52" t="inlineStr">
+        <is>
+          <t>292.03 kWh</t>
+        </is>
+      </c>
+      <c r="AV52" t="inlineStr">
+        <is>
+          <t>3013.59 kWh</t>
+        </is>
+      </c>
+      <c r="AW52" t="inlineStr">
+        <is>
+          <t>2.47 kWh</t>
+        </is>
+      </c>
+      <c r="AX52" t="inlineStr">
+        <is>
+          <t>270.32 kWh</t>
+        </is>
+      </c>
+      <c r="AY52" t="inlineStr">
+        <is>
+          <t>2439.00 kWh</t>
+        </is>
+      </c>
+      <c r="AZ52" t="inlineStr">
+        <is>
+          <t>11.74 kWh</t>
+        </is>
+      </c>
+      <c r="BA52" t="inlineStr">
+        <is>
+          <t>566.80 kWh</t>
+        </is>
+      </c>
+      <c r="BB52" t="inlineStr">
+        <is>
+          <t>8896.48 kWh</t>
+        </is>
+      </c>
+      <c r="BC52" t="inlineStr">
+        <is>
+          <t>19.0 °C</t>
+        </is>
+      </c>
+      <c r="BD52" t="inlineStr">
+        <is>
+          <t>--.- °C</t>
+        </is>
+      </c>
+      <c r="BE52" t="inlineStr">
+        <is>
+          <t>--.- %</t>
+        </is>
+      </c>
+      <c r="BF52" t="inlineStr">
+        <is>
+          <t>45 %</t>
+        </is>
+      </c>
+      <c r="BG52" t="inlineStr">
+        <is>
+          <t>--.- %</t>
+        </is>
+      </c>
+      <c r="BH52" t="inlineStr">
+        <is>
+          <t>45 %</t>
+        </is>
+      </c>
+      <c r="BI52" t="inlineStr">
+        <is>
+          <t>144982044</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>2022-02-20 15:18:02</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>18.9 °C</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>25.4 °C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>3.8 °C</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>**.* °C</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>24.2 °C</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>**.* °C</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>45 %</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>**.* %</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>0 mV</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>0 mV</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>**.* mV</t>
+        </is>
+      </c>
+      <c r="Q53" t="inlineStr">
+        <is>
+          <t>**.* mV</t>
+        </is>
+      </c>
+      <c r="R53" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="S53" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="T53" t="inlineStr">
+        <is>
+          <t>57 %</t>
+        </is>
+      </c>
+      <c r="U53" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="V53" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="W53" t="inlineStr">
+        <is>
+          <t>54 %</t>
+        </is>
+      </c>
+      <c r="X53" t="inlineStr">
+        <is>
+          <t>78 %</t>
+        </is>
+      </c>
+      <c r="Y53" t="inlineStr">
+        <is>
+          <t>#.## g/m³</t>
+        </is>
+      </c>
+      <c r="Z53" t="inlineStr">
+        <is>
+          <t>9.89 g/m³</t>
+        </is>
+      </c>
+      <c r="AA53" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="AB53" t="inlineStr">
+        <is>
+          <t>7:00-22:00</t>
+        </is>
+      </c>
+      <c r="AC53" t="inlineStr">
+        <is>
+          <t>AWAY              22:00</t>
+        </is>
+      </c>
+      <c r="AD53" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="AE53" t="inlineStr">
+        <is>
+          <t>19.0 °C</t>
+        </is>
+      </c>
+      <c r="AF53" t="inlineStr">
+        <is>
+          <t>25.4 °C</t>
+        </is>
+      </c>
+      <c r="AG53" t="inlineStr">
+        <is>
+          <t>3.8 °C</t>
+        </is>
+      </c>
+      <c r="AH53" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI53" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AJ53" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AK53" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AL53" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AM53" t="inlineStr">
+        <is>
+          <t>54 %</t>
+        </is>
+      </c>
+      <c r="AN53" t="inlineStr">
+        <is>
+          <t>89 %</t>
+        </is>
+      </c>
+      <c r="AO53" t="inlineStr">
+        <is>
+          <t>1041 W</t>
+        </is>
+      </c>
+      <c r="AP53" t="inlineStr">
+        <is>
+          <t>327 W</t>
+        </is>
+      </c>
+      <c r="AQ53" t="inlineStr">
+        <is>
+          <t>291 W</t>
+        </is>
+      </c>
+      <c r="AR53" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="AS53" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="AT53" t="inlineStr">
+        <is>
+          <t>3.05 kWh</t>
+        </is>
+      </c>
+      <c r="AU53" t="inlineStr">
+        <is>
+          <t>292.17 kWh</t>
+        </is>
+      </c>
+      <c r="AV53" t="inlineStr">
+        <is>
+          <t>3013.73 kWh</t>
+        </is>
+      </c>
+      <c r="AW53" t="inlineStr">
+        <is>
+          <t>2.60 kWh</t>
+        </is>
+      </c>
+      <c r="AX53" t="inlineStr">
+        <is>
+          <t>270.45 kWh</t>
+        </is>
+      </c>
+      <c r="AY53" t="inlineStr">
+        <is>
+          <t>2439.12 kWh</t>
+        </is>
+      </c>
+      <c r="AZ53" t="inlineStr">
+        <is>
+          <t>12.18 kWh</t>
+        </is>
+      </c>
+      <c r="BA53" t="inlineStr">
+        <is>
+          <t>567.25 kWh</t>
+        </is>
+      </c>
+      <c r="BB53" t="inlineStr">
+        <is>
+          <t>8896.93 kWh</t>
+        </is>
+      </c>
+      <c r="BC53" t="inlineStr">
+        <is>
+          <t>19.0 °C</t>
+        </is>
+      </c>
+      <c r="BD53" t="inlineStr">
+        <is>
+          <t>--.- °C</t>
+        </is>
+      </c>
+      <c r="BE53" t="inlineStr">
+        <is>
+          <t>--.- %</t>
+        </is>
+      </c>
+      <c r="BF53" t="inlineStr">
+        <is>
+          <t>45 %</t>
+        </is>
+      </c>
+      <c r="BG53" t="inlineStr">
+        <is>
+          <t>--.- %</t>
+        </is>
+      </c>
+      <c r="BH53" t="inlineStr">
+        <is>
+          <t>45 %</t>
+        </is>
+      </c>
+      <c r="BI53" t="inlineStr">
+        <is>
+          <t>144982044</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>2022-02-20 16:12:16</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>18.7 °C</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>24.6 °C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2.9 °C</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>**.* °C</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>23.9 °C</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>**.* °C</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>44 %</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>**.* %</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>0 mV</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>0 mV</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>**.* mV</t>
+        </is>
+      </c>
+      <c r="Q54" t="inlineStr">
+        <is>
+          <t>**.* mV</t>
+        </is>
+      </c>
+      <c r="R54" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="S54" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="T54" t="inlineStr">
+        <is>
+          <t>78 %</t>
+        </is>
+      </c>
+      <c r="U54" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="V54" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="W54" t="inlineStr">
+        <is>
+          <t>54 %</t>
+        </is>
+      </c>
+      <c r="X54" t="inlineStr">
+        <is>
+          <t>72 %</t>
+        </is>
+      </c>
+      <c r="Y54" t="inlineStr">
+        <is>
+          <t>#.## g/m³</t>
+        </is>
+      </c>
+      <c r="Z54" t="inlineStr">
+        <is>
+          <t>9.52 g/m³</t>
+        </is>
+      </c>
+      <c r="AA54" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="AB54" t="inlineStr">
+        <is>
+          <t>7:00-22:00</t>
+        </is>
+      </c>
+      <c r="AC54" t="inlineStr">
+        <is>
+          <t>AWAY              22:00</t>
+        </is>
+      </c>
+      <c r="AD54" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="AE54" t="inlineStr">
+        <is>
+          <t>18.5 °C</t>
+        </is>
+      </c>
+      <c r="AF54" t="inlineStr">
+        <is>
+          <t>24.6 °C</t>
+        </is>
+      </c>
+      <c r="AG54" t="inlineStr">
+        <is>
+          <t>2.9 °C</t>
+        </is>
+      </c>
+      <c r="AH54" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI54" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AJ54" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AK54" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AL54" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AM54" t="inlineStr">
+        <is>
+          <t>54 %</t>
+        </is>
+      </c>
+      <c r="AN54" t="inlineStr">
+        <is>
+          <t>89 %</t>
+        </is>
+      </c>
+      <c r="AO54" t="inlineStr">
+        <is>
+          <t>1046 W</t>
+        </is>
+      </c>
+      <c r="AP54" t="inlineStr">
+        <is>
+          <t>440 W</t>
+        </is>
+      </c>
+      <c r="AQ54" t="inlineStr">
+        <is>
+          <t>404 W</t>
+        </is>
+      </c>
+      <c r="AR54" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="AS54" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="AT54" t="inlineStr">
+        <is>
+          <t>3.37 kWh</t>
+        </is>
+      </c>
+      <c r="AU54" t="inlineStr">
+        <is>
+          <t>292.49 kWh</t>
+        </is>
+      </c>
+      <c r="AV54" t="inlineStr">
+        <is>
+          <t>3014.05 kWh</t>
+        </is>
+      </c>
+      <c r="AW54" t="inlineStr">
+        <is>
+          <t>2.89 kWh</t>
+        </is>
+      </c>
+      <c r="AX54" t="inlineStr">
+        <is>
+          <t>270.74 kWh</t>
+        </is>
+      </c>
+      <c r="AY54" t="inlineStr">
+        <is>
+          <t>2439.41 kWh</t>
+        </is>
+      </c>
+      <c r="AZ54" t="inlineStr">
+        <is>
+          <t>13.13 kWh</t>
+        </is>
+      </c>
+      <c r="BA54" t="inlineStr">
+        <is>
+          <t>568.20 kWh</t>
+        </is>
+      </c>
+      <c r="BB54" t="inlineStr">
+        <is>
+          <t>8897.88 kWh</t>
+        </is>
+      </c>
+      <c r="BC54" t="inlineStr">
+        <is>
+          <t>19.0 °C</t>
+        </is>
+      </c>
+      <c r="BD54" t="inlineStr">
+        <is>
+          <t>--.- °C</t>
+        </is>
+      </c>
+      <c r="BE54" t="inlineStr">
+        <is>
+          <t>--.- %</t>
+        </is>
+      </c>
+      <c r="BF54" t="inlineStr">
+        <is>
+          <t>44 %</t>
+        </is>
+      </c>
+      <c r="BG54" t="inlineStr">
+        <is>
+          <t>--.- %</t>
+        </is>
+      </c>
+      <c r="BH54" t="inlineStr">
+        <is>
+          <t>44 %</t>
+        </is>
+      </c>
+      <c r="BI54" t="inlineStr">
+        <is>
+          <t>146030620</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/SampleData.xlsx
+++ b/SampleData.xlsx
@@ -412,7 +412,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BI54"/>
+  <dimension ref="A1:BI55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -17038,6 +17038,313 @@
         </is>
       </c>
     </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>2022-02-21 17:00:51</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>17.8 °C</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>25.2 °C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.5 °C</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>**.* °C</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>24.2 °C</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>**.* °C</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>43 %</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>**.* %</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>0 mV</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>0 mV</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>**.* mV</t>
+        </is>
+      </c>
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>**.* mV</t>
+        </is>
+      </c>
+      <c r="R55" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="S55" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="T55" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="U55" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="V55" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="W55" t="inlineStr">
+        <is>
+          <t>54 %</t>
+        </is>
+      </c>
+      <c r="X55" t="inlineStr">
+        <is>
+          <t>69 %</t>
+        </is>
+      </c>
+      <c r="Y55" t="inlineStr">
+        <is>
+          <t>#.## g/m³</t>
+        </is>
+      </c>
+      <c r="Z55" t="inlineStr">
+        <is>
+          <t>9.46 g/m³</t>
+        </is>
+      </c>
+      <c r="AA55" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="AB55" t="inlineStr">
+        <is>
+          <t>7:00-22:00</t>
+        </is>
+      </c>
+      <c r="AC55" t="inlineStr">
+        <is>
+          <t>AWAY              22:00</t>
+        </is>
+      </c>
+      <c r="AD55" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="AE55" t="inlineStr">
+        <is>
+          <t>17.8 °C</t>
+        </is>
+      </c>
+      <c r="AF55" t="inlineStr">
+        <is>
+          <t>25.2 °C</t>
+        </is>
+      </c>
+      <c r="AG55" t="inlineStr">
+        <is>
+          <t>1.6 °C</t>
+        </is>
+      </c>
+      <c r="AH55" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI55" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AJ55" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AK55" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AL55" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AM55" t="inlineStr">
+        <is>
+          <t>54 %</t>
+        </is>
+      </c>
+      <c r="AN55" t="inlineStr">
+        <is>
+          <t>90 %</t>
+        </is>
+      </c>
+      <c r="AO55" t="inlineStr">
+        <is>
+          <t>1142 W</t>
+        </is>
+      </c>
+      <c r="AP55" t="inlineStr">
+        <is>
+          <t>536 W</t>
+        </is>
+      </c>
+      <c r="AQ55" t="inlineStr">
+        <is>
+          <t>500 W</t>
+        </is>
+      </c>
+      <c r="AR55" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="AS55" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="AT55" t="inlineStr">
+        <is>
+          <t>6.19 kWh</t>
+        </is>
+      </c>
+      <c r="AU55" t="inlineStr">
+        <is>
+          <t>292.28 kWh</t>
+        </is>
+      </c>
+      <c r="AV55" t="inlineStr">
+        <is>
+          <t>3023.65 kWh</t>
+        </is>
+      </c>
+      <c r="AW55" t="inlineStr">
+        <is>
+          <t>5.68 kWh</t>
+        </is>
+      </c>
+      <c r="AX55" t="inlineStr">
+        <is>
+          <t>270.49 kWh</t>
+        </is>
+      </c>
+      <c r="AY55" t="inlineStr">
+        <is>
+          <t>2448.24 kWh</t>
+        </is>
+      </c>
+      <c r="AZ55" t="inlineStr">
+        <is>
+          <t>14.24 kWh</t>
+        </is>
+      </c>
+      <c r="BA55" t="inlineStr">
+        <is>
+          <t>568.32 kWh</t>
+        </is>
+      </c>
+      <c r="BB55" t="inlineStr">
+        <is>
+          <t>8919.24 kWh</t>
+        </is>
+      </c>
+      <c r="BC55" t="inlineStr">
+        <is>
+          <t>19.0 °C</t>
+        </is>
+      </c>
+      <c r="BD55" t="inlineStr">
+        <is>
+          <t>--.- °C</t>
+        </is>
+      </c>
+      <c r="BE55" t="inlineStr">
+        <is>
+          <t>--.- %</t>
+        </is>
+      </c>
+      <c r="BF55" t="inlineStr">
+        <is>
+          <t>43 %</t>
+        </is>
+      </c>
+      <c r="BG55" t="inlineStr">
+        <is>
+          <t>--.- %</t>
+        </is>
+      </c>
+      <c r="BH55" t="inlineStr">
+        <is>
+          <t>43 %</t>
+        </is>
+      </c>
+      <c r="BI55" t="inlineStr">
+        <is>
+          <t>146030620</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SampleData.xlsx
+++ b/SampleData.xlsx
@@ -412,7 +412,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BI55"/>
+  <dimension ref="A1:BI56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -17345,6 +17345,313 @@
         </is>
       </c>
     </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>2022-02-23 14:27:45</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>17.0 °C</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>24.4 °C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>-0.4 °C</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>**.* °C</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>24.4 °C</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>**.* °C</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>45 %</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>**.* %</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>0 mV</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>0 mV</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>**.* mV</t>
+        </is>
+      </c>
+      <c r="Q56" t="inlineStr">
+        <is>
+          <t>**.* mV</t>
+        </is>
+      </c>
+      <c r="R56" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="S56" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="T56" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="U56" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="V56" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="W56" t="inlineStr">
+        <is>
+          <t>56 %</t>
+        </is>
+      </c>
+      <c r="X56" t="inlineStr">
+        <is>
+          <t>70 %</t>
+        </is>
+      </c>
+      <c r="Y56" t="inlineStr">
+        <is>
+          <t>#.## g/m³</t>
+        </is>
+      </c>
+      <c r="Z56" t="inlineStr">
+        <is>
+          <t>10.01 g/m³</t>
+        </is>
+      </c>
+      <c r="AA56" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="AB56" t="inlineStr">
+        <is>
+          <t>7:00-22:00</t>
+        </is>
+      </c>
+      <c r="AC56" t="inlineStr">
+        <is>
+          <t>AWAY              22:00</t>
+        </is>
+      </c>
+      <c r="AD56" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="AE56" t="inlineStr">
+        <is>
+          <t>17.2 °C</t>
+        </is>
+      </c>
+      <c r="AF56" t="inlineStr">
+        <is>
+          <t>24.2 °C</t>
+        </is>
+      </c>
+      <c r="AG56" t="inlineStr">
+        <is>
+          <t>-0.4 °C</t>
+        </is>
+      </c>
+      <c r="AH56" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI56" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AJ56" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AK56" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AL56" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AM56" t="inlineStr">
+        <is>
+          <t>56 %</t>
+        </is>
+      </c>
+      <c r="AN56" t="inlineStr">
+        <is>
+          <t>90 %</t>
+        </is>
+      </c>
+      <c r="AO56" t="inlineStr">
+        <is>
+          <t>1196 W</t>
+        </is>
+      </c>
+      <c r="AP56" t="inlineStr">
+        <is>
+          <t>538 W</t>
+        </is>
+      </c>
+      <c r="AQ56" t="inlineStr">
+        <is>
+          <t>500 W</t>
+        </is>
+      </c>
+      <c r="AR56" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="AS56" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="AT56" t="inlineStr">
+        <is>
+          <t>4.66 kWh</t>
+        </is>
+      </c>
+      <c r="AU56" t="inlineStr">
+        <is>
+          <t>287.54 kWh</t>
+        </is>
+      </c>
+      <c r="AV56" t="inlineStr">
+        <is>
+          <t>3039.84 kWh</t>
+        </is>
+      </c>
+      <c r="AW56" t="inlineStr">
+        <is>
+          <t>4.24 kWh</t>
+        </is>
+      </c>
+      <c r="AX56" t="inlineStr">
+        <is>
+          <t>265.85 kWh</t>
+        </is>
+      </c>
+      <c r="AY56" t="inlineStr">
+        <is>
+          <t>2463.06 kWh</t>
+        </is>
+      </c>
+      <c r="AZ56" t="inlineStr">
+        <is>
+          <t>12.61 kWh</t>
+        </is>
+      </c>
+      <c r="BA56" t="inlineStr">
+        <is>
+          <t>569.76 kWh</t>
+        </is>
+      </c>
+      <c r="BB56" t="inlineStr">
+        <is>
+          <t>8958.54 kWh</t>
+        </is>
+      </c>
+      <c r="BC56" t="inlineStr">
+        <is>
+          <t>19.0 °C</t>
+        </is>
+      </c>
+      <c r="BD56" t="inlineStr">
+        <is>
+          <t>--.- °C</t>
+        </is>
+      </c>
+      <c r="BE56" t="inlineStr">
+        <is>
+          <t>--.- %</t>
+        </is>
+      </c>
+      <c r="BF56" t="inlineStr">
+        <is>
+          <t>45 %</t>
+        </is>
+      </c>
+      <c r="BG56" t="inlineStr">
+        <is>
+          <t>--.- %</t>
+        </is>
+      </c>
+      <c r="BH56" t="inlineStr">
+        <is>
+          <t>45 %</t>
+        </is>
+      </c>
+      <c r="BI56" t="inlineStr">
+        <is>
+          <t>144982044</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SampleData.xlsx
+++ b/SampleData.xlsx
@@ -412,7 +412,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BI56"/>
+  <dimension ref="A1:BI59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -17652,6 +17652,927 @@
         </is>
       </c>
     </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>2022-02-24 10:25:58</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>18.5 °C</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>24.3 °C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>3.8 °C</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>**.* °C</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>23.8 °C</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>**.* °C</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>40 %</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>**.* %</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>0 mV</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>0 mV</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>**.* mV</t>
+        </is>
+      </c>
+      <c r="Q57" t="inlineStr">
+        <is>
+          <t>**.* mV</t>
+        </is>
+      </c>
+      <c r="R57" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="S57" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="T57" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="U57" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="V57" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="W57" t="inlineStr">
+        <is>
+          <t>56 %</t>
+        </is>
+      </c>
+      <c r="X57" t="inlineStr">
+        <is>
+          <t>66 %</t>
+        </is>
+      </c>
+      <c r="Y57" t="inlineStr">
+        <is>
+          <t>#.## g/m³</t>
+        </is>
+      </c>
+      <c r="Z57" t="inlineStr">
+        <is>
+          <t>8.60 g/m³</t>
+        </is>
+      </c>
+      <c r="AA57" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="AB57" t="inlineStr">
+        <is>
+          <t>7:00-22:00</t>
+        </is>
+      </c>
+      <c r="AC57" t="inlineStr">
+        <is>
+          <t>AWAY              22:00</t>
+        </is>
+      </c>
+      <c r="AD57" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="AE57" t="inlineStr">
+        <is>
+          <t>18.5 °C</t>
+        </is>
+      </c>
+      <c r="AF57" t="inlineStr">
+        <is>
+          <t>24.4 °C</t>
+        </is>
+      </c>
+      <c r="AG57" t="inlineStr">
+        <is>
+          <t>3.7 °C</t>
+        </is>
+      </c>
+      <c r="AH57" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI57" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AJ57" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AK57" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AL57" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AM57" t="inlineStr">
+        <is>
+          <t>56 %</t>
+        </is>
+      </c>
+      <c r="AN57" t="inlineStr">
+        <is>
+          <t>91 %</t>
+        </is>
+      </c>
+      <c r="AO57" t="inlineStr">
+        <is>
+          <t>1003 W</t>
+        </is>
+      </c>
+      <c r="AP57" t="inlineStr">
+        <is>
+          <t>537 W</t>
+        </is>
+      </c>
+      <c r="AQ57" t="inlineStr">
+        <is>
+          <t>500 W</t>
+        </is>
+      </c>
+      <c r="AR57" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="AS57" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="AT57" t="inlineStr">
+        <is>
+          <t>2.90 kWh</t>
+        </is>
+      </c>
+      <c r="AU57" t="inlineStr">
+        <is>
+          <t>285.79 kWh</t>
+        </is>
+      </c>
+      <c r="AV57" t="inlineStr">
+        <is>
+          <t>3047.28 kWh</t>
+        </is>
+      </c>
+      <c r="AW57" t="inlineStr">
+        <is>
+          <t>2.63 kWh</t>
+        </is>
+      </c>
+      <c r="AX57" t="inlineStr">
+        <is>
+          <t>264.25 kWh</t>
+        </is>
+      </c>
+      <c r="AY57" t="inlineStr">
+        <is>
+          <t>2469.91 kWh</t>
+        </is>
+      </c>
+      <c r="AZ57" t="inlineStr">
+        <is>
+          <t>6.10 kWh</t>
+        </is>
+      </c>
+      <c r="BA57" t="inlineStr">
+        <is>
+          <t>567.77 kWh</t>
+        </is>
+      </c>
+      <c r="BB57" t="inlineStr">
+        <is>
+          <t>8974.62 kWh</t>
+        </is>
+      </c>
+      <c r="BC57" t="inlineStr">
+        <is>
+          <t>19.0 °C</t>
+        </is>
+      </c>
+      <c r="BD57" t="inlineStr">
+        <is>
+          <t>--.- °C</t>
+        </is>
+      </c>
+      <c r="BE57" t="inlineStr">
+        <is>
+          <t>--.- %</t>
+        </is>
+      </c>
+      <c r="BF57" t="inlineStr">
+        <is>
+          <t>40 %</t>
+        </is>
+      </c>
+      <c r="BG57" t="inlineStr">
+        <is>
+          <t>--.- %</t>
+        </is>
+      </c>
+      <c r="BH57" t="inlineStr">
+        <is>
+          <t>40 %</t>
+        </is>
+      </c>
+      <c r="BI57" t="inlineStr">
+        <is>
+          <t>146030620</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2022-02-24 17:57:09</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>18.7 °C</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>24.6 °C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>4.8 °C</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>**.* °C</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>24.2 °C</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>**.* °C</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>39 %</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>**.* %</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>0 mV</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>0 mV</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>**.* mV</t>
+        </is>
+      </c>
+      <c r="Q58" t="inlineStr">
+        <is>
+          <t>**.* mV</t>
+        </is>
+      </c>
+      <c r="R58" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="S58" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="T58" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="U58" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="V58" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="W58" t="inlineStr">
+        <is>
+          <t>56 %</t>
+        </is>
+      </c>
+      <c r="X58" t="inlineStr">
+        <is>
+          <t>66 %</t>
+        </is>
+      </c>
+      <c r="Y58" t="inlineStr">
+        <is>
+          <t>#.## g/m³</t>
+        </is>
+      </c>
+      <c r="Z58" t="inlineStr">
+        <is>
+          <t>8.57 g/m³</t>
+        </is>
+      </c>
+      <c r="AA58" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="AB58" t="inlineStr">
+        <is>
+          <t>7:00-22:00</t>
+        </is>
+      </c>
+      <c r="AC58" t="inlineStr">
+        <is>
+          <t>AWAY              22:00</t>
+        </is>
+      </c>
+      <c r="AD58" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="AE58" t="inlineStr">
+        <is>
+          <t>18.8 °C</t>
+        </is>
+      </c>
+      <c r="AF58" t="inlineStr">
+        <is>
+          <t>24.7 °C</t>
+        </is>
+      </c>
+      <c r="AG58" t="inlineStr">
+        <is>
+          <t>4.7 °C</t>
+        </is>
+      </c>
+      <c r="AH58" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI58" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AJ58" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AK58" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AL58" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AM58" t="inlineStr">
+        <is>
+          <t>56 %</t>
+        </is>
+      </c>
+      <c r="AN58" t="inlineStr">
+        <is>
+          <t>91 %</t>
+        </is>
+      </c>
+      <c r="AO58" t="inlineStr">
+        <is>
+          <t>987 W</t>
+        </is>
+      </c>
+      <c r="AP58" t="inlineStr">
+        <is>
+          <t>534 W</t>
+        </is>
+      </c>
+      <c r="AQ58" t="inlineStr">
+        <is>
+          <t>497 W</t>
+        </is>
+      </c>
+      <c r="AR58" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="AS58" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="AT58" t="inlineStr">
+        <is>
+          <t>6.01 kWh</t>
+        </is>
+      </c>
+      <c r="AU58" t="inlineStr">
+        <is>
+          <t>288.90 kWh</t>
+        </is>
+      </c>
+      <c r="AV58" t="inlineStr">
+        <is>
+          <t>3050.38 kWh</t>
+        </is>
+      </c>
+      <c r="AW58" t="inlineStr">
+        <is>
+          <t>5.46 kWh</t>
+        </is>
+      </c>
+      <c r="AX58" t="inlineStr">
+        <is>
+          <t>267.07 kWh</t>
+        </is>
+      </c>
+      <c r="AY58" t="inlineStr">
+        <is>
+          <t>2472.73 kWh</t>
+        </is>
+      </c>
+      <c r="AZ58" t="inlineStr">
+        <is>
+          <t>13.16 kWh</t>
+        </is>
+      </c>
+      <c r="BA58" t="inlineStr">
+        <is>
+          <t>574.83 kWh</t>
+        </is>
+      </c>
+      <c r="BB58" t="inlineStr">
+        <is>
+          <t>8981.69 kWh</t>
+        </is>
+      </c>
+      <c r="BC58" t="inlineStr">
+        <is>
+          <t>19.0 °C</t>
+        </is>
+      </c>
+      <c r="BD58" t="inlineStr">
+        <is>
+          <t>--.- °C</t>
+        </is>
+      </c>
+      <c r="BE58" t="inlineStr">
+        <is>
+          <t>--.- %</t>
+        </is>
+      </c>
+      <c r="BF58" t="inlineStr">
+        <is>
+          <t>39 %</t>
+        </is>
+      </c>
+      <c r="BG58" t="inlineStr">
+        <is>
+          <t>--.- %</t>
+        </is>
+      </c>
+      <c r="BH58" t="inlineStr">
+        <is>
+          <t>39 %</t>
+        </is>
+      </c>
+      <c r="BI58" t="inlineStr">
+        <is>
+          <t>146030620</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2022-02-25 13:34:26</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>17.6 °C</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>23.8 °C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2.4 °C</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>**.* °C</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>24.3 °C</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>**.* °C</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>44 %</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>**.* %</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>0 mV</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>0 mV</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>**.* mV</t>
+        </is>
+      </c>
+      <c r="Q59" t="inlineStr">
+        <is>
+          <t>**.* mV</t>
+        </is>
+      </c>
+      <c r="R59" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="S59" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="T59" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="U59" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="V59" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="W59" t="inlineStr">
+        <is>
+          <t>57 %</t>
+        </is>
+      </c>
+      <c r="X59" t="inlineStr">
+        <is>
+          <t>67 %</t>
+        </is>
+      </c>
+      <c r="Y59" t="inlineStr">
+        <is>
+          <t>#.## g/m³</t>
+        </is>
+      </c>
+      <c r="Z59" t="inlineStr">
+        <is>
+          <t>9.72 g/m³</t>
+        </is>
+      </c>
+      <c r="AA59" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="AB59" t="inlineStr">
+        <is>
+          <t>7:00-22:00</t>
+        </is>
+      </c>
+      <c r="AC59" t="inlineStr">
+        <is>
+          <t>AWAY              22:00</t>
+        </is>
+      </c>
+      <c r="AD59" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="AE59" t="inlineStr">
+        <is>
+          <t>17.4 °C</t>
+        </is>
+      </c>
+      <c r="AF59" t="inlineStr">
+        <is>
+          <t>23.9 °C</t>
+        </is>
+      </c>
+      <c r="AG59" t="inlineStr">
+        <is>
+          <t>2.4 °C</t>
+        </is>
+      </c>
+      <c r="AH59" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI59" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AJ59" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AK59" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AL59" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AM59" t="inlineStr">
+        <is>
+          <t>57 %</t>
+        </is>
+      </c>
+      <c r="AN59" t="inlineStr">
+        <is>
+          <t>90 %</t>
+        </is>
+      </c>
+      <c r="AO59" t="inlineStr">
+        <is>
+          <t>1057 W</t>
+        </is>
+      </c>
+      <c r="AP59" t="inlineStr">
+        <is>
+          <t>537 W</t>
+        </is>
+      </c>
+      <c r="AQ59" t="inlineStr">
+        <is>
+          <t>500 W</t>
+        </is>
+      </c>
+      <c r="AR59" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="AS59" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="AT59" t="inlineStr">
+        <is>
+          <t>4.53 kWh</t>
+        </is>
+      </c>
+      <c r="AU59" t="inlineStr">
+        <is>
+          <t>283.85 kWh</t>
+        </is>
+      </c>
+      <c r="AV59" t="inlineStr">
+        <is>
+          <t>3057.11 kWh</t>
+        </is>
+      </c>
+      <c r="AW59" t="inlineStr">
+        <is>
+          <t>4.14 kWh</t>
+        </is>
+      </c>
+      <c r="AX59" t="inlineStr">
+        <is>
+          <t>262.19 kWh</t>
+        </is>
+      </c>
+      <c r="AY59" t="inlineStr">
+        <is>
+          <t>2478.88 kWh</t>
+        </is>
+      </c>
+      <c r="AZ59" t="inlineStr">
+        <is>
+          <t>9.16 kWh</t>
+        </is>
+      </c>
+      <c r="BA59" t="inlineStr">
+        <is>
+          <t>567.70 kWh</t>
+        </is>
+      </c>
+      <c r="BB59" t="inlineStr">
+        <is>
+          <t>8995.30 kWh</t>
+        </is>
+      </c>
+      <c r="BC59" t="inlineStr">
+        <is>
+          <t>19.0 °C</t>
+        </is>
+      </c>
+      <c r="BD59" t="inlineStr">
+        <is>
+          <t>--.- °C</t>
+        </is>
+      </c>
+      <c r="BE59" t="inlineStr">
+        <is>
+          <t>--.- %</t>
+        </is>
+      </c>
+      <c r="BF59" t="inlineStr">
+        <is>
+          <t>44 %</t>
+        </is>
+      </c>
+      <c r="BG59" t="inlineStr">
+        <is>
+          <t>--.- %</t>
+        </is>
+      </c>
+      <c r="BH59" t="inlineStr">
+        <is>
+          <t>44 %</t>
+        </is>
+      </c>
+      <c r="BI59" t="inlineStr">
+        <is>
+          <t>146030620</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SampleData.xlsx
+++ b/SampleData.xlsx
@@ -412,7 +412,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BI59"/>
+  <dimension ref="A1:BI60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -18573,6 +18573,313 @@
         </is>
       </c>
     </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>2022-02-26 11:32:19</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>19.1 °C</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>25.2 °C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>6.8 °C</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>**.* °C</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>23.7 °C</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>**.* °C</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>46 %</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>**.* %</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>0 mV</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>0 mV</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>**.* mV</t>
+        </is>
+      </c>
+      <c r="Q60" t="inlineStr">
+        <is>
+          <t>**.* mV</t>
+        </is>
+      </c>
+      <c r="R60" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="S60" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="T60" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="U60" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="V60" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="W60" t="inlineStr">
+        <is>
+          <t>57 %</t>
+        </is>
+      </c>
+      <c r="X60" t="inlineStr">
+        <is>
+          <t>77 %</t>
+        </is>
+      </c>
+      <c r="Y60" t="inlineStr">
+        <is>
+          <t>#.## g/m³</t>
+        </is>
+      </c>
+      <c r="Z60" t="inlineStr">
+        <is>
+          <t>9.84 g/m³</t>
+        </is>
+      </c>
+      <c r="AA60" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="AB60" t="inlineStr">
+        <is>
+          <t>7:00-22:00</t>
+        </is>
+      </c>
+      <c r="AC60" t="inlineStr">
+        <is>
+          <t>AWAY              22:00</t>
+        </is>
+      </c>
+      <c r="AD60" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="AE60" t="inlineStr">
+        <is>
+          <t>19.1 °C</t>
+        </is>
+      </c>
+      <c r="AF60" t="inlineStr">
+        <is>
+          <t>25.1 °C</t>
+        </is>
+      </c>
+      <c r="AG60" t="inlineStr">
+        <is>
+          <t>6.9 °C</t>
+        </is>
+      </c>
+      <c r="AH60" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI60" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AJ60" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AK60" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AL60" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AM60" t="inlineStr">
+        <is>
+          <t>57 %</t>
+        </is>
+      </c>
+      <c r="AN60" t="inlineStr">
+        <is>
+          <t>89 %</t>
+        </is>
+      </c>
+      <c r="AO60" t="inlineStr">
+        <is>
+          <t>875 W</t>
+        </is>
+      </c>
+      <c r="AP60" t="inlineStr">
+        <is>
+          <t>285 W</t>
+        </is>
+      </c>
+      <c r="AQ60" t="inlineStr">
+        <is>
+          <t>248 W</t>
+        </is>
+      </c>
+      <c r="AR60" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="AS60" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="AT60" t="inlineStr">
+        <is>
+          <t>2.81 kWh</t>
+        </is>
+      </c>
+      <c r="AU60" t="inlineStr">
+        <is>
+          <t>282.20 kWh</t>
+        </is>
+      </c>
+      <c r="AV60" t="inlineStr">
+        <is>
+          <t>3064.57 kWh</t>
+        </is>
+      </c>
+      <c r="AW60" t="inlineStr">
+        <is>
+          <t>2.50 kWh</t>
+        </is>
+      </c>
+      <c r="AX60" t="inlineStr">
+        <is>
+          <t>260.61 kWh</t>
+        </is>
+      </c>
+      <c r="AY60" t="inlineStr">
+        <is>
+          <t>2485.68 kWh</t>
+        </is>
+      </c>
+      <c r="AZ60" t="inlineStr">
+        <is>
+          <t>7.01 kWh</t>
+        </is>
+      </c>
+      <c r="BA60" t="inlineStr">
+        <is>
+          <t>565.89 kWh</t>
+        </is>
+      </c>
+      <c r="BB60" t="inlineStr">
+        <is>
+          <t>9011.93 kWh</t>
+        </is>
+      </c>
+      <c r="BC60" t="inlineStr">
+        <is>
+          <t>19.0 °C</t>
+        </is>
+      </c>
+      <c r="BD60" t="inlineStr">
+        <is>
+          <t>--.- °C</t>
+        </is>
+      </c>
+      <c r="BE60" t="inlineStr">
+        <is>
+          <t>--.- %</t>
+        </is>
+      </c>
+      <c r="BF60" t="inlineStr">
+        <is>
+          <t>46 %</t>
+        </is>
+      </c>
+      <c r="BG60" t="inlineStr">
+        <is>
+          <t>--.- %</t>
+        </is>
+      </c>
+      <c r="BH60" t="inlineStr">
+        <is>
+          <t>46 %</t>
+        </is>
+      </c>
+      <c r="BI60" t="inlineStr">
+        <is>
+          <t>146030620</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SampleData.xlsx
+++ b/SampleData.xlsx
@@ -412,7 +412,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BI60"/>
+  <dimension ref="A1:BI61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -18880,6 +18880,313 @@
         </is>
       </c>
     </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>2022-02-26 16:19:11</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>18.6 °C</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>24.9 °C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>3.7 °C</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>**.* °C</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>24.4 °C</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>**.* °C</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>36 %</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>**.* %</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>0 mV</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>0 mV</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>**.* mV</t>
+        </is>
+      </c>
+      <c r="Q61" t="inlineStr">
+        <is>
+          <t>**.* mV</t>
+        </is>
+      </c>
+      <c r="R61" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="S61" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="T61" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="U61" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="V61" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="W61" t="inlineStr">
+        <is>
+          <t>57 %</t>
+        </is>
+      </c>
+      <c r="X61" t="inlineStr">
+        <is>
+          <t>66 %</t>
+        </is>
+      </c>
+      <c r="Y61" t="inlineStr">
+        <is>
+          <t>#.## g/m³</t>
+        </is>
+      </c>
+      <c r="Z61" t="inlineStr">
+        <is>
+          <t>8.01 g/m³</t>
+        </is>
+      </c>
+      <c r="AA61" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="AB61" t="inlineStr">
+        <is>
+          <t>7:00-22:00</t>
+        </is>
+      </c>
+      <c r="AC61" t="inlineStr">
+        <is>
+          <t>AWAY              22:00</t>
+        </is>
+      </c>
+      <c r="AD61" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="AE61" t="inlineStr">
+        <is>
+          <t>18.5 °C</t>
+        </is>
+      </c>
+      <c r="AF61" t="inlineStr">
+        <is>
+          <t>24.8 °C</t>
+        </is>
+      </c>
+      <c r="AG61" t="inlineStr">
+        <is>
+          <t>3.6 °C</t>
+        </is>
+      </c>
+      <c r="AH61" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI61" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AJ61" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AK61" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AL61" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AM61" t="inlineStr">
+        <is>
+          <t>57 %</t>
+        </is>
+      </c>
+      <c r="AN61" t="inlineStr">
+        <is>
+          <t>89 %</t>
+        </is>
+      </c>
+      <c r="AO61" t="inlineStr">
+        <is>
+          <t>1003 W</t>
+        </is>
+      </c>
+      <c r="AP61" t="inlineStr">
+        <is>
+          <t>537 W</t>
+        </is>
+      </c>
+      <c r="AQ61" t="inlineStr">
+        <is>
+          <t>500 W</t>
+        </is>
+      </c>
+      <c r="AR61" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="AS61" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="AT61" t="inlineStr">
+        <is>
+          <t>4.26 kWh</t>
+        </is>
+      </c>
+      <c r="AU61" t="inlineStr">
+        <is>
+          <t>283.66 kWh</t>
+        </is>
+      </c>
+      <c r="AV61" t="inlineStr">
+        <is>
+          <t>3066.02 kWh</t>
+        </is>
+      </c>
+      <c r="AW61" t="inlineStr">
+        <is>
+          <t>3.78 kWh</t>
+        </is>
+      </c>
+      <c r="AX61" t="inlineStr">
+        <is>
+          <t>261.89 kWh</t>
+        </is>
+      </c>
+      <c r="AY61" t="inlineStr">
+        <is>
+          <t>2486.95 kWh</t>
+        </is>
+      </c>
+      <c r="AZ61" t="inlineStr">
+        <is>
+          <t>11.14 kWh</t>
+        </is>
+      </c>
+      <c r="BA61" t="inlineStr">
+        <is>
+          <t>570.01 kWh</t>
+        </is>
+      </c>
+      <c r="BB61" t="inlineStr">
+        <is>
+          <t>9016.05 kWh</t>
+        </is>
+      </c>
+      <c r="BC61" t="inlineStr">
+        <is>
+          <t>19.0 °C</t>
+        </is>
+      </c>
+      <c r="BD61" t="inlineStr">
+        <is>
+          <t>--.- °C</t>
+        </is>
+      </c>
+      <c r="BE61" t="inlineStr">
+        <is>
+          <t>--.- %</t>
+        </is>
+      </c>
+      <c r="BF61" t="inlineStr">
+        <is>
+          <t>36 %</t>
+        </is>
+      </c>
+      <c r="BG61" t="inlineStr">
+        <is>
+          <t>--.- %</t>
+        </is>
+      </c>
+      <c r="BH61" t="inlineStr">
+        <is>
+          <t>36 %</t>
+        </is>
+      </c>
+      <c r="BI61" t="inlineStr">
+        <is>
+          <t>144982044</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SampleData.xlsx
+++ b/SampleData.xlsx
@@ -412,7 +412,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BI61"/>
+  <dimension ref="A1:BI65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -19187,6 +19187,1234 @@
         </is>
       </c>
     </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>2022-03-02 18:29:02</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>17.4 °C</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>25.4 °C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2.7 °C</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>**.* °C</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>24.1 °C</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>**.* °C</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>45 %</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>**.* %</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>0 mV</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>0 mV</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>**.* mV</t>
+        </is>
+      </c>
+      <c r="Q62" t="inlineStr">
+        <is>
+          <t>**.* mV</t>
+        </is>
+      </c>
+      <c r="R62" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="S62" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="T62" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="U62" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="V62" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="W62" t="inlineStr">
+        <is>
+          <t>60 %</t>
+        </is>
+      </c>
+      <c r="X62" t="inlineStr">
+        <is>
+          <t>68 %</t>
+        </is>
+      </c>
+      <c r="Y62" t="inlineStr">
+        <is>
+          <t>#.## g/m³</t>
+        </is>
+      </c>
+      <c r="Z62" t="inlineStr">
+        <is>
+          <t>9.84 g/m³</t>
+        </is>
+      </c>
+      <c r="AA62" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="AB62" t="inlineStr">
+        <is>
+          <t>7:00-22:00</t>
+        </is>
+      </c>
+      <c r="AC62" t="inlineStr">
+        <is>
+          <t>AWAY              22:00</t>
+        </is>
+      </c>
+      <c r="AD62" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="AE62" t="inlineStr">
+        <is>
+          <t>17.5 °C</t>
+        </is>
+      </c>
+      <c r="AF62" t="inlineStr">
+        <is>
+          <t>25.4 °C</t>
+        </is>
+      </c>
+      <c r="AG62" t="inlineStr">
+        <is>
+          <t>2.7 °C</t>
+        </is>
+      </c>
+      <c r="AH62" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI62" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AJ62" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AK62" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AL62" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AM62" t="inlineStr">
+        <is>
+          <t>60 %</t>
+        </is>
+      </c>
+      <c r="AN62" t="inlineStr">
+        <is>
+          <t>88 %</t>
+        </is>
+      </c>
+      <c r="AO62" t="inlineStr">
+        <is>
+          <t>1089 W</t>
+        </is>
+      </c>
+      <c r="AP62" t="inlineStr">
+        <is>
+          <t>536 W</t>
+        </is>
+      </c>
+      <c r="AQ62" t="inlineStr">
+        <is>
+          <t>500 W</t>
+        </is>
+      </c>
+      <c r="AR62" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="AS62" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="AT62" t="inlineStr">
+        <is>
+          <t>6.95 kWh</t>
+        </is>
+      </c>
+      <c r="AU62" t="inlineStr">
+        <is>
+          <t>281.73 kWh</t>
+        </is>
+      </c>
+      <c r="AV62" t="inlineStr">
+        <is>
+          <t>3103.59 kWh</t>
+        </is>
+      </c>
+      <c r="AW62" t="inlineStr">
+        <is>
+          <t>6.38 kWh</t>
+        </is>
+      </c>
+      <c r="AX62" t="inlineStr">
+        <is>
+          <t>259.86 kWh</t>
+        </is>
+      </c>
+      <c r="AY62" t="inlineStr">
+        <is>
+          <t>2521.49 kWh</t>
+        </is>
+      </c>
+      <c r="AZ62" t="inlineStr">
+        <is>
+          <t>13.86 kWh</t>
+        </is>
+      </c>
+      <c r="BA62" t="inlineStr">
+        <is>
+          <t>564.33 kWh</t>
+        </is>
+      </c>
+      <c r="BB62" t="inlineStr">
+        <is>
+          <t>9090.92 kWh</t>
+        </is>
+      </c>
+      <c r="BC62" t="inlineStr">
+        <is>
+          <t>19.0 °C</t>
+        </is>
+      </c>
+      <c r="BD62" t="inlineStr">
+        <is>
+          <t>--.- °C</t>
+        </is>
+      </c>
+      <c r="BE62" t="inlineStr">
+        <is>
+          <t>--.- %</t>
+        </is>
+      </c>
+      <c r="BF62" t="inlineStr">
+        <is>
+          <t>45 %</t>
+        </is>
+      </c>
+      <c r="BG62" t="inlineStr">
+        <is>
+          <t>--.- %</t>
+        </is>
+      </c>
+      <c r="BH62" t="inlineStr">
+        <is>
+          <t>45 %</t>
+        </is>
+      </c>
+      <c r="BI62" t="inlineStr">
+        <is>
+          <t>144982044</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>2022-03-03 16:34:36</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>18.8 °C</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>25.3 °C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>5.7 °C</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>**.* °C</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>24.0 °C</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>**.* °C</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>41 %</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>**.* %</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>0 mV</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>0 mV</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>**.* mV</t>
+        </is>
+      </c>
+      <c r="Q63" t="inlineStr">
+        <is>
+          <t>**.* mV</t>
+        </is>
+      </c>
+      <c r="R63" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="S63" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="T63" t="inlineStr">
+        <is>
+          <t>82 %</t>
+        </is>
+      </c>
+      <c r="U63" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="V63" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="W63" t="inlineStr">
+        <is>
+          <t>61 %</t>
+        </is>
+      </c>
+      <c r="X63" t="inlineStr">
+        <is>
+          <t>70 %</t>
+        </is>
+      </c>
+      <c r="Y63" t="inlineStr">
+        <is>
+          <t>#.## g/m³</t>
+        </is>
+      </c>
+      <c r="Z63" t="inlineStr">
+        <is>
+          <t>8.92 g/m³</t>
+        </is>
+      </c>
+      <c r="AA63" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="AB63" t="inlineStr">
+        <is>
+          <t>7:00-22:00</t>
+        </is>
+      </c>
+      <c r="AC63" t="inlineStr">
+        <is>
+          <t>AWAY              22:00</t>
+        </is>
+      </c>
+      <c r="AD63" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="AE63" t="inlineStr">
+        <is>
+          <t>18.9 °C</t>
+        </is>
+      </c>
+      <c r="AF63" t="inlineStr">
+        <is>
+          <t>25.4 °C</t>
+        </is>
+      </c>
+      <c r="AG63" t="inlineStr">
+        <is>
+          <t>5.6 °C</t>
+        </is>
+      </c>
+      <c r="AH63" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI63" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AJ63" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AK63" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AL63" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AM63" t="inlineStr">
+        <is>
+          <t>61 %</t>
+        </is>
+      </c>
+      <c r="AN63" t="inlineStr">
+        <is>
+          <t>89 %</t>
+        </is>
+      </c>
+      <c r="AO63" t="inlineStr">
+        <is>
+          <t>945 W</t>
+        </is>
+      </c>
+      <c r="AP63" t="inlineStr">
+        <is>
+          <t>431 W</t>
+        </is>
+      </c>
+      <c r="AQ63" t="inlineStr">
+        <is>
+          <t>395 W</t>
+        </is>
+      </c>
+      <c r="AR63" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="AS63" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="AT63" t="inlineStr">
+        <is>
+          <t>4.88 kWh</t>
+        </is>
+      </c>
+      <c r="AU63" t="inlineStr">
+        <is>
+          <t>276.11 kWh</t>
+        </is>
+      </c>
+      <c r="AV63" t="inlineStr">
+        <is>
+          <t>3110.69 kWh</t>
+        </is>
+      </c>
+      <c r="AW63" t="inlineStr">
+        <is>
+          <t>4.39 kWh</t>
+        </is>
+      </c>
+      <c r="AX63" t="inlineStr">
+        <is>
+          <t>254.31 kWh</t>
+        </is>
+      </c>
+      <c r="AY63" t="inlineStr">
+        <is>
+          <t>2527.92 kWh</t>
+        </is>
+      </c>
+      <c r="AZ63" t="inlineStr">
+        <is>
+          <t>10.97 kWh</t>
+        </is>
+      </c>
+      <c r="BA63" t="inlineStr">
+        <is>
+          <t>557.79 kWh</t>
+        </is>
+      </c>
+      <c r="BB63" t="inlineStr">
+        <is>
+          <t>9106.13 kWh</t>
+        </is>
+      </c>
+      <c r="BC63" t="inlineStr">
+        <is>
+          <t>19.0 °C</t>
+        </is>
+      </c>
+      <c r="BD63" t="inlineStr">
+        <is>
+          <t>--.- °C</t>
+        </is>
+      </c>
+      <c r="BE63" t="inlineStr">
+        <is>
+          <t>--.- %</t>
+        </is>
+      </c>
+      <c r="BF63" t="inlineStr">
+        <is>
+          <t>41 %</t>
+        </is>
+      </c>
+      <c r="BG63" t="inlineStr">
+        <is>
+          <t>--.- %</t>
+        </is>
+      </c>
+      <c r="BH63" t="inlineStr">
+        <is>
+          <t>41 %</t>
+        </is>
+      </c>
+      <c r="BI63" t="inlineStr">
+        <is>
+          <t>146030620</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>2022-03-04 16:39:52</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>16.3 °C</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>24.5 °C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2.2 °C</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>**.* °C</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>24.4 °C</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>**.* °C</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>32 %</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>**.* %</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>0 mV</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>0 mV</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="P64" t="inlineStr">
+        <is>
+          <t>**.* mV</t>
+        </is>
+      </c>
+      <c r="Q64" t="inlineStr">
+        <is>
+          <t>**.* mV</t>
+        </is>
+      </c>
+      <c r="R64" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="S64" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="T64" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="U64" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="V64" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="W64" t="inlineStr">
+        <is>
+          <t>61 %</t>
+        </is>
+      </c>
+      <c r="X64" t="inlineStr">
+        <is>
+          <t>68 %</t>
+        </is>
+      </c>
+      <c r="Y64" t="inlineStr">
+        <is>
+          <t>#.## g/m³</t>
+        </is>
+      </c>
+      <c r="Z64" t="inlineStr">
+        <is>
+          <t>7.11 g/m³</t>
+        </is>
+      </c>
+      <c r="AA64" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="AB64" t="inlineStr">
+        <is>
+          <t>7:00-22:00</t>
+        </is>
+      </c>
+      <c r="AC64" t="inlineStr">
+        <is>
+          <t>AWAY              22:00</t>
+        </is>
+      </c>
+      <c r="AD64" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="AE64" t="inlineStr">
+        <is>
+          <t>16.4 °C</t>
+        </is>
+      </c>
+      <c r="AF64" t="inlineStr">
+        <is>
+          <t>24.5 °C</t>
+        </is>
+      </c>
+      <c r="AG64" t="inlineStr">
+        <is>
+          <t>2.3 °C</t>
+        </is>
+      </c>
+      <c r="AH64" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI64" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AJ64" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AK64" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AL64" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AM64" t="inlineStr">
+        <is>
+          <t>61 %</t>
+        </is>
+      </c>
+      <c r="AN64" t="inlineStr">
+        <is>
+          <t>88 %</t>
+        </is>
+      </c>
+      <c r="AO64" t="inlineStr">
+        <is>
+          <t>1062 W</t>
+        </is>
+      </c>
+      <c r="AP64" t="inlineStr">
+        <is>
+          <t>537 W</t>
+        </is>
+      </c>
+      <c r="AQ64" t="inlineStr">
+        <is>
+          <t>500 W</t>
+        </is>
+      </c>
+      <c r="AR64" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="AS64" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="AT64" t="inlineStr">
+        <is>
+          <t>5.08 kWh</t>
+        </is>
+      </c>
+      <c r="AU64" t="inlineStr">
+        <is>
+          <t>271.68 kWh</t>
+        </is>
+      </c>
+      <c r="AV64" t="inlineStr">
+        <is>
+          <t>3119.00 kWh</t>
+        </is>
+      </c>
+      <c r="AW64" t="inlineStr">
+        <is>
+          <t>4.59 kWh</t>
+        </is>
+      </c>
+      <c r="AX64" t="inlineStr">
+        <is>
+          <t>249.88 kWh</t>
+        </is>
+      </c>
+      <c r="AY64" t="inlineStr">
+        <is>
+          <t>2535.49 kWh</t>
+        </is>
+      </c>
+      <c r="AZ64" t="inlineStr">
+        <is>
+          <t>11.52 kWh</t>
+        </is>
+      </c>
+      <c r="BA64" t="inlineStr">
+        <is>
+          <t>553.03 kWh</t>
+        </is>
+      </c>
+      <c r="BB64" t="inlineStr">
+        <is>
+          <t>9123.67 kWh</t>
+        </is>
+      </c>
+      <c r="BC64" t="inlineStr">
+        <is>
+          <t>19.0 °C</t>
+        </is>
+      </c>
+      <c r="BD64" t="inlineStr">
+        <is>
+          <t>--.- °C</t>
+        </is>
+      </c>
+      <c r="BE64" t="inlineStr">
+        <is>
+          <t>--.- %</t>
+        </is>
+      </c>
+      <c r="BF64" t="inlineStr">
+        <is>
+          <t>32 %</t>
+        </is>
+      </c>
+      <c r="BG64" t="inlineStr">
+        <is>
+          <t>--.- %</t>
+        </is>
+      </c>
+      <c r="BH64" t="inlineStr">
+        <is>
+          <t>32 %</t>
+        </is>
+      </c>
+      <c r="BI64" t="inlineStr">
+        <is>
+          <t>144982044</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>2022-03-05 12:39:45</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>19.5 °C</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>24.4 °C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>5.7 °C</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>**.* °C</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>24.2 °C</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>**.* °C</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>41 %</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>**.* %</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>0 mV</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>0 mV</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="P65" t="inlineStr">
+        <is>
+          <t>**.* mV</t>
+        </is>
+      </c>
+      <c r="Q65" t="inlineStr">
+        <is>
+          <t>**.* mV</t>
+        </is>
+      </c>
+      <c r="R65" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="S65" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="T65" t="inlineStr">
+        <is>
+          <t>67 %</t>
+        </is>
+      </c>
+      <c r="U65" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="V65" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="W65" t="inlineStr">
+        <is>
+          <t>62 %</t>
+        </is>
+      </c>
+      <c r="X65" t="inlineStr">
+        <is>
+          <t>71 %</t>
+        </is>
+      </c>
+      <c r="Y65" t="inlineStr">
+        <is>
+          <t>#.## g/m³</t>
+        </is>
+      </c>
+      <c r="Z65" t="inlineStr">
+        <is>
+          <t>9.02 g/m³</t>
+        </is>
+      </c>
+      <c r="AA65" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="AB65" t="inlineStr">
+        <is>
+          <t>7:00-22:00</t>
+        </is>
+      </c>
+      <c r="AC65" t="inlineStr">
+        <is>
+          <t>AWAY              22:00</t>
+        </is>
+      </c>
+      <c r="AD65" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="AE65" t="inlineStr">
+        <is>
+          <t>19.4 °C</t>
+        </is>
+      </c>
+      <c r="AF65" t="inlineStr">
+        <is>
+          <t>24.4 °C</t>
+        </is>
+      </c>
+      <c r="AG65" t="inlineStr">
+        <is>
+          <t>5.8 °C</t>
+        </is>
+      </c>
+      <c r="AH65" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI65" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AJ65" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AK65" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AL65" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AM65" t="inlineStr">
+        <is>
+          <t>62 %</t>
+        </is>
+      </c>
+      <c r="AN65" t="inlineStr">
+        <is>
+          <t>87 %</t>
+        </is>
+      </c>
+      <c r="AO65" t="inlineStr">
+        <is>
+          <t>886 W</t>
+        </is>
+      </c>
+      <c r="AP65" t="inlineStr">
+        <is>
+          <t>377 W</t>
+        </is>
+      </c>
+      <c r="AQ65" t="inlineStr">
+        <is>
+          <t>340 W</t>
+        </is>
+      </c>
+      <c r="AR65" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="AS65" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="AT65" t="inlineStr">
+        <is>
+          <t>6.63 kWh</t>
+        </is>
+      </c>
+      <c r="AU65" t="inlineStr">
+        <is>
+          <t>269.50 kWh</t>
+        </is>
+      </c>
+      <c r="AV65" t="inlineStr">
+        <is>
+          <t>3129.55 kWh</t>
+        </is>
+      </c>
+      <c r="AW65" t="inlineStr">
+        <is>
+          <t>6.28 kWh</t>
+        </is>
+      </c>
+      <c r="AX65" t="inlineStr">
+        <is>
+          <t>247.84 kWh</t>
+        </is>
+      </c>
+      <c r="AY65" t="inlineStr">
+        <is>
+          <t>2545.45 kWh</t>
+        </is>
+      </c>
+      <c r="AZ65" t="inlineStr">
+        <is>
+          <t>9.47 kWh</t>
+        </is>
+      </c>
+      <c r="BA65" t="inlineStr">
+        <is>
+          <t>547.84 kWh</t>
+        </is>
+      </c>
+      <c r="BB65" t="inlineStr">
+        <is>
+          <t>9140.29 kWh</t>
+        </is>
+      </c>
+      <c r="BC65" t="inlineStr">
+        <is>
+          <t>19.0 °C</t>
+        </is>
+      </c>
+      <c r="BD65" t="inlineStr">
+        <is>
+          <t>--.- °C</t>
+        </is>
+      </c>
+      <c r="BE65" t="inlineStr">
+        <is>
+          <t>--.- %</t>
+        </is>
+      </c>
+      <c r="BF65" t="inlineStr">
+        <is>
+          <t>41 %</t>
+        </is>
+      </c>
+      <c r="BG65" t="inlineStr">
+        <is>
+          <t>--.- %</t>
+        </is>
+      </c>
+      <c r="BH65" t="inlineStr">
+        <is>
+          <t>41 %</t>
+        </is>
+      </c>
+      <c r="BI65" t="inlineStr">
+        <is>
+          <t>146030620</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SampleData.xlsx
+++ b/SampleData.xlsx
@@ -412,7 +412,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BI65"/>
+  <dimension ref="A1:BI68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -20415,6 +20415,927 @@
         </is>
       </c>
     </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>2022-03-06 16:52:10</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>19.1 °C</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>25.7 °C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>4.6 °C</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>**.* °C</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>24.7 °C</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>**.* °C</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>33 %</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>**.* %</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>0 mV</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>0 mV</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="P66" t="inlineStr">
+        <is>
+          <t>**.* mV</t>
+        </is>
+      </c>
+      <c r="Q66" t="inlineStr">
+        <is>
+          <t>**.* mV</t>
+        </is>
+      </c>
+      <c r="R66" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="S66" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="T66" t="inlineStr">
+        <is>
+          <t>96 %</t>
+        </is>
+      </c>
+      <c r="U66" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="V66" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="W66" t="inlineStr">
+        <is>
+          <t>63 %</t>
+        </is>
+      </c>
+      <c r="X66" t="inlineStr">
+        <is>
+          <t>67 %</t>
+        </is>
+      </c>
+      <c r="Y66" t="inlineStr">
+        <is>
+          <t>#.## g/m³</t>
+        </is>
+      </c>
+      <c r="Z66" t="inlineStr">
+        <is>
+          <t>7.46 g/m³</t>
+        </is>
+      </c>
+      <c r="AA66" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="AB66" t="inlineStr">
+        <is>
+          <t>7:00-22:00</t>
+        </is>
+      </c>
+      <c r="AC66" t="inlineStr">
+        <is>
+          <t>AWAY              22:00</t>
+        </is>
+      </c>
+      <c r="AD66" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="AE66" t="inlineStr">
+        <is>
+          <t>19.1 °C</t>
+        </is>
+      </c>
+      <c r="AF66" t="inlineStr">
+        <is>
+          <t>25.6 °C</t>
+        </is>
+      </c>
+      <c r="AG66" t="inlineStr">
+        <is>
+          <t>4.6 °C</t>
+        </is>
+      </c>
+      <c r="AH66" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI66" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AJ66" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AK66" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AL66" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AM66" t="inlineStr">
+        <is>
+          <t>63 %</t>
+        </is>
+      </c>
+      <c r="AN66" t="inlineStr">
+        <is>
+          <t>89 %</t>
+        </is>
+      </c>
+      <c r="AO66" t="inlineStr">
+        <is>
+          <t>1009 W</t>
+        </is>
+      </c>
+      <c r="AP66" t="inlineStr">
+        <is>
+          <t>525 W</t>
+        </is>
+      </c>
+      <c r="AQ66" t="inlineStr">
+        <is>
+          <t>489 W</t>
+        </is>
+      </c>
+      <c r="AR66" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="AS66" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="AT66" t="inlineStr">
+        <is>
+          <t>4.60 kWh</t>
+        </is>
+      </c>
+      <c r="AU66" t="inlineStr">
+        <is>
+          <t>266.07 kWh</t>
+        </is>
+      </c>
+      <c r="AV66" t="inlineStr">
+        <is>
+          <t>3138.86 kWh</t>
+        </is>
+      </c>
+      <c r="AW66" t="inlineStr">
+        <is>
+          <t>4.10 kWh</t>
+        </is>
+      </c>
+      <c r="AX66" t="inlineStr">
+        <is>
+          <t>244.26 kWh</t>
+        </is>
+      </c>
+      <c r="AY66" t="inlineStr">
+        <is>
+          <t>2553.87 kWh</t>
+        </is>
+      </c>
+      <c r="AZ66" t="inlineStr">
+        <is>
+          <t>11.16 kWh</t>
+        </is>
+      </c>
+      <c r="BA66" t="inlineStr">
+        <is>
+          <t>546.86 kWh</t>
+        </is>
+      </c>
+      <c r="BB66" t="inlineStr">
+        <is>
+          <t>9161.51 kWh</t>
+        </is>
+      </c>
+      <c r="BC66" t="inlineStr">
+        <is>
+          <t>19.0 °C</t>
+        </is>
+      </c>
+      <c r="BD66" t="inlineStr">
+        <is>
+          <t>--.- °C</t>
+        </is>
+      </c>
+      <c r="BE66" t="inlineStr">
+        <is>
+          <t>--.- %</t>
+        </is>
+      </c>
+      <c r="BF66" t="inlineStr">
+        <is>
+          <t>33 %</t>
+        </is>
+      </c>
+      <c r="BG66" t="inlineStr">
+        <is>
+          <t>--.- %</t>
+        </is>
+      </c>
+      <c r="BH66" t="inlineStr">
+        <is>
+          <t>33 %</t>
+        </is>
+      </c>
+      <c r="BI66" t="inlineStr">
+        <is>
+          <t>146030620</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>2022-03-08 16:53:14</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>14.3 °C</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>23.6 °C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>-1.3 °C</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>**.* °C</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>24.0 °C</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>**.* °C</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>44 %</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>**.* %</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>0 mV</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>0 mV</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>**.* mV</t>
+        </is>
+      </c>
+      <c r="Q67" t="inlineStr">
+        <is>
+          <t>**.* mV</t>
+        </is>
+      </c>
+      <c r="R67" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="S67" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="T67" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="U67" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="V67" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="W67" t="inlineStr">
+        <is>
+          <t>64 %</t>
+        </is>
+      </c>
+      <c r="X67" t="inlineStr">
+        <is>
+          <t>70 %</t>
+        </is>
+      </c>
+      <c r="Y67" t="inlineStr">
+        <is>
+          <t>#.## g/m³</t>
+        </is>
+      </c>
+      <c r="Z67" t="inlineStr">
+        <is>
+          <t>9.56 g/m³</t>
+        </is>
+      </c>
+      <c r="AA67" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="AB67" t="inlineStr">
+        <is>
+          <t>7:00-22:00</t>
+        </is>
+      </c>
+      <c r="AC67" t="inlineStr">
+        <is>
+          <t>AWAY              22:00</t>
+        </is>
+      </c>
+      <c r="AD67" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="AE67" t="inlineStr">
+        <is>
+          <t>14.4 °C</t>
+        </is>
+      </c>
+      <c r="AF67" t="inlineStr">
+        <is>
+          <t>23.5 °C</t>
+        </is>
+      </c>
+      <c r="AG67" t="inlineStr">
+        <is>
+          <t>-1.4 °C</t>
+        </is>
+      </c>
+      <c r="AH67" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI67" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AJ67" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AK67" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AL67" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AM67" t="inlineStr">
+        <is>
+          <t>64 %</t>
+        </is>
+      </c>
+      <c r="AN67" t="inlineStr">
+        <is>
+          <t>91 %</t>
+        </is>
+      </c>
+      <c r="AO67" t="inlineStr">
+        <is>
+          <t>1217 W</t>
+        </is>
+      </c>
+      <c r="AP67" t="inlineStr">
+        <is>
+          <t>537 W</t>
+        </is>
+      </c>
+      <c r="AQ67" t="inlineStr">
+        <is>
+          <t>500 W</t>
+        </is>
+      </c>
+      <c r="AR67" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="AS67" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="AT67" t="inlineStr">
+        <is>
+          <t>6.26 kWh</t>
+        </is>
+      </c>
+      <c r="AU67" t="inlineStr">
+        <is>
+          <t>262.13 kWh</t>
+        </is>
+      </c>
+      <c r="AV67" t="inlineStr">
+        <is>
+          <t>3155.51 kWh</t>
+        </is>
+      </c>
+      <c r="AW67" t="inlineStr">
+        <is>
+          <t>5.75 kWh</t>
+        </is>
+      </c>
+      <c r="AX67" t="inlineStr">
+        <is>
+          <t>240.32 kWh</t>
+        </is>
+      </c>
+      <c r="AY67" t="inlineStr">
+        <is>
+          <t>2569.05 kWh</t>
+        </is>
+      </c>
+      <c r="AZ67" t="inlineStr">
+        <is>
+          <t>15.54 kWh</t>
+        </is>
+      </c>
+      <c r="BA67" t="inlineStr">
+        <is>
+          <t>550.98 kWh</t>
+        </is>
+      </c>
+      <c r="BB67" t="inlineStr">
+        <is>
+          <t>9203.19 kWh</t>
+        </is>
+      </c>
+      <c r="BC67" t="inlineStr">
+        <is>
+          <t>19.0 °C</t>
+        </is>
+      </c>
+      <c r="BD67" t="inlineStr">
+        <is>
+          <t>--.- °C</t>
+        </is>
+      </c>
+      <c r="BE67" t="inlineStr">
+        <is>
+          <t>--.- %</t>
+        </is>
+      </c>
+      <c r="BF67" t="inlineStr">
+        <is>
+          <t>44 %</t>
+        </is>
+      </c>
+      <c r="BG67" t="inlineStr">
+        <is>
+          <t>--.- %</t>
+        </is>
+      </c>
+      <c r="BH67" t="inlineStr">
+        <is>
+          <t>44 %</t>
+        </is>
+      </c>
+      <c r="BI67" t="inlineStr">
+        <is>
+          <t>144982044</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>2022-03-09 18:05:23</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>14.1 °C</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>24.4 °C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>-1.2 °C</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>**.* °C</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>24.6 °C</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>**.* °C</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>39 %</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>**.* %</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>5 mV</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>2 mV</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="P68" t="inlineStr">
+        <is>
+          <t>**.* mV</t>
+        </is>
+      </c>
+      <c r="Q68" t="inlineStr">
+        <is>
+          <t>**.* mV</t>
+        </is>
+      </c>
+      <c r="R68" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="S68" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="T68" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="U68" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="V68" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="W68" t="inlineStr">
+        <is>
+          <t>65 %</t>
+        </is>
+      </c>
+      <c r="X68" t="inlineStr">
+        <is>
+          <t>71 %</t>
+        </is>
+      </c>
+      <c r="Y68" t="inlineStr">
+        <is>
+          <t>#.## g/m³</t>
+        </is>
+      </c>
+      <c r="Z68" t="inlineStr">
+        <is>
+          <t>8.77 g/m³</t>
+        </is>
+      </c>
+      <c r="AA68" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="AB68" t="inlineStr">
+        <is>
+          <t>7:00-22:00</t>
+        </is>
+      </c>
+      <c r="AC68" t="inlineStr">
+        <is>
+          <t>AWAY              22:00</t>
+        </is>
+      </c>
+      <c r="AD68" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="AE68" t="inlineStr">
+        <is>
+          <t>14.2 °C</t>
+        </is>
+      </c>
+      <c r="AF68" t="inlineStr">
+        <is>
+          <t>24.5 °C</t>
+        </is>
+      </c>
+      <c r="AG68" t="inlineStr">
+        <is>
+          <t>-1.3 °C</t>
+        </is>
+      </c>
+      <c r="AH68" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI68" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AJ68" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AK68" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AL68" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AM68" t="inlineStr">
+        <is>
+          <t>65 %</t>
+        </is>
+      </c>
+      <c r="AN68" t="inlineStr">
+        <is>
+          <t>90 %</t>
+        </is>
+      </c>
+      <c r="AO68" t="inlineStr">
+        <is>
+          <t>1254 W</t>
+        </is>
+      </c>
+      <c r="AP68" t="inlineStr">
+        <is>
+          <t>537 W</t>
+        </is>
+      </c>
+      <c r="AQ68" t="inlineStr">
+        <is>
+          <t>500 W</t>
+        </is>
+      </c>
+      <c r="AR68" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="AS68" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="AT68" t="inlineStr">
+        <is>
+          <t>7.60 kWh</t>
+        </is>
+      </c>
+      <c r="AU68" t="inlineStr">
+        <is>
+          <t>264.37 kWh</t>
+        </is>
+      </c>
+      <c r="AV68" t="inlineStr">
+        <is>
+          <t>3166.91 kWh</t>
+        </is>
+      </c>
+      <c r="AW68" t="inlineStr">
+        <is>
+          <t>7.05 kWh</t>
+        </is>
+      </c>
+      <c r="AX68" t="inlineStr">
+        <is>
+          <t>242.50 kWh</t>
+        </is>
+      </c>
+      <c r="AY68" t="inlineStr">
+        <is>
+          <t>2579.67 kWh</t>
+        </is>
+      </c>
+      <c r="AZ68" t="inlineStr">
+        <is>
+          <t>15.52 kWh</t>
+        </is>
+      </c>
+      <c r="BA68" t="inlineStr">
+        <is>
+          <t>555.33 kWh</t>
+        </is>
+      </c>
+      <c r="BB68" t="inlineStr">
+        <is>
+          <t>9225.74 kWh</t>
+        </is>
+      </c>
+      <c r="BC68" t="inlineStr">
+        <is>
+          <t>19.0 °C</t>
+        </is>
+      </c>
+      <c r="BD68" t="inlineStr">
+        <is>
+          <t>--.- °C</t>
+        </is>
+      </c>
+      <c r="BE68" t="inlineStr">
+        <is>
+          <t>--.- %</t>
+        </is>
+      </c>
+      <c r="BF68" t="inlineStr">
+        <is>
+          <t>39 %</t>
+        </is>
+      </c>
+      <c r="BG68" t="inlineStr">
+        <is>
+          <t>--.- %</t>
+        </is>
+      </c>
+      <c r="BH68" t="inlineStr">
+        <is>
+          <t>39 %</t>
+        </is>
+      </c>
+      <c r="BI68" t="inlineStr">
+        <is>
+          <t>146030620</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SampleData.xlsx
+++ b/SampleData.xlsx
@@ -412,7 +412,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BI68"/>
+  <dimension ref="A1:BI71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -21336,6 +21336,927 @@
         </is>
       </c>
     </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2022-03-10 17:07:20</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>16.2 °C</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>24.3 °C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1.6 °C</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>**.* °C</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>24.2 °C</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>**.* °C</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>32 %</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>**.* %</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>0 mV</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>0 mV</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>**.* mV</t>
+        </is>
+      </c>
+      <c r="Q69" t="inlineStr">
+        <is>
+          <t>**.* mV</t>
+        </is>
+      </c>
+      <c r="R69" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="S69" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="T69" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="U69" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="V69" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="W69" t="inlineStr">
+        <is>
+          <t>65 %</t>
+        </is>
+      </c>
+      <c r="X69" t="inlineStr">
+        <is>
+          <t>68 %</t>
+        </is>
+      </c>
+      <c r="Y69" t="inlineStr">
+        <is>
+          <t>#.## g/m³</t>
+        </is>
+      </c>
+      <c r="Z69" t="inlineStr">
+        <is>
+          <t>7.03 g/m³</t>
+        </is>
+      </c>
+      <c r="AA69" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="AB69" t="inlineStr">
+        <is>
+          <t>7:00-22:00</t>
+        </is>
+      </c>
+      <c r="AC69" t="inlineStr">
+        <is>
+          <t>AWAY              22:00</t>
+        </is>
+      </c>
+      <c r="AD69" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="AE69" t="inlineStr">
+        <is>
+          <t>16.2 °C</t>
+        </is>
+      </c>
+      <c r="AF69" t="inlineStr">
+        <is>
+          <t>24.3 °C</t>
+        </is>
+      </c>
+      <c r="AG69" t="inlineStr">
+        <is>
+          <t>1.6 °C</t>
+        </is>
+      </c>
+      <c r="AH69" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI69" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AJ69" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AK69" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AL69" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AM69" t="inlineStr">
+        <is>
+          <t>65 %</t>
+        </is>
+      </c>
+      <c r="AN69" t="inlineStr">
+        <is>
+          <t>89 %</t>
+        </is>
+      </c>
+      <c r="AO69" t="inlineStr">
+        <is>
+          <t>1100 W</t>
+        </is>
+      </c>
+      <c r="AP69" t="inlineStr">
+        <is>
+          <t>537 W</t>
+        </is>
+      </c>
+      <c r="AQ69" t="inlineStr">
+        <is>
+          <t>500 W</t>
+        </is>
+      </c>
+      <c r="AR69" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="AS69" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="AT69" t="inlineStr">
+        <is>
+          <t>9.07 kWh</t>
+        </is>
+      </c>
+      <c r="AU69" t="inlineStr">
+        <is>
+          <t>267.54 kWh</t>
+        </is>
+      </c>
+      <c r="AV69" t="inlineStr">
+        <is>
+          <t>3179.13 kWh</t>
+        </is>
+      </c>
+      <c r="AW69" t="inlineStr">
+        <is>
+          <t>8.55 kWh</t>
+        </is>
+      </c>
+      <c r="AX69" t="inlineStr">
+        <is>
+          <t>245.70 kWh</t>
+        </is>
+      </c>
+      <c r="AY69" t="inlineStr">
+        <is>
+          <t>2591.18 kWh</t>
+        </is>
+      </c>
+      <c r="AZ69" t="inlineStr">
+        <is>
+          <t>14.53 kWh</t>
+        </is>
+      </c>
+      <c r="BA69" t="inlineStr">
+        <is>
+          <t>556.71 kWh</t>
+        </is>
+      </c>
+      <c r="BB69" t="inlineStr">
+        <is>
+          <t>9246.24 kWh</t>
+        </is>
+      </c>
+      <c r="BC69" t="inlineStr">
+        <is>
+          <t>19.0 °C</t>
+        </is>
+      </c>
+      <c r="BD69" t="inlineStr">
+        <is>
+          <t>--.- °C</t>
+        </is>
+      </c>
+      <c r="BE69" t="inlineStr">
+        <is>
+          <t>--.- %</t>
+        </is>
+      </c>
+      <c r="BF69" t="inlineStr">
+        <is>
+          <t>32 %</t>
+        </is>
+      </c>
+      <c r="BG69" t="inlineStr">
+        <is>
+          <t>--.- %</t>
+        </is>
+      </c>
+      <c r="BH69" t="inlineStr">
+        <is>
+          <t>32 %</t>
+        </is>
+      </c>
+      <c r="BI69" t="inlineStr">
+        <is>
+          <t>146030620</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>2022-03-11 16:45:54</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>18.5 °C</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>25.4 °C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>4.0 °C</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>**.* °C</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>24.0 °C</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>**.* °C</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>36 %</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>**.* %</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>0 mV</t>
+        </is>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>0 mV</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="P70" t="inlineStr">
+        <is>
+          <t>**.* mV</t>
+        </is>
+      </c>
+      <c r="Q70" t="inlineStr">
+        <is>
+          <t>**.* mV</t>
+        </is>
+      </c>
+      <c r="R70" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="S70" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="T70" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="U70" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="V70" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="W70" t="inlineStr">
+        <is>
+          <t>66 %</t>
+        </is>
+      </c>
+      <c r="X70" t="inlineStr">
+        <is>
+          <t>67 %</t>
+        </is>
+      </c>
+      <c r="Y70" t="inlineStr">
+        <is>
+          <t>#.## g/m³</t>
+        </is>
+      </c>
+      <c r="Z70" t="inlineStr">
+        <is>
+          <t>7.82 g/m³</t>
+        </is>
+      </c>
+      <c r="AA70" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="AB70" t="inlineStr">
+        <is>
+          <t>7:00-22:00</t>
+        </is>
+      </c>
+      <c r="AC70" t="inlineStr">
+        <is>
+          <t>AWAY              22:00</t>
+        </is>
+      </c>
+      <c r="AD70" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="AE70" t="inlineStr">
+        <is>
+          <t>18.3 °C</t>
+        </is>
+      </c>
+      <c r="AF70" t="inlineStr">
+        <is>
+          <t>25.2 °C</t>
+        </is>
+      </c>
+      <c r="AG70" t="inlineStr">
+        <is>
+          <t>3.9 °C</t>
+        </is>
+      </c>
+      <c r="AH70" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI70" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AJ70" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AK70" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AL70" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AM70" t="inlineStr">
+        <is>
+          <t>66 %</t>
+        </is>
+      </c>
+      <c r="AN70" t="inlineStr">
+        <is>
+          <t>89 %</t>
+        </is>
+      </c>
+      <c r="AO70" t="inlineStr">
+        <is>
+          <t>1025 W</t>
+        </is>
+      </c>
+      <c r="AP70" t="inlineStr">
+        <is>
+          <t>536 W</t>
+        </is>
+      </c>
+      <c r="AQ70" t="inlineStr">
+        <is>
+          <t>500 W</t>
+        </is>
+      </c>
+      <c r="AR70" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="AS70" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="AT70" t="inlineStr">
+        <is>
+          <t>6.99 kWh</t>
+        </is>
+      </c>
+      <c r="AU70" t="inlineStr">
+        <is>
+          <t>269.16 kWh</t>
+        </is>
+      </c>
+      <c r="AV70" t="inlineStr">
+        <is>
+          <t>3189.79 kWh</t>
+        </is>
+      </c>
+      <c r="AW70" t="inlineStr">
+        <is>
+          <t>6.49 kWh</t>
+        </is>
+      </c>
+      <c r="AX70" t="inlineStr">
+        <is>
+          <t>247.33 kWh</t>
+        </is>
+      </c>
+      <c r="AY70" t="inlineStr">
+        <is>
+          <t>2601.12 kWh</t>
+        </is>
+      </c>
+      <c r="AZ70" t="inlineStr">
+        <is>
+          <t>11.77 kWh</t>
+        </is>
+      </c>
+      <c r="BA70" t="inlineStr">
+        <is>
+          <t>556.90 kWh</t>
+        </is>
+      </c>
+      <c r="BB70" t="inlineStr">
+        <is>
+          <t>9264.68 kWh</t>
+        </is>
+      </c>
+      <c r="BC70" t="inlineStr">
+        <is>
+          <t>19.0 °C</t>
+        </is>
+      </c>
+      <c r="BD70" t="inlineStr">
+        <is>
+          <t>--.- °C</t>
+        </is>
+      </c>
+      <c r="BE70" t="inlineStr">
+        <is>
+          <t>--.- %</t>
+        </is>
+      </c>
+      <c r="BF70" t="inlineStr">
+        <is>
+          <t>36 %</t>
+        </is>
+      </c>
+      <c r="BG70" t="inlineStr">
+        <is>
+          <t>--.- %</t>
+        </is>
+      </c>
+      <c r="BH70" t="inlineStr">
+        <is>
+          <t>36 %</t>
+        </is>
+      </c>
+      <c r="BI70" t="inlineStr">
+        <is>
+          <t>144982044</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>2022-03-11 18:20:39</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>17.6 °C</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>24.2 °C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>3.2 °C</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>**.* °C</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>24.2 °C</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>**.* °C</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>38 %</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>**.* %</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>0 mV</t>
+        </is>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>0 mV</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="P71" t="inlineStr">
+        <is>
+          <t>**.* mV</t>
+        </is>
+      </c>
+      <c r="Q71" t="inlineStr">
+        <is>
+          <t>**.* mV</t>
+        </is>
+      </c>
+      <c r="R71" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="S71" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="T71" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="U71" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="V71" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="W71" t="inlineStr">
+        <is>
+          <t>66 %</t>
+        </is>
+      </c>
+      <c r="X71" t="inlineStr">
+        <is>
+          <t>66 %</t>
+        </is>
+      </c>
+      <c r="Y71" t="inlineStr">
+        <is>
+          <t>#.## g/m³</t>
+        </is>
+      </c>
+      <c r="Z71" t="inlineStr">
+        <is>
+          <t>8.35 g/m³</t>
+        </is>
+      </c>
+      <c r="AA71" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="AB71" t="inlineStr">
+        <is>
+          <t>7:00-22:00</t>
+        </is>
+      </c>
+      <c r="AC71" t="inlineStr">
+        <is>
+          <t>AWAY              22:00</t>
+        </is>
+      </c>
+      <c r="AD71" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="AE71" t="inlineStr">
+        <is>
+          <t>17.4 °C</t>
+        </is>
+      </c>
+      <c r="AF71" t="inlineStr">
+        <is>
+          <t>24.3 °C</t>
+        </is>
+      </c>
+      <c r="AG71" t="inlineStr">
+        <is>
+          <t>3.2 °C</t>
+        </is>
+      </c>
+      <c r="AH71" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI71" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AJ71" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AK71" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AL71" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AM71" t="inlineStr">
+        <is>
+          <t>66 %</t>
+        </is>
+      </c>
+      <c r="AN71" t="inlineStr">
+        <is>
+          <t>88 %</t>
+        </is>
+      </c>
+      <c r="AO71" t="inlineStr">
+        <is>
+          <t>1003 W</t>
+        </is>
+      </c>
+      <c r="AP71" t="inlineStr">
+        <is>
+          <t>536 W</t>
+        </is>
+      </c>
+      <c r="AQ71" t="inlineStr">
+        <is>
+          <t>500 W</t>
+        </is>
+      </c>
+      <c r="AR71" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="AS71" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="AT71" t="inlineStr">
+        <is>
+          <t>7.83 kWh</t>
+        </is>
+      </c>
+      <c r="AU71" t="inlineStr">
+        <is>
+          <t>270.00 kWh</t>
+        </is>
+      </c>
+      <c r="AV71" t="inlineStr">
+        <is>
+          <t>3190.64 kWh</t>
+        </is>
+      </c>
+      <c r="AW71" t="inlineStr">
+        <is>
+          <t>7.28 kWh</t>
+        </is>
+      </c>
+      <c r="AX71" t="inlineStr">
+        <is>
+          <t>248.12 kWh</t>
+        </is>
+      </c>
+      <c r="AY71" t="inlineStr">
+        <is>
+          <t>2601.91 kWh</t>
+        </is>
+      </c>
+      <c r="AZ71" t="inlineStr">
+        <is>
+          <t>13.36 kWh</t>
+        </is>
+      </c>
+      <c r="BA71" t="inlineStr">
+        <is>
+          <t>558.49 kWh</t>
+        </is>
+      </c>
+      <c r="BB71" t="inlineStr">
+        <is>
+          <t>9266.28 kWh</t>
+        </is>
+      </c>
+      <c r="BC71" t="inlineStr">
+        <is>
+          <t>19.0 °C</t>
+        </is>
+      </c>
+      <c r="BD71" t="inlineStr">
+        <is>
+          <t>--.- °C</t>
+        </is>
+      </c>
+      <c r="BE71" t="inlineStr">
+        <is>
+          <t>--.- %</t>
+        </is>
+      </c>
+      <c r="BF71" t="inlineStr">
+        <is>
+          <t>38 %</t>
+        </is>
+      </c>
+      <c r="BG71" t="inlineStr">
+        <is>
+          <t>--.- %</t>
+        </is>
+      </c>
+      <c r="BH71" t="inlineStr">
+        <is>
+          <t>38 %</t>
+        </is>
+      </c>
+      <c r="BI71" t="inlineStr">
+        <is>
+          <t>144982044</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SampleData.xlsx
+++ b/SampleData.xlsx
@@ -412,7 +412,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BI71"/>
+  <dimension ref="A1:BI73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -22257,6 +22257,620 @@
         </is>
       </c>
     </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>2022-03-12 18:27:51</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>18.5 °C</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>25.0 °C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>4.2 °C</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>**.* °C</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>25.0 °C</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>**.* °C</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>38 %</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>**.* %</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>0 mV</t>
+        </is>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>0 mV</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="P72" t="inlineStr">
+        <is>
+          <t>**.* mV</t>
+        </is>
+      </c>
+      <c r="Q72" t="inlineStr">
+        <is>
+          <t>**.* mV</t>
+        </is>
+      </c>
+      <c r="R72" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="S72" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="T72" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="U72" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="V72" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="W72" t="inlineStr">
+        <is>
+          <t>67 %</t>
+        </is>
+      </c>
+      <c r="X72" t="inlineStr">
+        <is>
+          <t>66 %</t>
+        </is>
+      </c>
+      <c r="Y72" t="inlineStr">
+        <is>
+          <t>#.## g/m³</t>
+        </is>
+      </c>
+      <c r="Z72" t="inlineStr">
+        <is>
+          <t>8.73 g/m³</t>
+        </is>
+      </c>
+      <c r="AA72" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="AB72" t="inlineStr">
+        <is>
+          <t>7:00-22:00</t>
+        </is>
+      </c>
+      <c r="AC72" t="inlineStr">
+        <is>
+          <t>AWAY              22:00</t>
+        </is>
+      </c>
+      <c r="AD72" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="AE72" t="inlineStr">
+        <is>
+          <t>18.4 °C</t>
+        </is>
+      </c>
+      <c r="AF72" t="inlineStr">
+        <is>
+          <t>25.0 °C</t>
+        </is>
+      </c>
+      <c r="AG72" t="inlineStr">
+        <is>
+          <t>4.2 °C</t>
+        </is>
+      </c>
+      <c r="AH72" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI72" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AJ72" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AK72" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AL72" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AM72" t="inlineStr">
+        <is>
+          <t>67 %</t>
+        </is>
+      </c>
+      <c r="AN72" t="inlineStr">
+        <is>
+          <t>88 %</t>
+        </is>
+      </c>
+      <c r="AO72" t="inlineStr">
+        <is>
+          <t>982 W</t>
+        </is>
+      </c>
+      <c r="AP72" t="inlineStr">
+        <is>
+          <t>536 W</t>
+        </is>
+      </c>
+      <c r="AQ72" t="inlineStr">
+        <is>
+          <t>500 W</t>
+        </is>
+      </c>
+      <c r="AR72" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="AS72" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="AT72" t="inlineStr">
+        <is>
+          <t>5.04 kWh</t>
+        </is>
+      </c>
+      <c r="AU72" t="inlineStr">
+        <is>
+          <t>268.46 kWh</t>
+        </is>
+      </c>
+      <c r="AV72" t="inlineStr">
+        <is>
+          <t>3197.95 kWh</t>
+        </is>
+      </c>
+      <c r="AW72" t="inlineStr">
+        <is>
+          <t>4.48 kWh</t>
+        </is>
+      </c>
+      <c r="AX72" t="inlineStr">
+        <is>
+          <t>246.57 kWh</t>
+        </is>
+      </c>
+      <c r="AY72" t="inlineStr">
+        <is>
+          <t>2608.49 kWh</t>
+        </is>
+      </c>
+      <c r="AZ72" t="inlineStr">
+        <is>
+          <t>12.10 kWh</t>
+        </is>
+      </c>
+      <c r="BA72" t="inlineStr">
+        <is>
+          <t>557.24 kWh</t>
+        </is>
+      </c>
+      <c r="BB72" t="inlineStr">
+        <is>
+          <t>9282.74 kWh</t>
+        </is>
+      </c>
+      <c r="BC72" t="inlineStr">
+        <is>
+          <t>19.0 °C</t>
+        </is>
+      </c>
+      <c r="BD72" t="inlineStr">
+        <is>
+          <t>--.- °C</t>
+        </is>
+      </c>
+      <c r="BE72" t="inlineStr">
+        <is>
+          <t>--.- %</t>
+        </is>
+      </c>
+      <c r="BF72" t="inlineStr">
+        <is>
+          <t>38 %</t>
+        </is>
+      </c>
+      <c r="BG72" t="inlineStr">
+        <is>
+          <t>--.- %</t>
+        </is>
+      </c>
+      <c r="BH72" t="inlineStr">
+        <is>
+          <t>38 %</t>
+        </is>
+      </c>
+      <c r="BI72" t="inlineStr">
+        <is>
+          <t>146030620</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>2022-03-13 09:00:40</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>14.0 °C</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>23.4 °C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>-1.1 °C</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>**.* °C</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>23.6 °C</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>**.* °C</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>36 %</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>**.* %</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>0 mV</t>
+        </is>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>0 mV</t>
+        </is>
+      </c>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="P73" t="inlineStr">
+        <is>
+          <t>**.* mV</t>
+        </is>
+      </c>
+      <c r="Q73" t="inlineStr">
+        <is>
+          <t>**.* mV</t>
+        </is>
+      </c>
+      <c r="R73" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="S73" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="T73" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="U73" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="V73" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="W73" t="inlineStr">
+        <is>
+          <t>67 %</t>
+        </is>
+      </c>
+      <c r="X73" t="inlineStr">
+        <is>
+          <t>70 %</t>
+        </is>
+      </c>
+      <c r="Y73" t="inlineStr">
+        <is>
+          <t>#.## g/m³</t>
+        </is>
+      </c>
+      <c r="Z73" t="inlineStr">
+        <is>
+          <t>7.65 g/m³</t>
+        </is>
+      </c>
+      <c r="AA73" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="AB73" t="inlineStr">
+        <is>
+          <t>7:00-22:00</t>
+        </is>
+      </c>
+      <c r="AC73" t="inlineStr">
+        <is>
+          <t>AWAY              22:00</t>
+        </is>
+      </c>
+      <c r="AD73" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="AE73" t="inlineStr">
+        <is>
+          <t>13.8 °C</t>
+        </is>
+      </c>
+      <c r="AF73" t="inlineStr">
+        <is>
+          <t>23.2 °C</t>
+        </is>
+      </c>
+      <c r="AG73" t="inlineStr">
+        <is>
+          <t>-1.2 °C</t>
+        </is>
+      </c>
+      <c r="AH73" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI73" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AJ73" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AK73" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AL73" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AM73" t="inlineStr">
+        <is>
+          <t>67 %</t>
+        </is>
+      </c>
+      <c r="AN73" t="inlineStr">
+        <is>
+          <t>90 %</t>
+        </is>
+      </c>
+      <c r="AO73" t="inlineStr">
+        <is>
+          <t>1190 W</t>
+        </is>
+      </c>
+      <c r="AP73" t="inlineStr">
+        <is>
+          <t>537 W</t>
+        </is>
+      </c>
+      <c r="AQ73" t="inlineStr">
+        <is>
+          <t>500 W</t>
+        </is>
+      </c>
+      <c r="AR73" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="AS73" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="AT73" t="inlineStr">
+        <is>
+          <t>2.07 kWh</t>
+        </is>
+      </c>
+      <c r="AU73" t="inlineStr">
+        <is>
+          <t>263.84 kWh</t>
+        </is>
+      </c>
+      <c r="AV73" t="inlineStr">
+        <is>
+          <t>3202.55 kWh</t>
+        </is>
+      </c>
+      <c r="AW73" t="inlineStr">
+        <is>
+          <t>1.86 kWh</t>
+        </is>
+      </c>
+      <c r="AX73" t="inlineStr">
+        <is>
+          <t>242.31 kWh</t>
+        </is>
+      </c>
+      <c r="AY73" t="inlineStr">
+        <is>
+          <t>2612.70 kWh</t>
+        </is>
+      </c>
+      <c r="AZ73" t="inlineStr">
+        <is>
+          <t>4.65 kWh</t>
+        </is>
+      </c>
+      <c r="BA73" t="inlineStr">
+        <is>
+          <t>547.33 kWh</t>
+        </is>
+      </c>
+      <c r="BB73" t="inlineStr">
+        <is>
+          <t>9291.91 kWh</t>
+        </is>
+      </c>
+      <c r="BC73" t="inlineStr">
+        <is>
+          <t>19.0 °C</t>
+        </is>
+      </c>
+      <c r="BD73" t="inlineStr">
+        <is>
+          <t>--.- °C</t>
+        </is>
+      </c>
+      <c r="BE73" t="inlineStr">
+        <is>
+          <t>--.- %</t>
+        </is>
+      </c>
+      <c r="BF73" t="inlineStr">
+        <is>
+          <t>36 %</t>
+        </is>
+      </c>
+      <c r="BG73" t="inlineStr">
+        <is>
+          <t>--.- %</t>
+        </is>
+      </c>
+      <c r="BH73" t="inlineStr">
+        <is>
+          <t>36 %</t>
+        </is>
+      </c>
+      <c r="BI73" t="inlineStr">
+        <is>
+          <t>146030620</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SampleData.xlsx
+++ b/SampleData.xlsx
@@ -412,7 +412,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BI73"/>
+  <dimension ref="A1:BI74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -22871,6 +22871,313 @@
         </is>
       </c>
     </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>2022-03-14 16:35:52</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>19.1 °C</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>25.3 °C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>10.8 °C</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>**.* °C</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>24.9 °C</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>**.* °C</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>27 %</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>**.* %</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>0 mV</t>
+        </is>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>0 mV</t>
+        </is>
+      </c>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="P74" t="inlineStr">
+        <is>
+          <t>**.* mV</t>
+        </is>
+      </c>
+      <c r="Q74" t="inlineStr">
+        <is>
+          <t>**.* mV</t>
+        </is>
+      </c>
+      <c r="R74" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="S74" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="T74" t="inlineStr">
+        <is>
+          <t>37 %</t>
+        </is>
+      </c>
+      <c r="U74" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="V74" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="W74" t="inlineStr">
+        <is>
+          <t>68 %</t>
+        </is>
+      </c>
+      <c r="X74" t="inlineStr">
+        <is>
+          <t>78 %</t>
+        </is>
+      </c>
+      <c r="Y74" t="inlineStr">
+        <is>
+          <t>#.## g/m³</t>
+        </is>
+      </c>
+      <c r="Z74" t="inlineStr">
+        <is>
+          <t>6.17 g/m³</t>
+        </is>
+      </c>
+      <c r="AA74" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="AB74" t="inlineStr">
+        <is>
+          <t>7:00-22:00</t>
+        </is>
+      </c>
+      <c r="AC74" t="inlineStr">
+        <is>
+          <t>AWAY              22:00</t>
+        </is>
+      </c>
+      <c r="AD74" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="AE74" t="inlineStr">
+        <is>
+          <t>19.2 °C</t>
+        </is>
+      </c>
+      <c r="AF74" t="inlineStr">
+        <is>
+          <t>25.3 °C</t>
+        </is>
+      </c>
+      <c r="AG74" t="inlineStr">
+        <is>
+          <t>10.8 °C</t>
+        </is>
+      </c>
+      <c r="AH74" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI74" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AJ74" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AK74" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AL74" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AM74" t="inlineStr">
+        <is>
+          <t>68 %</t>
+        </is>
+      </c>
+      <c r="AN74" t="inlineStr">
+        <is>
+          <t>86 %</t>
+        </is>
+      </c>
+      <c r="AO74" t="inlineStr">
+        <is>
+          <t>683 W</t>
+        </is>
+      </c>
+      <c r="AP74" t="inlineStr">
+        <is>
+          <t>216 W</t>
+        </is>
+      </c>
+      <c r="AQ74" t="inlineStr">
+        <is>
+          <t>180 W</t>
+        </is>
+      </c>
+      <c r="AR74" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="AS74" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="AT74" t="inlineStr">
+        <is>
+          <t>3.19 kWh</t>
+        </is>
+      </c>
+      <c r="AU74" t="inlineStr">
+        <is>
+          <t>263.04 kWh</t>
+        </is>
+      </c>
+      <c r="AV74" t="inlineStr">
+        <is>
+          <t>3210.91 kWh</t>
+        </is>
+      </c>
+      <c r="AW74" t="inlineStr">
+        <is>
+          <t>2.72 kWh</t>
+        </is>
+      </c>
+      <c r="AX74" t="inlineStr">
+        <is>
+          <t>241.29 kWh</t>
+        </is>
+      </c>
+      <c r="AY74" t="inlineStr">
+        <is>
+          <t>2620.11 kWh</t>
+        </is>
+      </c>
+      <c r="AZ74" t="inlineStr">
+        <is>
+          <t>7.65 kWh</t>
+        </is>
+      </c>
+      <c r="BA74" t="inlineStr">
+        <is>
+          <t>547.72 kWh</t>
+        </is>
+      </c>
+      <c r="BB74" t="inlineStr">
+        <is>
+          <t>9310.90 kWh</t>
+        </is>
+      </c>
+      <c r="BC74" t="inlineStr">
+        <is>
+          <t>19.0 °C</t>
+        </is>
+      </c>
+      <c r="BD74" t="inlineStr">
+        <is>
+          <t>--.- °C</t>
+        </is>
+      </c>
+      <c r="BE74" t="inlineStr">
+        <is>
+          <t>--.- %</t>
+        </is>
+      </c>
+      <c r="BF74" t="inlineStr">
+        <is>
+          <t>27 %</t>
+        </is>
+      </c>
+      <c r="BG74" t="inlineStr">
+        <is>
+          <t>--.- %</t>
+        </is>
+      </c>
+      <c r="BH74" t="inlineStr">
+        <is>
+          <t>27 %</t>
+        </is>
+      </c>
+      <c r="BI74" t="inlineStr">
+        <is>
+          <t>146030620</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SampleData.xlsx
+++ b/SampleData.xlsx
@@ -412,7 +412,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BI74"/>
+  <dimension ref="A1:BI77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -23178,6 +23178,927 @@
         </is>
       </c>
     </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>2022-03-15 18:18:40</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>19.0 °C</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>24.6 °C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>6.8 °C</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>**.* °C</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>25.0 °C</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>**.* °C</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>37 %</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>**.* %</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>2 mV</t>
+        </is>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>0 mV</t>
+        </is>
+      </c>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="P75" t="inlineStr">
+        <is>
+          <t>**.* mV</t>
+        </is>
+      </c>
+      <c r="Q75" t="inlineStr">
+        <is>
+          <t>**.* mV</t>
+        </is>
+      </c>
+      <c r="R75" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="S75" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="T75" t="inlineStr">
+        <is>
+          <t>56 %</t>
+        </is>
+      </c>
+      <c r="U75" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="V75" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="W75" t="inlineStr">
+        <is>
+          <t>68 %</t>
+        </is>
+      </c>
+      <c r="X75" t="inlineStr">
+        <is>
+          <t>74 %</t>
+        </is>
+      </c>
+      <c r="Y75" t="inlineStr">
+        <is>
+          <t>#.## g/m³</t>
+        </is>
+      </c>
+      <c r="Z75" t="inlineStr">
+        <is>
+          <t>8.51 g/m³</t>
+        </is>
+      </c>
+      <c r="AA75" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="AB75" t="inlineStr">
+        <is>
+          <t>7:00-22:00</t>
+        </is>
+      </c>
+      <c r="AC75" t="inlineStr">
+        <is>
+          <t>AWAY              22:00</t>
+        </is>
+      </c>
+      <c r="AD75" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="AE75" t="inlineStr">
+        <is>
+          <t>19.0 °C</t>
+        </is>
+      </c>
+      <c r="AF75" t="inlineStr">
+        <is>
+          <t>24.6 °C</t>
+        </is>
+      </c>
+      <c r="AG75" t="inlineStr">
+        <is>
+          <t>6.8 °C</t>
+        </is>
+      </c>
+      <c r="AH75" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI75" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AJ75" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AK75" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AL75" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AM75" t="inlineStr">
+        <is>
+          <t>68 %</t>
+        </is>
+      </c>
+      <c r="AN75" t="inlineStr">
+        <is>
+          <t>87 %</t>
+        </is>
+      </c>
+      <c r="AO75" t="inlineStr">
+        <is>
+          <t>838 W</t>
+        </is>
+      </c>
+      <c r="AP75" t="inlineStr">
+        <is>
+          <t>316 W</t>
+        </is>
+      </c>
+      <c r="AQ75" t="inlineStr">
+        <is>
+          <t>281 W</t>
+        </is>
+      </c>
+      <c r="AR75" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="AS75" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="AT75" t="inlineStr">
+        <is>
+          <t>4.25 kWh</t>
+        </is>
+      </c>
+      <c r="AU75" t="inlineStr">
+        <is>
+          <t>261.19 kWh</t>
+        </is>
+      </c>
+      <c r="AV75" t="inlineStr">
+        <is>
+          <t>3218.08 kWh</t>
+        </is>
+      </c>
+      <c r="AW75" t="inlineStr">
+        <is>
+          <t>3.67 kWh</t>
+        </is>
+      </c>
+      <c r="AX75" t="inlineStr">
+        <is>
+          <t>239.36 kWh</t>
+        </is>
+      </c>
+      <c r="AY75" t="inlineStr">
+        <is>
+          <t>2626.45 kWh</t>
+        </is>
+      </c>
+      <c r="AZ75" t="inlineStr">
+        <is>
+          <t>11.53 kWh</t>
+        </is>
+      </c>
+      <c r="BA75" t="inlineStr">
+        <is>
+          <t>547.49 kWh</t>
+        </is>
+      </c>
+      <c r="BB75" t="inlineStr">
+        <is>
+          <t>9328.26 kWh</t>
+        </is>
+      </c>
+      <c r="BC75" t="inlineStr">
+        <is>
+          <t>19.0 °C</t>
+        </is>
+      </c>
+      <c r="BD75" t="inlineStr">
+        <is>
+          <t>--.- °C</t>
+        </is>
+      </c>
+      <c r="BE75" t="inlineStr">
+        <is>
+          <t>--.- %</t>
+        </is>
+      </c>
+      <c r="BF75" t="inlineStr">
+        <is>
+          <t>37 %</t>
+        </is>
+      </c>
+      <c r="BG75" t="inlineStr">
+        <is>
+          <t>--.- %</t>
+        </is>
+      </c>
+      <c r="BH75" t="inlineStr">
+        <is>
+          <t>37 %</t>
+        </is>
+      </c>
+      <c r="BI75" t="inlineStr">
+        <is>
+          <t>144982044</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>2022-03-16 16:53:41</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>19.1 °C</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>27.1 °C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>11.0 °C</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>**.* °C</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>26.2 °C</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>**.* °C</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>32 %</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>**.* %</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>0 mV</t>
+        </is>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>0 mV</t>
+        </is>
+      </c>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="P76" t="inlineStr">
+        <is>
+          <t>**.* mV</t>
+        </is>
+      </c>
+      <c r="Q76" t="inlineStr">
+        <is>
+          <t>**.* mV</t>
+        </is>
+      </c>
+      <c r="R76" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="S76" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="T76" t="inlineStr">
+        <is>
+          <t>34 %</t>
+        </is>
+      </c>
+      <c r="U76" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="V76" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="W76" t="inlineStr">
+        <is>
+          <t>69 %</t>
+        </is>
+      </c>
+      <c r="X76" t="inlineStr">
+        <is>
+          <t>81 %</t>
+        </is>
+      </c>
+      <c r="Y76" t="inlineStr">
+        <is>
+          <t>#.## g/m³</t>
+        </is>
+      </c>
+      <c r="Z76" t="inlineStr">
+        <is>
+          <t>7.88 g/m³</t>
+        </is>
+      </c>
+      <c r="AA76" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="AB76" t="inlineStr">
+        <is>
+          <t>7:00-22:00</t>
+        </is>
+      </c>
+      <c r="AC76" t="inlineStr">
+        <is>
+          <t>AWAY              22:00</t>
+        </is>
+      </c>
+      <c r="AD76" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="AE76" t="inlineStr">
+        <is>
+          <t>19.0 °C</t>
+        </is>
+      </c>
+      <c r="AF76" t="inlineStr">
+        <is>
+          <t>27.2 °C</t>
+        </is>
+      </c>
+      <c r="AG76" t="inlineStr">
+        <is>
+          <t>11.0 °C</t>
+        </is>
+      </c>
+      <c r="AH76" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI76" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AJ76" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AK76" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AL76" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AM76" t="inlineStr">
+        <is>
+          <t>69 %</t>
+        </is>
+      </c>
+      <c r="AN76" t="inlineStr">
+        <is>
+          <t>89 %</t>
+        </is>
+      </c>
+      <c r="AO76" t="inlineStr">
+        <is>
+          <t>774 W</t>
+        </is>
+      </c>
+      <c r="AP76" t="inlineStr">
+        <is>
+          <t>209 W</t>
+        </is>
+      </c>
+      <c r="AQ76" t="inlineStr">
+        <is>
+          <t>173 W</t>
+        </is>
+      </c>
+      <c r="AR76" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="AS76" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="AT76" t="inlineStr">
+        <is>
+          <t>3.90 kWh</t>
+        </is>
+      </c>
+      <c r="AU76" t="inlineStr">
+        <is>
+          <t>258.29 kWh</t>
+        </is>
+      </c>
+      <c r="AV76" t="inlineStr">
+        <is>
+          <t>3224.20 kWh</t>
+        </is>
+      </c>
+      <c r="AW76" t="inlineStr">
+        <is>
+          <t>3.40 kWh</t>
+        </is>
+      </c>
+      <c r="AX76" t="inlineStr">
+        <is>
+          <t>236.51 kWh</t>
+        </is>
+      </c>
+      <c r="AY76" t="inlineStr">
+        <is>
+          <t>2631.90 kWh</t>
+        </is>
+      </c>
+      <c r="AZ76" t="inlineStr">
+        <is>
+          <t>10.13 kWh</t>
+        </is>
+      </c>
+      <c r="BA76" t="inlineStr">
+        <is>
+          <t>544.62 kWh</t>
+        </is>
+      </c>
+      <c r="BB76" t="inlineStr">
+        <is>
+          <t>9342.63 kWh</t>
+        </is>
+      </c>
+      <c r="BC76" t="inlineStr">
+        <is>
+          <t>19.0 °C</t>
+        </is>
+      </c>
+      <c r="BD76" t="inlineStr">
+        <is>
+          <t>--.- °C</t>
+        </is>
+      </c>
+      <c r="BE76" t="inlineStr">
+        <is>
+          <t>--.- %</t>
+        </is>
+      </c>
+      <c r="BF76" t="inlineStr">
+        <is>
+          <t>32 %</t>
+        </is>
+      </c>
+      <c r="BG76" t="inlineStr">
+        <is>
+          <t>--.- %</t>
+        </is>
+      </c>
+      <c r="BH76" t="inlineStr">
+        <is>
+          <t>32 %</t>
+        </is>
+      </c>
+      <c r="BI76" t="inlineStr">
+        <is>
+          <t>146030620</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>2022-03-17 16:19:39</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>19.1 °C</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>24.9 °C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>9.5 °C</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>**.* °C</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>24.5 °C</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>**.* °C</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>31 %</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>**.* %</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>0 mV</t>
+        </is>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>0 mV</t>
+        </is>
+      </c>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="P77" t="inlineStr">
+        <is>
+          <t>**.* mV</t>
+        </is>
+      </c>
+      <c r="Q77" t="inlineStr">
+        <is>
+          <t>**.* mV</t>
+        </is>
+      </c>
+      <c r="R77" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="S77" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="T77" t="inlineStr">
+        <is>
+          <t>44 %</t>
+        </is>
+      </c>
+      <c r="U77" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="V77" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="W77" t="inlineStr">
+        <is>
+          <t>70 %</t>
+        </is>
+      </c>
+      <c r="X77" t="inlineStr">
+        <is>
+          <t>77 %</t>
+        </is>
+      </c>
+      <c r="Y77" t="inlineStr">
+        <is>
+          <t>#.## g/m³</t>
+        </is>
+      </c>
+      <c r="Z77" t="inlineStr">
+        <is>
+          <t>6.92 g/m³</t>
+        </is>
+      </c>
+      <c r="AA77" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="AB77" t="inlineStr">
+        <is>
+          <t>7:00-22:00</t>
+        </is>
+      </c>
+      <c r="AC77" t="inlineStr">
+        <is>
+          <t>AWAY              22:00</t>
+        </is>
+      </c>
+      <c r="AD77" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="AE77" t="inlineStr">
+        <is>
+          <t>19.1 °C</t>
+        </is>
+      </c>
+      <c r="AF77" t="inlineStr">
+        <is>
+          <t>24.9 °C</t>
+        </is>
+      </c>
+      <c r="AG77" t="inlineStr">
+        <is>
+          <t>9.5 °C</t>
+        </is>
+      </c>
+      <c r="AH77" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI77" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AJ77" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AK77" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AL77" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AM77" t="inlineStr">
+        <is>
+          <t>70 %</t>
+        </is>
+      </c>
+      <c r="AN77" t="inlineStr">
+        <is>
+          <t>88 %</t>
+        </is>
+      </c>
+      <c r="AO77" t="inlineStr">
+        <is>
+          <t>731 W</t>
+        </is>
+      </c>
+      <c r="AP77" t="inlineStr">
+        <is>
+          <t>253 W</t>
+        </is>
+      </c>
+      <c r="AQ77" t="inlineStr">
+        <is>
+          <t>217 W</t>
+        </is>
+      </c>
+      <c r="AR77" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="AS77" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="AT77" t="inlineStr">
+        <is>
+          <t>3.76 kWh</t>
+        </is>
+      </c>
+      <c r="AU77" t="inlineStr">
+        <is>
+          <t>255.13 kWh</t>
+        </is>
+      </c>
+      <c r="AV77" t="inlineStr">
+        <is>
+          <t>3230.17 kWh</t>
+        </is>
+      </c>
+      <c r="AW77" t="inlineStr">
+        <is>
+          <t>3.28 kWh</t>
+        </is>
+      </c>
+      <c r="AX77" t="inlineStr">
+        <is>
+          <t>233.38 kWh</t>
+        </is>
+      </c>
+      <c r="AY77" t="inlineStr">
+        <is>
+          <t>2637.16 kWh</t>
+        </is>
+      </c>
+      <c r="AZ77" t="inlineStr">
+        <is>
+          <t>9.40 kWh</t>
+        </is>
+      </c>
+      <c r="BA77" t="inlineStr">
+        <is>
+          <t>542.38 kWh</t>
+        </is>
+      </c>
+      <c r="BB77" t="inlineStr">
+        <is>
+          <t>9357.41 kWh</t>
+        </is>
+      </c>
+      <c r="BC77" t="inlineStr">
+        <is>
+          <t>19.0 °C</t>
+        </is>
+      </c>
+      <c r="BD77" t="inlineStr">
+        <is>
+          <t>--.- °C</t>
+        </is>
+      </c>
+      <c r="BE77" t="inlineStr">
+        <is>
+          <t>--.- %</t>
+        </is>
+      </c>
+      <c r="BF77" t="inlineStr">
+        <is>
+          <t>31 %</t>
+        </is>
+      </c>
+      <c r="BG77" t="inlineStr">
+        <is>
+          <t>--.- %</t>
+        </is>
+      </c>
+      <c r="BH77" t="inlineStr">
+        <is>
+          <t>31 %</t>
+        </is>
+      </c>
+      <c r="BI77" t="inlineStr">
+        <is>
+          <t>146030620</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SampleData.xlsx
+++ b/SampleData.xlsx
@@ -412,7 +412,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BI77"/>
+  <dimension ref="A1:BI80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -24099,6 +24099,927 @@
         </is>
       </c>
     </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>2022-03-21 17:13:05</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>19.0 °C</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>24.8 °C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>9.4 °C</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>**.* °C</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>24.8 °C</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>**.* °C</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>33 %</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>**.* %</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>0 mV</t>
+        </is>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>0 mV</t>
+        </is>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="P78" t="inlineStr">
+        <is>
+          <t>**.* mV</t>
+        </is>
+      </c>
+      <c r="Q78" t="inlineStr">
+        <is>
+          <t>**.* mV</t>
+        </is>
+      </c>
+      <c r="R78" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="S78" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="T78" t="inlineStr">
+        <is>
+          <t>42 %</t>
+        </is>
+      </c>
+      <c r="U78" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="V78" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="W78" t="inlineStr">
+        <is>
+          <t>72 %</t>
+        </is>
+      </c>
+      <c r="X78" t="inlineStr">
+        <is>
+          <t>77 %</t>
+        </is>
+      </c>
+      <c r="Y78" t="inlineStr">
+        <is>
+          <t>#.## g/m³</t>
+        </is>
+      </c>
+      <c r="Z78" t="inlineStr">
+        <is>
+          <t>7.51 g/m³</t>
+        </is>
+      </c>
+      <c r="AA78" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="AB78" t="inlineStr">
+        <is>
+          <t>7:00-22:00</t>
+        </is>
+      </c>
+      <c r="AC78" t="inlineStr">
+        <is>
+          <t>AWAY              22:00</t>
+        </is>
+      </c>
+      <c r="AD78" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="AE78" t="inlineStr">
+        <is>
+          <t>19.0 °C</t>
+        </is>
+      </c>
+      <c r="AF78" t="inlineStr">
+        <is>
+          <t>24.8 °C</t>
+        </is>
+      </c>
+      <c r="AG78" t="inlineStr">
+        <is>
+          <t>9.5 °C</t>
+        </is>
+      </c>
+      <c r="AH78" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI78" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AJ78" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AK78" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AL78" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AM78" t="inlineStr">
+        <is>
+          <t>72 %</t>
+        </is>
+      </c>
+      <c r="AN78" t="inlineStr">
+        <is>
+          <t>86 %</t>
+        </is>
+      </c>
+      <c r="AO78" t="inlineStr">
+        <is>
+          <t>705 W</t>
+        </is>
+      </c>
+      <c r="AP78" t="inlineStr">
+        <is>
+          <t>245 W</t>
+        </is>
+      </c>
+      <c r="AQ78" t="inlineStr">
+        <is>
+          <t>209 W</t>
+        </is>
+      </c>
+      <c r="AR78" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="AS78" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="AT78" t="inlineStr">
+        <is>
+          <t>2.81 kWh</t>
+        </is>
+      </c>
+      <c r="AU78" t="inlineStr">
+        <is>
+          <t>235.15 kWh</t>
+        </is>
+      </c>
+      <c r="AV78" t="inlineStr">
+        <is>
+          <t>3245.84 kWh</t>
+        </is>
+      </c>
+      <c r="AW78" t="inlineStr">
+        <is>
+          <t>2.33 kWh</t>
+        </is>
+      </c>
+      <c r="AX78" t="inlineStr">
+        <is>
+          <t>213.96 kWh</t>
+        </is>
+      </c>
+      <c r="AY78" t="inlineStr">
+        <is>
+          <t>2650.48 kWh</t>
+        </is>
+      </c>
+      <c r="AZ78" t="inlineStr">
+        <is>
+          <t>7.12 kWh</t>
+        </is>
+      </c>
+      <c r="BA78" t="inlineStr">
+        <is>
+          <t>508.79 kWh</t>
+        </is>
+      </c>
+      <c r="BB78" t="inlineStr">
+        <is>
+          <t>9393.53 kWh</t>
+        </is>
+      </c>
+      <c r="BC78" t="inlineStr">
+        <is>
+          <t>19.0 °C</t>
+        </is>
+      </c>
+      <c r="BD78" t="inlineStr">
+        <is>
+          <t>--.- °C</t>
+        </is>
+      </c>
+      <c r="BE78" t="inlineStr">
+        <is>
+          <t>--.- %</t>
+        </is>
+      </c>
+      <c r="BF78" t="inlineStr">
+        <is>
+          <t>33 %</t>
+        </is>
+      </c>
+      <c r="BG78" t="inlineStr">
+        <is>
+          <t>--.- %</t>
+        </is>
+      </c>
+      <c r="BH78" t="inlineStr">
+        <is>
+          <t>33 %</t>
+        </is>
+      </c>
+      <c r="BI78" t="inlineStr">
+        <is>
+          <t>146030620</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>2022-03-22 13:24:11</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>19.4 °C</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>26.6 °C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>16.2 °C</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>**.* °C</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>24.7 °C</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>**.* °C</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>42 %</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>**.* %</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>0 mV</t>
+        </is>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>0 mV</t>
+        </is>
+      </c>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="P79" t="inlineStr">
+        <is>
+          <t>**.* mV</t>
+        </is>
+      </c>
+      <c r="Q79" t="inlineStr">
+        <is>
+          <t>**.* mV</t>
+        </is>
+      </c>
+      <c r="R79" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="S79" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="T79" t="inlineStr">
+        <is>
+          <t>4 %</t>
+        </is>
+      </c>
+      <c r="U79" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="V79" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="W79" t="inlineStr">
+        <is>
+          <t>72 %</t>
+        </is>
+      </c>
+      <c r="X79" t="inlineStr">
+        <is>
+          <t>96 %</t>
+        </is>
+      </c>
+      <c r="Y79" t="inlineStr">
+        <is>
+          <t>#.## g/m³</t>
+        </is>
+      </c>
+      <c r="Z79" t="inlineStr">
+        <is>
+          <t>9.50 g/m³</t>
+        </is>
+      </c>
+      <c r="AA79" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="AB79" t="inlineStr">
+        <is>
+          <t>7:00-22:00</t>
+        </is>
+      </c>
+      <c r="AC79" t="inlineStr">
+        <is>
+          <t>AWAY              22:00</t>
+        </is>
+      </c>
+      <c r="AD79" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="AE79" t="inlineStr">
+        <is>
+          <t>19.4 °C</t>
+        </is>
+      </c>
+      <c r="AF79" t="inlineStr">
+        <is>
+          <t>26.6 °C</t>
+        </is>
+      </c>
+      <c r="AG79" t="inlineStr">
+        <is>
+          <t>16.0 °C</t>
+        </is>
+      </c>
+      <c r="AH79" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI79" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AJ79" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AK79" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AL79" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AM79" t="inlineStr">
+        <is>
+          <t>72 %</t>
+        </is>
+      </c>
+      <c r="AN79" t="inlineStr">
+        <is>
+          <t>85 %</t>
+        </is>
+      </c>
+      <c r="AO79" t="inlineStr">
+        <is>
+          <t>486 W</t>
+        </is>
+      </c>
+      <c r="AP79" t="inlineStr">
+        <is>
+          <t>56 W</t>
+        </is>
+      </c>
+      <c r="AQ79" t="inlineStr">
+        <is>
+          <t>20 W</t>
+        </is>
+      </c>
+      <c r="AR79" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="AS79" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="AT79" t="inlineStr">
+        <is>
+          <t>2.82 kWh</t>
+        </is>
+      </c>
+      <c r="AU79" t="inlineStr">
+        <is>
+          <t>233.52 kWh</t>
+        </is>
+      </c>
+      <c r="AV79" t="inlineStr">
+        <is>
+          <t>3250.97 kWh</t>
+        </is>
+      </c>
+      <c r="AW79" t="inlineStr">
+        <is>
+          <t>2.45 kWh</t>
+        </is>
+      </c>
+      <c r="AX79" t="inlineStr">
+        <is>
+          <t>212.47 kWh</t>
+        </is>
+      </c>
+      <c r="AY79" t="inlineStr">
+        <is>
+          <t>2655.03 kWh</t>
+        </is>
+      </c>
+      <c r="AZ79" t="inlineStr">
+        <is>
+          <t>6.76 kWh</t>
+        </is>
+      </c>
+      <c r="BA79" t="inlineStr">
+        <is>
+          <t>500.03 kWh</t>
+        </is>
+      </c>
+      <c r="BB79" t="inlineStr">
+        <is>
+          <t>9405.03 kWh</t>
+        </is>
+      </c>
+      <c r="BC79" t="inlineStr">
+        <is>
+          <t>19.0 °C</t>
+        </is>
+      </c>
+      <c r="BD79" t="inlineStr">
+        <is>
+          <t>--.- °C</t>
+        </is>
+      </c>
+      <c r="BE79" t="inlineStr">
+        <is>
+          <t>--.- %</t>
+        </is>
+      </c>
+      <c r="BF79" t="inlineStr">
+        <is>
+          <t>42 %</t>
+        </is>
+      </c>
+      <c r="BG79" t="inlineStr">
+        <is>
+          <t>--.- %</t>
+        </is>
+      </c>
+      <c r="BH79" t="inlineStr">
+        <is>
+          <t>42 %</t>
+        </is>
+      </c>
+      <c r="BI79" t="inlineStr">
+        <is>
+          <t>146030620</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>2022-03-24 16:57:07</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>18.9 °C</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>25.4 °C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>12.0 °C</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>**.* °C</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>24.4 °C</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>**.* °C</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>34 %</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>**.* %</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>0 mV</t>
+        </is>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>0 mV</t>
+        </is>
+      </c>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="P80" t="inlineStr">
+        <is>
+          <t>**.* mV</t>
+        </is>
+      </c>
+      <c r="Q80" t="inlineStr">
+        <is>
+          <t>**.* mV</t>
+        </is>
+      </c>
+      <c r="R80" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="S80" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="T80" t="inlineStr">
+        <is>
+          <t>32 %</t>
+        </is>
+      </c>
+      <c r="U80" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="V80" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="W80" t="inlineStr">
+        <is>
+          <t>74 %</t>
+        </is>
+      </c>
+      <c r="X80" t="inlineStr">
+        <is>
+          <t>79 %</t>
+        </is>
+      </c>
+      <c r="Y80" t="inlineStr">
+        <is>
+          <t>#.## g/m³</t>
+        </is>
+      </c>
+      <c r="Z80" t="inlineStr">
+        <is>
+          <t>7.55 g/m³</t>
+        </is>
+      </c>
+      <c r="AA80" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="AB80" t="inlineStr">
+        <is>
+          <t>7:00-22:00</t>
+        </is>
+      </c>
+      <c r="AC80" t="inlineStr">
+        <is>
+          <t>AWAY              22:00</t>
+        </is>
+      </c>
+      <c r="AD80" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="AE80" t="inlineStr">
+        <is>
+          <t>19.1 °C</t>
+        </is>
+      </c>
+      <c r="AF80" t="inlineStr">
+        <is>
+          <t>25.4 °C</t>
+        </is>
+      </c>
+      <c r="AG80" t="inlineStr">
+        <is>
+          <t>11.9 °C</t>
+        </is>
+      </c>
+      <c r="AH80" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI80" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AJ80" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AK80" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AL80" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AM80" t="inlineStr">
+        <is>
+          <t>74 %</t>
+        </is>
+      </c>
+      <c r="AN80" t="inlineStr">
+        <is>
+          <t>86 %</t>
+        </is>
+      </c>
+      <c r="AO80" t="inlineStr">
+        <is>
+          <t>624 W</t>
+        </is>
+      </c>
+      <c r="AP80" t="inlineStr">
+        <is>
+          <t>193 W</t>
+        </is>
+      </c>
+      <c r="AQ80" t="inlineStr">
+        <is>
+          <t>157 W</t>
+        </is>
+      </c>
+      <c r="AR80" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="AS80" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="AT80" t="inlineStr">
+        <is>
+          <t>2.36 kWh</t>
+        </is>
+      </c>
+      <c r="AU80" t="inlineStr">
+        <is>
+          <t>228.17 kWh</t>
+        </is>
+      </c>
+      <c r="AV80" t="inlineStr">
+        <is>
+          <t>3263.36 kWh</t>
+        </is>
+      </c>
+      <c r="AW80" t="inlineStr">
+        <is>
+          <t>1.88 kWh</t>
+        </is>
+      </c>
+      <c r="AX80" t="inlineStr">
+        <is>
+          <t>207.03 kWh</t>
+        </is>
+      </c>
+      <c r="AY80" t="inlineStr">
+        <is>
+          <t>2665.85 kWh</t>
+        </is>
+      </c>
+      <c r="AZ80" t="inlineStr">
+        <is>
+          <t>7.64 kWh</t>
+        </is>
+      </c>
+      <c r="BA80" t="inlineStr">
+        <is>
+          <t>488.40 kWh</t>
+        </is>
+      </c>
+      <c r="BB80" t="inlineStr">
+        <is>
+          <t>9434.34 kWh</t>
+        </is>
+      </c>
+      <c r="BC80" t="inlineStr">
+        <is>
+          <t>19.0 °C</t>
+        </is>
+      </c>
+      <c r="BD80" t="inlineStr">
+        <is>
+          <t>--.- °C</t>
+        </is>
+      </c>
+      <c r="BE80" t="inlineStr">
+        <is>
+          <t>--.- %</t>
+        </is>
+      </c>
+      <c r="BF80" t="inlineStr">
+        <is>
+          <t>35 %</t>
+        </is>
+      </c>
+      <c r="BG80" t="inlineStr">
+        <is>
+          <t>--.- %</t>
+        </is>
+      </c>
+      <c r="BH80" t="inlineStr">
+        <is>
+          <t>35 %</t>
+        </is>
+      </c>
+      <c r="BI80" t="inlineStr">
+        <is>
+          <t>144982044</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SampleData.xlsx
+++ b/SampleData.xlsx
@@ -412,7 +412,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BI80"/>
+  <dimension ref="A1:BI81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -25020,6 +25020,313 @@
         </is>
       </c>
     </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>2022-03-25 18:58:06</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>19.1 °C</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>24.6 °C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>6.6 °C</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>**.* °C</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>23.8 °C</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>**.* °C</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>48 %</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>**.* %</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>0 mV</t>
+        </is>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>0 mV</t>
+        </is>
+      </c>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="P81" t="inlineStr">
+        <is>
+          <t>**.* mV</t>
+        </is>
+      </c>
+      <c r="Q81" t="inlineStr">
+        <is>
+          <t>**.* mV</t>
+        </is>
+      </c>
+      <c r="R81" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="S81" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="T81" t="inlineStr">
+        <is>
+          <t>58 %</t>
+        </is>
+      </c>
+      <c r="U81" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="V81" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="W81" t="inlineStr">
+        <is>
+          <t>75 %</t>
+        </is>
+      </c>
+      <c r="X81" t="inlineStr">
+        <is>
+          <t>74 %</t>
+        </is>
+      </c>
+      <c r="Y81" t="inlineStr">
+        <is>
+          <t>#.## g/m³</t>
+        </is>
+      </c>
+      <c r="Z81" t="inlineStr">
+        <is>
+          <t>10.31 g/m³</t>
+        </is>
+      </c>
+      <c r="AA81" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="AB81" t="inlineStr">
+        <is>
+          <t>7:00-22:00</t>
+        </is>
+      </c>
+      <c r="AC81" t="inlineStr">
+        <is>
+          <t>AWAY              22:00</t>
+        </is>
+      </c>
+      <c r="AD81" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="AE81" t="inlineStr">
+        <is>
+          <t>19.1 °C</t>
+        </is>
+      </c>
+      <c r="AF81" t="inlineStr">
+        <is>
+          <t>24.5 °C</t>
+        </is>
+      </c>
+      <c r="AG81" t="inlineStr">
+        <is>
+          <t>6.5 °C</t>
+        </is>
+      </c>
+      <c r="AH81" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI81" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AJ81" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AK81" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AL81" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AM81" t="inlineStr">
+        <is>
+          <t>75 %</t>
+        </is>
+      </c>
+      <c r="AN81" t="inlineStr">
+        <is>
+          <t>87 %</t>
+        </is>
+      </c>
+      <c r="AO81" t="inlineStr">
+        <is>
+          <t>843 W</t>
+        </is>
+      </c>
+      <c r="AP81" t="inlineStr">
+        <is>
+          <t>315 W</t>
+        </is>
+      </c>
+      <c r="AQ81" t="inlineStr">
+        <is>
+          <t>280 W</t>
+        </is>
+      </c>
+      <c r="AR81" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="AS81" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="AT81" t="inlineStr">
+        <is>
+          <t>3.79 kWh</t>
+        </is>
+      </c>
+      <c r="AU81" t="inlineStr">
+        <is>
+          <t>224.60 kWh</t>
+        </is>
+      </c>
+      <c r="AV81" t="inlineStr">
+        <is>
+          <t>3268.98 kWh</t>
+        </is>
+      </c>
+      <c r="AW81" t="inlineStr">
+        <is>
+          <t>3.22 kWh</t>
+        </is>
+      </c>
+      <c r="AX81" t="inlineStr">
+        <is>
+          <t>203.41 kWh</t>
+        </is>
+      </c>
+      <c r="AY81" t="inlineStr">
+        <is>
+          <t>2670.69 kWh</t>
+        </is>
+      </c>
+      <c r="AZ81" t="inlineStr">
+        <is>
+          <t>9.98 kWh</t>
+        </is>
+      </c>
+      <c r="BA81" t="inlineStr">
+        <is>
+          <t>480.30 kWh</t>
+        </is>
+      </c>
+      <c r="BB81" t="inlineStr">
+        <is>
+          <t>9448.82 kWh</t>
+        </is>
+      </c>
+      <c r="BC81" t="inlineStr">
+        <is>
+          <t>19.0 °C</t>
+        </is>
+      </c>
+      <c r="BD81" t="inlineStr">
+        <is>
+          <t>--.- °C</t>
+        </is>
+      </c>
+      <c r="BE81" t="inlineStr">
+        <is>
+          <t>--.- %</t>
+        </is>
+      </c>
+      <c r="BF81" t="inlineStr">
+        <is>
+          <t>48 %</t>
+        </is>
+      </c>
+      <c r="BG81" t="inlineStr">
+        <is>
+          <t>--.- %</t>
+        </is>
+      </c>
+      <c r="BH81" t="inlineStr">
+        <is>
+          <t>48 %</t>
+        </is>
+      </c>
+      <c r="BI81" t="inlineStr">
+        <is>
+          <t>146030620</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SampleData.xlsx
+++ b/SampleData.xlsx
@@ -412,7 +412,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BI81"/>
+  <dimension ref="A1:BI82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -25327,6 +25327,313 @@
         </is>
       </c>
     </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>2022-03-26 09:30:10</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>19.0 °C</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>25.0 °C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>6.3 °C</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>**.* °C</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>23.9 °C</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>**.* °C</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>42 %</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>**.* %</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>0 mV</t>
+        </is>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>0 mV</t>
+        </is>
+      </c>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="P82" t="inlineStr">
+        <is>
+          <t>**.* mV</t>
+        </is>
+      </c>
+      <c r="Q82" t="inlineStr">
+        <is>
+          <t>**.* mV</t>
+        </is>
+      </c>
+      <c r="R82" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="S82" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="T82" t="inlineStr">
+        <is>
+          <t>46 %</t>
+        </is>
+      </c>
+      <c r="U82" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="V82" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="W82" t="inlineStr">
+        <is>
+          <t>75 %</t>
+        </is>
+      </c>
+      <c r="X82" t="inlineStr">
+        <is>
+          <t>79 %</t>
+        </is>
+      </c>
+      <c r="Y82" t="inlineStr">
+        <is>
+          <t>#.## g/m³</t>
+        </is>
+      </c>
+      <c r="Z82" t="inlineStr">
+        <is>
+          <t>9.07 g/m³</t>
+        </is>
+      </c>
+      <c r="AA82" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="AB82" t="inlineStr">
+        <is>
+          <t>7:00-22:00</t>
+        </is>
+      </c>
+      <c r="AC82" t="inlineStr">
+        <is>
+          <t>AWAY              22:00</t>
+        </is>
+      </c>
+      <c r="AD82" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="AE82" t="inlineStr">
+        <is>
+          <t>19.0 °C</t>
+        </is>
+      </c>
+      <c r="AF82" t="inlineStr">
+        <is>
+          <t>24.8 °C</t>
+        </is>
+      </c>
+      <c r="AG82" t="inlineStr">
+        <is>
+          <t>6.2 °C</t>
+        </is>
+      </c>
+      <c r="AH82" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI82" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AJ82" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AK82" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AL82" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AM82" t="inlineStr">
+        <is>
+          <t>75 %</t>
+        </is>
+      </c>
+      <c r="AN82" t="inlineStr">
+        <is>
+          <t>88 %</t>
+        </is>
+      </c>
+      <c r="AO82" t="inlineStr">
+        <is>
+          <t>886 W</t>
+        </is>
+      </c>
+      <c r="AP82" t="inlineStr">
+        <is>
+          <t>266 W</t>
+        </is>
+      </c>
+      <c r="AQ82" t="inlineStr">
+        <is>
+          <t>230 W</t>
+        </is>
+      </c>
+      <c r="AR82" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="AS82" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="AT82" t="inlineStr">
+        <is>
+          <t>1.10 kWh</t>
+        </is>
+      </c>
+      <c r="AU82" t="inlineStr">
+        <is>
+          <t>218.60 kWh</t>
+        </is>
+      </c>
+      <c r="AV82" t="inlineStr">
+        <is>
+          <t>3271.19 kWh</t>
+        </is>
+      </c>
+      <c r="AW82" t="inlineStr">
+        <is>
+          <t>0.87 kWh</t>
+        </is>
+      </c>
+      <c r="AX82" t="inlineStr">
+        <is>
+          <t>197.77 kWh</t>
+        </is>
+      </c>
+      <c r="AY82" t="inlineStr">
+        <is>
+          <t>2672.51 kWh</t>
+        </is>
+      </c>
+      <c r="AZ82" t="inlineStr">
+        <is>
+          <t>3.94 kWh</t>
+        </is>
+      </c>
+      <c r="BA82" t="inlineStr">
+        <is>
+          <t>469.70 kWh</t>
+        </is>
+      </c>
+      <c r="BB82" t="inlineStr">
+        <is>
+          <t>9455.85 kWh</t>
+        </is>
+      </c>
+      <c r="BC82" t="inlineStr">
+        <is>
+          <t>19.0 °C</t>
+        </is>
+      </c>
+      <c r="BD82" t="inlineStr">
+        <is>
+          <t>--.- °C</t>
+        </is>
+      </c>
+      <c r="BE82" t="inlineStr">
+        <is>
+          <t>--.- %</t>
+        </is>
+      </c>
+      <c r="BF82" t="inlineStr">
+        <is>
+          <t>42 %</t>
+        </is>
+      </c>
+      <c r="BG82" t="inlineStr">
+        <is>
+          <t>--.- %</t>
+        </is>
+      </c>
+      <c r="BH82" t="inlineStr">
+        <is>
+          <t>42 %</t>
+        </is>
+      </c>
+      <c r="BI82" t="inlineStr">
+        <is>
+          <t>146030620</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SampleData.xlsx
+++ b/SampleData.xlsx
@@ -412,7 +412,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BI87"/>
+  <dimension ref="A1:BI88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
@@ -27169,6 +27169,313 @@
         </is>
       </c>
     </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>2022-04-02 09:03:08</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>16.5 °C</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>23.8 °C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>1.6 °C</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>**.* °C</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>23.9 °C</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>**.* °C</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>38 %</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>**.* %</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>0 mV</t>
+        </is>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>0 mV</t>
+        </is>
+      </c>
+      <c r="N88" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="P88" t="inlineStr">
+        <is>
+          <t>**.* mV</t>
+        </is>
+      </c>
+      <c r="Q88" t="inlineStr">
+        <is>
+          <t>**.* mV</t>
+        </is>
+      </c>
+      <c r="R88" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="S88" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="T88" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="U88" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="V88" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="W88" t="inlineStr">
+        <is>
+          <t>79 %</t>
+        </is>
+      </c>
+      <c r="X88" t="inlineStr">
+        <is>
+          <t>67 %</t>
+        </is>
+      </c>
+      <c r="Y88" t="inlineStr">
+        <is>
+          <t>#.## g/m³</t>
+        </is>
+      </c>
+      <c r="Z88" t="inlineStr">
+        <is>
+          <t>8.22 g/m³</t>
+        </is>
+      </c>
+      <c r="AA88" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="AB88" t="inlineStr">
+        <is>
+          <t>7:00-22:00</t>
+        </is>
+      </c>
+      <c r="AC88" t="inlineStr">
+        <is>
+          <t>AWAY              22:00</t>
+        </is>
+      </c>
+      <c r="AD88" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="AE88" t="inlineStr">
+        <is>
+          <t>16.5 °C</t>
+        </is>
+      </c>
+      <c r="AF88" t="inlineStr">
+        <is>
+          <t>23.9 °C</t>
+        </is>
+      </c>
+      <c r="AG88" t="inlineStr">
+        <is>
+          <t>1.8 °C</t>
+        </is>
+      </c>
+      <c r="AH88" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI88" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AJ88" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AK88" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AL88" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AM88" t="inlineStr">
+        <is>
+          <t>79 %</t>
+        </is>
+      </c>
+      <c r="AN88" t="inlineStr">
+        <is>
+          <t>89 %</t>
+        </is>
+      </c>
+      <c r="AO88" t="inlineStr">
+        <is>
+          <t>1068 W</t>
+        </is>
+      </c>
+      <c r="AP88" t="inlineStr">
+        <is>
+          <t>536 W</t>
+        </is>
+      </c>
+      <c r="AQ88" t="inlineStr">
+        <is>
+          <t>500 W</t>
+        </is>
+      </c>
+      <c r="AR88" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="AS88" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="AT88" t="inlineStr">
+        <is>
+          <t>2.33 kWh</t>
+        </is>
+      </c>
+      <c r="AU88" t="inlineStr">
+        <is>
+          <t>215.69 kWh</t>
+        </is>
+      </c>
+      <c r="AV88" t="inlineStr">
+        <is>
+          <t>3329.60 kWh</t>
+        </is>
+      </c>
+      <c r="AW88" t="inlineStr">
+        <is>
+          <t>2.16 kWh</t>
+        </is>
+      </c>
+      <c r="AX88" t="inlineStr">
+        <is>
+          <t>194.98 kWh</t>
+        </is>
+      </c>
+      <c r="AY88" t="inlineStr">
+        <is>
+          <t>2725.88 kWh</t>
+        </is>
+      </c>
+      <c r="AZ88" t="inlineStr">
+        <is>
+          <t>3.45 kWh</t>
+        </is>
+      </c>
+      <c r="BA88" t="inlineStr">
+        <is>
+          <t>469.91 kWh</t>
+        </is>
+      </c>
+      <c r="BB88" t="inlineStr">
+        <is>
+          <t>9582.06 kWh</t>
+        </is>
+      </c>
+      <c r="BC88" t="inlineStr">
+        <is>
+          <t>19.0 °C</t>
+        </is>
+      </c>
+      <c r="BD88" t="inlineStr">
+        <is>
+          <t>--.- °C</t>
+        </is>
+      </c>
+      <c r="BE88" t="inlineStr">
+        <is>
+          <t>--.- %</t>
+        </is>
+      </c>
+      <c r="BF88" t="inlineStr">
+        <is>
+          <t>38 %</t>
+        </is>
+      </c>
+      <c r="BG88" t="inlineStr">
+        <is>
+          <t>--.- %</t>
+        </is>
+      </c>
+      <c r="BH88" t="inlineStr">
+        <is>
+          <t>38 %</t>
+        </is>
+      </c>
+      <c r="BI88" t="inlineStr">
+        <is>
+          <t>144982044</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SampleData.xlsx
+++ b/SampleData.xlsx
@@ -412,7 +412,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BI88"/>
+  <dimension ref="A1:BI93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
@@ -27476,6 +27476,1541 @@
         </is>
       </c>
     </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>2022-04-03 12:53:18</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>18.6 °C</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>26.7 °C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>11.2 °C</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>**.* °C</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>24.0 °C</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>**.* °C</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>31 %</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>**.* %</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>0 mV</t>
+        </is>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>0 mV</t>
+        </is>
+      </c>
+      <c r="N89" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="P89" t="inlineStr">
+        <is>
+          <t>**.* mV</t>
+        </is>
+      </c>
+      <c r="Q89" t="inlineStr">
+        <is>
+          <t>**.* mV</t>
+        </is>
+      </c>
+      <c r="R89" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="S89" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="T89" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="U89" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="V89" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="W89" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="X89" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="Y89" t="inlineStr">
+        <is>
+          <t>#.## g/m³</t>
+        </is>
+      </c>
+      <c r="Z89" t="inlineStr">
+        <is>
+          <t>6.73 g/m³</t>
+        </is>
+      </c>
+      <c r="AA89" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="AB89" t="inlineStr">
+        <is>
+          <t>7:00-22:00</t>
+        </is>
+      </c>
+      <c r="AC89" t="inlineStr">
+        <is>
+          <t>AWAY              22:00</t>
+        </is>
+      </c>
+      <c r="AD89" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="AE89" t="inlineStr">
+        <is>
+          <t>19.5 °C</t>
+        </is>
+      </c>
+      <c r="AF89" t="inlineStr">
+        <is>
+          <t>26.7 °C</t>
+        </is>
+      </c>
+      <c r="AG89" t="inlineStr">
+        <is>
+          <t>11.6 °C</t>
+        </is>
+      </c>
+      <c r="AH89" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI89" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AJ89" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AK89" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AL89" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AM89" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="AN89" t="inlineStr">
+        <is>
+          <t>46 %</t>
+        </is>
+      </c>
+      <c r="AO89" t="inlineStr">
+        <is>
+          <t>310 W</t>
+        </is>
+      </c>
+      <c r="AP89" t="inlineStr">
+        <is>
+          <t>39 W</t>
+        </is>
+      </c>
+      <c r="AQ89" t="inlineStr">
+        <is>
+          <t>0 W</t>
+        </is>
+      </c>
+      <c r="AR89" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="AS89" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="AT89" t="inlineStr">
+        <is>
+          <t>0.40 kWh</t>
+        </is>
+      </c>
+      <c r="AU89" t="inlineStr">
+        <is>
+          <t>208.14 kWh</t>
+        </is>
+      </c>
+      <c r="AV89" t="inlineStr">
+        <is>
+          <t>3331.06 kWh</t>
+        </is>
+      </c>
+      <c r="AW89" t="inlineStr">
+        <is>
+          <t>0.00 kWh</t>
+        </is>
+      </c>
+      <c r="AX89" t="inlineStr">
+        <is>
+          <t>187.24 kWh</t>
+        </is>
+      </c>
+      <c r="AY89" t="inlineStr">
+        <is>
+          <t>2726.40 kWh</t>
+        </is>
+      </c>
+      <c r="AZ89" t="inlineStr">
+        <is>
+          <t>4.83 kWh</t>
+        </is>
+      </c>
+      <c r="BA89" t="inlineStr">
+        <is>
+          <t>460.99 kWh</t>
+        </is>
+      </c>
+      <c r="BB89" t="inlineStr">
+        <is>
+          <t>9591.81 kWh</t>
+        </is>
+      </c>
+      <c r="BC89" t="inlineStr">
+        <is>
+          <t>19.0 °C</t>
+        </is>
+      </c>
+      <c r="BD89" t="inlineStr">
+        <is>
+          <t>--.- °C</t>
+        </is>
+      </c>
+      <c r="BE89" t="inlineStr">
+        <is>
+          <t>--.- %</t>
+        </is>
+      </c>
+      <c r="BF89" t="inlineStr">
+        <is>
+          <t>31 %</t>
+        </is>
+      </c>
+      <c r="BG89" t="inlineStr">
+        <is>
+          <t>--.- %</t>
+        </is>
+      </c>
+      <c r="BH89" t="inlineStr">
+        <is>
+          <t>31 %</t>
+        </is>
+      </c>
+      <c r="BI89" t="inlineStr">
+        <is>
+          <t>136462348</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>2022-04-04 16:10:07</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>18.6 °C</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>26.0 °C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2.5 °C</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>**.* °C</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>23.9 °C</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>**.* °C</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>34 %</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>**.* %</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>0 mV</t>
+        </is>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>0 mV</t>
+        </is>
+      </c>
+      <c r="N90" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="P90" t="inlineStr">
+        <is>
+          <t>**.* mV</t>
+        </is>
+      </c>
+      <c r="Q90" t="inlineStr">
+        <is>
+          <t>**.* mV</t>
+        </is>
+      </c>
+      <c r="R90" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="S90" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="T90" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="U90" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="V90" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="W90" t="inlineStr">
+        <is>
+          <t>1 %</t>
+        </is>
+      </c>
+      <c r="X90" t="inlineStr">
+        <is>
+          <t>--.- %</t>
+        </is>
+      </c>
+      <c r="Y90" t="inlineStr">
+        <is>
+          <t>#.## g/m³</t>
+        </is>
+      </c>
+      <c r="Z90" t="inlineStr">
+        <is>
+          <t>7.34 g/m³</t>
+        </is>
+      </c>
+      <c r="AA90" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="AB90" t="inlineStr">
+        <is>
+          <t>7:00-22:00</t>
+        </is>
+      </c>
+      <c r="AC90" t="inlineStr">
+        <is>
+          <t>AWAY              22:00</t>
+        </is>
+      </c>
+      <c r="AD90" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="AE90" t="inlineStr">
+        <is>
+          <t>18.4 °C</t>
+        </is>
+      </c>
+      <c r="AF90" t="inlineStr">
+        <is>
+          <t>26.1 °C</t>
+        </is>
+      </c>
+      <c r="AG90" t="inlineStr">
+        <is>
+          <t>2.5 °C</t>
+        </is>
+      </c>
+      <c r="AH90" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI90" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AJ90" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AK90" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AL90" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AM90" t="inlineStr">
+        <is>
+          <t>1 %</t>
+        </is>
+      </c>
+      <c r="AN90" t="inlineStr">
+        <is>
+          <t>65 %</t>
+        </is>
+      </c>
+      <c r="AO90" t="inlineStr">
+        <is>
+          <t>683 W</t>
+        </is>
+      </c>
+      <c r="AP90" t="inlineStr">
+        <is>
+          <t>39 W</t>
+        </is>
+      </c>
+      <c r="AQ90" t="inlineStr">
+        <is>
+          <t>0 W</t>
+        </is>
+      </c>
+      <c r="AR90" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="AS90" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="AT90" t="inlineStr">
+        <is>
+          <t>0.51 kWh</t>
+        </is>
+      </c>
+      <c r="AU90" t="inlineStr">
+        <is>
+          <t>197.70 kWh</t>
+        </is>
+      </c>
+      <c r="AV90" t="inlineStr">
+        <is>
+          <t>3331.96 kWh</t>
+        </is>
+      </c>
+      <c r="AW90" t="inlineStr">
+        <is>
+          <t>0.00 kWh</t>
+        </is>
+      </c>
+      <c r="AX90" t="inlineStr">
+        <is>
+          <t>176.63 kWh</t>
+        </is>
+      </c>
+      <c r="AY90" t="inlineStr">
+        <is>
+          <t>2726.40 kWh</t>
+        </is>
+      </c>
+      <c r="AZ90" t="inlineStr">
+        <is>
+          <t>5.20 kWh</t>
+        </is>
+      </c>
+      <c r="BA90" t="inlineStr">
+        <is>
+          <t>448.86 kWh</t>
+        </is>
+      </c>
+      <c r="BB90" t="inlineStr">
+        <is>
+          <t>9599.21 kWh</t>
+        </is>
+      </c>
+      <c r="BC90" t="inlineStr">
+        <is>
+          <t>19.0 °C</t>
+        </is>
+      </c>
+      <c r="BD90" t="inlineStr">
+        <is>
+          <t>--.- °C</t>
+        </is>
+      </c>
+      <c r="BE90" t="inlineStr">
+        <is>
+          <t>--.- %</t>
+        </is>
+      </c>
+      <c r="BF90" t="inlineStr">
+        <is>
+          <t>34 %</t>
+        </is>
+      </c>
+      <c r="BG90" t="inlineStr">
+        <is>
+          <t>--.- %</t>
+        </is>
+      </c>
+      <c r="BH90" t="inlineStr">
+        <is>
+          <t>34 %</t>
+        </is>
+      </c>
+      <c r="BI90" t="inlineStr">
+        <is>
+          <t>136462348</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>2022-04-05 16:59:00</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>20.1 °C</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>26.0 °C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.3 °C</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>**.* °C</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>24.5 °C</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>**.* °C</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>36 %</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>**.* %</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>0 mV</t>
+        </is>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>0 mV</t>
+        </is>
+      </c>
+      <c r="N91" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="P91" t="inlineStr">
+        <is>
+          <t>**.* mV</t>
+        </is>
+      </c>
+      <c r="Q91" t="inlineStr">
+        <is>
+          <t>**.* mV</t>
+        </is>
+      </c>
+      <c r="R91" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="S91" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="T91" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="U91" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="V91" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="W91" t="inlineStr">
+        <is>
+          <t>2 %</t>
+        </is>
+      </c>
+      <c r="X91" t="inlineStr">
+        <is>
+          <t>--.- %</t>
+        </is>
+      </c>
+      <c r="Y91" t="inlineStr">
+        <is>
+          <t>#.## g/m³</t>
+        </is>
+      </c>
+      <c r="Z91" t="inlineStr">
+        <is>
+          <t>8.05 g/m³</t>
+        </is>
+      </c>
+      <c r="AA91" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="AB91" t="inlineStr">
+        <is>
+          <t>7:00-22:00</t>
+        </is>
+      </c>
+      <c r="AC91" t="inlineStr">
+        <is>
+          <t>AWAY              22:00</t>
+        </is>
+      </c>
+      <c r="AD91" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="AE91" t="inlineStr">
+        <is>
+          <t>19.6 °C</t>
+        </is>
+      </c>
+      <c r="AF91" t="inlineStr">
+        <is>
+          <t>26.0 °C</t>
+        </is>
+      </c>
+      <c r="AG91" t="inlineStr">
+        <is>
+          <t>0.3 °C</t>
+        </is>
+      </c>
+      <c r="AH91" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI91" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AJ91" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AK91" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AL91" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AM91" t="inlineStr">
+        <is>
+          <t>2 %</t>
+        </is>
+      </c>
+      <c r="AN91" t="inlineStr">
+        <is>
+          <t>--.- %</t>
+        </is>
+      </c>
+      <c r="AO91" t="inlineStr">
+        <is>
+          <t>0 W</t>
+        </is>
+      </c>
+      <c r="AP91" t="inlineStr">
+        <is>
+          <t>29 W</t>
+        </is>
+      </c>
+      <c r="AQ91" t="inlineStr">
+        <is>
+          <t>0 W</t>
+        </is>
+      </c>
+      <c r="AR91" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="AS91" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="AT91" t="inlineStr">
+        <is>
+          <t>0.53 kWh</t>
+        </is>
+      </c>
+      <c r="AU91" t="inlineStr">
+        <is>
+          <t>191.46 kWh</t>
+        </is>
+      </c>
+      <c r="AV91" t="inlineStr">
+        <is>
+          <t>3332.79 kWh</t>
+        </is>
+      </c>
+      <c r="AW91" t="inlineStr">
+        <is>
+          <t>0.00 kWh</t>
+        </is>
+      </c>
+      <c r="AX91" t="inlineStr">
+        <is>
+          <t>170.29 kWh</t>
+        </is>
+      </c>
+      <c r="AY91" t="inlineStr">
+        <is>
+          <t>2726.40 kWh</t>
+        </is>
+      </c>
+      <c r="AZ91" t="inlineStr">
+        <is>
+          <t>5.38 kWh</t>
+        </is>
+      </c>
+      <c r="BA91" t="inlineStr">
+        <is>
+          <t>439.74 kWh</t>
+        </is>
+      </c>
+      <c r="BB91" t="inlineStr">
+        <is>
+          <t>9607.66 kWh</t>
+        </is>
+      </c>
+      <c r="BC91" t="inlineStr">
+        <is>
+          <t>19.0 °C</t>
+        </is>
+      </c>
+      <c r="BD91" t="inlineStr">
+        <is>
+          <t>--.- °C</t>
+        </is>
+      </c>
+      <c r="BE91" t="inlineStr">
+        <is>
+          <t>--.- %</t>
+        </is>
+      </c>
+      <c r="BF91" t="inlineStr">
+        <is>
+          <t>36 %</t>
+        </is>
+      </c>
+      <c r="BG91" t="inlineStr">
+        <is>
+          <t>--.- %</t>
+        </is>
+      </c>
+      <c r="BH91" t="inlineStr">
+        <is>
+          <t>36 %</t>
+        </is>
+      </c>
+      <c r="BI91" t="inlineStr">
+        <is>
+          <t>136462340</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>2022-04-06 17:09:33</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>19.1 °C</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>27.3 °C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>5.3 °C</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>**.* °C</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>25.3 °C</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>**.* °C</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>35 %</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>**.* %</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>0 mV</t>
+        </is>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>0 mV</t>
+        </is>
+      </c>
+      <c r="N92" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="P92" t="inlineStr">
+        <is>
+          <t>**.* mV</t>
+        </is>
+      </c>
+      <c r="Q92" t="inlineStr">
+        <is>
+          <t>**.* mV</t>
+        </is>
+      </c>
+      <c r="R92" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="S92" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="T92" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="U92" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="V92" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="W92" t="inlineStr">
+        <is>
+          <t>3 %</t>
+        </is>
+      </c>
+      <c r="X92" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="Y92" t="inlineStr">
+        <is>
+          <t>#.## g/m³</t>
+        </is>
+      </c>
+      <c r="Z92" t="inlineStr">
+        <is>
+          <t>8.18 g/m³</t>
+        </is>
+      </c>
+      <c r="AA92" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="AB92" t="inlineStr">
+        <is>
+          <t>7:00-22:00</t>
+        </is>
+      </c>
+      <c r="AC92" t="inlineStr">
+        <is>
+          <t>AWAY              22:00</t>
+        </is>
+      </c>
+      <c r="AD92" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="AE92" t="inlineStr">
+        <is>
+          <t>19.6 °C</t>
+        </is>
+      </c>
+      <c r="AF92" t="inlineStr">
+        <is>
+          <t>27.4 °C</t>
+        </is>
+      </c>
+      <c r="AG92" t="inlineStr">
+        <is>
+          <t>5.3 °C</t>
+        </is>
+      </c>
+      <c r="AH92" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI92" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AJ92" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AK92" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AL92" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AM92" t="inlineStr">
+        <is>
+          <t>3 %</t>
+        </is>
+      </c>
+      <c r="AN92" t="inlineStr">
+        <is>
+          <t>--.- %</t>
+        </is>
+      </c>
+      <c r="AO92" t="inlineStr">
+        <is>
+          <t>0 W</t>
+        </is>
+      </c>
+      <c r="AP92" t="inlineStr">
+        <is>
+          <t>28 W</t>
+        </is>
+      </c>
+      <c r="AQ92" t="inlineStr">
+        <is>
+          <t>0 W</t>
+        </is>
+      </c>
+      <c r="AR92" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="AS92" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="AT92" t="inlineStr">
+        <is>
+          <t>0.54 kWh</t>
+        </is>
+      </c>
+      <c r="AU92" t="inlineStr">
+        <is>
+          <t>184.35 kWh</t>
+        </is>
+      </c>
+      <c r="AV92" t="inlineStr">
+        <is>
+          <t>3333.60 kWh</t>
+        </is>
+      </c>
+      <c r="AW92" t="inlineStr">
+        <is>
+          <t>0.00 kWh</t>
+        </is>
+      </c>
+      <c r="AX92" t="inlineStr">
+        <is>
+          <t>163.11 kWh</t>
+        </is>
+      </c>
+      <c r="AY92" t="inlineStr">
+        <is>
+          <t>2726.40 kWh</t>
+        </is>
+      </c>
+      <c r="AZ92" t="inlineStr">
+        <is>
+          <t>6.32 kWh</t>
+        </is>
+      </c>
+      <c r="BA92" t="inlineStr">
+        <is>
+          <t>429.52 kWh</t>
+        </is>
+      </c>
+      <c r="BB92" t="inlineStr">
+        <is>
+          <t>9617.17 kWh</t>
+        </is>
+      </c>
+      <c r="BC92" t="inlineStr">
+        <is>
+          <t>19.0 °C</t>
+        </is>
+      </c>
+      <c r="BD92" t="inlineStr">
+        <is>
+          <t>--.- °C</t>
+        </is>
+      </c>
+      <c r="BE92" t="inlineStr">
+        <is>
+          <t>--.- %</t>
+        </is>
+      </c>
+      <c r="BF92" t="inlineStr">
+        <is>
+          <t>35 %</t>
+        </is>
+      </c>
+      <c r="BG92" t="inlineStr">
+        <is>
+          <t>--.- %</t>
+        </is>
+      </c>
+      <c r="BH92" t="inlineStr">
+        <is>
+          <t>35 %</t>
+        </is>
+      </c>
+      <c r="BI92" t="inlineStr">
+        <is>
+          <t>136462340</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>2022-04-08 16:04:08</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>19.0 °C</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>26.0 °C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>9.3 °C</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>**.* °C</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>24.2 °C</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>**.* °C</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>42 %</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>**.* %</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>0 mV</t>
+        </is>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>0 mV</t>
+        </is>
+      </c>
+      <c r="N93" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="P93" t="inlineStr">
+        <is>
+          <t>**.* mV</t>
+        </is>
+      </c>
+      <c r="Q93" t="inlineStr">
+        <is>
+          <t>**.* mV</t>
+        </is>
+      </c>
+      <c r="R93" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="S93" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="T93" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="U93" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="V93" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="W93" t="inlineStr">
+        <is>
+          <t>4 %</t>
+        </is>
+      </c>
+      <c r="X93" t="inlineStr">
+        <is>
+          <t>--.- %</t>
+        </is>
+      </c>
+      <c r="Y93" t="inlineStr">
+        <is>
+          <t>#.## g/m³</t>
+        </is>
+      </c>
+      <c r="Z93" t="inlineStr">
+        <is>
+          <t>9.23 g/m³</t>
+        </is>
+      </c>
+      <c r="AA93" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="AB93" t="inlineStr">
+        <is>
+          <t>7:00-22:00</t>
+        </is>
+      </c>
+      <c r="AC93" t="inlineStr">
+        <is>
+          <t>AWAY              22:00</t>
+        </is>
+      </c>
+      <c r="AD93" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="AE93" t="inlineStr">
+        <is>
+          <t>18.2 °C</t>
+        </is>
+      </c>
+      <c r="AF93" t="inlineStr">
+        <is>
+          <t>26.0 °C</t>
+        </is>
+      </c>
+      <c r="AG93" t="inlineStr">
+        <is>
+          <t>9.3 °C</t>
+        </is>
+      </c>
+      <c r="AH93" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI93" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AJ93" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AK93" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AL93" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AM93" t="inlineStr">
+        <is>
+          <t>4 %</t>
+        </is>
+      </c>
+      <c r="AN93" t="inlineStr">
+        <is>
+          <t>--.- %</t>
+        </is>
+      </c>
+      <c r="AO93" t="inlineStr">
+        <is>
+          <t>0 W</t>
+        </is>
+      </c>
+      <c r="AP93" t="inlineStr">
+        <is>
+          <t>28 W</t>
+        </is>
+      </c>
+      <c r="AQ93" t="inlineStr">
+        <is>
+          <t>0 W</t>
+        </is>
+      </c>
+      <c r="AR93" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="AS93" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="AT93" t="inlineStr">
+        <is>
+          <t>0.49 kWh</t>
+        </is>
+      </c>
+      <c r="AU93" t="inlineStr">
+        <is>
+          <t>165.09 kWh</t>
+        </is>
+      </c>
+      <c r="AV93" t="inlineStr">
+        <is>
+          <t>3335.15 kWh</t>
+        </is>
+      </c>
+      <c r="AW93" t="inlineStr">
+        <is>
+          <t>0.00 kWh</t>
+        </is>
+      </c>
+      <c r="AX93" t="inlineStr">
+        <is>
+          <t>143.77 kWh</t>
+        </is>
+      </c>
+      <c r="AY93" t="inlineStr">
+        <is>
+          <t>2726.40 kWh</t>
+        </is>
+      </c>
+      <c r="AZ93" t="inlineStr">
+        <is>
+          <t>3.78 kWh</t>
+        </is>
+      </c>
+      <c r="BA93" t="inlineStr">
+        <is>
+          <t>399.56 kWh</t>
+        </is>
+      </c>
+      <c r="BB93" t="inlineStr">
+        <is>
+          <t>9631.28 kWh</t>
+        </is>
+      </c>
+      <c r="BC93" t="inlineStr">
+        <is>
+          <t>19.0 °C</t>
+        </is>
+      </c>
+      <c r="BD93" t="inlineStr">
+        <is>
+          <t>--.- °C</t>
+        </is>
+      </c>
+      <c r="BE93" t="inlineStr">
+        <is>
+          <t>--.- %</t>
+        </is>
+      </c>
+      <c r="BF93" t="inlineStr">
+        <is>
+          <t>42 %</t>
+        </is>
+      </c>
+      <c r="BG93" t="inlineStr">
+        <is>
+          <t>--.- %</t>
+        </is>
+      </c>
+      <c r="BH93" t="inlineStr">
+        <is>
+          <t>42 %</t>
+        </is>
+      </c>
+      <c r="BI93" t="inlineStr">
+        <is>
+          <t>136462340</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SampleData.xlsx
+++ b/SampleData.xlsx
@@ -412,7 +412,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BI93"/>
+  <dimension ref="A1:BI95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
@@ -29011,6 +29011,620 @@
         </is>
       </c>
     </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>2022-04-10 08:53:04</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>19.0 °C</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>25.2 °C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>3.4 °C</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>**.* °C</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>23.9 °C</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>**.* °C</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>41 %</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>**.* %</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>0 mV</t>
+        </is>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>0 mV</t>
+        </is>
+      </c>
+      <c r="N94" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="P94" t="inlineStr">
+        <is>
+          <t>**.* mV</t>
+        </is>
+      </c>
+      <c r="Q94" t="inlineStr">
+        <is>
+          <t>**.* mV</t>
+        </is>
+      </c>
+      <c r="R94" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="S94" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="T94" t="inlineStr">
+        <is>
+          <t>30 %</t>
+        </is>
+      </c>
+      <c r="U94" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="V94" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="W94" t="inlineStr">
+        <is>
+          <t>6 %</t>
+        </is>
+      </c>
+      <c r="X94" t="inlineStr">
+        <is>
+          <t>87 %</t>
+        </is>
+      </c>
+      <c r="Y94" t="inlineStr">
+        <is>
+          <t>#.## g/m³</t>
+        </is>
+      </c>
+      <c r="Z94" t="inlineStr">
+        <is>
+          <t>8.86 g/m³</t>
+        </is>
+      </c>
+      <c r="AA94" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="AB94" t="inlineStr">
+        <is>
+          <t>7:00-22:00</t>
+        </is>
+      </c>
+      <c r="AC94" t="inlineStr">
+        <is>
+          <t>AWAY              22:00</t>
+        </is>
+      </c>
+      <c r="AD94" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="AE94" t="inlineStr">
+        <is>
+          <t>19.1 °C</t>
+        </is>
+      </c>
+      <c r="AF94" t="inlineStr">
+        <is>
+          <t>25.2 °C</t>
+        </is>
+      </c>
+      <c r="AG94" t="inlineStr">
+        <is>
+          <t>3.5 °C</t>
+        </is>
+      </c>
+      <c r="AH94" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI94" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AJ94" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AK94" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AL94" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AM94" t="inlineStr">
+        <is>
+          <t>6 %</t>
+        </is>
+      </c>
+      <c r="AN94" t="inlineStr">
+        <is>
+          <t>88 %</t>
+        </is>
+      </c>
+      <c r="AO94" t="inlineStr">
+        <is>
+          <t>1030 W</t>
+        </is>
+      </c>
+      <c r="AP94" t="inlineStr">
+        <is>
+          <t>187 W</t>
+        </is>
+      </c>
+      <c r="AQ94" t="inlineStr">
+        <is>
+          <t>150 W</t>
+        </is>
+      </c>
+      <c r="AR94" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="AS94" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="AT94" t="inlineStr">
+        <is>
+          <t>1.50 kWh</t>
+        </is>
+      </c>
+      <c r="AU94" t="inlineStr">
+        <is>
+          <t>145.78 kWh</t>
+        </is>
+      </c>
+      <c r="AV94" t="inlineStr">
+        <is>
+          <t>3338.69 kWh</t>
+        </is>
+      </c>
+      <c r="AW94" t="inlineStr">
+        <is>
+          <t>1.21 kWh</t>
+        </is>
+      </c>
+      <c r="AX94" t="inlineStr">
+        <is>
+          <t>124.46 kWh</t>
+        </is>
+      </c>
+      <c r="AY94" t="inlineStr">
+        <is>
+          <t>2728.47 kWh</t>
+        </is>
+      </c>
+      <c r="AZ94" t="inlineStr">
+        <is>
+          <t>8.56 kWh</t>
+        </is>
+      </c>
+      <c r="BA94" t="inlineStr">
+        <is>
+          <t>394.36 kWh</t>
+        </is>
+      </c>
+      <c r="BB94" t="inlineStr">
+        <is>
+          <t>9665.00 kWh</t>
+        </is>
+      </c>
+      <c r="BC94" t="inlineStr">
+        <is>
+          <t>19.0 °C</t>
+        </is>
+      </c>
+      <c r="BD94" t="inlineStr">
+        <is>
+          <t>--.- °C</t>
+        </is>
+      </c>
+      <c r="BE94" t="inlineStr">
+        <is>
+          <t>--.- %</t>
+        </is>
+      </c>
+      <c r="BF94" t="inlineStr">
+        <is>
+          <t>41 %</t>
+        </is>
+      </c>
+      <c r="BG94" t="inlineStr">
+        <is>
+          <t>--.- %</t>
+        </is>
+      </c>
+      <c r="BH94" t="inlineStr">
+        <is>
+          <t>41 %</t>
+        </is>
+      </c>
+      <c r="BI94" t="inlineStr">
+        <is>
+          <t>136462364</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>2022-04-11 18:08:54</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>19.1 °C</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>27.7 °C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>10.1 °C</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>**.* °C</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>25.8 °C</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>**.* °C</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>35 %</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>**.* %</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>0 mV</t>
+        </is>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>0 mV</t>
+        </is>
+      </c>
+      <c r="N95" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="P95" t="inlineStr">
+        <is>
+          <t>**.* mV</t>
+        </is>
+      </c>
+      <c r="Q95" t="inlineStr">
+        <is>
+          <t>**.* mV</t>
+        </is>
+      </c>
+      <c r="R95" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="S95" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="T95" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="U95" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="V95" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="W95" t="inlineStr">
+        <is>
+          <t>7 %</t>
+        </is>
+      </c>
+      <c r="X95" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="Y95" t="inlineStr">
+        <is>
+          <t>#.## g/m³</t>
+        </is>
+      </c>
+      <c r="Z95" t="inlineStr">
+        <is>
+          <t>8.42 g/m³</t>
+        </is>
+      </c>
+      <c r="AA95" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="AB95" t="inlineStr">
+        <is>
+          <t>7:00-22:00</t>
+        </is>
+      </c>
+      <c r="AC95" t="inlineStr">
+        <is>
+          <t>AWAY              22:00</t>
+        </is>
+      </c>
+      <c r="AD95" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="AE95" t="inlineStr">
+        <is>
+          <t>19.2 °C</t>
+        </is>
+      </c>
+      <c r="AF95" t="inlineStr">
+        <is>
+          <t>27.7 °C</t>
+        </is>
+      </c>
+      <c r="AG95" t="inlineStr">
+        <is>
+          <t>10.0 °C</t>
+        </is>
+      </c>
+      <c r="AH95" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI95" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AJ95" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AK95" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AL95" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AM95" t="inlineStr">
+        <is>
+          <t>7 %</t>
+        </is>
+      </c>
+      <c r="AN95" t="inlineStr">
+        <is>
+          <t>88 %</t>
+        </is>
+      </c>
+      <c r="AO95" t="inlineStr">
+        <is>
+          <t>838 W</t>
+        </is>
+      </c>
+      <c r="AP95" t="inlineStr">
+        <is>
+          <t>37 W</t>
+        </is>
+      </c>
+      <c r="AQ95" t="inlineStr">
+        <is>
+          <t>0 W</t>
+        </is>
+      </c>
+      <c r="AR95" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="AS95" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="AT95" t="inlineStr">
+        <is>
+          <t>2.04 kWh</t>
+        </is>
+      </c>
+      <c r="AU95" t="inlineStr">
+        <is>
+          <t>142.21 kWh</t>
+        </is>
+      </c>
+      <c r="AV95" t="inlineStr">
+        <is>
+          <t>3342.69 kWh</t>
+        </is>
+      </c>
+      <c r="AW95" t="inlineStr">
+        <is>
+          <t>1.45 kWh</t>
+        </is>
+      </c>
+      <c r="AX95" t="inlineStr">
+        <is>
+          <t>120.43 kWh</t>
+        </is>
+      </c>
+      <c r="AY95" t="inlineStr">
+        <is>
+          <t>2731.28 kWh</t>
+        </is>
+      </c>
+      <c r="AZ95" t="inlineStr">
+        <is>
+          <t>11.95 kWh</t>
+        </is>
+      </c>
+      <c r="BA95" t="inlineStr">
+        <is>
+          <t>404.41 kWh</t>
+        </is>
+      </c>
+      <c r="BB95" t="inlineStr">
+        <is>
+          <t>9691.68 kWh</t>
+        </is>
+      </c>
+      <c r="BC95" t="inlineStr">
+        <is>
+          <t>19.0 °C</t>
+        </is>
+      </c>
+      <c r="BD95" t="inlineStr">
+        <is>
+          <t>--.- °C</t>
+        </is>
+      </c>
+      <c r="BE95" t="inlineStr">
+        <is>
+          <t>--.- %</t>
+        </is>
+      </c>
+      <c r="BF95" t="inlineStr">
+        <is>
+          <t>35 %</t>
+        </is>
+      </c>
+      <c r="BG95" t="inlineStr">
+        <is>
+          <t>--.- %</t>
+        </is>
+      </c>
+      <c r="BH95" t="inlineStr">
+        <is>
+          <t>35 %</t>
+        </is>
+      </c>
+      <c r="BI95" t="inlineStr">
+        <is>
+          <t>136462348</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SampleData.xlsx
+++ b/SampleData.xlsx
@@ -412,7 +412,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BI95"/>
+  <dimension ref="A1:BI98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
@@ -29625,6 +29625,927 @@
         </is>
       </c>
     </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>2022-04-12 16:39:22</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>18.3 °C</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>26.3 °C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>14.1 °C</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>**.* °C</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>24.8 °C</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>**.* °C</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>33 %</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>**.* %</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>0 mV</t>
+        </is>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>0 mV</t>
+        </is>
+      </c>
+      <c r="N96" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="P96" t="inlineStr">
+        <is>
+          <t>**.* mV</t>
+        </is>
+      </c>
+      <c r="Q96" t="inlineStr">
+        <is>
+          <t>**.* mV</t>
+        </is>
+      </c>
+      <c r="R96" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="S96" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="T96" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="U96" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="V96" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="W96" t="inlineStr">
+        <is>
+          <t>7 %</t>
+        </is>
+      </c>
+      <c r="X96" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="Y96" t="inlineStr">
+        <is>
+          <t>#.## g/m³</t>
+        </is>
+      </c>
+      <c r="Z96" t="inlineStr">
+        <is>
+          <t>7.51 g/m³</t>
+        </is>
+      </c>
+      <c r="AA96" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="AB96" t="inlineStr">
+        <is>
+          <t>7:00-22:00</t>
+        </is>
+      </c>
+      <c r="AC96" t="inlineStr">
+        <is>
+          <t>AWAY              22:00</t>
+        </is>
+      </c>
+      <c r="AD96" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="AE96" t="inlineStr">
+        <is>
+          <t>18.8 °C</t>
+        </is>
+      </c>
+      <c r="AF96" t="inlineStr">
+        <is>
+          <t>26.3 °C</t>
+        </is>
+      </c>
+      <c r="AG96" t="inlineStr">
+        <is>
+          <t>14.1 °C</t>
+        </is>
+      </c>
+      <c r="AH96" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI96" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AJ96" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AK96" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AL96" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AM96" t="inlineStr">
+        <is>
+          <t>7 %</t>
+        </is>
+      </c>
+      <c r="AN96" t="inlineStr">
+        <is>
+          <t>73 %</t>
+        </is>
+      </c>
+      <c r="AO96" t="inlineStr">
+        <is>
+          <t>486 W</t>
+        </is>
+      </c>
+      <c r="AP96" t="inlineStr">
+        <is>
+          <t>36 W</t>
+        </is>
+      </c>
+      <c r="AQ96" t="inlineStr">
+        <is>
+          <t>0 W</t>
+        </is>
+      </c>
+      <c r="AR96" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="AS96" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="AT96" t="inlineStr">
+        <is>
+          <t>2.72 kWh</t>
+        </is>
+      </c>
+      <c r="AU96" t="inlineStr">
+        <is>
+          <t>139.05 kWh</t>
+        </is>
+      </c>
+      <c r="AV96" t="inlineStr">
+        <is>
+          <t>3346.77 kWh</t>
+        </is>
+      </c>
+      <c r="AW96" t="inlineStr">
+        <is>
+          <t>2.18 kWh</t>
+        </is>
+      </c>
+      <c r="AX96" t="inlineStr">
+        <is>
+          <t>117.18 kWh</t>
+        </is>
+      </c>
+      <c r="AY96" t="inlineStr">
+        <is>
+          <t>2734.56 kWh</t>
+        </is>
+      </c>
+      <c r="AZ96" t="inlineStr">
+        <is>
+          <t>11.61 kWh</t>
+        </is>
+      </c>
+      <c r="BA96" t="inlineStr">
+        <is>
+          <t>407.12 kWh</t>
+        </is>
+      </c>
+      <c r="BB96" t="inlineStr">
+        <is>
+          <t>9710.37 kWh</t>
+        </is>
+      </c>
+      <c r="BC96" t="inlineStr">
+        <is>
+          <t>19.0 °C</t>
+        </is>
+      </c>
+      <c r="BD96" t="inlineStr">
+        <is>
+          <t>--.- °C</t>
+        </is>
+      </c>
+      <c r="BE96" t="inlineStr">
+        <is>
+          <t>--.- %</t>
+        </is>
+      </c>
+      <c r="BF96" t="inlineStr">
+        <is>
+          <t>33 %</t>
+        </is>
+      </c>
+      <c r="BG96" t="inlineStr">
+        <is>
+          <t>--.- %</t>
+        </is>
+      </c>
+      <c r="BH96" t="inlineStr">
+        <is>
+          <t>33 %</t>
+        </is>
+      </c>
+      <c r="BI96" t="inlineStr">
+        <is>
+          <t>136462348</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>2022-04-13 17:10:34</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>19.0 °C</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>26.0 °C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>11.6 °C</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>**.* °C</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>24.9 °C</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>**.* °C</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>34 %</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>**.* %</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>0 mV</t>
+        </is>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>0 mV</t>
+        </is>
+      </c>
+      <c r="N97" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="P97" t="inlineStr">
+        <is>
+          <t>**.* mV</t>
+        </is>
+      </c>
+      <c r="Q97" t="inlineStr">
+        <is>
+          <t>**.* mV</t>
+        </is>
+      </c>
+      <c r="R97" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="S97" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="T97" t="inlineStr">
+        <is>
+          <t>19 %</t>
+        </is>
+      </c>
+      <c r="U97" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="V97" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="W97" t="inlineStr">
+        <is>
+          <t>8 %</t>
+        </is>
+      </c>
+      <c r="X97" t="inlineStr">
+        <is>
+          <t>87 %</t>
+        </is>
+      </c>
+      <c r="Y97" t="inlineStr">
+        <is>
+          <t>#.## g/m³</t>
+        </is>
+      </c>
+      <c r="Z97" t="inlineStr">
+        <is>
+          <t>7.78 g/m³</t>
+        </is>
+      </c>
+      <c r="AA97" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="AB97" t="inlineStr">
+        <is>
+          <t>7:00-22:00</t>
+        </is>
+      </c>
+      <c r="AC97" t="inlineStr">
+        <is>
+          <t>AWAY              22:00</t>
+        </is>
+      </c>
+      <c r="AD97" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="AE97" t="inlineStr">
+        <is>
+          <t>19.0 °C</t>
+        </is>
+      </c>
+      <c r="AF97" t="inlineStr">
+        <is>
+          <t>26.2 °C</t>
+        </is>
+      </c>
+      <c r="AG97" t="inlineStr">
+        <is>
+          <t>11.6 °C</t>
+        </is>
+      </c>
+      <c r="AH97" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI97" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AJ97" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AK97" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AL97" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AM97" t="inlineStr">
+        <is>
+          <t>8 %</t>
+        </is>
+      </c>
+      <c r="AN97" t="inlineStr">
+        <is>
+          <t>89 %</t>
+        </is>
+      </c>
+      <c r="AO97" t="inlineStr">
+        <is>
+          <t>689 W</t>
+        </is>
+      </c>
+      <c r="AP97" t="inlineStr">
+        <is>
+          <t>134 W</t>
+        </is>
+      </c>
+      <c r="AQ97" t="inlineStr">
+        <is>
+          <t>97 W</t>
+        </is>
+      </c>
+      <c r="AR97" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="AS97" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="AT97" t="inlineStr">
+        <is>
+          <t>3.40 kWh</t>
+        </is>
+      </c>
+      <c r="AU97" t="inlineStr">
+        <is>
+          <t>137.83 kWh</t>
+        </is>
+      </c>
+      <c r="AV97" t="inlineStr">
+        <is>
+          <t>3351.65 kWh</t>
+        </is>
+      </c>
+      <c r="AW97" t="inlineStr">
+        <is>
+          <t>2.81 kWh</t>
+        </is>
+      </c>
+      <c r="AX97" t="inlineStr">
+        <is>
+          <t>115.77 kWh</t>
+        </is>
+      </c>
+      <c r="AY97" t="inlineStr">
+        <is>
+          <t>2738.55 kWh</t>
+        </is>
+      </c>
+      <c r="AZ97" t="inlineStr">
+        <is>
+          <t>13.90 kWh</t>
+        </is>
+      </c>
+      <c r="BA97" t="inlineStr">
+        <is>
+          <t>414.89 kWh</t>
+        </is>
+      </c>
+      <c r="BB97" t="inlineStr">
+        <is>
+          <t>9731.62 kWh</t>
+        </is>
+      </c>
+      <c r="BC97" t="inlineStr">
+        <is>
+          <t>19.0 °C</t>
+        </is>
+      </c>
+      <c r="BD97" t="inlineStr">
+        <is>
+          <t>--.- °C</t>
+        </is>
+      </c>
+      <c r="BE97" t="inlineStr">
+        <is>
+          <t>--.- %</t>
+        </is>
+      </c>
+      <c r="BF97" t="inlineStr">
+        <is>
+          <t>34 %</t>
+        </is>
+      </c>
+      <c r="BG97" t="inlineStr">
+        <is>
+          <t>--.- %</t>
+        </is>
+      </c>
+      <c r="BH97" t="inlineStr">
+        <is>
+          <t>34 %</t>
+        </is>
+      </c>
+      <c r="BI97" t="inlineStr">
+        <is>
+          <t>136462364</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>2022-04-14 16:39:54</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>18.8 °C</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>25.9 °C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>7.5 °C</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>**.* °C</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>24.8 °C</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>**.* °C</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>49 %</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>**.* %</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>0 mV</t>
+        </is>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>0 mV</t>
+        </is>
+      </c>
+      <c r="N98" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="P98" t="inlineStr">
+        <is>
+          <t>**.* mV</t>
+        </is>
+      </c>
+      <c r="Q98" t="inlineStr">
+        <is>
+          <t>**.* mV</t>
+        </is>
+      </c>
+      <c r="R98" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="S98" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="T98" t="inlineStr">
+        <is>
+          <t>42 %</t>
+        </is>
+      </c>
+      <c r="U98" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="V98" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="W98" t="inlineStr">
+        <is>
+          <t>9 %</t>
+        </is>
+      </c>
+      <c r="X98" t="inlineStr">
+        <is>
+          <t>80 %</t>
+        </is>
+      </c>
+      <c r="Y98" t="inlineStr">
+        <is>
+          <t>#.## g/m³</t>
+        </is>
+      </c>
+      <c r="Z98" t="inlineStr">
+        <is>
+          <t>11.14 g/m³</t>
+        </is>
+      </c>
+      <c r="AA98" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="AB98" t="inlineStr">
+        <is>
+          <t>7:00-22:00</t>
+        </is>
+      </c>
+      <c r="AC98" t="inlineStr">
+        <is>
+          <t>AWAY              22:00</t>
+        </is>
+      </c>
+      <c r="AD98" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="AE98" t="inlineStr">
+        <is>
+          <t>18.9 °C</t>
+        </is>
+      </c>
+      <c r="AF98" t="inlineStr">
+        <is>
+          <t>25.9 °C</t>
+        </is>
+      </c>
+      <c r="AG98" t="inlineStr">
+        <is>
+          <t>7.4 °C</t>
+        </is>
+      </c>
+      <c r="AH98" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI98" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AJ98" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AK98" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AL98" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AM98" t="inlineStr">
+        <is>
+          <t>9 %</t>
+        </is>
+      </c>
+      <c r="AN98" t="inlineStr">
+        <is>
+          <t>89 %</t>
+        </is>
+      </c>
+      <c r="AO98" t="inlineStr">
+        <is>
+          <t>902 W</t>
+        </is>
+      </c>
+      <c r="AP98" t="inlineStr">
+        <is>
+          <t>251 W</t>
+        </is>
+      </c>
+      <c r="AQ98" t="inlineStr">
+        <is>
+          <t>213 W</t>
+        </is>
+      </c>
+      <c r="AR98" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="AS98" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="AT98" t="inlineStr">
+        <is>
+          <t>4.31 kWh</t>
+        </is>
+      </c>
+      <c r="AU98" t="inlineStr">
+        <is>
+          <t>137.54 kWh</t>
+        </is>
+      </c>
+      <c r="AV98" t="inlineStr">
+        <is>
+          <t>3357.85 kWh</t>
+        </is>
+      </c>
+      <c r="AW98" t="inlineStr">
+        <is>
+          <t>3.73 kWh</t>
+        </is>
+      </c>
+      <c r="AX98" t="inlineStr">
+        <is>
+          <t>115.38 kWh</t>
+        </is>
+      </c>
+      <c r="AY98" t="inlineStr">
+        <is>
+          <t>2743.88 kWh</t>
+        </is>
+      </c>
+      <c r="AZ98" t="inlineStr">
+        <is>
+          <t>15.66 kWh</t>
+        </is>
+      </c>
+      <c r="BA98" t="inlineStr">
+        <is>
+          <t>422.18 kWh</t>
+        </is>
+      </c>
+      <c r="BB98" t="inlineStr">
+        <is>
+          <t>9754.68 kWh</t>
+        </is>
+      </c>
+      <c r="BC98" t="inlineStr">
+        <is>
+          <t>19.0 °C</t>
+        </is>
+      </c>
+      <c r="BD98" t="inlineStr">
+        <is>
+          <t>--.- °C</t>
+        </is>
+      </c>
+      <c r="BE98" t="inlineStr">
+        <is>
+          <t>--.- %</t>
+        </is>
+      </c>
+      <c r="BF98" t="inlineStr">
+        <is>
+          <t>49 %</t>
+        </is>
+      </c>
+      <c r="BG98" t="inlineStr">
+        <is>
+          <t>--.- %</t>
+        </is>
+      </c>
+      <c r="BH98" t="inlineStr">
+        <is>
+          <t>49 %</t>
+        </is>
+      </c>
+      <c r="BI98" t="inlineStr">
+        <is>
+          <t>136462364</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SampleData.xlsx
+++ b/SampleData.xlsx
@@ -412,7 +412,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BI98"/>
+  <dimension ref="A1:BI99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
@@ -30546,6 +30546,313 @@
         </is>
       </c>
     </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>2022-04-15 08:31:29</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>18.8 °C</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>25.6 °C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>4.0 °C</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>**.* °C</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>24.0 °C</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>**.* °C</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>43 %</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>**.* %</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>0 mV</t>
+        </is>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>0 mV</t>
+        </is>
+      </c>
+      <c r="N99" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="P99" t="inlineStr">
+        <is>
+          <t>**.* mV</t>
+        </is>
+      </c>
+      <c r="Q99" t="inlineStr">
+        <is>
+          <t>**.* mV</t>
+        </is>
+      </c>
+      <c r="R99" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="S99" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="T99" t="inlineStr">
+        <is>
+          <t>62 %</t>
+        </is>
+      </c>
+      <c r="U99" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="V99" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="W99" t="inlineStr">
+        <is>
+          <t>9 %</t>
+        </is>
+      </c>
+      <c r="X99" t="inlineStr">
+        <is>
+          <t>77 %</t>
+        </is>
+      </c>
+      <c r="Y99" t="inlineStr">
+        <is>
+          <t>#.## g/m³</t>
+        </is>
+      </c>
+      <c r="Z99" t="inlineStr">
+        <is>
+          <t>9.35 g/m³</t>
+        </is>
+      </c>
+      <c r="AA99" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="AB99" t="inlineStr">
+        <is>
+          <t>7:00-22:00</t>
+        </is>
+      </c>
+      <c r="AC99" t="inlineStr">
+        <is>
+          <t>AWAY              22:00</t>
+        </is>
+      </c>
+      <c r="AD99" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="AE99" t="inlineStr">
+        <is>
+          <t>19.0 °C</t>
+        </is>
+      </c>
+      <c r="AF99" t="inlineStr">
+        <is>
+          <t>25.7 °C</t>
+        </is>
+      </c>
+      <c r="AG99" t="inlineStr">
+        <is>
+          <t>4.0 °C</t>
+        </is>
+      </c>
+      <c r="AH99" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI99" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AJ99" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AK99" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AL99" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AM99" t="inlineStr">
+        <is>
+          <t>9 %</t>
+        </is>
+      </c>
+      <c r="AN99" t="inlineStr">
+        <is>
+          <t>90 %</t>
+        </is>
+      </c>
+      <c r="AO99" t="inlineStr">
+        <is>
+          <t>1052 W</t>
+        </is>
+      </c>
+      <c r="AP99" t="inlineStr">
+        <is>
+          <t>339 W</t>
+        </is>
+      </c>
+      <c r="AQ99" t="inlineStr">
+        <is>
+          <t>302 W</t>
+        </is>
+      </c>
+      <c r="AR99" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="AS99" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="AT99" t="inlineStr">
+        <is>
+          <t>2.64 kWh</t>
+        </is>
+      </c>
+      <c r="AU99" t="inlineStr">
+        <is>
+          <t>136.34 kWh</t>
+        </is>
+      </c>
+      <c r="AV99" t="inlineStr">
+        <is>
+          <t>3362.74 kWh</t>
+        </is>
+      </c>
+      <c r="AW99" t="inlineStr">
+        <is>
+          <t>2.37 kWh</t>
+        </is>
+      </c>
+      <c r="AX99" t="inlineStr">
+        <is>
+          <t>114.31 kWh</t>
+        </is>
+      </c>
+      <c r="AY99" t="inlineStr">
+        <is>
+          <t>2748.19 kWh</t>
+        </is>
+      </c>
+      <c r="AZ99" t="inlineStr">
+        <is>
+          <t>7.80 kWh</t>
+        </is>
+      </c>
+      <c r="BA99" t="inlineStr">
+        <is>
+          <t>422.48 kWh</t>
+        </is>
+      </c>
+      <c r="BB99" t="inlineStr">
+        <is>
+          <t>9770.48 kWh</t>
+        </is>
+      </c>
+      <c r="BC99" t="inlineStr">
+        <is>
+          <t>19.0 °C</t>
+        </is>
+      </c>
+      <c r="BD99" t="inlineStr">
+        <is>
+          <t>--.- °C</t>
+        </is>
+      </c>
+      <c r="BE99" t="inlineStr">
+        <is>
+          <t>--.- %</t>
+        </is>
+      </c>
+      <c r="BF99" t="inlineStr">
+        <is>
+          <t>43 %</t>
+        </is>
+      </c>
+      <c r="BG99" t="inlineStr">
+        <is>
+          <t>--.- %</t>
+        </is>
+      </c>
+      <c r="BH99" t="inlineStr">
+        <is>
+          <t>43 %</t>
+        </is>
+      </c>
+      <c r="BI99" t="inlineStr">
+        <is>
+          <t>136462364</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SampleData.xlsx
+++ b/SampleData.xlsx
@@ -412,7 +412,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BI99"/>
+  <dimension ref="A1:BI101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
@@ -30853,6 +30853,620 @@
         </is>
       </c>
     </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>2022-04-16 15:03:16</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>18.7 °C</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>25.8 °C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>12.7 °C</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>**.* °C</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>24.4 °C</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>**.* °C</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>42 %</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>**.* %</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>0 mV</t>
+        </is>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>0 mV</t>
+        </is>
+      </c>
+      <c r="N100" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="P100" t="inlineStr">
+        <is>
+          <t>**.* mV</t>
+        </is>
+      </c>
+      <c r="Q100" t="inlineStr">
+        <is>
+          <t>**.* mV</t>
+        </is>
+      </c>
+      <c r="R100" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="S100" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="T100" t="inlineStr">
+        <is>
+          <t>19 %</t>
+        </is>
+      </c>
+      <c r="U100" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="V100" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="W100" t="inlineStr">
+        <is>
+          <t>10 %</t>
+        </is>
+      </c>
+      <c r="X100" t="inlineStr">
+        <is>
+          <t>85 %</t>
+        </is>
+      </c>
+      <c r="Y100" t="inlineStr">
+        <is>
+          <t>#.## g/m³</t>
+        </is>
+      </c>
+      <c r="Z100" t="inlineStr">
+        <is>
+          <t>9.34 g/m³</t>
+        </is>
+      </c>
+      <c r="AA100" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="AB100" t="inlineStr">
+        <is>
+          <t>7:00-22:00</t>
+        </is>
+      </c>
+      <c r="AC100" t="inlineStr">
+        <is>
+          <t>AWAY              22:00</t>
+        </is>
+      </c>
+      <c r="AD100" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="AE100" t="inlineStr">
+        <is>
+          <t>18.9 °C</t>
+        </is>
+      </c>
+      <c r="AF100" t="inlineStr">
+        <is>
+          <t>25.8 °C</t>
+        </is>
+      </c>
+      <c r="AG100" t="inlineStr">
+        <is>
+          <t>13.1 °C</t>
+        </is>
+      </c>
+      <c r="AH100" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI100" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AJ100" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AK100" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AL100" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AM100" t="inlineStr">
+        <is>
+          <t>10 %</t>
+        </is>
+      </c>
+      <c r="AN100" t="inlineStr">
+        <is>
+          <t>85 %</t>
+        </is>
+      </c>
+      <c r="AO100" t="inlineStr">
+        <is>
+          <t>582 W</t>
+        </is>
+      </c>
+      <c r="AP100" t="inlineStr">
+        <is>
+          <t>130 W</t>
+        </is>
+      </c>
+      <c r="AQ100" t="inlineStr">
+        <is>
+          <t>93 W</t>
+        </is>
+      </c>
+      <c r="AR100" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="AS100" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="AT100" t="inlineStr">
+        <is>
+          <t>4.61 kWh</t>
+        </is>
+      </c>
+      <c r="AU100" t="inlineStr">
+        <is>
+          <t>139.08 kWh</t>
+        </is>
+      </c>
+      <c r="AV100" t="inlineStr">
+        <is>
+          <t>3371.85 kWh</t>
+        </is>
+      </c>
+      <c r="AW100" t="inlineStr">
+        <is>
+          <t>4.08 kWh</t>
+        </is>
+      </c>
+      <c r="AX100" t="inlineStr">
+        <is>
+          <t>116.65 kWh</t>
+        </is>
+      </c>
+      <c r="AY100" t="inlineStr">
+        <is>
+          <t>2756.17 kWh</t>
+        </is>
+      </c>
+      <c r="AZ100" t="inlineStr">
+        <is>
+          <t>12.23 kWh</t>
+        </is>
+      </c>
+      <c r="BA100" t="inlineStr">
+        <is>
+          <t>434.90 kWh</t>
+        </is>
+      </c>
+      <c r="BB100" t="inlineStr">
+        <is>
+          <t>9797.74 kWh</t>
+        </is>
+      </c>
+      <c r="BC100" t="inlineStr">
+        <is>
+          <t>19.0 °C</t>
+        </is>
+      </c>
+      <c r="BD100" t="inlineStr">
+        <is>
+          <t>--.- °C</t>
+        </is>
+      </c>
+      <c r="BE100" t="inlineStr">
+        <is>
+          <t>--.- %</t>
+        </is>
+      </c>
+      <c r="BF100" t="inlineStr">
+        <is>
+          <t>42 %</t>
+        </is>
+      </c>
+      <c r="BG100" t="inlineStr">
+        <is>
+          <t>--.- %</t>
+        </is>
+      </c>
+      <c r="BH100" t="inlineStr">
+        <is>
+          <t>42 %</t>
+        </is>
+      </c>
+      <c r="BI100" t="inlineStr">
+        <is>
+          <t>136462364</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>2022-04-17 17:01:13</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>18.9 °C</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>25.1 °C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>11.0 °C</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>**.* °C</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>23.6 °C</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>**.* °C</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>29 %</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>**.* %</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>0 mV</t>
+        </is>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>0 mV</t>
+        </is>
+      </c>
+      <c r="N101" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="P101" t="inlineStr">
+        <is>
+          <t>**.* mV</t>
+        </is>
+      </c>
+      <c r="Q101" t="inlineStr">
+        <is>
+          <t>**.* mV</t>
+        </is>
+      </c>
+      <c r="R101" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="S101" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="T101" t="inlineStr">
+        <is>
+          <t>29 %</t>
+        </is>
+      </c>
+      <c r="U101" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="V101" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="W101" t="inlineStr">
+        <is>
+          <t>11 %</t>
+        </is>
+      </c>
+      <c r="X101" t="inlineStr">
+        <is>
+          <t>81 %</t>
+        </is>
+      </c>
+      <c r="Y101" t="inlineStr">
+        <is>
+          <t>#.## g/m³</t>
+        </is>
+      </c>
+      <c r="Z101" t="inlineStr">
+        <is>
+          <t>6.15 g/m³</t>
+        </is>
+      </c>
+      <c r="AA101" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="AB101" t="inlineStr">
+        <is>
+          <t>7:00-22:00</t>
+        </is>
+      </c>
+      <c r="AC101" t="inlineStr">
+        <is>
+          <t>AWAY              22:00</t>
+        </is>
+      </c>
+      <c r="AD101" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="AE101" t="inlineStr">
+        <is>
+          <t>18.8 °C</t>
+        </is>
+      </c>
+      <c r="AF101" t="inlineStr">
+        <is>
+          <t>25.2 °C</t>
+        </is>
+      </c>
+      <c r="AG101" t="inlineStr">
+        <is>
+          <t>10.9 °C</t>
+        </is>
+      </c>
+      <c r="AH101" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI101" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AJ101" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AK101" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AL101" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AM101" t="inlineStr">
+        <is>
+          <t>11 %</t>
+        </is>
+      </c>
+      <c r="AN101" t="inlineStr">
+        <is>
+          <t>87 %</t>
+        </is>
+      </c>
+      <c r="AO101" t="inlineStr">
+        <is>
+          <t>667 W</t>
+        </is>
+      </c>
+      <c r="AP101" t="inlineStr">
+        <is>
+          <t>189 W</t>
+        </is>
+      </c>
+      <c r="AQ101" t="inlineStr">
+        <is>
+          <t>153 W</t>
+        </is>
+      </c>
+      <c r="AR101" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="AS101" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="AT101" t="inlineStr">
+        <is>
+          <t>4.83 kWh</t>
+        </is>
+      </c>
+      <c r="AU101" t="inlineStr">
+        <is>
+          <t>142.29 kWh</t>
+        </is>
+      </c>
+      <c r="AV101" t="inlineStr">
+        <is>
+          <t>3379.77 kWh</t>
+        </is>
+      </c>
+      <c r="AW101" t="inlineStr">
+        <is>
+          <t>4.27 kWh</t>
+        </is>
+      </c>
+      <c r="AX101" t="inlineStr">
+        <is>
+          <t>119.51 kWh</t>
+        </is>
+      </c>
+      <c r="AY101" t="inlineStr">
+        <is>
+          <t>2763.15 kWh</t>
+        </is>
+      </c>
+      <c r="AZ101" t="inlineStr">
+        <is>
+          <t>12.77 kWh</t>
+        </is>
+      </c>
+      <c r="BA101" t="inlineStr">
+        <is>
+          <t>447.64 kWh</t>
+        </is>
+      </c>
+      <c r="BB101" t="inlineStr">
+        <is>
+          <t>9820.36 kWh</t>
+        </is>
+      </c>
+      <c r="BC101" t="inlineStr">
+        <is>
+          <t>19.0 °C</t>
+        </is>
+      </c>
+      <c r="BD101" t="inlineStr">
+        <is>
+          <t>--.- °C</t>
+        </is>
+      </c>
+      <c r="BE101" t="inlineStr">
+        <is>
+          <t>--.- %</t>
+        </is>
+      </c>
+      <c r="BF101" t="inlineStr">
+        <is>
+          <t>29 %</t>
+        </is>
+      </c>
+      <c r="BG101" t="inlineStr">
+        <is>
+          <t>--.- %</t>
+        </is>
+      </c>
+      <c r="BH101" t="inlineStr">
+        <is>
+          <t>29 %</t>
+        </is>
+      </c>
+      <c r="BI101" t="inlineStr">
+        <is>
+          <t>136462364</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SampleData.xlsx
+++ b/SampleData.xlsx
@@ -412,7 +412,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BI101"/>
+  <dimension ref="A1:BI102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
@@ -31467,6 +31467,313 @@
         </is>
       </c>
     </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>2022-04-19 18:05:02</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>19.0 °C</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>26.6 °C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>13.0 °C</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>**.* °C</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>25.0 °C</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>**.* °C</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>38 %</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>**.* %</t>
+        </is>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>0 mV</t>
+        </is>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>0 mV</t>
+        </is>
+      </c>
+      <c r="N102" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="O102" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="P102" t="inlineStr">
+        <is>
+          <t>**.* mV</t>
+        </is>
+      </c>
+      <c r="Q102" t="inlineStr">
+        <is>
+          <t>**.* mV</t>
+        </is>
+      </c>
+      <c r="R102" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="S102" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="T102" t="inlineStr">
+        <is>
+          <t>22 %</t>
+        </is>
+      </c>
+      <c r="U102" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="V102" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="W102" t="inlineStr">
+        <is>
+          <t>13 %</t>
+        </is>
+      </c>
+      <c r="X102" t="inlineStr">
+        <is>
+          <t>85 %</t>
+        </is>
+      </c>
+      <c r="Y102" t="inlineStr">
+        <is>
+          <t>#.## g/m³</t>
+        </is>
+      </c>
+      <c r="Z102" t="inlineStr">
+        <is>
+          <t>8.73 g/m³</t>
+        </is>
+      </c>
+      <c r="AA102" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="AB102" t="inlineStr">
+        <is>
+          <t>7:00-22:00</t>
+        </is>
+      </c>
+      <c r="AC102" t="inlineStr">
+        <is>
+          <t>AWAY              22:00</t>
+        </is>
+      </c>
+      <c r="AD102" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="AE102" t="inlineStr">
+        <is>
+          <t>19.2 °C</t>
+        </is>
+      </c>
+      <c r="AF102" t="inlineStr">
+        <is>
+          <t>26.7 °C</t>
+        </is>
+      </c>
+      <c r="AG102" t="inlineStr">
+        <is>
+          <t>13.0 °C</t>
+        </is>
+      </c>
+      <c r="AH102" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI102" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AJ102" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AK102" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AL102" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AM102" t="inlineStr">
+        <is>
+          <t>13 %</t>
+        </is>
+      </c>
+      <c r="AN102" t="inlineStr">
+        <is>
+          <t>88 %</t>
+        </is>
+      </c>
+      <c r="AO102" t="inlineStr">
+        <is>
+          <t>646 W</t>
+        </is>
+      </c>
+      <c r="AP102" t="inlineStr">
+        <is>
+          <t>143 W</t>
+        </is>
+      </c>
+      <c r="AQ102" t="inlineStr">
+        <is>
+          <t>107 W</t>
+        </is>
+      </c>
+      <c r="AR102" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="AS102" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="AT102" t="inlineStr">
+        <is>
+          <t>4.30 kWh</t>
+        </is>
+      </c>
+      <c r="AU102" t="inlineStr">
+        <is>
+          <t>151.14 kWh</t>
+        </is>
+      </c>
+      <c r="AV102" t="inlineStr">
+        <is>
+          <t>3394.17 kWh</t>
+        </is>
+      </c>
+      <c r="AW102" t="inlineStr">
+        <is>
+          <t>3.72 kWh</t>
+        </is>
+      </c>
+      <c r="AX102" t="inlineStr">
+        <is>
+          <t>127.65 kWh</t>
+        </is>
+      </c>
+      <c r="AY102" t="inlineStr">
+        <is>
+          <t>2775.80 kWh</t>
+        </is>
+      </c>
+      <c r="AZ102" t="inlineStr">
+        <is>
+          <t>10.25 kWh</t>
+        </is>
+      </c>
+      <c r="BA102" t="inlineStr">
+        <is>
+          <t>471.07 kWh</t>
+        </is>
+      </c>
+      <c r="BB102" t="inlineStr">
+        <is>
+          <t>9857.48 kWh</t>
+        </is>
+      </c>
+      <c r="BC102" t="inlineStr">
+        <is>
+          <t>19.0 °C</t>
+        </is>
+      </c>
+      <c r="BD102" t="inlineStr">
+        <is>
+          <t>--.- °C</t>
+        </is>
+      </c>
+      <c r="BE102" t="inlineStr">
+        <is>
+          <t>--.- %</t>
+        </is>
+      </c>
+      <c r="BF102" t="inlineStr">
+        <is>
+          <t>38 %</t>
+        </is>
+      </c>
+      <c r="BG102" t="inlineStr">
+        <is>
+          <t>--.- %</t>
+        </is>
+      </c>
+      <c r="BH102" t="inlineStr">
+        <is>
+          <t>38 %</t>
+        </is>
+      </c>
+      <c r="BI102" t="inlineStr">
+        <is>
+          <t>136462364</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SampleData.xlsx
+++ b/SampleData.xlsx
@@ -412,7 +412,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BI102"/>
+  <dimension ref="A1:BI103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
@@ -31774,6 +31774,313 @@
         </is>
       </c>
     </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>2022-04-20 18:05:23</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>18.9 °C</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>26.3 °C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>13.9 °C</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>**.* °C</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>24.6 °C</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>**.* °C</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>40 %</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>**.* %</t>
+        </is>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>0 mV</t>
+        </is>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>0 mV</t>
+        </is>
+      </c>
+      <c r="N103" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="O103" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="P103" t="inlineStr">
+        <is>
+          <t>**.* mV</t>
+        </is>
+      </c>
+      <c r="Q103" t="inlineStr">
+        <is>
+          <t>**.* mV</t>
+        </is>
+      </c>
+      <c r="R103" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="S103" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="T103" t="inlineStr">
+        <is>
+          <t>14 %</t>
+        </is>
+      </c>
+      <c r="U103" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="V103" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="W103" t="inlineStr">
+        <is>
+          <t>14 %</t>
+        </is>
+      </c>
+      <c r="X103" t="inlineStr">
+        <is>
+          <t>88 %</t>
+        </is>
+      </c>
+      <c r="Y103" t="inlineStr">
+        <is>
+          <t>#.## g/m³</t>
+        </is>
+      </c>
+      <c r="Z103" t="inlineStr">
+        <is>
+          <t>9.00 g/m³</t>
+        </is>
+      </c>
+      <c r="AA103" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="AB103" t="inlineStr">
+        <is>
+          <t>7:00-22:00</t>
+        </is>
+      </c>
+      <c r="AC103" t="inlineStr">
+        <is>
+          <t>AWAY              22:00</t>
+        </is>
+      </c>
+      <c r="AD103" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="AE103" t="inlineStr">
+        <is>
+          <t>18.9 °C</t>
+        </is>
+      </c>
+      <c r="AF103" t="inlineStr">
+        <is>
+          <t>26.3 °C</t>
+        </is>
+      </c>
+      <c r="AG103" t="inlineStr">
+        <is>
+          <t>13.9 °C</t>
+        </is>
+      </c>
+      <c r="AH103" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI103" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AJ103" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AK103" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AL103" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AM103" t="inlineStr">
+        <is>
+          <t>14 %</t>
+        </is>
+      </c>
+      <c r="AN103" t="inlineStr">
+        <is>
+          <t>87 %</t>
+        </is>
+      </c>
+      <c r="AO103" t="inlineStr">
+        <is>
+          <t>576 W</t>
+        </is>
+      </c>
+      <c r="AP103" t="inlineStr">
+        <is>
+          <t>106 W</t>
+        </is>
+      </c>
+      <c r="AQ103" t="inlineStr">
+        <is>
+          <t>70 W</t>
+        </is>
+      </c>
+      <c r="AR103" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="AS103" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="AT103" t="inlineStr">
+        <is>
+          <t>3.61 kWh</t>
+        </is>
+      </c>
+      <c r="AU103" t="inlineStr">
+        <is>
+          <t>151.28 kWh</t>
+        </is>
+      </c>
+      <c r="AV103" t="inlineStr">
+        <is>
+          <t>3399.43 kWh</t>
+        </is>
+      </c>
+      <c r="AW103" t="inlineStr">
+        <is>
+          <t>3.04 kWh</t>
+        </is>
+      </c>
+      <c r="AX103" t="inlineStr">
+        <is>
+          <t>127.66 kWh</t>
+        </is>
+      </c>
+      <c r="AY103" t="inlineStr">
+        <is>
+          <t>2780.24 kWh</t>
+        </is>
+      </c>
+      <c r="AZ103" t="inlineStr">
+        <is>
+          <t>9.44 kWh</t>
+        </is>
+      </c>
+      <c r="BA103" t="inlineStr">
+        <is>
+          <t>474.10 kWh</t>
+        </is>
+      </c>
+      <c r="BB103" t="inlineStr">
+        <is>
+          <t>9872.37 kWh</t>
+        </is>
+      </c>
+      <c r="BC103" t="inlineStr">
+        <is>
+          <t>19.0 °C</t>
+        </is>
+      </c>
+      <c r="BD103" t="inlineStr">
+        <is>
+          <t>--.- °C</t>
+        </is>
+      </c>
+      <c r="BE103" t="inlineStr">
+        <is>
+          <t>--.- %</t>
+        </is>
+      </c>
+      <c r="BF103" t="inlineStr">
+        <is>
+          <t>40 %</t>
+        </is>
+      </c>
+      <c r="BG103" t="inlineStr">
+        <is>
+          <t>--.- %</t>
+        </is>
+      </c>
+      <c r="BH103" t="inlineStr">
+        <is>
+          <t>40 %</t>
+        </is>
+      </c>
+      <c r="BI103" t="inlineStr">
+        <is>
+          <t>136462364</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SampleData.xlsx
+++ b/SampleData.xlsx
@@ -412,7 +412,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BI103"/>
+  <dimension ref="A1:BI104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
@@ -32081,6 +32081,313 @@
         </is>
       </c>
     </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>2022-04-22 17:42:56</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>18.9 °C</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>27.0 °C</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>16.9 °C</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>**.* °C</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>25.2 °C</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>**.* °C</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>36 %</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>**.* %</t>
+        </is>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>0 mV</t>
+        </is>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>0 mV</t>
+        </is>
+      </c>
+      <c r="N104" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="O104" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="P104" t="inlineStr">
+        <is>
+          <t>**.* mV</t>
+        </is>
+      </c>
+      <c r="Q104" t="inlineStr">
+        <is>
+          <t>**.* mV</t>
+        </is>
+      </c>
+      <c r="R104" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="S104" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="T104" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="U104" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="V104" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="W104" t="inlineStr">
+        <is>
+          <t>15 %</t>
+        </is>
+      </c>
+      <c r="X104" t="inlineStr">
+        <is>
+          <t>--.- %</t>
+        </is>
+      </c>
+      <c r="Y104" t="inlineStr">
+        <is>
+          <t>#.## g/m³</t>
+        </is>
+      </c>
+      <c r="Z104" t="inlineStr">
+        <is>
+          <t>8.38 g/m³</t>
+        </is>
+      </c>
+      <c r="AA104" t="inlineStr">
+        <is>
+          <t>STANDBY</t>
+        </is>
+      </c>
+      <c r="AB104" t="inlineStr">
+        <is>
+          <t>0:00-0:00</t>
+        </is>
+      </c>
+      <c r="AC104" t="inlineStr">
+        <is>
+          <t>STANDBY           0:00</t>
+        </is>
+      </c>
+      <c r="AD104" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="AE104" t="inlineStr">
+        <is>
+          <t>18.8 °C</t>
+        </is>
+      </c>
+      <c r="AF104" t="inlineStr">
+        <is>
+          <t>27.0 °C</t>
+        </is>
+      </c>
+      <c r="AG104" t="inlineStr">
+        <is>
+          <t>16.8 °C</t>
+        </is>
+      </c>
+      <c r="AH104" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI104" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AJ104" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AK104" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AL104" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AM104" t="inlineStr">
+        <is>
+          <t>15 %</t>
+        </is>
+      </c>
+      <c r="AN104" t="inlineStr">
+        <is>
+          <t>--.- %</t>
+        </is>
+      </c>
+      <c r="AO104" t="inlineStr">
+        <is>
+          <t>0 W</t>
+        </is>
+      </c>
+      <c r="AP104" t="inlineStr">
+        <is>
+          <t>26 W</t>
+        </is>
+      </c>
+      <c r="AQ104" t="inlineStr">
+        <is>
+          <t>0 W</t>
+        </is>
+      </c>
+      <c r="AR104" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="AS104" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="AT104" t="inlineStr">
+        <is>
+          <t>4.14 kWh</t>
+        </is>
+      </c>
+      <c r="AU104" t="inlineStr">
+        <is>
+          <t>148.79 kWh</t>
+        </is>
+      </c>
+      <c r="AV104" t="inlineStr">
+        <is>
+          <t>3409.78 kWh</t>
+        </is>
+      </c>
+      <c r="AW104" t="inlineStr">
+        <is>
+          <t>3.59 kWh</t>
+        </is>
+      </c>
+      <c r="AX104" t="inlineStr">
+        <is>
+          <t>125.00 kWh</t>
+        </is>
+      </c>
+      <c r="AY104" t="inlineStr">
+        <is>
+          <t>2788.97 kWh</t>
+        </is>
+      </c>
+      <c r="AZ104" t="inlineStr">
+        <is>
+          <t>8.61 kWh</t>
+        </is>
+      </c>
+      <c r="BA104" t="inlineStr">
+        <is>
+          <t>472.63 kWh</t>
+        </is>
+      </c>
+      <c r="BB104" t="inlineStr">
+        <is>
+          <t>9899.33 kWh</t>
+        </is>
+      </c>
+      <c r="BC104" t="inlineStr">
+        <is>
+          <t>19.0 °C</t>
+        </is>
+      </c>
+      <c r="BD104" t="inlineStr">
+        <is>
+          <t>--.- °C</t>
+        </is>
+      </c>
+      <c r="BE104" t="inlineStr">
+        <is>
+          <t>--.- %</t>
+        </is>
+      </c>
+      <c r="BF104" t="inlineStr">
+        <is>
+          <t>36 %</t>
+        </is>
+      </c>
+      <c r="BG104" t="inlineStr">
+        <is>
+          <t>--.- %</t>
+        </is>
+      </c>
+      <c r="BH104" t="inlineStr">
+        <is>
+          <t>36 %</t>
+        </is>
+      </c>
+      <c r="BI104" t="inlineStr">
+        <is>
+          <t>136462340</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SampleData.xlsx
+++ b/SampleData.xlsx
@@ -412,7 +412,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BI104"/>
+  <dimension ref="A1:BI105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
@@ -32388,6 +32388,313 @@
         </is>
       </c>
     </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>2022-04-23 08:53:16</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>18.9 °C</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>24.6 °C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>10.4 °C</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>**.* °C</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>24.0 °C</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>**.* °C</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>40 %</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>**.* %</t>
+        </is>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>0 mV</t>
+        </is>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>0 mV</t>
+        </is>
+      </c>
+      <c r="N105" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="O105" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="P105" t="inlineStr">
+        <is>
+          <t>**.* mV</t>
+        </is>
+      </c>
+      <c r="Q105" t="inlineStr">
+        <is>
+          <t>**.* mV</t>
+        </is>
+      </c>
+      <c r="R105" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="S105" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="T105" t="inlineStr">
+        <is>
+          <t>35 %</t>
+        </is>
+      </c>
+      <c r="U105" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="V105" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="W105" t="inlineStr">
+        <is>
+          <t>16 %</t>
+        </is>
+      </c>
+      <c r="X105" t="inlineStr">
+        <is>
+          <t>79 %</t>
+        </is>
+      </c>
+      <c r="Y105" t="inlineStr">
+        <is>
+          <t>#.## g/m³</t>
+        </is>
+      </c>
+      <c r="Z105" t="inlineStr">
+        <is>
+          <t>8.69 g/m³</t>
+        </is>
+      </c>
+      <c r="AA105" t="inlineStr">
+        <is>
+          <t>STANDBY</t>
+        </is>
+      </c>
+      <c r="AB105" t="inlineStr">
+        <is>
+          <t>0:00-0:00</t>
+        </is>
+      </c>
+      <c r="AC105" t="inlineStr">
+        <is>
+          <t>STANDBY           0:00</t>
+        </is>
+      </c>
+      <c r="AD105" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="AE105" t="inlineStr">
+        <is>
+          <t>19.1 °C</t>
+        </is>
+      </c>
+      <c r="AF105" t="inlineStr">
+        <is>
+          <t>24.6 °C</t>
+        </is>
+      </c>
+      <c r="AG105" t="inlineStr">
+        <is>
+          <t>10.4 °C</t>
+        </is>
+      </c>
+      <c r="AH105" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI105" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AJ105" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AK105" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AL105" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AM105" t="inlineStr">
+        <is>
+          <t>16 %</t>
+        </is>
+      </c>
+      <c r="AN105" t="inlineStr">
+        <is>
+          <t>87 %</t>
+        </is>
+      </c>
+      <c r="AO105" t="inlineStr">
+        <is>
+          <t>662 W</t>
+        </is>
+      </c>
+      <c r="AP105" t="inlineStr">
+        <is>
+          <t>206 W</t>
+        </is>
+      </c>
+      <c r="AQ105" t="inlineStr">
+        <is>
+          <t>169 W</t>
+        </is>
+      </c>
+      <c r="AR105" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="AS105" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="AT105" t="inlineStr">
+        <is>
+          <t>3.14 kWh</t>
+        </is>
+      </c>
+      <c r="AU105" t="inlineStr">
+        <is>
+          <t>149.01 kWh</t>
+        </is>
+      </c>
+      <c r="AV105" t="inlineStr">
+        <is>
+          <t>3414.20 kWh</t>
+        </is>
+      </c>
+      <c r="AW105" t="inlineStr">
+        <is>
+          <t>2.85 kWh</t>
+        </is>
+      </c>
+      <c r="AX105" t="inlineStr">
+        <is>
+          <t>125.38 kWh</t>
+        </is>
+      </c>
+      <c r="AY105" t="inlineStr">
+        <is>
+          <t>2792.84 kWh</t>
+        </is>
+      </c>
+      <c r="AZ105" t="inlineStr">
+        <is>
+          <t>7.24 kWh</t>
+        </is>
+      </c>
+      <c r="BA105" t="inlineStr">
+        <is>
+          <t>472.39 kWh</t>
+        </is>
+      </c>
+      <c r="BB105" t="inlineStr">
+        <is>
+          <t>9911.24 kWh</t>
+        </is>
+      </c>
+      <c r="BC105" t="inlineStr">
+        <is>
+          <t>19.0 °C</t>
+        </is>
+      </c>
+      <c r="BD105" t="inlineStr">
+        <is>
+          <t>--.- °C</t>
+        </is>
+      </c>
+      <c r="BE105" t="inlineStr">
+        <is>
+          <t>--.- %</t>
+        </is>
+      </c>
+      <c r="BF105" t="inlineStr">
+        <is>
+          <t>40 %</t>
+        </is>
+      </c>
+      <c r="BG105" t="inlineStr">
+        <is>
+          <t>--.- %</t>
+        </is>
+      </c>
+      <c r="BH105" t="inlineStr">
+        <is>
+          <t>40 %</t>
+        </is>
+      </c>
+      <c r="BI105" t="inlineStr">
+        <is>
+          <t>136462364</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SampleData.xlsx
+++ b/SampleData.xlsx
@@ -412,7 +412,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BI105"/>
+  <dimension ref="A1:BI111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
@@ -32695,6 +32695,1848 @@
         </is>
       </c>
     </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>2022-04-26 16:31:52</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>18.9 °C</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>25.6 °C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>15.1 °C</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>**.* °C</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>24.9 °C</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>**.* °C</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>37 %</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>**.* %</t>
+        </is>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>0 mV</t>
+        </is>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>0 mV</t>
+        </is>
+      </c>
+      <c r="N106" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="O106" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="P106" t="inlineStr">
+        <is>
+          <t>**.* mV</t>
+        </is>
+      </c>
+      <c r="Q106" t="inlineStr">
+        <is>
+          <t>**.* mV</t>
+        </is>
+      </c>
+      <c r="R106" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="S106" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="T106" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="U106" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="V106" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="W106" t="inlineStr">
+        <is>
+          <t>18 %</t>
+        </is>
+      </c>
+      <c r="X106" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="Y106" t="inlineStr">
+        <is>
+          <t>#.## g/m³</t>
+        </is>
+      </c>
+      <c r="Z106" t="inlineStr">
+        <is>
+          <t>8.47 g/m³</t>
+        </is>
+      </c>
+      <c r="AA106" t="inlineStr">
+        <is>
+          <t>STANDBY</t>
+        </is>
+      </c>
+      <c r="AB106" t="inlineStr">
+        <is>
+          <t>0:00-0:00</t>
+        </is>
+      </c>
+      <c r="AC106" t="inlineStr">
+        <is>
+          <t>STANDBY           0:00</t>
+        </is>
+      </c>
+      <c r="AD106" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="AE106" t="inlineStr">
+        <is>
+          <t>18.8 °C</t>
+        </is>
+      </c>
+      <c r="AF106" t="inlineStr">
+        <is>
+          <t>25.6 °C</t>
+        </is>
+      </c>
+      <c r="AG106" t="inlineStr">
+        <is>
+          <t>15.2 °C</t>
+        </is>
+      </c>
+      <c r="AH106" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI106" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AJ106" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AK106" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AL106" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AM106" t="inlineStr">
+        <is>
+          <t>18 %</t>
+        </is>
+      </c>
+      <c r="AN106" t="inlineStr">
+        <is>
+          <t>83 %</t>
+        </is>
+      </c>
+      <c r="AO106" t="inlineStr">
+        <is>
+          <t>470 W</t>
+        </is>
+      </c>
+      <c r="AP106" t="inlineStr">
+        <is>
+          <t>35 W</t>
+        </is>
+      </c>
+      <c r="AQ106" t="inlineStr">
+        <is>
+          <t>0 W</t>
+        </is>
+      </c>
+      <c r="AR106" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="AS106" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="AT106" t="inlineStr">
+        <is>
+          <t>4.00 kWh</t>
+        </is>
+      </c>
+      <c r="AU106" t="inlineStr">
+        <is>
+          <t>149.85 kWh</t>
+        </is>
+      </c>
+      <c r="AV106" t="inlineStr">
+        <is>
+          <t>3434.60 kWh</t>
+        </is>
+      </c>
+      <c r="AW106" t="inlineStr">
+        <is>
+          <t>3.48 kWh</t>
+        </is>
+      </c>
+      <c r="AX106" t="inlineStr">
+        <is>
+          <t>125.57 kWh</t>
+        </is>
+      </c>
+      <c r="AY106" t="inlineStr">
+        <is>
+          <t>2810.42 kWh</t>
+        </is>
+      </c>
+      <c r="AZ106" t="inlineStr">
+        <is>
+          <t>9.70 kWh</t>
+        </is>
+      </c>
+      <c r="BA106" t="inlineStr">
+        <is>
+          <t>481.99 kWh</t>
+        </is>
+      </c>
+      <c r="BB106" t="inlineStr">
+        <is>
+          <t>9969.96 kWh</t>
+        </is>
+      </c>
+      <c r="BC106" t="inlineStr">
+        <is>
+          <t>19.0 °C</t>
+        </is>
+      </c>
+      <c r="BD106" t="inlineStr">
+        <is>
+          <t>--.- °C</t>
+        </is>
+      </c>
+      <c r="BE106" t="inlineStr">
+        <is>
+          <t>--.- %</t>
+        </is>
+      </c>
+      <c r="BF106" t="inlineStr">
+        <is>
+          <t>37 %</t>
+        </is>
+      </c>
+      <c r="BG106" t="inlineStr">
+        <is>
+          <t>--.- %</t>
+        </is>
+      </c>
+      <c r="BH106" t="inlineStr">
+        <is>
+          <t>37 %</t>
+        </is>
+      </c>
+      <c r="BI106" t="inlineStr">
+        <is>
+          <t>136462348</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>2022-04-27 17:51:32</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>18.9 °C</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>26.5 °C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>9.7 °C</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>**.* °C</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>25.0 °C</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>**.* °C</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>33 %</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>**.* %</t>
+        </is>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>0 mV</t>
+        </is>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>0 mV</t>
+        </is>
+      </c>
+      <c r="N107" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="O107" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="P107" t="inlineStr">
+        <is>
+          <t>**.* mV</t>
+        </is>
+      </c>
+      <c r="Q107" t="inlineStr">
+        <is>
+          <t>**.* mV</t>
+        </is>
+      </c>
+      <c r="R107" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="S107" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="T107" t="inlineStr">
+        <is>
+          <t>38 %</t>
+        </is>
+      </c>
+      <c r="U107" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="V107" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="W107" t="inlineStr">
+        <is>
+          <t>19 %</t>
+        </is>
+      </c>
+      <c r="X107" t="inlineStr">
+        <is>
+          <t>80 %</t>
+        </is>
+      </c>
+      <c r="Y107" t="inlineStr">
+        <is>
+          <t>#.## g/m³</t>
+        </is>
+      </c>
+      <c r="Z107" t="inlineStr">
+        <is>
+          <t>7.59 g/m³</t>
+        </is>
+      </c>
+      <c r="AA107" t="inlineStr">
+        <is>
+          <t>STANDBY</t>
+        </is>
+      </c>
+      <c r="AB107" t="inlineStr">
+        <is>
+          <t>0:00-0:00</t>
+        </is>
+      </c>
+      <c r="AC107" t="inlineStr">
+        <is>
+          <t>STANDBY           0:00</t>
+        </is>
+      </c>
+      <c r="AD107" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="AE107" t="inlineStr">
+        <is>
+          <t>18.9 °C</t>
+        </is>
+      </c>
+      <c r="AF107" t="inlineStr">
+        <is>
+          <t>26.5 °C</t>
+        </is>
+      </c>
+      <c r="AG107" t="inlineStr">
+        <is>
+          <t>9.8 °C</t>
+        </is>
+      </c>
+      <c r="AH107" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI107" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AJ107" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AK107" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AL107" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AM107" t="inlineStr">
+        <is>
+          <t>19 %</t>
+        </is>
+      </c>
+      <c r="AN107" t="inlineStr">
+        <is>
+          <t>88 %</t>
+        </is>
+      </c>
+      <c r="AO107" t="inlineStr">
+        <is>
+          <t>785 W</t>
+        </is>
+      </c>
+      <c r="AP107" t="inlineStr">
+        <is>
+          <t>232 W</t>
+        </is>
+      </c>
+      <c r="AQ107" t="inlineStr">
+        <is>
+          <t>196 W</t>
+        </is>
+      </c>
+      <c r="AR107" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="AS107" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="AT107" t="inlineStr">
+        <is>
+          <t>5.24 kWh</t>
+        </is>
+      </c>
+      <c r="AU107" t="inlineStr">
+        <is>
+          <t>152.46 kWh</t>
+        </is>
+      </c>
+      <c r="AV107" t="inlineStr">
+        <is>
+          <t>3441.81 kWh</t>
+        </is>
+      </c>
+      <c r="AW107" t="inlineStr">
+        <is>
+          <t>4.62 kWh</t>
+        </is>
+      </c>
+      <c r="AX107" t="inlineStr">
+        <is>
+          <t>127.99 kWh</t>
+        </is>
+      </c>
+      <c r="AY107" t="inlineStr">
+        <is>
+          <t>2816.71 kWh</t>
+        </is>
+      </c>
+      <c r="AZ107" t="inlineStr">
+        <is>
+          <t>13.48 kWh</t>
+        </is>
+      </c>
+      <c r="BA107" t="inlineStr">
+        <is>
+          <t>486.35 kWh</t>
+        </is>
+      </c>
+      <c r="BB107" t="inlineStr">
+        <is>
+          <t>9989.85 kWh</t>
+        </is>
+      </c>
+      <c r="BC107" t="inlineStr">
+        <is>
+          <t>19.0 °C</t>
+        </is>
+      </c>
+      <c r="BD107" t="inlineStr">
+        <is>
+          <t>--.- °C</t>
+        </is>
+      </c>
+      <c r="BE107" t="inlineStr">
+        <is>
+          <t>--.- %</t>
+        </is>
+      </c>
+      <c r="BF107" t="inlineStr">
+        <is>
+          <t>33 %</t>
+        </is>
+      </c>
+      <c r="BG107" t="inlineStr">
+        <is>
+          <t>--.- %</t>
+        </is>
+      </c>
+      <c r="BH107" t="inlineStr">
+        <is>
+          <t>33 %</t>
+        </is>
+      </c>
+      <c r="BI107" t="inlineStr">
+        <is>
+          <t>136462364</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>2022-04-29 16:08:56</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>18.8 °C</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>25.3 °C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>14.0 °C</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>**.* °C</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>24.5 °C</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>**.* °C</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>39 %</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>**.* %</t>
+        </is>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>0 mV</t>
+        </is>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>0 mV</t>
+        </is>
+      </c>
+      <c r="N108" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="O108" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="P108" t="inlineStr">
+        <is>
+          <t>**.* mV</t>
+        </is>
+      </c>
+      <c r="Q108" t="inlineStr">
+        <is>
+          <t>**.* mV</t>
+        </is>
+      </c>
+      <c r="R108" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="S108" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="T108" t="inlineStr">
+        <is>
+          <t>19 %</t>
+        </is>
+      </c>
+      <c r="U108" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="V108" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="W108" t="inlineStr">
+        <is>
+          <t>20 %</t>
+        </is>
+      </c>
+      <c r="X108" t="inlineStr">
+        <is>
+          <t>83 %</t>
+        </is>
+      </c>
+      <c r="Y108" t="inlineStr">
+        <is>
+          <t>#.## g/m³</t>
+        </is>
+      </c>
+      <c r="Z108" t="inlineStr">
+        <is>
+          <t>8.72 g/m³</t>
+        </is>
+      </c>
+      <c r="AA108" t="inlineStr">
+        <is>
+          <t>STANDBY</t>
+        </is>
+      </c>
+      <c r="AB108" t="inlineStr">
+        <is>
+          <t>0:00-0:00</t>
+        </is>
+      </c>
+      <c r="AC108" t="inlineStr">
+        <is>
+          <t>STANDBY           0:00</t>
+        </is>
+      </c>
+      <c r="AD108" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="AE108" t="inlineStr">
+        <is>
+          <t>19.0 °C</t>
+        </is>
+      </c>
+      <c r="AF108" t="inlineStr">
+        <is>
+          <t>25.3 °C</t>
+        </is>
+      </c>
+      <c r="AG108" t="inlineStr">
+        <is>
+          <t>13.9 °C</t>
+        </is>
+      </c>
+      <c r="AH108" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI108" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AJ108" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AK108" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AL108" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AM108" t="inlineStr">
+        <is>
+          <t>20 %</t>
+        </is>
+      </c>
+      <c r="AN108" t="inlineStr">
+        <is>
+          <t>82 %</t>
+        </is>
+      </c>
+      <c r="AO108" t="inlineStr">
+        <is>
+          <t>502 W</t>
+        </is>
+      </c>
+      <c r="AP108" t="inlineStr">
+        <is>
+          <t>125 W</t>
+        </is>
+      </c>
+      <c r="AQ108" t="inlineStr">
+        <is>
+          <t>89 W</t>
+        </is>
+      </c>
+      <c r="AR108" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="AS108" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="AT108" t="inlineStr">
+        <is>
+          <t>5.00 kWh</t>
+        </is>
+      </c>
+      <c r="AU108" t="inlineStr">
+        <is>
+          <t>151.16 kWh</t>
+        </is>
+      </c>
+      <c r="AV108" t="inlineStr">
+        <is>
+          <t>3458.69 kWh</t>
+        </is>
+      </c>
+      <c r="AW108" t="inlineStr">
+        <is>
+          <t>4.47 kWh</t>
+        </is>
+      </c>
+      <c r="AX108" t="inlineStr">
+        <is>
+          <t>126.46 kWh</t>
+        </is>
+      </c>
+      <c r="AY108" t="inlineStr">
+        <is>
+          <t>2831.92 kWh</t>
+        </is>
+      </c>
+      <c r="AZ108" t="inlineStr">
+        <is>
+          <t>11.14 kWh</t>
+        </is>
+      </c>
+      <c r="BA108" t="inlineStr">
+        <is>
+          <t>486.16 kWh</t>
+        </is>
+      </c>
+      <c r="BB108" t="inlineStr">
+        <is>
+          <t>10029.36 kWh</t>
+        </is>
+      </c>
+      <c r="BC108" t="inlineStr">
+        <is>
+          <t>19.0 °C</t>
+        </is>
+      </c>
+      <c r="BD108" t="inlineStr">
+        <is>
+          <t>--.- °C</t>
+        </is>
+      </c>
+      <c r="BE108" t="inlineStr">
+        <is>
+          <t>--.- %</t>
+        </is>
+      </c>
+      <c r="BF108" t="inlineStr">
+        <is>
+          <t>39 %</t>
+        </is>
+      </c>
+      <c r="BG108" t="inlineStr">
+        <is>
+          <t>--.- %</t>
+        </is>
+      </c>
+      <c r="BH108" t="inlineStr">
+        <is>
+          <t>39 %</t>
+        </is>
+      </c>
+      <c r="BI108" t="inlineStr">
+        <is>
+          <t>136462364</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>2022-04-30 12:47:48</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>19.4 °C</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>24.8 °C</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>16.9 °C</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>**.* °C</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>23.7 °C</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>**.* °C</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>39 %</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>**.* %</t>
+        </is>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>0 mV</t>
+        </is>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>0 mV</t>
+        </is>
+      </c>
+      <c r="N109" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="O109" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="P109" t="inlineStr">
+        <is>
+          <t>**.* mV</t>
+        </is>
+      </c>
+      <c r="Q109" t="inlineStr">
+        <is>
+          <t>**.* mV</t>
+        </is>
+      </c>
+      <c r="R109" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="S109" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="T109" t="inlineStr">
+        <is>
+          <t>3 %</t>
+        </is>
+      </c>
+      <c r="U109" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="V109" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="W109" t="inlineStr">
+        <is>
+          <t>21 %</t>
+        </is>
+      </c>
+      <c r="X109" t="inlineStr">
+        <is>
+          <t>96 %</t>
+        </is>
+      </c>
+      <c r="Y109" t="inlineStr">
+        <is>
+          <t>#.## g/m³</t>
+        </is>
+      </c>
+      <c r="Z109" t="inlineStr">
+        <is>
+          <t>8.34 g/m³</t>
+        </is>
+      </c>
+      <c r="AA109" t="inlineStr">
+        <is>
+          <t>STANDBY</t>
+        </is>
+      </c>
+      <c r="AB109" t="inlineStr">
+        <is>
+          <t>0:00-0:00</t>
+        </is>
+      </c>
+      <c r="AC109" t="inlineStr">
+        <is>
+          <t>STANDBY           0:00</t>
+        </is>
+      </c>
+      <c r="AD109" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="AE109" t="inlineStr">
+        <is>
+          <t>19.3 °C</t>
+        </is>
+      </c>
+      <c r="AF109" t="inlineStr">
+        <is>
+          <t>24.8 °C</t>
+        </is>
+      </c>
+      <c r="AG109" t="inlineStr">
+        <is>
+          <t>16.7 °C</t>
+        </is>
+      </c>
+      <c r="AH109" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI109" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AJ109" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AK109" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AL109" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AM109" t="inlineStr">
+        <is>
+          <t>21 %</t>
+        </is>
+      </c>
+      <c r="AN109" t="inlineStr">
+        <is>
+          <t>90 %</t>
+        </is>
+      </c>
+      <c r="AO109" t="inlineStr">
+        <is>
+          <t>384 W</t>
+        </is>
+      </c>
+      <c r="AP109" t="inlineStr">
+        <is>
+          <t>53 W</t>
+        </is>
+      </c>
+      <c r="AQ109" t="inlineStr">
+        <is>
+          <t>17 W</t>
+        </is>
+      </c>
+      <c r="AR109" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="AS109" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="AT109" t="inlineStr">
+        <is>
+          <t>4.89 kWh</t>
+        </is>
+      </c>
+      <c r="AU109" t="inlineStr">
+        <is>
+          <t>150.55 kWh</t>
+        </is>
+      </c>
+      <c r="AV109" t="inlineStr">
+        <is>
+          <t>3466.76 kWh</t>
+        </is>
+      </c>
+      <c r="AW109" t="inlineStr">
+        <is>
+          <t>4.46 kWh</t>
+        </is>
+      </c>
+      <c r="AX109" t="inlineStr">
+        <is>
+          <t>125.84 kWh</t>
+        </is>
+      </c>
+      <c r="AY109" t="inlineStr">
+        <is>
+          <t>2839.24 kWh</t>
+        </is>
+      </c>
+      <c r="AZ109" t="inlineStr">
+        <is>
+          <t>10.17 kWh</t>
+        </is>
+      </c>
+      <c r="BA109" t="inlineStr">
+        <is>
+          <t>485.89 kWh</t>
+        </is>
+      </c>
+      <c r="BB109" t="inlineStr">
+        <is>
+          <t>10047.06 kWh</t>
+        </is>
+      </c>
+      <c r="BC109" t="inlineStr">
+        <is>
+          <t>19.0 °C</t>
+        </is>
+      </c>
+      <c r="BD109" t="inlineStr">
+        <is>
+          <t>--.- °C</t>
+        </is>
+      </c>
+      <c r="BE109" t="inlineStr">
+        <is>
+          <t>--.- %</t>
+        </is>
+      </c>
+      <c r="BF109" t="inlineStr">
+        <is>
+          <t>39 %</t>
+        </is>
+      </c>
+      <c r="BG109" t="inlineStr">
+        <is>
+          <t>--.- %</t>
+        </is>
+      </c>
+      <c r="BH109" t="inlineStr">
+        <is>
+          <t>39 %</t>
+        </is>
+      </c>
+      <c r="BI109" t="inlineStr">
+        <is>
+          <t>136462364</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>2022-04-30 16:10:37</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>18.8 °C</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>24.5 °C</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>13.8 °C</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>**.* °C</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>23.4 °C</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>**.* °C</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>27 %</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>**.* %</t>
+        </is>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>0 mV</t>
+        </is>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>0 mV</t>
+        </is>
+      </c>
+      <c r="N110" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="O110" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="P110" t="inlineStr">
+        <is>
+          <t>**.* mV</t>
+        </is>
+      </c>
+      <c r="Q110" t="inlineStr">
+        <is>
+          <t>**.* mV</t>
+        </is>
+      </c>
+      <c r="R110" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="S110" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="T110" t="inlineStr">
+        <is>
+          <t>25 %</t>
+        </is>
+      </c>
+      <c r="U110" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="V110" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="W110" t="inlineStr">
+        <is>
+          <t>21 %</t>
+        </is>
+      </c>
+      <c r="X110" t="inlineStr">
+        <is>
+          <t>78 %</t>
+        </is>
+      </c>
+      <c r="Y110" t="inlineStr">
+        <is>
+          <t>#.## g/m³</t>
+        </is>
+      </c>
+      <c r="Z110" t="inlineStr">
+        <is>
+          <t>5.67 g/m³</t>
+        </is>
+      </c>
+      <c r="AA110" t="inlineStr">
+        <is>
+          <t>STANDBY</t>
+        </is>
+      </c>
+      <c r="AB110" t="inlineStr">
+        <is>
+          <t>0:00-0:00</t>
+        </is>
+      </c>
+      <c r="AC110" t="inlineStr">
+        <is>
+          <t>STANDBY           0:00</t>
+        </is>
+      </c>
+      <c r="AD110" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="AE110" t="inlineStr">
+        <is>
+          <t>18.9 °C</t>
+        </is>
+      </c>
+      <c r="AF110" t="inlineStr">
+        <is>
+          <t>24.6 °C</t>
+        </is>
+      </c>
+      <c r="AG110" t="inlineStr">
+        <is>
+          <t>13.9 °C</t>
+        </is>
+      </c>
+      <c r="AH110" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI110" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AJ110" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AK110" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AL110" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AM110" t="inlineStr">
+        <is>
+          <t>21 %</t>
+        </is>
+      </c>
+      <c r="AN110" t="inlineStr">
+        <is>
+          <t>83 %</t>
+        </is>
+      </c>
+      <c r="AO110" t="inlineStr">
+        <is>
+          <t>480 W</t>
+        </is>
+      </c>
+      <c r="AP110" t="inlineStr">
+        <is>
+          <t>161 W</t>
+        </is>
+      </c>
+      <c r="AQ110" t="inlineStr">
+        <is>
+          <t>126 W</t>
+        </is>
+      </c>
+      <c r="AR110" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="AS110" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="AT110" t="inlineStr">
+        <is>
+          <t>5.05 kWh</t>
+        </is>
+      </c>
+      <c r="AU110" t="inlineStr">
+        <is>
+          <t>150.71 kWh</t>
+        </is>
+      </c>
+      <c r="AV110" t="inlineStr">
+        <is>
+          <t>3466.93 kWh</t>
+        </is>
+      </c>
+      <c r="AW110" t="inlineStr">
+        <is>
+          <t>4.51 kWh</t>
+        </is>
+      </c>
+      <c r="AX110" t="inlineStr">
+        <is>
+          <t>125.89 kWh</t>
+        </is>
+      </c>
+      <c r="AY110" t="inlineStr">
+        <is>
+          <t>2839.30 kWh</t>
+        </is>
+      </c>
+      <c r="AZ110" t="inlineStr">
+        <is>
+          <t>11.12 kWh</t>
+        </is>
+      </c>
+      <c r="BA110" t="inlineStr">
+        <is>
+          <t>486.84 kWh</t>
+        </is>
+      </c>
+      <c r="BB110" t="inlineStr">
+        <is>
+          <t>10048.01 kWh</t>
+        </is>
+      </c>
+      <c r="BC110" t="inlineStr">
+        <is>
+          <t>19.0 °C</t>
+        </is>
+      </c>
+      <c r="BD110" t="inlineStr">
+        <is>
+          <t>--.- °C</t>
+        </is>
+      </c>
+      <c r="BE110" t="inlineStr">
+        <is>
+          <t>--.- %</t>
+        </is>
+      </c>
+      <c r="BF110" t="inlineStr">
+        <is>
+          <t>27 %</t>
+        </is>
+      </c>
+      <c r="BG110" t="inlineStr">
+        <is>
+          <t>--.- %</t>
+        </is>
+      </c>
+      <c r="BH110" t="inlineStr">
+        <is>
+          <t>27 %</t>
+        </is>
+      </c>
+      <c r="BI110" t="inlineStr">
+        <is>
+          <t>136462364</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>2022-05-01 09:05:30</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>19.0 °C</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>24.4 °C</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>7.6 °C</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>**.* °C</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>23.7 °C</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>**.* °C</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>40 %</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>**.* %</t>
+        </is>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>0 mV</t>
+        </is>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>0 mV</t>
+        </is>
+      </c>
+      <c r="N111" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="O111" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="P111" t="inlineStr">
+        <is>
+          <t>**.* mV</t>
+        </is>
+      </c>
+      <c r="Q111" t="inlineStr">
+        <is>
+          <t>**.* mV</t>
+        </is>
+      </c>
+      <c r="R111" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="S111" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="T111" t="inlineStr">
+        <is>
+          <t>51 %</t>
+        </is>
+      </c>
+      <c r="U111" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="V111" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="W111" t="inlineStr">
+        <is>
+          <t>22 %</t>
+        </is>
+      </c>
+      <c r="X111" t="inlineStr">
+        <is>
+          <t>75 %</t>
+        </is>
+      </c>
+      <c r="Y111" t="inlineStr">
+        <is>
+          <t>#.## g/m³</t>
+        </is>
+      </c>
+      <c r="Z111" t="inlineStr">
+        <is>
+          <t>8.55 g/m³</t>
+        </is>
+      </c>
+      <c r="AA111" t="inlineStr">
+        <is>
+          <t>STANDBY</t>
+        </is>
+      </c>
+      <c r="AB111" t="inlineStr">
+        <is>
+          <t>0:00-0:00</t>
+        </is>
+      </c>
+      <c r="AC111" t="inlineStr">
+        <is>
+          <t>STANDBY           0:00</t>
+        </is>
+      </c>
+      <c r="AD111" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="AE111" t="inlineStr">
+        <is>
+          <t>19.0 °C</t>
+        </is>
+      </c>
+      <c r="AF111" t="inlineStr">
+        <is>
+          <t>24.6 °C</t>
+        </is>
+      </c>
+      <c r="AG111" t="inlineStr">
+        <is>
+          <t>7.6 °C</t>
+        </is>
+      </c>
+      <c r="AH111" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI111" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AJ111" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AK111" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AL111" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AM111" t="inlineStr">
+        <is>
+          <t>22 %</t>
+        </is>
+      </c>
+      <c r="AN111" t="inlineStr">
+        <is>
+          <t>88 %</t>
+        </is>
+      </c>
+      <c r="AO111" t="inlineStr">
+        <is>
+          <t>811 W</t>
+        </is>
+      </c>
+      <c r="AP111" t="inlineStr">
+        <is>
+          <t>292 W</t>
+        </is>
+      </c>
+      <c r="AQ111" t="inlineStr">
+        <is>
+          <t>256 W</t>
+        </is>
+      </c>
+      <c r="AR111" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="AS111" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="AT111" t="inlineStr">
+        <is>
+          <t>3.73 kWh</t>
+        </is>
+      </c>
+      <c r="AU111" t="inlineStr">
+        <is>
+          <t>145.73 kWh</t>
+        </is>
+      </c>
+      <c r="AV111" t="inlineStr">
+        <is>
+          <t>3472.99 kWh</t>
+        </is>
+      </c>
+      <c r="AW111" t="inlineStr">
+        <is>
+          <t>3.43 kWh</t>
+        </is>
+      </c>
+      <c r="AX111" t="inlineStr">
+        <is>
+          <t>121.02 kWh</t>
+        </is>
+      </c>
+      <c r="AY111" t="inlineStr">
+        <is>
+          <t>2844.74 kWh</t>
+        </is>
+      </c>
+      <c r="AZ111" t="inlineStr">
+        <is>
+          <t>7.13 kWh</t>
+        </is>
+      </c>
+      <c r="BA111" t="inlineStr">
+        <is>
+          <t>482.94 kWh</t>
+        </is>
+      </c>
+      <c r="BB111" t="inlineStr">
+        <is>
+          <t>10061.56 kWh</t>
+        </is>
+      </c>
+      <c r="BC111" t="inlineStr">
+        <is>
+          <t>19.0 °C</t>
+        </is>
+      </c>
+      <c r="BD111" t="inlineStr">
+        <is>
+          <t>--.- °C</t>
+        </is>
+      </c>
+      <c r="BE111" t="inlineStr">
+        <is>
+          <t>--.- %</t>
+        </is>
+      </c>
+      <c r="BF111" t="inlineStr">
+        <is>
+          <t>40 %</t>
+        </is>
+      </c>
+      <c r="BG111" t="inlineStr">
+        <is>
+          <t>--.- %</t>
+        </is>
+      </c>
+      <c r="BH111" t="inlineStr">
+        <is>
+          <t>40 %</t>
+        </is>
+      </c>
+      <c r="BI111" t="inlineStr">
+        <is>
+          <t>136462364</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SampleData.xlsx
+++ b/SampleData.xlsx
@@ -412,7 +412,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BI111"/>
+  <dimension ref="A1:BI114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
@@ -34537,6 +34537,927 @@
         </is>
       </c>
     </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>2022-05-02 16:48:41</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>18.8 °C</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>24.8 °C</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>14.6 °C</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>**.* °C</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>24.7 °C</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>**.* °C</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>35 %</t>
+        </is>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>**.* %</t>
+        </is>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>0 mV</t>
+        </is>
+      </c>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>0 mV</t>
+        </is>
+      </c>
+      <c r="N112" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="O112" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="P112" t="inlineStr">
+        <is>
+          <t>**.* mV</t>
+        </is>
+      </c>
+      <c r="Q112" t="inlineStr">
+        <is>
+          <t>**.* mV</t>
+        </is>
+      </c>
+      <c r="R112" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="S112" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="T112" t="inlineStr">
+        <is>
+          <t>22 %</t>
+        </is>
+      </c>
+      <c r="U112" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="V112" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="W112" t="inlineStr">
+        <is>
+          <t>23 %</t>
+        </is>
+      </c>
+      <c r="X112" t="inlineStr">
+        <is>
+          <t>81 %</t>
+        </is>
+      </c>
+      <c r="Y112" t="inlineStr">
+        <is>
+          <t>#.## g/m³</t>
+        </is>
+      </c>
+      <c r="Z112" t="inlineStr">
+        <is>
+          <t>7.92 g/m³</t>
+        </is>
+      </c>
+      <c r="AA112" t="inlineStr">
+        <is>
+          <t>STANDBY</t>
+        </is>
+      </c>
+      <c r="AB112" t="inlineStr">
+        <is>
+          <t>0:00-0:00</t>
+        </is>
+      </c>
+      <c r="AC112" t="inlineStr">
+        <is>
+          <t>STANDBY           0:00</t>
+        </is>
+      </c>
+      <c r="AD112" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="AE112" t="inlineStr">
+        <is>
+          <t>19.1 °C</t>
+        </is>
+      </c>
+      <c r="AF112" t="inlineStr">
+        <is>
+          <t>24.9 °C</t>
+        </is>
+      </c>
+      <c r="AG112" t="inlineStr">
+        <is>
+          <t>14.6 °C</t>
+        </is>
+      </c>
+      <c r="AH112" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI112" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AJ112" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AK112" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AL112" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AM112" t="inlineStr">
+        <is>
+          <t>23 %</t>
+        </is>
+      </c>
+      <c r="AN112" t="inlineStr">
+        <is>
+          <t>85 %</t>
+        </is>
+      </c>
+      <c r="AO112" t="inlineStr">
+        <is>
+          <t>470 W</t>
+        </is>
+      </c>
+      <c r="AP112" t="inlineStr">
+        <is>
+          <t>133 W</t>
+        </is>
+      </c>
+      <c r="AQ112" t="inlineStr">
+        <is>
+          <t>98 W</t>
+        </is>
+      </c>
+      <c r="AR112" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="AS112" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="AT112" t="inlineStr">
+        <is>
+          <t>4.85 kWh</t>
+        </is>
+      </c>
+      <c r="AU112" t="inlineStr">
+        <is>
+          <t>150.39 kWh</t>
+        </is>
+      </c>
+      <c r="AV112" t="inlineStr">
+        <is>
+          <t>3481.05 kWh</t>
+        </is>
+      </c>
+      <c r="AW112" t="inlineStr">
+        <is>
+          <t>4.28 kWh</t>
+        </is>
+      </c>
+      <c r="AX112" t="inlineStr">
+        <is>
+          <t>125.26 kWh</t>
+        </is>
+      </c>
+      <c r="AY112" t="inlineStr">
+        <is>
+          <t>2851.67 kWh</t>
+        </is>
+      </c>
+      <c r="AZ112" t="inlineStr">
+        <is>
+          <t>11.51 kWh</t>
+        </is>
+      </c>
+      <c r="BA112" t="inlineStr">
+        <is>
+          <t>495.55 kWh</t>
+        </is>
+      </c>
+      <c r="BB112" t="inlineStr">
+        <is>
+          <t>10082.54 kWh</t>
+        </is>
+      </c>
+      <c r="BC112" t="inlineStr">
+        <is>
+          <t>19.0 °C</t>
+        </is>
+      </c>
+      <c r="BD112" t="inlineStr">
+        <is>
+          <t>--.- °C</t>
+        </is>
+      </c>
+      <c r="BE112" t="inlineStr">
+        <is>
+          <t>--.- %</t>
+        </is>
+      </c>
+      <c r="BF112" t="inlineStr">
+        <is>
+          <t>35 %</t>
+        </is>
+      </c>
+      <c r="BG112" t="inlineStr">
+        <is>
+          <t>--.- %</t>
+        </is>
+      </c>
+      <c r="BH112" t="inlineStr">
+        <is>
+          <t>35 %</t>
+        </is>
+      </c>
+      <c r="BI112" t="inlineStr">
+        <is>
+          <t>136462364</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>2022-05-03 16:50:39</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>19.1 °C</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>25.5 °C</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>9.6 °C</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>**.* °C</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>24.3 °C</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>**.* °C</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>39 %</t>
+        </is>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>**.* %</t>
+        </is>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>0 mV</t>
+        </is>
+      </c>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>0 mV</t>
+        </is>
+      </c>
+      <c r="N113" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="O113" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="P113" t="inlineStr">
+        <is>
+          <t>**.* mV</t>
+        </is>
+      </c>
+      <c r="Q113" t="inlineStr">
+        <is>
+          <t>**.* mV</t>
+        </is>
+      </c>
+      <c r="R113" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="S113" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="T113" t="inlineStr">
+        <is>
+          <t>36 %</t>
+        </is>
+      </c>
+      <c r="U113" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="V113" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="W113" t="inlineStr">
+        <is>
+          <t>23 %</t>
+        </is>
+      </c>
+      <c r="X113" t="inlineStr">
+        <is>
+          <t>80 %</t>
+        </is>
+      </c>
+      <c r="Y113" t="inlineStr">
+        <is>
+          <t>#.## g/m³</t>
+        </is>
+      </c>
+      <c r="Z113" t="inlineStr">
+        <is>
+          <t>8.63 g/m³</t>
+        </is>
+      </c>
+      <c r="AA113" t="inlineStr">
+        <is>
+          <t>STANDBY</t>
+        </is>
+      </c>
+      <c r="AB113" t="inlineStr">
+        <is>
+          <t>0:00-0:00</t>
+        </is>
+      </c>
+      <c r="AC113" t="inlineStr">
+        <is>
+          <t>STANDBY           0:00</t>
+        </is>
+      </c>
+      <c r="AD113" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="AE113" t="inlineStr">
+        <is>
+          <t>19.1 °C</t>
+        </is>
+      </c>
+      <c r="AF113" t="inlineStr">
+        <is>
+          <t>25.5 °C</t>
+        </is>
+      </c>
+      <c r="AG113" t="inlineStr">
+        <is>
+          <t>9.7 °C</t>
+        </is>
+      </c>
+      <c r="AH113" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI113" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AJ113" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AK113" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AL113" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AM113" t="inlineStr">
+        <is>
+          <t>23 %</t>
+        </is>
+      </c>
+      <c r="AN113" t="inlineStr">
+        <is>
+          <t>86 %</t>
+        </is>
+      </c>
+      <c r="AO113" t="inlineStr">
+        <is>
+          <t>731 W</t>
+        </is>
+      </c>
+      <c r="AP113" t="inlineStr">
+        <is>
+          <t>221 W</t>
+        </is>
+      </c>
+      <c r="AQ113" t="inlineStr">
+        <is>
+          <t>185 W</t>
+        </is>
+      </c>
+      <c r="AR113" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="AS113" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="AT113" t="inlineStr">
+        <is>
+          <t>3.52 kWh</t>
+        </is>
+      </c>
+      <c r="AU113" t="inlineStr">
+        <is>
+          <t>154.56 kWh</t>
+        </is>
+      </c>
+      <c r="AV113" t="inlineStr">
+        <is>
+          <t>3486.01 kWh</t>
+        </is>
+      </c>
+      <c r="AW113" t="inlineStr">
+        <is>
+          <t>2.95 kWh</t>
+        </is>
+      </c>
+      <c r="AX113" t="inlineStr">
+        <is>
+          <t>129.37 kWh</t>
+        </is>
+      </c>
+      <c r="AY113" t="inlineStr">
+        <is>
+          <t>2855.78 kWh</t>
+        </is>
+      </c>
+      <c r="AZ113" t="inlineStr">
+        <is>
+          <t>10.66 kWh</t>
+        </is>
+      </c>
+      <c r="BA113" t="inlineStr">
+        <is>
+          <t>504.08 kWh</t>
+        </is>
+      </c>
+      <c r="BB113" t="inlineStr">
+        <is>
+          <t>10098.09 kWh</t>
+        </is>
+      </c>
+      <c r="BC113" t="inlineStr">
+        <is>
+          <t>19.0 °C</t>
+        </is>
+      </c>
+      <c r="BD113" t="inlineStr">
+        <is>
+          <t>--.- °C</t>
+        </is>
+      </c>
+      <c r="BE113" t="inlineStr">
+        <is>
+          <t>--.- %</t>
+        </is>
+      </c>
+      <c r="BF113" t="inlineStr">
+        <is>
+          <t>39 %</t>
+        </is>
+      </c>
+      <c r="BG113" t="inlineStr">
+        <is>
+          <t>--.- %</t>
+        </is>
+      </c>
+      <c r="BH113" t="inlineStr">
+        <is>
+          <t>39 %</t>
+        </is>
+      </c>
+      <c r="BI113" t="inlineStr">
+        <is>
+          <t>136462364</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>2022-05-04 17:12:59</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>18.9 °C</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>26.1 °C</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>12.3 °C</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>**.* °C</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>24.4 °C</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>**.* °C</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>34 %</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>**.* %</t>
+        </is>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>0 mV</t>
+        </is>
+      </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>0 mV</t>
+        </is>
+      </c>
+      <c r="N114" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="O114" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="P114" t="inlineStr">
+        <is>
+          <t>**.* mV</t>
+        </is>
+      </c>
+      <c r="Q114" t="inlineStr">
+        <is>
+          <t>**.* mV</t>
+        </is>
+      </c>
+      <c r="R114" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="S114" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="T114" t="inlineStr">
+        <is>
+          <t>27 %</t>
+        </is>
+      </c>
+      <c r="U114" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="V114" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="W114" t="inlineStr">
+        <is>
+          <t>24 %</t>
+        </is>
+      </c>
+      <c r="X114" t="inlineStr">
+        <is>
+          <t>82 %</t>
+        </is>
+      </c>
+      <c r="Y114" t="inlineStr">
+        <is>
+          <t>#.## g/m³</t>
+        </is>
+      </c>
+      <c r="Z114" t="inlineStr">
+        <is>
+          <t>7.55 g/m³</t>
+        </is>
+      </c>
+      <c r="AA114" t="inlineStr">
+        <is>
+          <t>STANDBY</t>
+        </is>
+      </c>
+      <c r="AB114" t="inlineStr">
+        <is>
+          <t>0:00-0:00</t>
+        </is>
+      </c>
+      <c r="AC114" t="inlineStr">
+        <is>
+          <t>STANDBY           0:00</t>
+        </is>
+      </c>
+      <c r="AD114" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="AE114" t="inlineStr">
+        <is>
+          <t>18.9 °C</t>
+        </is>
+      </c>
+      <c r="AF114" t="inlineStr">
+        <is>
+          <t>26.1 °C</t>
+        </is>
+      </c>
+      <c r="AG114" t="inlineStr">
+        <is>
+          <t>12.3 °C</t>
+        </is>
+      </c>
+      <c r="AH114" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI114" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AJ114" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AK114" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AL114" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AM114" t="inlineStr">
+        <is>
+          <t>24 %</t>
+        </is>
+      </c>
+      <c r="AN114" t="inlineStr">
+        <is>
+          <t>85 %</t>
+        </is>
+      </c>
+      <c r="AO114" t="inlineStr">
+        <is>
+          <t>641 W</t>
+        </is>
+      </c>
+      <c r="AP114" t="inlineStr">
+        <is>
+          <t>180 W</t>
+        </is>
+      </c>
+      <c r="AQ114" t="inlineStr">
+        <is>
+          <t>145 W</t>
+        </is>
+      </c>
+      <c r="AR114" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="AS114" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="AT114" t="inlineStr">
+        <is>
+          <t>4.83 kWh</t>
+        </is>
+      </c>
+      <c r="AU114" t="inlineStr">
+        <is>
+          <t>161.17 kWh</t>
+        </is>
+      </c>
+      <c r="AV114" t="inlineStr">
+        <is>
+          <t>3493.44 kWh</t>
+        </is>
+      </c>
+      <c r="AW114" t="inlineStr">
+        <is>
+          <t>4.26 kWh</t>
+        </is>
+      </c>
+      <c r="AX114" t="inlineStr">
+        <is>
+          <t>135.93 kWh</t>
+        </is>
+      </c>
+      <c r="AY114" t="inlineStr">
+        <is>
+          <t>2862.34 kWh</t>
+        </is>
+      </c>
+      <c r="AZ114" t="inlineStr">
+        <is>
+          <t>10.96 kWh</t>
+        </is>
+      </c>
+      <c r="BA114" t="inlineStr">
+        <is>
+          <t>513.43 kWh</t>
+        </is>
+      </c>
+      <c r="BB114" t="inlineStr">
+        <is>
+          <t>10115.71 kWh</t>
+        </is>
+      </c>
+      <c r="BC114" t="inlineStr">
+        <is>
+          <t>19.0 °C</t>
+        </is>
+      </c>
+      <c r="BD114" t="inlineStr">
+        <is>
+          <t>--.- °C</t>
+        </is>
+      </c>
+      <c r="BE114" t="inlineStr">
+        <is>
+          <t>--.- %</t>
+        </is>
+      </c>
+      <c r="BF114" t="inlineStr">
+        <is>
+          <t>34 %</t>
+        </is>
+      </c>
+      <c r="BG114" t="inlineStr">
+        <is>
+          <t>--.- %</t>
+        </is>
+      </c>
+      <c r="BH114" t="inlineStr">
+        <is>
+          <t>34 %</t>
+        </is>
+      </c>
+      <c r="BI114" t="inlineStr">
+        <is>
+          <t>136462364</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SampleData.xlsx
+++ b/SampleData.xlsx
@@ -412,7 +412,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BI114"/>
+  <dimension ref="A1:BI116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
@@ -35458,6 +35458,620 @@
         </is>
       </c>
     </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>2022-05-06 16:30:03</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>20.9 °C</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>25.7 °C</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>19.9 °C</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>**.* °C</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>24.3 °C</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>**.* °C</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>40 %</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>**.* %</t>
+        </is>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>0 mV</t>
+        </is>
+      </c>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>0 mV</t>
+        </is>
+      </c>
+      <c r="N115" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="O115" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="P115" t="inlineStr">
+        <is>
+          <t>**.* mV</t>
+        </is>
+      </c>
+      <c r="Q115" t="inlineStr">
+        <is>
+          <t>**.* mV</t>
+        </is>
+      </c>
+      <c r="R115" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="S115" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="T115" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="U115" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="V115" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="W115" t="inlineStr">
+        <is>
+          <t>26 %</t>
+        </is>
+      </c>
+      <c r="X115" t="inlineStr">
+        <is>
+          <t>--.- %</t>
+        </is>
+      </c>
+      <c r="Y115" t="inlineStr">
+        <is>
+          <t>#.## g/m³</t>
+        </is>
+      </c>
+      <c r="Z115" t="inlineStr">
+        <is>
+          <t>8.85 g/m³</t>
+        </is>
+      </c>
+      <c r="AA115" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="AB115" t="inlineStr">
+        <is>
+          <t>7:00-22:00</t>
+        </is>
+      </c>
+      <c r="AC115" t="inlineStr">
+        <is>
+          <t>AWAY              22:00</t>
+        </is>
+      </c>
+      <c r="AD115" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="AE115" t="inlineStr">
+        <is>
+          <t>21.1 °C</t>
+        </is>
+      </c>
+      <c r="AF115" t="inlineStr">
+        <is>
+          <t>25.8 °C</t>
+        </is>
+      </c>
+      <c r="AG115" t="inlineStr">
+        <is>
+          <t>19.8 °C</t>
+        </is>
+      </c>
+      <c r="AH115" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI115" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AJ115" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AK115" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AL115" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AM115" t="inlineStr">
+        <is>
+          <t>26 %</t>
+        </is>
+      </c>
+      <c r="AN115" t="inlineStr">
+        <is>
+          <t>--.- %</t>
+        </is>
+      </c>
+      <c r="AO115" t="inlineStr">
+        <is>
+          <t>0 W</t>
+        </is>
+      </c>
+      <c r="AP115" t="inlineStr">
+        <is>
+          <t>26 W</t>
+        </is>
+      </c>
+      <c r="AQ115" t="inlineStr">
+        <is>
+          <t>0 W</t>
+        </is>
+      </c>
+      <c r="AR115" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="AS115" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="AT115" t="inlineStr">
+        <is>
+          <t>1.35 kWh</t>
+        </is>
+      </c>
+      <c r="AU115" t="inlineStr">
+        <is>
+          <t>168.24 kWh</t>
+        </is>
+      </c>
+      <c r="AV115" t="inlineStr">
+        <is>
+          <t>3502.11 kWh</t>
+        </is>
+      </c>
+      <c r="AW115" t="inlineStr">
+        <is>
+          <t>0.93 kWh</t>
+        </is>
+      </c>
+      <c r="AX115" t="inlineStr">
+        <is>
+          <t>143.25 kWh</t>
+        </is>
+      </c>
+      <c r="AY115" t="inlineStr">
+        <is>
+          <t>2869.65 kWh</t>
+        </is>
+      </c>
+      <c r="AZ115" t="inlineStr">
+        <is>
+          <t>3.29 kWh</t>
+        </is>
+      </c>
+      <c r="BA115" t="inlineStr">
+        <is>
+          <t>516.27 kWh</t>
+        </is>
+      </c>
+      <c r="BB115" t="inlineStr">
+        <is>
+          <t>10136.09 kWh</t>
+        </is>
+      </c>
+      <c r="BC115" t="inlineStr">
+        <is>
+          <t>19.0 °C</t>
+        </is>
+      </c>
+      <c r="BD115" t="inlineStr">
+        <is>
+          <t>--.- °C</t>
+        </is>
+      </c>
+      <c r="BE115" t="inlineStr">
+        <is>
+          <t>--.- %</t>
+        </is>
+      </c>
+      <c r="BF115" t="inlineStr">
+        <is>
+          <t>40 %</t>
+        </is>
+      </c>
+      <c r="BG115" t="inlineStr">
+        <is>
+          <t>--.- %</t>
+        </is>
+      </c>
+      <c r="BH115" t="inlineStr">
+        <is>
+          <t>40 %</t>
+        </is>
+      </c>
+      <c r="BI115" t="inlineStr">
+        <is>
+          <t>146030596</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>2022-05-08 15:59:18</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>18.8 °C</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>24.5 °C</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>14.6 °C</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>**.* °C</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>24.1 °C</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>**.* °C</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>47 %</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>**.* %</t>
+        </is>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>0 mV</t>
+        </is>
+      </c>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>0 mV</t>
+        </is>
+      </c>
+      <c r="N116" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="O116" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="P116" t="inlineStr">
+        <is>
+          <t>**.* mV</t>
+        </is>
+      </c>
+      <c r="Q116" t="inlineStr">
+        <is>
+          <t>**.* mV</t>
+        </is>
+      </c>
+      <c r="R116" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="S116" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="T116" t="inlineStr">
+        <is>
+          <t>19 %</t>
+        </is>
+      </c>
+      <c r="U116" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="V116" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="W116" t="inlineStr">
+        <is>
+          <t>27 %</t>
+        </is>
+      </c>
+      <c r="X116" t="inlineStr">
+        <is>
+          <t>82 %</t>
+        </is>
+      </c>
+      <c r="Y116" t="inlineStr">
+        <is>
+          <t>#.## g/m³</t>
+        </is>
+      </c>
+      <c r="Z116" t="inlineStr">
+        <is>
+          <t>10.27 g/m³</t>
+        </is>
+      </c>
+      <c r="AA116" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="AB116" t="inlineStr">
+        <is>
+          <t>7:00-22:00</t>
+        </is>
+      </c>
+      <c r="AC116" t="inlineStr">
+        <is>
+          <t>AWAY              22:00</t>
+        </is>
+      </c>
+      <c r="AD116" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="AE116" t="inlineStr">
+        <is>
+          <t>18.9 °C</t>
+        </is>
+      </c>
+      <c r="AF116" t="inlineStr">
+        <is>
+          <t>24.5 °C</t>
+        </is>
+      </c>
+      <c r="AG116" t="inlineStr">
+        <is>
+          <t>14.8 °C</t>
+        </is>
+      </c>
+      <c r="AH116" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI116" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AJ116" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AK116" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AL116" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AM116" t="inlineStr">
+        <is>
+          <t>27 %</t>
+        </is>
+      </c>
+      <c r="AN116" t="inlineStr">
+        <is>
+          <t>80 %</t>
+        </is>
+      </c>
+      <c r="AO116" t="inlineStr">
+        <is>
+          <t>427 W</t>
+        </is>
+      </c>
+      <c r="AP116" t="inlineStr">
+        <is>
+          <t>119 W</t>
+        </is>
+      </c>
+      <c r="AQ116" t="inlineStr">
+        <is>
+          <t>83 W</t>
+        </is>
+      </c>
+      <c r="AR116" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="AS116" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="AT116" t="inlineStr">
+        <is>
+          <t>1.95 kWh</t>
+        </is>
+      </c>
+      <c r="AU116" t="inlineStr">
+        <is>
+          <t>171.92 kWh</t>
+        </is>
+      </c>
+      <c r="AV116" t="inlineStr">
+        <is>
+          <t>3507.39 kWh</t>
+        </is>
+      </c>
+      <c r="AW116" t="inlineStr">
+        <is>
+          <t>1.51 kWh</t>
+        </is>
+      </c>
+      <c r="AX116" t="inlineStr">
+        <is>
+          <t>147.19 kWh</t>
+        </is>
+      </c>
+      <c r="AY116" t="inlineStr">
+        <is>
+          <t>2873.60 kWh</t>
+        </is>
+      </c>
+      <c r="AZ116" t="inlineStr">
+        <is>
+          <t>5.34 kWh</t>
+        </is>
+      </c>
+      <c r="BA116" t="inlineStr">
+        <is>
+          <t>515.05 kWh</t>
+        </is>
+      </c>
+      <c r="BB116" t="inlineStr">
+        <is>
+          <t>10151.21 kWh</t>
+        </is>
+      </c>
+      <c r="BC116" t="inlineStr">
+        <is>
+          <t>19.0 °C</t>
+        </is>
+      </c>
+      <c r="BD116" t="inlineStr">
+        <is>
+          <t>--.- °C</t>
+        </is>
+      </c>
+      <c r="BE116" t="inlineStr">
+        <is>
+          <t>--.- %</t>
+        </is>
+      </c>
+      <c r="BF116" t="inlineStr">
+        <is>
+          <t>47 %</t>
+        </is>
+      </c>
+      <c r="BG116" t="inlineStr">
+        <is>
+          <t>--.- %</t>
+        </is>
+      </c>
+      <c r="BH116" t="inlineStr">
+        <is>
+          <t>47 %</t>
+        </is>
+      </c>
+      <c r="BI116" t="inlineStr">
+        <is>
+          <t>146030620</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SampleData.xlsx
+++ b/SampleData.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BI125"/>
+  <dimension ref="A1:BI130"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
@@ -27999,7 +27999,6 @@
           <t>8.97</t>
         </is>
       </c>
-      <c r="AA125" t="inlineStr"/>
       <c r="AB125" t="inlineStr">
         <is>
           <t>7002200</t>
@@ -28010,7 +28009,6 @@
           <t>2200</t>
         </is>
       </c>
-      <c r="AD125" t="inlineStr"/>
       <c r="AE125" t="inlineStr">
         <is>
           <t>21.3</t>
@@ -28164,6 +28162,1493 @@
       <c r="BI125" t="inlineStr">
         <is>
           <t>146030596</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>2022-05-15 08:44:43</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>18.7</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>24.1</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>11.5</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>23.9</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N126" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="O126" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="P126" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q126" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R126" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="S126" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T126" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="U126" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V126" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="W126" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="X126" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="Y126" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z126" t="inlineStr">
+        <is>
+          <t>10.15</t>
+        </is>
+      </c>
+      <c r="AB126" t="inlineStr">
+        <is>
+          <t>7002200</t>
+        </is>
+      </c>
+      <c r="AC126" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="AE126" t="inlineStr">
+        <is>
+          <t>18.9</t>
+        </is>
+      </c>
+      <c r="AF126" t="inlineStr">
+        <is>
+          <t>24.1</t>
+        </is>
+      </c>
+      <c r="AG126" t="inlineStr">
+        <is>
+          <t>11.6</t>
+        </is>
+      </c>
+      <c r="AH126" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI126" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AJ126" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AK126" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AL126" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AM126" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="AN126" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="AO126" t="inlineStr">
+        <is>
+          <t>571</t>
+        </is>
+      </c>
+      <c r="AP126" t="inlineStr">
+        <is>
+          <t>215</t>
+        </is>
+      </c>
+      <c r="AQ126" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+      <c r="AR126" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="AS126" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="AT126" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="AU126" t="inlineStr">
+        <is>
+          <t>160.07</t>
+        </is>
+      </c>
+      <c r="AV126" t="inlineStr">
+        <is>
+          <t>3527.31</t>
+        </is>
+      </c>
+      <c r="AW126" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="AX126" t="inlineStr">
+        <is>
+          <t>136.89</t>
+        </is>
+      </c>
+      <c r="AY126" t="inlineStr">
+        <is>
+          <t>2888.97</t>
+        </is>
+      </c>
+      <c r="AZ126" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="BA126" t="inlineStr">
+        <is>
+          <t>421.40</t>
+        </is>
+      </c>
+      <c r="BB126" t="inlineStr">
+        <is>
+          <t>10206.91</t>
+        </is>
+      </c>
+      <c r="BC126" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="BD126" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BE126" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BF126" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="BG126" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BH126" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="BI126" t="inlineStr">
+        <is>
+          <t>144982044</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>2022-05-16 18:03:04</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>14.3</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>24.5</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N127" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="O127" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="P127" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q127" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R127" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="S127" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T127" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="U127" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V127" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="W127" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="X127" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="Y127" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z127" t="inlineStr">
+        <is>
+          <t>9.61</t>
+        </is>
+      </c>
+      <c r="AB127" t="inlineStr">
+        <is>
+          <t>7002200</t>
+        </is>
+      </c>
+      <c r="AC127" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="AE127" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="AF127" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="AG127" t="inlineStr">
+        <is>
+          <t>14.4</t>
+        </is>
+      </c>
+      <c r="AH127" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI127" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AJ127" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AK127" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AL127" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AM127" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="AN127" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="AO127" t="inlineStr">
+        <is>
+          <t>475</t>
+        </is>
+      </c>
+      <c r="AP127" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="AQ127" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="AR127" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="AS127" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="AT127" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="AU127" t="inlineStr">
+        <is>
+          <t>155.65</t>
+        </is>
+      </c>
+      <c r="AV127" t="inlineStr">
+        <is>
+          <t>3530.58</t>
+        </is>
+      </c>
+      <c r="AW127" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="AX127" t="inlineStr">
+        <is>
+          <t>132.40</t>
+        </is>
+      </c>
+      <c r="AY127" t="inlineStr">
+        <is>
+          <t>2891.28</t>
+        </is>
+      </c>
+      <c r="AZ127" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="BA127" t="inlineStr">
+        <is>
+          <t>408.73</t>
+        </is>
+      </c>
+      <c r="BB127" t="inlineStr">
+        <is>
+          <t>10216.31</t>
+        </is>
+      </c>
+      <c r="BC127" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="BD127" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BE127" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BF127" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="BG127" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BH127" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="BI127" t="inlineStr">
+        <is>
+          <t>146030620</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>2022-05-17 17:40:46</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>18.9</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>24.4</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>12.1</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>23.7</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N128" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="O128" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="P128" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q128" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R128" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="S128" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T128" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="U128" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V128" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="W128" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="X128" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="Y128" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z128" t="inlineStr">
+        <is>
+          <t>11.11</t>
+        </is>
+      </c>
+      <c r="AB128" t="inlineStr">
+        <is>
+          <t>7002200</t>
+        </is>
+      </c>
+      <c r="AC128" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="AE128" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="AF128" t="inlineStr">
+        <is>
+          <t>24.3</t>
+        </is>
+      </c>
+      <c r="AG128" t="inlineStr">
+        <is>
+          <t>12.3</t>
+        </is>
+      </c>
+      <c r="AH128" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI128" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AJ128" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AK128" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AL128" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AM128" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="AN128" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="AO128" t="inlineStr">
+        <is>
+          <t>550</t>
+        </is>
+      </c>
+      <c r="AP128" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="AQ128" t="inlineStr">
+        <is>
+          <t>164</t>
+        </is>
+      </c>
+      <c r="AR128" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="AS128" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="AT128" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="AU128" t="inlineStr">
+        <is>
+          <t>152.04</t>
+        </is>
+      </c>
+      <c r="AV128" t="inlineStr">
+        <is>
+          <t>3534.44</t>
+        </is>
+      </c>
+      <c r="AW128" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="AX128" t="inlineStr">
+        <is>
+          <t>128.95</t>
+        </is>
+      </c>
+      <c r="AY128" t="inlineStr">
+        <is>
+          <t>2894.43</t>
+        </is>
+      </c>
+      <c r="AZ128" t="inlineStr">
+        <is>
+          <t>8.16</t>
+        </is>
+      </c>
+      <c r="BA128" t="inlineStr">
+        <is>
+          <t>399.38</t>
+        </is>
+      </c>
+      <c r="BB128" t="inlineStr">
+        <is>
+          <t>10226.98</t>
+        </is>
+      </c>
+      <c r="BC128" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="BD128" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BE128" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BF128" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="BG128" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BH128" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="BI128" t="inlineStr">
+        <is>
+          <t>146030620</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>2022-05-18 12:34:48</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>20.6</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>24.6</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>19.3</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>23.3</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N129" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="O129" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="P129" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q129" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R129" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S129" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T129" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U129" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V129" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="W129" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="X129" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Y129" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z129" t="inlineStr">
+        <is>
+          <t>8.56</t>
+        </is>
+      </c>
+      <c r="AB129" t="inlineStr">
+        <is>
+          <t>7002200</t>
+        </is>
+      </c>
+      <c r="AC129" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="AE129" t="inlineStr">
+        <is>
+          <t>20.4</t>
+        </is>
+      </c>
+      <c r="AF129" t="inlineStr">
+        <is>
+          <t>24.6</t>
+        </is>
+      </c>
+      <c r="AG129" t="inlineStr">
+        <is>
+          <t>19.2</t>
+        </is>
+      </c>
+      <c r="AH129" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI129" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AJ129" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AK129" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AL129" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AM129" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="AN129" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AO129" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP129" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="AQ129" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR129" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="AS129" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="AT129" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="AU129" t="inlineStr">
+        <is>
+          <t>147.01</t>
+        </is>
+      </c>
+      <c r="AV129" t="inlineStr">
+        <is>
+          <t>3536.89</t>
+        </is>
+      </c>
+      <c r="AW129" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="AX129" t="inlineStr">
+        <is>
+          <t>124.28</t>
+        </is>
+      </c>
+      <c r="AY129" t="inlineStr">
+        <is>
+          <t>2896.36</t>
+        </is>
+      </c>
+      <c r="AZ129" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="BA129" t="inlineStr">
+        <is>
+          <t>386.33</t>
+        </is>
+      </c>
+      <c r="BB129" t="inlineStr">
+        <is>
+          <t>10233.56</t>
+        </is>
+      </c>
+      <c r="BC129" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="BD129" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BE129" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BF129" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="BG129" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BH129" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="BI129" t="inlineStr">
+        <is>
+          <t>144982020</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>2022-05-18 17:01:42</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>18.9</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>25.7</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>17.2</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>24.1</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N130" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="O130" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="P130" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q130" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R130" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S130" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T130" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U130" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V130" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="W130" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="X130" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Y130" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z130" t="inlineStr">
+        <is>
+          <t>9.18</t>
+        </is>
+      </c>
+      <c r="AA130" t="inlineStr"/>
+      <c r="AB130" t="inlineStr">
+        <is>
+          <t>7002200</t>
+        </is>
+      </c>
+      <c r="AC130" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="AD130" t="inlineStr"/>
+      <c r="AE130" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="AF130" t="inlineStr">
+        <is>
+          <t>25.8</t>
+        </is>
+      </c>
+      <c r="AG130" t="inlineStr">
+        <is>
+          <t>17.3</t>
+        </is>
+      </c>
+      <c r="AH130" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI130" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AJ130" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AK130" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AL130" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AM130" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="AN130" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AO130" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP130" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="AQ130" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR130" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="AS130" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="AT130" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="AU130" t="inlineStr">
+        <is>
+          <t>147.13</t>
+        </is>
+      </c>
+      <c r="AV130" t="inlineStr">
+        <is>
+          <t>3537.01</t>
+        </is>
+      </c>
+      <c r="AW130" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="AX130" t="inlineStr">
+        <is>
+          <t>124.28</t>
+        </is>
+      </c>
+      <c r="AY130" t="inlineStr">
+        <is>
+          <t>2896.36</t>
+        </is>
+      </c>
+      <c r="AZ130" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="BA130" t="inlineStr">
+        <is>
+          <t>386.34</t>
+        </is>
+      </c>
+      <c r="BB130" t="inlineStr">
+        <is>
+          <t>10233.56</t>
+        </is>
+      </c>
+      <c r="BC130" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="BD130" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BE130" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BF130" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="BG130" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BH130" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="BI130" t="inlineStr">
+        <is>
+          <t>144982020</t>
         </is>
       </c>
     </row>

--- a/SampleData.xlsx
+++ b/SampleData.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BI130"/>
+  <dimension ref="A1:BI131"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
@@ -29484,7 +29484,6 @@
           <t>9.18</t>
         </is>
       </c>
-      <c r="AA130" t="inlineStr"/>
       <c r="AB130" t="inlineStr">
         <is>
           <t>7002200</t>
@@ -29495,7 +29494,6 @@
           <t>2200</t>
         </is>
       </c>
-      <c r="AD130" t="inlineStr"/>
       <c r="AE130" t="inlineStr">
         <is>
           <t>19.0</t>
@@ -29647,6 +29645,305 @@
         </is>
       </c>
       <c r="BI130" t="inlineStr">
+        <is>
+          <t>144982020</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>2022-05-19 17:54:36</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>19.2</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>26.4</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>17.1</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>24.7</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N131" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="O131" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="P131" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q131" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R131" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S131" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T131" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U131" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V131" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="W131" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="X131" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Y131" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z131" t="inlineStr">
+        <is>
+          <t>11.98</t>
+        </is>
+      </c>
+      <c r="AA131" t="inlineStr"/>
+      <c r="AB131" t="inlineStr">
+        <is>
+          <t>7002200</t>
+        </is>
+      </c>
+      <c r="AC131" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="AD131" t="inlineStr"/>
+      <c r="AE131" t="inlineStr">
+        <is>
+          <t>19.2</t>
+        </is>
+      </c>
+      <c r="AF131" t="inlineStr">
+        <is>
+          <t>26.4</t>
+        </is>
+      </c>
+      <c r="AG131" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="AH131" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI131" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AJ131" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AK131" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AL131" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AM131" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="AN131" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AO131" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP131" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="AQ131" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR131" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="AS131" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="AT131" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="AU131" t="inlineStr">
+        <is>
+          <t>142.87</t>
+        </is>
+      </c>
+      <c r="AV131" t="inlineStr">
+        <is>
+          <t>3538.69</t>
+        </is>
+      </c>
+      <c r="AW131" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="AX131" t="inlineStr">
+        <is>
+          <t>120.19</t>
+        </is>
+      </c>
+      <c r="AY131" t="inlineStr">
+        <is>
+          <t>2897.39</t>
+        </is>
+      </c>
+      <c r="AZ131" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="BA131" t="inlineStr">
+        <is>
+          <t>375.36</t>
+        </is>
+      </c>
+      <c r="BB131" t="inlineStr">
+        <is>
+          <t>10238.29</t>
+        </is>
+      </c>
+      <c r="BC131" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="BD131" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BE131" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BF131" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="BG131" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BH131" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="BI131" t="inlineStr">
         <is>
           <t>144982020</t>
         </is>

--- a/SampleData.xlsx
+++ b/SampleData.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BI131"/>
+  <dimension ref="A1:BI132"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
@@ -29781,7 +29781,6 @@
           <t>11.98</t>
         </is>
       </c>
-      <c r="AA131" t="inlineStr"/>
       <c r="AB131" t="inlineStr">
         <is>
           <t>7002200</t>
@@ -29792,7 +29791,6 @@
           <t>2200</t>
         </is>
       </c>
-      <c r="AD131" t="inlineStr"/>
       <c r="AE131" t="inlineStr">
         <is>
           <t>19.2</t>
@@ -29946,6 +29944,305 @@
       <c r="BI131" t="inlineStr">
         <is>
           <t>144982020</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>2022-05-20 16:42:14</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>19.1</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>13.2</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>23.5</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N132" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="O132" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="P132" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q132" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R132" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="S132" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T132" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="U132" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V132" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="W132" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="X132" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="Y132" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z132" t="inlineStr">
+        <is>
+          <t>9.51</t>
+        </is>
+      </c>
+      <c r="AA132" t="inlineStr"/>
+      <c r="AB132" t="inlineStr">
+        <is>
+          <t>7002200</t>
+        </is>
+      </c>
+      <c r="AC132" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="AD132" t="inlineStr"/>
+      <c r="AE132" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="AF132" t="inlineStr">
+        <is>
+          <t>23.9</t>
+        </is>
+      </c>
+      <c r="AG132" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="AH132" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI132" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AJ132" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AK132" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AL132" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AM132" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="AN132" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="AO132" t="inlineStr">
+        <is>
+          <t>491</t>
+        </is>
+      </c>
+      <c r="AP132" t="inlineStr">
+        <is>
+          <t>177</t>
+        </is>
+      </c>
+      <c r="AQ132" t="inlineStr">
+        <is>
+          <t>141</t>
+        </is>
+      </c>
+      <c r="AR132" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="AS132" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="AT132" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="AU132" t="inlineStr">
+        <is>
+          <t>140.31</t>
+        </is>
+      </c>
+      <c r="AV132" t="inlineStr">
+        <is>
+          <t>3541.15</t>
+        </is>
+      </c>
+      <c r="AW132" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="AX132" t="inlineStr">
+        <is>
+          <t>117.80</t>
+        </is>
+      </c>
+      <c r="AY132" t="inlineStr">
+        <is>
+          <t>2899.19</t>
+        </is>
+      </c>
+      <c r="AZ132" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="BA132" t="inlineStr">
+        <is>
+          <t>368.85</t>
+        </is>
+      </c>
+      <c r="BB132" t="inlineStr">
+        <is>
+          <t>10245.88</t>
+        </is>
+      </c>
+      <c r="BC132" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="BD132" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BE132" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BF132" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="BG132" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BH132" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="BI132" t="inlineStr">
+        <is>
+          <t>146030620</t>
         </is>
       </c>
     </row>

--- a/SampleData.xlsx
+++ b/SampleData.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BI132"/>
+  <dimension ref="A1:BI134"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
@@ -30078,7 +30078,6 @@
           <t>9.51</t>
         </is>
       </c>
-      <c r="AA132" t="inlineStr"/>
       <c r="AB132" t="inlineStr">
         <is>
           <t>7002200</t>
@@ -30089,7 +30088,6 @@
           <t>2200</t>
         </is>
       </c>
-      <c r="AD132" t="inlineStr"/>
       <c r="AE132" t="inlineStr">
         <is>
           <t>19.0</t>
@@ -30243,6 +30241,602 @@
       <c r="BI132" t="inlineStr">
         <is>
           <t>146030620</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>2022-05-24 17:06:48</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>23.7</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>26.5</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>22.7</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>24.4</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N133" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="O133" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="P133" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q133" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R133" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S133" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T133" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U133" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V133" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="W133" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="X133" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Y133" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z133" t="inlineStr">
+        <is>
+          <t>7.34</t>
+        </is>
+      </c>
+      <c r="AB133" t="inlineStr">
+        <is>
+          <t>7002200</t>
+        </is>
+      </c>
+      <c r="AC133" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="AE133" t="inlineStr">
+        <is>
+          <t>23.9</t>
+        </is>
+      </c>
+      <c r="AF133" t="inlineStr">
+        <is>
+          <t>26.5</t>
+        </is>
+      </c>
+      <c r="AG133" t="inlineStr">
+        <is>
+          <t>22.8</t>
+        </is>
+      </c>
+      <c r="AH133" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI133" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AJ133" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AK133" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AL133" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AM133" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="AN133" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AO133" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP133" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="AQ133" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR133" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="AS133" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="AT133" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="AU133" t="inlineStr">
+        <is>
+          <t>125.40</t>
+        </is>
+      </c>
+      <c r="AV133" t="inlineStr">
+        <is>
+          <t>3548.86</t>
+        </is>
+      </c>
+      <c r="AW133" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="AX133" t="inlineStr">
+        <is>
+          <t>103.66</t>
+        </is>
+      </c>
+      <c r="AY133" t="inlineStr">
+        <is>
+          <t>2904.34</t>
+        </is>
+      </c>
+      <c r="AZ133" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="BA133" t="inlineStr">
+        <is>
+          <t>326.82</t>
+        </is>
+      </c>
+      <c r="BB133" t="inlineStr">
+        <is>
+          <t>10267.42</t>
+        </is>
+      </c>
+      <c r="BC133" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="BD133" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BE133" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BF133" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="BG133" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BH133" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="BI133" t="inlineStr">
+        <is>
+          <t>146030596</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>2022-05-25 17:44:46</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>20.8</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>25.7</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>19.5</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>24.3</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N134" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="O134" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="P134" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q134" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R134" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S134" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T134" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U134" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V134" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="W134" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="X134" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Y134" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z134" t="inlineStr">
+        <is>
+          <t>9.28</t>
+        </is>
+      </c>
+      <c r="AA134" t="inlineStr"/>
+      <c r="AB134" t="inlineStr">
+        <is>
+          <t>7002200</t>
+        </is>
+      </c>
+      <c r="AC134" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="AD134" t="inlineStr"/>
+      <c r="AE134" t="inlineStr">
+        <is>
+          <t>20.7</t>
+        </is>
+      </c>
+      <c r="AF134" t="inlineStr">
+        <is>
+          <t>25.7</t>
+        </is>
+      </c>
+      <c r="AG134" t="inlineStr">
+        <is>
+          <t>19.6</t>
+        </is>
+      </c>
+      <c r="AH134" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI134" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AJ134" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AK134" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AL134" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AM134" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="AN134" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AO134" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP134" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="AQ134" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR134" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="AS134" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="AT134" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="AU134" t="inlineStr">
+        <is>
+          <t>118.95</t>
+        </is>
+      </c>
+      <c r="AV134" t="inlineStr">
+        <is>
+          <t>3549.54</t>
+        </is>
+      </c>
+      <c r="AW134" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="AX134" t="inlineStr">
+        <is>
+          <t>97.53</t>
+        </is>
+      </c>
+      <c r="AY134" t="inlineStr">
+        <is>
+          <t>2904.48</t>
+        </is>
+      </c>
+      <c r="AZ134" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="BA134" t="inlineStr">
+        <is>
+          <t>308.34</t>
+        </is>
+      </c>
+      <c r="BB134" t="inlineStr">
+        <is>
+          <t>10268.61</t>
+        </is>
+      </c>
+      <c r="BC134" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="BD134" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BE134" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BF134" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="BG134" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BH134" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="BI134" t="inlineStr">
+        <is>
+          <t>146030596</t>
         </is>
       </c>
     </row>

--- a/SampleData.xlsx
+++ b/SampleData.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BI134"/>
+  <dimension ref="A1:BI141"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
@@ -30672,7 +30672,6 @@
           <t>9.28</t>
         </is>
       </c>
-      <c r="AA134" t="inlineStr"/>
       <c r="AB134" t="inlineStr">
         <is>
           <t>7002200</t>
@@ -30683,7 +30682,6 @@
           <t>2200</t>
         </is>
       </c>
-      <c r="AD134" t="inlineStr"/>
       <c r="AE134" t="inlineStr">
         <is>
           <t>20.7</t>
@@ -30835,6 +30833,2087 @@
         </is>
       </c>
       <c r="BI134" t="inlineStr">
+        <is>
+          <t>146030596</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>2022-05-29 15:57:30</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>19.4</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>25.1</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>17.9</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>22.8</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N135" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="O135" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="P135" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q135" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R135" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S135" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T135" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U135" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V135" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="W135" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="X135" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Y135" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z135" t="inlineStr">
+        <is>
+          <t>8.72</t>
+        </is>
+      </c>
+      <c r="AB135" t="inlineStr">
+        <is>
+          <t>7002200</t>
+        </is>
+      </c>
+      <c r="AC135" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="AE135" t="inlineStr">
+        <is>
+          <t>19.4</t>
+        </is>
+      </c>
+      <c r="AF135" t="inlineStr">
+        <is>
+          <t>25.2</t>
+        </is>
+      </c>
+      <c r="AG135" t="inlineStr">
+        <is>
+          <t>17.9</t>
+        </is>
+      </c>
+      <c r="AH135" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI135" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AJ135" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AK135" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AL135" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AM135" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="AN135" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AO135" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP135" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="AQ135" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR135" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="AS135" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="AT135" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="AU135" t="inlineStr">
+        <is>
+          <t>89.49</t>
+        </is>
+      </c>
+      <c r="AV135" t="inlineStr">
+        <is>
+          <t>3551.36</t>
+        </is>
+      </c>
+      <c r="AW135" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="AX135" t="inlineStr">
+        <is>
+          <t>70.19</t>
+        </is>
+      </c>
+      <c r="AY135" t="inlineStr">
+        <is>
+          <t>2904.97</t>
+        </is>
+      </c>
+      <c r="AZ135" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="BA135" t="inlineStr">
+        <is>
+          <t>237.04</t>
+        </is>
+      </c>
+      <c r="BB135" t="inlineStr">
+        <is>
+          <t>10273.93</t>
+        </is>
+      </c>
+      <c r="BC135" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="BD135" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BE135" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BF135" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="BG135" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BH135" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="BI135" t="inlineStr">
+        <is>
+          <t>146030596</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>2022-05-30 16:30:54</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>21.4</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>25.5</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>20.2</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>23.7</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N136" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="O136" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="P136" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q136" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R136" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S136" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T136" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U136" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V136" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="W136" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="X136" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Y136" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z136" t="inlineStr">
+        <is>
+          <t>10.68</t>
+        </is>
+      </c>
+      <c r="AB136" t="inlineStr">
+        <is>
+          <t>7002200</t>
+        </is>
+      </c>
+      <c r="AC136" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="AE136" t="inlineStr">
+        <is>
+          <t>21.4</t>
+        </is>
+      </c>
+      <c r="AF136" t="inlineStr">
+        <is>
+          <t>25.5</t>
+        </is>
+      </c>
+      <c r="AG136" t="inlineStr">
+        <is>
+          <t>20.3</t>
+        </is>
+      </c>
+      <c r="AH136" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI136" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AJ136" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AK136" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AL136" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AM136" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="AN136" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AO136" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP136" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="AQ136" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR136" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="AS136" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="AT136" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="AU136" t="inlineStr">
+        <is>
+          <t>84.04</t>
+        </is>
+      </c>
+      <c r="AV136" t="inlineStr">
+        <is>
+          <t>3553.31</t>
+        </is>
+      </c>
+      <c r="AW136" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="AX136" t="inlineStr">
+        <is>
+          <t>64.94</t>
+        </is>
+      </c>
+      <c r="AY136" t="inlineStr">
+        <is>
+          <t>2906.25</t>
+        </is>
+      </c>
+      <c r="AZ136" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="BA136" t="inlineStr">
+        <is>
+          <t>225.10</t>
+        </is>
+      </c>
+      <c r="BB136" t="inlineStr">
+        <is>
+          <t>10279.54</t>
+        </is>
+      </c>
+      <c r="BC136" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="BD136" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BE136" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BF136" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="BG136" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BH136" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="BI136" t="inlineStr">
+        <is>
+          <t>146030596</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>2022-05-31 17:33:07</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>19.1</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>24.8</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>13.2</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>23.8</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N137" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="O137" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="P137" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q137" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R137" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="S137" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T137" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="U137" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V137" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="W137" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="X137" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="Y137" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z137" t="inlineStr">
+        <is>
+          <t>11.60</t>
+        </is>
+      </c>
+      <c r="AB137" t="inlineStr">
+        <is>
+          <t>7002200</t>
+        </is>
+      </c>
+      <c r="AC137" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="AE137" t="inlineStr">
+        <is>
+          <t>19.2</t>
+        </is>
+      </c>
+      <c r="AF137" t="inlineStr">
+        <is>
+          <t>24.7</t>
+        </is>
+      </c>
+      <c r="AG137" t="inlineStr">
+        <is>
+          <t>13.2</t>
+        </is>
+      </c>
+      <c r="AH137" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI137" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AJ137" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AK137" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AL137" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AM137" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="AN137" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="AO137" t="inlineStr">
+        <is>
+          <t>555</t>
+        </is>
+      </c>
+      <c r="AP137" t="inlineStr">
+        <is>
+          <t>172</t>
+        </is>
+      </c>
+      <c r="AQ137" t="inlineStr">
+        <is>
+          <t>136</t>
+        </is>
+      </c>
+      <c r="AR137" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="AS137" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="AT137" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="AU137" t="inlineStr">
+        <is>
+          <t>79.12</t>
+        </is>
+      </c>
+      <c r="AV137" t="inlineStr">
+        <is>
+          <t>3555.32</t>
+        </is>
+      </c>
+      <c r="AW137" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="AX137" t="inlineStr">
+        <is>
+          <t>60.23</t>
+        </is>
+      </c>
+      <c r="AY137" t="inlineStr">
+        <is>
+          <t>2907.62</t>
+        </is>
+      </c>
+      <c r="AZ137" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="BA137" t="inlineStr">
+        <is>
+          <t>214.66</t>
+        </is>
+      </c>
+      <c r="BB137" t="inlineStr">
+        <is>
+          <t>10285.68</t>
+        </is>
+      </c>
+      <c r="BC137" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="BD137" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BE137" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BF137" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="BG137" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BH137" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="BI137" t="inlineStr">
+        <is>
+          <t>146030620</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>2022-06-01 12:49:56</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>21.2</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>20.5</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>24.3</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N138" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="O138" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="P138" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q138" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R138" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S138" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T138" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U138" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V138" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="W138" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="X138" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Y138" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z138" t="inlineStr">
+        <is>
+          <t>10.39</t>
+        </is>
+      </c>
+      <c r="AB138" t="inlineStr">
+        <is>
+          <t>7002200</t>
+        </is>
+      </c>
+      <c r="AC138" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="AE138" t="inlineStr">
+        <is>
+          <t>21.1</t>
+        </is>
+      </c>
+      <c r="AF138" t="inlineStr">
+        <is>
+          <t>25.1</t>
+        </is>
+      </c>
+      <c r="AG138" t="inlineStr">
+        <is>
+          <t>20.3</t>
+        </is>
+      </c>
+      <c r="AH138" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI138" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AJ138" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AK138" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AL138" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AM138" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="AN138" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AO138" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP138" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="AQ138" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR138" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="AS138" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="AT138" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="AU138" t="inlineStr">
+        <is>
+          <t>74.92</t>
+        </is>
+      </c>
+      <c r="AV138" t="inlineStr">
+        <is>
+          <t>3557.42</t>
+        </is>
+      </c>
+      <c r="AW138" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="AX138" t="inlineStr">
+        <is>
+          <t>56.36</t>
+        </is>
+      </c>
+      <c r="AY138" t="inlineStr">
+        <is>
+          <t>2909.19</t>
+        </is>
+      </c>
+      <c r="AZ138" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="BA138" t="inlineStr">
+        <is>
+          <t>204.06</t>
+        </is>
+      </c>
+      <c r="BB138" t="inlineStr">
+        <is>
+          <t>10291.49</t>
+        </is>
+      </c>
+      <c r="BC138" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="BD138" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BE138" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BF138" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="BG138" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BH138" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="BI138" t="inlineStr">
+        <is>
+          <t>144982020</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>2022-06-02 16:24:45</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>24.1</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>14.1</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>24.1</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N139" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="O139" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="P139" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q139" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R139" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="S139" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T139" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="U139" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V139" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="W139" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="X139" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="Y139" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z139" t="inlineStr">
+        <is>
+          <t>10.50</t>
+        </is>
+      </c>
+      <c r="AB139" t="inlineStr">
+        <is>
+          <t>7002200</t>
+        </is>
+      </c>
+      <c r="AC139" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="AE139" t="inlineStr">
+        <is>
+          <t>18.7</t>
+        </is>
+      </c>
+      <c r="AF139" t="inlineStr">
+        <is>
+          <t>24.2</t>
+        </is>
+      </c>
+      <c r="AG139" t="inlineStr">
+        <is>
+          <t>14.1</t>
+        </is>
+      </c>
+      <c r="AH139" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI139" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AJ139" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AK139" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AL139" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AM139" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="AN139" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="AO139" t="inlineStr">
+        <is>
+          <t>464</t>
+        </is>
+      </c>
+      <c r="AP139" t="inlineStr">
+        <is>
+          <t>170</t>
+        </is>
+      </c>
+      <c r="AQ139" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="AR139" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="AS139" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="AT139" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="AU139" t="inlineStr">
+        <is>
+          <t>70.78</t>
+        </is>
+      </c>
+      <c r="AV139" t="inlineStr">
+        <is>
+          <t>3559.38</t>
+        </is>
+      </c>
+      <c r="AW139" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="AX139" t="inlineStr">
+        <is>
+          <t>52.40</t>
+        </is>
+      </c>
+      <c r="AY139" t="inlineStr">
+        <is>
+          <t>2910.48</t>
+        </is>
+      </c>
+      <c r="AZ139" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="BA139" t="inlineStr">
+        <is>
+          <t>191.93</t>
+        </is>
+      </c>
+      <c r="BB139" t="inlineStr">
+        <is>
+          <t>10296.69</t>
+        </is>
+      </c>
+      <c r="BC139" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="BD139" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BE139" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BF139" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="BG139" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BH139" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="BI139" t="inlineStr">
+        <is>
+          <t>144982044</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>2022-06-03 10:33:24</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>18.8</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>24.6</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>15.9</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>23.7</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N140" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="O140" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="P140" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q140" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R140" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="S140" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T140" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="U140" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V140" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="W140" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="X140" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="Y140" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z140" t="inlineStr">
+        <is>
+          <t>10.47</t>
+        </is>
+      </c>
+      <c r="AB140" t="inlineStr">
+        <is>
+          <t>7002200</t>
+        </is>
+      </c>
+      <c r="AC140" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="AE140" t="inlineStr">
+        <is>
+          <t>18.7</t>
+        </is>
+      </c>
+      <c r="AF140" t="inlineStr">
+        <is>
+          <t>24.6</t>
+        </is>
+      </c>
+      <c r="AG140" t="inlineStr">
+        <is>
+          <t>15.9</t>
+        </is>
+      </c>
+      <c r="AH140" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI140" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AJ140" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AK140" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AL140" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AM140" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="AN140" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="AO140" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="AP140" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="AQ140" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="AR140" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="AS140" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="AT140" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="AU140" t="inlineStr">
+        <is>
+          <t>64.85</t>
+        </is>
+      </c>
+      <c r="AV140" t="inlineStr">
+        <is>
+          <t>3561.13</t>
+        </is>
+      </c>
+      <c r="AW140" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="AX140" t="inlineStr">
+        <is>
+          <t>46.82</t>
+        </is>
+      </c>
+      <c r="AY140" t="inlineStr">
+        <is>
+          <t>2911.72</t>
+        </is>
+      </c>
+      <c r="AZ140" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="BA140" t="inlineStr">
+        <is>
+          <t>180.52</t>
+        </is>
+      </c>
+      <c r="BB140" t="inlineStr">
+        <is>
+          <t>10302.82</t>
+        </is>
+      </c>
+      <c r="BC140" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="BD140" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BE140" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BF140" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="BG140" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BH140" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="BI140" t="inlineStr">
+        <is>
+          <t>146030620</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>2022-06-05 18:20:46</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>22.5</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>26.3</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>21.2</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>25.1</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N141" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="O141" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="P141" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q141" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R141" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S141" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T141" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U141" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V141" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="W141" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="X141" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Y141" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z141" t="inlineStr">
+        <is>
+          <t>10.64</t>
+        </is>
+      </c>
+      <c r="AA141" t="inlineStr"/>
+      <c r="AB141" t="inlineStr">
+        <is>
+          <t>7002200</t>
+        </is>
+      </c>
+      <c r="AC141" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="AD141" t="inlineStr"/>
+      <c r="AE141" t="inlineStr">
+        <is>
+          <t>22.5</t>
+        </is>
+      </c>
+      <c r="AF141" t="inlineStr">
+        <is>
+          <t>26.3</t>
+        </is>
+      </c>
+      <c r="AG141" t="inlineStr">
+        <is>
+          <t>21.2</t>
+        </is>
+      </c>
+      <c r="AH141" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI141" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AJ141" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AK141" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AL141" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AM141" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="AN141" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AO141" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP141" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="AQ141" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR141" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="AS141" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="AT141" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="AU141" t="inlineStr">
+        <is>
+          <t>60.76</t>
+        </is>
+      </c>
+      <c r="AV141" t="inlineStr">
+        <is>
+          <t>3563.36</t>
+        </is>
+      </c>
+      <c r="AW141" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="AX141" t="inlineStr">
+        <is>
+          <t>42.58</t>
+        </is>
+      </c>
+      <c r="AY141" t="inlineStr">
+        <is>
+          <t>2912.53</t>
+        </is>
+      </c>
+      <c r="AZ141" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="BA141" t="inlineStr">
+        <is>
+          <t>172.82</t>
+        </is>
+      </c>
+      <c r="BB141" t="inlineStr">
+        <is>
+          <t>10310.49</t>
+        </is>
+      </c>
+      <c r="BC141" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="BD141" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BE141" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BF141" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="BG141" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BH141" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="BI141" t="inlineStr">
         <is>
           <t>146030596</t>
         </is>

--- a/SampleData.xlsx
+++ b/SampleData.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BI141"/>
+  <dimension ref="A1:BI145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
@@ -32751,7 +32751,6 @@
           <t>10.64</t>
         </is>
       </c>
-      <c r="AA141" t="inlineStr"/>
       <c r="AB141" t="inlineStr">
         <is>
           <t>7002200</t>
@@ -32762,7 +32761,6 @@
           <t>2200</t>
         </is>
       </c>
-      <c r="AD141" t="inlineStr"/>
       <c r="AE141" t="inlineStr">
         <is>
           <t>22.5</t>
@@ -32916,6 +32914,1196 @@
       <c r="BI141" t="inlineStr">
         <is>
           <t>146030596</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>2022-06-06 09:15:53</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>20.7</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>25.7</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>19.4</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>24.5</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N142" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="O142" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="P142" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q142" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R142" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S142" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T142" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U142" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V142" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="W142" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="X142" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Y142" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z142" t="inlineStr">
+        <is>
+          <t>8.27</t>
+        </is>
+      </c>
+      <c r="AB142" t="inlineStr">
+        <is>
+          <t>7002200</t>
+        </is>
+      </c>
+      <c r="AC142" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="AE142" t="inlineStr">
+        <is>
+          <t>20.7</t>
+        </is>
+      </c>
+      <c r="AF142" t="inlineStr">
+        <is>
+          <t>25.6</t>
+        </is>
+      </c>
+      <c r="AG142" t="inlineStr">
+        <is>
+          <t>19.3</t>
+        </is>
+      </c>
+      <c r="AH142" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI142" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AJ142" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AK142" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AL142" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AM142" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="AN142" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AO142" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP142" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="AQ142" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR142" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="AS142" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="AT142" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="AU142" t="inlineStr">
+        <is>
+          <t>58.28</t>
+        </is>
+      </c>
+      <c r="AV142" t="inlineStr">
+        <is>
+          <t>3563.71</t>
+        </is>
+      </c>
+      <c r="AW142" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="AX142" t="inlineStr">
+        <is>
+          <t>40.50</t>
+        </is>
+      </c>
+      <c r="AY142" t="inlineStr">
+        <is>
+          <t>2912.59</t>
+        </is>
+      </c>
+      <c r="AZ142" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="BA142" t="inlineStr">
+        <is>
+          <t>165.60</t>
+        </is>
+      </c>
+      <c r="BB142" t="inlineStr">
+        <is>
+          <t>10311.47</t>
+        </is>
+      </c>
+      <c r="BC142" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="BD142" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BE142" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BF142" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="BG142" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BH142" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="BI142" t="inlineStr">
+        <is>
+          <t>146030596</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>2022-06-06 17:54:14</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>21.3</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>26.3</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>19.9</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>24.8</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N143" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="O143" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="P143" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q143" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R143" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S143" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T143" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U143" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V143" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="W143" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="X143" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Y143" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z143" t="inlineStr">
+        <is>
+          <t>8.86</t>
+        </is>
+      </c>
+      <c r="AB143" t="inlineStr">
+        <is>
+          <t>7002200</t>
+        </is>
+      </c>
+      <c r="AC143" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="AE143" t="inlineStr">
+        <is>
+          <t>21.2</t>
+        </is>
+      </c>
+      <c r="AF143" t="inlineStr">
+        <is>
+          <t>26.2</t>
+        </is>
+      </c>
+      <c r="AG143" t="inlineStr">
+        <is>
+          <t>19.8</t>
+        </is>
+      </c>
+      <c r="AH143" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI143" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AJ143" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AK143" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AL143" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AM143" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="AN143" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AO143" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP143" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="AQ143" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR143" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="AS143" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="AT143" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="AU143" t="inlineStr">
+        <is>
+          <t>58.51</t>
+        </is>
+      </c>
+      <c r="AV143" t="inlineStr">
+        <is>
+          <t>3563.94</t>
+        </is>
+      </c>
+      <c r="AW143" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="AX143" t="inlineStr">
+        <is>
+          <t>40.50</t>
+        </is>
+      </c>
+      <c r="AY143" t="inlineStr">
+        <is>
+          <t>2912.59</t>
+        </is>
+      </c>
+      <c r="AZ143" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="BA143" t="inlineStr">
+        <is>
+          <t>165.60</t>
+        </is>
+      </c>
+      <c r="BB143" t="inlineStr">
+        <is>
+          <t>10311.47</t>
+        </is>
+      </c>
+      <c r="BC143" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="BD143" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BE143" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BF143" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="BG143" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BH143" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="BI143" t="inlineStr">
+        <is>
+          <t>144982020</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>2022-06-07 09:11:43</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>21.2</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>26.4</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>20.3</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>24.4</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N144" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="O144" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="P144" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q144" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R144" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S144" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T144" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U144" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V144" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="W144" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="X144" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Y144" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z144" t="inlineStr">
+        <is>
+          <t>8.68</t>
+        </is>
+      </c>
+      <c r="AB144" t="inlineStr">
+        <is>
+          <t>7002200</t>
+        </is>
+      </c>
+      <c r="AC144" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="AE144" t="inlineStr">
+        <is>
+          <t>21.3</t>
+        </is>
+      </c>
+      <c r="AF144" t="inlineStr">
+        <is>
+          <t>26.4</t>
+        </is>
+      </c>
+      <c r="AG144" t="inlineStr">
+        <is>
+          <t>20.4</t>
+        </is>
+      </c>
+      <c r="AH144" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI144" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AJ144" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AK144" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AL144" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AM144" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="AN144" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AO144" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP144" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="AQ144" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR144" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="AS144" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="AT144" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="AU144" t="inlineStr">
+        <is>
+          <t>55.39</t>
+        </is>
+      </c>
+      <c r="AV144" t="inlineStr">
+        <is>
+          <t>3564.42</t>
+        </is>
+      </c>
+      <c r="AW144" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="AX144" t="inlineStr">
+        <is>
+          <t>37.74</t>
+        </is>
+      </c>
+      <c r="AY144" t="inlineStr">
+        <is>
+          <t>2912.74</t>
+        </is>
+      </c>
+      <c r="AZ144" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="BA144" t="inlineStr">
+        <is>
+          <t>157.37</t>
+        </is>
+      </c>
+      <c r="BB144" t="inlineStr">
+        <is>
+          <t>10313.12</t>
+        </is>
+      </c>
+      <c r="BC144" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="BD144" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BE144" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BF144" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="BG144" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BH144" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="BI144" t="inlineStr">
+        <is>
+          <t>146030596</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>2022-06-08 09:50:23</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>20.7</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>25.8</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>19.4</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>24.8</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N145" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="O145" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="P145" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q145" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R145" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S145" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T145" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U145" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V145" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="W145" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="X145" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Y145" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z145" t="inlineStr">
+        <is>
+          <t>12.06</t>
+        </is>
+      </c>
+      <c r="AA145" t="inlineStr"/>
+      <c r="AB145" t="inlineStr">
+        <is>
+          <t>7002200</t>
+        </is>
+      </c>
+      <c r="AC145" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="AD145" t="inlineStr"/>
+      <c r="AE145" t="inlineStr">
+        <is>
+          <t>20.8</t>
+        </is>
+      </c>
+      <c r="AF145" t="inlineStr">
+        <is>
+          <t>25.8</t>
+        </is>
+      </c>
+      <c r="AG145" t="inlineStr">
+        <is>
+          <t>19.4</t>
+        </is>
+      </c>
+      <c r="AH145" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI145" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AJ145" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AK145" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AL145" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AM145" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="AN145" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AO145" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP145" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="AQ145" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR145" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="AS145" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="AT145" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="AU145" t="inlineStr">
+        <is>
+          <t>51.95</t>
+        </is>
+      </c>
+      <c r="AV145" t="inlineStr">
+        <is>
+          <t>3564.94</t>
+        </is>
+      </c>
+      <c r="AW145" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AX145" t="inlineStr">
+        <is>
+          <t>34.50</t>
+        </is>
+      </c>
+      <c r="AY145" t="inlineStr">
+        <is>
+          <t>2912.74</t>
+        </is>
+      </c>
+      <c r="AZ145" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="BA145" t="inlineStr">
+        <is>
+          <t>147.15</t>
+        </is>
+      </c>
+      <c r="BB145" t="inlineStr">
+        <is>
+          <t>10313.41</t>
+        </is>
+      </c>
+      <c r="BC145" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="BD145" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BE145" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BF145" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="BG145" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BH145" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="BI145" t="inlineStr">
+        <is>
+          <t>144982020</t>
         </is>
       </c>
     </row>

--- a/SampleData.xlsx
+++ b/SampleData.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BI145"/>
+  <dimension ref="A1:BI146"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
@@ -33939,7 +33939,6 @@
           <t>12.06</t>
         </is>
       </c>
-      <c r="AA145" t="inlineStr"/>
       <c r="AB145" t="inlineStr">
         <is>
           <t>7002200</t>
@@ -33950,7 +33949,6 @@
           <t>2200</t>
         </is>
       </c>
-      <c r="AD145" t="inlineStr"/>
       <c r="AE145" t="inlineStr">
         <is>
           <t>20.8</t>
@@ -34102,6 +34100,305 @@
         </is>
       </c>
       <c r="BI145" t="inlineStr">
+        <is>
+          <t>144982020</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>2022-06-08 17:29:05</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>22.3</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>27.2</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>21.2</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>24.6</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M146" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N146" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="O146" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="P146" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q146" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R146" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S146" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T146" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U146" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V146" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="W146" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="X146" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Y146" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z146" t="inlineStr">
+        <is>
+          <t>11.69</t>
+        </is>
+      </c>
+      <c r="AA146" t="inlineStr"/>
+      <c r="AB146" t="inlineStr">
+        <is>
+          <t>7002200</t>
+        </is>
+      </c>
+      <c r="AC146" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="AD146" t="inlineStr"/>
+      <c r="AE146" t="inlineStr">
+        <is>
+          <t>22.2</t>
+        </is>
+      </c>
+      <c r="AF146" t="inlineStr">
+        <is>
+          <t>27.2</t>
+        </is>
+      </c>
+      <c r="AG146" t="inlineStr">
+        <is>
+          <t>21.2</t>
+        </is>
+      </c>
+      <c r="AH146" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI146" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AJ146" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AK146" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AL146" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AM146" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="AN146" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AO146" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP146" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="AQ146" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR146" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="AS146" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="AT146" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="AU146" t="inlineStr">
+        <is>
+          <t>52.15</t>
+        </is>
+      </c>
+      <c r="AV146" t="inlineStr">
+        <is>
+          <t>3565.14</t>
+        </is>
+      </c>
+      <c r="AW146" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AX146" t="inlineStr">
+        <is>
+          <t>34.50</t>
+        </is>
+      </c>
+      <c r="AY146" t="inlineStr">
+        <is>
+          <t>2912.74</t>
+        </is>
+      </c>
+      <c r="AZ146" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="BA146" t="inlineStr">
+        <is>
+          <t>147.15</t>
+        </is>
+      </c>
+      <c r="BB146" t="inlineStr">
+        <is>
+          <t>10313.42</t>
+        </is>
+      </c>
+      <c r="BC146" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="BD146" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BE146" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BF146" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="BG146" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BH146" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="BI146" t="inlineStr">
         <is>
           <t>144982020</t>
         </is>

--- a/SampleData.xlsx
+++ b/SampleData.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BI146"/>
+  <dimension ref="A1:BI149"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
@@ -34236,7 +34236,6 @@
           <t>11.69</t>
         </is>
       </c>
-      <c r="AA146" t="inlineStr"/>
       <c r="AB146" t="inlineStr">
         <is>
           <t>7002200</t>
@@ -34247,7 +34246,6 @@
           <t>2200</t>
         </is>
       </c>
-      <c r="AD146" t="inlineStr"/>
       <c r="AE146" t="inlineStr">
         <is>
           <t>22.2</t>
@@ -34401,6 +34399,899 @@
       <c r="BI146" t="inlineStr">
         <is>
           <t>144982020</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>2022-06-09 13:53:09</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>25.4</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>26.7</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>24.9</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>24.7</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M147" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="N147" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="O147" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="P147" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q147" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R147" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S147" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T147" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U147" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V147" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="W147" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="X147" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Y147" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z147" t="inlineStr">
+        <is>
+          <t>11.98</t>
+        </is>
+      </c>
+      <c r="AB147" t="inlineStr">
+        <is>
+          <t>7002200</t>
+        </is>
+      </c>
+      <c r="AC147" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="AE147" t="inlineStr">
+        <is>
+          <t>25.3</t>
+        </is>
+      </c>
+      <c r="AF147" t="inlineStr">
+        <is>
+          <t>26.7</t>
+        </is>
+      </c>
+      <c r="AG147" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="AH147" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI147" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AJ147" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AK147" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AL147" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AM147" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="AN147" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AO147" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP147" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="AQ147" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR147" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="AS147" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="AT147" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="AU147" t="inlineStr">
+        <is>
+          <t>50.38</t>
+        </is>
+      </c>
+      <c r="AV147" t="inlineStr">
+        <is>
+          <t>3565.54</t>
+        </is>
+      </c>
+      <c r="AW147" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AX147" t="inlineStr">
+        <is>
+          <t>32.98</t>
+        </is>
+      </c>
+      <c r="AY147" t="inlineStr">
+        <is>
+          <t>2912.74</t>
+        </is>
+      </c>
+      <c r="AZ147" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="BA147" t="inlineStr">
+        <is>
+          <t>142.06</t>
+        </is>
+      </c>
+      <c r="BB147" t="inlineStr">
+        <is>
+          <t>10313.91</t>
+        </is>
+      </c>
+      <c r="BC147" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="BD147" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BE147" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BF147" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="BG147" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BH147" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="BI147" t="inlineStr">
+        <is>
+          <t>146030596</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>2022-06-12 14:52:39</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>25.7</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>26.9</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>25.6</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M148" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="N148" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="O148" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="P148" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q148" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R148" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S148" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T148" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U148" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V148" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="W148" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="X148" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Y148" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z148" t="inlineStr">
+        <is>
+          <t>10.59</t>
+        </is>
+      </c>
+      <c r="AB148" t="inlineStr">
+        <is>
+          <t>7002200</t>
+        </is>
+      </c>
+      <c r="AC148" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="AE148" t="inlineStr">
+        <is>
+          <t>25.7</t>
+        </is>
+      </c>
+      <c r="AF148" t="inlineStr">
+        <is>
+          <t>26.9</t>
+        </is>
+      </c>
+      <c r="AG148" t="inlineStr">
+        <is>
+          <t>25.6</t>
+        </is>
+      </c>
+      <c r="AH148" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI148" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AJ148" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AK148" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AL148" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AM148" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="AN148" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AO148" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP148" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="AQ148" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR148" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="AS148" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="AT148" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="AU148" t="inlineStr">
+        <is>
+          <t>43.40</t>
+        </is>
+      </c>
+      <c r="AV148" t="inlineStr">
+        <is>
+          <t>3566.57</t>
+        </is>
+      </c>
+      <c r="AW148" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AX148" t="inlineStr">
+        <is>
+          <t>27.02</t>
+        </is>
+      </c>
+      <c r="AY148" t="inlineStr">
+        <is>
+          <t>2912.76</t>
+        </is>
+      </c>
+      <c r="AZ148" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="BA148" t="inlineStr">
+        <is>
+          <t>119.58</t>
+        </is>
+      </c>
+      <c r="BB148" t="inlineStr">
+        <is>
+          <t>10314.87</t>
+        </is>
+      </c>
+      <c r="BC148" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="BD148" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BE148" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BF148" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="BG148" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BH148" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="BI148" t="inlineStr">
+        <is>
+          <t>146030596</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>2022-06-13 09:14:01</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>20.4</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>26.5</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>18.7</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>25.1</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M149" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N149" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="O149" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="P149" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q149" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R149" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S149" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T149" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U149" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V149" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="W149" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="X149" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Y149" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z149" t="inlineStr">
+        <is>
+          <t>11.56</t>
+        </is>
+      </c>
+      <c r="AA149" t="inlineStr"/>
+      <c r="AB149" t="inlineStr">
+        <is>
+          <t>7002200</t>
+        </is>
+      </c>
+      <c r="AC149" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="AD149" t="inlineStr"/>
+      <c r="AE149" t="inlineStr">
+        <is>
+          <t>20.3</t>
+        </is>
+      </c>
+      <c r="AF149" t="inlineStr">
+        <is>
+          <t>26.4</t>
+        </is>
+      </c>
+      <c r="AG149" t="inlineStr">
+        <is>
+          <t>18.6</t>
+        </is>
+      </c>
+      <c r="AH149" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI149" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AJ149" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AK149" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AL149" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AM149" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="AN149" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AO149" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP149" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="AQ149" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR149" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="AS149" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="AT149" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="AU149" t="inlineStr">
+        <is>
+          <t>40.49</t>
+        </is>
+      </c>
+      <c r="AV149" t="inlineStr">
+        <is>
+          <t>3566.94</t>
+        </is>
+      </c>
+      <c r="AW149" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="AX149" t="inlineStr">
+        <is>
+          <t>24.47</t>
+        </is>
+      </c>
+      <c r="AY149" t="inlineStr">
+        <is>
+          <t>2912.78</t>
+        </is>
+      </c>
+      <c r="AZ149" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="BA149" t="inlineStr">
+        <is>
+          <t>110.66</t>
+        </is>
+      </c>
+      <c r="BB149" t="inlineStr">
+        <is>
+          <t>10315.48</t>
+        </is>
+      </c>
+      <c r="BC149" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="BD149" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BE149" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BF149" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="BG149" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BH149" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="BI149" t="inlineStr">
+        <is>
+          <t>146030596</t>
         </is>
       </c>
     </row>

--- a/SampleData.xlsx
+++ b/SampleData.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BI149"/>
+  <dimension ref="A1:BI150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
@@ -35127,7 +35127,6 @@
           <t>11.56</t>
         </is>
       </c>
-      <c r="AA149" t="inlineStr"/>
       <c r="AB149" t="inlineStr">
         <is>
           <t>7002200</t>
@@ -35138,7 +35137,6 @@
           <t>2200</t>
         </is>
       </c>
-      <c r="AD149" t="inlineStr"/>
       <c r="AE149" t="inlineStr">
         <is>
           <t>20.3</t>
@@ -35290,6 +35288,305 @@
         </is>
       </c>
       <c r="BI149" t="inlineStr">
+        <is>
+          <t>146030596</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>2022-06-14 10:00:32</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>20.1</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>26.5</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>18.9</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>24.6</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M150" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N150" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="O150" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="P150" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q150" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R150" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S150" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T150" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U150" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V150" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="W150" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="X150" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Y150" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z150" t="inlineStr">
+        <is>
+          <t>11.69</t>
+        </is>
+      </c>
+      <c r="AA150" t="inlineStr"/>
+      <c r="AB150" t="inlineStr">
+        <is>
+          <t>7002200</t>
+        </is>
+      </c>
+      <c r="AC150" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="AD150" t="inlineStr"/>
+      <c r="AE150" t="inlineStr">
+        <is>
+          <t>20.2</t>
+        </is>
+      </c>
+      <c r="AF150" t="inlineStr">
+        <is>
+          <t>26.5</t>
+        </is>
+      </c>
+      <c r="AG150" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="AH150" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI150" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AJ150" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AK150" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AL150" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AM150" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="AN150" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AO150" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP150" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="AQ150" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR150" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="AS150" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="AT150" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="AU150" t="inlineStr">
+        <is>
+          <t>38.81</t>
+        </is>
+      </c>
+      <c r="AV150" t="inlineStr">
+        <is>
+          <t>3567.76</t>
+        </is>
+      </c>
+      <c r="AW150" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="AX150" t="inlineStr">
+        <is>
+          <t>22.90</t>
+        </is>
+      </c>
+      <c r="AY150" t="inlineStr">
+        <is>
+          <t>2913.03</t>
+        </is>
+      </c>
+      <c r="AZ150" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="BA150" t="inlineStr">
+        <is>
+          <t>105.56</t>
+        </is>
+      </c>
+      <c r="BB150" t="inlineStr">
+        <is>
+          <t>10317.49</t>
+        </is>
+      </c>
+      <c r="BC150" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="BD150" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BE150" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BF150" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="BG150" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BH150" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="BI150" t="inlineStr">
         <is>
           <t>146030596</t>
         </is>

--- a/SampleData.xlsx
+++ b/SampleData.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BI150"/>
+  <dimension ref="A1:BI152"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
@@ -35424,7 +35424,6 @@
           <t>11.69</t>
         </is>
       </c>
-      <c r="AA150" t="inlineStr"/>
       <c r="AB150" t="inlineStr">
         <is>
           <t>7002200</t>
@@ -35435,7 +35434,6 @@
           <t>2200</t>
         </is>
       </c>
-      <c r="AD150" t="inlineStr"/>
       <c r="AE150" t="inlineStr">
         <is>
           <t>20.2</t>
@@ -35587,6 +35585,602 @@
         </is>
       </c>
       <c r="BI150" t="inlineStr">
+        <is>
+          <t>146030596</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>2022-06-14 19:11:23</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>20.7</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>26.5</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>19.1</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>24.8</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="I151" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M151" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N151" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="O151" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="P151" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q151" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R151" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S151" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T151" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U151" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V151" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="W151" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="X151" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Y151" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z151" t="inlineStr">
+        <is>
+          <t>11.14</t>
+        </is>
+      </c>
+      <c r="AB151" t="inlineStr">
+        <is>
+          <t>7002200</t>
+        </is>
+      </c>
+      <c r="AC151" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="AE151" t="inlineStr">
+        <is>
+          <t>20.7</t>
+        </is>
+      </c>
+      <c r="AF151" t="inlineStr">
+        <is>
+          <t>26.4</t>
+        </is>
+      </c>
+      <c r="AG151" t="inlineStr">
+        <is>
+          <t>19.1</t>
+        </is>
+      </c>
+      <c r="AH151" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI151" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AJ151" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AK151" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AL151" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AM151" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AN151" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AO151" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP151" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="AQ151" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR151" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="AS151" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="AT151" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="AU151" t="inlineStr">
+        <is>
+          <t>39.05</t>
+        </is>
+      </c>
+      <c r="AV151" t="inlineStr">
+        <is>
+          <t>3567.99</t>
+        </is>
+      </c>
+      <c r="AW151" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="AX151" t="inlineStr">
+        <is>
+          <t>22.90</t>
+        </is>
+      </c>
+      <c r="AY151" t="inlineStr">
+        <is>
+          <t>2913.03</t>
+        </is>
+      </c>
+      <c r="AZ151" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="BA151" t="inlineStr">
+        <is>
+          <t>105.57</t>
+        </is>
+      </c>
+      <c r="BB151" t="inlineStr">
+        <is>
+          <t>10317.50</t>
+        </is>
+      </c>
+      <c r="BC151" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="BD151" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BE151" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BF151" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="BG151" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BH151" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="BI151" t="inlineStr">
+        <is>
+          <t>146030596</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>2022-06-15 18:37:07</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>21.8</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>26.6</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>20.3</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="I152" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M152" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N152" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="O152" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="P152" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q152" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R152" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S152" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T152" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U152" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V152" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="W152" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="X152" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Y152" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z152" t="inlineStr">
+        <is>
+          <t>11.27</t>
+        </is>
+      </c>
+      <c r="AA152" t="inlineStr"/>
+      <c r="AB152" t="inlineStr">
+        <is>
+          <t>7002200</t>
+        </is>
+      </c>
+      <c r="AC152" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="AD152" t="inlineStr"/>
+      <c r="AE152" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="AF152" t="inlineStr">
+        <is>
+          <t>26.7</t>
+        </is>
+      </c>
+      <c r="AG152" t="inlineStr">
+        <is>
+          <t>20.3</t>
+        </is>
+      </c>
+      <c r="AH152" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI152" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AJ152" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AK152" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AL152" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AM152" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AN152" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AO152" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP152" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="AQ152" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR152" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="AS152" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="AT152" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="AU152" t="inlineStr">
+        <is>
+          <t>37.05</t>
+        </is>
+      </c>
+      <c r="AV152" t="inlineStr">
+        <is>
+          <t>3568.46</t>
+        </is>
+      </c>
+      <c r="AW152" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AX152" t="inlineStr">
+        <is>
+          <t>21.10</t>
+        </is>
+      </c>
+      <c r="AY152" t="inlineStr">
+        <is>
+          <t>2913.03</t>
+        </is>
+      </c>
+      <c r="AZ152" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="BA152" t="inlineStr">
+        <is>
+          <t>98.70</t>
+        </is>
+      </c>
+      <c r="BB152" t="inlineStr">
+        <is>
+          <t>10317.51</t>
+        </is>
+      </c>
+      <c r="BC152" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="BD152" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BE152" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BF152" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="BG152" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BH152" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="BI152" t="inlineStr">
         <is>
           <t>146030596</t>
         </is>

--- a/SampleData.xlsx
+++ b/SampleData.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BI152"/>
+  <dimension ref="A1:BI155"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
@@ -36018,7 +36018,6 @@
           <t>11.27</t>
         </is>
       </c>
-      <c r="AA152" t="inlineStr"/>
       <c r="AB152" t="inlineStr">
         <is>
           <t>7002200</t>
@@ -36029,7 +36028,6 @@
           <t>2200</t>
         </is>
       </c>
-      <c r="AD152" t="inlineStr"/>
       <c r="AE152" t="inlineStr">
         <is>
           <t>22.0</t>
@@ -36181,6 +36179,899 @@
         </is>
       </c>
       <c r="BI152" t="inlineStr">
+        <is>
+          <t>146030596</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>2022-06-16 08:54:37</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>21.1</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>25.8</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>24.5</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="I153" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M153" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N153" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="O153" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="P153" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q153" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R153" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S153" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T153" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U153" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V153" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="W153" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="X153" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Y153" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z153" t="inlineStr">
+        <is>
+          <t>10.28</t>
+        </is>
+      </c>
+      <c r="AB153" t="inlineStr">
+        <is>
+          <t>7002200</t>
+        </is>
+      </c>
+      <c r="AC153" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="AE153" t="inlineStr">
+        <is>
+          <t>21.2</t>
+        </is>
+      </c>
+      <c r="AF153" t="inlineStr">
+        <is>
+          <t>25.8</t>
+        </is>
+      </c>
+      <c r="AG153" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="AH153" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI153" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AJ153" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AK153" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AL153" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AM153" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="AN153" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AO153" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP153" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="AQ153" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR153" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="AS153" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="AT153" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="AU153" t="inlineStr">
+        <is>
+          <t>33.25</t>
+        </is>
+      </c>
+      <c r="AV153" t="inlineStr">
+        <is>
+          <t>3568.69</t>
+        </is>
+      </c>
+      <c r="AW153" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AX153" t="inlineStr">
+        <is>
+          <t>17.78</t>
+        </is>
+      </c>
+      <c r="AY153" t="inlineStr">
+        <is>
+          <t>2913.03</t>
+        </is>
+      </c>
+      <c r="AZ153" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="BA153" t="inlineStr">
+        <is>
+          <t>87.68</t>
+        </is>
+      </c>
+      <c r="BB153" t="inlineStr">
+        <is>
+          <t>10317.52</t>
+        </is>
+      </c>
+      <c r="BC153" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="BD153" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BE153" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BF153" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="BG153" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BH153" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="BI153" t="inlineStr">
+        <is>
+          <t>146030596</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>2022-06-16 08:56:16</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>21.3</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>25.9</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>20.2</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>24.5</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M154" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N154" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="O154" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="P154" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q154" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R154" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S154" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T154" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U154" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V154" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="W154" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="X154" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Y154" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z154" t="inlineStr">
+        <is>
+          <t>10.28</t>
+        </is>
+      </c>
+      <c r="AB154" t="inlineStr">
+        <is>
+          <t>7002200</t>
+        </is>
+      </c>
+      <c r="AC154" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="AE154" t="inlineStr">
+        <is>
+          <t>21.4</t>
+        </is>
+      </c>
+      <c r="AF154" t="inlineStr">
+        <is>
+          <t>25.9</t>
+        </is>
+      </c>
+      <c r="AG154" t="inlineStr">
+        <is>
+          <t>20.2</t>
+        </is>
+      </c>
+      <c r="AH154" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI154" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AJ154" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AK154" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AL154" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AM154" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="AN154" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AO154" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP154" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="AQ154" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR154" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="AS154" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="AT154" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="AU154" t="inlineStr">
+        <is>
+          <t>33.25</t>
+        </is>
+      </c>
+      <c r="AV154" t="inlineStr">
+        <is>
+          <t>3568.69</t>
+        </is>
+      </c>
+      <c r="AW154" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AX154" t="inlineStr">
+        <is>
+          <t>17.78</t>
+        </is>
+      </c>
+      <c r="AY154" t="inlineStr">
+        <is>
+          <t>2913.03</t>
+        </is>
+      </c>
+      <c r="AZ154" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="BA154" t="inlineStr">
+        <is>
+          <t>87.68</t>
+        </is>
+      </c>
+      <c r="BB154" t="inlineStr">
+        <is>
+          <t>10317.52</t>
+        </is>
+      </c>
+      <c r="BC154" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="BD154" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BE154" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BF154" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="BG154" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BH154" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="BI154" t="inlineStr">
+        <is>
+          <t>146030596</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>2022-06-16 18:19:22</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>23.4</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>26.4</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>22.1</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>24.9</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="I155" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M155" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N155" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="O155" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="P155" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q155" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R155" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S155" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T155" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U155" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V155" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="W155" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="X155" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Y155" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z155" t="inlineStr">
+        <is>
+          <t>9.84</t>
+        </is>
+      </c>
+      <c r="AA155" t="inlineStr"/>
+      <c r="AB155" t="inlineStr">
+        <is>
+          <t>7002200</t>
+        </is>
+      </c>
+      <c r="AC155" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="AD155" t="inlineStr"/>
+      <c r="AE155" t="inlineStr">
+        <is>
+          <t>23.3</t>
+        </is>
+      </c>
+      <c r="AF155" t="inlineStr">
+        <is>
+          <t>26.4</t>
+        </is>
+      </c>
+      <c r="AG155" t="inlineStr">
+        <is>
+          <t>22.2</t>
+        </is>
+      </c>
+      <c r="AH155" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI155" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AJ155" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AK155" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AL155" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AM155" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="AN155" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AO155" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP155" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="AQ155" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR155" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="AS155" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="AT155" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="AU155" t="inlineStr">
+        <is>
+          <t>33.50</t>
+        </is>
+      </c>
+      <c r="AV155" t="inlineStr">
+        <is>
+          <t>3568.94</t>
+        </is>
+      </c>
+      <c r="AW155" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AX155" t="inlineStr">
+        <is>
+          <t>17.78</t>
+        </is>
+      </c>
+      <c r="AY155" t="inlineStr">
+        <is>
+          <t>2913.03</t>
+        </is>
+      </c>
+      <c r="AZ155" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="BA155" t="inlineStr">
+        <is>
+          <t>87.69</t>
+        </is>
+      </c>
+      <c r="BB155" t="inlineStr">
+        <is>
+          <t>10317.53</t>
+        </is>
+      </c>
+      <c r="BC155" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="BD155" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BE155" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BF155" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="BG155" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BH155" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="BI155" t="inlineStr">
         <is>
           <t>146030596</t>
         </is>

--- a/SampleData.xlsx
+++ b/SampleData.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BI155"/>
+  <dimension ref="A1:BI156"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
@@ -36909,7 +36909,6 @@
           <t>9.84</t>
         </is>
       </c>
-      <c r="AA155" t="inlineStr"/>
       <c r="AB155" t="inlineStr">
         <is>
           <t>7002200</t>
@@ -36920,7 +36919,6 @@
           <t>2200</t>
         </is>
       </c>
-      <c r="AD155" t="inlineStr"/>
       <c r="AE155" t="inlineStr">
         <is>
           <t>23.3</t>
@@ -37074,6 +37072,305 @@
       <c r="BI155" t="inlineStr">
         <is>
           <t>146030596</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>2022-06-17 09:23:02</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>21.4</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>26.2</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>20.2</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>24.7</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="I156" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M156" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N156" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="O156" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="P156" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q156" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R156" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S156" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T156" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U156" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V156" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="W156" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="X156" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Y156" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z156" t="inlineStr">
+        <is>
+          <t>10.18</t>
+        </is>
+      </c>
+      <c r="AA156" t="inlineStr"/>
+      <c r="AB156" t="inlineStr">
+        <is>
+          <t>7002200</t>
+        </is>
+      </c>
+      <c r="AC156" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="AD156" t="inlineStr"/>
+      <c r="AE156" t="inlineStr">
+        <is>
+          <t>21.5</t>
+        </is>
+      </c>
+      <c r="AF156" t="inlineStr">
+        <is>
+          <t>26.1</t>
+        </is>
+      </c>
+      <c r="AG156" t="inlineStr">
+        <is>
+          <t>20.2</t>
+        </is>
+      </c>
+      <c r="AH156" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI156" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AJ156" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AK156" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AL156" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AM156" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="AN156" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AO156" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP156" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="AQ156" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR156" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="AS156" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="AT156" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="AU156" t="inlineStr">
+        <is>
+          <t>31.58</t>
+        </is>
+      </c>
+      <c r="AV156" t="inlineStr">
+        <is>
+          <t>3569.22</t>
+        </is>
+      </c>
+      <c r="AW156" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="AX156" t="inlineStr">
+        <is>
+          <t>16.26</t>
+        </is>
+      </c>
+      <c r="AY156" t="inlineStr">
+        <is>
+          <t>2913.05</t>
+        </is>
+      </c>
+      <c r="AZ156" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="BA156" t="inlineStr">
+        <is>
+          <t>82.25</t>
+        </is>
+      </c>
+      <c r="BB156" t="inlineStr">
+        <is>
+          <t>10318.00</t>
+        </is>
+      </c>
+      <c r="BC156" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="BD156" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BE156" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BF156" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="BG156" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BH156" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="BI156" t="inlineStr">
+        <is>
+          <t>144982020</t>
         </is>
       </c>
     </row>

--- a/SampleData.xlsx
+++ b/SampleData.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BI156"/>
+  <dimension ref="A1:BI161"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
@@ -37206,7 +37206,6 @@
           <t>10.18</t>
         </is>
       </c>
-      <c r="AA156" t="inlineStr"/>
       <c r="AB156" t="inlineStr">
         <is>
           <t>7002200</t>
@@ -37217,7 +37216,6 @@
           <t>2200</t>
         </is>
       </c>
-      <c r="AD156" t="inlineStr"/>
       <c r="AE156" t="inlineStr">
         <is>
           <t>21.5</t>
@@ -37371,6 +37369,1493 @@
       <c r="BI156" t="inlineStr">
         <is>
           <t>144982020</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>2022-06-18 08:59:55</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>19.5</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>26.2</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>17.9</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>24.8</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="I157" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M157" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N157" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="O157" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="P157" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q157" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R157" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S157" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T157" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U157" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V157" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="W157" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="X157" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Y157" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z157" t="inlineStr">
+        <is>
+          <t>10.92</t>
+        </is>
+      </c>
+      <c r="AB157" t="inlineStr">
+        <is>
+          <t>7002200</t>
+        </is>
+      </c>
+      <c r="AC157" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="AE157" t="inlineStr">
+        <is>
+          <t>19.5</t>
+        </is>
+      </c>
+      <c r="AF157" t="inlineStr">
+        <is>
+          <t>26.1</t>
+        </is>
+      </c>
+      <c r="AG157" t="inlineStr">
+        <is>
+          <t>17.8</t>
+        </is>
+      </c>
+      <c r="AH157" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI157" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AJ157" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AK157" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AL157" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AM157" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="AN157" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AO157" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP157" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="AQ157" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR157" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="AS157" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="AT157" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="AU157" t="inlineStr">
+        <is>
+          <t>30.70</t>
+        </is>
+      </c>
+      <c r="AV157" t="inlineStr">
+        <is>
+          <t>3569.73</t>
+        </is>
+      </c>
+      <c r="AW157" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AX157" t="inlineStr">
+        <is>
+          <t>15.50</t>
+        </is>
+      </c>
+      <c r="AY157" t="inlineStr">
+        <is>
+          <t>2913.05</t>
+        </is>
+      </c>
+      <c r="AZ157" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="BA157" t="inlineStr">
+        <is>
+          <t>78.92</t>
+        </is>
+      </c>
+      <c r="BB157" t="inlineStr">
+        <is>
+          <t>10318.67</t>
+        </is>
+      </c>
+      <c r="BC157" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="BD157" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BE157" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BF157" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="BG157" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BH157" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="BI157" t="inlineStr">
+        <is>
+          <t>146030596</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>2022-06-19 09:21:11</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>19.2</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>26.1</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>17.1</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>24.4</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="I158" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M158" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N158" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="O158" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="P158" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q158" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R158" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S158" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T158" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U158" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V158" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="W158" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="X158" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Y158" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z158" t="inlineStr">
+        <is>
+          <t>11.11</t>
+        </is>
+      </c>
+      <c r="AB158" t="inlineStr">
+        <is>
+          <t>7002200</t>
+        </is>
+      </c>
+      <c r="AC158" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="AE158" t="inlineStr">
+        <is>
+          <t>19.3</t>
+        </is>
+      </c>
+      <c r="AF158" t="inlineStr">
+        <is>
+          <t>26.1</t>
+        </is>
+      </c>
+      <c r="AG158" t="inlineStr">
+        <is>
+          <t>17.1</t>
+        </is>
+      </c>
+      <c r="AH158" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI158" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AJ158" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AK158" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AL158" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AM158" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="AN158" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AO158" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP158" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="AQ158" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR158" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="AS158" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="AT158" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="AU158" t="inlineStr">
+        <is>
+          <t>27.89</t>
+        </is>
+      </c>
+      <c r="AV158" t="inlineStr">
+        <is>
+          <t>3570.26</t>
+        </is>
+      </c>
+      <c r="AW158" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AX158" t="inlineStr">
+        <is>
+          <t>12.87</t>
+        </is>
+      </c>
+      <c r="AY158" t="inlineStr">
+        <is>
+          <t>2913.05</t>
+        </is>
+      </c>
+      <c r="AZ158" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="BA158" t="inlineStr">
+        <is>
+          <t>71.30</t>
+        </is>
+      </c>
+      <c r="BB158" t="inlineStr">
+        <is>
+          <t>10320.65</t>
+        </is>
+      </c>
+      <c r="BC158" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="BD158" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BE158" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BF158" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="BG158" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BH158" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="BI158" t="inlineStr">
+        <is>
+          <t>146030596</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>2022-06-19 21:04:47</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>18.8</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>25.6</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>16.4</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>24.5</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="I159" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M159" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N159" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="O159" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="P159" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q159" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R159" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S159" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T159" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U159" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V159" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="W159" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="X159" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Y159" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z159" t="inlineStr">
+        <is>
+          <t>9.84</t>
+        </is>
+      </c>
+      <c r="AB159" t="inlineStr">
+        <is>
+          <t>7002200</t>
+        </is>
+      </c>
+      <c r="AC159" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="AE159" t="inlineStr">
+        <is>
+          <t>18.7</t>
+        </is>
+      </c>
+      <c r="AF159" t="inlineStr">
+        <is>
+          <t>25.7</t>
+        </is>
+      </c>
+      <c r="AG159" t="inlineStr">
+        <is>
+          <t>16.4</t>
+        </is>
+      </c>
+      <c r="AH159" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI159" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AJ159" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AK159" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AL159" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AM159" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="AN159" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AO159" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP159" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="AQ159" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR159" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="AS159" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="AT159" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="AU159" t="inlineStr">
+        <is>
+          <t>28.20</t>
+        </is>
+      </c>
+      <c r="AV159" t="inlineStr">
+        <is>
+          <t>3570.57</t>
+        </is>
+      </c>
+      <c r="AW159" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AX159" t="inlineStr">
+        <is>
+          <t>12.87</t>
+        </is>
+      </c>
+      <c r="AY159" t="inlineStr">
+        <is>
+          <t>2913.05</t>
+        </is>
+      </c>
+      <c r="AZ159" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="BA159" t="inlineStr">
+        <is>
+          <t>71.31</t>
+        </is>
+      </c>
+      <c r="BB159" t="inlineStr">
+        <is>
+          <t>10320.67</t>
+        </is>
+      </c>
+      <c r="BC159" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="BD159" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BE159" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BF159" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="BG159" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BH159" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="BI159" t="inlineStr">
+        <is>
+          <t>146030596</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>2022-06-20 20:46:47</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>26.3</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>16.7</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>24.5</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="I160" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M160" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N160" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="O160" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="P160" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q160" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R160" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S160" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T160" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U160" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V160" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="W160" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="X160" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Y160" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z160" t="inlineStr">
+        <is>
+          <t>11.18</t>
+        </is>
+      </c>
+      <c r="AB160" t="inlineStr">
+        <is>
+          <t>7002200</t>
+        </is>
+      </c>
+      <c r="AC160" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="AE160" t="inlineStr">
+        <is>
+          <t>18.8</t>
+        </is>
+      </c>
+      <c r="AF160" t="inlineStr">
+        <is>
+          <t>26.3</t>
+        </is>
+      </c>
+      <c r="AG160" t="inlineStr">
+        <is>
+          <t>16.7</t>
+        </is>
+      </c>
+      <c r="AH160" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI160" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AJ160" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AK160" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AL160" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AM160" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="AN160" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AO160" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP160" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="AQ160" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR160" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="AS160" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="AT160" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="AU160" t="inlineStr">
+        <is>
+          <t>26.71</t>
+        </is>
+      </c>
+      <c r="AV160" t="inlineStr">
+        <is>
+          <t>3571.11</t>
+        </is>
+      </c>
+      <c r="AW160" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="AX160" t="inlineStr">
+        <is>
+          <t>11.53</t>
+        </is>
+      </c>
+      <c r="AY160" t="inlineStr">
+        <is>
+          <t>2913.08</t>
+        </is>
+      </c>
+      <c r="AZ160" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="BA160" t="inlineStr">
+        <is>
+          <t>66.88</t>
+        </is>
+      </c>
+      <c r="BB160" t="inlineStr">
+        <is>
+          <t>10322.64</t>
+        </is>
+      </c>
+      <c r="BC160" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="BD160" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BE160" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BF160" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="BG160" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BH160" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="BI160" t="inlineStr">
+        <is>
+          <t>144982020</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>2022-06-22 15:57:48</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>30.7</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>29.4</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>29.9</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>25.1</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="I161" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M161" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N161" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="O161" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="P161" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q161" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R161" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S161" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T161" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U161" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V161" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="W161" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="X161" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Y161" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z161" t="inlineStr">
+        <is>
+          <t>8.32</t>
+        </is>
+      </c>
+      <c r="AA161" t="inlineStr"/>
+      <c r="AB161" t="inlineStr">
+        <is>
+          <t>7002200</t>
+        </is>
+      </c>
+      <c r="AC161" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="AD161" t="inlineStr"/>
+      <c r="AE161" t="inlineStr">
+        <is>
+          <t>30.6</t>
+        </is>
+      </c>
+      <c r="AF161" t="inlineStr">
+        <is>
+          <t>29.5</t>
+        </is>
+      </c>
+      <c r="AG161" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="AH161" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AI161" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AJ161" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AK161" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AL161" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AM161" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="AN161" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AO161" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP161" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="AQ161" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR161" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="AS161" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="AT161" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="AU161" t="inlineStr">
+        <is>
+          <t>24.17</t>
+        </is>
+      </c>
+      <c r="AV161" t="inlineStr">
+        <is>
+          <t>3572.12</t>
+        </is>
+      </c>
+      <c r="AW161" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AX161" t="inlineStr">
+        <is>
+          <t>9.34</t>
+        </is>
+      </c>
+      <c r="AY161" t="inlineStr">
+        <is>
+          <t>2913.20</t>
+        </is>
+      </c>
+      <c r="AZ161" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="BA161" t="inlineStr">
+        <is>
+          <t>59.61</t>
+        </is>
+      </c>
+      <c r="BB161" t="inlineStr">
+        <is>
+          <t>10325.01</t>
+        </is>
+      </c>
+      <c r="BC161" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="BD161" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BE161" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BF161" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="BG161" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BH161" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="BI161" t="inlineStr">
+        <is>
+          <t>150225156</t>
         </is>
       </c>
     </row>

--- a/SampleData.xlsx
+++ b/SampleData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="41280" windowHeight="12900" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12900" windowWidth="41280" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sheet_name" sheetId="1" state="visible" r:id="rId1"/>
@@ -43,16 +43,16 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -413,73 +413,73 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BI161"/>
+  <dimension ref="A1:BI162"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G102" sqref="G102"/>
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A81" ySplit="1"/>
+      <selection activeCell="G102" pane="bottomLeft" sqref="G102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col width="18.109375" bestFit="1" customWidth="1" style="1" min="1" max="1"/>
-    <col width="20.44140625" bestFit="1" customWidth="1" style="1" min="2" max="2"/>
-    <col width="38.44140625" bestFit="1" customWidth="1" style="1" min="3" max="3"/>
-    <col width="22.21875" bestFit="1" customWidth="1" style="1" min="4" max="4"/>
-    <col width="4.44140625" bestFit="1" customWidth="1" style="1" min="5" max="5"/>
-    <col width="21.109375" bestFit="1" customWidth="1" style="1" min="6" max="7"/>
-    <col width="20.33203125" bestFit="1" customWidth="1" style="1" min="8" max="9"/>
-    <col width="12.33203125" bestFit="1" customWidth="1" style="1" min="10" max="10"/>
-    <col width="13.5546875" bestFit="1" customWidth="1" style="1" min="11" max="11"/>
-    <col width="7.109375" bestFit="1" customWidth="1" style="1" min="12" max="12"/>
-    <col width="7.21875" bestFit="1" customWidth="1" style="1" min="13" max="13"/>
-    <col width="6.33203125" bestFit="1" customWidth="1" style="1" min="14" max="14"/>
-    <col width="6.44140625" bestFit="1" customWidth="1" style="1" min="15" max="15"/>
-    <col width="7.109375" bestFit="1" customWidth="1" style="1" min="16" max="17"/>
-    <col width="16.77734375" bestFit="1" customWidth="1" style="1" min="18" max="18"/>
-    <col width="6.88671875" bestFit="1" customWidth="1" style="1" min="19" max="19"/>
-    <col width="15.88671875" bestFit="1" customWidth="1" style="1" min="20" max="20"/>
-    <col width="6.21875" bestFit="1" customWidth="1" style="1" min="21" max="21"/>
-    <col width="13.77734375" bestFit="1" customWidth="1" style="1" min="22" max="22"/>
-    <col width="15.21875" bestFit="1" customWidth="1" style="1" min="23" max="23"/>
-    <col width="15" bestFit="1" customWidth="1" style="1" min="24" max="24"/>
-    <col width="9" bestFit="1" customWidth="1" style="1" min="25" max="25"/>
-    <col width="22.44140625" bestFit="1" customWidth="1" style="1" min="26" max="26"/>
-    <col width="16.109375" bestFit="1" customWidth="1" style="1" min="27" max="27"/>
-    <col width="12.88671875" bestFit="1" customWidth="1" style="1" min="28" max="28"/>
-    <col width="17.33203125" bestFit="1" customWidth="1" style="1" min="29" max="29"/>
-    <col width="15.109375" bestFit="1" customWidth="1" style="1" min="30" max="30"/>
-    <col width="20.44140625" bestFit="1" customWidth="1" style="1" min="31" max="31"/>
-    <col width="21" bestFit="1" customWidth="1" style="1" min="32" max="32"/>
-    <col width="22.21875" bestFit="1" customWidth="1" style="1" min="33" max="33"/>
-    <col width="5.88671875" bestFit="1" customWidth="1" style="1" min="34" max="34"/>
-    <col width="6.88671875" bestFit="1" customWidth="1" style="1" min="35" max="35"/>
-    <col width="7" bestFit="1" customWidth="1" style="1" min="36" max="36"/>
-    <col width="7.77734375" bestFit="1" customWidth="1" style="1" min="37" max="37"/>
-    <col width="7.88671875" bestFit="1" customWidth="1" style="1" min="38" max="38"/>
-    <col width="15.21875" bestFit="1" customWidth="1" style="1" min="39" max="39"/>
-    <col width="25.44140625" bestFit="1" customWidth="1" style="1" min="40" max="40"/>
-    <col width="15.88671875" bestFit="1" customWidth="1" style="1" min="41" max="41"/>
-    <col width="20.77734375" bestFit="1" customWidth="1" style="1" min="42" max="42"/>
-    <col width="16.33203125" bestFit="1" customWidth="1" style="1" min="43" max="43"/>
-    <col width="18.6640625" bestFit="1" customWidth="1" style="1" min="44" max="44"/>
-    <col width="16.5546875" bestFit="1" customWidth="1" style="1" min="45" max="45"/>
-    <col width="24.5546875" bestFit="1" customWidth="1" style="1" min="46" max="46"/>
-    <col width="27" bestFit="1" customWidth="1" style="1" min="47" max="47"/>
-    <col width="25.77734375" bestFit="1" customWidth="1" style="1" min="48" max="48"/>
-    <col width="22.21875" bestFit="1" customWidth="1" style="1" min="49" max="49"/>
-    <col width="24.5546875" bestFit="1" customWidth="1" style="1" min="50" max="50"/>
-    <col width="23.33203125" bestFit="1" customWidth="1" style="1" min="51" max="51"/>
-    <col width="24.6640625" bestFit="1" customWidth="1" style="1" min="52" max="52"/>
-    <col width="27.109375" bestFit="1" customWidth="1" style="1" min="53" max="53"/>
-    <col width="25.88671875" bestFit="1" customWidth="1" style="1" min="54" max="54"/>
-    <col width="6.21875" bestFit="1" customWidth="1" style="1" min="55" max="55"/>
-    <col width="6.33203125" bestFit="1" customWidth="1" style="1" min="56" max="56"/>
-    <col width="7.33203125" bestFit="1" customWidth="1" style="1" min="57" max="57"/>
-    <col width="6.44140625" bestFit="1" customWidth="1" style="1" min="58" max="58"/>
-    <col width="7.21875" bestFit="1" customWidth="1" style="1" min="59" max="59"/>
-    <col width="6.33203125" bestFit="1" customWidth="1" style="1" min="60" max="60"/>
-    <col width="10" customWidth="1" style="1" min="61" max="61"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" style="1" width="18.109375"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" style="1" width="20.44140625"/>
+    <col bestFit="1" customWidth="1" max="3" min="3" style="1" width="38.44140625"/>
+    <col bestFit="1" customWidth="1" max="4" min="4" style="1" width="22.21875"/>
+    <col bestFit="1" customWidth="1" max="5" min="5" style="1" width="4.44140625"/>
+    <col bestFit="1" customWidth="1" max="7" min="6" style="1" width="21.109375"/>
+    <col bestFit="1" customWidth="1" max="9" min="8" style="1" width="20.33203125"/>
+    <col bestFit="1" customWidth="1" max="10" min="10" style="1" width="12.33203125"/>
+    <col bestFit="1" customWidth="1" max="11" min="11" style="1" width="13.5546875"/>
+    <col bestFit="1" customWidth="1" max="12" min="12" style="1" width="7.109375"/>
+    <col bestFit="1" customWidth="1" max="13" min="13" style="1" width="7.21875"/>
+    <col bestFit="1" customWidth="1" max="14" min="14" style="1" width="6.33203125"/>
+    <col bestFit="1" customWidth="1" max="15" min="15" style="1" width="6.44140625"/>
+    <col bestFit="1" customWidth="1" max="17" min="16" style="1" width="7.109375"/>
+    <col bestFit="1" customWidth="1" max="18" min="18" style="1" width="16.77734375"/>
+    <col bestFit="1" customWidth="1" max="19" min="19" style="1" width="6.88671875"/>
+    <col bestFit="1" customWidth="1" max="20" min="20" style="1" width="15.88671875"/>
+    <col bestFit="1" customWidth="1" max="21" min="21" style="1" width="6.21875"/>
+    <col bestFit="1" customWidth="1" max="22" min="22" style="1" width="13.77734375"/>
+    <col bestFit="1" customWidth="1" max="23" min="23" style="1" width="15.21875"/>
+    <col bestFit="1" customWidth="1" max="24" min="24" style="1" width="15"/>
+    <col bestFit="1" customWidth="1" max="25" min="25" style="1" width="9"/>
+    <col bestFit="1" customWidth="1" max="26" min="26" style="1" width="22.44140625"/>
+    <col bestFit="1" customWidth="1" max="27" min="27" style="1" width="16.109375"/>
+    <col bestFit="1" customWidth="1" max="28" min="28" style="1" width="12.88671875"/>
+    <col bestFit="1" customWidth="1" max="29" min="29" style="1" width="17.33203125"/>
+    <col bestFit="1" customWidth="1" max="30" min="30" style="1" width="15.109375"/>
+    <col bestFit="1" customWidth="1" max="31" min="31" style="1" width="20.44140625"/>
+    <col bestFit="1" customWidth="1" max="32" min="32" style="1" width="21"/>
+    <col bestFit="1" customWidth="1" max="33" min="33" style="1" width="22.21875"/>
+    <col bestFit="1" customWidth="1" max="34" min="34" style="1" width="5.88671875"/>
+    <col bestFit="1" customWidth="1" max="35" min="35" style="1" width="6.88671875"/>
+    <col bestFit="1" customWidth="1" max="36" min="36" style="1" width="7"/>
+    <col bestFit="1" customWidth="1" max="37" min="37" style="1" width="7.77734375"/>
+    <col bestFit="1" customWidth="1" max="38" min="38" style="1" width="7.88671875"/>
+    <col bestFit="1" customWidth="1" max="39" min="39" style="1" width="15.21875"/>
+    <col bestFit="1" customWidth="1" max="40" min="40" style="1" width="25.44140625"/>
+    <col bestFit="1" customWidth="1" max="41" min="41" style="1" width="15.88671875"/>
+    <col bestFit="1" customWidth="1" max="42" min="42" style="1" width="20.77734375"/>
+    <col bestFit="1" customWidth="1" max="43" min="43" style="1" width="16.33203125"/>
+    <col bestFit="1" customWidth="1" max="44" min="44" style="1" width="18.6640625"/>
+    <col bestFit="1" customWidth="1" max="45" min="45" style="1" width="16.5546875"/>
+    <col bestFit="1" customWidth="1" max="46" min="46" style="1" width="24.5546875"/>
+    <col bestFit="1" customWidth="1" max="47" min="47" style="1" width="27"/>
+    <col bestFit="1" customWidth="1" max="48" min="48" style="1" width="25.77734375"/>
+    <col bestFit="1" customWidth="1" max="49" min="49" style="1" width="22.21875"/>
+    <col bestFit="1" customWidth="1" max="50" min="50" style="1" width="24.5546875"/>
+    <col bestFit="1" customWidth="1" max="51" min="51" style="1" width="23.33203125"/>
+    <col bestFit="1" customWidth="1" max="52" min="52" style="1" width="24.6640625"/>
+    <col bestFit="1" customWidth="1" max="53" min="53" style="1" width="27.109375"/>
+    <col bestFit="1" customWidth="1" max="54" min="54" style="1" width="25.88671875"/>
+    <col bestFit="1" customWidth="1" max="55" min="55" style="1" width="6.21875"/>
+    <col bestFit="1" customWidth="1" max="56" min="56" style="1" width="6.33203125"/>
+    <col bestFit="1" customWidth="1" max="57" min="57" style="1" width="7.33203125"/>
+    <col bestFit="1" customWidth="1" max="58" min="58" style="1" width="6.44140625"/>
+    <col bestFit="1" customWidth="1" max="59" min="59" style="1" width="7.21875"/>
+    <col bestFit="1" customWidth="1" max="60" min="60" style="1" width="6.33203125"/>
+    <col customWidth="1" max="61" min="61" style="1" width="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -38691,7 +38691,6 @@
           <t>8.32</t>
         </is>
       </c>
-      <c r="AA161" t="inlineStr"/>
       <c r="AB161" t="inlineStr">
         <is>
           <t>7002200</t>
@@ -38702,7 +38701,6 @@
           <t>2200</t>
         </is>
       </c>
-      <c r="AD161" t="inlineStr"/>
       <c r="AE161" t="inlineStr">
         <is>
           <t>30.6</t>
@@ -38856,11 +38854,310 @@
       <c r="BI161" t="inlineStr">
         <is>
           <t>150225156</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>2022-06-26 10:18:24</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>29.8</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>29.7</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>30.6</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>26.5</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="I162" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M162" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N162" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="O162" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="P162" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q162" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R162" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S162" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T162" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U162" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V162" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="W162" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="X162" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Y162" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z162" t="inlineStr">
+        <is>
+          <t>12.77</t>
+        </is>
+      </c>
+      <c r="AA162" t="inlineStr"/>
+      <c r="AB162" t="inlineStr">
+        <is>
+          <t>7002200</t>
+        </is>
+      </c>
+      <c r="AC162" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="AD162" t="inlineStr"/>
+      <c r="AE162" t="inlineStr">
+        <is>
+          <t>29.9</t>
+        </is>
+      </c>
+      <c r="AF162" t="inlineStr">
+        <is>
+          <t>29.8</t>
+        </is>
+      </c>
+      <c r="AG162" t="inlineStr">
+        <is>
+          <t>30.4</t>
+        </is>
+      </c>
+      <c r="AH162" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AI162" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AJ162" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AK162" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AL162" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AM162" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="AN162" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AO162" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP162" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="AQ162" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR162" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="AS162" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="AT162" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="AU162" t="inlineStr">
+        <is>
+          <t>22.64</t>
+        </is>
+      </c>
+      <c r="AV162" t="inlineStr">
+        <is>
+          <t>3573.24</t>
+        </is>
+      </c>
+      <c r="AW162" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AX162" t="inlineStr">
+        <is>
+          <t>8.39</t>
+        </is>
+      </c>
+      <c r="AY162" t="inlineStr">
+        <is>
+          <t>2913.20</t>
+        </is>
+      </c>
+      <c r="AZ162" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="BA162" t="inlineStr">
+        <is>
+          <t>54.58</t>
+        </is>
+      </c>
+      <c r="BB162" t="inlineStr">
+        <is>
+          <t>10325.76</t>
+        </is>
+      </c>
+      <c r="BC162" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="BD162" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BE162" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BF162" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="BG162" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BH162" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="BI162" t="inlineStr">
+        <is>
+          <t>149176580</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/SampleData.xlsx
+++ b/SampleData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12900" windowWidth="41280" xWindow="0" yWindow="0"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="41280" windowHeight="12900" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sheet_name" sheetId="1" state="visible" r:id="rId1"/>
@@ -43,16 +43,16 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -413,73 +413,73 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BI162"/>
+  <dimension ref="A1:BI174"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A81" ySplit="1"/>
-      <selection activeCell="G102" pane="bottomLeft" sqref="G102"/>
+      <pane ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G102" sqref="G102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" style="1" width="18.109375"/>
-    <col bestFit="1" customWidth="1" max="2" min="2" style="1" width="20.44140625"/>
-    <col bestFit="1" customWidth="1" max="3" min="3" style="1" width="38.44140625"/>
-    <col bestFit="1" customWidth="1" max="4" min="4" style="1" width="22.21875"/>
-    <col bestFit="1" customWidth="1" max="5" min="5" style="1" width="4.44140625"/>
-    <col bestFit="1" customWidth="1" max="7" min="6" style="1" width="21.109375"/>
-    <col bestFit="1" customWidth="1" max="9" min="8" style="1" width="20.33203125"/>
-    <col bestFit="1" customWidth="1" max="10" min="10" style="1" width="12.33203125"/>
-    <col bestFit="1" customWidth="1" max="11" min="11" style="1" width="13.5546875"/>
-    <col bestFit="1" customWidth="1" max="12" min="12" style="1" width="7.109375"/>
-    <col bestFit="1" customWidth="1" max="13" min="13" style="1" width="7.21875"/>
-    <col bestFit="1" customWidth="1" max="14" min="14" style="1" width="6.33203125"/>
-    <col bestFit="1" customWidth="1" max="15" min="15" style="1" width="6.44140625"/>
-    <col bestFit="1" customWidth="1" max="17" min="16" style="1" width="7.109375"/>
-    <col bestFit="1" customWidth="1" max="18" min="18" style="1" width="16.77734375"/>
-    <col bestFit="1" customWidth="1" max="19" min="19" style="1" width="6.88671875"/>
-    <col bestFit="1" customWidth="1" max="20" min="20" style="1" width="15.88671875"/>
-    <col bestFit="1" customWidth="1" max="21" min="21" style="1" width="6.21875"/>
-    <col bestFit="1" customWidth="1" max="22" min="22" style="1" width="13.77734375"/>
-    <col bestFit="1" customWidth="1" max="23" min="23" style="1" width="15.21875"/>
-    <col bestFit="1" customWidth="1" max="24" min="24" style="1" width="15"/>
-    <col bestFit="1" customWidth="1" max="25" min="25" style="1" width="9"/>
-    <col bestFit="1" customWidth="1" max="26" min="26" style="1" width="22.44140625"/>
-    <col bestFit="1" customWidth="1" max="27" min="27" style="1" width="16.109375"/>
-    <col bestFit="1" customWidth="1" max="28" min="28" style="1" width="12.88671875"/>
-    <col bestFit="1" customWidth="1" max="29" min="29" style="1" width="17.33203125"/>
-    <col bestFit="1" customWidth="1" max="30" min="30" style="1" width="15.109375"/>
-    <col bestFit="1" customWidth="1" max="31" min="31" style="1" width="20.44140625"/>
-    <col bestFit="1" customWidth="1" max="32" min="32" style="1" width="21"/>
-    <col bestFit="1" customWidth="1" max="33" min="33" style="1" width="22.21875"/>
-    <col bestFit="1" customWidth="1" max="34" min="34" style="1" width="5.88671875"/>
-    <col bestFit="1" customWidth="1" max="35" min="35" style="1" width="6.88671875"/>
-    <col bestFit="1" customWidth="1" max="36" min="36" style="1" width="7"/>
-    <col bestFit="1" customWidth="1" max="37" min="37" style="1" width="7.77734375"/>
-    <col bestFit="1" customWidth="1" max="38" min="38" style="1" width="7.88671875"/>
-    <col bestFit="1" customWidth="1" max="39" min="39" style="1" width="15.21875"/>
-    <col bestFit="1" customWidth="1" max="40" min="40" style="1" width="25.44140625"/>
-    <col bestFit="1" customWidth="1" max="41" min="41" style="1" width="15.88671875"/>
-    <col bestFit="1" customWidth="1" max="42" min="42" style="1" width="20.77734375"/>
-    <col bestFit="1" customWidth="1" max="43" min="43" style="1" width="16.33203125"/>
-    <col bestFit="1" customWidth="1" max="44" min="44" style="1" width="18.6640625"/>
-    <col bestFit="1" customWidth="1" max="45" min="45" style="1" width="16.5546875"/>
-    <col bestFit="1" customWidth="1" max="46" min="46" style="1" width="24.5546875"/>
-    <col bestFit="1" customWidth="1" max="47" min="47" style="1" width="27"/>
-    <col bestFit="1" customWidth="1" max="48" min="48" style="1" width="25.77734375"/>
-    <col bestFit="1" customWidth="1" max="49" min="49" style="1" width="22.21875"/>
-    <col bestFit="1" customWidth="1" max="50" min="50" style="1" width="24.5546875"/>
-    <col bestFit="1" customWidth="1" max="51" min="51" style="1" width="23.33203125"/>
-    <col bestFit="1" customWidth="1" max="52" min="52" style="1" width="24.6640625"/>
-    <col bestFit="1" customWidth="1" max="53" min="53" style="1" width="27.109375"/>
-    <col bestFit="1" customWidth="1" max="54" min="54" style="1" width="25.88671875"/>
-    <col bestFit="1" customWidth="1" max="55" min="55" style="1" width="6.21875"/>
-    <col bestFit="1" customWidth="1" max="56" min="56" style="1" width="6.33203125"/>
-    <col bestFit="1" customWidth="1" max="57" min="57" style="1" width="7.33203125"/>
-    <col bestFit="1" customWidth="1" max="58" min="58" style="1" width="6.44140625"/>
-    <col bestFit="1" customWidth="1" max="59" min="59" style="1" width="7.21875"/>
-    <col bestFit="1" customWidth="1" max="60" min="60" style="1" width="6.33203125"/>
-    <col customWidth="1" max="61" min="61" style="1" width="10"/>
+    <col width="18.109375" bestFit="1" customWidth="1" style="1" min="1" max="1"/>
+    <col width="20.44140625" bestFit="1" customWidth="1" style="1" min="2" max="2"/>
+    <col width="38.44140625" bestFit="1" customWidth="1" style="1" min="3" max="3"/>
+    <col width="22.21875" bestFit="1" customWidth="1" style="1" min="4" max="4"/>
+    <col width="4.44140625" bestFit="1" customWidth="1" style="1" min="5" max="5"/>
+    <col width="21.109375" bestFit="1" customWidth="1" style="1" min="6" max="7"/>
+    <col width="20.33203125" bestFit="1" customWidth="1" style="1" min="8" max="9"/>
+    <col width="12.33203125" bestFit="1" customWidth="1" style="1" min="10" max="10"/>
+    <col width="13.5546875" bestFit="1" customWidth="1" style="1" min="11" max="11"/>
+    <col width="7.109375" bestFit="1" customWidth="1" style="1" min="12" max="12"/>
+    <col width="7.21875" bestFit="1" customWidth="1" style="1" min="13" max="13"/>
+    <col width="6.33203125" bestFit="1" customWidth="1" style="1" min="14" max="14"/>
+    <col width="6.44140625" bestFit="1" customWidth="1" style="1" min="15" max="15"/>
+    <col width="7.109375" bestFit="1" customWidth="1" style="1" min="16" max="17"/>
+    <col width="16.77734375" bestFit="1" customWidth="1" style="1" min="18" max="18"/>
+    <col width="6.88671875" bestFit="1" customWidth="1" style="1" min="19" max="19"/>
+    <col width="15.88671875" bestFit="1" customWidth="1" style="1" min="20" max="20"/>
+    <col width="6.21875" bestFit="1" customWidth="1" style="1" min="21" max="21"/>
+    <col width="13.77734375" bestFit="1" customWidth="1" style="1" min="22" max="22"/>
+    <col width="15.21875" bestFit="1" customWidth="1" style="1" min="23" max="23"/>
+    <col width="15" bestFit="1" customWidth="1" style="1" min="24" max="24"/>
+    <col width="9" bestFit="1" customWidth="1" style="1" min="25" max="25"/>
+    <col width="22.44140625" bestFit="1" customWidth="1" style="1" min="26" max="26"/>
+    <col width="16.109375" bestFit="1" customWidth="1" style="1" min="27" max="27"/>
+    <col width="12.88671875" bestFit="1" customWidth="1" style="1" min="28" max="28"/>
+    <col width="17.33203125" bestFit="1" customWidth="1" style="1" min="29" max="29"/>
+    <col width="15.109375" bestFit="1" customWidth="1" style="1" min="30" max="30"/>
+    <col width="20.44140625" bestFit="1" customWidth="1" style="1" min="31" max="31"/>
+    <col width="21" bestFit="1" customWidth="1" style="1" min="32" max="32"/>
+    <col width="22.21875" bestFit="1" customWidth="1" style="1" min="33" max="33"/>
+    <col width="5.88671875" bestFit="1" customWidth="1" style="1" min="34" max="34"/>
+    <col width="6.88671875" bestFit="1" customWidth="1" style="1" min="35" max="35"/>
+    <col width="7" bestFit="1" customWidth="1" style="1" min="36" max="36"/>
+    <col width="7.77734375" bestFit="1" customWidth="1" style="1" min="37" max="37"/>
+    <col width="7.88671875" bestFit="1" customWidth="1" style="1" min="38" max="38"/>
+    <col width="15.21875" bestFit="1" customWidth="1" style="1" min="39" max="39"/>
+    <col width="25.44140625" bestFit="1" customWidth="1" style="1" min="40" max="40"/>
+    <col width="15.88671875" bestFit="1" customWidth="1" style="1" min="41" max="41"/>
+    <col width="20.77734375" bestFit="1" customWidth="1" style="1" min="42" max="42"/>
+    <col width="16.33203125" bestFit="1" customWidth="1" style="1" min="43" max="43"/>
+    <col width="18.6640625" bestFit="1" customWidth="1" style="1" min="44" max="44"/>
+    <col width="16.5546875" bestFit="1" customWidth="1" style="1" min="45" max="45"/>
+    <col width="24.5546875" bestFit="1" customWidth="1" style="1" min="46" max="46"/>
+    <col width="27" bestFit="1" customWidth="1" style="1" min="47" max="47"/>
+    <col width="25.77734375" bestFit="1" customWidth="1" style="1" min="48" max="48"/>
+    <col width="22.21875" bestFit="1" customWidth="1" style="1" min="49" max="49"/>
+    <col width="24.5546875" bestFit="1" customWidth="1" style="1" min="50" max="50"/>
+    <col width="23.33203125" bestFit="1" customWidth="1" style="1" min="51" max="51"/>
+    <col width="24.6640625" bestFit="1" customWidth="1" style="1" min="52" max="52"/>
+    <col width="27.109375" bestFit="1" customWidth="1" style="1" min="53" max="53"/>
+    <col width="25.88671875" bestFit="1" customWidth="1" style="1" min="54" max="54"/>
+    <col width="6.21875" bestFit="1" customWidth="1" style="1" min="55" max="55"/>
+    <col width="6.33203125" bestFit="1" customWidth="1" style="1" min="56" max="56"/>
+    <col width="7.33203125" bestFit="1" customWidth="1" style="1" min="57" max="57"/>
+    <col width="6.44140625" bestFit="1" customWidth="1" style="1" min="58" max="58"/>
+    <col width="7.21875" bestFit="1" customWidth="1" style="1" min="59" max="59"/>
+    <col width="6.33203125" bestFit="1" customWidth="1" style="1" min="60" max="60"/>
+    <col width="10" customWidth="1" style="1" min="61" max="61"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -38988,7 +38988,6 @@
           <t>12.77</t>
         </is>
       </c>
-      <c r="AA162" t="inlineStr"/>
       <c r="AB162" t="inlineStr">
         <is>
           <t>7002200</t>
@@ -38999,7 +38998,6 @@
           <t>2200</t>
         </is>
       </c>
-      <c r="AD162" t="inlineStr"/>
       <c r="AE162" t="inlineStr">
         <is>
           <t>29.9</t>
@@ -39153,11 +39151,3577 @@
       <c r="BI162" t="inlineStr">
         <is>
           <t>149176580</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>2022-06-28 16:46:15</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>33.5</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>32.1</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>34.7</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>27.8</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="I163" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M163" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N163" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="O163" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="P163" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q163" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R163" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="S163" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T163" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U163" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V163" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="W163" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="X163" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="Y163" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z163" t="inlineStr">
+        <is>
+          <t>15.60</t>
+        </is>
+      </c>
+      <c r="AB163" t="inlineStr">
+        <is>
+          <t>7002200</t>
+        </is>
+      </c>
+      <c r="AC163" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="AE163" t="inlineStr">
+        <is>
+          <t>33.5</t>
+        </is>
+      </c>
+      <c r="AF163" t="inlineStr">
+        <is>
+          <t>32.1</t>
+        </is>
+      </c>
+      <c r="AG163" t="inlineStr">
+        <is>
+          <t>34.7</t>
+        </is>
+      </c>
+      <c r="AH163" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AI163" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AJ163" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AK163" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AL163" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AM163" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="AN163" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AO163" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="AP163" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="AQ163" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR163" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="AS163" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="AT163" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="AU163" t="inlineStr">
+        <is>
+          <t>22.01</t>
+        </is>
+      </c>
+      <c r="AV163" t="inlineStr">
+        <is>
+          <t>3574.02</t>
+        </is>
+      </c>
+      <c r="AW163" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AX163" t="inlineStr">
+        <is>
+          <t>7.82</t>
+        </is>
+      </c>
+      <c r="AY163" t="inlineStr">
+        <is>
+          <t>2913.20</t>
+        </is>
+      </c>
+      <c r="AZ163" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="BA163" t="inlineStr">
+        <is>
+          <t>51.07</t>
+        </is>
+      </c>
+      <c r="BB163" t="inlineStr">
+        <is>
+          <t>10327.35</t>
+        </is>
+      </c>
+      <c r="BC163" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="BD163" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BE163" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BF163" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="BG163" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BH163" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="BI163" t="inlineStr">
+        <is>
+          <t>150225164</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>2022-06-28 16:52:01</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>33.6</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>33.5</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>27.6</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="I164" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M164" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N164" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="O164" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="P164" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q164" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R164" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="S164" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T164" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U164" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V164" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="W164" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="X164" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="Y164" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z164" t="inlineStr">
+        <is>
+          <t>15.17</t>
+        </is>
+      </c>
+      <c r="AB164" t="inlineStr">
+        <is>
+          <t>7002200</t>
+        </is>
+      </c>
+      <c r="AC164" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="AE164" t="inlineStr">
+        <is>
+          <t>33.6</t>
+        </is>
+      </c>
+      <c r="AF164" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="AG164" t="inlineStr">
+        <is>
+          <t>33.5</t>
+        </is>
+      </c>
+      <c r="AH164" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AI164" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AJ164" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AK164" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AL164" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AM164" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="AN164" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AO164" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="AP164" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="AQ164" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR164" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="AS164" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="AT164" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="AU164" t="inlineStr">
+        <is>
+          <t>22.01</t>
+        </is>
+      </c>
+      <c r="AV164" t="inlineStr">
+        <is>
+          <t>3574.02</t>
+        </is>
+      </c>
+      <c r="AW164" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AX164" t="inlineStr">
+        <is>
+          <t>7.82</t>
+        </is>
+      </c>
+      <c r="AY164" t="inlineStr">
+        <is>
+          <t>2913.20</t>
+        </is>
+      </c>
+      <c r="AZ164" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="BA164" t="inlineStr">
+        <is>
+          <t>51.08</t>
+        </is>
+      </c>
+      <c r="BB164" t="inlineStr">
+        <is>
+          <t>10327.35</t>
+        </is>
+      </c>
+      <c r="BC164" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="BD164" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BE164" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BF164" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="BG164" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BH164" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="BI164" t="inlineStr">
+        <is>
+          <t>149176588</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>2022-06-29 15:59:54</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>30.4</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>30.5</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>28.6</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>26.4</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="I165" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M165" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N165" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="O165" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="P165" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q165" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R165" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S165" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T165" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U165" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V165" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="W165" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="X165" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Y165" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z165" t="inlineStr">
+        <is>
+          <t>12.19</t>
+        </is>
+      </c>
+      <c r="AB165" t="inlineStr">
+        <is>
+          <t>7002200</t>
+        </is>
+      </c>
+      <c r="AC165" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="AE165" t="inlineStr">
+        <is>
+          <t>30.5</t>
+        </is>
+      </c>
+      <c r="AF165" t="inlineStr">
+        <is>
+          <t>30.5</t>
+        </is>
+      </c>
+      <c r="AG165" t="inlineStr">
+        <is>
+          <t>28.6</t>
+        </is>
+      </c>
+      <c r="AH165" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AI165" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AJ165" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AK165" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AL165" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AM165" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="AN165" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AO165" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP165" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="AQ165" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR165" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="AS165" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="AT165" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="AU165" t="inlineStr">
+        <is>
+          <t>20.80</t>
+        </is>
+      </c>
+      <c r="AV165" t="inlineStr">
+        <is>
+          <t>3574.30</t>
+        </is>
+      </c>
+      <c r="AW165" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AX165" t="inlineStr">
+        <is>
+          <t>6.94</t>
+        </is>
+      </c>
+      <c r="AY165" t="inlineStr">
+        <is>
+          <t>2913.20</t>
+        </is>
+      </c>
+      <c r="AZ165" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="BA165" t="inlineStr">
+        <is>
+          <t>47.27</t>
+        </is>
+      </c>
+      <c r="BB165" t="inlineStr">
+        <is>
+          <t>10327.47</t>
+        </is>
+      </c>
+      <c r="BC165" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="BD165" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BE165" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BF165" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="BG165" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BH165" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="BI165" t="inlineStr">
+        <is>
+          <t>150225156</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>2022-06-30 07:57:35</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>25.9</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>28.6</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>25.1</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>26.1</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="I166" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M166" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N166" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="O166" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="P166" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q166" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R166" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S166" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T166" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U166" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V166" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="W166" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="X166" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Y166" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z166" t="inlineStr">
+        <is>
+          <t>13.47</t>
+        </is>
+      </c>
+      <c r="AB166" t="inlineStr">
+        <is>
+          <t>7002200</t>
+        </is>
+      </c>
+      <c r="AC166" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="AE166" t="inlineStr">
+        <is>
+          <t>25.9</t>
+        </is>
+      </c>
+      <c r="AF166" t="inlineStr">
+        <is>
+          <t>28.5</t>
+        </is>
+      </c>
+      <c r="AG166" t="inlineStr">
+        <is>
+          <t>25.1</t>
+        </is>
+      </c>
+      <c r="AH166" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="AI166" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="AJ166" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="AK166" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AL166" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AM166" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="AN166" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AO166" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP166" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="AQ166" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR166" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="AS166" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="AT166" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="AU166" t="inlineStr">
+        <is>
+          <t>18.14</t>
+        </is>
+      </c>
+      <c r="AV166" t="inlineStr">
+        <is>
+          <t>3574.47</t>
+        </is>
+      </c>
+      <c r="AW166" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AX166" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="AY166" t="inlineStr">
+        <is>
+          <t>2913.20</t>
+        </is>
+      </c>
+      <c r="AZ166" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="BA166" t="inlineStr">
+        <is>
+          <t>38.83</t>
+        </is>
+      </c>
+      <c r="BB166" t="inlineStr">
+        <is>
+          <t>10327.47</t>
+        </is>
+      </c>
+      <c r="BC166" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="BD166" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BE166" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BF166" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="BG166" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BH166" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="BI166" t="inlineStr">
+        <is>
+          <t>150226180</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>2022-07-01 18:53:58</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>29.7</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>29.6</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>29.4</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>25.3</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="I167" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="M167" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N167" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="O167" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="P167" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q167" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R167" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S167" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T167" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U167" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V167" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="W167" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="X167" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Y167" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z167" t="inlineStr">
+        <is>
+          <t>10.06</t>
+        </is>
+      </c>
+      <c r="AB167" t="inlineStr">
+        <is>
+          <t>7002200</t>
+        </is>
+      </c>
+      <c r="AC167" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="AE167" t="inlineStr">
+        <is>
+          <t>29.8</t>
+        </is>
+      </c>
+      <c r="AF167" t="inlineStr">
+        <is>
+          <t>29.6</t>
+        </is>
+      </c>
+      <c r="AG167" t="inlineStr">
+        <is>
+          <t>29.3</t>
+        </is>
+      </c>
+      <c r="AH167" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AI167" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AJ167" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AK167" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AL167" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AM167" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="AN167" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AO167" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP167" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="AQ167" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR167" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="AS167" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="AT167" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="AU167" t="inlineStr">
+        <is>
+          <t>17.22</t>
+        </is>
+      </c>
+      <c r="AV167" t="inlineStr">
+        <is>
+          <t>3574.91</t>
+        </is>
+      </c>
+      <c r="AW167" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AX167" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="AY167" t="inlineStr">
+        <is>
+          <t>2913.20</t>
+        </is>
+      </c>
+      <c r="AZ167" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="BA167" t="inlineStr">
+        <is>
+          <t>36.27</t>
+        </is>
+      </c>
+      <c r="BB167" t="inlineStr">
+        <is>
+          <t>10327.77</t>
+        </is>
+      </c>
+      <c r="BC167" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="BD167" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BE167" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BF167" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="BG167" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BH167" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="BI167" t="inlineStr">
+        <is>
+          <t>149176580</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>2022-07-02 17:40:09</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>31.9</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>26.2</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="I168" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M168" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N168" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="O168" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="P168" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q168" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R168" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S168" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T168" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U168" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V168" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="W168" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="X168" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Y168" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z168" t="inlineStr">
+        <is>
+          <t>11.31</t>
+        </is>
+      </c>
+      <c r="AB168" t="inlineStr">
+        <is>
+          <t>7002200</t>
+        </is>
+      </c>
+      <c r="AC168" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="AE168" t="inlineStr">
+        <is>
+          <t>32.2</t>
+        </is>
+      </c>
+      <c r="AF168" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="AG168" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="AH168" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AI168" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AJ168" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AK168" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AL168" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AM168" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="AN168" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AO168" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP168" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="AQ168" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR168" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="AS168" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="AT168" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="AU168" t="inlineStr">
+        <is>
+          <t>14.75</t>
+        </is>
+      </c>
+      <c r="AV168" t="inlineStr">
+        <is>
+          <t>3575.22</t>
+        </is>
+      </c>
+      <c r="AW168" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AX168" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="AY168" t="inlineStr">
+        <is>
+          <t>2913.20</t>
+        </is>
+      </c>
+      <c r="AZ168" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="BA168" t="inlineStr">
+        <is>
+          <t>28.13</t>
+        </is>
+      </c>
+      <c r="BB168" t="inlineStr">
+        <is>
+          <t>10328.15</t>
+        </is>
+      </c>
+      <c r="BC168" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="BD168" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BE168" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BF168" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="BG168" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BH168" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="BI168" t="inlineStr">
+        <is>
+          <t>150225156</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>2022-07-03 08:35:04</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>24.8</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>27.2</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>24.1</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>25.6</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="I169" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M169" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N169" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="O169" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="P169" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q169" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R169" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S169" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T169" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U169" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V169" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="W169" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="X169" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Y169" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z169" t="inlineStr">
+        <is>
+          <t>12.85</t>
+        </is>
+      </c>
+      <c r="AB169" t="inlineStr">
+        <is>
+          <t>7002200</t>
+        </is>
+      </c>
+      <c r="AC169" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="AE169" t="inlineStr">
+        <is>
+          <t>24.9</t>
+        </is>
+      </c>
+      <c r="AF169" t="inlineStr">
+        <is>
+          <t>27.3</t>
+        </is>
+      </c>
+      <c r="AG169" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="AH169" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI169" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AJ169" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AK169" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AL169" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AM169" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="AN169" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AO169" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP169" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="AQ169" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR169" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="AS169" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="AT169" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="AU169" t="inlineStr">
+        <is>
+          <t>13.63</t>
+        </is>
+      </c>
+      <c r="AV169" t="inlineStr">
+        <is>
+          <t>3575.41</t>
+        </is>
+      </c>
+      <c r="AW169" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AX169" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="AY169" t="inlineStr">
+        <is>
+          <t>2913.20</t>
+        </is>
+      </c>
+      <c r="AZ169" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="BA169" t="inlineStr">
+        <is>
+          <t>22.66</t>
+        </is>
+      </c>
+      <c r="BB169" t="inlineStr">
+        <is>
+          <t>10328.20</t>
+        </is>
+      </c>
+      <c r="BC169" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="BD169" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BE169" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BF169" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="BG169" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BH169" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="BI169" t="inlineStr">
+        <is>
+          <t>149177348</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>2022-07-03 10:15:38</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>28.1</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>27.1</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>25.9</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="I170" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M170" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N170" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="O170" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="P170" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q170" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R170" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S170" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T170" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U170" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V170" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="W170" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="X170" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Y170" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z170" t="inlineStr">
+        <is>
+          <t>12.59</t>
+        </is>
+      </c>
+      <c r="AB170" t="inlineStr">
+        <is>
+          <t>7002200</t>
+        </is>
+      </c>
+      <c r="AC170" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="AE170" t="inlineStr">
+        <is>
+          <t>28.1</t>
+        </is>
+      </c>
+      <c r="AF170" t="inlineStr">
+        <is>
+          <t>29.1</t>
+        </is>
+      </c>
+      <c r="AG170" t="inlineStr">
+        <is>
+          <t>27.2</t>
+        </is>
+      </c>
+      <c r="AH170" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AI170" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AJ170" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AK170" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AL170" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AM170" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="AN170" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AO170" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP170" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="AQ170" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR170" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="AS170" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="AT170" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="AU170" t="inlineStr">
+        <is>
+          <t>13.66</t>
+        </is>
+      </c>
+      <c r="AV170" t="inlineStr">
+        <is>
+          <t>3575.43</t>
+        </is>
+      </c>
+      <c r="AW170" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AX170" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="AY170" t="inlineStr">
+        <is>
+          <t>2913.20</t>
+        </is>
+      </c>
+      <c r="AZ170" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="BA170" t="inlineStr">
+        <is>
+          <t>22.66</t>
+        </is>
+      </c>
+      <c r="BB170" t="inlineStr">
+        <is>
+          <t>10328.20</t>
+        </is>
+      </c>
+      <c r="BC170" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="BD170" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BE170" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BF170" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="BG170" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BH170" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="BI170" t="inlineStr">
+        <is>
+          <t>150225156</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>2022-07-04 17:24:13</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>29.4</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>30.2</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>28.6</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>26.1</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="I171" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M171" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N171" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="O171" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="P171" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q171" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R171" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S171" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T171" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U171" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V171" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="W171" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="X171" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Y171" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z171" t="inlineStr">
+        <is>
+          <t>11.75</t>
+        </is>
+      </c>
+      <c r="AB171" t="inlineStr">
+        <is>
+          <t>7002200</t>
+        </is>
+      </c>
+      <c r="AC171" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="AE171" t="inlineStr">
+        <is>
+          <t>29.5</t>
+        </is>
+      </c>
+      <c r="AF171" t="inlineStr">
+        <is>
+          <t>30.2</t>
+        </is>
+      </c>
+      <c r="AG171" t="inlineStr">
+        <is>
+          <t>28.4</t>
+        </is>
+      </c>
+      <c r="AH171" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AI171" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AJ171" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AK171" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AL171" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AM171" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="AN171" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AO171" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP171" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="AQ171" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR171" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="AS171" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="AT171" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="AU171" t="inlineStr">
+        <is>
+          <t>13.09</t>
+        </is>
+      </c>
+      <c r="AV171" t="inlineStr">
+        <is>
+          <t>3575.90</t>
+        </is>
+      </c>
+      <c r="AW171" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AX171" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="AY171" t="inlineStr">
+        <is>
+          <t>2913.20</t>
+        </is>
+      </c>
+      <c r="AZ171" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="BA171" t="inlineStr">
+        <is>
+          <t>19.78</t>
+        </is>
+      </c>
+      <c r="BB171" t="inlineStr">
+        <is>
+          <t>10328.75</t>
+        </is>
+      </c>
+      <c r="BC171" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="BD171" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BE171" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BF171" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="BG171" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BH171" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="BI171" t="inlineStr">
+        <is>
+          <t>150225156</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>2022-07-09 15:40:02</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>25.9</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>27.1</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>23.8</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>24.8</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="I172" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M172" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="N172" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="O172" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="P172" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q172" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R172" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S172" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T172" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U172" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V172" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="W172" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="X172" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Y172" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z172" t="inlineStr">
+        <is>
+          <t>11.38</t>
+        </is>
+      </c>
+      <c r="AB172" t="inlineStr">
+        <is>
+          <t>7002200</t>
+        </is>
+      </c>
+      <c r="AC172" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="AE172" t="inlineStr">
+        <is>
+          <t>25.8</t>
+        </is>
+      </c>
+      <c r="AF172" t="inlineStr">
+        <is>
+          <t>26.9</t>
+        </is>
+      </c>
+      <c r="AG172" t="inlineStr">
+        <is>
+          <t>23.9</t>
+        </is>
+      </c>
+      <c r="AH172" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AI172" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AJ172" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AK172" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AL172" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AM172" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="AN172" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AO172" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP172" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="AQ172" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR172" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="AS172" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="AT172" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="AU172" t="inlineStr">
+        <is>
+          <t>12.07</t>
+        </is>
+      </c>
+      <c r="AV172" t="inlineStr">
+        <is>
+          <t>3577.84</t>
+        </is>
+      </c>
+      <c r="AW172" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AX172" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="AY172" t="inlineStr">
+        <is>
+          <t>2913.20</t>
+        </is>
+      </c>
+      <c r="AZ172" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="BA172" t="inlineStr">
+        <is>
+          <t>14.88</t>
+        </is>
+      </c>
+      <c r="BB172" t="inlineStr">
+        <is>
+          <t>10328.80</t>
+        </is>
+      </c>
+      <c r="BC172" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="BD172" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BE172" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BF172" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="BG172" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BH172" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="BI172" t="inlineStr">
+        <is>
+          <t>150226180</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>2022-07-10 10:11:11</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>20.8</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>25.6</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>19.1</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>24.6</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="I173" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M173" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N173" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="O173" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="P173" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q173" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R173" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S173" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T173" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U173" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V173" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="W173" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="X173" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Y173" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z173" t="inlineStr">
+        <is>
+          <t>12.14</t>
+        </is>
+      </c>
+      <c r="AB173" t="inlineStr">
+        <is>
+          <t>7002200</t>
+        </is>
+      </c>
+      <c r="AC173" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="AE173" t="inlineStr">
+        <is>
+          <t>20.9</t>
+        </is>
+      </c>
+      <c r="AF173" t="inlineStr">
+        <is>
+          <t>25.5</t>
+        </is>
+      </c>
+      <c r="AG173" t="inlineStr">
+        <is>
+          <t>19.2</t>
+        </is>
+      </c>
+      <c r="AH173" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI173" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AJ173" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AK173" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AL173" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AM173" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="AN173" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AO173" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP173" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="AQ173" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR173" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="AS173" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="AT173" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="AU173" t="inlineStr">
+        <is>
+          <t>12.02</t>
+        </is>
+      </c>
+      <c r="AV173" t="inlineStr">
+        <is>
+          <t>3578.17</t>
+        </is>
+      </c>
+      <c r="AW173" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AX173" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="AY173" t="inlineStr">
+        <is>
+          <t>2913.20</t>
+        </is>
+      </c>
+      <c r="AZ173" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="BA173" t="inlineStr">
+        <is>
+          <t>14.16</t>
+        </is>
+      </c>
+      <c r="BB173" t="inlineStr">
+        <is>
+          <t>10328.83</t>
+        </is>
+      </c>
+      <c r="BC173" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="BD173" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BE173" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BF173" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="BG173" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BH173" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="BI173" t="inlineStr">
+        <is>
+          <t>149177348</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>2022-07-12 16:22:32</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>26.7</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>27.7</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>25.1</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="I174" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M174" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N174" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="O174" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="P174" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q174" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R174" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S174" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T174" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U174" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V174" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="W174" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="X174" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Y174" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z174" t="inlineStr">
+        <is>
+          <t>13.18</t>
+        </is>
+      </c>
+      <c r="AA174" t="inlineStr"/>
+      <c r="AB174" t="inlineStr">
+        <is>
+          <t>7002200</t>
+        </is>
+      </c>
+      <c r="AC174" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="AD174" t="inlineStr"/>
+      <c r="AE174" t="inlineStr">
+        <is>
+          <t>26.7</t>
+        </is>
+      </c>
+      <c r="AF174" t="inlineStr">
+        <is>
+          <t>27.5</t>
+        </is>
+      </c>
+      <c r="AG174" t="inlineStr">
+        <is>
+          <t>24.8</t>
+        </is>
+      </c>
+      <c r="AH174" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AI174" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AJ174" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AK174" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AL174" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AM174" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="AN174" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AO174" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP174" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="AQ174" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR174" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="AS174" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="AT174" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="AU174" t="inlineStr">
+        <is>
+          <t>12.32</t>
+        </is>
+      </c>
+      <c r="AV174" t="inlineStr">
+        <is>
+          <t>3579.10</t>
+        </is>
+      </c>
+      <c r="AW174" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AX174" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="AY174" t="inlineStr">
+        <is>
+          <t>2913.20</t>
+        </is>
+      </c>
+      <c r="AZ174" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="BA174" t="inlineStr">
+        <is>
+          <t>14.14</t>
+        </is>
+      </c>
+      <c r="BB174" t="inlineStr">
+        <is>
+          <t>10329.03</t>
+        </is>
+      </c>
+      <c r="BC174" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="BD174" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BE174" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BF174" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="BG174" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BH174" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="BI174" t="inlineStr">
+        <is>
+          <t>150226180</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/SampleData.xlsx
+++ b/SampleData.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BI174"/>
+  <dimension ref="A1:BI179"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
@@ -42552,7 +42552,6 @@
           <t>13.18</t>
         </is>
       </c>
-      <c r="AA174" t="inlineStr"/>
       <c r="AB174" t="inlineStr">
         <is>
           <t>7002200</t>
@@ -42563,7 +42562,6 @@
           <t>2200</t>
         </is>
       </c>
-      <c r="AD174" t="inlineStr"/>
       <c r="AE174" t="inlineStr">
         <is>
           <t>26.7</t>
@@ -42717,6 +42715,1493 @@
       <c r="BI174" t="inlineStr">
         <is>
           <t>150226180</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>2022-07-13 16:52:49</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>26.8</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>27.2</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>25.4</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>25.6</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="I175" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M175" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N175" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="O175" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="P175" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q175" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R175" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S175" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T175" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U175" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V175" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="W175" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="X175" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Y175" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z175" t="inlineStr">
+        <is>
+          <t>12.61</t>
+        </is>
+      </c>
+      <c r="AB175" t="inlineStr">
+        <is>
+          <t>7002200</t>
+        </is>
+      </c>
+      <c r="AC175" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="AE175" t="inlineStr">
+        <is>
+          <t>26.7</t>
+        </is>
+      </c>
+      <c r="AF175" t="inlineStr">
+        <is>
+          <t>27.3</t>
+        </is>
+      </c>
+      <c r="AG175" t="inlineStr">
+        <is>
+          <t>25.4</t>
+        </is>
+      </c>
+      <c r="AH175" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AI175" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AJ175" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AK175" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AL175" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AM175" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="AN175" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AO175" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP175" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="AQ175" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR175" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="AS175" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="AT175" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="AU175" t="inlineStr">
+        <is>
+          <t>12.14</t>
+        </is>
+      </c>
+      <c r="AV175" t="inlineStr">
+        <is>
+          <t>3579.44</t>
+        </is>
+      </c>
+      <c r="AW175" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AX175" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="AY175" t="inlineStr">
+        <is>
+          <t>2913.20</t>
+        </is>
+      </c>
+      <c r="AZ175" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="BA175" t="inlineStr">
+        <is>
+          <t>13.54</t>
+        </is>
+      </c>
+      <c r="BB175" t="inlineStr">
+        <is>
+          <t>10329.03</t>
+        </is>
+      </c>
+      <c r="BC175" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="BD175" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BE175" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BF175" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="BG175" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BH175" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="BI175" t="inlineStr">
+        <is>
+          <t>150225156</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>2022-07-14 17:41:19</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>25.8</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>26.9</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>21.9</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>24.2</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="I176" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M176" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N176" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="O176" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="P176" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q176" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R176" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S176" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T176" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U176" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V176" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="W176" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="X176" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Y176" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z176" t="inlineStr">
+        <is>
+          <t>9.89</t>
+        </is>
+      </c>
+      <c r="AB176" t="inlineStr">
+        <is>
+          <t>7002200</t>
+        </is>
+      </c>
+      <c r="AC176" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="AE176" t="inlineStr">
+        <is>
+          <t>25.8</t>
+        </is>
+      </c>
+      <c r="AF176" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="AG176" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="AH176" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AI176" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AJ176" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AK176" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AL176" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AM176" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="AN176" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AO176" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP176" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="AQ176" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR176" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="AS176" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="AT176" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="AU176" t="inlineStr">
+        <is>
+          <t>11.71</t>
+        </is>
+      </c>
+      <c r="AV176" t="inlineStr">
+        <is>
+          <t>3579.81</t>
+        </is>
+      </c>
+      <c r="AW176" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AX176" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="AY176" t="inlineStr">
+        <is>
+          <t>2913.20</t>
+        </is>
+      </c>
+      <c r="AZ176" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="BA176" t="inlineStr">
+        <is>
+          <t>11.53</t>
+        </is>
+      </c>
+      <c r="BB176" t="inlineStr">
+        <is>
+          <t>10329.04</t>
+        </is>
+      </c>
+      <c r="BC176" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="BD176" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BE176" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BF176" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="BG176" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BH176" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="BI176" t="inlineStr">
+        <is>
+          <t>150226180</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>2022-07-15 17:25:57</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>21.8</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>26.3</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>24.5</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="I177" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M177" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N177" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="O177" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="P177" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q177" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R177" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S177" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T177" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U177" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V177" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="W177" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="X177" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Y177" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z177" t="inlineStr">
+        <is>
+          <t>10.96</t>
+        </is>
+      </c>
+      <c r="AB177" t="inlineStr">
+        <is>
+          <t>7002200</t>
+        </is>
+      </c>
+      <c r="AC177" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="AE177" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="AF177" t="inlineStr">
+        <is>
+          <t>26.5</t>
+        </is>
+      </c>
+      <c r="AG177" t="inlineStr">
+        <is>
+          <t>19.9</t>
+        </is>
+      </c>
+      <c r="AH177" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI177" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AJ177" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AK177" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AL177" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AM177" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="AN177" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AO177" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP177" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="AQ177" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR177" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="AS177" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="AT177" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="AU177" t="inlineStr">
+        <is>
+          <t>11.69</t>
+        </is>
+      </c>
+      <c r="AV177" t="inlineStr">
+        <is>
+          <t>3580.26</t>
+        </is>
+      </c>
+      <c r="AW177" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AX177" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="AY177" t="inlineStr">
+        <is>
+          <t>2913.20</t>
+        </is>
+      </c>
+      <c r="AZ177" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="BA177" t="inlineStr">
+        <is>
+          <t>11.54</t>
+        </is>
+      </c>
+      <c r="BB177" t="inlineStr">
+        <is>
+          <t>10329.06</t>
+        </is>
+      </c>
+      <c r="BC177" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="BD177" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BE177" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BF177" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="BG177" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BH177" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="BI177" t="inlineStr">
+        <is>
+          <t>150225924</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>2022-07-16 11:36:43</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>19.8</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>24.9</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>17.8</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>23.9</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="I178" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M178" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N178" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="O178" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="P178" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q178" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R178" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S178" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T178" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U178" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V178" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="W178" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="X178" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Y178" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z178" t="inlineStr">
+        <is>
+          <t>11.25</t>
+        </is>
+      </c>
+      <c r="AB178" t="inlineStr">
+        <is>
+          <t>7002200</t>
+        </is>
+      </c>
+      <c r="AC178" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="AE178" t="inlineStr">
+        <is>
+          <t>19.9</t>
+        </is>
+      </c>
+      <c r="AF178" t="inlineStr">
+        <is>
+          <t>24.9</t>
+        </is>
+      </c>
+      <c r="AG178" t="inlineStr">
+        <is>
+          <t>17.5</t>
+        </is>
+      </c>
+      <c r="AH178" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI178" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AJ178" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AK178" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AL178" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AM178" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="AN178" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AO178" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP178" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="AQ178" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR178" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="AS178" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="AT178" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="AU178" t="inlineStr">
+        <is>
+          <t>11.56</t>
+        </is>
+      </c>
+      <c r="AV178" t="inlineStr">
+        <is>
+          <t>3580.62</t>
+        </is>
+      </c>
+      <c r="AW178" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AX178" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="AY178" t="inlineStr">
+        <is>
+          <t>2913.20</t>
+        </is>
+      </c>
+      <c r="AZ178" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="BA178" t="inlineStr">
+        <is>
+          <t>11.65</t>
+        </is>
+      </c>
+      <c r="BB178" t="inlineStr">
+        <is>
+          <t>10329.19</t>
+        </is>
+      </c>
+      <c r="BC178" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="BD178" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BE178" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BF178" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="BG178" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BH178" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="BI178" t="inlineStr">
+        <is>
+          <t>150225924</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>2022-07-16 12:40:09</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>22.2</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>25.4</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>21.2</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>24.2</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="I179" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M179" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N179" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="O179" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="P179" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q179" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R179" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S179" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T179" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U179" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V179" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="W179" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="X179" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Y179" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z179" t="inlineStr">
+        <is>
+          <t>11.65</t>
+        </is>
+      </c>
+      <c r="AA179" t="inlineStr"/>
+      <c r="AB179" t="inlineStr">
+        <is>
+          <t>7002200</t>
+        </is>
+      </c>
+      <c r="AC179" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="AD179" t="inlineStr"/>
+      <c r="AE179" t="inlineStr">
+        <is>
+          <t>22.2</t>
+        </is>
+      </c>
+      <c r="AF179" t="inlineStr">
+        <is>
+          <t>25.7</t>
+        </is>
+      </c>
+      <c r="AG179" t="inlineStr">
+        <is>
+          <t>21.2</t>
+        </is>
+      </c>
+      <c r="AH179" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI179" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AJ179" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AK179" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AL179" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AM179" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="AN179" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AO179" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP179" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="AQ179" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR179" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="AS179" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="AT179" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="AU179" t="inlineStr">
+        <is>
+          <t>11.59</t>
+        </is>
+      </c>
+      <c r="AV179" t="inlineStr">
+        <is>
+          <t>3580.65</t>
+        </is>
+      </c>
+      <c r="AW179" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AX179" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="AY179" t="inlineStr">
+        <is>
+          <t>2913.20</t>
+        </is>
+      </c>
+      <c r="AZ179" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="BA179" t="inlineStr">
+        <is>
+          <t>11.65</t>
+        </is>
+      </c>
+      <c r="BB179" t="inlineStr">
+        <is>
+          <t>10329.19</t>
+        </is>
+      </c>
+      <c r="BC179" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="BD179" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BE179" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BF179" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="BG179" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BH179" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="BI179" t="inlineStr">
+        <is>
+          <t>149177348</t>
         </is>
       </c>
     </row>

--- a/SampleData.xlsx
+++ b/SampleData.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BI179"/>
+  <dimension ref="A1:BI180"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
@@ -44037,7 +44037,6 @@
           <t>11.65</t>
         </is>
       </c>
-      <c r="AA179" t="inlineStr"/>
       <c r="AB179" t="inlineStr">
         <is>
           <t>7002200</t>
@@ -44048,7 +44047,6 @@
           <t>2200</t>
         </is>
       </c>
-      <c r="AD179" t="inlineStr"/>
       <c r="AE179" t="inlineStr">
         <is>
           <t>22.2</t>
@@ -44202,6 +44200,305 @@
       <c r="BI179" t="inlineStr">
         <is>
           <t>149177348</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>2022-07-19 17:23:46</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>28.3</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>28.6</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>26.7</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>25.7</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="I180" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M180" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N180" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="O180" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="P180" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q180" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R180" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S180" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T180" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U180" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V180" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="W180" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="X180" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Y180" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z180" t="inlineStr">
+        <is>
+          <t>13.40</t>
+        </is>
+      </c>
+      <c r="AA180" t="inlineStr"/>
+      <c r="AB180" t="inlineStr">
+        <is>
+          <t>7002200</t>
+        </is>
+      </c>
+      <c r="AC180" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="AD180" t="inlineStr"/>
+      <c r="AE180" t="inlineStr">
+        <is>
+          <t>28.1</t>
+        </is>
+      </c>
+      <c r="AF180" t="inlineStr">
+        <is>
+          <t>28.6</t>
+        </is>
+      </c>
+      <c r="AG180" t="inlineStr">
+        <is>
+          <t>26.7</t>
+        </is>
+      </c>
+      <c r="AH180" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AI180" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AJ180" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AK180" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AL180" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AM180" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="AN180" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AO180" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP180" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="AQ180" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR180" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="AS180" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="AT180" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="AU180" t="inlineStr">
+        <is>
+          <t>11.51</t>
+        </is>
+      </c>
+      <c r="AV180" t="inlineStr">
+        <is>
+          <t>3582.14</t>
+        </is>
+      </c>
+      <c r="AW180" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AX180" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="AY180" t="inlineStr">
+        <is>
+          <t>2913.20</t>
+        </is>
+      </c>
+      <c r="AZ180" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="BA180" t="inlineStr">
+        <is>
+          <t>8.69</t>
+        </is>
+      </c>
+      <c r="BB180" t="inlineStr">
+        <is>
+          <t>10329.57</t>
+        </is>
+      </c>
+      <c r="BC180" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="BD180" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BE180" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BF180" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="BG180" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BH180" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="BI180" t="inlineStr">
+        <is>
+          <t>150225156</t>
         </is>
       </c>
     </row>

--- a/SampleData.xlsx
+++ b/SampleData.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BI180"/>
+  <dimension ref="A1:BI181"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
@@ -44334,7 +44334,6 @@
           <t>13.40</t>
         </is>
       </c>
-      <c r="AA180" t="inlineStr"/>
       <c r="AB180" t="inlineStr">
         <is>
           <t>7002200</t>
@@ -44345,7 +44344,6 @@
           <t>2200</t>
         </is>
       </c>
-      <c r="AD180" t="inlineStr"/>
       <c r="AE180" t="inlineStr">
         <is>
           <t>28.1</t>
@@ -44499,6 +44497,305 @@
       <c r="BI180" t="inlineStr">
         <is>
           <t>150225156</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>2022-07-21 15:31:27</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>31.8</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>29.6</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>25.8</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="I181" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M181" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N181" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="O181" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="P181" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q181" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R181" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="S181" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T181" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U181" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V181" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="W181" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="X181" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="Y181" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z181" t="inlineStr">
+        <is>
+          <t>12.76</t>
+        </is>
+      </c>
+      <c r="AA181" t="inlineStr"/>
+      <c r="AB181" t="inlineStr">
+        <is>
+          <t>7002200</t>
+        </is>
+      </c>
+      <c r="AC181" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="AD181" t="inlineStr"/>
+      <c r="AE181" t="inlineStr">
+        <is>
+          <t>31.8</t>
+        </is>
+      </c>
+      <c r="AF181" t="inlineStr">
+        <is>
+          <t>29.6</t>
+        </is>
+      </c>
+      <c r="AG181" t="inlineStr">
+        <is>
+          <t>36.9</t>
+        </is>
+      </c>
+      <c r="AH181" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AI181" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AJ181" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AK181" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AL181" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AM181" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="AN181" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="AO181" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="AP181" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="AQ181" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR181" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="AS181" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="AT181" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="AU181" t="inlineStr">
+        <is>
+          <t>10.98</t>
+        </is>
+      </c>
+      <c r="AV181" t="inlineStr">
+        <is>
+          <t>3582.82</t>
+        </is>
+      </c>
+      <c r="AW181" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AX181" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AY181" t="inlineStr">
+        <is>
+          <t>2913.20</t>
+        </is>
+      </c>
+      <c r="AZ181" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="BA181" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="BB181" t="inlineStr">
+        <is>
+          <t>10330.05</t>
+        </is>
+      </c>
+      <c r="BC181" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="BD181" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BE181" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BF181" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="BG181" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BH181" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="BI181" t="inlineStr">
+        <is>
+          <t>150225164</t>
         </is>
       </c>
     </row>

--- a/SampleData.xlsx
+++ b/SampleData.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BI181"/>
+  <dimension ref="A1:BI183"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
@@ -44631,7 +44631,6 @@
           <t>12.76</t>
         </is>
       </c>
-      <c r="AA181" t="inlineStr"/>
       <c r="AB181" t="inlineStr">
         <is>
           <t>7002200</t>
@@ -44642,7 +44641,6 @@
           <t>2200</t>
         </is>
       </c>
-      <c r="AD181" t="inlineStr"/>
       <c r="AE181" t="inlineStr">
         <is>
           <t>31.8</t>
@@ -44796,6 +44794,602 @@
       <c r="BI181" t="inlineStr">
         <is>
           <t>150225164</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>2022-07-23 18:38:12</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>25.9</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>27.8</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>22.2</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>25.5</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="I182" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M182" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N182" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="O182" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="P182" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q182" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R182" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S182" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T182" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U182" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V182" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="W182" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="X182" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Y182" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z182" t="inlineStr">
+        <is>
+          <t>14.19</t>
+        </is>
+      </c>
+      <c r="AB182" t="inlineStr">
+        <is>
+          <t>7002200</t>
+        </is>
+      </c>
+      <c r="AC182" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="AE182" t="inlineStr">
+        <is>
+          <t>25.9</t>
+        </is>
+      </c>
+      <c r="AF182" t="inlineStr">
+        <is>
+          <t>27.9</t>
+        </is>
+      </c>
+      <c r="AG182" t="inlineStr">
+        <is>
+          <t>22.2</t>
+        </is>
+      </c>
+      <c r="AH182" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AI182" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AJ182" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AK182" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AL182" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AM182" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="AN182" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AO182" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP182" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="AQ182" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR182" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="AS182" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="AT182" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="AU182" t="inlineStr">
+        <is>
+          <t>11.04</t>
+        </is>
+      </c>
+      <c r="AV182" t="inlineStr">
+        <is>
+          <t>3583.57</t>
+        </is>
+      </c>
+      <c r="AW182" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AX182" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AY182" t="inlineStr">
+        <is>
+          <t>2913.20</t>
+        </is>
+      </c>
+      <c r="AZ182" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="BA182" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="BB182" t="inlineStr">
+        <is>
+          <t>10330.95</t>
+        </is>
+      </c>
+      <c r="BC182" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="BD182" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BE182" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BF182" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="BG182" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BH182" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="BI182" t="inlineStr">
+        <is>
+          <t>149177604</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>2022-07-24 12:12:24</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>22.5</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>27.2</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>20.6</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>24.9</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="I183" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M183" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N183" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="O183" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="P183" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q183" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R183" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S183" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T183" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U183" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V183" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="W183" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="X183" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Y183" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z183" t="inlineStr">
+        <is>
+          <t>12.81</t>
+        </is>
+      </c>
+      <c r="AA183" t="inlineStr"/>
+      <c r="AB183" t="inlineStr">
+        <is>
+          <t>7002200</t>
+        </is>
+      </c>
+      <c r="AC183" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="AD183" t="inlineStr"/>
+      <c r="AE183" t="inlineStr">
+        <is>
+          <t>22.5</t>
+        </is>
+      </c>
+      <c r="AF183" t="inlineStr">
+        <is>
+          <t>27.2</t>
+        </is>
+      </c>
+      <c r="AG183" t="inlineStr">
+        <is>
+          <t>20.8</t>
+        </is>
+      </c>
+      <c r="AH183" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI183" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AJ183" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AK183" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AL183" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AM183" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="AN183" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AO183" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP183" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="AQ183" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR183" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="AS183" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="AT183" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="AU183" t="inlineStr">
+        <is>
+          <t>11.04</t>
+        </is>
+      </c>
+      <c r="AV183" t="inlineStr">
+        <is>
+          <t>3583.84</t>
+        </is>
+      </c>
+      <c r="AW183" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AX183" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AY183" t="inlineStr">
+        <is>
+          <t>2913.20</t>
+        </is>
+      </c>
+      <c r="AZ183" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="BA183" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="BB183" t="inlineStr">
+        <is>
+          <t>10330.96</t>
+        </is>
+      </c>
+      <c r="BC183" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="BD183" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BE183" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BF183" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="BG183" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BH183" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="BI183" t="inlineStr">
+        <is>
+          <t>149177348</t>
         </is>
       </c>
     </row>

--- a/SampleData.xlsx
+++ b/SampleData.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BI183"/>
+  <dimension ref="A1:BI185"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
@@ -45225,7 +45225,6 @@
           <t>12.81</t>
         </is>
       </c>
-      <c r="AA183" t="inlineStr"/>
       <c r="AB183" t="inlineStr">
         <is>
           <t>7002200</t>
@@ -45236,7 +45235,6 @@
           <t>2200</t>
         </is>
       </c>
-      <c r="AD183" t="inlineStr"/>
       <c r="AE183" t="inlineStr">
         <is>
           <t>22.5</t>
@@ -45390,6 +45388,602 @@
       <c r="BI183" t="inlineStr">
         <is>
           <t>149177348</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>2022-07-26 14:24:35</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>26.6</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>27.2</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>25.8</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>25.6</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="I184" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M184" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N184" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="O184" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="P184" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q184" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R184" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S184" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T184" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U184" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V184" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="W184" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="X184" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Y184" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z184" t="inlineStr">
+        <is>
+          <t>12.61</t>
+        </is>
+      </c>
+      <c r="AB184" t="inlineStr">
+        <is>
+          <t>7002200</t>
+        </is>
+      </c>
+      <c r="AC184" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="AE184" t="inlineStr">
+        <is>
+          <t>26.7</t>
+        </is>
+      </c>
+      <c r="AF184" t="inlineStr">
+        <is>
+          <t>27.3</t>
+        </is>
+      </c>
+      <c r="AG184" t="inlineStr">
+        <is>
+          <t>25.7</t>
+        </is>
+      </c>
+      <c r="AH184" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AI184" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AJ184" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AK184" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AL184" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AM184" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="AN184" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AO184" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP184" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="AQ184" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR184" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="AS184" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="AT184" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="AU184" t="inlineStr">
+        <is>
+          <t>11.23</t>
+        </is>
+      </c>
+      <c r="AV184" t="inlineStr">
+        <is>
+          <t>3584.69</t>
+        </is>
+      </c>
+      <c r="AW184" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AX184" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AY184" t="inlineStr">
+        <is>
+          <t>2913.20</t>
+        </is>
+      </c>
+      <c r="AZ184" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="BA184" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="BB184" t="inlineStr">
+        <is>
+          <t>10331.15</t>
+        </is>
+      </c>
+      <c r="BC184" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="BD184" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BE184" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BF184" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="BG184" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BH184" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="BI184" t="inlineStr">
+        <is>
+          <t>149176580</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>2022-07-26 14:24:49</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>26.6</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>27.1</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>25.7</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>25.6</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="I185" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M185" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N185" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="O185" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="P185" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q185" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R185" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S185" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T185" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U185" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V185" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="W185" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="X185" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Y185" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z185" t="inlineStr">
+        <is>
+          <t>12.61</t>
+        </is>
+      </c>
+      <c r="AA185" t="inlineStr"/>
+      <c r="AB185" t="inlineStr">
+        <is>
+          <t>7002200</t>
+        </is>
+      </c>
+      <c r="AC185" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="AD185" t="inlineStr"/>
+      <c r="AE185" t="inlineStr">
+        <is>
+          <t>26.5</t>
+        </is>
+      </c>
+      <c r="AF185" t="inlineStr">
+        <is>
+          <t>27.2</t>
+        </is>
+      </c>
+      <c r="AG185" t="inlineStr">
+        <is>
+          <t>25.7</t>
+        </is>
+      </c>
+      <c r="AH185" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AI185" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AJ185" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AK185" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AL185" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AM185" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="AN185" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AO185" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP185" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="AQ185" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR185" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="AS185" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="AT185" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="AU185" t="inlineStr">
+        <is>
+          <t>11.23</t>
+        </is>
+      </c>
+      <c r="AV185" t="inlineStr">
+        <is>
+          <t>3584.69</t>
+        </is>
+      </c>
+      <c r="AW185" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AX185" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AY185" t="inlineStr">
+        <is>
+          <t>2913.20</t>
+        </is>
+      </c>
+      <c r="AZ185" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="BA185" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="BB185" t="inlineStr">
+        <is>
+          <t>10331.15</t>
+        </is>
+      </c>
+      <c r="BC185" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="BD185" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BE185" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BF185" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="BG185" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BH185" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="BI185" t="inlineStr">
+        <is>
+          <t>149176580</t>
         </is>
       </c>
     </row>

--- a/SampleData.xlsx
+++ b/SampleData.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BI185"/>
+  <dimension ref="A1:BI186"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
@@ -45819,7 +45819,6 @@
           <t>12.61</t>
         </is>
       </c>
-      <c r="AA185" t="inlineStr"/>
       <c r="AB185" t="inlineStr">
         <is>
           <t>7002200</t>
@@ -45830,7 +45829,6 @@
           <t>2200</t>
         </is>
       </c>
-      <c r="AD185" t="inlineStr"/>
       <c r="AE185" t="inlineStr">
         <is>
           <t>26.5</t>
@@ -45984,6 +45982,305 @@
       <c r="BI185" t="inlineStr">
         <is>
           <t>149176580</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>2022-07-27 12:43:00</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>23.9</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>26.3</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>22.9</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>24.9</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="I186" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J186" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M186" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N186" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="O186" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="P186" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q186" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R186" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S186" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T186" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U186" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V186" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="W186" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="X186" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Y186" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z186" t="inlineStr">
+        <is>
+          <t>11.89</t>
+        </is>
+      </c>
+      <c r="AA186" t="inlineStr"/>
+      <c r="AB186" t="inlineStr">
+        <is>
+          <t>7002200</t>
+        </is>
+      </c>
+      <c r="AC186" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="AD186" t="inlineStr"/>
+      <c r="AE186" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="AF186" t="inlineStr">
+        <is>
+          <t>26.3</t>
+        </is>
+      </c>
+      <c r="AG186" t="inlineStr">
+        <is>
+          <t>22.8</t>
+        </is>
+      </c>
+      <c r="AH186" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI186" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AJ186" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AK186" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AL186" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AM186" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="AN186" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AO186" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP186" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="AQ186" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR186" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="AS186" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="AT186" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="AU186" t="inlineStr">
+        <is>
+          <t>11.24</t>
+        </is>
+      </c>
+      <c r="AV186" t="inlineStr">
+        <is>
+          <t>3585.03</t>
+        </is>
+      </c>
+      <c r="AW186" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AX186" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AY186" t="inlineStr">
+        <is>
+          <t>2913.20</t>
+        </is>
+      </c>
+      <c r="AZ186" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="BA186" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="BB186" t="inlineStr">
+        <is>
+          <t>10331.16</t>
+        </is>
+      </c>
+      <c r="BC186" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="BD186" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BE186" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BF186" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="BG186" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BH186" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="BI186" t="inlineStr">
+        <is>
+          <t>150225924</t>
         </is>
       </c>
     </row>

--- a/SampleData.xlsx
+++ b/SampleData.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BI186"/>
+  <dimension ref="A1:BI188"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
@@ -46116,7 +46116,6 @@
           <t>11.89</t>
         </is>
       </c>
-      <c r="AA186" t="inlineStr"/>
       <c r="AB186" t="inlineStr">
         <is>
           <t>7002200</t>
@@ -46127,7 +46126,6 @@
           <t>2200</t>
         </is>
       </c>
-      <c r="AD186" t="inlineStr"/>
       <c r="AE186" t="inlineStr">
         <is>
           <t>24.0</t>
@@ -46281,6 +46279,602 @@
       <c r="BI186" t="inlineStr">
         <is>
           <t>150225924</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>2022-07-28 17:56:29</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>24.2</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>27.4</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>21.4</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="I187" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J187" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M187" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N187" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="O187" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="P187" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q187" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R187" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S187" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T187" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U187" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V187" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="W187" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="X187" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Y187" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z187" t="inlineStr">
+        <is>
+          <t>12.43</t>
+        </is>
+      </c>
+      <c r="AB187" t="inlineStr">
+        <is>
+          <t>7002200</t>
+        </is>
+      </c>
+      <c r="AC187" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="AE187" t="inlineStr">
+        <is>
+          <t>24.1</t>
+        </is>
+      </c>
+      <c r="AF187" t="inlineStr">
+        <is>
+          <t>27.5</t>
+        </is>
+      </c>
+      <c r="AG187" t="inlineStr">
+        <is>
+          <t>21.4</t>
+        </is>
+      </c>
+      <c r="AH187" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI187" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AJ187" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AK187" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AL187" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AM187" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="AN187" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AO187" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP187" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="AQ187" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR187" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="AS187" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="AT187" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="AU187" t="inlineStr">
+        <is>
+          <t>11.58</t>
+        </is>
+      </c>
+      <c r="AV187" t="inlineStr">
+        <is>
+          <t>3585.68</t>
+        </is>
+      </c>
+      <c r="AW187" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AX187" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AY187" t="inlineStr">
+        <is>
+          <t>2913.20</t>
+        </is>
+      </c>
+      <c r="AZ187" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="BA187" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="BB187" t="inlineStr">
+        <is>
+          <t>10331.18</t>
+        </is>
+      </c>
+      <c r="BC187" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="BD187" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BE187" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BF187" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="BG187" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BH187" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="BI187" t="inlineStr">
+        <is>
+          <t>150225924</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>2022-07-29 14:45:07</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>27.2</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>26.5</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>24.6</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="I188" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J188" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M188" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="N188" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="O188" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="P188" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q188" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R188" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S188" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T188" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U188" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V188" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="W188" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="X188" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Y188" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z188" t="inlineStr">
+        <is>
+          <t>11.47</t>
+        </is>
+      </c>
+      <c r="AA188" t="inlineStr"/>
+      <c r="AB188" t="inlineStr">
+        <is>
+          <t>7002200</t>
+        </is>
+      </c>
+      <c r="AC188" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="AD188" t="inlineStr"/>
+      <c r="AE188" t="inlineStr">
+        <is>
+          <t>27.1</t>
+        </is>
+      </c>
+      <c r="AF188" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="AG188" t="inlineStr">
+        <is>
+          <t>26.4</t>
+        </is>
+      </c>
+      <c r="AH188" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AI188" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AJ188" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AK188" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AL188" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AM188" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="AN188" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AO188" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP188" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="AQ188" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR188" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="AS188" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="AT188" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="AU188" t="inlineStr">
+        <is>
+          <t>11.69</t>
+        </is>
+      </c>
+      <c r="AV188" t="inlineStr">
+        <is>
+          <t>3586.08</t>
+        </is>
+      </c>
+      <c r="AW188" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AX188" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AY188" t="inlineStr">
+        <is>
+          <t>2913.20</t>
+        </is>
+      </c>
+      <c r="AZ188" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="BA188" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="BB188" t="inlineStr">
+        <is>
+          <t>10331.19</t>
+        </is>
+      </c>
+      <c r="BC188" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="BD188" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BE188" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BF188" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="BG188" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BH188" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="BI188" t="inlineStr">
+        <is>
+          <t>150225156</t>
         </is>
       </c>
     </row>

--- a/SampleData.xlsx
+++ b/SampleData.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BI188"/>
+  <dimension ref="A1:BI192"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
@@ -46710,7 +46710,6 @@
           <t>11.47</t>
         </is>
       </c>
-      <c r="AA188" t="inlineStr"/>
       <c r="AB188" t="inlineStr">
         <is>
           <t>7002200</t>
@@ -46721,7 +46720,6 @@
           <t>2200</t>
         </is>
       </c>
-      <c r="AD188" t="inlineStr"/>
       <c r="AE188" t="inlineStr">
         <is>
           <t>27.1</t>
@@ -46875,6 +46873,1196 @@
       <c r="BI188" t="inlineStr">
         <is>
           <t>150225156</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>2022-07-30 14:24:53</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>28.7</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>27.6</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>29.5</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>24.8</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="I189" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J189" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M189" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N189" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="O189" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="P189" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q189" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R189" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="S189" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T189" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U189" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V189" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="W189" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="X189" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="Y189" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z189" t="inlineStr">
+        <is>
+          <t>11.14</t>
+        </is>
+      </c>
+      <c r="AB189" t="inlineStr">
+        <is>
+          <t>7002200</t>
+        </is>
+      </c>
+      <c r="AC189" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="AE189" t="inlineStr">
+        <is>
+          <t>28.6</t>
+        </is>
+      </c>
+      <c r="AF189" t="inlineStr">
+        <is>
+          <t>27.6</t>
+        </is>
+      </c>
+      <c r="AG189" t="inlineStr">
+        <is>
+          <t>29.5</t>
+        </is>
+      </c>
+      <c r="AH189" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AI189" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AJ189" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AK189" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AL189" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AM189" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="AN189" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AO189" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="AP189" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="AQ189" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR189" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="AS189" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="AT189" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="AU189" t="inlineStr">
+        <is>
+          <t>11.77</t>
+        </is>
+      </c>
+      <c r="AV189" t="inlineStr">
+        <is>
+          <t>3586.46</t>
+        </is>
+      </c>
+      <c r="AW189" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AX189" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AY189" t="inlineStr">
+        <is>
+          <t>2913.20</t>
+        </is>
+      </c>
+      <c r="AZ189" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="BA189" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="BB189" t="inlineStr">
+        <is>
+          <t>10331.23</t>
+        </is>
+      </c>
+      <c r="BC189" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="BD189" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BE189" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BF189" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="BG189" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BH189" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="BI189" t="inlineStr">
+        <is>
+          <t>149176588</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>2022-08-01 13:33:20</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>26.2</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>26.2</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>26.2</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>24.9</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="I190" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J190" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M190" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N190" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="O190" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="P190" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q190" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R190" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S190" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T190" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U190" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V190" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="W190" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="X190" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Y190" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z190" t="inlineStr">
+        <is>
+          <t>11.43</t>
+        </is>
+      </c>
+      <c r="AB190" t="inlineStr">
+        <is>
+          <t>7002200</t>
+        </is>
+      </c>
+      <c r="AC190" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="AE190" t="inlineStr">
+        <is>
+          <t>26.2</t>
+        </is>
+      </c>
+      <c r="AF190" t="inlineStr">
+        <is>
+          <t>26.1</t>
+        </is>
+      </c>
+      <c r="AG190" t="inlineStr">
+        <is>
+          <t>26.2</t>
+        </is>
+      </c>
+      <c r="AH190" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="AI190" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="AJ190" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="AK190" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AL190" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AM190" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="AN190" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AO190" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP190" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="AQ190" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR190" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="AS190" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="AT190" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="AU190" t="inlineStr">
+        <is>
+          <t>11.91</t>
+        </is>
+      </c>
+      <c r="AV190" t="inlineStr">
+        <is>
+          <t>3587.20</t>
+        </is>
+      </c>
+      <c r="AW190" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AX190" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AY190" t="inlineStr">
+        <is>
+          <t>2913.20</t>
+        </is>
+      </c>
+      <c r="AZ190" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="BA190" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="BB190" t="inlineStr">
+        <is>
+          <t>10331.65</t>
+        </is>
+      </c>
+      <c r="BC190" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="BD190" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BE190" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BF190" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="BG190" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BH190" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="BI190" t="inlineStr">
+        <is>
+          <t>149176580</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>2022-08-02 09:06:50</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>22.5</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>26.8</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>20.6</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>24.8</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="I191" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J191" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M191" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="N191" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="O191" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="P191" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q191" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R191" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S191" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T191" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U191" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V191" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="W191" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="X191" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Y191" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z191" t="inlineStr">
+        <is>
+          <t>12.52</t>
+        </is>
+      </c>
+      <c r="AB191" t="inlineStr">
+        <is>
+          <t>7002200</t>
+        </is>
+      </c>
+      <c r="AC191" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="AE191" t="inlineStr">
+        <is>
+          <t>22.5</t>
+        </is>
+      </c>
+      <c r="AF191" t="inlineStr">
+        <is>
+          <t>26.9</t>
+        </is>
+      </c>
+      <c r="AG191" t="inlineStr">
+        <is>
+          <t>20.5</t>
+        </is>
+      </c>
+      <c r="AH191" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI191" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AJ191" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AK191" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AL191" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AM191" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="AN191" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AO191" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP191" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="AQ191" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR191" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="AS191" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="AT191" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="AU191" t="inlineStr">
+        <is>
+          <t>11.89</t>
+        </is>
+      </c>
+      <c r="AV191" t="inlineStr">
+        <is>
+          <t>3587.51</t>
+        </is>
+      </c>
+      <c r="AW191" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AX191" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AY191" t="inlineStr">
+        <is>
+          <t>2913.20</t>
+        </is>
+      </c>
+      <c r="AZ191" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="BA191" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="BB191" t="inlineStr">
+        <is>
+          <t>10331.66</t>
+        </is>
+      </c>
+      <c r="BC191" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="BD191" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BE191" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BF191" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="BG191" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BH191" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="BI191" t="inlineStr">
+        <is>
+          <t>150225924</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>2022-08-02 10:54:11</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>24.8</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>26.5</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>24.6</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>24.8</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="I192" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J192" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M192" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N192" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="O192" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="P192" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q192" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R192" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S192" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T192" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U192" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V192" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="W192" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="X192" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Y192" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z192" t="inlineStr">
+        <is>
+          <t>12.06</t>
+        </is>
+      </c>
+      <c r="AA192" t="inlineStr"/>
+      <c r="AB192" t="inlineStr">
+        <is>
+          <t>7002200</t>
+        </is>
+      </c>
+      <c r="AC192" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="AD192" t="inlineStr"/>
+      <c r="AE192" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="AF192" t="inlineStr">
+        <is>
+          <t>26.4</t>
+        </is>
+      </c>
+      <c r="AG192" t="inlineStr">
+        <is>
+          <t>24.6</t>
+        </is>
+      </c>
+      <c r="AH192" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI192" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AJ192" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AK192" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AL192" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AM192" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="AN192" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AO192" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP192" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="AQ192" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR192" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="AS192" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="AT192" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="AU192" t="inlineStr">
+        <is>
+          <t>11.94</t>
+        </is>
+      </c>
+      <c r="AV192" t="inlineStr">
+        <is>
+          <t>3587.56</t>
+        </is>
+      </c>
+      <c r="AW192" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AX192" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AY192" t="inlineStr">
+        <is>
+          <t>2913.20</t>
+        </is>
+      </c>
+      <c r="AZ192" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="BA192" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="BB192" t="inlineStr">
+        <is>
+          <t>10331.66</t>
+        </is>
+      </c>
+      <c r="BC192" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="BD192" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BE192" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BF192" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="BG192" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BH192" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="BI192" t="inlineStr">
+        <is>
+          <t>150224900</t>
         </is>
       </c>
     </row>

--- a/SampleData.xlsx
+++ b/SampleData.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BI192"/>
+  <dimension ref="A1:BI196"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
@@ -47898,7 +47898,6 @@
           <t>12.06</t>
         </is>
       </c>
-      <c r="AA192" t="inlineStr"/>
       <c r="AB192" t="inlineStr">
         <is>
           <t>7002200</t>
@@ -47909,7 +47908,6 @@
           <t>2200</t>
         </is>
       </c>
-      <c r="AD192" t="inlineStr"/>
       <c r="AE192" t="inlineStr">
         <is>
           <t>25.0</t>
@@ -48063,6 +48061,1196 @@
       <c r="BI192" t="inlineStr">
         <is>
           <t>150224900</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>2022-08-03 13:00:51</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>24.9</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>24.8</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="I193" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J193" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M193" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N193" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="O193" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="P193" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q193" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R193" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S193" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T193" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U193" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V193" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="W193" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="X193" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Y193" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z193" t="inlineStr">
+        <is>
+          <t>11.82</t>
+        </is>
+      </c>
+      <c r="AB193" t="inlineStr">
+        <is>
+          <t>7002200</t>
+        </is>
+      </c>
+      <c r="AC193" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="AE193" t="inlineStr">
+        <is>
+          <t>24.9</t>
+        </is>
+      </c>
+      <c r="AF193" t="inlineStr">
+        <is>
+          <t>26.1</t>
+        </is>
+      </c>
+      <c r="AG193" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="AH193" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI193" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AJ193" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AK193" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AL193" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AM193" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="AN193" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AO193" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP193" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="AQ193" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR193" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="AS193" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="AT193" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="AU193" t="inlineStr">
+        <is>
+          <t>11.99</t>
+        </is>
+      </c>
+      <c r="AV193" t="inlineStr">
+        <is>
+          <t>3587.96</t>
+        </is>
+      </c>
+      <c r="AW193" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AX193" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AY193" t="inlineStr">
+        <is>
+          <t>2913.20</t>
+        </is>
+      </c>
+      <c r="AZ193" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="BA193" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="BB193" t="inlineStr">
+        <is>
+          <t>10331.73</t>
+        </is>
+      </c>
+      <c r="BC193" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="BD193" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BE193" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BF193" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="BG193" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BH193" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="BI193" t="inlineStr">
+        <is>
+          <t>150224900</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>2022-08-04 14:20:48</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>29.1</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>27.9</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>32.8</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>25.5</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="I194" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J194" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M194" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N194" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="O194" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="P194" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q194" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R194" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="S194" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T194" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U194" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V194" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="W194" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="X194" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="Y194" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z194" t="inlineStr">
+        <is>
+          <t>12.55</t>
+        </is>
+      </c>
+      <c r="AB194" t="inlineStr">
+        <is>
+          <t>7002200</t>
+        </is>
+      </c>
+      <c r="AC194" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="AE194" t="inlineStr">
+        <is>
+          <t>29.2</t>
+        </is>
+      </c>
+      <c r="AF194" t="inlineStr">
+        <is>
+          <t>27.8</t>
+        </is>
+      </c>
+      <c r="AG194" t="inlineStr">
+        <is>
+          <t>32.8</t>
+        </is>
+      </c>
+      <c r="AH194" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AI194" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AJ194" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AK194" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AL194" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AM194" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="AN194" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="AO194" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="AP194" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AQ194" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR194" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="AS194" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="AT194" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="AU194" t="inlineStr">
+        <is>
+          <t>12.01</t>
+        </is>
+      </c>
+      <c r="AV194" t="inlineStr">
+        <is>
+          <t>3588.31</t>
+        </is>
+      </c>
+      <c r="AW194" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AX194" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AY194" t="inlineStr">
+        <is>
+          <t>2913.20</t>
+        </is>
+      </c>
+      <c r="AZ194" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="BA194" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="BB194" t="inlineStr">
+        <is>
+          <t>10331.85</t>
+        </is>
+      </c>
+      <c r="BC194" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="BD194" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BE194" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BF194" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="BG194" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BH194" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="BI194" t="inlineStr">
+        <is>
+          <t>150225164</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>2022-08-05 19:06:50</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>29.3</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>27.8</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>29.6</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="I195" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J195" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M195" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N195" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="O195" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="P195" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q195" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R195" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="S195" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T195" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U195" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V195" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="W195" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="X195" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="Y195" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z195" t="inlineStr">
+        <is>
+          <t>11.51</t>
+        </is>
+      </c>
+      <c r="AB195" t="inlineStr">
+        <is>
+          <t>7002200</t>
+        </is>
+      </c>
+      <c r="AC195" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="AE195" t="inlineStr">
+        <is>
+          <t>29.3</t>
+        </is>
+      </c>
+      <c r="AF195" t="inlineStr">
+        <is>
+          <t>27.9</t>
+        </is>
+      </c>
+      <c r="AG195" t="inlineStr">
+        <is>
+          <t>29.5</t>
+        </is>
+      </c>
+      <c r="AH195" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AI195" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AJ195" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AK195" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AL195" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AM195" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="AN195" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AO195" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="AP195" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="AQ195" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR195" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="AS195" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="AT195" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="AU195" t="inlineStr">
+        <is>
+          <t>12.03</t>
+        </is>
+      </c>
+      <c r="AV195" t="inlineStr">
+        <is>
+          <t>3588.77</t>
+        </is>
+      </c>
+      <c r="AW195" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AX195" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AY195" t="inlineStr">
+        <is>
+          <t>2913.20</t>
+        </is>
+      </c>
+      <c r="AZ195" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="BA195" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="BB195" t="inlineStr">
+        <is>
+          <t>10332.59</t>
+        </is>
+      </c>
+      <c r="BC195" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="BD195" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BE195" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BF195" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="BG195" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BH195" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="BI195" t="inlineStr">
+        <is>
+          <t>150225164</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>2022-08-09 19:16:15</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>26.1</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>27.5</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>23.8</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>25.1</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="I196" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J196" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M196" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N196" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="O196" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="P196" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q196" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R196" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S196" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T196" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U196" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V196" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="W196" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="X196" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Y196" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z196" t="inlineStr">
+        <is>
+          <t>10.42</t>
+        </is>
+      </c>
+      <c r="AA196" t="inlineStr"/>
+      <c r="AB196" t="inlineStr">
+        <is>
+          <t>7002200</t>
+        </is>
+      </c>
+      <c r="AC196" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="AD196" t="inlineStr"/>
+      <c r="AE196" t="inlineStr">
+        <is>
+          <t>26.3</t>
+        </is>
+      </c>
+      <c r="AF196" t="inlineStr">
+        <is>
+          <t>27.5</t>
+        </is>
+      </c>
+      <c r="AG196" t="inlineStr">
+        <is>
+          <t>23.6</t>
+        </is>
+      </c>
+      <c r="AH196" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AI196" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AJ196" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AK196" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AL196" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AM196" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="AN196" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AO196" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP196" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="AQ196" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR196" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="AS196" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="AT196" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="AU196" t="inlineStr">
+        <is>
+          <t>11.96</t>
+        </is>
+      </c>
+      <c r="AV196" t="inlineStr">
+        <is>
+          <t>3590.41</t>
+        </is>
+      </c>
+      <c r="AW196" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AX196" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AY196" t="inlineStr">
+        <is>
+          <t>2913.20</t>
+        </is>
+      </c>
+      <c r="AZ196" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="BA196" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="BB196" t="inlineStr">
+        <is>
+          <t>10332.84</t>
+        </is>
+      </c>
+      <c r="BC196" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="BD196" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BE196" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BF196" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="BG196" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BH196" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="BI196" t="inlineStr">
+        <is>
+          <t>149177604</t>
         </is>
       </c>
     </row>

--- a/SampleData.xlsx
+++ b/SampleData.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BI196"/>
+  <dimension ref="A1:BI197"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
@@ -49086,7 +49086,6 @@
           <t>10.42</t>
         </is>
       </c>
-      <c r="AA196" t="inlineStr"/>
       <c r="AB196" t="inlineStr">
         <is>
           <t>7002200</t>
@@ -49097,7 +49096,6 @@
           <t>2200</t>
         </is>
       </c>
-      <c r="AD196" t="inlineStr"/>
       <c r="AE196" t="inlineStr">
         <is>
           <t>26.3</t>
@@ -49251,6 +49249,305 @@
       <c r="BI196" t="inlineStr">
         <is>
           <t>149177604</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>2022-08-10 18:11:57</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>27.6</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>27.6</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>26.8</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>25.4</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="I197" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J197" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M197" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N197" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="O197" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="P197" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q197" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R197" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S197" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T197" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U197" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V197" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="W197" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="X197" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Y197" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z197" t="inlineStr">
+        <is>
+          <t>11.30</t>
+        </is>
+      </c>
+      <c r="AA197" t="inlineStr"/>
+      <c r="AB197" t="inlineStr">
+        <is>
+          <t>7002200</t>
+        </is>
+      </c>
+      <c r="AC197" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="AD197" t="inlineStr"/>
+      <c r="AE197" t="inlineStr">
+        <is>
+          <t>27.7</t>
+        </is>
+      </c>
+      <c r="AF197" t="inlineStr">
+        <is>
+          <t>27.6</t>
+        </is>
+      </c>
+      <c r="AG197" t="inlineStr">
+        <is>
+          <t>26.7</t>
+        </is>
+      </c>
+      <c r="AH197" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AI197" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AJ197" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AK197" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AL197" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AM197" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="AN197" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AO197" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP197" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="AQ197" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR197" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="AS197" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="AT197" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="AU197" t="inlineStr">
+        <is>
+          <t>11.96</t>
+        </is>
+      </c>
+      <c r="AV197" t="inlineStr">
+        <is>
+          <t>3590.77</t>
+        </is>
+      </c>
+      <c r="AW197" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AX197" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AY197" t="inlineStr">
+        <is>
+          <t>2913.20</t>
+        </is>
+      </c>
+      <c r="AZ197" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="BA197" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="BB197" t="inlineStr">
+        <is>
+          <t>10333.02</t>
+        </is>
+      </c>
+      <c r="BC197" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="BD197" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BE197" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BF197" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="BG197" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BH197" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="BI197" t="inlineStr">
+        <is>
+          <t>150225156</t>
         </is>
       </c>
     </row>

--- a/SampleData.xlsx
+++ b/SampleData.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BI197"/>
+  <dimension ref="A1:BI203"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
@@ -49383,7 +49383,6 @@
           <t>11.30</t>
         </is>
       </c>
-      <c r="AA197" t="inlineStr"/>
       <c r="AB197" t="inlineStr">
         <is>
           <t>7002200</t>
@@ -49394,7 +49393,6 @@
           <t>2200</t>
         </is>
       </c>
-      <c r="AD197" t="inlineStr"/>
       <c r="AE197" t="inlineStr">
         <is>
           <t>27.7</t>
@@ -49548,6 +49546,1790 @@
       <c r="BI197" t="inlineStr">
         <is>
           <t>150225156</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>2022-08-11 14:56:14</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>29.1</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>27.6</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>31.3</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>25.5</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="I198" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J198" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M198" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N198" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="O198" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="P198" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q198" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R198" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="S198" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T198" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U198" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V198" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="W198" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="X198" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="Y198" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z198" t="inlineStr">
+        <is>
+          <t>12.06</t>
+        </is>
+      </c>
+      <c r="AB198" t="inlineStr">
+        <is>
+          <t>7002200</t>
+        </is>
+      </c>
+      <c r="AC198" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="AE198" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="AF198" t="inlineStr">
+        <is>
+          <t>27.6</t>
+        </is>
+      </c>
+      <c r="AG198" t="inlineStr">
+        <is>
+          <t>31.1</t>
+        </is>
+      </c>
+      <c r="AH198" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AI198" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AJ198" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AK198" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AL198" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AM198" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="AN198" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AO198" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="AP198" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="AQ198" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR198" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="AS198" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="AT198" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="AU198" t="inlineStr">
+        <is>
+          <t>11.89</t>
+        </is>
+      </c>
+      <c r="AV198" t="inlineStr">
+        <is>
+          <t>3591.08</t>
+        </is>
+      </c>
+      <c r="AW198" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AX198" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AY198" t="inlineStr">
+        <is>
+          <t>2913.20</t>
+        </is>
+      </c>
+      <c r="AZ198" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="BA198" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="BB198" t="inlineStr">
+        <is>
+          <t>10333.11</t>
+        </is>
+      </c>
+      <c r="BC198" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="BD198" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BE198" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BF198" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="BG198" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BH198" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="BI198" t="inlineStr">
+        <is>
+          <t>150225164</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>2022-08-12 15:09:11</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>29.9</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>27.6</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>33.4</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>25.4</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="I199" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J199" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M199" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N199" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="O199" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="P199" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q199" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R199" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="S199" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T199" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U199" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V199" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="W199" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="X199" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="Y199" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z199" t="inlineStr">
+        <is>
+          <t>12.01</t>
+        </is>
+      </c>
+      <c r="AB199" t="inlineStr">
+        <is>
+          <t>7002200</t>
+        </is>
+      </c>
+      <c r="AC199" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="AE199" t="inlineStr">
+        <is>
+          <t>29.9</t>
+        </is>
+      </c>
+      <c r="AF199" t="inlineStr">
+        <is>
+          <t>27.4</t>
+        </is>
+      </c>
+      <c r="AG199" t="inlineStr">
+        <is>
+          <t>33.4</t>
+        </is>
+      </c>
+      <c r="AH199" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AI199" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AJ199" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AK199" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AL199" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AM199" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="AN199" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="AO199" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="AP199" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="AQ199" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR199" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="AS199" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="AT199" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="AU199" t="inlineStr">
+        <is>
+          <t>11.92</t>
+        </is>
+      </c>
+      <c r="AV199" t="inlineStr">
+        <is>
+          <t>3591.44</t>
+        </is>
+      </c>
+      <c r="AW199" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AX199" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AY199" t="inlineStr">
+        <is>
+          <t>2913.20</t>
+        </is>
+      </c>
+      <c r="AZ199" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="BA199" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="BB199" t="inlineStr">
+        <is>
+          <t>10333.48</t>
+        </is>
+      </c>
+      <c r="BC199" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="BD199" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BE199" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BF199" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="BG199" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BH199" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="BI199" t="inlineStr">
+        <is>
+          <t>150225164</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>2022-08-13 11:52:54</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>28.3</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>24.3</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="I200" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J200" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="L200" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M200" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N200" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="O200" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="P200" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q200" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R200" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="S200" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T200" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U200" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V200" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="W200" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="X200" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="Y200" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z200" t="inlineStr">
+        <is>
+          <t>10.84</t>
+        </is>
+      </c>
+      <c r="AB200" t="inlineStr">
+        <is>
+          <t>7002200</t>
+        </is>
+      </c>
+      <c r="AC200" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="AE200" t="inlineStr">
+        <is>
+          <t>28.3</t>
+        </is>
+      </c>
+      <c r="AF200" t="inlineStr">
+        <is>
+          <t>26.8</t>
+        </is>
+      </c>
+      <c r="AG200" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="AH200" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AI200" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AJ200" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AK200" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AL200" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AM200" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="AN200" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AO200" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="AP200" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="AQ200" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR200" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="AS200" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="AT200" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="AU200" t="inlineStr">
+        <is>
+          <t>11.86</t>
+        </is>
+      </c>
+      <c r="AV200" t="inlineStr">
+        <is>
+          <t>3591.76</t>
+        </is>
+      </c>
+      <c r="AW200" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AX200" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AY200" t="inlineStr">
+        <is>
+          <t>2913.20</t>
+        </is>
+      </c>
+      <c r="AZ200" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="BA200" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="BB200" t="inlineStr">
+        <is>
+          <t>10333.75</t>
+        </is>
+      </c>
+      <c r="BC200" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="BD200" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BE200" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BF200" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="BG200" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BH200" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="BI200" t="inlineStr">
+        <is>
+          <t>149176588</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>2022-08-14 15:12:12</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>30.4</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>27.8</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>35.7</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>25.6</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="I201" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J201" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="L201" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M201" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N201" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="O201" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="P201" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q201" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R201" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="S201" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T201" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U201" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V201" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="W201" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="X201" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="Y201" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z201" t="inlineStr">
+        <is>
+          <t>12.38</t>
+        </is>
+      </c>
+      <c r="AB201" t="inlineStr">
+        <is>
+          <t>7002200</t>
+        </is>
+      </c>
+      <c r="AC201" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="AE201" t="inlineStr">
+        <is>
+          <t>30.5</t>
+        </is>
+      </c>
+      <c r="AF201" t="inlineStr">
+        <is>
+          <t>27.9</t>
+        </is>
+      </c>
+      <c r="AG201" t="inlineStr">
+        <is>
+          <t>35.5</t>
+        </is>
+      </c>
+      <c r="AH201" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AI201" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AJ201" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AK201" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AL201" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AM201" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="AN201" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="AO201" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
+      <c r="AP201" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="AQ201" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR201" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="AS201" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="AT201" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="AU201" t="inlineStr">
+        <is>
+          <t>11.77</t>
+        </is>
+      </c>
+      <c r="AV201" t="inlineStr">
+        <is>
+          <t>3592.19</t>
+        </is>
+      </c>
+      <c r="AW201" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AX201" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AY201" t="inlineStr">
+        <is>
+          <t>2913.20</t>
+        </is>
+      </c>
+      <c r="AZ201" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="BA201" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="BB201" t="inlineStr">
+        <is>
+          <t>10334.55</t>
+        </is>
+      </c>
+      <c r="BC201" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="BD201" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BE201" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BF201" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="BG201" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BH201" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="BI201" t="inlineStr">
+        <is>
+          <t>150225164</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>2022-08-15 16:08:51</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>29.6</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>27.7</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>25.5</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="I202" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J202" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="L202" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M202" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N202" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="O202" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="P202" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q202" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R202" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="S202" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T202" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U202" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V202" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="W202" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="X202" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="Y202" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z202" t="inlineStr">
+        <is>
+          <t>11.35</t>
+        </is>
+      </c>
+      <c r="AB202" t="inlineStr">
+        <is>
+          <t>7002200</t>
+        </is>
+      </c>
+      <c r="AC202" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="AE202" t="inlineStr">
+        <is>
+          <t>29.5</t>
+        </is>
+      </c>
+      <c r="AF202" t="inlineStr">
+        <is>
+          <t>27.8</t>
+        </is>
+      </c>
+      <c r="AG202" t="inlineStr">
+        <is>
+          <t>32.1</t>
+        </is>
+      </c>
+      <c r="AH202" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AI202" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AJ202" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AK202" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AL202" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AM202" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="AN202" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="AO202" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="AP202" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="AQ202" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR202" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="AS202" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="AT202" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="AU202" t="inlineStr">
+        <is>
+          <t>11.63</t>
+        </is>
+      </c>
+      <c r="AV202" t="inlineStr">
+        <is>
+          <t>3592.57</t>
+        </is>
+      </c>
+      <c r="AW202" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AX202" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AY202" t="inlineStr">
+        <is>
+          <t>2913.20</t>
+        </is>
+      </c>
+      <c r="AZ202" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="BA202" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="BB202" t="inlineStr">
+        <is>
+          <t>10335.13</t>
+        </is>
+      </c>
+      <c r="BC202" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="BD202" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BE202" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BF202" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="BG202" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BH202" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="BI202" t="inlineStr">
+        <is>
+          <t>150225164</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>2022-08-18 12:31:06</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>29.9</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>28.3</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>32.7</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>25.6</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="I203" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J203" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M203" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N203" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="O203" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="P203" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q203" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R203" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="S203" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T203" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U203" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V203" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="W203" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="X203" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="Y203" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z203" t="inlineStr">
+        <is>
+          <t>12.38</t>
+        </is>
+      </c>
+      <c r="AA203" t="inlineStr"/>
+      <c r="AB203" t="inlineStr">
+        <is>
+          <t>7002200</t>
+        </is>
+      </c>
+      <c r="AC203" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="AD203" t="inlineStr"/>
+      <c r="AE203" t="inlineStr">
+        <is>
+          <t>29.8</t>
+        </is>
+      </c>
+      <c r="AF203" t="inlineStr">
+        <is>
+          <t>28.3</t>
+        </is>
+      </c>
+      <c r="AG203" t="inlineStr">
+        <is>
+          <t>32.7</t>
+        </is>
+      </c>
+      <c r="AH203" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AI203" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AJ203" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AK203" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AL203" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AM203" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="AN203" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="AO203" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="AP203" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="AQ203" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR203" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="AS203" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="AT203" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="AU203" t="inlineStr">
+        <is>
+          <t>11.34</t>
+        </is>
+      </c>
+      <c r="AV203" t="inlineStr">
+        <is>
+          <t>3593.55</t>
+        </is>
+      </c>
+      <c r="AW203" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AX203" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AY203" t="inlineStr">
+        <is>
+          <t>2913.20</t>
+        </is>
+      </c>
+      <c r="AZ203" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="BA203" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="BB203" t="inlineStr">
+        <is>
+          <t>10336.22</t>
+        </is>
+      </c>
+      <c r="BC203" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="BD203" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BE203" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BF203" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="BG203" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BH203" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="BI203" t="inlineStr">
+        <is>
+          <t>150225164</t>
         </is>
       </c>
     </row>

--- a/SampleData.xlsx
+++ b/SampleData.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BI203"/>
+  <dimension ref="A1:BI208"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
@@ -51165,7 +51165,6 @@
           <t>12.38</t>
         </is>
       </c>
-      <c r="AA203" t="inlineStr"/>
       <c r="AB203" t="inlineStr">
         <is>
           <t>7002200</t>
@@ -51176,7 +51175,6 @@
           <t>2200</t>
         </is>
       </c>
-      <c r="AD203" t="inlineStr"/>
       <c r="AE203" t="inlineStr">
         <is>
           <t>29.8</t>
@@ -51330,6 +51328,1493 @@
       <c r="BI203" t="inlineStr">
         <is>
           <t>150225164</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>2022-08-19 16:04:50</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>30.7</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>28.5</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>34.2</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>26.3</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="I204" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J204" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="L204" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="M204" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N204" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="O204" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="P204" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q204" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R204" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="S204" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T204" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U204" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V204" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="W204" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="X204" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="Y204" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z204" t="inlineStr">
+        <is>
+          <t>12.86</t>
+        </is>
+      </c>
+      <c r="AB204" t="inlineStr">
+        <is>
+          <t>7002200</t>
+        </is>
+      </c>
+      <c r="AC204" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="AE204" t="inlineStr">
+        <is>
+          <t>30.8</t>
+        </is>
+      </c>
+      <c r="AF204" t="inlineStr">
+        <is>
+          <t>28.4</t>
+        </is>
+      </c>
+      <c r="AG204" t="inlineStr">
+        <is>
+          <t>34.2</t>
+        </is>
+      </c>
+      <c r="AH204" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AI204" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AJ204" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AK204" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AL204" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AM204" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="AN204" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="AO204" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="AP204" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="AQ204" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR204" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="AS204" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="AT204" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="AU204" t="inlineStr">
+        <is>
+          <t>11.42</t>
+        </is>
+      </c>
+      <c r="AV204" t="inlineStr">
+        <is>
+          <t>3594.00</t>
+        </is>
+      </c>
+      <c r="AW204" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AX204" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AY204" t="inlineStr">
+        <is>
+          <t>2913.20</t>
+        </is>
+      </c>
+      <c r="AZ204" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="BA204" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="BB204" t="inlineStr">
+        <is>
+          <t>10337.23</t>
+        </is>
+      </c>
+      <c r="BC204" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="BD204" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BE204" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BF204" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="BG204" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BH204" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="BI204" t="inlineStr">
+        <is>
+          <t>150225164</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>2022-08-22 15:41:08</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>27.2</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>27.4</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>26.4</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>25.3</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="I205" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J205" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="L205" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M205" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N205" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="O205" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="P205" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q205" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R205" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S205" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T205" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U205" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V205" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="W205" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="X205" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Y205" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z205" t="inlineStr">
+        <is>
+          <t>12.40</t>
+        </is>
+      </c>
+      <c r="AB205" t="inlineStr">
+        <is>
+          <t>7002200</t>
+        </is>
+      </c>
+      <c r="AC205" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="AE205" t="inlineStr">
+        <is>
+          <t>27.1</t>
+        </is>
+      </c>
+      <c r="AF205" t="inlineStr">
+        <is>
+          <t>27.6</t>
+        </is>
+      </c>
+      <c r="AG205" t="inlineStr">
+        <is>
+          <t>26.3</t>
+        </is>
+      </c>
+      <c r="AH205" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AI205" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AJ205" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AK205" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AL205" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AM205" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="AN205" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AO205" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP205" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="AQ205" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR205" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="AS205" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="AT205" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="AU205" t="inlineStr">
+        <is>
+          <t>11.42</t>
+        </is>
+      </c>
+      <c r="AV205" t="inlineStr">
+        <is>
+          <t>3595.05</t>
+        </is>
+      </c>
+      <c r="AW205" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AX205" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AY205" t="inlineStr">
+        <is>
+          <t>2913.20</t>
+        </is>
+      </c>
+      <c r="AZ205" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="BA205" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="BB205" t="inlineStr">
+        <is>
+          <t>10337.63</t>
+        </is>
+      </c>
+      <c r="BC205" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="BD205" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BE205" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BF205" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="BG205" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BH205" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="BI205" t="inlineStr">
+        <is>
+          <t>150225156</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>2022-08-24 10:19:36</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>26.3</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>26.6</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>25.6</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>25.4</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="I206" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J206" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M206" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N206" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="O206" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="P206" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q206" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R206" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S206" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T206" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U206" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V206" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="W206" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="X206" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Y206" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z206" t="inlineStr">
+        <is>
+          <t>13.64</t>
+        </is>
+      </c>
+      <c r="AB206" t="inlineStr">
+        <is>
+          <t>7002200</t>
+        </is>
+      </c>
+      <c r="AC206" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="AE206" t="inlineStr">
+        <is>
+          <t>26.2</t>
+        </is>
+      </c>
+      <c r="AF206" t="inlineStr">
+        <is>
+          <t>26.8</t>
+        </is>
+      </c>
+      <c r="AG206" t="inlineStr">
+        <is>
+          <t>25.8</t>
+        </is>
+      </c>
+      <c r="AH206" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="AI206" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="AJ206" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="AK206" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AL206" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AM206" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="AN206" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AO206" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP206" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="AQ206" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR206" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="AS206" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="AT206" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="AU206" t="inlineStr">
+        <is>
+          <t>11.15</t>
+        </is>
+      </c>
+      <c r="AV206" t="inlineStr">
+        <is>
+          <t>3595.64</t>
+        </is>
+      </c>
+      <c r="AW206" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AX206" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AY206" t="inlineStr">
+        <is>
+          <t>2913.20</t>
+        </is>
+      </c>
+      <c r="AZ206" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="BA206" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="BB206" t="inlineStr">
+        <is>
+          <t>10337.82</t>
+        </is>
+      </c>
+      <c r="BC206" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="BD206" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BE206" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BF206" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="BG206" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BH206" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="BI206" t="inlineStr">
+        <is>
+          <t>150225156</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>2022-08-25 10:15:25</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>21.5</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>19.5</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>24.5</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H207" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="I207" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J207" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="L207" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M207" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N207" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="O207" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="P207" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q207" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R207" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S207" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T207" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U207" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V207" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="W207" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="X207" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Y207" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z207" t="inlineStr">
+        <is>
+          <t>12.31</t>
+        </is>
+      </c>
+      <c r="AB207" t="inlineStr">
+        <is>
+          <t>7002200</t>
+        </is>
+      </c>
+      <c r="AC207" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="AE207" t="inlineStr">
+        <is>
+          <t>21.6</t>
+        </is>
+      </c>
+      <c r="AF207" t="inlineStr">
+        <is>
+          <t>25.9</t>
+        </is>
+      </c>
+      <c r="AG207" t="inlineStr">
+        <is>
+          <t>19.4</t>
+        </is>
+      </c>
+      <c r="AH207" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI207" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AJ207" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AK207" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AL207" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AM207" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="AN207" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AO207" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP207" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="AQ207" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR207" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="AS207" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="AT207" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="AU207" t="inlineStr">
+        <is>
+          <t>11.15</t>
+        </is>
+      </c>
+      <c r="AV207" t="inlineStr">
+        <is>
+          <t>3595.95</t>
+        </is>
+      </c>
+      <c r="AW207" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AX207" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AY207" t="inlineStr">
+        <is>
+          <t>2913.20</t>
+        </is>
+      </c>
+      <c r="AZ207" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="BA207" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="BB207" t="inlineStr">
+        <is>
+          <t>10337.84</t>
+        </is>
+      </c>
+      <c r="BC207" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="BD207" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BE207" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BF207" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="BG207" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BH207" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="BI207" t="inlineStr">
+        <is>
+          <t>150225924</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>2022-08-26 09:56:14</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>23.7</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>25.7</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>20.4</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>24.5</t>
+        </is>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H208" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="I208" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J208" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="L208" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M208" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N208" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="O208" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="P208" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q208" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R208" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S208" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T208" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U208" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V208" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="W208" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="X208" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Y208" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z208" t="inlineStr">
+        <is>
+          <t>11.64</t>
+        </is>
+      </c>
+      <c r="AA208" t="inlineStr"/>
+      <c r="AB208" t="inlineStr">
+        <is>
+          <t>7002200</t>
+        </is>
+      </c>
+      <c r="AC208" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="AD208" t="inlineStr"/>
+      <c r="AE208" t="inlineStr">
+        <is>
+          <t>23.9</t>
+        </is>
+      </c>
+      <c r="AF208" t="inlineStr">
+        <is>
+          <t>25.9</t>
+        </is>
+      </c>
+      <c r="AG208" t="inlineStr">
+        <is>
+          <t>20.4</t>
+        </is>
+      </c>
+      <c r="AH208" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI208" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AJ208" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AK208" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AL208" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AM208" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="AN208" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AO208" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP208" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="AQ208" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR208" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="AS208" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="AT208" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="AU208" t="inlineStr">
+        <is>
+          <t>11.15</t>
+        </is>
+      </c>
+      <c r="AV208" t="inlineStr">
+        <is>
+          <t>3596.46</t>
+        </is>
+      </c>
+      <c r="AW208" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AX208" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AY208" t="inlineStr">
+        <is>
+          <t>2913.20</t>
+        </is>
+      </c>
+      <c r="AZ208" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="BA208" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="BB208" t="inlineStr">
+        <is>
+          <t>10337.85</t>
+        </is>
+      </c>
+      <c r="BC208" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="BD208" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BE208" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BF208" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="BG208" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BH208" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="BI208" t="inlineStr">
+        <is>
+          <t>150225924</t>
         </is>
       </c>
     </row>

--- a/SampleData.xlsx
+++ b/SampleData.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BI208"/>
+  <dimension ref="A1:BI209"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
@@ -52650,7 +52650,6 @@
           <t>11.64</t>
         </is>
       </c>
-      <c r="AA208" t="inlineStr"/>
       <c r="AB208" t="inlineStr">
         <is>
           <t>7002200</t>
@@ -52661,7 +52660,6 @@
           <t>2200</t>
         </is>
       </c>
-      <c r="AD208" t="inlineStr"/>
       <c r="AE208" t="inlineStr">
         <is>
           <t>23.9</t>
@@ -52815,6 +52813,305 @@
       <c r="BI208" t="inlineStr">
         <is>
           <t>150225924</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>2022-08-27 09:16:17</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>22.5</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>26.7</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>20.5</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>25.2</t>
+        </is>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H209" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="I209" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J209" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="L209" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M209" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N209" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="O209" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="P209" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q209" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R209" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S209" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T209" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U209" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V209" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="W209" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="X209" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Y209" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z209" t="inlineStr">
+        <is>
+          <t>12.80</t>
+        </is>
+      </c>
+      <c r="AA209" t="inlineStr"/>
+      <c r="AB209" t="inlineStr">
+        <is>
+          <t>7002200</t>
+        </is>
+      </c>
+      <c r="AC209" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="AD209" t="inlineStr"/>
+      <c r="AE209" t="inlineStr">
+        <is>
+          <t>22.5</t>
+        </is>
+      </c>
+      <c r="AF209" t="inlineStr">
+        <is>
+          <t>26.6</t>
+        </is>
+      </c>
+      <c r="AG209" t="inlineStr">
+        <is>
+          <t>20.5</t>
+        </is>
+      </c>
+      <c r="AH209" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI209" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AJ209" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AK209" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AL209" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AM209" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="AN209" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AO209" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP209" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="AQ209" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR209" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="AS209" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="AT209" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="AU209" t="inlineStr">
+        <is>
+          <t>10.99</t>
+        </is>
+      </c>
+      <c r="AV209" t="inlineStr">
+        <is>
+          <t>3596.81</t>
+        </is>
+      </c>
+      <c r="AW209" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AX209" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AY209" t="inlineStr">
+        <is>
+          <t>2913.20</t>
+        </is>
+      </c>
+      <c r="AZ209" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="BA209" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="BB209" t="inlineStr">
+        <is>
+          <t>10337.92</t>
+        </is>
+      </c>
+      <c r="BC209" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="BD209" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BE209" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BF209" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="BG209" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BH209" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="BI209" t="inlineStr">
+        <is>
+          <t>149177348</t>
         </is>
       </c>
     </row>

--- a/SampleData.xlsx
+++ b/SampleData.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BI209"/>
+  <dimension ref="A1:BI215"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
@@ -52947,7 +52947,6 @@
           <t>12.80</t>
         </is>
       </c>
-      <c r="AA209" t="inlineStr"/>
       <c r="AB209" t="inlineStr">
         <is>
           <t>7002200</t>
@@ -52958,7 +52957,6 @@
           <t>2200</t>
         </is>
       </c>
-      <c r="AD209" t="inlineStr"/>
       <c r="AE209" t="inlineStr">
         <is>
           <t>22.5</t>
@@ -53112,6 +53110,1790 @@
       <c r="BI209" t="inlineStr">
         <is>
           <t>149177348</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>2022-08-28 14:49:23</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>30.3</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>28.4</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>32.1</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>26.2</t>
+        </is>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H210" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="I210" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J210" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="L210" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M210" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N210" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="O210" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="P210" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q210" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R210" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="S210" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T210" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U210" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V210" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="W210" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="X210" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="Y210" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z210" t="inlineStr">
+        <is>
+          <t>13.79</t>
+        </is>
+      </c>
+      <c r="AB210" t="inlineStr">
+        <is>
+          <t>7002200</t>
+        </is>
+      </c>
+      <c r="AC210" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="AE210" t="inlineStr">
+        <is>
+          <t>30.1</t>
+        </is>
+      </c>
+      <c r="AF210" t="inlineStr">
+        <is>
+          <t>28.4</t>
+        </is>
+      </c>
+      <c r="AG210" t="inlineStr">
+        <is>
+          <t>32.1</t>
+        </is>
+      </c>
+      <c r="AH210" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AI210" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AJ210" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AK210" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AL210" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AM210" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="AN210" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AO210" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="AP210" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="AQ210" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR210" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="AS210" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="AT210" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="AU210" t="inlineStr">
+        <is>
+          <t>11.08</t>
+        </is>
+      </c>
+      <c r="AV210" t="inlineStr">
+        <is>
+          <t>3597.29</t>
+        </is>
+      </c>
+      <c r="AW210" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AX210" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AY210" t="inlineStr">
+        <is>
+          <t>2913.20</t>
+        </is>
+      </c>
+      <c r="AZ210" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="BA210" t="inlineStr">
+        <is>
+          <t>7.33</t>
+        </is>
+      </c>
+      <c r="BB210" t="inlineStr">
+        <is>
+          <t>10338.53</t>
+        </is>
+      </c>
+      <c r="BC210" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="BD210" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BE210" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BF210" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="BG210" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BH210" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="BI210" t="inlineStr">
+        <is>
+          <t>150225164</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>2022-08-29 09:09:31</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>21.8</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>26.3</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>19.6</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>24.6</t>
+        </is>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H211" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="I211" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J211" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="L211" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M211" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N211" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="O211" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="P211" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q211" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R211" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S211" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T211" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U211" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V211" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="W211" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="X211" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Y211" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z211" t="inlineStr">
+        <is>
+          <t>12.89</t>
+        </is>
+      </c>
+      <c r="AB211" t="inlineStr">
+        <is>
+          <t>7002200</t>
+        </is>
+      </c>
+      <c r="AC211" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="AE211" t="inlineStr">
+        <is>
+          <t>21.9</t>
+        </is>
+      </c>
+      <c r="AF211" t="inlineStr">
+        <is>
+          <t>26.2</t>
+        </is>
+      </c>
+      <c r="AG211" t="inlineStr">
+        <is>
+          <t>19.5</t>
+        </is>
+      </c>
+      <c r="AH211" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI211" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AJ211" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AK211" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AL211" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AM211" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="AN211" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AO211" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP211" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="AQ211" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR211" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="AS211" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="AT211" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="AU211" t="inlineStr">
+        <is>
+          <t>10.94</t>
+        </is>
+      </c>
+      <c r="AV211" t="inlineStr">
+        <is>
+          <t>3597.53</t>
+        </is>
+      </c>
+      <c r="AW211" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AX211" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AY211" t="inlineStr">
+        <is>
+          <t>2913.20</t>
+        </is>
+      </c>
+      <c r="AZ211" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="BA211" t="inlineStr">
+        <is>
+          <t>7.25</t>
+        </is>
+      </c>
+      <c r="BB211" t="inlineStr">
+        <is>
+          <t>10338.56</t>
+        </is>
+      </c>
+      <c r="BC211" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="BD211" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BE211" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BF211" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="BG211" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BH211" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="BI211" t="inlineStr">
+        <is>
+          <t>150225924</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>2022-08-30 09:41:05</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>19.8</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>26.1</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>16.7</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>24.3</t>
+        </is>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H212" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="I212" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J212" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="L212" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M212" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N212" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="O212" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="P212" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q212" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R212" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S212" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T212" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U212" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V212" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="W212" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="X212" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Y212" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z212" t="inlineStr">
+        <is>
+          <t>11.94</t>
+        </is>
+      </c>
+      <c r="AB212" t="inlineStr">
+        <is>
+          <t>7002200</t>
+        </is>
+      </c>
+      <c r="AC212" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="AE212" t="inlineStr">
+        <is>
+          <t>19.9</t>
+        </is>
+      </c>
+      <c r="AF212" t="inlineStr">
+        <is>
+          <t>26.1</t>
+        </is>
+      </c>
+      <c r="AG212" t="inlineStr">
+        <is>
+          <t>16.6</t>
+        </is>
+      </c>
+      <c r="AH212" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI212" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AJ212" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AK212" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AL212" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AM212" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="AN212" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AO212" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP212" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="AQ212" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR212" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="AS212" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="AT212" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="AU212" t="inlineStr">
+        <is>
+          <t>11.11</t>
+        </is>
+      </c>
+      <c r="AV212" t="inlineStr">
+        <is>
+          <t>3598.07</t>
+        </is>
+      </c>
+      <c r="AW212" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AX212" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AY212" t="inlineStr">
+        <is>
+          <t>2913.20</t>
+        </is>
+      </c>
+      <c r="AZ212" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="BA212" t="inlineStr">
+        <is>
+          <t>6.92</t>
+        </is>
+      </c>
+      <c r="BB212" t="inlineStr">
+        <is>
+          <t>10338.57</t>
+        </is>
+      </c>
+      <c r="BC212" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="BD212" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BE212" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BF212" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="BG212" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BH212" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="BI212" t="inlineStr">
+        <is>
+          <t>150225924</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>2022-08-31 10:44:39</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>18.8</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>25.3</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>13.7</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>23.4</t>
+        </is>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H213" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="I213" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J213" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="L213" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M213" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N213" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="O213" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="P213" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q213" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R213" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S213" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T213" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U213" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V213" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="W213" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X213" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Y213" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z213" t="inlineStr">
+        <is>
+          <t>10.30</t>
+        </is>
+      </c>
+      <c r="AB213" t="inlineStr">
+        <is>
+          <t>7002200</t>
+        </is>
+      </c>
+      <c r="AC213" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="AE213" t="inlineStr">
+        <is>
+          <t>18.6</t>
+        </is>
+      </c>
+      <c r="AF213" t="inlineStr">
+        <is>
+          <t>25.2</t>
+        </is>
+      </c>
+      <c r="AG213" t="inlineStr">
+        <is>
+          <t>13.8</t>
+        </is>
+      </c>
+      <c r="AH213" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI213" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AJ213" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AK213" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AL213" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AM213" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AN213" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AO213" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP213" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="AQ213" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR213" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="AS213" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="AT213" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="AU213" t="inlineStr">
+        <is>
+          <t>11.23</t>
+        </is>
+      </c>
+      <c r="AV213" t="inlineStr">
+        <is>
+          <t>3598.62</t>
+        </is>
+      </c>
+      <c r="AW213" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AX213" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AY213" t="inlineStr">
+        <is>
+          <t>2913.20</t>
+        </is>
+      </c>
+      <c r="AZ213" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="BA213" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="BB213" t="inlineStr">
+        <is>
+          <t>10338.72</t>
+        </is>
+      </c>
+      <c r="BC213" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="BD213" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BE213" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BF213" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="BG213" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BH213" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="BI213" t="inlineStr">
+        <is>
+          <t>146030596</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>2022-09-02 21:27:12</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>18.1</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>26.1</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>12.2</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>24.7</t>
+        </is>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H214" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="I214" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J214" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="L214" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M214" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N214" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="O214" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="P214" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q214" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R214" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S214" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T214" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U214" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V214" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="W214" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="X214" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Y214" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z214" t="inlineStr">
+        <is>
+          <t>9.96</t>
+        </is>
+      </c>
+      <c r="AB214" t="inlineStr">
+        <is>
+          <t>7002200</t>
+        </is>
+      </c>
+      <c r="AC214" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="AE214" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="AF214" t="inlineStr">
+        <is>
+          <t>26.1</t>
+        </is>
+      </c>
+      <c r="AG214" t="inlineStr">
+        <is>
+          <t>12.2</t>
+        </is>
+      </c>
+      <c r="AH214" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI214" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AJ214" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AK214" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AL214" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AM214" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AN214" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="AO214" t="inlineStr">
+        <is>
+          <t>176</t>
+        </is>
+      </c>
+      <c r="AP214" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="AQ214" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR214" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="AS214" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="AT214" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="AU214" t="inlineStr">
+        <is>
+          <t>11.96</t>
+        </is>
+      </c>
+      <c r="AV214" t="inlineStr">
+        <is>
+          <t>3600.04</t>
+        </is>
+      </c>
+      <c r="AW214" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AX214" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AY214" t="inlineStr">
+        <is>
+          <t>2913.20</t>
+        </is>
+      </c>
+      <c r="AZ214" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="BA214" t="inlineStr">
+        <is>
+          <t>7.76</t>
+        </is>
+      </c>
+      <c r="BB214" t="inlineStr">
+        <is>
+          <t>10339.51</t>
+        </is>
+      </c>
+      <c r="BC214" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="BD214" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BE214" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BF214" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="BG214" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BH214" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="BI214" t="inlineStr">
+        <is>
+          <t>146030604</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>2022-09-04 12:31:54</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>25.8</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>17.9</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>24.2</t>
+        </is>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H215" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="I215" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J215" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="L215" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M215" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N215" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="O215" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="P215" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q215" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R215" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S215" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T215" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U215" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V215" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="W215" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="X215" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Y215" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z215" t="inlineStr">
+        <is>
+          <t>9.68</t>
+        </is>
+      </c>
+      <c r="AA215" t="inlineStr"/>
+      <c r="AB215" t="inlineStr">
+        <is>
+          <t>7002200</t>
+        </is>
+      </c>
+      <c r="AC215" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="AD215" t="inlineStr"/>
+      <c r="AE215" t="inlineStr">
+        <is>
+          <t>20.3</t>
+        </is>
+      </c>
+      <c r="AF215" t="inlineStr">
+        <is>
+          <t>25.7</t>
+        </is>
+      </c>
+      <c r="AG215" t="inlineStr">
+        <is>
+          <t>17.8</t>
+        </is>
+      </c>
+      <c r="AH215" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI215" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AJ215" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AK215" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AL215" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AM215" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AN215" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AO215" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP215" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="AQ215" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR215" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="AS215" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="AT215" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="AU215" t="inlineStr">
+        <is>
+          <t>12.03</t>
+        </is>
+      </c>
+      <c r="AV215" t="inlineStr">
+        <is>
+          <t>3600.86</t>
+        </is>
+      </c>
+      <c r="AW215" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AX215" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AY215" t="inlineStr">
+        <is>
+          <t>2913.20</t>
+        </is>
+      </c>
+      <c r="AZ215" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="BA215" t="inlineStr">
+        <is>
+          <t>7.60</t>
+        </is>
+      </c>
+      <c r="BB215" t="inlineStr">
+        <is>
+          <t>10340.21</t>
+        </is>
+      </c>
+      <c r="BC215" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="BD215" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BE215" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BF215" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="BG215" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BH215" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="BI215" t="inlineStr">
+        <is>
+          <t>144982020</t>
         </is>
       </c>
     </row>

--- a/SampleData.xlsx
+++ b/SampleData.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BI215"/>
+  <dimension ref="A1:BI221"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
@@ -54729,7 +54729,6 @@
           <t>9.68</t>
         </is>
       </c>
-      <c r="AA215" t="inlineStr"/>
       <c r="AB215" t="inlineStr">
         <is>
           <t>7002200</t>
@@ -54740,7 +54739,6 @@
           <t>2200</t>
         </is>
       </c>
-      <c r="AD215" t="inlineStr"/>
       <c r="AE215" t="inlineStr">
         <is>
           <t>20.3</t>
@@ -54894,6 +54892,1790 @@
       <c r="BI215" t="inlineStr">
         <is>
           <t>144982020</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>2022-09-06 18:56:07</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>20.4</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>27.2</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>17.1</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>25.1</t>
+        </is>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H216" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="I216" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J216" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="L216" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M216" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N216" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="O216" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="P216" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q216" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R216" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S216" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T216" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U216" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V216" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="W216" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="X216" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Y216" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z216" t="inlineStr">
+        <is>
+          <t>9.94</t>
+        </is>
+      </c>
+      <c r="AB216" t="inlineStr">
+        <is>
+          <t>7002200</t>
+        </is>
+      </c>
+      <c r="AC216" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="AE216" t="inlineStr">
+        <is>
+          <t>20.3</t>
+        </is>
+      </c>
+      <c r="AF216" t="inlineStr">
+        <is>
+          <t>27.2</t>
+        </is>
+      </c>
+      <c r="AG216" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="AH216" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI216" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AJ216" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AK216" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AL216" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AM216" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AN216" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AO216" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP216" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="AQ216" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR216" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="AS216" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="AT216" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="AU216" t="inlineStr">
+        <is>
+          <t>12.56</t>
+        </is>
+      </c>
+      <c r="AV216" t="inlineStr">
+        <is>
+          <t>3602.15</t>
+        </is>
+      </c>
+      <c r="AW216" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AX216" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AY216" t="inlineStr">
+        <is>
+          <t>2913.20</t>
+        </is>
+      </c>
+      <c r="AZ216" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="BA216" t="inlineStr">
+        <is>
+          <t>8.31</t>
+        </is>
+      </c>
+      <c r="BB216" t="inlineStr">
+        <is>
+          <t>10340.96</t>
+        </is>
+      </c>
+      <c r="BC216" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="BD216" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BE216" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BF216" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="BG216" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BH216" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="BI216" t="inlineStr">
+        <is>
+          <t>146030596</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>2022-09-07 17:43:09</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>18.7</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>15.2</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>24.5</t>
+        </is>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H217" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="I217" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J217" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="L217" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M217" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N217" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="O217" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="P217" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q217" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R217" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S217" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T217" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U217" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V217" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="W217" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="X217" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Y217" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z217" t="inlineStr">
+        <is>
+          <t>9.39</t>
+        </is>
+      </c>
+      <c r="AB217" t="inlineStr">
+        <is>
+          <t>7002200</t>
+        </is>
+      </c>
+      <c r="AC217" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="AE217" t="inlineStr">
+        <is>
+          <t>18.8</t>
+        </is>
+      </c>
+      <c r="AF217" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="AG217" t="inlineStr">
+        <is>
+          <t>15.1</t>
+        </is>
+      </c>
+      <c r="AH217" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI217" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AJ217" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AK217" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AL217" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AM217" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AN217" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AO217" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP217" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="AQ217" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR217" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="AS217" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="AT217" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="AU217" t="inlineStr">
+        <is>
+          <t>12.54</t>
+        </is>
+      </c>
+      <c r="AV217" t="inlineStr">
+        <is>
+          <t>3602.65</t>
+        </is>
+      </c>
+      <c r="AW217" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AX217" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AY217" t="inlineStr">
+        <is>
+          <t>2913.20</t>
+        </is>
+      </c>
+      <c r="AZ217" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="BA217" t="inlineStr">
+        <is>
+          <t>8.39</t>
+        </is>
+      </c>
+      <c r="BB217" t="inlineStr">
+        <is>
+          <t>10341.05</t>
+        </is>
+      </c>
+      <c r="BC217" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="BD217" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BE217" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BF217" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="BG217" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BH217" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="BI217" t="inlineStr">
+        <is>
+          <t>146030596</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>2022-09-09 18:07:32</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>19.8</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>27.7</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>16.7</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>25.3</t>
+        </is>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="I218" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J218" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="L218" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M218" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N218" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="O218" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="P218" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q218" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R218" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S218" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T218" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U218" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V218" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="W218" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="X218" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Y218" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z218" t="inlineStr">
+        <is>
+          <t>9.13</t>
+        </is>
+      </c>
+      <c r="AB218" t="inlineStr">
+        <is>
+          <t>7002200</t>
+        </is>
+      </c>
+      <c r="AC218" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="AE218" t="inlineStr">
+        <is>
+          <t>19.8</t>
+        </is>
+      </c>
+      <c r="AF218" t="inlineStr">
+        <is>
+          <t>27.6</t>
+        </is>
+      </c>
+      <c r="AG218" t="inlineStr">
+        <is>
+          <t>16.7</t>
+        </is>
+      </c>
+      <c r="AH218" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI218" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AJ218" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AK218" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AL218" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AM218" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="AN218" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AO218" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP218" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="AQ218" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR218" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="AS218" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="AT218" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="AU218" t="inlineStr">
+        <is>
+          <t>12.94</t>
+        </is>
+      </c>
+      <c r="AV218" t="inlineStr">
+        <is>
+          <t>3603.77</t>
+        </is>
+      </c>
+      <c r="AW218" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AX218" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AY218" t="inlineStr">
+        <is>
+          <t>2913.20</t>
+        </is>
+      </c>
+      <c r="AZ218" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="BA218" t="inlineStr">
+        <is>
+          <t>9.31</t>
+        </is>
+      </c>
+      <c r="BB218" t="inlineStr">
+        <is>
+          <t>10342.34</t>
+        </is>
+      </c>
+      <c r="BC218" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="BD218" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BE218" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BF218" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="BG218" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BH218" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="BI218" t="inlineStr">
+        <is>
+          <t>146030596</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>2022-09-10 11:11:02</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>19.4</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>26.6</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>17.2</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>24.4</t>
+        </is>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H219" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="I219" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J219" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="L219" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M219" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N219" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="O219" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="P219" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q219" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R219" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S219" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T219" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U219" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V219" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="W219" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="X219" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Y219" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z219" t="inlineStr">
+        <is>
+          <t>9.11</t>
+        </is>
+      </c>
+      <c r="AB219" t="inlineStr">
+        <is>
+          <t>7002200</t>
+        </is>
+      </c>
+      <c r="AC219" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="AE219" t="inlineStr">
+        <is>
+          <t>19.4</t>
+        </is>
+      </c>
+      <c r="AF219" t="inlineStr">
+        <is>
+          <t>26.6</t>
+        </is>
+      </c>
+      <c r="AG219" t="inlineStr">
+        <is>
+          <t>17.1</t>
+        </is>
+      </c>
+      <c r="AH219" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI219" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AJ219" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AK219" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AL219" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AM219" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="AN219" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AO219" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP219" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="AQ219" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR219" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="AS219" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="AT219" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="AU219" t="inlineStr">
+        <is>
+          <t>12.92</t>
+        </is>
+      </c>
+      <c r="AV219" t="inlineStr">
+        <is>
+          <t>3604.11</t>
+        </is>
+      </c>
+      <c r="AW219" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AX219" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AY219" t="inlineStr">
+        <is>
+          <t>2913.20</t>
+        </is>
+      </c>
+      <c r="AZ219" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="BA219" t="inlineStr">
+        <is>
+          <t>9.58</t>
+        </is>
+      </c>
+      <c r="BB219" t="inlineStr">
+        <is>
+          <t>10342.82</t>
+        </is>
+      </c>
+      <c r="BC219" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="BD219" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BE219" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BF219" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="BG219" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BH219" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="BI219" t="inlineStr">
+        <is>
+          <t>146030596</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>2022-09-16 09:13:18</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>20.4</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>11.8</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>24.1</t>
+        </is>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H220" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="I220" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J220" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="L220" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M220" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N220" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="O220" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="P220" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q220" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R220" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S220" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T220" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U220" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V220" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="W220" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="X220" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Y220" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z220" t="inlineStr">
+        <is>
+          <t>10.50</t>
+        </is>
+      </c>
+      <c r="AB220" t="inlineStr">
+        <is>
+          <t>7002200</t>
+        </is>
+      </c>
+      <c r="AC220" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="AE220" t="inlineStr">
+        <is>
+          <t>20.5</t>
+        </is>
+      </c>
+      <c r="AF220" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="AG220" t="inlineStr">
+        <is>
+          <t>11.7</t>
+        </is>
+      </c>
+      <c r="AH220" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI220" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AJ220" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AK220" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AL220" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AM220" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="AN220" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AO220" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP220" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="AQ220" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR220" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="AS220" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="AT220" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="AU220" t="inlineStr">
+        <is>
+          <t>13.94</t>
+        </is>
+      </c>
+      <c r="AV220" t="inlineStr">
+        <is>
+          <t>3607.31</t>
+        </is>
+      </c>
+      <c r="AW220" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AX220" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AY220" t="inlineStr">
+        <is>
+          <t>2913.20</t>
+        </is>
+      </c>
+      <c r="AZ220" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="BA220" t="inlineStr">
+        <is>
+          <t>9.27</t>
+        </is>
+      </c>
+      <c r="BB220" t="inlineStr">
+        <is>
+          <t>10345.43</t>
+        </is>
+      </c>
+      <c r="BC220" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="BD220" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BE220" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BF220" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="BG220" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BH220" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="BI220" t="inlineStr">
+        <is>
+          <t>146030596</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>2022-09-17 15:12:05</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>18.9</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>26.2</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>12.9</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>24.7</t>
+        </is>
+      </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H221" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="I221" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J221" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="L221" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M221" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N221" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="O221" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="P221" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q221" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R221" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S221" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T221" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U221" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V221" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="W221" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="X221" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Y221" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z221" t="inlineStr">
+        <is>
+          <t>11.09</t>
+        </is>
+      </c>
+      <c r="AA221" t="inlineStr"/>
+      <c r="AB221" t="inlineStr">
+        <is>
+          <t>7002200</t>
+        </is>
+      </c>
+      <c r="AC221" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="AD221" t="inlineStr"/>
+      <c r="AE221" t="inlineStr">
+        <is>
+          <t>18.7</t>
+        </is>
+      </c>
+      <c r="AF221" t="inlineStr">
+        <is>
+          <t>26.2</t>
+        </is>
+      </c>
+      <c r="AG221" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="AH221" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI221" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AJ221" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AK221" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AL221" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AM221" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="AN221" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AO221" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP221" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="AQ221" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR221" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="AS221" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="AT221" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="AU221" t="inlineStr">
+        <is>
+          <t>14.28</t>
+        </is>
+      </c>
+      <c r="AV221" t="inlineStr">
+        <is>
+          <t>3608.03</t>
+        </is>
+      </c>
+      <c r="AW221" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AX221" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AY221" t="inlineStr">
+        <is>
+          <t>2913.20</t>
+        </is>
+      </c>
+      <c r="AZ221" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="BA221" t="inlineStr">
+        <is>
+          <t>9.27</t>
+        </is>
+      </c>
+      <c r="BB221" t="inlineStr">
+        <is>
+          <t>10346.10</t>
+        </is>
+      </c>
+      <c r="BC221" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="BD221" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BE221" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BF221" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="BG221" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BH221" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="BI221" t="inlineStr">
+        <is>
+          <t>146030596</t>
         </is>
       </c>
     </row>

--- a/SampleData.xlsx
+++ b/SampleData.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BI221"/>
+  <dimension ref="A1:BI224"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
@@ -56511,7 +56511,6 @@
           <t>11.09</t>
         </is>
       </c>
-      <c r="AA221" t="inlineStr"/>
       <c r="AB221" t="inlineStr">
         <is>
           <t>7002200</t>
@@ -56522,7 +56521,6 @@
           <t>2200</t>
         </is>
       </c>
-      <c r="AD221" t="inlineStr"/>
       <c r="AE221" t="inlineStr">
         <is>
           <t>18.7</t>
@@ -56676,6 +56674,899 @@
       <c r="BI221" t="inlineStr">
         <is>
           <t>146030596</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>2022-09-19 17:21:50</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>18.8</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>26.2</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>15.3</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>24.6</t>
+        </is>
+      </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H222" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="I222" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J222" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="L222" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M222" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N222" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="O222" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="P222" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q222" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R222" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S222" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T222" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U222" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V222" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="W222" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="X222" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Y222" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z222" t="inlineStr">
+        <is>
+          <t>10.80</t>
+        </is>
+      </c>
+      <c r="AB222" t="inlineStr">
+        <is>
+          <t>7002200</t>
+        </is>
+      </c>
+      <c r="AC222" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="AE222" t="inlineStr">
+        <is>
+          <t>18.8</t>
+        </is>
+      </c>
+      <c r="AF222" t="inlineStr">
+        <is>
+          <t>26.3</t>
+        </is>
+      </c>
+      <c r="AG222" t="inlineStr">
+        <is>
+          <t>15.3</t>
+        </is>
+      </c>
+      <c r="AH222" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI222" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AJ222" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AK222" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AL222" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AM222" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="AN222" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AO222" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP222" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="AQ222" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR222" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="AS222" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="AT222" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="AU222" t="inlineStr">
+        <is>
+          <t>14.71</t>
+        </is>
+      </c>
+      <c r="AV222" t="inlineStr">
+        <is>
+          <t>3609.16</t>
+        </is>
+      </c>
+      <c r="AW222" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AX222" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AY222" t="inlineStr">
+        <is>
+          <t>2913.20</t>
+        </is>
+      </c>
+      <c r="AZ222" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="BA222" t="inlineStr">
+        <is>
+          <t>9.30</t>
+        </is>
+      </c>
+      <c r="BB222" t="inlineStr">
+        <is>
+          <t>10346.86</t>
+        </is>
+      </c>
+      <c r="BC222" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="BD222" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BE222" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BF222" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="BG222" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BH222" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="BI222" t="inlineStr">
+        <is>
+          <t>146030596</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>2022-09-21 17:16:55</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>19.1</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>27.1</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>13.5</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>24.3</t>
+        </is>
+      </c>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H223" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="I223" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J223" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="L223" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M223" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N223" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="O223" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="P223" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q223" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R223" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="S223" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T223" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U223" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V223" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="W223" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="X223" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="Y223" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z223" t="inlineStr">
+        <is>
+          <t>10.61</t>
+        </is>
+      </c>
+      <c r="AB223" t="inlineStr">
+        <is>
+          <t>7002200</t>
+        </is>
+      </c>
+      <c r="AC223" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="AE223" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="AF223" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="AG223" t="inlineStr">
+        <is>
+          <t>13.5</t>
+        </is>
+      </c>
+      <c r="AH223" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI223" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AJ223" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AK223" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AL223" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AM223" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="AN223" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AO223" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP223" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="AQ223" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR223" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="AS223" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="AT223" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="AU223" t="inlineStr">
+        <is>
+          <t>15.09</t>
+        </is>
+      </c>
+      <c r="AV223" t="inlineStr">
+        <is>
+          <t>3610.23</t>
+        </is>
+      </c>
+      <c r="AW223" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AX223" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AY223" t="inlineStr">
+        <is>
+          <t>2913.20</t>
+        </is>
+      </c>
+      <c r="AZ223" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="BA223" t="inlineStr">
+        <is>
+          <t>11.05</t>
+        </is>
+      </c>
+      <c r="BB223" t="inlineStr">
+        <is>
+          <t>10348.68</t>
+        </is>
+      </c>
+      <c r="BC223" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="BD223" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BE223" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BF223" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="BG223" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BH223" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="BI223" t="inlineStr">
+        <is>
+          <t>144982020</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>2022-09-24 12:05:14</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>20.1</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>26.4</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>18.2</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>24.7</t>
+        </is>
+      </c>
+      <c r="G224" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H224" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="I224" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J224" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="L224" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M224" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N224" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="O224" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="P224" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q224" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R224" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S224" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T224" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U224" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V224" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="W224" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="X224" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Y224" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z224" t="inlineStr">
+        <is>
+          <t>11.09</t>
+        </is>
+      </c>
+      <c r="AA224" t="inlineStr"/>
+      <c r="AB224" t="inlineStr">
+        <is>
+          <t>7002200</t>
+        </is>
+      </c>
+      <c r="AC224" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="AD224" t="inlineStr"/>
+      <c r="AE224" t="inlineStr">
+        <is>
+          <t>19.9</t>
+        </is>
+      </c>
+      <c r="AF224" t="inlineStr">
+        <is>
+          <t>26.5</t>
+        </is>
+      </c>
+      <c r="AG224" t="inlineStr">
+        <is>
+          <t>18.2</t>
+        </is>
+      </c>
+      <c r="AH224" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI224" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AJ224" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AK224" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AL224" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AM224" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="AN224" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AO224" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP224" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="AQ224" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR224" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="AS224" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="AT224" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="AU224" t="inlineStr">
+        <is>
+          <t>15.89</t>
+        </is>
+      </c>
+      <c r="AV224" t="inlineStr">
+        <is>
+          <t>3612.20</t>
+        </is>
+      </c>
+      <c r="AW224" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="AX224" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="AY224" t="inlineStr">
+        <is>
+          <t>2913.50</t>
+        </is>
+      </c>
+      <c r="AZ224" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="BA224" t="inlineStr">
+        <is>
+          <t>26.00</t>
+        </is>
+      </c>
+      <c r="BB224" t="inlineStr">
+        <is>
+          <t>10363.86</t>
+        </is>
+      </c>
+      <c r="BC224" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="BD224" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BE224" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BF224" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="BG224" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BH224" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="BI224" t="inlineStr">
+        <is>
+          <t>144982020</t>
         </is>
       </c>
     </row>

--- a/SampleData.xlsx
+++ b/SampleData.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BI224"/>
+  <dimension ref="A1:BI225"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
@@ -57402,7 +57402,6 @@
           <t>11.09</t>
         </is>
       </c>
-      <c r="AA224" t="inlineStr"/>
       <c r="AB224" t="inlineStr">
         <is>
           <t>7002200</t>
@@ -57413,7 +57412,6 @@
           <t>2200</t>
         </is>
       </c>
-      <c r="AD224" t="inlineStr"/>
       <c r="AE224" t="inlineStr">
         <is>
           <t>19.9</t>
@@ -57565,6 +57563,305 @@
         </is>
       </c>
       <c r="BI224" t="inlineStr">
+        <is>
+          <t>144982020</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>2022-09-24 19:02:41</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>19.2</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>27.1</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>13.8</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>24.5</t>
+        </is>
+      </c>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H225" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="I225" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J225" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="L225" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M225" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N225" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="O225" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="P225" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q225" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R225" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S225" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T225" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U225" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V225" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="W225" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="X225" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Y225" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z225" t="inlineStr">
+        <is>
+          <t>9.39</t>
+        </is>
+      </c>
+      <c r="AA225" t="inlineStr"/>
+      <c r="AB225" t="inlineStr">
+        <is>
+          <t>7002200</t>
+        </is>
+      </c>
+      <c r="AC225" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="AD225" t="inlineStr"/>
+      <c r="AE225" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="AF225" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="AG225" t="inlineStr">
+        <is>
+          <t>13.7</t>
+        </is>
+      </c>
+      <c r="AH225" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI225" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AJ225" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AK225" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AL225" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AM225" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="AN225" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AO225" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP225" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="AQ225" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR225" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="AS225" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="AT225" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="AU225" t="inlineStr">
+        <is>
+          <t>16.08</t>
+        </is>
+      </c>
+      <c r="AV225" t="inlineStr">
+        <is>
+          <t>3612.40</t>
+        </is>
+      </c>
+      <c r="AW225" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="AX225" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="AY225" t="inlineStr">
+        <is>
+          <t>2913.50</t>
+        </is>
+      </c>
+      <c r="AZ225" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="BA225" t="inlineStr">
+        <is>
+          <t>26.17</t>
+        </is>
+      </c>
+      <c r="BB225" t="inlineStr">
+        <is>
+          <t>10364.03</t>
+        </is>
+      </c>
+      <c r="BC225" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="BD225" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BE225" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BF225" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="BG225" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BH225" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="BI225" t="inlineStr">
         <is>
           <t>144982020</t>
         </is>

--- a/SampleData.xlsx
+++ b/SampleData.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BI225"/>
+  <dimension ref="A1:BI228"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
@@ -57699,7 +57699,6 @@
           <t>9.39</t>
         </is>
       </c>
-      <c r="AA225" t="inlineStr"/>
       <c r="AB225" t="inlineStr">
         <is>
           <t>7002200</t>
@@ -57710,7 +57709,6 @@
           <t>2200</t>
         </is>
       </c>
-      <c r="AD225" t="inlineStr"/>
       <c r="AE225" t="inlineStr">
         <is>
           <t>19.0</t>
@@ -57864,6 +57862,899 @@
       <c r="BI225" t="inlineStr">
         <is>
           <t>144982020</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>2022-09-25 08:53:56</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>19.5</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>27.2</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>12.5</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>24.4</t>
+        </is>
+      </c>
+      <c r="G226" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H226" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="I226" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J226" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="L226" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M226" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N226" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="O226" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="P226" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q226" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R226" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="S226" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T226" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U226" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V226" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="W226" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="X226" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="Y226" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z226" t="inlineStr">
+        <is>
+          <t>9.34</t>
+        </is>
+      </c>
+      <c r="AB226" t="inlineStr">
+        <is>
+          <t>7002200</t>
+        </is>
+      </c>
+      <c r="AC226" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="AE226" t="inlineStr">
+        <is>
+          <t>19.6</t>
+        </is>
+      </c>
+      <c r="AF226" t="inlineStr">
+        <is>
+          <t>27.1</t>
+        </is>
+      </c>
+      <c r="AG226" t="inlineStr">
+        <is>
+          <t>12.6</t>
+        </is>
+      </c>
+      <c r="AH226" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI226" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AJ226" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AK226" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AL226" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AM226" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="AN226" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AO226" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP226" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="AQ226" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR226" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="AS226" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="AT226" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="AU226" t="inlineStr">
+        <is>
+          <t>15.97</t>
+        </is>
+      </c>
+      <c r="AV226" t="inlineStr">
+        <is>
+          <t>3612.65</t>
+        </is>
+      </c>
+      <c r="AW226" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AX226" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="AY226" t="inlineStr">
+        <is>
+          <t>2913.50</t>
+        </is>
+      </c>
+      <c r="AZ226" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="BA226" t="inlineStr">
+        <is>
+          <t>28.15</t>
+        </is>
+      </c>
+      <c r="BB226" t="inlineStr">
+        <is>
+          <t>10366.07</t>
+        </is>
+      </c>
+      <c r="BC226" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="BD226" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BE226" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BF226" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="BG226" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BH226" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="BI226" t="inlineStr">
+        <is>
+          <t>146030596</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>2022-09-30 19:03:23</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>25.9</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>10.9</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>25.1</t>
+        </is>
+      </c>
+      <c r="G227" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H227" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="I227" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J227" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="L227" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M227" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N227" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="O227" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="P227" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q227" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R227" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="S227" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T227" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="U227" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V227" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="W227" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="X227" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="Y227" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z227" t="inlineStr">
+        <is>
+          <t>10.88</t>
+        </is>
+      </c>
+      <c r="AB227" t="inlineStr">
+        <is>
+          <t>7002200</t>
+        </is>
+      </c>
+      <c r="AC227" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="AE227" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="AF227" t="inlineStr">
+        <is>
+          <t>25.9</t>
+        </is>
+      </c>
+      <c r="AG227" t="inlineStr">
+        <is>
+          <t>10.9</t>
+        </is>
+      </c>
+      <c r="AH227" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI227" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AJ227" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AK227" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AL227" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AM227" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="AN227" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="AO227" t="inlineStr">
+        <is>
+          <t>726</t>
+        </is>
+      </c>
+      <c r="AP227" t="inlineStr">
+        <is>
+          <t>156</t>
+        </is>
+      </c>
+      <c r="AQ227" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="AR227" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="AS227" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="AT227" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="AU227" t="inlineStr">
+        <is>
+          <t>23.63</t>
+        </is>
+      </c>
+      <c r="AV227" t="inlineStr">
+        <is>
+          <t>3622.62</t>
+        </is>
+      </c>
+      <c r="AW227" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="AX227" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="AY227" t="inlineStr">
+        <is>
+          <t>2919.78</t>
+        </is>
+      </c>
+      <c r="AZ227" t="inlineStr">
+        <is>
+          <t>10.66</t>
+        </is>
+      </c>
+      <c r="BA227" t="inlineStr">
+        <is>
+          <t>79.44</t>
+        </is>
+      </c>
+      <c r="BB227" t="inlineStr">
+        <is>
+          <t>10418.40</t>
+        </is>
+      </c>
+      <c r="BC227" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="BD227" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BE227" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BF227" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="BG227" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BH227" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="BI227" t="inlineStr">
+        <is>
+          <t>146030620</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>2022-10-01 11:54:50</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>25.9</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>13.9</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>24.8</t>
+        </is>
+      </c>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H228" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="I228" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J228" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="L228" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M228" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N228" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="O228" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="P228" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q228" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R228" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="S228" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T228" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U228" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V228" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="W228" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="X228" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="Y228" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z228" t="inlineStr">
+        <is>
+          <t>10.01</t>
+        </is>
+      </c>
+      <c r="AA228" t="inlineStr"/>
+      <c r="AB228" t="inlineStr">
+        <is>
+          <t>7002200</t>
+        </is>
+      </c>
+      <c r="AC228" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="AD228" t="inlineStr"/>
+      <c r="AE228" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="AF228" t="inlineStr">
+        <is>
+          <t>25.9</t>
+        </is>
+      </c>
+      <c r="AG228" t="inlineStr">
+        <is>
+          <t>13.8</t>
+        </is>
+      </c>
+      <c r="AH228" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI228" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AJ228" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AK228" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AL228" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AM228" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AN228" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="AO228" t="inlineStr">
+        <is>
+          <t>576</t>
+        </is>
+      </c>
+      <c r="AP228" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="AQ228" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR228" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="AS228" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="AT228" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="AU228" t="inlineStr">
+        <is>
+          <t>24.96</t>
+        </is>
+      </c>
+      <c r="AV228" t="inlineStr">
+        <is>
+          <t>3624.50</t>
+        </is>
+      </c>
+      <c r="AW228" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="AX228" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="AY228" t="inlineStr">
+        <is>
+          <t>2921.20</t>
+        </is>
+      </c>
+      <c r="AZ228" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="BA228" t="inlineStr">
+        <is>
+          <t>87.95</t>
+        </is>
+      </c>
+      <c r="BB228" t="inlineStr">
+        <is>
+          <t>10427.17</t>
+        </is>
+      </c>
+      <c r="BC228" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="BD228" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BE228" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BF228" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="BG228" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BH228" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="BI228" t="inlineStr">
+        <is>
+          <t>146030604</t>
         </is>
       </c>
     </row>

--- a/SampleData.xlsx
+++ b/SampleData.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BI228"/>
+  <dimension ref="A1:BI232"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
@@ -58590,7 +58590,6 @@
           <t>10.01</t>
         </is>
       </c>
-      <c r="AA228" t="inlineStr"/>
       <c r="AB228" t="inlineStr">
         <is>
           <t>7002200</t>
@@ -58601,7 +58600,6 @@
           <t>2200</t>
         </is>
       </c>
-      <c r="AD228" t="inlineStr"/>
       <c r="AE228" t="inlineStr">
         <is>
           <t>19.0</t>
@@ -58755,6 +58753,1196 @@
       <c r="BI228" t="inlineStr">
         <is>
           <t>146030604</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>2022-10-03 18:18:43</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>26.5</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>9.8</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>24.7</t>
+        </is>
+      </c>
+      <c r="G229" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H229" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="I229" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J229" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="L229" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M229" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N229" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="O229" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="P229" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q229" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R229" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="S229" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T229" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="U229" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V229" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="W229" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="X229" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="Y229" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z229" t="inlineStr">
+        <is>
+          <t>10.40</t>
+        </is>
+      </c>
+      <c r="AB229" t="inlineStr">
+        <is>
+          <t>7002200</t>
+        </is>
+      </c>
+      <c r="AC229" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="AE229" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="AF229" t="inlineStr">
+        <is>
+          <t>26.5</t>
+        </is>
+      </c>
+      <c r="AG229" t="inlineStr">
+        <is>
+          <t>9.8</t>
+        </is>
+      </c>
+      <c r="AH229" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI229" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AJ229" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AK229" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AL229" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AM229" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="AN229" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="AO229" t="inlineStr">
+        <is>
+          <t>790</t>
+        </is>
+      </c>
+      <c r="AP229" t="inlineStr">
+        <is>
+          <t>177</t>
+        </is>
+      </c>
+      <c r="AQ229" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+      <c r="AR229" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="AS229" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="AT229" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="AU229" t="inlineStr">
+        <is>
+          <t>28.83</t>
+        </is>
+      </c>
+      <c r="AV229" t="inlineStr">
+        <is>
+          <t>3629.46</t>
+        </is>
+      </c>
+      <c r="AW229" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="AX229" t="inlineStr">
+        <is>
+          <t>11.35</t>
+        </is>
+      </c>
+      <c r="AY229" t="inlineStr">
+        <is>
+          <t>2924.56</t>
+        </is>
+      </c>
+      <c r="AZ229" t="inlineStr">
+        <is>
+          <t>9.48</t>
+        </is>
+      </c>
+      <c r="BA229" t="inlineStr">
+        <is>
+          <t>112.34</t>
+        </is>
+      </c>
+      <c r="BB229" t="inlineStr">
+        <is>
+          <t>10452.23</t>
+        </is>
+      </c>
+      <c r="BC229" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="BD229" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BE229" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BF229" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="BG229" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BH229" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="BI229" t="inlineStr">
+        <is>
+          <t>144982044</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>2022-10-10 21:26:33</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>19.2</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>25.8</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>10.4</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>24.7</t>
+        </is>
+      </c>
+      <c r="G230" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H230" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="I230" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J230" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="L230" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M230" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N230" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="O230" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="P230" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q230" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R230" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="S230" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T230" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="U230" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V230" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="W230" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="X230" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="Y230" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z230" t="inlineStr">
+        <is>
+          <t>11.31</t>
+        </is>
+      </c>
+      <c r="AB230" t="inlineStr">
+        <is>
+          <t>7002200</t>
+        </is>
+      </c>
+      <c r="AC230" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="AE230" t="inlineStr">
+        <is>
+          <t>19.3</t>
+        </is>
+      </c>
+      <c r="AF230" t="inlineStr">
+        <is>
+          <t>25.8</t>
+        </is>
+      </c>
+      <c r="AG230" t="inlineStr">
+        <is>
+          <t>10.4</t>
+        </is>
+      </c>
+      <c r="AH230" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI230" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AJ230" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AK230" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AL230" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AM230" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="AN230" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="AO230" t="inlineStr">
+        <is>
+          <t>737</t>
+        </is>
+      </c>
+      <c r="AP230" t="inlineStr">
+        <is>
+          <t>175</t>
+        </is>
+      </c>
+      <c r="AQ230" t="inlineStr">
+        <is>
+          <t>139</t>
+        </is>
+      </c>
+      <c r="AR230" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="AS230" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="AT230" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="AU230" t="inlineStr">
+        <is>
+          <t>35.80</t>
+        </is>
+      </c>
+      <c r="AV230" t="inlineStr">
+        <is>
+          <t>3640.26</t>
+        </is>
+      </c>
+      <c r="AW230" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="AX230" t="inlineStr">
+        <is>
+          <t>18.16</t>
+        </is>
+      </c>
+      <c r="AY230" t="inlineStr">
+        <is>
+          <t>2931.36</t>
+        </is>
+      </c>
+      <c r="AZ230" t="inlineStr">
+        <is>
+          <t>8.63</t>
+        </is>
+      </c>
+      <c r="BA230" t="inlineStr">
+        <is>
+          <t>160.65</t>
+        </is>
+      </c>
+      <c r="BB230" t="inlineStr">
+        <is>
+          <t>10503.56</t>
+        </is>
+      </c>
+      <c r="BC230" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="BD230" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BE230" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BF230" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="BG230" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BH230" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="BI230" t="inlineStr">
+        <is>
+          <t>144982044</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>2022-10-12 20:34:12</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>18.8</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>25.9</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>6.4</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>24.6</t>
+        </is>
+      </c>
+      <c r="G231" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H231" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="I231" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J231" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="L231" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M231" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N231" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="O231" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="P231" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q231" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R231" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="S231" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T231" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="U231" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V231" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="W231" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="X231" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="Y231" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z231" t="inlineStr">
+        <is>
+          <t>10.13</t>
+        </is>
+      </c>
+      <c r="AB231" t="inlineStr">
+        <is>
+          <t>7002200</t>
+        </is>
+      </c>
+      <c r="AC231" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="AE231" t="inlineStr">
+        <is>
+          <t>18.9</t>
+        </is>
+      </c>
+      <c r="AF231" t="inlineStr">
+        <is>
+          <t>25.8</t>
+        </is>
+      </c>
+      <c r="AG231" t="inlineStr">
+        <is>
+          <t>6.5</t>
+        </is>
+      </c>
+      <c r="AH231" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI231" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AJ231" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AK231" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AL231" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AM231" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="AN231" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="AO231" t="inlineStr">
+        <is>
+          <t>929</t>
+        </is>
+      </c>
+      <c r="AP231" t="inlineStr">
+        <is>
+          <t>267</t>
+        </is>
+      </c>
+      <c r="AQ231" t="inlineStr">
+        <is>
+          <t>231</t>
+        </is>
+      </c>
+      <c r="AR231" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="AS231" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="AT231" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="AU231" t="inlineStr">
+        <is>
+          <t>40.59</t>
+        </is>
+      </c>
+      <c r="AV231" t="inlineStr">
+        <is>
+          <t>3646.12</t>
+        </is>
+      </c>
+      <c r="AW231" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="AX231" t="inlineStr">
+        <is>
+          <t>22.67</t>
+        </is>
+      </c>
+      <c r="AY231" t="inlineStr">
+        <is>
+          <t>2935.88</t>
+        </is>
+      </c>
+      <c r="AZ231" t="inlineStr">
+        <is>
+          <t>8.41</t>
+        </is>
+      </c>
+      <c r="BA231" t="inlineStr">
+        <is>
+          <t>182.09</t>
+        </is>
+      </c>
+      <c r="BB231" t="inlineStr">
+        <is>
+          <t>10526.06</t>
+        </is>
+      </c>
+      <c r="BC231" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="BD231" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BE231" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BF231" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="BG231" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BH231" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="BI231" t="inlineStr">
+        <is>
+          <t>146030620</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>2022-10-14 19:19:36</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>18.8</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>25.5</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>10.7</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>24.7</t>
+        </is>
+      </c>
+      <c r="G232" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H232" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="I232" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J232" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="L232" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M232" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N232" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="O232" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="P232" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q232" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R232" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="S232" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T232" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="U232" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V232" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="W232" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="X232" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="Y232" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z232" t="inlineStr">
+        <is>
+          <t>11.31</t>
+        </is>
+      </c>
+      <c r="AA232" t="inlineStr"/>
+      <c r="AB232" t="inlineStr">
+        <is>
+          <t>7002200</t>
+        </is>
+      </c>
+      <c r="AC232" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="AD232" t="inlineStr"/>
+      <c r="AE232" t="inlineStr">
+        <is>
+          <t>18.9</t>
+        </is>
+      </c>
+      <c r="AF232" t="inlineStr">
+        <is>
+          <t>25.5</t>
+        </is>
+      </c>
+      <c r="AG232" t="inlineStr">
+        <is>
+          <t>10.6</t>
+        </is>
+      </c>
+      <c r="AH232" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI232" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AJ232" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AK232" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AL232" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AM232" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="AN232" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="AO232" t="inlineStr">
+        <is>
+          <t>705</t>
+        </is>
+      </c>
+      <c r="AP232" t="inlineStr">
+        <is>
+          <t>190</t>
+        </is>
+      </c>
+      <c r="AQ232" t="inlineStr">
+        <is>
+          <t>154</t>
+        </is>
+      </c>
+      <c r="AR232" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="AS232" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="AT232" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="AU232" t="inlineStr">
+        <is>
+          <t>46.06</t>
+        </is>
+      </c>
+      <c r="AV232" t="inlineStr">
+        <is>
+          <t>3652.70</t>
+        </is>
+      </c>
+      <c r="AW232" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="AX232" t="inlineStr">
+        <is>
+          <t>27.87</t>
+        </is>
+      </c>
+      <c r="AY232" t="inlineStr">
+        <is>
+          <t>2941.08</t>
+        </is>
+      </c>
+      <c r="AZ232" t="inlineStr">
+        <is>
+          <t>9.51</t>
+        </is>
+      </c>
+      <c r="BA232" t="inlineStr">
+        <is>
+          <t>205.91</t>
+        </is>
+      </c>
+      <c r="BB232" t="inlineStr">
+        <is>
+          <t>10550.87</t>
+        </is>
+      </c>
+      <c r="BC232" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="BD232" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BE232" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BF232" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="BG232" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BH232" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="BI232" t="inlineStr">
+        <is>
+          <t>146030620</t>
         </is>
       </c>
     </row>

--- a/SampleData.xlsx
+++ b/SampleData.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BI232"/>
+  <dimension ref="A1:BI242"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
@@ -59778,7 +59778,6 @@
           <t>11.31</t>
         </is>
       </c>
-      <c r="AA232" t="inlineStr"/>
       <c r="AB232" t="inlineStr">
         <is>
           <t>7002200</t>
@@ -59789,7 +59788,6 @@
           <t>2200</t>
         </is>
       </c>
-      <c r="AD232" t="inlineStr"/>
       <c r="AE232" t="inlineStr">
         <is>
           <t>18.9</t>
@@ -59941,6 +59939,2978 @@
         </is>
       </c>
       <c r="BI232" t="inlineStr">
+        <is>
+          <t>146030620</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>2022-10-19 18:23:19</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>18.9</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>25.6</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>7.6</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>24.5</t>
+        </is>
+      </c>
+      <c r="G233" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H233" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="I233" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J233" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="L233" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M233" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N233" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="O233" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="P233" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q233" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R233" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="S233" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T233" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="U233" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V233" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="W233" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="X233" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="Y233" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z233" t="inlineStr">
+        <is>
+          <t>10.06</t>
+        </is>
+      </c>
+      <c r="AB233" t="inlineStr">
+        <is>
+          <t>7002200</t>
+        </is>
+      </c>
+      <c r="AC233" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="AE233" t="inlineStr">
+        <is>
+          <t>18.8</t>
+        </is>
+      </c>
+      <c r="AF233" t="inlineStr">
+        <is>
+          <t>25.7</t>
+        </is>
+      </c>
+      <c r="AG233" t="inlineStr">
+        <is>
+          <t>7.6</t>
+        </is>
+      </c>
+      <c r="AH233" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI233" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AJ233" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AK233" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AL233" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AM233" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="AN233" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="AO233" t="inlineStr">
+        <is>
+          <t>865</t>
+        </is>
+      </c>
+      <c r="AP233" t="inlineStr">
+        <is>
+          <t>255</t>
+        </is>
+      </c>
+      <c r="AQ233" t="inlineStr">
+        <is>
+          <t>218</t>
+        </is>
+      </c>
+      <c r="AR233" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="AS233" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="AT233" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="AU233" t="inlineStr">
+        <is>
+          <t>56.28</t>
+        </is>
+      </c>
+      <c r="AV233" t="inlineStr">
+        <is>
+          <t>3665.60</t>
+        </is>
+      </c>
+      <c r="AW233" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="AX233" t="inlineStr">
+        <is>
+          <t>37.30</t>
+        </is>
+      </c>
+      <c r="AY233" t="inlineStr">
+        <is>
+          <t>2950.51</t>
+        </is>
+      </c>
+      <c r="AZ233" t="inlineStr">
+        <is>
+          <t>11.10</t>
+        </is>
+      </c>
+      <c r="BA233" t="inlineStr">
+        <is>
+          <t>262.63</t>
+        </is>
+      </c>
+      <c r="BB233" t="inlineStr">
+        <is>
+          <t>10609.66</t>
+        </is>
+      </c>
+      <c r="BC233" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="BD233" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BE233" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BF233" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="BG233" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BH233" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="BI233" t="inlineStr">
+        <is>
+          <t>146030620</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>2022-10-21 16:06:44</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>18.8</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>25.4</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>24.8</t>
+        </is>
+      </c>
+      <c r="G234" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H234" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="I234" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J234" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="L234" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M234" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N234" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="O234" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="P234" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q234" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R234" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="S234" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T234" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="U234" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V234" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="W234" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="X234" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="Y234" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z234" t="inlineStr">
+        <is>
+          <t>10.92</t>
+        </is>
+      </c>
+      <c r="AB234" t="inlineStr">
+        <is>
+          <t>7002200</t>
+        </is>
+      </c>
+      <c r="AC234" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="AE234" t="inlineStr">
+        <is>
+          <t>18.9</t>
+        </is>
+      </c>
+      <c r="AF234" t="inlineStr">
+        <is>
+          <t>25.3</t>
+        </is>
+      </c>
+      <c r="AG234" t="inlineStr">
+        <is>
+          <t>14.1</t>
+        </is>
+      </c>
+      <c r="AH234" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI234" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AJ234" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AK234" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AL234" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AM234" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="AN234" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="AO234" t="inlineStr">
+        <is>
+          <t>528</t>
+        </is>
+      </c>
+      <c r="AP234" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="AQ234" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="AR234" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="AS234" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="AT234" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="AU234" t="inlineStr">
+        <is>
+          <t>62.07</t>
+        </is>
+      </c>
+      <c r="AV234" t="inlineStr">
+        <is>
+          <t>3672.49</t>
+        </is>
+      </c>
+      <c r="AW234" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="AX234" t="inlineStr">
+        <is>
+          <t>42.82</t>
+        </is>
+      </c>
+      <c r="AY234" t="inlineStr">
+        <is>
+          <t>2956.03</t>
+        </is>
+      </c>
+      <c r="AZ234" t="inlineStr">
+        <is>
+          <t>8.38</t>
+        </is>
+      </c>
+      <c r="BA234" t="inlineStr">
+        <is>
+          <t>284.15</t>
+        </is>
+      </c>
+      <c r="BB234" t="inlineStr">
+        <is>
+          <t>10634.62</t>
+        </is>
+      </c>
+      <c r="BC234" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="BD234" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BE234" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BF234" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="BG234" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BH234" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="BI234" t="inlineStr">
+        <is>
+          <t>146030620</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>2022-10-23 11:16:41</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>25.7</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>9.6</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>24.8</t>
+        </is>
+      </c>
+      <c r="G235" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H235" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="I235" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J235" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="L235" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M235" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N235" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="O235" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="P235" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q235" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R235" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="S235" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T235" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="U235" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V235" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="W235" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="X235" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="Y235" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z235" t="inlineStr">
+        <is>
+          <t>10.23</t>
+        </is>
+      </c>
+      <c r="AB235" t="inlineStr">
+        <is>
+          <t>7002200</t>
+        </is>
+      </c>
+      <c r="AC235" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="AE235" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="AF235" t="inlineStr">
+        <is>
+          <t>25.7</t>
+        </is>
+      </c>
+      <c r="AG235" t="inlineStr">
+        <is>
+          <t>9.5</t>
+        </is>
+      </c>
+      <c r="AH235" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI235" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AJ235" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AK235" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AL235" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AM235" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="AN235" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="AO235" t="inlineStr">
+        <is>
+          <t>774</t>
+        </is>
+      </c>
+      <c r="AP235" t="inlineStr">
+        <is>
+          <t>205</t>
+        </is>
+      </c>
+      <c r="AQ235" t="inlineStr">
+        <is>
+          <t>170</t>
+        </is>
+      </c>
+      <c r="AR235" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="AS235" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="AT235" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="AU235" t="inlineStr">
+        <is>
+          <t>68.41</t>
+        </is>
+      </c>
+      <c r="AV235" t="inlineStr">
+        <is>
+          <t>3680.22</t>
+        </is>
+      </c>
+      <c r="AW235" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="AX235" t="inlineStr">
+        <is>
+          <t>49.11</t>
+        </is>
+      </c>
+      <c r="AY235" t="inlineStr">
+        <is>
+          <t>2962.48</t>
+        </is>
+      </c>
+      <c r="AZ235" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="BA235" t="inlineStr">
+        <is>
+          <t>299.43</t>
+        </is>
+      </c>
+      <c r="BB235" t="inlineStr">
+        <is>
+          <t>10660.54</t>
+        </is>
+      </c>
+      <c r="BC235" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="BD235" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BE235" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BF235" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="BG235" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BH235" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="BI235" t="inlineStr">
+        <is>
+          <t>146030620</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>2022-10-24 18:49:05</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>18.9</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>25.8</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>26.4</t>
+        </is>
+      </c>
+      <c r="G236" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H236" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="I236" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J236" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="L236" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M236" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N236" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="O236" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="P236" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q236" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R236" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="S236" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T236" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="U236" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V236" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="W236" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="X236" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="Y236" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z236" t="inlineStr">
+        <is>
+          <t>10.44</t>
+        </is>
+      </c>
+      <c r="AB236" t="inlineStr">
+        <is>
+          <t>7002200</t>
+        </is>
+      </c>
+      <c r="AC236" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="AE236" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="AF236" t="inlineStr">
+        <is>
+          <t>25.8</t>
+        </is>
+      </c>
+      <c r="AG236" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+      <c r="AH236" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI236" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AJ236" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AK236" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AL236" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AM236" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="AN236" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="AO236" t="inlineStr">
+        <is>
+          <t>1025</t>
+        </is>
+      </c>
+      <c r="AP236" t="inlineStr">
+        <is>
+          <t>393</t>
+        </is>
+      </c>
+      <c r="AQ236" t="inlineStr">
+        <is>
+          <t>357</t>
+        </is>
+      </c>
+      <c r="AR236" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="AS236" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="AT236" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="AU236" t="inlineStr">
+        <is>
+          <t>74.58</t>
+        </is>
+      </c>
+      <c r="AV236" t="inlineStr">
+        <is>
+          <t>3687.10</t>
+        </is>
+      </c>
+      <c r="AW236" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="AX236" t="inlineStr">
+        <is>
+          <t>54.87</t>
+        </is>
+      </c>
+      <c r="AY236" t="inlineStr">
+        <is>
+          <t>2968.37</t>
+        </is>
+      </c>
+      <c r="AZ236" t="inlineStr">
+        <is>
+          <t>12.42</t>
+        </is>
+      </c>
+      <c r="BA236" t="inlineStr">
+        <is>
+          <t>316.86</t>
+        </is>
+      </c>
+      <c r="BB236" t="inlineStr">
+        <is>
+          <t>10681.82</t>
+        </is>
+      </c>
+      <c r="BC236" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="BD236" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BE236" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BF236" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="BG236" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BH236" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="BI236" t="inlineStr">
+        <is>
+          <t>146030620</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>2022-10-28 16:31:30</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>18.8</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>25.7</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>12.9</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="G237" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H237" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="I237" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J237" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="L237" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M237" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N237" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="O237" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="P237" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q237" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R237" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="S237" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T237" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="U237" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V237" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="W237" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="X237" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="Y237" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z237" t="inlineStr">
+        <is>
+          <t>11.97</t>
+        </is>
+      </c>
+      <c r="AB237" t="inlineStr">
+        <is>
+          <t>7002200</t>
+        </is>
+      </c>
+      <c r="AC237" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="AE237" t="inlineStr">
+        <is>
+          <t>18.9</t>
+        </is>
+      </c>
+      <c r="AF237" t="inlineStr">
+        <is>
+          <t>25.8</t>
+        </is>
+      </c>
+      <c r="AG237" t="inlineStr">
+        <is>
+          <t>12.9</t>
+        </is>
+      </c>
+      <c r="AH237" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI237" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AJ237" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AK237" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AL237" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AM237" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="AN237" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="AO237" t="inlineStr">
+        <is>
+          <t>592</t>
+        </is>
+      </c>
+      <c r="AP237" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="AQ237" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+      <c r="AR237" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="AS237" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="AT237" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="AU237" t="inlineStr">
+        <is>
+          <t>82.96</t>
+        </is>
+      </c>
+      <c r="AV237" t="inlineStr">
+        <is>
+          <t>3700.71</t>
+        </is>
+      </c>
+      <c r="AW237" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="AX237" t="inlineStr">
+        <is>
+          <t>63.12</t>
+        </is>
+      </c>
+      <c r="AY237" t="inlineStr">
+        <is>
+          <t>2979.31</t>
+        </is>
+      </c>
+      <c r="AZ237" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="BA237" t="inlineStr">
+        <is>
+          <t>336.11</t>
+        </is>
+      </c>
+      <c r="BB237" t="inlineStr">
+        <is>
+          <t>10730.12</t>
+        </is>
+      </c>
+      <c r="BC237" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="BD237" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BE237" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BF237" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="BG237" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BH237" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="BI237" t="inlineStr">
+        <is>
+          <t>146030620</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>2022-10-29 12:35:14</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>25.8</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>13.3</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="G238" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H238" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="I238" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J238" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="L238" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M238" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N238" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="O238" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="P238" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q238" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R238" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="S238" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T238" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="U238" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V238" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="W238" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="X238" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="Y238" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z238" t="inlineStr">
+        <is>
+          <t>12.43</t>
+        </is>
+      </c>
+      <c r="AB238" t="inlineStr">
+        <is>
+          <t>7002200</t>
+        </is>
+      </c>
+      <c r="AC238" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="AE238" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="AF238" t="inlineStr">
+        <is>
+          <t>25.9</t>
+        </is>
+      </c>
+      <c r="AG238" t="inlineStr">
+        <is>
+          <t>13.3</t>
+        </is>
+      </c>
+      <c r="AH238" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI238" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AJ238" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AK238" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AL238" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AM238" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="AN238" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="AO238" t="inlineStr">
+        <is>
+          <t>587</t>
+        </is>
+      </c>
+      <c r="AP238" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+      <c r="AQ238" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="AR238" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="AS238" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="AT238" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="AU238" t="inlineStr">
+        <is>
+          <t>81.85</t>
+        </is>
+      </c>
+      <c r="AV238" t="inlineStr">
+        <is>
+          <t>3702.42</t>
+        </is>
+      </c>
+      <c r="AW238" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="AX238" t="inlineStr">
+        <is>
+          <t>62.23</t>
+        </is>
+      </c>
+      <c r="AY238" t="inlineStr">
+        <is>
+          <t>2980.53</t>
+        </is>
+      </c>
+      <c r="AZ238" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="BA238" t="inlineStr">
+        <is>
+          <t>329.09</t>
+        </is>
+      </c>
+      <c r="BB238" t="inlineStr">
+        <is>
+          <t>10736.83</t>
+        </is>
+      </c>
+      <c r="BC238" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="BD238" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BE238" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BF238" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="BG238" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BH238" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="BI238" t="inlineStr">
+        <is>
+          <t>144982044</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>2022-10-31 18:14:52</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>26.1</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>8.5</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>25.7</t>
+        </is>
+      </c>
+      <c r="G239" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H239" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="I239" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J239" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="L239" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M239" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N239" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="O239" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="P239" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q239" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R239" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="S239" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T239" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="U239" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V239" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="W239" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="X239" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="Y239" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z239" t="inlineStr">
+        <is>
+          <t>11.48</t>
+        </is>
+      </c>
+      <c r="AB239" t="inlineStr">
+        <is>
+          <t>7002200</t>
+        </is>
+      </c>
+      <c r="AC239" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="AE239" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="AF239" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="AG239" t="inlineStr">
+        <is>
+          <t>8.6</t>
+        </is>
+      </c>
+      <c r="AH239" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI239" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AJ239" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AK239" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AL239" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AM239" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="AN239" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="AO239" t="inlineStr">
+        <is>
+          <t>838</t>
+        </is>
+      </c>
+      <c r="AP239" t="inlineStr">
+        <is>
+          <t>245</t>
+        </is>
+      </c>
+      <c r="AQ239" t="inlineStr">
+        <is>
+          <t>209</t>
+        </is>
+      </c>
+      <c r="AR239" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="AS239" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="AT239" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="AU239" t="inlineStr">
+        <is>
+          <t>86.59</t>
+        </is>
+      </c>
+      <c r="AV239" t="inlineStr">
+        <is>
+          <t>3711.93</t>
+        </is>
+      </c>
+      <c r="AW239" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="AX239" t="inlineStr">
+        <is>
+          <t>66.70</t>
+        </is>
+      </c>
+      <c r="AY239" t="inlineStr">
+        <is>
+          <t>2988.37</t>
+        </is>
+      </c>
+      <c r="AZ239" t="inlineStr">
+        <is>
+          <t>11.47</t>
+        </is>
+      </c>
+      <c r="BA239" t="inlineStr">
+        <is>
+          <t>337.38</t>
+        </is>
+      </c>
+      <c r="BB239" t="inlineStr">
+        <is>
+          <t>10768.95</t>
+        </is>
+      </c>
+      <c r="BC239" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="BD239" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BE239" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BF239" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="BG239" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BH239" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="BI239" t="inlineStr">
+        <is>
+          <t>144982044</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>2022-11-02 19:01:26</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>18.9</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>26.1</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>8.6</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>25.1</t>
+        </is>
+      </c>
+      <c r="G240" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H240" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="I240" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J240" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="L240" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M240" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N240" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="O240" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="P240" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q240" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R240" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="S240" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T240" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="U240" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V240" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="W240" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="X240" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="Y240" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z240" t="inlineStr">
+        <is>
+          <t>11.10</t>
+        </is>
+      </c>
+      <c r="AB240" t="inlineStr">
+        <is>
+          <t>7002200</t>
+        </is>
+      </c>
+      <c r="AC240" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="AE240" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="AF240" t="inlineStr">
+        <is>
+          <t>26.1</t>
+        </is>
+      </c>
+      <c r="AG240" t="inlineStr">
+        <is>
+          <t>8.5</t>
+        </is>
+      </c>
+      <c r="AH240" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI240" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AJ240" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AK240" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AL240" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AM240" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="AN240" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="AO240" t="inlineStr">
+        <is>
+          <t>833</t>
+        </is>
+      </c>
+      <c r="AP240" t="inlineStr">
+        <is>
+          <t>243</t>
+        </is>
+      </c>
+      <c r="AQ240" t="inlineStr">
+        <is>
+          <t>208</t>
+        </is>
+      </c>
+      <c r="AR240" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="AS240" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="AT240" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="AU240" t="inlineStr">
+        <is>
+          <t>88.81</t>
+        </is>
+      </c>
+      <c r="AV240" t="inlineStr">
+        <is>
+          <t>3719.05</t>
+        </is>
+      </c>
+      <c r="AW240" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="AX240" t="inlineStr">
+        <is>
+          <t>68.89</t>
+        </is>
+      </c>
+      <c r="AY240" t="inlineStr">
+        <is>
+          <t>2994.06</t>
+        </is>
+      </c>
+      <c r="AZ240" t="inlineStr">
+        <is>
+          <t>11.60</t>
+        </is>
+      </c>
+      <c r="BA240" t="inlineStr">
+        <is>
+          <t>339.27</t>
+        </is>
+      </c>
+      <c r="BB240" t="inlineStr">
+        <is>
+          <t>10794.77</t>
+        </is>
+      </c>
+      <c r="BC240" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="BD240" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BE240" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BF240" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="BG240" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BH240" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="BI240" t="inlineStr">
+        <is>
+          <t>146030620</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>2022-11-04 17:33:49</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>25.9</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>4.8</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>25.1</t>
+        </is>
+      </c>
+      <c r="G241" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H241" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="I241" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J241" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="L241" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M241" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N241" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="O241" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="P241" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q241" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R241" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="S241" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T241" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="U241" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V241" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="W241" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="X241" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="Y241" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z241" t="inlineStr">
+        <is>
+          <t>11.34</t>
+        </is>
+      </c>
+      <c r="AB241" t="inlineStr">
+        <is>
+          <t>7002200</t>
+        </is>
+      </c>
+      <c r="AC241" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="AE241" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="AF241" t="inlineStr">
+        <is>
+          <t>25.8</t>
+        </is>
+      </c>
+      <c r="AG241" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
+      </c>
+      <c r="AH241" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI241" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AJ241" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AK241" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AL241" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AM241" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="AN241" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="AO241" t="inlineStr">
+        <is>
+          <t>1025</t>
+        </is>
+      </c>
+      <c r="AP241" t="inlineStr">
+        <is>
+          <t>354</t>
+        </is>
+      </c>
+      <c r="AQ241" t="inlineStr">
+        <is>
+          <t>318</t>
+        </is>
+      </c>
+      <c r="AR241" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="AS241" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="AT241" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="AU241" t="inlineStr">
+        <is>
+          <t>91.87</t>
+        </is>
+      </c>
+      <c r="AV241" t="inlineStr">
+        <is>
+          <t>3727.52</t>
+        </is>
+      </c>
+      <c r="AW241" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="AX241" t="inlineStr">
+        <is>
+          <t>71.96</t>
+        </is>
+      </c>
+      <c r="AY241" t="inlineStr">
+        <is>
+          <t>3001.13</t>
+        </is>
+      </c>
+      <c r="AZ241" t="inlineStr">
+        <is>
+          <t>12.09</t>
+        </is>
+      </c>
+      <c r="BA241" t="inlineStr">
+        <is>
+          <t>343.87</t>
+        </is>
+      </c>
+      <c r="BB241" t="inlineStr">
+        <is>
+          <t>10823.61</t>
+        </is>
+      </c>
+      <c r="BC241" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="BD241" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BE241" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BF241" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="BG241" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BH241" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="BI241" t="inlineStr">
+        <is>
+          <t>144982044</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>2022-11-05 17:01:37</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>24.8</t>
+        </is>
+      </c>
+      <c r="G242" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H242" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="I242" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J242" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="L242" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M242" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N242" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="O242" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="P242" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q242" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R242" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="S242" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T242" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="U242" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V242" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="W242" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="X242" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="Y242" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z242" t="inlineStr">
+        <is>
+          <t>10.47</t>
+        </is>
+      </c>
+      <c r="AA242" t="inlineStr"/>
+      <c r="AB242" t="inlineStr">
+        <is>
+          <t>7002200</t>
+        </is>
+      </c>
+      <c r="AC242" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="AD242" t="inlineStr"/>
+      <c r="AE242" t="inlineStr">
+        <is>
+          <t>17.1</t>
+        </is>
+      </c>
+      <c r="AF242" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="AG242" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="AH242" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI242" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AJ242" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AK242" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AL242" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AM242" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="AN242" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="AO242" t="inlineStr">
+        <is>
+          <t>1164</t>
+        </is>
+      </c>
+      <c r="AP242" t="inlineStr">
+        <is>
+          <t>537</t>
+        </is>
+      </c>
+      <c r="AQ242" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="AR242" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="AS242" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="AT242" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="AU242" t="inlineStr">
+        <is>
+          <t>99.00</t>
+        </is>
+      </c>
+      <c r="AV242" t="inlineStr">
+        <is>
+          <t>3735.45</t>
+        </is>
+      </c>
+      <c r="AW242" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="AX242" t="inlineStr">
+        <is>
+          <t>78.97</t>
+        </is>
+      </c>
+      <c r="AY242" t="inlineStr">
+        <is>
+          <t>3008.35</t>
+        </is>
+      </c>
+      <c r="AZ242" t="inlineStr">
+        <is>
+          <t>14.60</t>
+        </is>
+      </c>
+      <c r="BA242" t="inlineStr">
+        <is>
+          <t>356.26</t>
+        </is>
+      </c>
+      <c r="BB242" t="inlineStr">
+        <is>
+          <t>10842.38</t>
+        </is>
+      </c>
+      <c r="BC242" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="BD242" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BE242" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BF242" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="BG242" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BH242" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="BI242" t="inlineStr">
         <is>
           <t>146030620</t>
         </is>

--- a/SampleData.xlsx
+++ b/SampleData.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BI242"/>
+  <dimension ref="A1:BI244"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
@@ -62748,7 +62748,6 @@
           <t>10.47</t>
         </is>
       </c>
-      <c r="AA242" t="inlineStr"/>
       <c r="AB242" t="inlineStr">
         <is>
           <t>7002200</t>
@@ -62759,7 +62758,6 @@
           <t>2200</t>
         </is>
       </c>
-      <c r="AD242" t="inlineStr"/>
       <c r="AE242" t="inlineStr">
         <is>
           <t>17.1</t>
@@ -62911,6 +62909,602 @@
         </is>
       </c>
       <c r="BI242" t="inlineStr">
+        <is>
+          <t>146030620</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>2022-11-06 11:36:32</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>19.4</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>26.7</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>10.7</t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>24.7</t>
+        </is>
+      </c>
+      <c r="G243" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H243" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="I243" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J243" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="L243" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M243" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N243" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="O243" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="P243" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q243" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R243" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="S243" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T243" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U243" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V243" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="W243" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="X243" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="Y243" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z243" t="inlineStr">
+        <is>
+          <t>10.85</t>
+        </is>
+      </c>
+      <c r="AB243" t="inlineStr">
+        <is>
+          <t>7002200</t>
+        </is>
+      </c>
+      <c r="AC243" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="AE243" t="inlineStr">
+        <is>
+          <t>19.6</t>
+        </is>
+      </c>
+      <c r="AF243" t="inlineStr">
+        <is>
+          <t>26.7</t>
+        </is>
+      </c>
+      <c r="AG243" t="inlineStr">
+        <is>
+          <t>10.7</t>
+        </is>
+      </c>
+      <c r="AH243" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI243" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AJ243" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AK243" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AL243" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AM243" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="AN243" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AO243" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP243" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="AQ243" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR243" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="AS243" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="AT243" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="AU243" t="inlineStr">
+        <is>
+          <t>100.36</t>
+        </is>
+      </c>
+      <c r="AV243" t="inlineStr">
+        <is>
+          <t>3737.23</t>
+        </is>
+      </c>
+      <c r="AW243" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AX243" t="inlineStr">
+        <is>
+          <t>80.26</t>
+        </is>
+      </c>
+      <c r="AY243" t="inlineStr">
+        <is>
+          <t>3009.64</t>
+        </is>
+      </c>
+      <c r="AZ243" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="BA243" t="inlineStr">
+        <is>
+          <t>363.36</t>
+        </is>
+      </c>
+      <c r="BB243" t="inlineStr">
+        <is>
+          <t>10851.64</t>
+        </is>
+      </c>
+      <c r="BC243" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="BD243" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BE243" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BF243" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="BG243" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BH243" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="BI243" t="inlineStr">
+        <is>
+          <t>146030596</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>2022-11-08 20:38:45</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>26.5</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>8.3</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>24.7</t>
+        </is>
+      </c>
+      <c r="G244" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H244" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="I244" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J244" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="L244" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M244" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N244" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="O244" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="P244" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q244" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R244" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="S244" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T244" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="U244" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V244" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="W244" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="X244" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="Y244" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z244" t="inlineStr">
+        <is>
+          <t>11.77</t>
+        </is>
+      </c>
+      <c r="AA244" t="inlineStr"/>
+      <c r="AB244" t="inlineStr">
+        <is>
+          <t>7002200</t>
+        </is>
+      </c>
+      <c r="AC244" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="AD244" t="inlineStr"/>
+      <c r="AE244" t="inlineStr">
+        <is>
+          <t>19.2</t>
+        </is>
+      </c>
+      <c r="AF244" t="inlineStr">
+        <is>
+          <t>26.5</t>
+        </is>
+      </c>
+      <c r="AG244" t="inlineStr">
+        <is>
+          <t>8.4</t>
+        </is>
+      </c>
+      <c r="AH244" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI244" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AJ244" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AK244" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AL244" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AM244" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="AN244" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="AO244" t="inlineStr">
+        <is>
+          <t>854</t>
+        </is>
+      </c>
+      <c r="AP244" t="inlineStr">
+        <is>
+          <t>204</t>
+        </is>
+      </c>
+      <c r="AQ244" t="inlineStr">
+        <is>
+          <t>167</t>
+        </is>
+      </c>
+      <c r="AR244" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="AS244" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="AT244" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="AU244" t="inlineStr">
+        <is>
+          <t>106.31</t>
+        </is>
+      </c>
+      <c r="AV244" t="inlineStr">
+        <is>
+          <t>3744.68</t>
+        </is>
+      </c>
+      <c r="AW244" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="AX244" t="inlineStr">
+        <is>
+          <t>85.24</t>
+        </is>
+      </c>
+      <c r="AY244" t="inlineStr">
+        <is>
+          <t>3015.34</t>
+        </is>
+      </c>
+      <c r="AZ244" t="inlineStr">
+        <is>
+          <t>12.76</t>
+        </is>
+      </c>
+      <c r="BA244" t="inlineStr">
+        <is>
+          <t>389.79</t>
+        </is>
+      </c>
+      <c r="BB244" t="inlineStr">
+        <is>
+          <t>10884.71</t>
+        </is>
+      </c>
+      <c r="BC244" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="BD244" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BE244" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BF244" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="BG244" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BH244" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="BI244" t="inlineStr">
         <is>
           <t>146030620</t>
         </is>

--- a/SampleData.xlsx
+++ b/SampleData.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BI244"/>
+  <dimension ref="A1:BI248"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
@@ -63342,7 +63342,6 @@
           <t>11.77</t>
         </is>
       </c>
-      <c r="AA244" t="inlineStr"/>
       <c r="AB244" t="inlineStr">
         <is>
           <t>7002200</t>
@@ -63353,7 +63352,6 @@
           <t>2200</t>
         </is>
       </c>
-      <c r="AD244" t="inlineStr"/>
       <c r="AE244" t="inlineStr">
         <is>
           <t>19.2</t>
@@ -63505,6 +63503,1196 @@
         </is>
       </c>
       <c r="BI244" t="inlineStr">
+        <is>
+          <t>146030620</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>2022-11-09 18:39:06</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>25.9</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>11.8</t>
+        </is>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>24.9</t>
+        </is>
+      </c>
+      <c r="G245" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H245" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="I245" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J245" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="L245" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M245" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N245" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="O245" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="P245" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q245" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R245" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="S245" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T245" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="U245" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V245" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="W245" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="X245" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="Y245" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z245" t="inlineStr">
+        <is>
+          <t>11.89</t>
+        </is>
+      </c>
+      <c r="AB245" t="inlineStr">
+        <is>
+          <t>7002200</t>
+        </is>
+      </c>
+      <c r="AC245" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="AE245" t="inlineStr">
+        <is>
+          <t>19.1</t>
+        </is>
+      </c>
+      <c r="AF245" t="inlineStr">
+        <is>
+          <t>25.9</t>
+        </is>
+      </c>
+      <c r="AG245" t="inlineStr">
+        <is>
+          <t>11.8</t>
+        </is>
+      </c>
+      <c r="AH245" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI245" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AJ245" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AK245" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AL245" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AM245" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="AN245" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="AO245" t="inlineStr">
+        <is>
+          <t>673</t>
+        </is>
+      </c>
+      <c r="AP245" t="inlineStr">
+        <is>
+          <t>162</t>
+        </is>
+      </c>
+      <c r="AQ245" t="inlineStr">
+        <is>
+          <t>126</t>
+        </is>
+      </c>
+      <c r="AR245" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="AS245" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="AT245" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="AU245" t="inlineStr">
+        <is>
+          <t>106.68</t>
+        </is>
+      </c>
+      <c r="AV245" t="inlineStr">
+        <is>
+          <t>3747.13</t>
+        </is>
+      </c>
+      <c r="AW245" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="AX245" t="inlineStr">
+        <is>
+          <t>85.65</t>
+        </is>
+      </c>
+      <c r="AY245" t="inlineStr">
+        <is>
+          <t>3017.14</t>
+        </is>
+      </c>
+      <c r="AZ245" t="inlineStr">
+        <is>
+          <t>9.93</t>
+        </is>
+      </c>
+      <c r="BA245" t="inlineStr">
+        <is>
+          <t>391.02</t>
+        </is>
+      </c>
+      <c r="BB245" t="inlineStr">
+        <is>
+          <t>10895.44</t>
+        </is>
+      </c>
+      <c r="BC245" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="BD245" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BE245" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BF245" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="BG245" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BH245" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="BI245" t="inlineStr">
+        <is>
+          <t>146030620</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>2022-11-11 19:11:59</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>19.1</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>25.7</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>24.9</t>
+        </is>
+      </c>
+      <c r="G246" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H246" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="I246" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J246" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="L246" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M246" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N246" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="O246" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="P246" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q246" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R246" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="S246" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T246" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="U246" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V246" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="W246" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="X246" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="Y246" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z246" t="inlineStr">
+        <is>
+          <t>12.13</t>
+        </is>
+      </c>
+      <c r="AB246" t="inlineStr">
+        <is>
+          <t>7002200</t>
+        </is>
+      </c>
+      <c r="AC246" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="AE246" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="AF246" t="inlineStr">
+        <is>
+          <t>25.7</t>
+        </is>
+      </c>
+      <c r="AG246" t="inlineStr">
+        <is>
+          <t>12.9</t>
+        </is>
+      </c>
+      <c r="AH246" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI246" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AJ246" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AK246" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AL246" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AM246" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="AN246" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="AO246" t="inlineStr">
+        <is>
+          <t>598</t>
+        </is>
+      </c>
+      <c r="AP246" t="inlineStr">
+        <is>
+          <t>130</t>
+        </is>
+      </c>
+      <c r="AQ246" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="AR246" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="AS246" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="AT246" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="AU246" t="inlineStr">
+        <is>
+          <t>105.18</t>
+        </is>
+      </c>
+      <c r="AV246" t="inlineStr">
+        <is>
+          <t>3751.87</t>
+        </is>
+      </c>
+      <c r="AW246" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="AX246" t="inlineStr">
+        <is>
+          <t>84.16</t>
+        </is>
+      </c>
+      <c r="AY246" t="inlineStr">
+        <is>
+          <t>3020.52</t>
+        </is>
+      </c>
+      <c r="AZ246" t="inlineStr">
+        <is>
+          <t>9.67</t>
+        </is>
+      </c>
+      <c r="BA246" t="inlineStr">
+        <is>
+          <t>389.25</t>
+        </is>
+      </c>
+      <c r="BB246" t="inlineStr">
+        <is>
+          <t>10917.17</t>
+        </is>
+      </c>
+      <c r="BC246" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="BD246" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BE246" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BF246" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="BG246" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BH246" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="BI246" t="inlineStr">
+        <is>
+          <t>146030620</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>2022-11-13 11:02:45</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>26.4</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>12.3</t>
+        </is>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>24.7</t>
+        </is>
+      </c>
+      <c r="G247" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H247" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="I247" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J247" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="L247" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M247" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N247" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="O247" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="P247" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q247" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R247" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="S247" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T247" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="U247" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V247" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="W247" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="X247" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="Y247" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z247" t="inlineStr">
+        <is>
+          <t>10.85</t>
+        </is>
+      </c>
+      <c r="AB247" t="inlineStr">
+        <is>
+          <t>7002200</t>
+        </is>
+      </c>
+      <c r="AC247" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="AE247" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="AF247" t="inlineStr">
+        <is>
+          <t>26.4</t>
+        </is>
+      </c>
+      <c r="AG247" t="inlineStr">
+        <is>
+          <t>12.5</t>
+        </is>
+      </c>
+      <c r="AH247" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI247" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AJ247" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AK247" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AL247" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AM247" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="AN247" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="AO247" t="inlineStr">
+        <is>
+          <t>667</t>
+        </is>
+      </c>
+      <c r="AP247" t="inlineStr">
+        <is>
+          <t>156</t>
+        </is>
+      </c>
+      <c r="AQ247" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+      <c r="AR247" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="AS247" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="AT247" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="AU247" t="inlineStr">
+        <is>
+          <t>101.60</t>
+        </is>
+      </c>
+      <c r="AV247" t="inlineStr">
+        <is>
+          <t>3754.84</t>
+        </is>
+      </c>
+      <c r="AW247" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="AX247" t="inlineStr">
+        <is>
+          <t>80.99</t>
+        </is>
+      </c>
+      <c r="AY247" t="inlineStr">
+        <is>
+          <t>3022.48</t>
+        </is>
+      </c>
+      <c r="AZ247" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="BA247" t="inlineStr">
+        <is>
+          <t>377.16</t>
+        </is>
+      </c>
+      <c r="BB247" t="inlineStr">
+        <is>
+          <t>10930.27</t>
+        </is>
+      </c>
+      <c r="BC247" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="BD247" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BE247" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BF247" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="BG247" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BH247" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="BI247" t="inlineStr">
+        <is>
+          <t>146030620</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>2022-11-18 16:58:13</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>17.8</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>26.2</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>1.3</t>
+        </is>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="G248" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H248" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="I248" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J248" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="L248" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M248" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N248" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="O248" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="P248" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q248" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R248" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="S248" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T248" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="U248" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V248" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="W248" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="X248" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="Y248" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z248" t="inlineStr">
+        <is>
+          <t>10.35</t>
+        </is>
+      </c>
+      <c r="AA248" t="inlineStr"/>
+      <c r="AB248" t="inlineStr">
+        <is>
+          <t>7002200</t>
+        </is>
+      </c>
+      <c r="AC248" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="AD248" t="inlineStr"/>
+      <c r="AE248" t="inlineStr">
+        <is>
+          <t>17.9</t>
+        </is>
+      </c>
+      <c r="AF248" t="inlineStr">
+        <is>
+          <t>26.2</t>
+        </is>
+      </c>
+      <c r="AG248" t="inlineStr">
+        <is>
+          <t>1.3</t>
+        </is>
+      </c>
+      <c r="AH248" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI248" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AJ248" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AK248" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AL248" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AM248" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AN248" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="AO248" t="inlineStr">
+        <is>
+          <t>1196</t>
+        </is>
+      </c>
+      <c r="AP248" t="inlineStr">
+        <is>
+          <t>536</t>
+        </is>
+      </c>
+      <c r="AQ248" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="AR248" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="AS248" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="AT248" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="AU248" t="inlineStr">
+        <is>
+          <t>126.56</t>
+        </is>
+      </c>
+      <c r="AV248" t="inlineStr">
+        <is>
+          <t>3793.29</t>
+        </is>
+      </c>
+      <c r="AW248" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="AX248" t="inlineStr">
+        <is>
+          <t>105.67</t>
+        </is>
+      </c>
+      <c r="AY248" t="inlineStr">
+        <is>
+          <t>3057.13</t>
+        </is>
+      </c>
+      <c r="AZ248" t="inlineStr">
+        <is>
+          <t>15.08</t>
+        </is>
+      </c>
+      <c r="BA248" t="inlineStr">
+        <is>
+          <t>414.23</t>
+        </is>
+      </c>
+      <c r="BB248" t="inlineStr">
+        <is>
+          <t>11027.56</t>
+        </is>
+      </c>
+      <c r="BC248" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="BD248" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BE248" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BF248" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="BG248" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BH248" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="BI248" t="inlineStr">
         <is>
           <t>146030620</t>
         </is>

--- a/SampleData.xlsx
+++ b/SampleData.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BI248"/>
+  <dimension ref="A1:BI249"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
@@ -64530,7 +64530,6 @@
           <t>10.35</t>
         </is>
       </c>
-      <c r="AA248" t="inlineStr"/>
       <c r="AB248" t="inlineStr">
         <is>
           <t>7002200</t>
@@ -64541,7 +64540,6 @@
           <t>2200</t>
         </is>
       </c>
-      <c r="AD248" t="inlineStr"/>
       <c r="AE248" t="inlineStr">
         <is>
           <t>17.9</t>
@@ -64693,6 +64691,305 @@
         </is>
       </c>
       <c r="BI248" t="inlineStr">
+        <is>
+          <t>146030620</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>2022-11-26 19:04:09</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>14.7</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>25.5</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>1.5</t>
+        </is>
+      </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>25.5</t>
+        </is>
+      </c>
+      <c r="G249" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H249" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="I249" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J249" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="L249" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M249" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N249" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="O249" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="P249" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q249" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R249" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="S249" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T249" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="U249" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V249" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="W249" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="X249" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="Y249" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z249" t="inlineStr">
+        <is>
+          <t>9.69</t>
+        </is>
+      </c>
+      <c r="AA249" t="inlineStr"/>
+      <c r="AB249" t="inlineStr">
+        <is>
+          <t>7002200</t>
+        </is>
+      </c>
+      <c r="AC249" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="AD249" t="inlineStr"/>
+      <c r="AE249" t="inlineStr">
+        <is>
+          <t>14.7</t>
+        </is>
+      </c>
+      <c r="AF249" t="inlineStr">
+        <is>
+          <t>25.7</t>
+        </is>
+      </c>
+      <c r="AG249" t="inlineStr">
+        <is>
+          <t>1.5</t>
+        </is>
+      </c>
+      <c r="AH249" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI249" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AJ249" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AK249" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AL249" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AM249" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="AN249" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="AO249" t="inlineStr">
+        <is>
+          <t>1313</t>
+        </is>
+      </c>
+      <c r="AP249" t="inlineStr">
+        <is>
+          <t>535</t>
+        </is>
+      </c>
+      <c r="AQ249" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="AR249" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="AS249" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="AT249" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="AU249" t="inlineStr">
+        <is>
+          <t>172.71</t>
+        </is>
+      </c>
+      <c r="AV249" t="inlineStr">
+        <is>
+          <t>3871.92</t>
+        </is>
+      </c>
+      <c r="AW249" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="AX249" t="inlineStr">
+        <is>
+          <t>151.72</t>
+        </is>
+      </c>
+      <c r="AY249" t="inlineStr">
+        <is>
+          <t>3129.95</t>
+        </is>
+      </c>
+      <c r="AZ249" t="inlineStr">
+        <is>
+          <t>18.64</t>
+        </is>
+      </c>
+      <c r="BA249" t="inlineStr">
+        <is>
+          <t>486.50</t>
+        </is>
+      </c>
+      <c r="BB249" t="inlineStr">
+        <is>
+          <t>11210.69</t>
+        </is>
+      </c>
+      <c r="BC249" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="BD249" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BE249" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BF249" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="BG249" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BH249" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="BI249" t="inlineStr">
         <is>
           <t>146030620</t>
         </is>

--- a/SampleData.xlsx
+++ b/SampleData.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BI249"/>
+  <dimension ref="A1:BI251"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
@@ -64827,7 +64827,6 @@
           <t>9.69</t>
         </is>
       </c>
-      <c r="AA249" t="inlineStr"/>
       <c r="AB249" t="inlineStr">
         <is>
           <t>7002200</t>
@@ -64838,7 +64837,6 @@
           <t>2200</t>
         </is>
       </c>
-      <c r="AD249" t="inlineStr"/>
       <c r="AE249" t="inlineStr">
         <is>
           <t>14.7</t>
@@ -64990,6 +64988,602 @@
         </is>
       </c>
       <c r="BI249" t="inlineStr">
+        <is>
+          <t>146030620</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>2022-11-29 19:28:33</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>16.2</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>23.8</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>0.7</t>
+        </is>
+      </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>25.1</t>
+        </is>
+      </c>
+      <c r="G250" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H250" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="I250" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J250" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="L250" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M250" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N250" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="O250" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="P250" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q250" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R250" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="S250" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T250" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="U250" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V250" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="W250" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="X250" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="Y250" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z250" t="inlineStr">
+        <is>
+          <t>10.64</t>
+        </is>
+      </c>
+      <c r="AB250" t="inlineStr">
+        <is>
+          <t>7002200</t>
+        </is>
+      </c>
+      <c r="AC250" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="AE250" t="inlineStr">
+        <is>
+          <t>16.2</t>
+        </is>
+      </c>
+      <c r="AF250" t="inlineStr">
+        <is>
+          <t>23.7</t>
+        </is>
+      </c>
+      <c r="AG250" t="inlineStr">
+        <is>
+          <t>0.9</t>
+        </is>
+      </c>
+      <c r="AH250" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI250" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AJ250" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AK250" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AL250" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AM250" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="AN250" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="AO250" t="inlineStr">
+        <is>
+          <t>1094</t>
+        </is>
+      </c>
+      <c r="AP250" t="inlineStr">
+        <is>
+          <t>536</t>
+        </is>
+      </c>
+      <c r="AQ250" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="AR250" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="AS250" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="AT250" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="AU250" t="inlineStr">
+        <is>
+          <t>192.28</t>
+        </is>
+      </c>
+      <c r="AV250" t="inlineStr">
+        <is>
+          <t>3900.39</t>
+        </is>
+      </c>
+      <c r="AW250" t="inlineStr">
+        <is>
+          <t>7.39</t>
+        </is>
+      </c>
+      <c r="AX250" t="inlineStr">
+        <is>
+          <t>171.12</t>
+        </is>
+      </c>
+      <c r="AY250" t="inlineStr">
+        <is>
+          <t>3156.25</t>
+        </is>
+      </c>
+      <c r="AZ250" t="inlineStr">
+        <is>
+          <t>17.31</t>
+        </is>
+      </c>
+      <c r="BA250" t="inlineStr">
+        <is>
+          <t>516.81</t>
+        </is>
+      </c>
+      <c r="BB250" t="inlineStr">
+        <is>
+          <t>11274.28</t>
+        </is>
+      </c>
+      <c r="BC250" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="BD250" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BE250" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BF250" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="BG250" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BH250" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="BI250" t="inlineStr">
+        <is>
+          <t>146030620</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>2022-12-03 09:42:42</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>11.1</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>23.2</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>5.3</t>
+        </is>
+      </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>24.3</t>
+        </is>
+      </c>
+      <c r="G251" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H251" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="I251" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J251" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="L251" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="M251" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N251" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="O251" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="P251" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q251" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R251" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="S251" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T251" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="U251" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V251" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="W251" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="X251" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="Y251" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z251" t="inlineStr">
+        <is>
+          <t>9.51</t>
+        </is>
+      </c>
+      <c r="AA251" t="inlineStr"/>
+      <c r="AB251" t="inlineStr">
+        <is>
+          <t>7002200</t>
+        </is>
+      </c>
+      <c r="AC251" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="AD251" t="inlineStr"/>
+      <c r="AE251" t="inlineStr">
+        <is>
+          <t>11.1</t>
+        </is>
+      </c>
+      <c r="AF251" t="inlineStr">
+        <is>
+          <t>23.2</t>
+        </is>
+      </c>
+      <c r="AG251" t="inlineStr">
+        <is>
+          <t>5.1</t>
+        </is>
+      </c>
+      <c r="AH251" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI251" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AJ251" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AK251" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AL251" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AM251" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="AN251" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="AO251" t="inlineStr">
+        <is>
+          <t>1372</t>
+        </is>
+      </c>
+      <c r="AP251" t="inlineStr">
+        <is>
+          <t>536</t>
+        </is>
+      </c>
+      <c r="AQ251" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="AR251" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="AS251" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="AT251" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="AU251" t="inlineStr">
+        <is>
+          <t>212.20</t>
+        </is>
+      </c>
+      <c r="AV251" t="inlineStr">
+        <is>
+          <t>3936.00</t>
+        </is>
+      </c>
+      <c r="AW251" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="AX251" t="inlineStr">
+        <is>
+          <t>191.39</t>
+        </is>
+      </c>
+      <c r="AY251" t="inlineStr">
+        <is>
+          <t>3189.36</t>
+        </is>
+      </c>
+      <c r="AZ251" t="inlineStr">
+        <is>
+          <t>7.47</t>
+        </is>
+      </c>
+      <c r="BA251" t="inlineStr">
+        <is>
+          <t>538.89</t>
+        </is>
+      </c>
+      <c r="BB251" t="inlineStr">
+        <is>
+          <t>11350.41</t>
+        </is>
+      </c>
+      <c r="BC251" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="BD251" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BE251" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BF251" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="BG251" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BH251" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="BI251" t="inlineStr">
         <is>
           <t>146030620</t>
         </is>

--- a/SampleData.xlsx
+++ b/SampleData.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BI251"/>
+  <dimension ref="A1:BI252"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
@@ -65421,7 +65421,6 @@
           <t>9.51</t>
         </is>
       </c>
-      <c r="AA251" t="inlineStr"/>
       <c r="AB251" t="inlineStr">
         <is>
           <t>7002200</t>
@@ -65432,7 +65431,6 @@
           <t>2200</t>
         </is>
       </c>
-      <c r="AD251" t="inlineStr"/>
       <c r="AE251" t="inlineStr">
         <is>
           <t>11.1</t>
@@ -65586,6 +65584,305 @@
       <c r="BI251" t="inlineStr">
         <is>
           <t>146030620</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>2022-12-12 11:18:48</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>15.3</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>24.4</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>3.3</t>
+        </is>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>23.6</t>
+        </is>
+      </c>
+      <c r="G252" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H252" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="I252" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J252" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="L252" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M252" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="N252" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="O252" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="P252" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q252" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R252" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="S252" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T252" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="U252" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V252" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="W252" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="X252" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="Y252" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z252" t="inlineStr">
+        <is>
+          <t>9.56</t>
+        </is>
+      </c>
+      <c r="AA252" t="inlineStr"/>
+      <c r="AB252" t="inlineStr">
+        <is>
+          <t>7002200</t>
+        </is>
+      </c>
+      <c r="AC252" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="AD252" t="inlineStr"/>
+      <c r="AE252" t="inlineStr">
+        <is>
+          <t>15.4</t>
+        </is>
+      </c>
+      <c r="AF252" t="inlineStr">
+        <is>
+          <t>24.6</t>
+        </is>
+      </c>
+      <c r="AG252" t="inlineStr">
+        <is>
+          <t>3.3</t>
+        </is>
+      </c>
+      <c r="AH252" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI252" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AJ252" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AK252" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AL252" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AM252" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="AN252" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="AO252" t="inlineStr">
+        <is>
+          <t>1324</t>
+        </is>
+      </c>
+      <c r="AP252" t="inlineStr">
+        <is>
+          <t>536</t>
+        </is>
+      </c>
+      <c r="AQ252" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="AR252" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="AS252" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="AT252" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="AU252" t="inlineStr">
+        <is>
+          <t>271.77</t>
+        </is>
+      </c>
+      <c r="AV252" t="inlineStr">
+        <is>
+          <t>4025.24</t>
+        </is>
+      </c>
+      <c r="AW252" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="AX252" t="inlineStr">
+        <is>
+          <t>250.82</t>
+        </is>
+      </c>
+      <c r="AY252" t="inlineStr">
+        <is>
+          <t>3272.24</t>
+        </is>
+      </c>
+      <c r="AZ252" t="inlineStr">
+        <is>
+          <t>7.58</t>
+        </is>
+      </c>
+      <c r="BA252" t="inlineStr">
+        <is>
+          <t>630.66</t>
+        </is>
+      </c>
+      <c r="BB252" t="inlineStr">
+        <is>
+          <t>11555.80</t>
+        </is>
+      </c>
+      <c r="BC252" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="BD252" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BE252" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BF252" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="BG252" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BH252" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="BI252" t="inlineStr">
+        <is>
+          <t>144982044</t>
         </is>
       </c>
     </row>

--- a/SampleData.xlsx
+++ b/SampleData.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BI252"/>
+  <dimension ref="A1:BI253"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
@@ -65718,7 +65718,6 @@
           <t>9.56</t>
         </is>
       </c>
-      <c r="AA252" t="inlineStr"/>
       <c r="AB252" t="inlineStr">
         <is>
           <t>7002200</t>
@@ -65729,7 +65728,6 @@
           <t>2200</t>
         </is>
       </c>
-      <c r="AD252" t="inlineStr"/>
       <c r="AE252" t="inlineStr">
         <is>
           <t>15.4</t>
@@ -65883,6 +65881,305 @@
       <c r="BI252" t="inlineStr">
         <is>
           <t>144982044</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>2022-12-13 12:31:59</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>16.5</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>24.1</t>
+        </is>
+      </c>
+      <c r="G253" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H253" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="I253" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J253" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="L253" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M253" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N253" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="O253" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="P253" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q253" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R253" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="S253" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T253" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="U253" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V253" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="W253" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="X253" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="Y253" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z253" t="inlineStr">
+        <is>
+          <t>9.61</t>
+        </is>
+      </c>
+      <c r="AA253" t="inlineStr"/>
+      <c r="AB253" t="inlineStr">
+        <is>
+          <t>7002200</t>
+        </is>
+      </c>
+      <c r="AC253" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="AD253" t="inlineStr"/>
+      <c r="AE253" t="inlineStr">
+        <is>
+          <t>16.5</t>
+        </is>
+      </c>
+      <c r="AF253" t="inlineStr">
+        <is>
+          <t>25.1</t>
+        </is>
+      </c>
+      <c r="AG253" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+      <c r="AH253" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI253" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AJ253" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AK253" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AL253" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AM253" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="AN253" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="AO253" t="inlineStr">
+        <is>
+          <t>1388</t>
+        </is>
+      </c>
+      <c r="AP253" t="inlineStr">
+        <is>
+          <t>535</t>
+        </is>
+      </c>
+      <c r="AQ253" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="AR253" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="AS253" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="AT253" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="AU253" t="inlineStr">
+        <is>
+          <t>277.93</t>
+        </is>
+      </c>
+      <c r="AV253" t="inlineStr">
+        <is>
+          <t>4034.89</t>
+        </is>
+      </c>
+      <c r="AW253" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="AX253" t="inlineStr">
+        <is>
+          <t>256.95</t>
+        </is>
+      </c>
+      <c r="AY253" t="inlineStr">
+        <is>
+          <t>3281.15</t>
+        </is>
+      </c>
+      <c r="AZ253" t="inlineStr">
+        <is>
+          <t>11.31</t>
+        </is>
+      </c>
+      <c r="BA253" t="inlineStr">
+        <is>
+          <t>642.36</t>
+        </is>
+      </c>
+      <c r="BB253" t="inlineStr">
+        <is>
+          <t>11580.73</t>
+        </is>
+      </c>
+      <c r="BC253" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="BD253" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BE253" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BF253" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="BG253" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BH253" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="BI253" t="inlineStr">
+        <is>
+          <t>146030620</t>
         </is>
       </c>
     </row>

--- a/SampleData.xlsx
+++ b/SampleData.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BI253"/>
+  <dimension ref="A1:BI256"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
@@ -66015,7 +66015,6 @@
           <t>9.61</t>
         </is>
       </c>
-      <c r="AA253" t="inlineStr"/>
       <c r="AB253" t="inlineStr">
         <is>
           <t>7002200</t>
@@ -66026,7 +66025,6 @@
           <t>2200</t>
         </is>
       </c>
-      <c r="AD253" t="inlineStr"/>
       <c r="AE253" t="inlineStr">
         <is>
           <t>16.5</t>
@@ -66180,6 +66178,899 @@
       <c r="BI253" t="inlineStr">
         <is>
           <t>146030620</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>2022-12-14 12:50:47</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>14.5</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>24.7</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>24.7</t>
+        </is>
+      </c>
+      <c r="G254" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H254" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="I254" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J254" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="L254" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M254" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N254" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="O254" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="P254" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q254" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R254" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="S254" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T254" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="U254" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V254" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="W254" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="X254" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="Y254" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z254" t="inlineStr">
+        <is>
+          <t>9.72</t>
+        </is>
+      </c>
+      <c r="AB254" t="inlineStr">
+        <is>
+          <t>7002200</t>
+        </is>
+      </c>
+      <c r="AC254" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="AE254" t="inlineStr">
+        <is>
+          <t>14.4</t>
+        </is>
+      </c>
+      <c r="AF254" t="inlineStr">
+        <is>
+          <t>24.9</t>
+        </is>
+      </c>
+      <c r="AG254" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
+      </c>
+      <c r="AH254" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI254" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AJ254" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AK254" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AL254" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AM254" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="AN254" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="AO254" t="inlineStr">
+        <is>
+          <t>1377</t>
+        </is>
+      </c>
+      <c r="AP254" t="inlineStr">
+        <is>
+          <t>535</t>
+        </is>
+      </c>
+      <c r="AQ254" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="AR254" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="AS254" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="AT254" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="AU254" t="inlineStr">
+        <is>
+          <t>281.30</t>
+        </is>
+      </c>
+      <c r="AV254" t="inlineStr">
+        <is>
+          <t>4045.09</t>
+        </is>
+      </c>
+      <c r="AW254" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="AX254" t="inlineStr">
+        <is>
+          <t>260.32</t>
+        </is>
+      </c>
+      <c r="AY254" t="inlineStr">
+        <is>
+          <t>3290.64</t>
+        </is>
+      </c>
+      <c r="AZ254" t="inlineStr">
+        <is>
+          <t>11.65</t>
+        </is>
+      </c>
+      <c r="BA254" t="inlineStr">
+        <is>
+          <t>648.00</t>
+        </is>
+      </c>
+      <c r="BB254" t="inlineStr">
+        <is>
+          <t>11605.01</t>
+        </is>
+      </c>
+      <c r="BC254" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="BD254" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BE254" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BF254" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="BG254" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BH254" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="BI254" t="inlineStr">
+        <is>
+          <t>146030620</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>2022-12-15 09:10:44</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>16.4</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>24.8</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>24.4</t>
+        </is>
+      </c>
+      <c r="G255" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H255" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="I255" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J255" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="L255" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M255" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N255" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="O255" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="P255" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q255" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R255" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="S255" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T255" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="U255" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V255" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="W255" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="X255" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="Y255" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z255" t="inlineStr">
+        <is>
+          <t>10.46</t>
+        </is>
+      </c>
+      <c r="AB255" t="inlineStr">
+        <is>
+          <t>7002200</t>
+        </is>
+      </c>
+      <c r="AC255" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="AE255" t="inlineStr">
+        <is>
+          <t>16.5</t>
+        </is>
+      </c>
+      <c r="AF255" t="inlineStr">
+        <is>
+          <t>24.7</t>
+        </is>
+      </c>
+      <c r="AG255" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="AH255" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI255" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AJ255" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AK255" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AL255" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AM255" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="AN255" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="AO255" t="inlineStr">
+        <is>
+          <t>1201</t>
+        </is>
+      </c>
+      <c r="AP255" t="inlineStr">
+        <is>
+          <t>535</t>
+        </is>
+      </c>
+      <c r="AQ255" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="AR255" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="AS255" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="AT255" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="AU255" t="inlineStr">
+        <is>
+          <t>282.68</t>
+        </is>
+      </c>
+      <c r="AV255" t="inlineStr">
+        <is>
+          <t>4051.84</t>
+        </is>
+      </c>
+      <c r="AW255" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="AX255" t="inlineStr">
+        <is>
+          <t>261.87</t>
+        </is>
+      </c>
+      <c r="AY255" t="inlineStr">
+        <is>
+          <t>3296.83</t>
+        </is>
+      </c>
+      <c r="AZ255" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="BA255" t="inlineStr">
+        <is>
+          <t>647.63</t>
+        </is>
+      </c>
+      <c r="BB255" t="inlineStr">
+        <is>
+          <t>11621.23</t>
+        </is>
+      </c>
+      <c r="BC255" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="BD255" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BE255" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BF255" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="BG255" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BH255" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="BI255" t="inlineStr">
+        <is>
+          <t>146030620</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>2022-12-15 17:41:16</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>24.1</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>5.8</t>
+        </is>
+      </c>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="G256" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H256" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="I256" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J256" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="L256" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M256" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N256" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="O256" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="P256" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q256" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R256" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="S256" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T256" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="U256" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V256" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="W256" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="X256" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="Y256" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z256" t="inlineStr">
+        <is>
+          <t>10.13</t>
+        </is>
+      </c>
+      <c r="AA256" t="inlineStr"/>
+      <c r="AB256" t="inlineStr">
+        <is>
+          <t>7002200</t>
+        </is>
+      </c>
+      <c r="AC256" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="AD256" t="inlineStr"/>
+      <c r="AE256" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="AF256" t="inlineStr">
+        <is>
+          <t>24.2</t>
+        </is>
+      </c>
+      <c r="AG256" t="inlineStr">
+        <is>
+          <t>5.7</t>
+        </is>
+      </c>
+      <c r="AH256" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI256" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AJ256" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AK256" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AL256" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AM256" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="AN256" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="AO256" t="inlineStr">
+        <is>
+          <t>1446</t>
+        </is>
+      </c>
+      <c r="AP256" t="inlineStr">
+        <is>
+          <t>536</t>
+        </is>
+      </c>
+      <c r="AQ256" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="AR256" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="AS256" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="AT256" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="AU256" t="inlineStr">
+        <is>
+          <t>287.24</t>
+        </is>
+      </c>
+      <c r="AV256" t="inlineStr">
+        <is>
+          <t>4056.40</t>
+        </is>
+      </c>
+      <c r="AW256" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="AX256" t="inlineStr">
+        <is>
+          <t>266.13</t>
+        </is>
+      </c>
+      <c r="AY256" t="inlineStr">
+        <is>
+          <t>3301.09</t>
+        </is>
+      </c>
+      <c r="AZ256" t="inlineStr">
+        <is>
+          <t>17.17</t>
+        </is>
+      </c>
+      <c r="BA256" t="inlineStr">
+        <is>
+          <t>658.95</t>
+        </is>
+      </c>
+      <c r="BB256" t="inlineStr">
+        <is>
+          <t>11632.55</t>
+        </is>
+      </c>
+      <c r="BC256" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="BD256" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BE256" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BF256" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="BG256" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BH256" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="BI256" t="inlineStr">
+        <is>
+          <t>144982044</t>
         </is>
       </c>
     </row>

--- a/SampleData.xlsx
+++ b/SampleData.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BI256"/>
+  <dimension ref="A1:BI257"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
@@ -66906,7 +66906,6 @@
           <t>10.13</t>
         </is>
       </c>
-      <c r="AA256" t="inlineStr"/>
       <c r="AB256" t="inlineStr">
         <is>
           <t>7002200</t>
@@ -66917,7 +66916,6 @@
           <t>2200</t>
         </is>
       </c>
-      <c r="AD256" t="inlineStr"/>
       <c r="AE256" t="inlineStr">
         <is>
           <t>12.0</t>
@@ -67071,6 +67069,305 @@
       <c r="BI256" t="inlineStr">
         <is>
           <t>144982044</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>2022-12-22 09:37:17</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>25.6</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
+      </c>
+      <c r="E257" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>24.7</t>
+        </is>
+      </c>
+      <c r="G257" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H257" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="I257" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J257" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="L257" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M257" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N257" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="O257" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="P257" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q257" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R257" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="S257" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T257" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="U257" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V257" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="W257" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="X257" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="Y257" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z257" t="inlineStr">
+        <is>
+          <t>9.50</t>
+        </is>
+      </c>
+      <c r="AA257" t="inlineStr"/>
+      <c r="AB257" t="inlineStr">
+        <is>
+          <t>7002200</t>
+        </is>
+      </c>
+      <c r="AC257" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="AD257" t="inlineStr"/>
+      <c r="AE257" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="AF257" t="inlineStr">
+        <is>
+          <t>25.5</t>
+        </is>
+      </c>
+      <c r="AG257" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
+      </c>
+      <c r="AH257" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI257" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AJ257" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AK257" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AL257" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AM257" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="AN257" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="AO257" t="inlineStr">
+        <is>
+          <t>1025</t>
+        </is>
+      </c>
+      <c r="AP257" t="inlineStr">
+        <is>
+          <t>531</t>
+        </is>
+      </c>
+      <c r="AQ257" t="inlineStr">
+        <is>
+          <t>496</t>
+        </is>
+      </c>
+      <c r="AR257" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="AS257" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="AT257" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="AU257" t="inlineStr">
+        <is>
+          <t>289.67</t>
+        </is>
+      </c>
+      <c r="AV257" t="inlineStr">
+        <is>
+          <t>4126.32</t>
+        </is>
+      </c>
+      <c r="AW257" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="AX257" t="inlineStr">
+        <is>
+          <t>268.90</t>
+        </is>
+      </c>
+      <c r="AY257" t="inlineStr">
+        <is>
+          <t>3366.34</t>
+        </is>
+      </c>
+      <c r="AZ257" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="BA257" t="inlineStr">
+        <is>
+          <t>644.48</t>
+        </is>
+      </c>
+      <c r="BB257" t="inlineStr">
+        <is>
+          <t>11771.66</t>
+        </is>
+      </c>
+      <c r="BC257" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="BD257" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BE257" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BF257" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="BG257" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BH257" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="BI257" t="inlineStr">
+        <is>
+          <t>146030620</t>
         </is>
       </c>
     </row>

--- a/SampleData.xlsx
+++ b/SampleData.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BI257"/>
+  <dimension ref="A1:BI260"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
@@ -67203,7 +67203,6 @@
           <t>9.50</t>
         </is>
       </c>
-      <c r="AA257" t="inlineStr"/>
       <c r="AB257" t="inlineStr">
         <is>
           <t>7002200</t>
@@ -67214,7 +67213,6 @@
           <t>2200</t>
         </is>
       </c>
-      <c r="AD257" t="inlineStr"/>
       <c r="AE257" t="inlineStr">
         <is>
           <t>19.0</t>
@@ -67366,6 +67364,899 @@
         </is>
       </c>
       <c r="BI257" t="inlineStr">
+        <is>
+          <t>146030620</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>2022-12-23 11:01:05</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>18.6</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>25.6</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>2.7</t>
+        </is>
+      </c>
+      <c r="E258" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F258" t="inlineStr">
+        <is>
+          <t>24.9</t>
+        </is>
+      </c>
+      <c r="G258" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H258" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="I258" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J258" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="L258" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M258" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N258" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="O258" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="P258" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q258" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R258" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="S258" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T258" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="U258" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V258" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="W258" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="X258" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="Y258" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z258" t="inlineStr">
+        <is>
+          <t>11.67</t>
+        </is>
+      </c>
+      <c r="AB258" t="inlineStr">
+        <is>
+          <t>7002200</t>
+        </is>
+      </c>
+      <c r="AC258" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="AE258" t="inlineStr">
+        <is>
+          <t>18.6</t>
+        </is>
+      </c>
+      <c r="AF258" t="inlineStr">
+        <is>
+          <t>25.7</t>
+        </is>
+      </c>
+      <c r="AG258" t="inlineStr">
+        <is>
+          <t>2.7</t>
+        </is>
+      </c>
+      <c r="AH258" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI258" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AJ258" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AK258" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AL258" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AM258" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="AN258" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="AO258" t="inlineStr">
+        <is>
+          <t>1084</t>
+        </is>
+      </c>
+      <c r="AP258" t="inlineStr">
+        <is>
+          <t>535</t>
+        </is>
+      </c>
+      <c r="AQ258" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="AR258" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="AS258" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="AT258" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="AU258" t="inlineStr">
+        <is>
+          <t>286.71</t>
+        </is>
+      </c>
+      <c r="AV258" t="inlineStr">
+        <is>
+          <t>4132.43</t>
+        </is>
+      </c>
+      <c r="AW258" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="AX258" t="inlineStr">
+        <is>
+          <t>266.03</t>
+        </is>
+      </c>
+      <c r="AY258" t="inlineStr">
+        <is>
+          <t>3371.82</t>
+        </is>
+      </c>
+      <c r="AZ258" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="BA258" t="inlineStr">
+        <is>
+          <t>636.78</t>
+        </is>
+      </c>
+      <c r="BB258" t="inlineStr">
+        <is>
+          <t>11784.61</t>
+        </is>
+      </c>
+      <c r="BC258" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="BD258" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BE258" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BF258" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="BG258" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BH258" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="BI258" t="inlineStr">
+        <is>
+          <t>146030620</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>2022-12-24 11:34:54</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>15.8</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>25.1</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>24.9</t>
+        </is>
+      </c>
+      <c r="G259" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H259" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="I259" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J259" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="L259" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M259" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N259" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="O259" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="P259" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q259" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R259" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="S259" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T259" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="U259" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V259" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="W259" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="X259" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="Y259" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z259" t="inlineStr">
+        <is>
+          <t>11.43</t>
+        </is>
+      </c>
+      <c r="AB259" t="inlineStr">
+        <is>
+          <t>7002200</t>
+        </is>
+      </c>
+      <c r="AC259" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="AE259" t="inlineStr">
+        <is>
+          <t>15.9</t>
+        </is>
+      </c>
+      <c r="AF259" t="inlineStr">
+        <is>
+          <t>25.3</t>
+        </is>
+      </c>
+      <c r="AG259" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+      <c r="AH259" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI259" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AJ259" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AK259" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AL259" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AM259" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="AN259" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="AO259" t="inlineStr">
+        <is>
+          <t>1212</t>
+        </is>
+      </c>
+      <c r="AP259" t="inlineStr">
+        <is>
+          <t>535</t>
+        </is>
+      </c>
+      <c r="AQ259" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="AR259" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="AS259" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="AT259" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="AU259" t="inlineStr">
+        <is>
+          <t>286.73</t>
+        </is>
+      </c>
+      <c r="AV259" t="inlineStr">
+        <is>
+          <t>4141.64</t>
+        </is>
+      </c>
+      <c r="AW259" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="AX259" t="inlineStr">
+        <is>
+          <t>266.04</t>
+        </is>
+      </c>
+      <c r="AY259" t="inlineStr">
+        <is>
+          <t>3380.30</t>
+        </is>
+      </c>
+      <c r="AZ259" t="inlineStr">
+        <is>
+          <t>8.52</t>
+        </is>
+      </c>
+      <c r="BA259" t="inlineStr">
+        <is>
+          <t>634.27</t>
+        </is>
+      </c>
+      <c r="BB259" t="inlineStr">
+        <is>
+          <t>11803.97</t>
+        </is>
+      </c>
+      <c r="BC259" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="BD259" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BE259" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BF259" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="BG259" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BH259" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="BI259" t="inlineStr">
+        <is>
+          <t>144982044</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>2022-12-25 13:05:15</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>15.4</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>24.7</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>1.2</t>
+        </is>
+      </c>
+      <c r="E260" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>25.2</t>
+        </is>
+      </c>
+      <c r="G260" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H260" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="I260" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J260" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="L260" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M260" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N260" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="O260" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="P260" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q260" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R260" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="S260" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T260" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="U260" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V260" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="W260" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="X260" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="Y260" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z260" t="inlineStr">
+        <is>
+          <t>9.53</t>
+        </is>
+      </c>
+      <c r="AA260" t="inlineStr"/>
+      <c r="AB260" t="inlineStr">
+        <is>
+          <t>7002200</t>
+        </is>
+      </c>
+      <c r="AC260" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="AD260" t="inlineStr"/>
+      <c r="AE260" t="inlineStr">
+        <is>
+          <t>15.3</t>
+        </is>
+      </c>
+      <c r="AF260" t="inlineStr">
+        <is>
+          <t>24.8</t>
+        </is>
+      </c>
+      <c r="AG260" t="inlineStr">
+        <is>
+          <t>1.1</t>
+        </is>
+      </c>
+      <c r="AH260" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI260" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AJ260" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AK260" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AL260" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AM260" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="AN260" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="AO260" t="inlineStr">
+        <is>
+          <t>1233</t>
+        </is>
+      </c>
+      <c r="AP260" t="inlineStr">
+        <is>
+          <t>536</t>
+        </is>
+      </c>
+      <c r="AQ260" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="AR260" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="AS260" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="AT260" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="AU260" t="inlineStr">
+        <is>
+          <t>287.55</t>
+        </is>
+      </c>
+      <c r="AV260" t="inlineStr">
+        <is>
+          <t>4151.75</t>
+        </is>
+      </c>
+      <c r="AW260" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="AX260" t="inlineStr">
+        <is>
+          <t>266.82</t>
+        </is>
+      </c>
+      <c r="AY260" t="inlineStr">
+        <is>
+          <t>3389.65</t>
+        </is>
+      </c>
+      <c r="AZ260" t="inlineStr">
+        <is>
+          <t>11.31</t>
+        </is>
+      </c>
+      <c r="BA260" t="inlineStr">
+        <is>
+          <t>635.20</t>
+        </is>
+      </c>
+      <c r="BB260" t="inlineStr">
+        <is>
+          <t>11827.25</t>
+        </is>
+      </c>
+      <c r="BC260" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="BD260" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BE260" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BF260" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="BG260" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BH260" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="BI260" t="inlineStr">
         <is>
           <t>146030620</t>
         </is>

--- a/SampleData.xlsx
+++ b/SampleData.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BI260"/>
+  <dimension ref="A1:BI270"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
@@ -68094,7 +68094,6 @@
           <t>9.53</t>
         </is>
       </c>
-      <c r="AA260" t="inlineStr"/>
       <c r="AB260" t="inlineStr">
         <is>
           <t>7002200</t>
@@ -68105,7 +68104,6 @@
           <t>2200</t>
         </is>
       </c>
-      <c r="AD260" t="inlineStr"/>
       <c r="AE260" t="inlineStr">
         <is>
           <t>15.3</t>
@@ -68259,6 +68257,2978 @@
       <c r="BI260" t="inlineStr">
         <is>
           <t>146030620</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>2022-12-26 13:39:44</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>11.5</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>22.7</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>4.8</t>
+        </is>
+      </c>
+      <c r="E261" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>24.9</t>
+        </is>
+      </c>
+      <c r="G261" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H261" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="I261" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J261" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="L261" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M261" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N261" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="O261" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="P261" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q261" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R261" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="S261" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T261" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="U261" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V261" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="W261" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="X261" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="Y261" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z261" t="inlineStr">
+        <is>
+          <t>8.47</t>
+        </is>
+      </c>
+      <c r="AB261" t="inlineStr">
+        <is>
+          <t>7002200</t>
+        </is>
+      </c>
+      <c r="AC261" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="AE261" t="inlineStr">
+        <is>
+          <t>11.6</t>
+        </is>
+      </c>
+      <c r="AF261" t="inlineStr">
+        <is>
+          <t>22.6</t>
+        </is>
+      </c>
+      <c r="AG261" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="AH261" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI261" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AJ261" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AK261" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AL261" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AM261" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="AN261" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="AO261" t="inlineStr">
+        <is>
+          <t>1345</t>
+        </is>
+      </c>
+      <c r="AP261" t="inlineStr">
+        <is>
+          <t>536</t>
+        </is>
+      </c>
+      <c r="AQ261" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="AR261" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="AS261" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="AT261" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="AU261" t="inlineStr">
+        <is>
+          <t>288.55</t>
+        </is>
+      </c>
+      <c r="AV261" t="inlineStr">
+        <is>
+          <t>4162.10</t>
+        </is>
+      </c>
+      <c r="AW261" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="AX261" t="inlineStr">
+        <is>
+          <t>267.80</t>
+        </is>
+      </c>
+      <c r="AY261" t="inlineStr">
+        <is>
+          <t>3399.27</t>
+        </is>
+      </c>
+      <c r="AZ261" t="inlineStr">
+        <is>
+          <t>12.94</t>
+        </is>
+      </c>
+      <c r="BA261" t="inlineStr">
+        <is>
+          <t>636.89</t>
+        </is>
+      </c>
+      <c r="BB261" t="inlineStr">
+        <is>
+          <t>11850.79</t>
+        </is>
+      </c>
+      <c r="BC261" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="BD261" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BE261" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BF261" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="BG261" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BH261" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="BI261" t="inlineStr">
+        <is>
+          <t>146030620</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>2022-12-30 21:16:12</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>19.3</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>25.2</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="E262" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F262" t="inlineStr">
+        <is>
+          <t>24.7</t>
+        </is>
+      </c>
+      <c r="G262" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H262" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="I262" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J262" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="L262" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M262" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N262" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="O262" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="P262" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q262" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R262" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="S262" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T262" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="U262" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V262" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="W262" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="X262" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="Y262" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z262" t="inlineStr">
+        <is>
+          <t>10.18</t>
+        </is>
+      </c>
+      <c r="AB262" t="inlineStr">
+        <is>
+          <t>7002200</t>
+        </is>
+      </c>
+      <c r="AC262" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="AE262" t="inlineStr">
+        <is>
+          <t>19.1</t>
+        </is>
+      </c>
+      <c r="AF262" t="inlineStr">
+        <is>
+          <t>25.2</t>
+        </is>
+      </c>
+      <c r="AG262" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="AH262" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI262" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AJ262" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AK262" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AL262" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AM262" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="AN262" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="AO262" t="inlineStr">
+        <is>
+          <t>987</t>
+        </is>
+      </c>
+      <c r="AP262" t="inlineStr">
+        <is>
+          <t>508</t>
+        </is>
+      </c>
+      <c r="AQ262" t="inlineStr">
+        <is>
+          <t>473</t>
+        </is>
+      </c>
+      <c r="AR262" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="AS262" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="AT262" t="inlineStr">
+        <is>
+          <t>6.91</t>
+        </is>
+      </c>
+      <c r="AU262" t="inlineStr">
+        <is>
+          <t>293.51</t>
+        </is>
+      </c>
+      <c r="AV262" t="inlineStr">
+        <is>
+          <t>4204.55</t>
+        </is>
+      </c>
+      <c r="AW262" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="AX262" t="inlineStr">
+        <is>
+          <t>272.55</t>
+        </is>
+      </c>
+      <c r="AY262" t="inlineStr">
+        <is>
+          <t>3438.65</t>
+        </is>
+      </c>
+      <c r="AZ262" t="inlineStr">
+        <is>
+          <t>15.38</t>
+        </is>
+      </c>
+      <c r="BA262" t="inlineStr">
+        <is>
+          <t>635.02</t>
+        </is>
+      </c>
+      <c r="BB262" t="inlineStr">
+        <is>
+          <t>11932.72</t>
+        </is>
+      </c>
+      <c r="BC262" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="BD262" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BE262" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BF262" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="BG262" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BH262" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="BI262" t="inlineStr">
+        <is>
+          <t>146030620</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>2022-12-31 09:21:02</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>17.7</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>24.2</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="E263" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>24.8</t>
+        </is>
+      </c>
+      <c r="G263" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H263" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="I263" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J263" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="L263" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M263" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N263" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="O263" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="P263" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q263" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R263" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="S263" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T263" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="U263" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V263" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="W263" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="X263" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="Y263" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z263" t="inlineStr">
+        <is>
+          <t>10.23</t>
+        </is>
+      </c>
+      <c r="AB263" t="inlineStr">
+        <is>
+          <t>7002200</t>
+        </is>
+      </c>
+      <c r="AC263" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="AE263" t="inlineStr">
+        <is>
+          <t>17.8</t>
+        </is>
+      </c>
+      <c r="AF263" t="inlineStr">
+        <is>
+          <t>24.3</t>
+        </is>
+      </c>
+      <c r="AG263" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="AH263" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI263" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AJ263" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AK263" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AL263" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AM263" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="AN263" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="AO263" t="inlineStr">
+        <is>
+          <t>982</t>
+        </is>
+      </c>
+      <c r="AP263" t="inlineStr">
+        <is>
+          <t>535</t>
+        </is>
+      </c>
+      <c r="AQ263" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="AR263" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="AS263" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="AT263" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="AU263" t="inlineStr">
+        <is>
+          <t>286.68</t>
+        </is>
+      </c>
+      <c r="AV263" t="inlineStr">
+        <is>
+          <t>4207.06</t>
+        </is>
+      </c>
+      <c r="AW263" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="AX263" t="inlineStr">
+        <is>
+          <t>266.15</t>
+        </is>
+      </c>
+      <c r="AY263" t="inlineStr">
+        <is>
+          <t>3440.87</t>
+        </is>
+      </c>
+      <c r="AZ263" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="BA263" t="inlineStr">
+        <is>
+          <t>619.12</t>
+        </is>
+      </c>
+      <c r="BB263" t="inlineStr">
+        <is>
+          <t>11937.96</t>
+        </is>
+      </c>
+      <c r="BC263" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="BD263" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BE263" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BF263" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="BG263" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BH263" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="BI263" t="inlineStr">
+        <is>
+          <t>146030620</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>2022-12-31 09:26:10</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>17.3</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>24.1</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="E264" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F264" t="inlineStr">
+        <is>
+          <t>24.9</t>
+        </is>
+      </c>
+      <c r="G264" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H264" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="I264" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J264" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="L264" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M264" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N264" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="O264" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="P264" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q264" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R264" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="S264" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T264" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="U264" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V264" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="W264" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="X264" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="Y264" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z264" t="inlineStr">
+        <is>
+          <t>10.06</t>
+        </is>
+      </c>
+      <c r="AB264" t="inlineStr">
+        <is>
+          <t>7002200</t>
+        </is>
+      </c>
+      <c r="AC264" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="AE264" t="inlineStr">
+        <is>
+          <t>17.3</t>
+        </is>
+      </c>
+      <c r="AF264" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="AG264" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="AH264" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI264" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AJ264" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AK264" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AL264" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AM264" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="AN264" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="AO264" t="inlineStr">
+        <is>
+          <t>971</t>
+        </is>
+      </c>
+      <c r="AP264" t="inlineStr">
+        <is>
+          <t>535</t>
+        </is>
+      </c>
+      <c r="AQ264" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="AR264" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="AS264" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="AT264" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="AU264" t="inlineStr">
+        <is>
+          <t>286.72</t>
+        </is>
+      </c>
+      <c r="AV264" t="inlineStr">
+        <is>
+          <t>4207.10</t>
+        </is>
+      </c>
+      <c r="AW264" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="AX264" t="inlineStr">
+        <is>
+          <t>266.19</t>
+        </is>
+      </c>
+      <c r="AY264" t="inlineStr">
+        <is>
+          <t>3440.91</t>
+        </is>
+      </c>
+      <c r="AZ264" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="BA264" t="inlineStr">
+        <is>
+          <t>619.20</t>
+        </is>
+      </c>
+      <c r="BB264" t="inlineStr">
+        <is>
+          <t>11938.05</t>
+        </is>
+      </c>
+      <c r="BC264" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="BD264" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BE264" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BF264" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="BG264" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BH264" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="BI264" t="inlineStr">
+        <is>
+          <t>146030620</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>2022-12-31 09:36:28</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>17.5</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="E265" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F265" t="inlineStr">
+        <is>
+          <t>24.9</t>
+        </is>
+      </c>
+      <c r="G265" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H265" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="I265" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J265" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="L265" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M265" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N265" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="O265" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="P265" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q265" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R265" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="S265" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T265" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="U265" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V265" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="W265" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="X265" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="Y265" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z265" t="inlineStr">
+        <is>
+          <t>10.06</t>
+        </is>
+      </c>
+      <c r="AB265" t="inlineStr">
+        <is>
+          <t>7002200</t>
+        </is>
+      </c>
+      <c r="AC265" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="AE265" t="inlineStr">
+        <is>
+          <t>17.4</t>
+        </is>
+      </c>
+      <c r="AF265" t="inlineStr">
+        <is>
+          <t>23.9</t>
+        </is>
+      </c>
+      <c r="AG265" t="inlineStr">
+        <is>
+          <t>3.8</t>
+        </is>
+      </c>
+      <c r="AH265" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI265" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AJ265" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AK265" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AL265" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AM265" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="AN265" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="AO265" t="inlineStr">
+        <is>
+          <t>966</t>
+        </is>
+      </c>
+      <c r="AP265" t="inlineStr">
+        <is>
+          <t>536</t>
+        </is>
+      </c>
+      <c r="AQ265" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="AR265" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="AS265" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="AT265" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="AU265" t="inlineStr">
+        <is>
+          <t>286.81</t>
+        </is>
+      </c>
+      <c r="AV265" t="inlineStr">
+        <is>
+          <t>4207.19</t>
+        </is>
+      </c>
+      <c r="AW265" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="AX265" t="inlineStr">
+        <is>
+          <t>266.28</t>
+        </is>
+      </c>
+      <c r="AY265" t="inlineStr">
+        <is>
+          <t>3441.00</t>
+        </is>
+      </c>
+      <c r="AZ265" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="BA265" t="inlineStr">
+        <is>
+          <t>619.37</t>
+        </is>
+      </c>
+      <c r="BB265" t="inlineStr">
+        <is>
+          <t>11938.21</t>
+        </is>
+      </c>
+      <c r="BC265" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="BD265" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BE265" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BF265" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="BG265" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BH265" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="BI265" t="inlineStr">
+        <is>
+          <t>146030620</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>2022-12-31 09:38:41</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>17.4</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>23.9</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="E266" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>24.9</t>
+        </is>
+      </c>
+      <c r="G266" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H266" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="I266" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J266" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="L266" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M266" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N266" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="O266" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="P266" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q266" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R266" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="S266" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T266" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="U266" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V266" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="W266" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="X266" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="Y266" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z266" t="inlineStr">
+        <is>
+          <t>10.06</t>
+        </is>
+      </c>
+      <c r="AB266" t="inlineStr">
+        <is>
+          <t>7002200</t>
+        </is>
+      </c>
+      <c r="AC266" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="AE266" t="inlineStr">
+        <is>
+          <t>17.4</t>
+        </is>
+      </c>
+      <c r="AF266" t="inlineStr">
+        <is>
+          <t>23.9</t>
+        </is>
+      </c>
+      <c r="AG266" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="AH266" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI266" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AJ266" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AK266" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AL266" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AM266" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="AN266" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="AO266" t="inlineStr">
+        <is>
+          <t>961</t>
+        </is>
+      </c>
+      <c r="AP266" t="inlineStr">
+        <is>
+          <t>535</t>
+        </is>
+      </c>
+      <c r="AQ266" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="AR266" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="AS266" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="AT266" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="AU266" t="inlineStr">
+        <is>
+          <t>286.83</t>
+        </is>
+      </c>
+      <c r="AV266" t="inlineStr">
+        <is>
+          <t>4207.21</t>
+        </is>
+      </c>
+      <c r="AW266" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="AX266" t="inlineStr">
+        <is>
+          <t>266.29</t>
+        </is>
+      </c>
+      <c r="AY266" t="inlineStr">
+        <is>
+          <t>3441.01</t>
+        </is>
+      </c>
+      <c r="AZ266" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="BA266" t="inlineStr">
+        <is>
+          <t>619.40</t>
+        </is>
+      </c>
+      <c r="BB266" t="inlineStr">
+        <is>
+          <t>11938.25</t>
+        </is>
+      </c>
+      <c r="BC266" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="BD266" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BE266" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BF266" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="BG266" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BH266" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="BI266" t="inlineStr">
+        <is>
+          <t>146030620</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>2023-01-01 12:16:06</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>18.3</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>24.8</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>2.9</t>
+        </is>
+      </c>
+      <c r="E267" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F267" t="inlineStr">
+        <is>
+          <t>24.4</t>
+        </is>
+      </c>
+      <c r="G267" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H267" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="I267" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J267" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="L267" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M267" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N267" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="O267" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="P267" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q267" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R267" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="S267" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T267" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="U267" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V267" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="W267" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="X267" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="Y267" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z267" t="inlineStr">
+        <is>
+          <t>10.22</t>
+        </is>
+      </c>
+      <c r="AB267" t="inlineStr">
+        <is>
+          <t>7002200</t>
+        </is>
+      </c>
+      <c r="AC267" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="AE267" t="inlineStr">
+        <is>
+          <t>18.3</t>
+        </is>
+      </c>
+      <c r="AF267" t="inlineStr">
+        <is>
+          <t>24.8</t>
+        </is>
+      </c>
+      <c r="AG267" t="inlineStr">
+        <is>
+          <t>2.9</t>
+        </is>
+      </c>
+      <c r="AH267" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI267" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AJ267" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AK267" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AL267" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AM267" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="AN267" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="AO267" t="inlineStr">
+        <is>
+          <t>1041</t>
+        </is>
+      </c>
+      <c r="AP267" t="inlineStr">
+        <is>
+          <t>535</t>
+        </is>
+      </c>
+      <c r="AQ267" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="AR267" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="AS267" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="AT267" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="AU267" t="inlineStr">
+        <is>
+          <t>285.26</t>
+        </is>
+      </c>
+      <c r="AV267" t="inlineStr">
+        <is>
+          <t>4215.64</t>
+        </is>
+      </c>
+      <c r="AW267" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="AX267" t="inlineStr">
+        <is>
+          <t>264.63</t>
+        </is>
+      </c>
+      <c r="AY267" t="inlineStr">
+        <is>
+          <t>3448.65</t>
+        </is>
+      </c>
+      <c r="AZ267" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="BA267" t="inlineStr">
+        <is>
+          <t>613.99</t>
+        </is>
+      </c>
+      <c r="BB267" t="inlineStr">
+        <is>
+          <t>11956.92</t>
+        </is>
+      </c>
+      <c r="BC267" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="BD267" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BE267" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BF267" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="BG267" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BH267" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="BI267" t="inlineStr">
+        <is>
+          <t>146030620</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>2023-01-02 20:23:22</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>18.9</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>19.6</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>1.9</t>
+        </is>
+      </c>
+      <c r="E268" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F268" t="inlineStr">
+        <is>
+          <t>25.5</t>
+        </is>
+      </c>
+      <c r="G268" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H268" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="I268" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J268" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="L268" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M268" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N268" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="O268" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="P268" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q268" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R268" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="S268" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T268" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="U268" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V268" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="W268" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="X268" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="Y268" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z268" t="inlineStr">
+        <is>
+          <t>9.93</t>
+        </is>
+      </c>
+      <c r="AB268" t="inlineStr">
+        <is>
+          <t>7002200</t>
+        </is>
+      </c>
+      <c r="AC268" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="AE268" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="AF268" t="inlineStr">
+        <is>
+          <t>19.8</t>
+        </is>
+      </c>
+      <c r="AG268" t="inlineStr">
+        <is>
+          <t>1.9</t>
+        </is>
+      </c>
+      <c r="AH268" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AI268" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AJ268" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AK268" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AL268" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AM268" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="AN268" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="AO268" t="inlineStr">
+        <is>
+          <t>271</t>
+        </is>
+      </c>
+      <c r="AP268" t="inlineStr">
+        <is>
+          <t>126</t>
+        </is>
+      </c>
+      <c r="AQ268" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="AR268" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="AS268" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="AT268" t="inlineStr">
+        <is>
+          <t>7.67</t>
+        </is>
+      </c>
+      <c r="AU268" t="inlineStr">
+        <is>
+          <t>285.85</t>
+        </is>
+      </c>
+      <c r="AV268" t="inlineStr">
+        <is>
+          <t>4228.95</t>
+        </is>
+      </c>
+      <c r="AW268" t="inlineStr">
+        <is>
+          <t>7.07</t>
+        </is>
+      </c>
+      <c r="AX268" t="inlineStr">
+        <is>
+          <t>264.96</t>
+        </is>
+      </c>
+      <c r="AY268" t="inlineStr">
+        <is>
+          <t>3460.98</t>
+        </is>
+      </c>
+      <c r="AZ268" t="inlineStr">
+        <is>
+          <t>17.19</t>
+        </is>
+      </c>
+      <c r="BA268" t="inlineStr">
+        <is>
+          <t>618.88</t>
+        </is>
+      </c>
+      <c r="BB268" t="inlineStr">
+        <is>
+          <t>11985.72</t>
+        </is>
+      </c>
+      <c r="BC268" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="BD268" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BE268" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BF268" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="BG268" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BH268" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="BI268" t="inlineStr">
+        <is>
+          <t>137502748</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>2023-01-06 19:05:44</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>17.2</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>5.3</t>
+        </is>
+      </c>
+      <c r="E269" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F269" t="inlineStr">
+        <is>
+          <t>23.9</t>
+        </is>
+      </c>
+      <c r="G269" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H269" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="I269" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J269" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="L269" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M269" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N269" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="O269" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="P269" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q269" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R269" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="S269" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T269" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="U269" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V269" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="W269" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="X269" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="Y269" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z269" t="inlineStr">
+        <is>
+          <t>10.15</t>
+        </is>
+      </c>
+      <c r="AB269" t="inlineStr">
+        <is>
+          <t>7002200</t>
+        </is>
+      </c>
+      <c r="AC269" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="AE269" t="inlineStr">
+        <is>
+          <t>17.2</t>
+        </is>
+      </c>
+      <c r="AF269" t="inlineStr">
+        <is>
+          <t>18.9</t>
+        </is>
+      </c>
+      <c r="AG269" t="inlineStr">
+        <is>
+          <t>5.2</t>
+        </is>
+      </c>
+      <c r="AH269" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AI269" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AJ269" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AK269" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AL269" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AM269" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="AN269" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="AO269" t="inlineStr">
+        <is>
+          <t>337</t>
+        </is>
+      </c>
+      <c r="AP269" t="inlineStr">
+        <is>
+          <t>519</t>
+        </is>
+      </c>
+      <c r="AQ269" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="AR269" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="AS269" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="AT269" t="inlineStr">
+        <is>
+          <t>9.30</t>
+        </is>
+      </c>
+      <c r="AU269" t="inlineStr">
+        <is>
+          <t>272.92</t>
+        </is>
+      </c>
+      <c r="AV269" t="inlineStr">
+        <is>
+          <t>4254.60</t>
+        </is>
+      </c>
+      <c r="AW269" t="inlineStr">
+        <is>
+          <t>8.93</t>
+        </is>
+      </c>
+      <c r="AX269" t="inlineStr">
+        <is>
+          <t>252.79</t>
+        </is>
+      </c>
+      <c r="AY269" t="inlineStr">
+        <is>
+          <t>3484.55</t>
+        </is>
+      </c>
+      <c r="AZ269" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="BA269" t="inlineStr">
+        <is>
+          <t>571.08</t>
+        </is>
+      </c>
+      <c r="BB269" t="inlineStr">
+        <is>
+          <t>12028.01</t>
+        </is>
+      </c>
+      <c r="BC269" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="BD269" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BE269" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BF269" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="BG269" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BH269" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="BI269" t="inlineStr">
+        <is>
+          <t>137502748</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>2023-01-08 12:07:45</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>19.1</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>26.3</t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>8.5</t>
+        </is>
+      </c>
+      <c r="E270" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F270" t="inlineStr">
+        <is>
+          <t>24.2</t>
+        </is>
+      </c>
+      <c r="G270" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H270" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="I270" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J270" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="L270" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M270" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N270" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="O270" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="P270" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q270" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R270" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="S270" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T270" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="U270" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V270" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="W270" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="X270" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="Y270" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z270" t="inlineStr">
+        <is>
+          <t>10.77</t>
+        </is>
+      </c>
+      <c r="AA270" t="inlineStr"/>
+      <c r="AB270" t="inlineStr">
+        <is>
+          <t>7002200</t>
+        </is>
+      </c>
+      <c r="AC270" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="AD270" t="inlineStr"/>
+      <c r="AE270" t="inlineStr">
+        <is>
+          <t>19.1</t>
+        </is>
+      </c>
+      <c r="AF270" t="inlineStr">
+        <is>
+          <t>26.3</t>
+        </is>
+      </c>
+      <c r="AG270" t="inlineStr">
+        <is>
+          <t>8.6</t>
+        </is>
+      </c>
+      <c r="AH270" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AI270" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AJ270" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AK270" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AL270" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AM270" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="AN270" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="AO270" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="AP270" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="AQ270" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="AR270" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="AS270" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="AT270" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="AU270" t="inlineStr">
+        <is>
+          <t>267.95</t>
+        </is>
+      </c>
+      <c r="AV270" t="inlineStr">
+        <is>
+          <t>4269.27</t>
+        </is>
+      </c>
+      <c r="AW270" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="AX270" t="inlineStr">
+        <is>
+          <t>248.43</t>
+        </is>
+      </c>
+      <c r="AY270" t="inlineStr">
+        <is>
+          <t>3498.43</t>
+        </is>
+      </c>
+      <c r="AZ270" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="BA270" t="inlineStr">
+        <is>
+          <t>544.58</t>
+        </is>
+      </c>
+      <c r="BB270" t="inlineStr">
+        <is>
+          <t>12045.60</t>
+        </is>
+      </c>
+      <c r="BC270" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="BD270" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BE270" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BF270" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="BG270" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BH270" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="BI270" t="inlineStr">
+        <is>
+          <t>137502748</t>
         </is>
       </c>
     </row>

--- a/SampleData.xlsx
+++ b/SampleData.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BI270"/>
+  <dimension ref="A1:BI271"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
@@ -71064,7 +71064,6 @@
           <t>10.77</t>
         </is>
       </c>
-      <c r="AA270" t="inlineStr"/>
       <c r="AB270" t="inlineStr">
         <is>
           <t>7002200</t>
@@ -71075,7 +71074,6 @@
           <t>2200</t>
         </is>
       </c>
-      <c r="AD270" t="inlineStr"/>
       <c r="AE270" t="inlineStr">
         <is>
           <t>19.1</t>
@@ -71229,6 +71227,305 @@
       <c r="BI270" t="inlineStr">
         <is>
           <t>137502748</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>2023-01-09 20:00:22</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>19.2</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>26.3</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+      <c r="E271" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F271" t="inlineStr">
+        <is>
+          <t>24.7</t>
+        </is>
+      </c>
+      <c r="G271" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H271" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="I271" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J271" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="L271" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M271" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N271" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="O271" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="P271" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q271" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R271" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="S271" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T271" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="U271" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V271" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="W271" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="X271" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="Y271" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z271" t="inlineStr">
+        <is>
+          <t>10.40</t>
+        </is>
+      </c>
+      <c r="AA271" t="inlineStr"/>
+      <c r="AB271" t="inlineStr">
+        <is>
+          <t>7002200</t>
+        </is>
+      </c>
+      <c r="AC271" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="AD271" t="inlineStr"/>
+      <c r="AE271" t="inlineStr">
+        <is>
+          <t>19.1</t>
+        </is>
+      </c>
+      <c r="AF271" t="inlineStr">
+        <is>
+          <t>26.3</t>
+        </is>
+      </c>
+      <c r="AG271" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="AH271" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI271" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AJ271" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AK271" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AL271" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AM271" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="AN271" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="AO271" t="inlineStr">
+        <is>
+          <t>1463</t>
+        </is>
+      </c>
+      <c r="AP271" t="inlineStr">
+        <is>
+          <t>315</t>
+        </is>
+      </c>
+      <c r="AQ271" t="inlineStr">
+        <is>
+          <t>278</t>
+        </is>
+      </c>
+      <c r="AR271" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="AS271" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="AT271" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="AU271" t="inlineStr">
+        <is>
+          <t>263.98</t>
+        </is>
+      </c>
+      <c r="AV271" t="inlineStr">
+        <is>
+          <t>4274.36</t>
+        </is>
+      </c>
+      <c r="AW271" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="AX271" t="inlineStr">
+        <is>
+          <t>244.25</t>
+        </is>
+      </c>
+      <c r="AY271" t="inlineStr">
+        <is>
+          <t>3502.62</t>
+        </is>
+      </c>
+      <c r="AZ271" t="inlineStr">
+        <is>
+          <t>22.08</t>
+        </is>
+      </c>
+      <c r="BA271" t="inlineStr">
+        <is>
+          <t>552.28</t>
+        </is>
+      </c>
+      <c r="BB271" t="inlineStr">
+        <is>
+          <t>12076.29</t>
+        </is>
+      </c>
+      <c r="BC271" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="BD271" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BE271" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BF271" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="BG271" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BH271" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="BI271" t="inlineStr">
+        <is>
+          <t>146030620</t>
         </is>
       </c>
     </row>

--- a/SampleData.xlsx
+++ b/SampleData.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BI271"/>
+  <dimension ref="A1:BI275"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
@@ -71361,7 +71361,6 @@
           <t>10.40</t>
         </is>
       </c>
-      <c r="AA271" t="inlineStr"/>
       <c r="AB271" t="inlineStr">
         <is>
           <t>7002200</t>
@@ -71372,7 +71371,6 @@
           <t>2200</t>
         </is>
       </c>
-      <c r="AD271" t="inlineStr"/>
       <c r="AE271" t="inlineStr">
         <is>
           <t>19.1</t>
@@ -71526,6 +71524,1196 @@
       <c r="BI271" t="inlineStr">
         <is>
           <t>146030620</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>2023-01-13 17:47:24</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>26.1</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>4.8</t>
+        </is>
+      </c>
+      <c r="E272" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F272" t="inlineStr">
+        <is>
+          <t>25.3</t>
+        </is>
+      </c>
+      <c r="G272" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H272" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="I272" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J272" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="L272" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M272" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N272" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="O272" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="P272" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q272" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R272" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="S272" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T272" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="U272" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V272" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="W272" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="X272" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="Y272" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z272" t="inlineStr">
+        <is>
+          <t>10.52</t>
+        </is>
+      </c>
+      <c r="AB272" t="inlineStr">
+        <is>
+          <t>7002200</t>
+        </is>
+      </c>
+      <c r="AC272" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="AE272" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="AF272" t="inlineStr">
+        <is>
+          <t>26.1</t>
+        </is>
+      </c>
+      <c r="AG272" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
+      </c>
+      <c r="AH272" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI272" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AJ272" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AK272" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AL272" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AM272" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="AN272" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="AO272" t="inlineStr">
+        <is>
+          <t>1030</t>
+        </is>
+      </c>
+      <c r="AP272" t="inlineStr">
+        <is>
+          <t>304</t>
+        </is>
+      </c>
+      <c r="AQ272" t="inlineStr">
+        <is>
+          <t>269</t>
+        </is>
+      </c>
+      <c r="AR272" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="AS272" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="AT272" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="AU272" t="inlineStr">
+        <is>
+          <t>250.91</t>
+        </is>
+      </c>
+      <c r="AV272" t="inlineStr">
+        <is>
+          <t>4300.27</t>
+        </is>
+      </c>
+      <c r="AW272" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="AX272" t="inlineStr">
+        <is>
+          <t>231.17</t>
+        </is>
+      </c>
+      <c r="AY272" t="inlineStr">
+        <is>
+          <t>3525.77</t>
+        </is>
+      </c>
+      <c r="AZ272" t="inlineStr">
+        <is>
+          <t>13.22</t>
+        </is>
+      </c>
+      <c r="BA272" t="inlineStr">
+        <is>
+          <t>539.26</t>
+        </is>
+      </c>
+      <c r="BB272" t="inlineStr">
+        <is>
+          <t>12154.65</t>
+        </is>
+      </c>
+      <c r="BC272" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="BD272" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BE272" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BF272" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="BG272" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BH272" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="BI272" t="inlineStr">
+        <is>
+          <t>146030620</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>2023-01-14 19:07:23</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>25.4</t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>4.9</t>
+        </is>
+      </c>
+      <c r="E273" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F273" t="inlineStr">
+        <is>
+          <t>25.1</t>
+        </is>
+      </c>
+      <c r="G273" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H273" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="I273" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J273" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="L273" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M273" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N273" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="O273" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="P273" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q273" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R273" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="S273" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T273" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="U273" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V273" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="W273" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="X273" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="Y273" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z273" t="inlineStr">
+        <is>
+          <t>10.64</t>
+        </is>
+      </c>
+      <c r="AB273" t="inlineStr">
+        <is>
+          <t>7002200</t>
+        </is>
+      </c>
+      <c r="AC273" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="AE273" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="AF273" t="inlineStr">
+        <is>
+          <t>25.3</t>
+        </is>
+      </c>
+      <c r="AG273" t="inlineStr">
+        <is>
+          <t>4.8</t>
+        </is>
+      </c>
+      <c r="AH273" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI273" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AJ273" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AK273" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AL273" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AM273" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="AN273" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="AO273" t="inlineStr">
+        <is>
+          <t>977</t>
+        </is>
+      </c>
+      <c r="AP273" t="inlineStr">
+        <is>
+          <t>299</t>
+        </is>
+      </c>
+      <c r="AQ273" t="inlineStr">
+        <is>
+          <t>264</t>
+        </is>
+      </c>
+      <c r="AR273" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="AS273" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="AT273" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="AU273" t="inlineStr">
+        <is>
+          <t>246.65</t>
+        </is>
+      </c>
+      <c r="AV273" t="inlineStr">
+        <is>
+          <t>4305.87</t>
+        </is>
+      </c>
+      <c r="AW273" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="AX273" t="inlineStr">
+        <is>
+          <t>226.86</t>
+        </is>
+      </c>
+      <c r="AY273" t="inlineStr">
+        <is>
+          <t>3530.62</t>
+        </is>
+      </c>
+      <c r="AZ273" t="inlineStr">
+        <is>
+          <t>14.01</t>
+        </is>
+      </c>
+      <c r="BA273" t="inlineStr">
+        <is>
+          <t>535.51</t>
+        </is>
+      </c>
+      <c r="BB273" t="inlineStr">
+        <is>
+          <t>12173.64</t>
+        </is>
+      </c>
+      <c r="BC273" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="BD273" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BE273" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BF273" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="BG273" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BH273" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="BI273" t="inlineStr">
+        <is>
+          <t>146030620</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>2023-01-24 18:21:14</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="E274" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F274" t="inlineStr">
+        <is>
+          <t>25.2</t>
+        </is>
+      </c>
+      <c r="G274" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H274" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="I274" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J274" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L274" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M274" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N274" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O274" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P274" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q274" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R274" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S274" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T274" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U274" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V274" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W274" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="X274" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Y274" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z274" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AB274" t="inlineStr">
+        <is>
+          <t>7002200</t>
+        </is>
+      </c>
+      <c r="AC274" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="AE274" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AF274" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AG274" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AH274" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI274" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AJ274" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK274" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AL274" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AM274" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="AN274" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AO274" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP274" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AQ274" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR274" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AS274" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="AT274" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="AU274" t="inlineStr">
+        <is>
+          <t>184.18</t>
+        </is>
+      </c>
+      <c r="AV274" t="inlineStr">
+        <is>
+          <t>4340.62</t>
+        </is>
+      </c>
+      <c r="AW274" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="AX274" t="inlineStr">
+        <is>
+          <t>166.07</t>
+        </is>
+      </c>
+      <c r="AY274" t="inlineStr">
+        <is>
+          <t>3560.09</t>
+        </is>
+      </c>
+      <c r="AZ274" t="inlineStr">
+        <is>
+          <t>13.15</t>
+        </is>
+      </c>
+      <c r="BA274" t="inlineStr">
+        <is>
+          <t>450.40</t>
+        </is>
+      </c>
+      <c r="BB274" t="inlineStr">
+        <is>
+          <t>12288.25</t>
+        </is>
+      </c>
+      <c r="BC274" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BD274" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BE274" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BF274" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BG274" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BH274" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BI274" t="inlineStr">
+        <is>
+          <t>134430720</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>2023-01-25 12:53:34</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>19.3</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>26.1</t>
+        </is>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="E275" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F275" t="inlineStr">
+        <is>
+          <t>24.5</t>
+        </is>
+      </c>
+      <c r="G275" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H275" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="I275" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J275" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="L275" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M275" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N275" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="O275" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="P275" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q275" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R275" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="S275" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T275" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U275" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V275" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="W275" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X275" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="Y275" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z275" t="inlineStr">
+        <is>
+          <t>8.72</t>
+        </is>
+      </c>
+      <c r="AA275" t="inlineStr"/>
+      <c r="AB275" t="inlineStr">
+        <is>
+          <t>7002200</t>
+        </is>
+      </c>
+      <c r="AC275" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="AD275" t="inlineStr"/>
+      <c r="AE275" t="inlineStr">
+        <is>
+          <t>19.7</t>
+        </is>
+      </c>
+      <c r="AF275" t="inlineStr">
+        <is>
+          <t>26.1</t>
+        </is>
+      </c>
+      <c r="AG275" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="AH275" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI275" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AJ275" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AK275" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AL275" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AM275" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AN275" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AO275" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP275" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="AQ275" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR275" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="AS275" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="AT275" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="AU275" t="inlineStr">
+        <is>
+          <t>173.46</t>
+        </is>
+      </c>
+      <c r="AV275" t="inlineStr">
+        <is>
+          <t>4341.03</t>
+        </is>
+      </c>
+      <c r="AW275" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AX275" t="inlineStr">
+        <is>
+          <t>155.68</t>
+        </is>
+      </c>
+      <c r="AY275" t="inlineStr">
+        <is>
+          <t>3560.09</t>
+        </is>
+      </c>
+      <c r="AZ275" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="BA275" t="inlineStr">
+        <is>
+          <t>429.22</t>
+        </is>
+      </c>
+      <c r="BB275" t="inlineStr">
+        <is>
+          <t>12290.53</t>
+        </is>
+      </c>
+      <c r="BC275" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="BD275" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BE275" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BF275" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="BG275" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BH275" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="BI275" t="inlineStr">
+        <is>
+          <t>146030596</t>
         </is>
       </c>
     </row>

--- a/SampleData.xlsx
+++ b/SampleData.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BI275"/>
+  <dimension ref="A1:BI279"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
@@ -72549,7 +72549,6 @@
           <t>8.72</t>
         </is>
       </c>
-      <c r="AA275" t="inlineStr"/>
       <c r="AB275" t="inlineStr">
         <is>
           <t>7002200</t>
@@ -72560,7 +72559,6 @@
           <t>2200</t>
         </is>
       </c>
-      <c r="AD275" t="inlineStr"/>
       <c r="AE275" t="inlineStr">
         <is>
           <t>19.7</t>
@@ -72714,6 +72712,1196 @@
       <c r="BI275" t="inlineStr">
         <is>
           <t>146030596</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>2023-01-26 09:27:33</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>18.9</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>26.6</t>
+        </is>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+      <c r="E276" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F276" t="inlineStr">
+        <is>
+          <t>24.6</t>
+        </is>
+      </c>
+      <c r="G276" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H276" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="I276" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J276" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="L276" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M276" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N276" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="O276" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="P276" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q276" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R276" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="S276" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T276" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U276" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V276" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="W276" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X276" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="Y276" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z276" t="inlineStr">
+        <is>
+          <t>9.22</t>
+        </is>
+      </c>
+      <c r="AB276" t="inlineStr">
+        <is>
+          <t>7002200</t>
+        </is>
+      </c>
+      <c r="AC276" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="AE276" t="inlineStr">
+        <is>
+          <t>19.6</t>
+        </is>
+      </c>
+      <c r="AF276" t="inlineStr">
+        <is>
+          <t>26.5</t>
+        </is>
+      </c>
+      <c r="AG276" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+      <c r="AH276" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI276" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AJ276" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AK276" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AL276" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AM276" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AN276" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AO276" t="inlineStr">
+        <is>
+          <t>619</t>
+        </is>
+      </c>
+      <c r="AP276" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="AQ276" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR276" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="AS276" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="AT276" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="AU276" t="inlineStr">
+        <is>
+          <t>162.02</t>
+        </is>
+      </c>
+      <c r="AV276" t="inlineStr">
+        <is>
+          <t>4341.50</t>
+        </is>
+      </c>
+      <c r="AW276" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AX276" t="inlineStr">
+        <is>
+          <t>144.46</t>
+        </is>
+      </c>
+      <c r="AY276" t="inlineStr">
+        <is>
+          <t>3560.09</t>
+        </is>
+      </c>
+      <c r="AZ276" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="BA276" t="inlineStr">
+        <is>
+          <t>413.74</t>
+        </is>
+      </c>
+      <c r="BB276" t="inlineStr">
+        <is>
+          <t>12292.90</t>
+        </is>
+      </c>
+      <c r="BC276" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="BD276" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BE276" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BF276" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="BG276" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BH276" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="BI276" t="inlineStr">
+        <is>
+          <t>146030596</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>2023-01-26 11:33:29</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>18.8</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>26.5</t>
+        </is>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+      <c r="E277" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F277" t="inlineStr">
+        <is>
+          <t>24.4</t>
+        </is>
+      </c>
+      <c r="G277" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H277" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="I277" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J277" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="L277" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M277" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N277" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="O277" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="P277" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q277" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R277" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="S277" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T277" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U277" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V277" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="W277" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="X277" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="Y277" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z277" t="inlineStr">
+        <is>
+          <t>9.11</t>
+        </is>
+      </c>
+      <c r="AB277" t="inlineStr">
+        <is>
+          <t>7002200</t>
+        </is>
+      </c>
+      <c r="AC277" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="AE277" t="inlineStr">
+        <is>
+          <t>19.8</t>
+        </is>
+      </c>
+      <c r="AF277" t="inlineStr">
+        <is>
+          <t>26.5</t>
+        </is>
+      </c>
+      <c r="AG277" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+      <c r="AH277" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI277" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AJ277" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AK277" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AL277" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AM277" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AN277" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AO277" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP277" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="AQ277" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR277" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="AS277" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="AT277" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="AU277" t="inlineStr">
+        <is>
+          <t>162.09</t>
+        </is>
+      </c>
+      <c r="AV277" t="inlineStr">
+        <is>
+          <t>4341.57</t>
+        </is>
+      </c>
+      <c r="AW277" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AX277" t="inlineStr">
+        <is>
+          <t>144.46</t>
+        </is>
+      </c>
+      <c r="AY277" t="inlineStr">
+        <is>
+          <t>3560.09</t>
+        </is>
+      </c>
+      <c r="AZ277" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="BA277" t="inlineStr">
+        <is>
+          <t>414.15</t>
+        </is>
+      </c>
+      <c r="BB277" t="inlineStr">
+        <is>
+          <t>12293.31</t>
+        </is>
+      </c>
+      <c r="BC277" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="BD277" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BE277" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BF277" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="BG277" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BH277" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="BI277" t="inlineStr">
+        <is>
+          <t>144982020</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>2023-01-30 18:22:48</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>18.3</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>27.2</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="E278" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F278" t="inlineStr">
+        <is>
+          <t>24.9</t>
+        </is>
+      </c>
+      <c r="G278" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H278" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="I278" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J278" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="L278" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M278" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N278" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="O278" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="P278" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q278" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R278" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S278" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T278" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U278" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V278" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="W278" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="X278" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Y278" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z278" t="inlineStr">
+        <is>
+          <t>10.30</t>
+        </is>
+      </c>
+      <c r="AB278" t="inlineStr">
+        <is>
+          <t>7002200</t>
+        </is>
+      </c>
+      <c r="AC278" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="AE278" t="inlineStr">
+        <is>
+          <t>18.2</t>
+        </is>
+      </c>
+      <c r="AF278" t="inlineStr">
+        <is>
+          <t>27.2</t>
+        </is>
+      </c>
+      <c r="AG278" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="AH278" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AI278" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AJ278" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AK278" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AL278" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AM278" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AN278" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AO278" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP278" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="AQ278" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR278" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="AS278" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="AT278" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="AU278" t="inlineStr">
+        <is>
+          <t>131.43</t>
+        </is>
+      </c>
+      <c r="AV278" t="inlineStr">
+        <is>
+          <t>4343.77</t>
+        </is>
+      </c>
+      <c r="AW278" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AX278" t="inlineStr">
+        <is>
+          <t>114.43</t>
+        </is>
+      </c>
+      <c r="AY278" t="inlineStr">
+        <is>
+          <t>3560.09</t>
+        </is>
+      </c>
+      <c r="AZ278" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="BA278" t="inlineStr">
+        <is>
+          <t>359.54</t>
+        </is>
+      </c>
+      <c r="BB278" t="inlineStr">
+        <is>
+          <t>12309.62</t>
+        </is>
+      </c>
+      <c r="BC278" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="BD278" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BE278" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BF278" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="BG278" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BH278" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="BI278" t="inlineStr">
+        <is>
+          <t>137502724</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>2023-01-30 18:29:48</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>18.5</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>27.3</t>
+        </is>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="E279" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F279" t="inlineStr">
+        <is>
+          <t>24.9</t>
+        </is>
+      </c>
+      <c r="G279" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H279" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="I279" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J279" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="L279" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M279" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N279" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="O279" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="P279" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q279" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R279" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S279" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T279" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U279" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V279" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="W279" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="X279" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Y279" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z279" t="inlineStr">
+        <is>
+          <t>10.30</t>
+        </is>
+      </c>
+      <c r="AA279" t="inlineStr"/>
+      <c r="AB279" t="inlineStr">
+        <is>
+          <t>7002200</t>
+        </is>
+      </c>
+      <c r="AC279" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="AD279" t="inlineStr"/>
+      <c r="AE279" t="inlineStr">
+        <is>
+          <t>18.6</t>
+        </is>
+      </c>
+      <c r="AF279" t="inlineStr">
+        <is>
+          <t>27.2</t>
+        </is>
+      </c>
+      <c r="AG279" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
+      </c>
+      <c r="AH279" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AI279" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AJ279" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AK279" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AL279" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AM279" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AN279" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AO279" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP279" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="AQ279" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR279" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="AS279" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="AT279" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="AU279" t="inlineStr">
+        <is>
+          <t>131.44</t>
+        </is>
+      </c>
+      <c r="AV279" t="inlineStr">
+        <is>
+          <t>4343.77</t>
+        </is>
+      </c>
+      <c r="AW279" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AX279" t="inlineStr">
+        <is>
+          <t>114.43</t>
+        </is>
+      </c>
+      <c r="AY279" t="inlineStr">
+        <is>
+          <t>3560.09</t>
+        </is>
+      </c>
+      <c r="AZ279" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="BA279" t="inlineStr">
+        <is>
+          <t>359.55</t>
+        </is>
+      </c>
+      <c r="BB279" t="inlineStr">
+        <is>
+          <t>12309.62</t>
+        </is>
+      </c>
+      <c r="BC279" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="BD279" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BE279" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BF279" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="BG279" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BH279" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="BI279" t="inlineStr">
+        <is>
+          <t>137502724</t>
         </is>
       </c>
     </row>

--- a/SampleData.xlsx
+++ b/SampleData.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BI279"/>
+  <dimension ref="A1:BI281"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
@@ -73737,7 +73737,6 @@
           <t>10.30</t>
         </is>
       </c>
-      <c r="AA279" t="inlineStr"/>
       <c r="AB279" t="inlineStr">
         <is>
           <t>7002200</t>
@@ -73748,7 +73747,6 @@
           <t>2200</t>
         </is>
       </c>
-      <c r="AD279" t="inlineStr"/>
       <c r="AE279" t="inlineStr">
         <is>
           <t>18.6</t>
@@ -73900,6 +73898,602 @@
         </is>
       </c>
       <c r="BI279" t="inlineStr">
+        <is>
+          <t>137502724</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>2023-01-31 10:05:15</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>19.6</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>26.9</t>
+        </is>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>3.8</t>
+        </is>
+      </c>
+      <c r="E280" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F280" t="inlineStr">
+        <is>
+          <t>24.3</t>
+        </is>
+      </c>
+      <c r="G280" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H280" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="I280" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J280" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="L280" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M280" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N280" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="O280" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="P280" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q280" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R280" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="S280" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T280" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U280" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V280" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="W280" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="X280" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="Y280" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z280" t="inlineStr">
+        <is>
+          <t>9.72</t>
+        </is>
+      </c>
+      <c r="AB280" t="inlineStr">
+        <is>
+          <t>7002200</t>
+        </is>
+      </c>
+      <c r="AC280" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="AE280" t="inlineStr">
+        <is>
+          <t>19.7</t>
+        </is>
+      </c>
+      <c r="AF280" t="inlineStr">
+        <is>
+          <t>26.9</t>
+        </is>
+      </c>
+      <c r="AG280" t="inlineStr">
+        <is>
+          <t>3.8</t>
+        </is>
+      </c>
+      <c r="AH280" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AI280" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AJ280" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AK280" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AL280" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AM280" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AN280" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AO280" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP280" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="AQ280" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR280" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="AS280" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="AT280" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="AU280" t="inlineStr">
+        <is>
+          <t>122.65</t>
+        </is>
+      </c>
+      <c r="AV280" t="inlineStr">
+        <is>
+          <t>4343.94</t>
+        </is>
+      </c>
+      <c r="AW280" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AX280" t="inlineStr">
+        <is>
+          <t>106.19</t>
+        </is>
+      </c>
+      <c r="AY280" t="inlineStr">
+        <is>
+          <t>3560.09</t>
+        </is>
+      </c>
+      <c r="AZ280" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="BA280" t="inlineStr">
+        <is>
+          <t>341.25</t>
+        </is>
+      </c>
+      <c r="BB280" t="inlineStr">
+        <is>
+          <t>12309.78</t>
+        </is>
+      </c>
+      <c r="BC280" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="BD280" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BE280" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BF280" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="BG280" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BH280" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="BI280" t="inlineStr">
+        <is>
+          <t>137502724</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>2023-02-04 12:16:46</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>27.7</t>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E281" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F281" t="inlineStr">
+        <is>
+          <t>24.5</t>
+        </is>
+      </c>
+      <c r="G281" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H281" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="I281" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J281" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="L281" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M281" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N281" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="O281" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="P281" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q281" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R281" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S281" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T281" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U281" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V281" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="W281" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="X281" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Y281" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z281" t="inlineStr">
+        <is>
+          <t>10.28</t>
+        </is>
+      </c>
+      <c r="AA281" t="inlineStr"/>
+      <c r="AB281" t="inlineStr">
+        <is>
+          <t>7002200</t>
+        </is>
+      </c>
+      <c r="AC281" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="AD281" t="inlineStr"/>
+      <c r="AE281" t="inlineStr">
+        <is>
+          <t>19.9</t>
+        </is>
+      </c>
+      <c r="AF281" t="inlineStr">
+        <is>
+          <t>27.6</t>
+        </is>
+      </c>
+      <c r="AG281" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="AH281" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AI281" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AJ281" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AK281" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AL281" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AM281" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AN281" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AO281" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP281" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="AQ281" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR281" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="AS281" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="AT281" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="AU281" t="inlineStr">
+        <is>
+          <t>99.78</t>
+        </is>
+      </c>
+      <c r="AV281" t="inlineStr">
+        <is>
+          <t>4345.09</t>
+        </is>
+      </c>
+      <c r="AW281" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AX281" t="inlineStr">
+        <is>
+          <t>84.47</t>
+        </is>
+      </c>
+      <c r="AY281" t="inlineStr">
+        <is>
+          <t>3560.09</t>
+        </is>
+      </c>
+      <c r="AZ281" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="BA281" t="inlineStr">
+        <is>
+          <t>292.11</t>
+        </is>
+      </c>
+      <c r="BB281" t="inlineStr">
+        <is>
+          <t>12314.01</t>
+        </is>
+      </c>
+      <c r="BC281" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="BD281" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BE281" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BF281" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="BG281" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BH281" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="BI281" t="inlineStr">
         <is>
           <t>137502724</t>
         </is>

--- a/SampleData.xlsx
+++ b/SampleData.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BI281"/>
+  <dimension ref="A1:BI283"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
@@ -74331,7 +74331,6 @@
           <t>10.28</t>
         </is>
       </c>
-      <c r="AA281" t="inlineStr"/>
       <c r="AB281" t="inlineStr">
         <is>
           <t>7002200</t>
@@ -74342,7 +74341,6 @@
           <t>2200</t>
         </is>
       </c>
-      <c r="AD281" t="inlineStr"/>
       <c r="AE281" t="inlineStr">
         <is>
           <t>19.9</t>
@@ -74496,6 +74494,602 @@
       <c r="BI281" t="inlineStr">
         <is>
           <t>137502724</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>2023-02-05 10:01:59</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>18.5</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>26.8</t>
+        </is>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>2.9</t>
+        </is>
+      </c>
+      <c r="E282" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F282" t="inlineStr">
+        <is>
+          <t>24.5</t>
+        </is>
+      </c>
+      <c r="G282" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H282" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="I282" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J282" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="L282" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M282" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N282" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="O282" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="P282" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q282" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R282" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S282" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T282" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U282" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V282" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="W282" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="X282" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Y282" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z282" t="inlineStr">
+        <is>
+          <t>10.06</t>
+        </is>
+      </c>
+      <c r="AB282" t="inlineStr">
+        <is>
+          <t>7002200</t>
+        </is>
+      </c>
+      <c r="AC282" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="AE282" t="inlineStr">
+        <is>
+          <t>18.4</t>
+        </is>
+      </c>
+      <c r="AF282" t="inlineStr">
+        <is>
+          <t>26.7</t>
+        </is>
+      </c>
+      <c r="AG282" t="inlineStr">
+        <is>
+          <t>2.9</t>
+        </is>
+      </c>
+      <c r="AH282" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AI282" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AJ282" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AK282" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AL282" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AM282" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="AN282" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AO282" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP282" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="AQ282" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR282" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="AS282" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="AT282" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="AU282" t="inlineStr">
+        <is>
+          <t>88.24</t>
+        </is>
+      </c>
+      <c r="AV282" t="inlineStr">
+        <is>
+          <t>4345.40</t>
+        </is>
+      </c>
+      <c r="AW282" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AX282" t="inlineStr">
+        <is>
+          <t>73.07</t>
+        </is>
+      </c>
+      <c r="AY282" t="inlineStr">
+        <is>
+          <t>3560.09</t>
+        </is>
+      </c>
+      <c r="AZ282" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="BA282" t="inlineStr">
+        <is>
+          <t>288.14</t>
+        </is>
+      </c>
+      <c r="BB282" t="inlineStr">
+        <is>
+          <t>12317.82</t>
+        </is>
+      </c>
+      <c r="BC282" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="BD282" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BE282" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BF282" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="BG282" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BH282" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="BI282" t="inlineStr">
+        <is>
+          <t>137502724</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>2023-02-11 12:44:37</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>18.4</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>28.3</t>
+        </is>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>2.9</t>
+        </is>
+      </c>
+      <c r="E283" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F283" t="inlineStr">
+        <is>
+          <t>24.7</t>
+        </is>
+      </c>
+      <c r="G283" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H283" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="I283" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J283" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="L283" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M283" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N283" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="O283" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="P283" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q283" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R283" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S283" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T283" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U283" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V283" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="W283" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="X283" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Y283" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z283" t="inlineStr">
+        <is>
+          <t>10.64</t>
+        </is>
+      </c>
+      <c r="AA283" t="inlineStr"/>
+      <c r="AB283" t="inlineStr">
+        <is>
+          <t>7002200</t>
+        </is>
+      </c>
+      <c r="AC283" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="AD283" t="inlineStr"/>
+      <c r="AE283" t="inlineStr">
+        <is>
+          <t>18.3</t>
+        </is>
+      </c>
+      <c r="AF283" t="inlineStr">
+        <is>
+          <t>28.3</t>
+        </is>
+      </c>
+      <c r="AG283" t="inlineStr">
+        <is>
+          <t>2.9</t>
+        </is>
+      </c>
+      <c r="AH283" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AI283" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AJ283" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AK283" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AL283" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AM283" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="AN283" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="AO283" t="inlineStr">
+        <is>
+          <t>252</t>
+        </is>
+      </c>
+      <c r="AP283" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="AQ283" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR283" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="AS283" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="AT283" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="AU283" t="inlineStr">
+        <is>
+          <t>51.36</t>
+        </is>
+      </c>
+      <c r="AV283" t="inlineStr">
+        <is>
+          <t>4347.70</t>
+        </is>
+      </c>
+      <c r="AW283" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AX283" t="inlineStr">
+        <is>
+          <t>37.79</t>
+        </is>
+      </c>
+      <c r="AY283" t="inlineStr">
+        <is>
+          <t>3560.15</t>
+        </is>
+      </c>
+      <c r="AZ283" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="BA283" t="inlineStr">
+        <is>
+          <t>197.79</t>
+        </is>
+      </c>
+      <c r="BB283" t="inlineStr">
+        <is>
+          <t>12339.22</t>
+        </is>
+      </c>
+      <c r="BC283" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="BD283" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BE283" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BF283" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="BG283" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BH283" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="BI283" t="inlineStr">
+        <is>
+          <t>137502732</t>
         </is>
       </c>
     </row>

--- a/SampleData.xlsx
+++ b/SampleData.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BI283"/>
+  <dimension ref="A1:BI286"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
@@ -74925,7 +74925,6 @@
           <t>10.64</t>
         </is>
       </c>
-      <c r="AA283" t="inlineStr"/>
       <c r="AB283" t="inlineStr">
         <is>
           <t>7002200</t>
@@ -74936,7 +74935,6 @@
           <t>2200</t>
         </is>
       </c>
-      <c r="AD283" t="inlineStr"/>
       <c r="AE283" t="inlineStr">
         <is>
           <t>18.3</t>
@@ -75088,6 +75086,899 @@
         </is>
       </c>
       <c r="BI283" t="inlineStr">
+        <is>
+          <t>137502732</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>2023-03-12 09:17:15</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>19.1</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>24.2</t>
+        </is>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>0.7</t>
+        </is>
+      </c>
+      <c r="E284" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F284" t="inlineStr">
+        <is>
+          <t>24.4</t>
+        </is>
+      </c>
+      <c r="G284" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H284" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="I284" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J284" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="L284" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M284" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N284" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="O284" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="P284" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q284" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R284" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="S284" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T284" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="U284" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V284" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="W284" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="X284" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="Y284" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z284" t="inlineStr">
+        <is>
+          <t>11.11</t>
+        </is>
+      </c>
+      <c r="AB284" t="inlineStr">
+        <is>
+          <t>7002200</t>
+        </is>
+      </c>
+      <c r="AC284" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="AE284" t="inlineStr">
+        <is>
+          <t>19.2</t>
+        </is>
+      </c>
+      <c r="AF284" t="inlineStr">
+        <is>
+          <t>24.2</t>
+        </is>
+      </c>
+      <c r="AG284" t="inlineStr">
+        <is>
+          <t>0.6</t>
+        </is>
+      </c>
+      <c r="AH284" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AI284" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AJ284" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AK284" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AL284" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AM284" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="AN284" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="AO284" t="inlineStr">
+        <is>
+          <t>352</t>
+        </is>
+      </c>
+      <c r="AP284" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="AQ284" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="AR284" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="AS284" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="AT284" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="AU284" t="inlineStr">
+        <is>
+          <t>42.17</t>
+        </is>
+      </c>
+      <c r="AV284" t="inlineStr">
+        <is>
+          <t>4389.69</t>
+        </is>
+      </c>
+      <c r="AW284" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="AX284" t="inlineStr">
+        <is>
+          <t>29.65</t>
+        </is>
+      </c>
+      <c r="AY284" t="inlineStr">
+        <is>
+          <t>3589.81</t>
+        </is>
+      </c>
+      <c r="AZ284" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="BA284" t="inlineStr">
+        <is>
+          <t>229.04</t>
+        </is>
+      </c>
+      <c r="BB284" t="inlineStr">
+        <is>
+          <t>12566.14</t>
+        </is>
+      </c>
+      <c r="BC284" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="BD284" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BE284" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BF284" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="BG284" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BH284" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="BI284" t="inlineStr">
+        <is>
+          <t>137502748</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>2023-03-17 19:00:49</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>18.8</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>24.6</t>
+        </is>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>3.1</t>
+        </is>
+      </c>
+      <c r="E285" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F285" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="G285" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H285" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="I285" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J285" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="L285" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M285" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N285" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="O285" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="P285" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q285" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R285" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="S285" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T285" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="U285" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V285" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="W285" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="X285" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="Y285" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z285" t="inlineStr">
+        <is>
+          <t>11.27</t>
+        </is>
+      </c>
+      <c r="AB285" t="inlineStr">
+        <is>
+          <t>7002200</t>
+        </is>
+      </c>
+      <c r="AC285" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="AE285" t="inlineStr">
+        <is>
+          <t>18.8</t>
+        </is>
+      </c>
+      <c r="AF285" t="inlineStr">
+        <is>
+          <t>24.6</t>
+        </is>
+      </c>
+      <c r="AG285" t="inlineStr">
+        <is>
+          <t>3.1</t>
+        </is>
+      </c>
+      <c r="AH285" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AI285" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AJ285" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AK285" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AL285" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AM285" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="AN285" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="AO285" t="inlineStr">
+        <is>
+          <t>363</t>
+        </is>
+      </c>
+      <c r="AP285" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="AQ285" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="AR285" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="AS285" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="AT285" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="AU285" t="inlineStr">
+        <is>
+          <t>52.22</t>
+        </is>
+      </c>
+      <c r="AV285" t="inlineStr">
+        <is>
+          <t>4402.01</t>
+        </is>
+      </c>
+      <c r="AW285" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="AX285" t="inlineStr">
+        <is>
+          <t>39.11</t>
+        </is>
+      </c>
+      <c r="AY285" t="inlineStr">
+        <is>
+          <t>3599.77</t>
+        </is>
+      </c>
+      <c r="AZ285" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="BA285" t="inlineStr">
+        <is>
+          <t>248.10</t>
+        </is>
+      </c>
+      <c r="BB285" t="inlineStr">
+        <is>
+          <t>12606.25</t>
+        </is>
+      </c>
+      <c r="BC285" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="BD285" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BE285" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BF285" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="BG285" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BH285" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="BI285" t="inlineStr">
+        <is>
+          <t>137502748</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>2023-03-25 10:57:35</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>19.2</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>25.4</t>
+        </is>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>5.8</t>
+        </is>
+      </c>
+      <c r="E286" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F286" t="inlineStr">
+        <is>
+          <t>24.2</t>
+        </is>
+      </c>
+      <c r="G286" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H286" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="I286" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J286" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="L286" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M286" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N286" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="O286" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="P286" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q286" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R286" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="S286" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T286" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U286" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V286" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="W286" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="X286" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="Y286" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z286" t="inlineStr">
+        <is>
+          <t>10.77</t>
+        </is>
+      </c>
+      <c r="AA286" t="inlineStr"/>
+      <c r="AB286" t="inlineStr">
+        <is>
+          <t>7002200</t>
+        </is>
+      </c>
+      <c r="AC286" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="AD286" t="inlineStr"/>
+      <c r="AE286" t="inlineStr">
+        <is>
+          <t>19.1</t>
+        </is>
+      </c>
+      <c r="AF286" t="inlineStr">
+        <is>
+          <t>25.4</t>
+        </is>
+      </c>
+      <c r="AG286" t="inlineStr">
+        <is>
+          <t>5.7</t>
+        </is>
+      </c>
+      <c r="AH286" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AI286" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AJ286" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AK286" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AL286" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AM286" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="AN286" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="AO286" t="inlineStr">
+        <is>
+          <t>273</t>
+        </is>
+      </c>
+      <c r="AP286" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="AQ286" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR286" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="AS286" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="AT286" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="AU286" t="inlineStr">
+        <is>
+          <t>52.85</t>
+        </is>
+      </c>
+      <c r="AV286" t="inlineStr">
+        <is>
+          <t>4414.04</t>
+        </is>
+      </c>
+      <c r="AW286" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="AX286" t="inlineStr">
+        <is>
+          <t>40.06</t>
+        </is>
+      </c>
+      <c r="AY286" t="inlineStr">
+        <is>
+          <t>3608.57</t>
+        </is>
+      </c>
+      <c r="AZ286" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="BA286" t="inlineStr">
+        <is>
+          <t>222.29</t>
+        </is>
+      </c>
+      <c r="BB286" t="inlineStr">
+        <is>
+          <t>12651.38</t>
+        </is>
+      </c>
+      <c r="BC286" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="BD286" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BE286" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BF286" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="BG286" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BH286" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="BI286" t="inlineStr">
         <is>
           <t>137502732</t>
         </is>

--- a/SampleData.xlsx
+++ b/SampleData.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BI286"/>
+  <dimension ref="A1:BI288"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
@@ -75816,7 +75816,6 @@
           <t>10.77</t>
         </is>
       </c>
-      <c r="AA286" t="inlineStr"/>
       <c r="AB286" t="inlineStr">
         <is>
           <t>7002200</t>
@@ -75827,7 +75826,6 @@
           <t>2200</t>
         </is>
       </c>
-      <c r="AD286" t="inlineStr"/>
       <c r="AE286" t="inlineStr">
         <is>
           <t>19.1</t>
@@ -75979,6 +75977,602 @@
         </is>
       </c>
       <c r="BI286" t="inlineStr">
+        <is>
+          <t>137502732</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>2023-03-31 18:30:27</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>18.9</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>2.6</t>
+        </is>
+      </c>
+      <c r="E287" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F287" t="inlineStr">
+        <is>
+          <t>24.3</t>
+        </is>
+      </c>
+      <c r="G287" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H287" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="I287" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J287" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="L287" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M287" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N287" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="O287" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="P287" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q287" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R287" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="S287" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T287" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U287" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V287" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="W287" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="X287" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="Y287" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z287" t="inlineStr">
+        <is>
+          <t>9.28</t>
+        </is>
+      </c>
+      <c r="AB287" t="inlineStr">
+        <is>
+          <t>7002200</t>
+        </is>
+      </c>
+      <c r="AC287" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="AE287" t="inlineStr">
+        <is>
+          <t>18.8</t>
+        </is>
+      </c>
+      <c r="AF287" t="inlineStr">
+        <is>
+          <t>25.9</t>
+        </is>
+      </c>
+      <c r="AG287" t="inlineStr">
+        <is>
+          <t>2.6</t>
+        </is>
+      </c>
+      <c r="AH287" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AI287" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AJ287" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AK287" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AL287" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AM287" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="AN287" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="AO287" t="inlineStr">
+        <is>
+          <t>325</t>
+        </is>
+      </c>
+      <c r="AP287" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="AQ287" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR287" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="AS287" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="AT287" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="AU287" t="inlineStr">
+        <is>
+          <t>55.82</t>
+        </is>
+      </c>
+      <c r="AV287" t="inlineStr">
+        <is>
+          <t>4424.49</t>
+        </is>
+      </c>
+      <c r="AW287" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="AX287" t="inlineStr">
+        <is>
+          <t>42.87</t>
+        </is>
+      </c>
+      <c r="AY287" t="inlineStr">
+        <is>
+          <t>3616.25</t>
+        </is>
+      </c>
+      <c r="AZ287" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="BA287" t="inlineStr">
+        <is>
+          <t>222.88</t>
+        </is>
+      </c>
+      <c r="BB287" t="inlineStr">
+        <is>
+          <t>12699.44</t>
+        </is>
+      </c>
+      <c r="BC287" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="BD287" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BE287" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BF287" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="BG287" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BH287" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="BI287" t="inlineStr">
+        <is>
+          <t>137502732</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>2023-04-01 11:24:56</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>18.9</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>26.3</t>
+        </is>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>6.8</t>
+        </is>
+      </c>
+      <c r="E288" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F288" t="inlineStr">
+        <is>
+          <t>24.2</t>
+        </is>
+      </c>
+      <c r="G288" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H288" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="I288" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J288" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="L288" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M288" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N288" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="O288" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="P288" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q288" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R288" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="S288" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T288" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U288" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V288" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="W288" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="X288" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="Y288" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z288" t="inlineStr">
+        <is>
+          <t>10.11</t>
+        </is>
+      </c>
+      <c r="AA288" t="inlineStr"/>
+      <c r="AB288" t="inlineStr">
+        <is>
+          <t>7002200</t>
+        </is>
+      </c>
+      <c r="AC288" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="AD288" t="inlineStr"/>
+      <c r="AE288" t="inlineStr">
+        <is>
+          <t>18.9</t>
+        </is>
+      </c>
+      <c r="AF288" t="inlineStr">
+        <is>
+          <t>26.2</t>
+        </is>
+      </c>
+      <c r="AG288" t="inlineStr">
+        <is>
+          <t>6.8</t>
+        </is>
+      </c>
+      <c r="AH288" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AI288" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AJ288" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AK288" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AL288" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AM288" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="AN288" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="AO288" t="inlineStr">
+        <is>
+          <t>275</t>
+        </is>
+      </c>
+      <c r="AP288" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="AQ288" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR288" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="AS288" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="AT288" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="AU288" t="inlineStr">
+        <is>
+          <t>55.69</t>
+        </is>
+      </c>
+      <c r="AV288" t="inlineStr">
+        <is>
+          <t>4425.17</t>
+        </is>
+      </c>
+      <c r="AW288" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="AX288" t="inlineStr">
+        <is>
+          <t>42.81</t>
+        </is>
+      </c>
+      <c r="AY288" t="inlineStr">
+        <is>
+          <t>3616.61</t>
+        </is>
+      </c>
+      <c r="AZ288" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="BA288" t="inlineStr">
+        <is>
+          <t>223.27</t>
+        </is>
+      </c>
+      <c r="BB288" t="inlineStr">
+        <is>
+          <t>12704.88</t>
+        </is>
+      </c>
+      <c r="BC288" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="BD288" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BE288" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BF288" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="BG288" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BH288" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="BI288" t="inlineStr">
         <is>
           <t>137502732</t>
         </is>

--- a/SampleData.xlsx
+++ b/SampleData.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BI288"/>
+  <dimension ref="A1:BI289"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
@@ -76410,7 +76410,6 @@
           <t>10.11</t>
         </is>
       </c>
-      <c r="AA288" t="inlineStr"/>
       <c r="AB288" t="inlineStr">
         <is>
           <t>7002200</t>
@@ -76421,7 +76420,6 @@
           <t>2200</t>
         </is>
       </c>
-      <c r="AD288" t="inlineStr"/>
       <c r="AE288" t="inlineStr">
         <is>
           <t>18.9</t>
@@ -76575,6 +76573,305 @@
       <c r="BI288" t="inlineStr">
         <is>
           <t>137502732</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>2023-04-02 09:43:04</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>19.2</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>25.5</t>
+        </is>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>4.9</t>
+        </is>
+      </c>
+      <c r="E289" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F289" t="inlineStr">
+        <is>
+          <t>24.7</t>
+        </is>
+      </c>
+      <c r="G289" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H289" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="I289" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J289" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="L289" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M289" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N289" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="O289" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="P289" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q289" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R289" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="S289" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T289" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="U289" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V289" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="W289" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="X289" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="Y289" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z289" t="inlineStr">
+        <is>
+          <t>10.64</t>
+        </is>
+      </c>
+      <c r="AA289" t="inlineStr"/>
+      <c r="AB289" t="inlineStr">
+        <is>
+          <t>7002200</t>
+        </is>
+      </c>
+      <c r="AC289" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="AD289" t="inlineStr"/>
+      <c r="AE289" t="inlineStr">
+        <is>
+          <t>19.1</t>
+        </is>
+      </c>
+      <c r="AF289" t="inlineStr">
+        <is>
+          <t>25.6</t>
+        </is>
+      </c>
+      <c r="AG289" t="inlineStr">
+        <is>
+          <t>4.9</t>
+        </is>
+      </c>
+      <c r="AH289" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AI289" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AJ289" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AK289" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AL289" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AM289" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="AN289" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="AO289" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="AP289" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="AQ289" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="AR289" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="AS289" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="AT289" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="AU289" t="inlineStr">
+        <is>
+          <t>56.07</t>
+        </is>
+      </c>
+      <c r="AV289" t="inlineStr">
+        <is>
+          <t>4426.51</t>
+        </is>
+      </c>
+      <c r="AW289" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="AX289" t="inlineStr">
+        <is>
+          <t>43.22</t>
+        </is>
+      </c>
+      <c r="AY289" t="inlineStr">
+        <is>
+          <t>3617.58</t>
+        </is>
+      </c>
+      <c r="AZ289" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="BA289" t="inlineStr">
+        <is>
+          <t>223.30</t>
+        </is>
+      </c>
+      <c r="BB289" t="inlineStr">
+        <is>
+          <t>12710.61</t>
+        </is>
+      </c>
+      <c r="BC289" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="BD289" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BE289" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BF289" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="BG289" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BH289" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="BI289" t="inlineStr">
+        <is>
+          <t>137502748</t>
         </is>
       </c>
     </row>

--- a/SampleData.xlsx
+++ b/SampleData.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BI289"/>
+  <dimension ref="A1:BI290"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
@@ -76707,7 +76707,6 @@
           <t>10.64</t>
         </is>
       </c>
-      <c r="AA289" t="inlineStr"/>
       <c r="AB289" t="inlineStr">
         <is>
           <t>7002200</t>
@@ -76718,7 +76717,6 @@
           <t>2200</t>
         </is>
       </c>
-      <c r="AD289" t="inlineStr"/>
       <c r="AE289" t="inlineStr">
         <is>
           <t>19.1</t>
@@ -76872,6 +76870,305 @@
       <c r="BI289" t="inlineStr">
         <is>
           <t>137502748</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>2023-04-07 14:12:12</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>23.8</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>26.7</t>
+        </is>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>22.2</t>
+        </is>
+      </c>
+      <c r="E290" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F290" t="inlineStr">
+        <is>
+          <t>25.2</t>
+        </is>
+      </c>
+      <c r="G290" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H290" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="I290" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J290" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="L290" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M290" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N290" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="O290" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="P290" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q290" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R290" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S290" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T290" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U290" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V290" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="W290" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="X290" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Y290" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z290" t="inlineStr">
+        <is>
+          <t>10.71</t>
+        </is>
+      </c>
+      <c r="AA290" t="inlineStr"/>
+      <c r="AB290" t="inlineStr">
+        <is>
+          <t>000700</t>
+        </is>
+      </c>
+      <c r="AC290" t="inlineStr">
+        <is>
+          <t>700</t>
+        </is>
+      </c>
+      <c r="AD290" t="inlineStr"/>
+      <c r="AE290" t="inlineStr">
+        <is>
+          <t>23.8</t>
+        </is>
+      </c>
+      <c r="AF290" t="inlineStr">
+        <is>
+          <t>26.8</t>
+        </is>
+      </c>
+      <c r="AG290" t="inlineStr">
+        <is>
+          <t>22.3</t>
+        </is>
+      </c>
+      <c r="AH290" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AI290" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AJ290" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AK290" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AL290" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AM290" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="AN290" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AO290" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP290" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="AQ290" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR290" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="AS290" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="AT290" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="AU290" t="inlineStr">
+        <is>
+          <t>53.27</t>
+        </is>
+      </c>
+      <c r="AV290" t="inlineStr">
+        <is>
+          <t>4433.91</t>
+        </is>
+      </c>
+      <c r="AW290" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="AX290" t="inlineStr">
+        <is>
+          <t>40.55</t>
+        </is>
+      </c>
+      <c r="AY290" t="inlineStr">
+        <is>
+          <t>3622.84</t>
+        </is>
+      </c>
+      <c r="AZ290" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="BA290" t="inlineStr">
+        <is>
+          <t>211.88</t>
+        </is>
+      </c>
+      <c r="BB290" t="inlineStr">
+        <is>
+          <t>12744.20</t>
+        </is>
+      </c>
+      <c r="BC290" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="BD290" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BE290" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BF290" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="BG290" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BH290" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="BI290" t="inlineStr">
+        <is>
+          <t>137502724</t>
         </is>
       </c>
     </row>

--- a/SampleData.xlsx
+++ b/SampleData.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BI290"/>
+  <dimension ref="A1:BI295"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
@@ -77004,7 +77004,6 @@
           <t>10.71</t>
         </is>
       </c>
-      <c r="AA290" t="inlineStr"/>
       <c r="AB290" t="inlineStr">
         <is>
           <t>000700</t>
@@ -77015,7 +77014,6 @@
           <t>700</t>
         </is>
       </c>
-      <c r="AD290" t="inlineStr"/>
       <c r="AE290" t="inlineStr">
         <is>
           <t>23.8</t>
@@ -77169,6 +77167,1493 @@
       <c r="BI290" t="inlineStr">
         <is>
           <t>137502724</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>2023-05-05 18:53:19</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>18.8</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>25.7</t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>7.9</t>
+        </is>
+      </c>
+      <c r="E291" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F291" t="inlineStr">
+        <is>
+          <t>24.8</t>
+        </is>
+      </c>
+      <c r="G291" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H291" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="I291" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J291" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="L291" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M291" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N291" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="O291" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="P291" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q291" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R291" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="S291" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T291" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U291" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V291" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="W291" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="X291" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="Y291" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z291" t="inlineStr">
+        <is>
+          <t>10.01</t>
+        </is>
+      </c>
+      <c r="AB291" t="inlineStr">
+        <is>
+          <t>000000</t>
+        </is>
+      </c>
+      <c r="AC291" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="AE291" t="inlineStr">
+        <is>
+          <t>18.8</t>
+        </is>
+      </c>
+      <c r="AF291" t="inlineStr">
+        <is>
+          <t>25.8</t>
+        </is>
+      </c>
+      <c r="AG291" t="inlineStr">
+        <is>
+          <t>7.8</t>
+        </is>
+      </c>
+      <c r="AH291" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AI291" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AJ291" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AK291" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AL291" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AM291" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="AN291" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="AO291" t="inlineStr">
+        <is>
+          <t>263</t>
+        </is>
+      </c>
+      <c r="AP291" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="AQ291" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR291" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="AS291" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="AT291" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="AU291" t="inlineStr">
+        <is>
+          <t>21.39</t>
+        </is>
+      </c>
+      <c r="AV291" t="inlineStr">
+        <is>
+          <t>4453.08</t>
+        </is>
+      </c>
+      <c r="AW291" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="AX291" t="inlineStr">
+        <is>
+          <t>11.13</t>
+        </is>
+      </c>
+      <c r="AY291" t="inlineStr">
+        <is>
+          <t>3632.39</t>
+        </is>
+      </c>
+      <c r="AZ291" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="BA291" t="inlineStr">
+        <is>
+          <t>97.41</t>
+        </is>
+      </c>
+      <c r="BB291" t="inlineStr">
+        <is>
+          <t>12832.15</t>
+        </is>
+      </c>
+      <c r="BC291" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="BD291" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BE291" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BF291" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="BG291" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BH291" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="BI291" t="inlineStr">
+        <is>
+          <t>136454156</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>2023-05-19 22:22:54</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>20.6</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>27.3</t>
+        </is>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>12.2</t>
+        </is>
+      </c>
+      <c r="E292" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F292" t="inlineStr">
+        <is>
+          <t>24.7</t>
+        </is>
+      </c>
+      <c r="G292" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H292" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="I292" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J292" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="L292" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M292" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N292" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="O292" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="P292" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q292" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R292" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S292" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T292" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U292" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V292" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="W292" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="X292" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Y292" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z292" t="inlineStr">
+        <is>
+          <t>10.40</t>
+        </is>
+      </c>
+      <c r="AB292" t="inlineStr">
+        <is>
+          <t>000000</t>
+        </is>
+      </c>
+      <c r="AC292" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="AE292" t="inlineStr">
+        <is>
+          <t>20.5</t>
+        </is>
+      </c>
+      <c r="AF292" t="inlineStr">
+        <is>
+          <t>27.3</t>
+        </is>
+      </c>
+      <c r="AG292" t="inlineStr">
+        <is>
+          <t>12.1</t>
+        </is>
+      </c>
+      <c r="AH292" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AI292" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AJ292" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AK292" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AL292" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AM292" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="AN292" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AO292" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP292" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="AQ292" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR292" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="AS292" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="AT292" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="AU292" t="inlineStr">
+        <is>
+          <t>14.82</t>
+        </is>
+      </c>
+      <c r="AV292" t="inlineStr">
+        <is>
+          <t>4459.17</t>
+        </is>
+      </c>
+      <c r="AW292" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AX292" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="AY292" t="inlineStr">
+        <is>
+          <t>3634.20</t>
+        </is>
+      </c>
+      <c r="AZ292" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="BA292" t="inlineStr">
+        <is>
+          <t>66.14</t>
+        </is>
+      </c>
+      <c r="BB292" t="inlineStr">
+        <is>
+          <t>12854.35</t>
+        </is>
+      </c>
+      <c r="BC292" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="BD292" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BE292" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BF292" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="BG292" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BH292" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="BI292" t="inlineStr">
+        <is>
+          <t>140648452</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>2023-05-21 10:24:56</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>24.1</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>26.2</t>
+        </is>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>22.1</t>
+        </is>
+      </c>
+      <c r="E293" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F293" t="inlineStr">
+        <is>
+          <t>24.6</t>
+        </is>
+      </c>
+      <c r="G293" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H293" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="I293" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J293" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="L293" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M293" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N293" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="O293" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="P293" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q293" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R293" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S293" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T293" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U293" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V293" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="W293" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="X293" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Y293" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z293" t="inlineStr">
+        <is>
+          <t>9.22</t>
+        </is>
+      </c>
+      <c r="AB293" t="inlineStr">
+        <is>
+          <t>000000</t>
+        </is>
+      </c>
+      <c r="AC293" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="AE293" t="inlineStr">
+        <is>
+          <t>24.2</t>
+        </is>
+      </c>
+      <c r="AF293" t="inlineStr">
+        <is>
+          <t>26.2</t>
+        </is>
+      </c>
+      <c r="AG293" t="inlineStr">
+        <is>
+          <t>22.2</t>
+        </is>
+      </c>
+      <c r="AH293" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AI293" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AJ293" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AK293" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AL293" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AM293" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="AN293" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AO293" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP293" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="AQ293" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR293" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="AS293" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="AT293" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="AU293" t="inlineStr">
+        <is>
+          <t>14.05</t>
+        </is>
+      </c>
+      <c r="AV293" t="inlineStr">
+        <is>
+          <t>4459.60</t>
+        </is>
+      </c>
+      <c r="AW293" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AX293" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="AY293" t="inlineStr">
+        <is>
+          <t>3634.20</t>
+        </is>
+      </c>
+      <c r="AZ293" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="BA293" t="inlineStr">
+        <is>
+          <t>63.56</t>
+        </is>
+      </c>
+      <c r="BB293" t="inlineStr">
+        <is>
+          <t>12856.26</t>
+        </is>
+      </c>
+      <c r="BC293" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="BD293" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BE293" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BF293" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="BG293" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BH293" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="BI293" t="inlineStr">
+        <is>
+          <t>140649476</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>2023-05-26 18:13:12</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>22.6</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>26.9</t>
+        </is>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>17.1</t>
+        </is>
+      </c>
+      <c r="E294" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F294" t="inlineStr">
+        <is>
+          <t>25.1</t>
+        </is>
+      </c>
+      <c r="G294" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H294" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I294" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J294" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="L294" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M294" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N294" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="O294" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="P294" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q294" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R294" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S294" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T294" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U294" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V294" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="W294" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="X294" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Y294" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z294" t="inlineStr">
+        <is>
+          <t>9.26</t>
+        </is>
+      </c>
+      <c r="AB294" t="inlineStr">
+        <is>
+          <t>000000</t>
+        </is>
+      </c>
+      <c r="AC294" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="AE294" t="inlineStr">
+        <is>
+          <t>22.6</t>
+        </is>
+      </c>
+      <c r="AF294" t="inlineStr">
+        <is>
+          <t>26.7</t>
+        </is>
+      </c>
+      <c r="AG294" t="inlineStr">
+        <is>
+          <t>17.1</t>
+        </is>
+      </c>
+      <c r="AH294" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AI294" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AJ294" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AK294" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AL294" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AM294" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="AN294" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AO294" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP294" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="AQ294" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR294" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="AS294" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="AT294" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="AU294" t="inlineStr">
+        <is>
+          <t>13.12</t>
+        </is>
+      </c>
+      <c r="AV294" t="inlineStr">
+        <is>
+          <t>4461.00</t>
+        </is>
+      </c>
+      <c r="AW294" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AX294" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="AY294" t="inlineStr">
+        <is>
+          <t>3634.20</t>
+        </is>
+      </c>
+      <c r="AZ294" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="BA294" t="inlineStr">
+        <is>
+          <t>55.96</t>
+        </is>
+      </c>
+      <c r="BB294" t="inlineStr">
+        <is>
+          <t>12857.32</t>
+        </is>
+      </c>
+      <c r="BC294" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="BD294" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BE294" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BF294" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="BG294" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BH294" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="BI294" t="inlineStr">
+        <is>
+          <t>140649476</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>2023-05-27 10:06:52</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>21.8</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>16.7</t>
+        </is>
+      </c>
+      <c r="E295" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F295" t="inlineStr">
+        <is>
+          <t>24.5</t>
+        </is>
+      </c>
+      <c r="G295" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H295" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="I295" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J295" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="L295" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M295" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N295" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="O295" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="P295" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q295" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R295" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S295" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T295" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U295" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V295" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="W295" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="X295" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Y295" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z295" t="inlineStr">
+        <is>
+          <t>8.72</t>
+        </is>
+      </c>
+      <c r="AA295" t="inlineStr"/>
+      <c r="AB295" t="inlineStr">
+        <is>
+          <t>000000</t>
+        </is>
+      </c>
+      <c r="AC295" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="AD295" t="inlineStr"/>
+      <c r="AE295" t="inlineStr">
+        <is>
+          <t>21.8</t>
+        </is>
+      </c>
+      <c r="AF295" t="inlineStr">
+        <is>
+          <t>26.1</t>
+        </is>
+      </c>
+      <c r="AG295" t="inlineStr">
+        <is>
+          <t>16.7</t>
+        </is>
+      </c>
+      <c r="AH295" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AI295" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AJ295" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AK295" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AL295" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AM295" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="AN295" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AO295" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP295" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="AQ295" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR295" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="AS295" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="AT295" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="AU295" t="inlineStr">
+        <is>
+          <t>12.99</t>
+        </is>
+      </c>
+      <c r="AV295" t="inlineStr">
+        <is>
+          <t>4461.17</t>
+        </is>
+      </c>
+      <c r="AW295" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AX295" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="AY295" t="inlineStr">
+        <is>
+          <t>3634.20</t>
+        </is>
+      </c>
+      <c r="AZ295" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="BA295" t="inlineStr">
+        <is>
+          <t>54.57</t>
+        </is>
+      </c>
+      <c r="BB295" t="inlineStr">
+        <is>
+          <t>12857.46</t>
+        </is>
+      </c>
+      <c r="BC295" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="BD295" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BE295" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BF295" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="BG295" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BH295" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="BI295" t="inlineStr">
+        <is>
+          <t>140649476</t>
         </is>
       </c>
     </row>

--- a/SampleData.xlsx
+++ b/SampleData.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BI295"/>
+  <dimension ref="A1:BI297"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
@@ -78489,7 +78489,6 @@
           <t>8.72</t>
         </is>
       </c>
-      <c r="AA295" t="inlineStr"/>
       <c r="AB295" t="inlineStr">
         <is>
           <t>000000</t>
@@ -78500,7 +78499,6 @@
           <t>000</t>
         </is>
       </c>
-      <c r="AD295" t="inlineStr"/>
       <c r="AE295" t="inlineStr">
         <is>
           <t>21.8</t>
@@ -78654,6 +78652,602 @@
       <c r="BI295" t="inlineStr">
         <is>
           <t>140649476</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>2023-05-31 17:00:00</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>24.5</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>26.3</t>
+        </is>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>21.9</t>
+        </is>
+      </c>
+      <c r="E296" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F296" t="inlineStr">
+        <is>
+          <t>24.6</t>
+        </is>
+      </c>
+      <c r="G296" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H296" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="I296" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J296" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="L296" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M296" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N296" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="O296" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="P296" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q296" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R296" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S296" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T296" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U296" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V296" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="W296" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="X296" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Y296" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z296" t="inlineStr">
+        <is>
+          <t>9.68</t>
+        </is>
+      </c>
+      <c r="AB296" t="inlineStr">
+        <is>
+          <t>000000</t>
+        </is>
+      </c>
+      <c r="AC296" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="AE296" t="inlineStr">
+        <is>
+          <t>24.5</t>
+        </is>
+      </c>
+      <c r="AF296" t="inlineStr">
+        <is>
+          <t>26.2</t>
+        </is>
+      </c>
+      <c r="AG296" t="inlineStr">
+        <is>
+          <t>21.9</t>
+        </is>
+      </c>
+      <c r="AH296" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AI296" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AJ296" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AK296" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AL296" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AM296" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="AN296" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AO296" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP296" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="AQ296" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR296" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="AS296" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="AT296" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="AU296" t="inlineStr">
+        <is>
+          <t>11.76</t>
+        </is>
+      </c>
+      <c r="AV296" t="inlineStr">
+        <is>
+          <t>4462.34</t>
+        </is>
+      </c>
+      <c r="AW296" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AX296" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="AY296" t="inlineStr">
+        <is>
+          <t>3634.20</t>
+        </is>
+      </c>
+      <c r="AZ296" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="BA296" t="inlineStr">
+        <is>
+          <t>43.13</t>
+        </is>
+      </c>
+      <c r="BB296" t="inlineStr">
+        <is>
+          <t>12860.71</t>
+        </is>
+      </c>
+      <c r="BC296" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="BD296" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BE296" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BF296" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="BG296" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BH296" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="BI296" t="inlineStr">
+        <is>
+          <t>140649476</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>2023-06-02 18:36:56</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>20.1</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>25.7</t>
+        </is>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>14.3</t>
+        </is>
+      </c>
+      <c r="E297" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F297" t="inlineStr">
+        <is>
+          <t>24.2</t>
+        </is>
+      </c>
+      <c r="G297" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H297" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="I297" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J297" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="L297" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M297" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N297" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="O297" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="P297" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q297" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R297" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S297" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T297" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U297" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V297" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="W297" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="X297" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Y297" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z297" t="inlineStr">
+        <is>
+          <t>9.23</t>
+        </is>
+      </c>
+      <c r="AA297" t="inlineStr"/>
+      <c r="AB297" t="inlineStr">
+        <is>
+          <t>000000</t>
+        </is>
+      </c>
+      <c r="AC297" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="AD297" t="inlineStr"/>
+      <c r="AE297" t="inlineStr">
+        <is>
+          <t>20.1</t>
+        </is>
+      </c>
+      <c r="AF297" t="inlineStr">
+        <is>
+          <t>25.7</t>
+        </is>
+      </c>
+      <c r="AG297" t="inlineStr">
+        <is>
+          <t>14.2</t>
+        </is>
+      </c>
+      <c r="AH297" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AI297" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AJ297" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AK297" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AL297" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AM297" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="AN297" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AO297" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP297" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="AQ297" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR297" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="AS297" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="AT297" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="AU297" t="inlineStr">
+        <is>
+          <t>11.22</t>
+        </is>
+      </c>
+      <c r="AV297" t="inlineStr">
+        <is>
+          <t>4462.91</t>
+        </is>
+      </c>
+      <c r="AW297" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AX297" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="AY297" t="inlineStr">
+        <is>
+          <t>3634.20</t>
+        </is>
+      </c>
+      <c r="AZ297" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="BA297" t="inlineStr">
+        <is>
+          <t>38.31</t>
+        </is>
+      </c>
+      <c r="BB297" t="inlineStr">
+        <is>
+          <t>12862.56</t>
+        </is>
+      </c>
+      <c r="BC297" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="BD297" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BE297" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BF297" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="BG297" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BH297" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="BI297" t="inlineStr">
+        <is>
+          <t>140648452</t>
         </is>
       </c>
     </row>

--- a/SampleData.xlsx
+++ b/SampleData.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BI297"/>
+  <dimension ref="A1:BI298"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
@@ -79083,7 +79083,6 @@
           <t>9.23</t>
         </is>
       </c>
-      <c r="AA297" t="inlineStr"/>
       <c r="AB297" t="inlineStr">
         <is>
           <t>000000</t>
@@ -79094,7 +79093,6 @@
           <t>000</t>
         </is>
       </c>
-      <c r="AD297" t="inlineStr"/>
       <c r="AE297" t="inlineStr">
         <is>
           <t>20.1</t>
@@ -79246,6 +79244,305 @@
         </is>
       </c>
       <c r="BI297" t="inlineStr">
+        <is>
+          <t>140648452</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>2023-06-18 18:02:16</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>29.1</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>29.4</t>
+        </is>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>27.7</t>
+        </is>
+      </c>
+      <c r="E298" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F298" t="inlineStr">
+        <is>
+          <t>26.8</t>
+        </is>
+      </c>
+      <c r="G298" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H298" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I298" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J298" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="L298" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M298" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N298" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="O298" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="P298" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q298" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R298" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S298" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T298" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U298" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V298" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="W298" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="X298" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Y298" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z298" t="inlineStr">
+        <is>
+          <t>10.18</t>
+        </is>
+      </c>
+      <c r="AA298" t="inlineStr"/>
+      <c r="AB298" t="inlineStr">
+        <is>
+          <t>000000</t>
+        </is>
+      </c>
+      <c r="AC298" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="AD298" t="inlineStr"/>
+      <c r="AE298" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="AF298" t="inlineStr">
+        <is>
+          <t>29.3</t>
+        </is>
+      </c>
+      <c r="AG298" t="inlineStr">
+        <is>
+          <t>27.6</t>
+        </is>
+      </c>
+      <c r="AH298" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AI298" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AJ298" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AK298" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AL298" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AM298" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="AN298" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AO298" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP298" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="AQ298" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR298" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="AS298" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="AT298" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="AU298" t="inlineStr">
+        <is>
+          <t>8.07</t>
+        </is>
+      </c>
+      <c r="AV298" t="inlineStr">
+        <is>
+          <t>4467.27</t>
+        </is>
+      </c>
+      <c r="AW298" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AX298" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AY298" t="inlineStr">
+        <is>
+          <t>3634.20</t>
+        </is>
+      </c>
+      <c r="AZ298" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="BA298" t="inlineStr">
+        <is>
+          <t>12.33</t>
+        </is>
+      </c>
+      <c r="BB298" t="inlineStr">
+        <is>
+          <t>12866.69</t>
+        </is>
+      </c>
+      <c r="BC298" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="BD298" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BE298" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BF298" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="BG298" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BH298" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="BI298" t="inlineStr">
         <is>
           <t>140648452</t>
         </is>

--- a/SampleData.xlsx
+++ b/SampleData.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BI298"/>
+  <dimension ref="A1:BI299"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
@@ -79380,7 +79380,6 @@
           <t>10.18</t>
         </is>
       </c>
-      <c r="AA298" t="inlineStr"/>
       <c r="AB298" t="inlineStr">
         <is>
           <t>000000</t>
@@ -79391,7 +79390,6 @@
           <t>000</t>
         </is>
       </c>
-      <c r="AD298" t="inlineStr"/>
       <c r="AE298" t="inlineStr">
         <is>
           <t>29.0</t>
@@ -79545,6 +79543,305 @@
       <c r="BI298" t="inlineStr">
         <is>
           <t>140648452</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>2023-06-22 15:00:03</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>25.6</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>28.5</t>
+        </is>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>21.8</t>
+        </is>
+      </c>
+      <c r="E299" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F299" t="inlineStr">
+        <is>
+          <t>25.9</t>
+        </is>
+      </c>
+      <c r="G299" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H299" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="I299" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J299" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="L299" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M299" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N299" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="O299" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="P299" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q299" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R299" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S299" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T299" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U299" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V299" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="W299" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="X299" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Y299" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z299" t="inlineStr">
+        <is>
+          <t>13.56</t>
+        </is>
+      </c>
+      <c r="AA299" t="inlineStr"/>
+      <c r="AB299" t="inlineStr">
+        <is>
+          <t>000000</t>
+        </is>
+      </c>
+      <c r="AC299" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="AD299" t="inlineStr"/>
+      <c r="AE299" t="inlineStr">
+        <is>
+          <t>25.5</t>
+        </is>
+      </c>
+      <c r="AF299" t="inlineStr">
+        <is>
+          <t>28.6</t>
+        </is>
+      </c>
+      <c r="AG299" t="inlineStr">
+        <is>
+          <t>21.8</t>
+        </is>
+      </c>
+      <c r="AH299" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AI299" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AJ299" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AK299" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AL299" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AM299" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="AN299" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AO299" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP299" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="AQ299" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR299" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="AS299" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="AT299" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="AU299" t="inlineStr">
+        <is>
+          <t>8.08</t>
+        </is>
+      </c>
+      <c r="AV299" t="inlineStr">
+        <is>
+          <t>4468.36</t>
+        </is>
+      </c>
+      <c r="AW299" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AX299" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AY299" t="inlineStr">
+        <is>
+          <t>3634.20</t>
+        </is>
+      </c>
+      <c r="AZ299" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="BA299" t="inlineStr">
+        <is>
+          <t>11.18</t>
+        </is>
+      </c>
+      <c r="BB299" t="inlineStr">
+        <is>
+          <t>12867.91</t>
+        </is>
+      </c>
+      <c r="BC299" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="BD299" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BE299" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BF299" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="BG299" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BH299" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="BI299" t="inlineStr">
+        <is>
+          <t>140649476</t>
         </is>
       </c>
     </row>

--- a/SampleData.xlsx
+++ b/SampleData.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BI299"/>
+  <dimension ref="A1:BI303"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
@@ -79677,7 +79677,6 @@
           <t>13.56</t>
         </is>
       </c>
-      <c r="AA299" t="inlineStr"/>
       <c r="AB299" t="inlineStr">
         <is>
           <t>000000</t>
@@ -79688,7 +79687,6 @@
           <t>000</t>
         </is>
       </c>
-      <c r="AD299" t="inlineStr"/>
       <c r="AE299" t="inlineStr">
         <is>
           <t>25.5</t>
@@ -79840,6 +79838,1196 @@
         </is>
       </c>
       <c r="BI299" t="inlineStr">
+        <is>
+          <t>140649476</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>2023-06-25 15:14:32</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>29.3</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>28.3</t>
+        </is>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>29.7</t>
+        </is>
+      </c>
+      <c r="E300" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F300" t="inlineStr">
+        <is>
+          <t>25.8</t>
+        </is>
+      </c>
+      <c r="G300" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H300" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="I300" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J300" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="L300" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M300" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N300" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="O300" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="P300" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q300" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R300" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="S300" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T300" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U300" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V300" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="W300" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="X300" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="Y300" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z300" t="inlineStr">
+        <is>
+          <t>10.10</t>
+        </is>
+      </c>
+      <c r="AB300" t="inlineStr">
+        <is>
+          <t>000000</t>
+        </is>
+      </c>
+      <c r="AC300" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="AE300" t="inlineStr">
+        <is>
+          <t>29.4</t>
+        </is>
+      </c>
+      <c r="AF300" t="inlineStr">
+        <is>
+          <t>28.2</t>
+        </is>
+      </c>
+      <c r="AG300" t="inlineStr">
+        <is>
+          <t>29.5</t>
+        </is>
+      </c>
+      <c r="AH300" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AI300" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AJ300" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AK300" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AL300" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AM300" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="AN300" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AO300" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="AP300" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="AQ300" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR300" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="AS300" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="AT300" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="AU300" t="inlineStr">
+        <is>
+          <t>8.09</t>
+        </is>
+      </c>
+      <c r="AV300" t="inlineStr">
+        <is>
+          <t>4469.17</t>
+        </is>
+      </c>
+      <c r="AW300" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AX300" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AY300" t="inlineStr">
+        <is>
+          <t>3634.20</t>
+        </is>
+      </c>
+      <c r="AZ300" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="BA300" t="inlineStr">
+        <is>
+          <t>11.00</t>
+        </is>
+      </c>
+      <c r="BB300" t="inlineStr">
+        <is>
+          <t>12868.34</t>
+        </is>
+      </c>
+      <c r="BC300" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="BD300" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BE300" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BF300" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="BG300" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BH300" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="BI300" t="inlineStr">
+        <is>
+          <t>140648460</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>2023-07-02 10:04:48</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>23.2</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>26.1</t>
+        </is>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>18.9</t>
+        </is>
+      </c>
+      <c r="E301" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F301" t="inlineStr">
+        <is>
+          <t>24.7</t>
+        </is>
+      </c>
+      <c r="G301" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H301" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="I301" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J301" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="L301" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M301" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N301" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="O301" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="P301" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q301" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R301" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S301" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T301" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U301" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V301" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="W301" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="X301" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Y301" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z301" t="inlineStr">
+        <is>
+          <t>11.77</t>
+        </is>
+      </c>
+      <c r="AB301" t="inlineStr">
+        <is>
+          <t>000000</t>
+        </is>
+      </c>
+      <c r="AC301" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="AE301" t="inlineStr">
+        <is>
+          <t>23.1</t>
+        </is>
+      </c>
+      <c r="AF301" t="inlineStr">
+        <is>
+          <t>26.1</t>
+        </is>
+      </c>
+      <c r="AG301" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="AH301" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AI301" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AJ301" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AK301" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AL301" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AM301" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="AN301" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AO301" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP301" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="AQ301" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR301" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="AS301" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="AT301" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="AU301" t="inlineStr">
+        <is>
+          <t>8.05</t>
+        </is>
+      </c>
+      <c r="AV301" t="inlineStr">
+        <is>
+          <t>4471.03</t>
+        </is>
+      </c>
+      <c r="AW301" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AX301" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AY301" t="inlineStr">
+        <is>
+          <t>3634.20</t>
+        </is>
+      </c>
+      <c r="AZ301" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="BA301" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="BB301" t="inlineStr">
+        <is>
+          <t>12869.75</t>
+        </is>
+      </c>
+      <c r="BC301" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="BD301" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BE301" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BF301" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="BG301" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BH301" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="BI301" t="inlineStr">
+        <is>
+          <t>140649476</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>2023-07-04 17:58:50</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>21.3</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>25.6</t>
+        </is>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>17.1</t>
+        </is>
+      </c>
+      <c r="E302" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F302" t="inlineStr">
+        <is>
+          <t>24.1</t>
+        </is>
+      </c>
+      <c r="G302" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H302" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="I302" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J302" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="L302" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M302" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N302" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="O302" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="P302" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q302" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R302" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S302" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T302" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U302" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V302" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="W302" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="X302" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Y302" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z302" t="inlineStr">
+        <is>
+          <t>10.72</t>
+        </is>
+      </c>
+      <c r="AB302" t="inlineStr">
+        <is>
+          <t>000000</t>
+        </is>
+      </c>
+      <c r="AC302" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="AE302" t="inlineStr">
+        <is>
+          <t>21.2</t>
+        </is>
+      </c>
+      <c r="AF302" t="inlineStr">
+        <is>
+          <t>25.6</t>
+        </is>
+      </c>
+      <c r="AG302" t="inlineStr">
+        <is>
+          <t>17.1</t>
+        </is>
+      </c>
+      <c r="AH302" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AI302" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AJ302" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AK302" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AL302" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AM302" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="AN302" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AO302" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP302" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="AQ302" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR302" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="AS302" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="AT302" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="AU302" t="inlineStr">
+        <is>
+          <t>8.11</t>
+        </is>
+      </c>
+      <c r="AV302" t="inlineStr">
+        <is>
+          <t>4471.61</t>
+        </is>
+      </c>
+      <c r="AW302" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AX302" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AY302" t="inlineStr">
+        <is>
+          <t>3634.20</t>
+        </is>
+      </c>
+      <c r="AZ302" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="BA302" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="BB302" t="inlineStr">
+        <is>
+          <t>12869.77</t>
+        </is>
+      </c>
+      <c r="BC302" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="BD302" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BE302" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BF302" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="BG302" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BH302" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="BI302" t="inlineStr">
+        <is>
+          <t>140649476</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>2023-07-06 20:15:37</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>24.1</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>25.6</t>
+        </is>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>21.2</t>
+        </is>
+      </c>
+      <c r="E303" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F303" t="inlineStr">
+        <is>
+          <t>23.8</t>
+        </is>
+      </c>
+      <c r="G303" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H303" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="I303" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J303" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="L303" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M303" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N303" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="O303" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="P303" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q303" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R303" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S303" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T303" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U303" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V303" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="W303" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="X303" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Y303" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z303" t="inlineStr">
+        <is>
+          <t>12.68</t>
+        </is>
+      </c>
+      <c r="AA303" t="inlineStr"/>
+      <c r="AB303" t="inlineStr">
+        <is>
+          <t>000000</t>
+        </is>
+      </c>
+      <c r="AC303" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="AD303" t="inlineStr"/>
+      <c r="AE303" t="inlineStr">
+        <is>
+          <t>24.1</t>
+        </is>
+      </c>
+      <c r="AF303" t="inlineStr">
+        <is>
+          <t>25.5</t>
+        </is>
+      </c>
+      <c r="AG303" t="inlineStr">
+        <is>
+          <t>21.2</t>
+        </is>
+      </c>
+      <c r="AH303" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AI303" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AJ303" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AK303" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AL303" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AM303" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="AN303" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AO303" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP303" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="AQ303" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR303" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="AS303" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="AT303" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="AU303" t="inlineStr">
+        <is>
+          <t>8.13</t>
+        </is>
+      </c>
+      <c r="AV303" t="inlineStr">
+        <is>
+          <t>4472.13</t>
+        </is>
+      </c>
+      <c r="AW303" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AX303" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AY303" t="inlineStr">
+        <is>
+          <t>3634.20</t>
+        </is>
+      </c>
+      <c r="AZ303" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="BA303" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="BB303" t="inlineStr">
+        <is>
+          <t>12869.78</t>
+        </is>
+      </c>
+      <c r="BC303" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="BD303" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BE303" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BF303" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="BG303" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BH303" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="BI303" t="inlineStr">
         <is>
           <t>140649476</t>
         </is>

--- a/SampleData.xlsx
+++ b/SampleData.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BI303"/>
+  <dimension ref="A1:BI306"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
@@ -80865,7 +80865,6 @@
           <t>12.68</t>
         </is>
       </c>
-      <c r="AA303" t="inlineStr"/>
       <c r="AB303" t="inlineStr">
         <is>
           <t>000000</t>
@@ -80876,7 +80875,6 @@
           <t>000</t>
         </is>
       </c>
-      <c r="AD303" t="inlineStr"/>
       <c r="AE303" t="inlineStr">
         <is>
           <t>24.1</t>
@@ -81028,6 +81026,899 @@
         </is>
       </c>
       <c r="BI303" t="inlineStr">
+        <is>
+          <t>140649476</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>2023-07-12 10:45:00</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>25.2</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>26.7</t>
+        </is>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>23.7</t>
+        </is>
+      </c>
+      <c r="E304" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F304" t="inlineStr">
+        <is>
+          <t>24.2</t>
+        </is>
+      </c>
+      <c r="G304" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H304" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="I304" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J304" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="L304" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="M304" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N304" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="O304" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="P304" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q304" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R304" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S304" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T304" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U304" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V304" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="W304" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="X304" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Y304" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z304" t="inlineStr">
+        <is>
+          <t>9.46</t>
+        </is>
+      </c>
+      <c r="AB304" t="inlineStr">
+        <is>
+          <t>000000</t>
+        </is>
+      </c>
+      <c r="AC304" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="AE304" t="inlineStr">
+        <is>
+          <t>25.1</t>
+        </is>
+      </c>
+      <c r="AF304" t="inlineStr">
+        <is>
+          <t>26.7</t>
+        </is>
+      </c>
+      <c r="AG304" t="inlineStr">
+        <is>
+          <t>23.8</t>
+        </is>
+      </c>
+      <c r="AH304" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AI304" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AJ304" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AK304" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AL304" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AM304" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="AN304" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AO304" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP304" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="AQ304" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR304" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="AS304" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="AT304" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="AU304" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="AV304" t="inlineStr">
+        <is>
+          <t>4473.60</t>
+        </is>
+      </c>
+      <c r="AW304" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AX304" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AY304" t="inlineStr">
+        <is>
+          <t>3634.20</t>
+        </is>
+      </c>
+      <c r="AZ304" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="BA304" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="BB304" t="inlineStr">
+        <is>
+          <t>12870.25</t>
+        </is>
+      </c>
+      <c r="BC304" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="BD304" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BE304" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BF304" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="BG304" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BH304" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="BI304" t="inlineStr">
+        <is>
+          <t>140649476</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>2023-07-13 12:41:36</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>27.5</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>26.7</t>
+        </is>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>25.9</t>
+        </is>
+      </c>
+      <c r="E305" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F305" t="inlineStr">
+        <is>
+          <t>24.9</t>
+        </is>
+      </c>
+      <c r="G305" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H305" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="I305" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J305" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="L305" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M305" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N305" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="O305" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="P305" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q305" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R305" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S305" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T305" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U305" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V305" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="W305" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="X305" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Y305" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z305" t="inlineStr">
+        <is>
+          <t>8.69</t>
+        </is>
+      </c>
+      <c r="AB305" t="inlineStr">
+        <is>
+          <t>000000</t>
+        </is>
+      </c>
+      <c r="AC305" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="AE305" t="inlineStr">
+        <is>
+          <t>27.3</t>
+        </is>
+      </c>
+      <c r="AF305" t="inlineStr">
+        <is>
+          <t>26.9</t>
+        </is>
+      </c>
+      <c r="AG305" t="inlineStr">
+        <is>
+          <t>26.1</t>
+        </is>
+      </c>
+      <c r="AH305" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AI305" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AJ305" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AK305" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AL305" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AM305" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="AN305" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AO305" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP305" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="AQ305" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR305" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="AS305" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="AT305" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="AU305" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="AV305" t="inlineStr">
+        <is>
+          <t>4473.90</t>
+        </is>
+      </c>
+      <c r="AW305" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AX305" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AY305" t="inlineStr">
+        <is>
+          <t>3634.20</t>
+        </is>
+      </c>
+      <c r="AZ305" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="BA305" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="BB305" t="inlineStr">
+        <is>
+          <t>12870.46</t>
+        </is>
+      </c>
+      <c r="BC305" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="BD305" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BE305" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BF305" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="BG305" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BH305" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="BI305" t="inlineStr">
+        <is>
+          <t>140648452</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>2023-07-14 10:23:56</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>24.8</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>26.9</t>
+        </is>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>21.5</t>
+        </is>
+      </c>
+      <c r="E306" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F306" t="inlineStr">
+        <is>
+          <t>24.4</t>
+        </is>
+      </c>
+      <c r="G306" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H306" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="I306" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J306" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="L306" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M306" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N306" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="O306" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="P306" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q306" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R306" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S306" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T306" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U306" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V306" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="W306" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="X306" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Y306" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z306" t="inlineStr">
+        <is>
+          <t>12.01</t>
+        </is>
+      </c>
+      <c r="AA306" t="inlineStr"/>
+      <c r="AB306" t="inlineStr">
+        <is>
+          <t>000000</t>
+        </is>
+      </c>
+      <c r="AC306" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="AD306" t="inlineStr"/>
+      <c r="AE306" t="inlineStr">
+        <is>
+          <t>24.7</t>
+        </is>
+      </c>
+      <c r="AF306" t="inlineStr">
+        <is>
+          <t>26.9</t>
+        </is>
+      </c>
+      <c r="AG306" t="inlineStr">
+        <is>
+          <t>21.6</t>
+        </is>
+      </c>
+      <c r="AH306" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AI306" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AJ306" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AK306" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AL306" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AM306" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="AN306" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AO306" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP306" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="AQ306" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR306" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="AS306" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="AT306" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="AU306" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="AV306" t="inlineStr">
+        <is>
+          <t>4474.13</t>
+        </is>
+      </c>
+      <c r="AW306" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AX306" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AY306" t="inlineStr">
+        <is>
+          <t>3634.20</t>
+        </is>
+      </c>
+      <c r="AZ306" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="BA306" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="BB306" t="inlineStr">
+        <is>
+          <t>12870.46</t>
+        </is>
+      </c>
+      <c r="BC306" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="BD306" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BE306" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BF306" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="BG306" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BH306" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="BI306" t="inlineStr">
         <is>
           <t>140649476</t>
         </is>

--- a/SampleData.xlsx
+++ b/SampleData.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BI306"/>
+  <dimension ref="A1:BI307"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
@@ -81756,7 +81756,6 @@
           <t>12.01</t>
         </is>
       </c>
-      <c r="AA306" t="inlineStr"/>
       <c r="AB306" t="inlineStr">
         <is>
           <t>000000</t>
@@ -81767,7 +81766,6 @@
           <t>000</t>
         </is>
       </c>
-      <c r="AD306" t="inlineStr"/>
       <c r="AE306" t="inlineStr">
         <is>
           <t>24.7</t>
@@ -81921,6 +81919,305 @@
       <c r="BI306" t="inlineStr">
         <is>
           <t>140649476</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>2023-07-15 10:59:11</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>26.5</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>26.6</t>
+        </is>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>25.5</t>
+        </is>
+      </c>
+      <c r="E307" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F307" t="inlineStr">
+        <is>
+          <t>24.3</t>
+        </is>
+      </c>
+      <c r="G307" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H307" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="I307" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J307" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="L307" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M307" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N307" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="O307" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="P307" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q307" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R307" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S307" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T307" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U307" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V307" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="W307" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="X307" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Y307" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z307" t="inlineStr">
+        <is>
+          <t>11.50</t>
+        </is>
+      </c>
+      <c r="AA307" t="inlineStr"/>
+      <c r="AB307" t="inlineStr">
+        <is>
+          <t>000000</t>
+        </is>
+      </c>
+      <c r="AC307" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="AD307" t="inlineStr"/>
+      <c r="AE307" t="inlineStr">
+        <is>
+          <t>26.6</t>
+        </is>
+      </c>
+      <c r="AF307" t="inlineStr">
+        <is>
+          <t>26.7</t>
+        </is>
+      </c>
+      <c r="AG307" t="inlineStr">
+        <is>
+          <t>25.5</t>
+        </is>
+      </c>
+      <c r="AH307" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AI307" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AJ307" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AK307" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AL307" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AM307" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="AN307" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AO307" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP307" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="AQ307" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR307" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="AS307" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="AT307" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="AU307" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="AV307" t="inlineStr">
+        <is>
+          <t>4474.39</t>
+        </is>
+      </c>
+      <c r="AW307" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AX307" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AY307" t="inlineStr">
+        <is>
+          <t>3634.20</t>
+        </is>
+      </c>
+      <c r="AZ307" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="BA307" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="BB307" t="inlineStr">
+        <is>
+          <t>12870.49</t>
+        </is>
+      </c>
+      <c r="BC307" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="BD307" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BE307" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BF307" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="BG307" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BH307" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="BI307" t="inlineStr">
+        <is>
+          <t>140648452</t>
         </is>
       </c>
     </row>

--- a/SampleData.xlsx
+++ b/SampleData.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BI307"/>
+  <dimension ref="A1:BI313"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
@@ -82053,7 +82053,6 @@
           <t>11.50</t>
         </is>
       </c>
-      <c r="AA307" t="inlineStr"/>
       <c r="AB307" t="inlineStr">
         <is>
           <t>000000</t>
@@ -82064,7 +82063,6 @@
           <t>000</t>
         </is>
       </c>
-      <c r="AD307" t="inlineStr"/>
       <c r="AE307" t="inlineStr">
         <is>
           <t>26.6</t>
@@ -82218,6 +82216,1790 @@
       <c r="BI307" t="inlineStr">
         <is>
           <t>140648452</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>2023-07-19 19:43:21</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>27.8</t>
+        </is>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>22.5</t>
+        </is>
+      </c>
+      <c r="E308" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F308" t="inlineStr">
+        <is>
+          <t>24.5</t>
+        </is>
+      </c>
+      <c r="G308" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H308" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="I308" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J308" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="L308" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M308" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N308" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="O308" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="P308" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q308" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R308" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S308" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T308" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U308" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V308" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="W308" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="X308" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Y308" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z308" t="inlineStr">
+        <is>
+          <t>10.73</t>
+        </is>
+      </c>
+      <c r="AB308" t="inlineStr">
+        <is>
+          <t>000000</t>
+        </is>
+      </c>
+      <c r="AC308" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="AE308" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="AF308" t="inlineStr">
+        <is>
+          <t>27.7</t>
+        </is>
+      </c>
+      <c r="AG308" t="inlineStr">
+        <is>
+          <t>22.6</t>
+        </is>
+      </c>
+      <c r="AH308" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AI308" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AJ308" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AK308" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AL308" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AM308" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="AN308" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AO308" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP308" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="AQ308" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR308" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="AS308" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="AT308" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="AU308" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="AV308" t="inlineStr">
+        <is>
+          <t>4475.60</t>
+        </is>
+      </c>
+      <c r="AW308" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AX308" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AY308" t="inlineStr">
+        <is>
+          <t>3634.20</t>
+        </is>
+      </c>
+      <c r="AZ308" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="BA308" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="BB308" t="inlineStr">
+        <is>
+          <t>12871.02</t>
+        </is>
+      </c>
+      <c r="BC308" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="BD308" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BE308" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BF308" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="BG308" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BH308" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="BI308" t="inlineStr">
+        <is>
+          <t>140649476</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>2023-07-22 19:48:07</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>23.9</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>26.9</t>
+        </is>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>18.9</t>
+        </is>
+      </c>
+      <c r="E309" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F309" t="inlineStr">
+        <is>
+          <t>24.1</t>
+        </is>
+      </c>
+      <c r="G309" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H309" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="I309" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J309" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="L309" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M309" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="N309" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="O309" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="P309" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q309" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R309" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S309" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T309" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U309" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V309" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="W309" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="X309" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Y309" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z309" t="inlineStr">
+        <is>
+          <t>11.81</t>
+        </is>
+      </c>
+      <c r="AB309" t="inlineStr">
+        <is>
+          <t>000000</t>
+        </is>
+      </c>
+      <c r="AC309" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="AE309" t="inlineStr">
+        <is>
+          <t>23.9</t>
+        </is>
+      </c>
+      <c r="AF309" t="inlineStr">
+        <is>
+          <t>27.1</t>
+        </is>
+      </c>
+      <c r="AG309" t="inlineStr">
+        <is>
+          <t>18.9</t>
+        </is>
+      </c>
+      <c r="AH309" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AI309" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AJ309" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AK309" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AL309" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AM309" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="AN309" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AO309" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP309" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="AQ309" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR309" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="AS309" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="AT309" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="AU309" t="inlineStr">
+        <is>
+          <t>7.87</t>
+        </is>
+      </c>
+      <c r="AV309" t="inlineStr">
+        <is>
+          <t>4476.34</t>
+        </is>
+      </c>
+      <c r="AW309" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AX309" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AY309" t="inlineStr">
+        <is>
+          <t>3634.20</t>
+        </is>
+      </c>
+      <c r="AZ309" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="BA309" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="BB309" t="inlineStr">
+        <is>
+          <t>12871.04</t>
+        </is>
+      </c>
+      <c r="BC309" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="BD309" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BE309" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BF309" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="BG309" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BH309" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="BI309" t="inlineStr">
+        <is>
+          <t>140649476</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>2023-07-22 19:48:50</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>23.8</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>18.9</t>
+        </is>
+      </c>
+      <c r="E310" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F310" t="inlineStr">
+        <is>
+          <t>24.1</t>
+        </is>
+      </c>
+      <c r="G310" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H310" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="I310" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J310" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="L310" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M310" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N310" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="O310" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="P310" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q310" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R310" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S310" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T310" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U310" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V310" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="W310" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="X310" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Y310" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z310" t="inlineStr">
+        <is>
+          <t>11.81</t>
+        </is>
+      </c>
+      <c r="AB310" t="inlineStr">
+        <is>
+          <t>000000</t>
+        </is>
+      </c>
+      <c r="AC310" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="AE310" t="inlineStr">
+        <is>
+          <t>23.7</t>
+        </is>
+      </c>
+      <c r="AF310" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="AG310" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="AH310" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AI310" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AJ310" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AK310" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AL310" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AM310" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="AN310" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AO310" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP310" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="AQ310" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR310" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="AS310" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="AT310" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="AU310" t="inlineStr">
+        <is>
+          <t>7.87</t>
+        </is>
+      </c>
+      <c r="AV310" t="inlineStr">
+        <is>
+          <t>4476.34</t>
+        </is>
+      </c>
+      <c r="AW310" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AX310" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AY310" t="inlineStr">
+        <is>
+          <t>3634.20</t>
+        </is>
+      </c>
+      <c r="AZ310" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="BA310" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="BB310" t="inlineStr">
+        <is>
+          <t>12871.04</t>
+        </is>
+      </c>
+      <c r="BC310" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="BD310" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BE310" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BF310" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="BG310" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BH310" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="BI310" t="inlineStr">
+        <is>
+          <t>140649476</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>2023-07-22 19:49:12</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>23.8</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>27.2</t>
+        </is>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>18.9</t>
+        </is>
+      </c>
+      <c r="E311" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F311" t="inlineStr">
+        <is>
+          <t>24.1</t>
+        </is>
+      </c>
+      <c r="G311" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H311" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="I311" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J311" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="L311" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M311" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N311" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="O311" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="P311" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q311" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R311" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S311" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T311" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U311" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V311" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="W311" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="X311" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Y311" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z311" t="inlineStr">
+        <is>
+          <t>11.81</t>
+        </is>
+      </c>
+      <c r="AB311" t="inlineStr">
+        <is>
+          <t>000000</t>
+        </is>
+      </c>
+      <c r="AC311" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="AE311" t="inlineStr">
+        <is>
+          <t>23.8</t>
+        </is>
+      </c>
+      <c r="AF311" t="inlineStr">
+        <is>
+          <t>27.2</t>
+        </is>
+      </c>
+      <c r="AG311" t="inlineStr">
+        <is>
+          <t>18.8</t>
+        </is>
+      </c>
+      <c r="AH311" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AI311" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AJ311" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AK311" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AL311" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AM311" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="AN311" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AO311" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP311" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="AQ311" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR311" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="AS311" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="AT311" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="AU311" t="inlineStr">
+        <is>
+          <t>7.87</t>
+        </is>
+      </c>
+      <c r="AV311" t="inlineStr">
+        <is>
+          <t>4476.34</t>
+        </is>
+      </c>
+      <c r="AW311" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AX311" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AY311" t="inlineStr">
+        <is>
+          <t>3634.20</t>
+        </is>
+      </c>
+      <c r="AZ311" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="BA311" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="BB311" t="inlineStr">
+        <is>
+          <t>12871.04</t>
+        </is>
+      </c>
+      <c r="BC311" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="BD311" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BE311" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BF311" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="BG311" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BH311" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="BI311" t="inlineStr">
+        <is>
+          <t>140649476</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>2023-07-23 10:28:08</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>23.8</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="E312" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F312" t="inlineStr">
+        <is>
+          <t>23.8</t>
+        </is>
+      </c>
+      <c r="G312" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H312" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="I312" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J312" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="L312" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M312" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N312" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="O312" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="P312" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q312" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R312" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S312" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T312" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U312" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V312" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="W312" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="X312" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Y312" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z312" t="inlineStr">
+        <is>
+          <t>11.18</t>
+        </is>
+      </c>
+      <c r="AB312" t="inlineStr">
+        <is>
+          <t>000000</t>
+        </is>
+      </c>
+      <c r="AC312" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="AE312" t="inlineStr">
+        <is>
+          <t>23.9</t>
+        </is>
+      </c>
+      <c r="AF312" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="AG312" t="inlineStr">
+        <is>
+          <t>20.9</t>
+        </is>
+      </c>
+      <c r="AH312" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AI312" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AJ312" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AK312" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AL312" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AM312" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="AN312" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AO312" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP312" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="AQ312" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR312" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="AS312" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="AT312" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="AU312" t="inlineStr">
+        <is>
+          <t>7.74</t>
+        </is>
+      </c>
+      <c r="AV312" t="inlineStr">
+        <is>
+          <t>4476.50</t>
+        </is>
+      </c>
+      <c r="AW312" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AX312" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AY312" t="inlineStr">
+        <is>
+          <t>3634.20</t>
+        </is>
+      </c>
+      <c r="AZ312" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="BA312" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="BB312" t="inlineStr">
+        <is>
+          <t>12871.04</t>
+        </is>
+      </c>
+      <c r="BC312" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="BD312" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BE312" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BF312" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="BG312" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BH312" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="BI312" t="inlineStr">
+        <is>
+          <t>140649476</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>2023-07-23 10:42:05</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>23.9</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>26.3</t>
+        </is>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="E313" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F313" t="inlineStr">
+        <is>
+          <t>23.8</t>
+        </is>
+      </c>
+      <c r="G313" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H313" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="I313" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J313" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="L313" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M313" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N313" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="O313" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="P313" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q313" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R313" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S313" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T313" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U313" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V313" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="W313" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="X313" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Y313" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z313" t="inlineStr">
+        <is>
+          <t>10.97</t>
+        </is>
+      </c>
+      <c r="AA313" t="inlineStr"/>
+      <c r="AB313" t="inlineStr">
+        <is>
+          <t>000000</t>
+        </is>
+      </c>
+      <c r="AC313" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="AD313" t="inlineStr"/>
+      <c r="AE313" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="AF313" t="inlineStr">
+        <is>
+          <t>26.2</t>
+        </is>
+      </c>
+      <c r="AG313" t="inlineStr">
+        <is>
+          <t>20.8</t>
+        </is>
+      </c>
+      <c r="AH313" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AI313" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AJ313" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AK313" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AL313" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AM313" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="AN313" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AO313" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP313" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="AQ313" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR313" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="AS313" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="AT313" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="AU313" t="inlineStr">
+        <is>
+          <t>7.74</t>
+        </is>
+      </c>
+      <c r="AV313" t="inlineStr">
+        <is>
+          <t>4476.50</t>
+        </is>
+      </c>
+      <c r="AW313" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AX313" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AY313" t="inlineStr">
+        <is>
+          <t>3634.20</t>
+        </is>
+      </c>
+      <c r="AZ313" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="BA313" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="BB313" t="inlineStr">
+        <is>
+          <t>12871.04</t>
+        </is>
+      </c>
+      <c r="BC313" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="BD313" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BE313" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BF313" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="BG313" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BH313" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="BI313" t="inlineStr">
+        <is>
+          <t>140649476</t>
         </is>
       </c>
     </row>

--- a/SampleData.xlsx
+++ b/SampleData.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="41280" windowHeight="12900" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sheet_name" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="sheet_name" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BI313"/>
+  <dimension ref="A1:BI317"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
@@ -83835,7 +83835,6 @@
           <t>10.97</t>
         </is>
       </c>
-      <c r="AA313" t="inlineStr"/>
       <c r="AB313" t="inlineStr">
         <is>
           <t>000000</t>
@@ -83846,7 +83845,6 @@
           <t>000</t>
         </is>
       </c>
-      <c r="AD313" t="inlineStr"/>
       <c r="AE313" t="inlineStr">
         <is>
           <t>24.0</t>
@@ -83998,6 +83996,1196 @@
         </is>
       </c>
       <c r="BI313" t="inlineStr">
+        <is>
+          <t>140649476</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>2023-07-23 19:31:49</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>23.3</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>17.3</t>
+        </is>
+      </c>
+      <c r="E314" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F314" t="inlineStr">
+        <is>
+          <t>24.1</t>
+        </is>
+      </c>
+      <c r="G314" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H314" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="I314" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J314" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="L314" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M314" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N314" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="O314" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="P314" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q314" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R314" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S314" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T314" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U314" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V314" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="W314" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="X314" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Y314" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z314" t="inlineStr">
+        <is>
+          <t>11.36</t>
+        </is>
+      </c>
+      <c r="AB314" t="inlineStr">
+        <is>
+          <t>000000</t>
+        </is>
+      </c>
+      <c r="AC314" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="AE314" t="inlineStr">
+        <is>
+          <t>23.1</t>
+        </is>
+      </c>
+      <c r="AF314" t="inlineStr">
+        <is>
+          <t>25.9</t>
+        </is>
+      </c>
+      <c r="AG314" t="inlineStr">
+        <is>
+          <t>17.3</t>
+        </is>
+      </c>
+      <c r="AH314" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AI314" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AJ314" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AK314" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AL314" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AM314" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="AN314" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AO314" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP314" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="AQ314" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR314" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="AS314" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="AT314" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="AU314" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="AV314" t="inlineStr">
+        <is>
+          <t>4476.59</t>
+        </is>
+      </c>
+      <c r="AW314" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AX314" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AY314" t="inlineStr">
+        <is>
+          <t>3634.20</t>
+        </is>
+      </c>
+      <c r="AZ314" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="BA314" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="BB314" t="inlineStr">
+        <is>
+          <t>12871.04</t>
+        </is>
+      </c>
+      <c r="BC314" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="BD314" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BE314" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BF314" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="BG314" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BH314" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="BI314" t="inlineStr">
+        <is>
+          <t>140649476</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>2023-07-23 19:32:36</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>17.3</t>
+        </is>
+      </c>
+      <c r="E315" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F315" t="inlineStr">
+        <is>
+          <t>24.1</t>
+        </is>
+      </c>
+      <c r="G315" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H315" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="I315" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J315" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="L315" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M315" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N315" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="O315" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="P315" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q315" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R315" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S315" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T315" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U315" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V315" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="W315" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="X315" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Y315" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z315" t="inlineStr">
+        <is>
+          <t>11.36</t>
+        </is>
+      </c>
+      <c r="AB315" t="inlineStr">
+        <is>
+          <t>000000</t>
+        </is>
+      </c>
+      <c r="AC315" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="AE315" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="AF315" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="AG315" t="inlineStr">
+        <is>
+          <t>17.3</t>
+        </is>
+      </c>
+      <c r="AH315" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AI315" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AJ315" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AK315" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AL315" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AM315" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="AN315" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AO315" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP315" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="AQ315" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR315" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="AS315" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="AT315" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="AU315" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="AV315" t="inlineStr">
+        <is>
+          <t>4476.59</t>
+        </is>
+      </c>
+      <c r="AW315" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AX315" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AY315" t="inlineStr">
+        <is>
+          <t>3634.20</t>
+        </is>
+      </c>
+      <c r="AZ315" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="BA315" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="BB315" t="inlineStr">
+        <is>
+          <t>12871.04</t>
+        </is>
+      </c>
+      <c r="BC315" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="BD315" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BE315" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BF315" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="BG315" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BH315" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="BI315" t="inlineStr">
+        <is>
+          <t>140649476</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>2023-07-23 19:33:46</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>23.1</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>17.2</t>
+        </is>
+      </c>
+      <c r="E316" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F316" t="inlineStr">
+        <is>
+          <t>24.1</t>
+        </is>
+      </c>
+      <c r="G316" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H316" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="I316" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J316" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="L316" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M316" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N316" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="O316" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="P316" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q316" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R316" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S316" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T316" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U316" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V316" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="W316" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="X316" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Y316" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z316" t="inlineStr">
+        <is>
+          <t>11.36</t>
+        </is>
+      </c>
+      <c r="AB316" t="inlineStr">
+        <is>
+          <t>000000</t>
+        </is>
+      </c>
+      <c r="AC316" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="AE316" t="inlineStr">
+        <is>
+          <t>22.9</t>
+        </is>
+      </c>
+      <c r="AF316" t="inlineStr">
+        <is>
+          <t>25.9</t>
+        </is>
+      </c>
+      <c r="AG316" t="inlineStr">
+        <is>
+          <t>17.3</t>
+        </is>
+      </c>
+      <c r="AH316" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AI316" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AJ316" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AK316" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AL316" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AM316" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="AN316" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AO316" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP316" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="AQ316" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR316" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="AS316" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="AT316" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="AU316" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="AV316" t="inlineStr">
+        <is>
+          <t>4476.59</t>
+        </is>
+      </c>
+      <c r="AW316" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AX316" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AY316" t="inlineStr">
+        <is>
+          <t>3634.20</t>
+        </is>
+      </c>
+      <c r="AZ316" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="BA316" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="BB316" t="inlineStr">
+        <is>
+          <t>12871.04</t>
+        </is>
+      </c>
+      <c r="BC316" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="BD316" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BE316" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BF316" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="BG316" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BH316" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="BI316" t="inlineStr">
+        <is>
+          <t>140649476</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>2023-07-23 19:39:03</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>23.1</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>25.9</t>
+        </is>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>17.2</t>
+        </is>
+      </c>
+      <c r="E317" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F317" t="inlineStr">
+        <is>
+          <t>24.1</t>
+        </is>
+      </c>
+      <c r="G317" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H317" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="I317" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J317" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="L317" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M317" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N317" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="O317" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="P317" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q317" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R317" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S317" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T317" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U317" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V317" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="W317" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="X317" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Y317" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z317" t="inlineStr">
+        <is>
+          <t>11.36</t>
+        </is>
+      </c>
+      <c r="AA317" t="inlineStr"/>
+      <c r="AB317" t="inlineStr">
+        <is>
+          <t>000000</t>
+        </is>
+      </c>
+      <c r="AC317" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="AD317" t="inlineStr"/>
+      <c r="AE317" t="inlineStr">
+        <is>
+          <t>23.1</t>
+        </is>
+      </c>
+      <c r="AF317" t="inlineStr">
+        <is>
+          <t>25.7</t>
+        </is>
+      </c>
+      <c r="AG317" t="inlineStr">
+        <is>
+          <t>17.2</t>
+        </is>
+      </c>
+      <c r="AH317" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AI317" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AJ317" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AK317" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AL317" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AM317" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="AN317" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AO317" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP317" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="AQ317" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR317" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="AS317" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="AT317" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="AU317" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="AV317" t="inlineStr">
+        <is>
+          <t>4476.59</t>
+        </is>
+      </c>
+      <c r="AW317" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AX317" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AY317" t="inlineStr">
+        <is>
+          <t>3634.20</t>
+        </is>
+      </c>
+      <c r="AZ317" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="BA317" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="BB317" t="inlineStr">
+        <is>
+          <t>12871.04</t>
+        </is>
+      </c>
+      <c r="BC317" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="BD317" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BE317" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BF317" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="BG317" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BH317" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="BI317" t="inlineStr">
         <is>
           <t>140649476</t>
         </is>

--- a/SampleData.xlsx
+++ b/SampleData.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BI317"/>
+  <dimension ref="A1:BI331"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
@@ -85023,7 +85023,6 @@
           <t>11.36</t>
         </is>
       </c>
-      <c r="AA317" t="inlineStr"/>
       <c r="AB317" t="inlineStr">
         <is>
           <t>000000</t>
@@ -85034,7 +85033,6 @@
           <t>000</t>
         </is>
       </c>
-      <c r="AD317" t="inlineStr"/>
       <c r="AE317" t="inlineStr">
         <is>
           <t>23.1</t>
@@ -85186,6 +85184,4166 @@
         </is>
       </c>
       <c r="BI317" t="inlineStr">
+        <is>
+          <t>140649476</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>2023-07-25 18:43:08</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>23.6</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>25.7</t>
+        </is>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="E318" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F318" t="inlineStr">
+        <is>
+          <t>24.3</t>
+        </is>
+      </c>
+      <c r="G318" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H318" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="I318" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J318" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="L318" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M318" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N318" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="O318" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="P318" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q318" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R318" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S318" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T318" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U318" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V318" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="W318" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="X318" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Y318" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z318" t="inlineStr">
+        <is>
+          <t>12.17</t>
+        </is>
+      </c>
+      <c r="AB318" t="inlineStr">
+        <is>
+          <t>000000</t>
+        </is>
+      </c>
+      <c r="AC318" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="AE318" t="inlineStr">
+        <is>
+          <t>23.5</t>
+        </is>
+      </c>
+      <c r="AF318" t="inlineStr">
+        <is>
+          <t>25.6</t>
+        </is>
+      </c>
+      <c r="AG318" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="AH318" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AI318" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AJ318" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AK318" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AL318" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AM318" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="AN318" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AO318" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP318" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="AQ318" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR318" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="AS318" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="AT318" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="AU318" t="inlineStr">
+        <is>
+          <t>7.82</t>
+        </is>
+      </c>
+      <c r="AV318" t="inlineStr">
+        <is>
+          <t>4477.10</t>
+        </is>
+      </c>
+      <c r="AW318" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AX318" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AY318" t="inlineStr">
+        <is>
+          <t>3634.20</t>
+        </is>
+      </c>
+      <c r="AZ318" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="BA318" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="BB318" t="inlineStr">
+        <is>
+          <t>12871.12</t>
+        </is>
+      </c>
+      <c r="BC318" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="BD318" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BE318" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BF318" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="BG318" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BH318" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="BI318" t="inlineStr">
+        <is>
+          <t>140649476</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>2023-07-28 19:00:31</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>26.9</t>
+        </is>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>21.7</t>
+        </is>
+      </c>
+      <c r="E319" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F319" t="inlineStr">
+        <is>
+          <t>24.1</t>
+        </is>
+      </c>
+      <c r="G319" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H319" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="I319" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J319" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="L319" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M319" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N319" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="O319" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="P319" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q319" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R319" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S319" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T319" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U319" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V319" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="W319" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="X319" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Y319" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z319" t="inlineStr">
+        <is>
+          <t>10.93</t>
+        </is>
+      </c>
+      <c r="AB319" t="inlineStr">
+        <is>
+          <t>000000</t>
+        </is>
+      </c>
+      <c r="AC319" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="AE319" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="AF319" t="inlineStr">
+        <is>
+          <t>26.9</t>
+        </is>
+      </c>
+      <c r="AG319" t="inlineStr">
+        <is>
+          <t>21.6</t>
+        </is>
+      </c>
+      <c r="AH319" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AI319" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AJ319" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AK319" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AL319" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AM319" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="AN319" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AO319" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP319" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="AQ319" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR319" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="AS319" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="AT319" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="AU319" t="inlineStr">
+        <is>
+          <t>7.79</t>
+        </is>
+      </c>
+      <c r="AV319" t="inlineStr">
+        <is>
+          <t>4477.89</t>
+        </is>
+      </c>
+      <c r="AW319" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AX319" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AY319" t="inlineStr">
+        <is>
+          <t>3634.20</t>
+        </is>
+      </c>
+      <c r="AZ319" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="BA319" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="BB319" t="inlineStr">
+        <is>
+          <t>12871.29</t>
+        </is>
+      </c>
+      <c r="BC319" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="BD319" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BE319" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BF319" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="BG319" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BH319" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="BI319" t="inlineStr">
+        <is>
+          <t>140649476</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>2023-07-29 11:43:57</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>25.6</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>26.3</t>
+        </is>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>23.8</t>
+        </is>
+      </c>
+      <c r="E320" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F320" t="inlineStr">
+        <is>
+          <t>23.3</t>
+        </is>
+      </c>
+      <c r="G320" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H320" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="I320" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J320" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="L320" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M320" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N320" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="O320" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="P320" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q320" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R320" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S320" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T320" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U320" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V320" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="W320" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="X320" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Y320" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z320" t="inlineStr">
+        <is>
+          <t>10.86</t>
+        </is>
+      </c>
+      <c r="AB320" t="inlineStr">
+        <is>
+          <t>000000</t>
+        </is>
+      </c>
+      <c r="AC320" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="AE320" t="inlineStr">
+        <is>
+          <t>25.5</t>
+        </is>
+      </c>
+      <c r="AF320" t="inlineStr">
+        <is>
+          <t>26.3</t>
+        </is>
+      </c>
+      <c r="AG320" t="inlineStr">
+        <is>
+          <t>23.8</t>
+        </is>
+      </c>
+      <c r="AH320" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AI320" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AJ320" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AK320" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AL320" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AM320" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="AN320" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AO320" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP320" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="AQ320" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR320" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="AS320" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="AT320" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="AU320" t="inlineStr">
+        <is>
+          <t>7.67</t>
+        </is>
+      </c>
+      <c r="AV320" t="inlineStr">
+        <is>
+          <t>4478.06</t>
+        </is>
+      </c>
+      <c r="AW320" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AX320" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AY320" t="inlineStr">
+        <is>
+          <t>3634.20</t>
+        </is>
+      </c>
+      <c r="AZ320" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="BA320" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="BB320" t="inlineStr">
+        <is>
+          <t>12871.30</t>
+        </is>
+      </c>
+      <c r="BC320" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="BD320" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BE320" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BF320" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="BG320" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BH320" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="BI320" t="inlineStr">
+        <is>
+          <t>140649476</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>2023-07-30 20:30:10</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>25.2</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>25.7</t>
+        </is>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>22.6</t>
+        </is>
+      </c>
+      <c r="E321" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F321" t="inlineStr">
+        <is>
+          <t>24.2</t>
+        </is>
+      </c>
+      <c r="G321" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H321" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="I321" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J321" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="L321" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M321" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N321" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="O321" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="P321" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q321" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R321" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S321" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T321" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U321" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V321" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="W321" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="X321" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Y321" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z321" t="inlineStr">
+        <is>
+          <t>12.31</t>
+        </is>
+      </c>
+      <c r="AB321" t="inlineStr">
+        <is>
+          <t>000000</t>
+        </is>
+      </c>
+      <c r="AC321" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="AE321" t="inlineStr">
+        <is>
+          <t>25.2</t>
+        </is>
+      </c>
+      <c r="AF321" t="inlineStr">
+        <is>
+          <t>25.8</t>
+        </is>
+      </c>
+      <c r="AG321" t="inlineStr">
+        <is>
+          <t>22.6</t>
+        </is>
+      </c>
+      <c r="AH321" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AI321" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AJ321" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AK321" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AL321" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AM321" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="AN321" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AO321" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP321" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="AQ321" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR321" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="AS321" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="AT321" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="AU321" t="inlineStr">
+        <is>
+          <t>7.72</t>
+        </is>
+      </c>
+      <c r="AV321" t="inlineStr">
+        <is>
+          <t>4478.42</t>
+        </is>
+      </c>
+      <c r="AW321" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AX321" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AY321" t="inlineStr">
+        <is>
+          <t>3634.20</t>
+        </is>
+      </c>
+      <c r="AZ321" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="BA321" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="BB321" t="inlineStr">
+        <is>
+          <t>12871.35</t>
+        </is>
+      </c>
+      <c r="BC321" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="BD321" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BE321" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BF321" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="BG321" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BH321" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="BI321" t="inlineStr">
+        <is>
+          <t>140649476</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>2023-08-04 18:02:38</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>23.6</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>25.2</t>
+        </is>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>19.9</t>
+        </is>
+      </c>
+      <c r="E322" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F322" t="inlineStr">
+        <is>
+          <t>23.9</t>
+        </is>
+      </c>
+      <c r="G322" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H322" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="I322" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J322" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="L322" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M322" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N322" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="O322" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="P322" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q322" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R322" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S322" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T322" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U322" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V322" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="W322" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="X322" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Y322" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z322" t="inlineStr">
+        <is>
+          <t>13.40</t>
+        </is>
+      </c>
+      <c r="AB322" t="inlineStr">
+        <is>
+          <t>000000</t>
+        </is>
+      </c>
+      <c r="AC322" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="AE322" t="inlineStr">
+        <is>
+          <t>23.5</t>
+        </is>
+      </c>
+      <c r="AF322" t="inlineStr">
+        <is>
+          <t>25.2</t>
+        </is>
+      </c>
+      <c r="AG322" t="inlineStr">
+        <is>
+          <t>19.9</t>
+        </is>
+      </c>
+      <c r="AH322" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AI322" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AJ322" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AK322" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AL322" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AM322" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="AN322" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AO322" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP322" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="AQ322" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR322" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="AS322" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="AT322" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="AU322" t="inlineStr">
+        <is>
+          <t>7.70</t>
+        </is>
+      </c>
+      <c r="AV322" t="inlineStr">
+        <is>
+          <t>4479.64</t>
+        </is>
+      </c>
+      <c r="AW322" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AX322" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AY322" t="inlineStr">
+        <is>
+          <t>3634.20</t>
+        </is>
+      </c>
+      <c r="AZ322" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="BA322" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="BB322" t="inlineStr">
+        <is>
+          <t>12871.38</t>
+        </is>
+      </c>
+      <c r="BC322" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="BD322" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BE322" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BF322" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="BG322" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BH322" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="BI322" t="inlineStr">
+        <is>
+          <t>140649476</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>2023-08-10 17:18:51</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>23.4</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>25.6</t>
+        </is>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>20.7</t>
+        </is>
+      </c>
+      <c r="E323" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F323" t="inlineStr">
+        <is>
+          <t>24.4</t>
+        </is>
+      </c>
+      <c r="G323" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H323" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="I323" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J323" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="L323" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M323" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N323" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="O323" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="P323" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q323" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R323" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S323" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T323" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U323" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V323" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="W323" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="X323" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Y323" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z323" t="inlineStr">
+        <is>
+          <t>11.56</t>
+        </is>
+      </c>
+      <c r="AB323" t="inlineStr">
+        <is>
+          <t>000000</t>
+        </is>
+      </c>
+      <c r="AC323" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="AE323" t="inlineStr">
+        <is>
+          <t>23.5</t>
+        </is>
+      </c>
+      <c r="AF323" t="inlineStr">
+        <is>
+          <t>25.8</t>
+        </is>
+      </c>
+      <c r="AG323" t="inlineStr">
+        <is>
+          <t>20.6</t>
+        </is>
+      </c>
+      <c r="AH323" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AI323" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AJ323" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AK323" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AL323" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AM323" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="AN323" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AO323" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP323" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="AQ323" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR323" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="AS323" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="AT323" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="AU323" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="AV323" t="inlineStr">
+        <is>
+          <t>4481.23</t>
+        </is>
+      </c>
+      <c r="AW323" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AX323" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AY323" t="inlineStr">
+        <is>
+          <t>3634.20</t>
+        </is>
+      </c>
+      <c r="AZ323" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="BA323" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="BB323" t="inlineStr">
+        <is>
+          <t>12872.06</t>
+        </is>
+      </c>
+      <c r="BC323" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="BD323" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BE323" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BF323" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="BG323" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BH323" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="BI323" t="inlineStr">
+        <is>
+          <t>140649476</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>2023-08-10 17:20:53</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>23.5</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>20.8</t>
+        </is>
+      </c>
+      <c r="E324" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F324" t="inlineStr">
+        <is>
+          <t>24.4</t>
+        </is>
+      </c>
+      <c r="G324" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H324" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="I324" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J324" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="L324" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M324" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N324" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="O324" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="P324" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q324" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R324" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S324" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T324" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U324" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V324" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="W324" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="X324" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Y324" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z324" t="inlineStr">
+        <is>
+          <t>11.56</t>
+        </is>
+      </c>
+      <c r="AB324" t="inlineStr">
+        <is>
+          <t>000000</t>
+        </is>
+      </c>
+      <c r="AC324" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="AE324" t="inlineStr">
+        <is>
+          <t>23.5</t>
+        </is>
+      </c>
+      <c r="AF324" t="inlineStr">
+        <is>
+          <t>25.9</t>
+        </is>
+      </c>
+      <c r="AG324" t="inlineStr">
+        <is>
+          <t>20.9</t>
+        </is>
+      </c>
+      <c r="AH324" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AI324" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AJ324" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AK324" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AL324" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AM324" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="AN324" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AO324" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP324" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="AQ324" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR324" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="AS324" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="AT324" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="AU324" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="AV324" t="inlineStr">
+        <is>
+          <t>4481.23</t>
+        </is>
+      </c>
+      <c r="AW324" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AX324" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AY324" t="inlineStr">
+        <is>
+          <t>3634.20</t>
+        </is>
+      </c>
+      <c r="AZ324" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="BA324" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="BB324" t="inlineStr">
+        <is>
+          <t>12872.06</t>
+        </is>
+      </c>
+      <c r="BC324" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="BD324" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BE324" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BF324" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="BG324" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BH324" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="BI324" t="inlineStr">
+        <is>
+          <t>140649476</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>2023-08-11 21:08:41</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>23.8</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>19.8</t>
+        </is>
+      </c>
+      <c r="E325" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F325" t="inlineStr">
+        <is>
+          <t>24.6</t>
+        </is>
+      </c>
+      <c r="G325" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H325" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="I325" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J325" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="L325" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M325" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N325" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="O325" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="P325" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q325" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R325" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S325" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T325" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U325" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V325" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="W325" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="X325" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Y325" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z325" t="inlineStr">
+        <is>
+          <t>11.69</t>
+        </is>
+      </c>
+      <c r="AB325" t="inlineStr">
+        <is>
+          <t>000000</t>
+        </is>
+      </c>
+      <c r="AC325" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="AE325" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="AF325" t="inlineStr">
+        <is>
+          <t>26.1</t>
+        </is>
+      </c>
+      <c r="AG325" t="inlineStr">
+        <is>
+          <t>19.7</t>
+        </is>
+      </c>
+      <c r="AH325" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AI325" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AJ325" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AK325" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AL325" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AM325" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="AN325" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AO325" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP325" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="AQ325" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR325" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="AS325" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="AT325" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="AU325" t="inlineStr">
+        <is>
+          <t>7.74</t>
+        </is>
+      </c>
+      <c r="AV325" t="inlineStr">
+        <is>
+          <t>4481.52</t>
+        </is>
+      </c>
+      <c r="AW325" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AX325" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AY325" t="inlineStr">
+        <is>
+          <t>3634.20</t>
+        </is>
+      </c>
+      <c r="AZ325" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="BA325" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="BB325" t="inlineStr">
+        <is>
+          <t>12872.06</t>
+        </is>
+      </c>
+      <c r="BC325" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="BD325" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BE325" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BF325" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="BG325" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BH325" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="BI325" t="inlineStr">
+        <is>
+          <t>140649476</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>2023-08-12 15:09:34</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>26.4</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="E326" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F326" t="inlineStr">
+        <is>
+          <t>24.3</t>
+        </is>
+      </c>
+      <c r="G326" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H326" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="I326" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J326" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="L326" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M326" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N326" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="O326" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="P326" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q326" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R326" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S326" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T326" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U326" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V326" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="W326" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="X326" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Y326" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z326" t="inlineStr">
+        <is>
+          <t>11.27</t>
+        </is>
+      </c>
+      <c r="AB326" t="inlineStr">
+        <is>
+          <t>000000</t>
+        </is>
+      </c>
+      <c r="AC326" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="AE326" t="inlineStr">
+        <is>
+          <t>26.3</t>
+        </is>
+      </c>
+      <c r="AF326" t="inlineStr">
+        <is>
+          <t>27.2</t>
+        </is>
+      </c>
+      <c r="AG326" t="inlineStr">
+        <is>
+          <t>23.9</t>
+        </is>
+      </c>
+      <c r="AH326" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AI326" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AJ326" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AK326" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AL326" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AM326" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="AN326" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AO326" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP326" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="AQ326" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR326" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="AS326" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="AT326" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="AU326" t="inlineStr">
+        <is>
+          <t>7.67</t>
+        </is>
+      </c>
+      <c r="AV326" t="inlineStr">
+        <is>
+          <t>4481.71</t>
+        </is>
+      </c>
+      <c r="AW326" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AX326" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AY326" t="inlineStr">
+        <is>
+          <t>3634.20</t>
+        </is>
+      </c>
+      <c r="AZ326" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="BA326" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="BB326" t="inlineStr">
+        <is>
+          <t>12872.07</t>
+        </is>
+      </c>
+      <c r="BC326" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="BD326" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BE326" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BF326" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="BG326" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BH326" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="BI326" t="inlineStr">
+        <is>
+          <t>140649476</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>2023-08-13 12:03:20</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>26.6</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>26.6</t>
+        </is>
+      </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>26.5</t>
+        </is>
+      </c>
+      <c r="E327" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F327" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="G327" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H327" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="I327" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J327" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="L327" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M327" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N327" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="O327" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="P327" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q327" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R327" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S327" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T327" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U327" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V327" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="W327" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="X327" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Y327" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z327" t="inlineStr">
+        <is>
+          <t>10.65</t>
+        </is>
+      </c>
+      <c r="AB327" t="inlineStr">
+        <is>
+          <t>000000</t>
+        </is>
+      </c>
+      <c r="AC327" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="AE327" t="inlineStr">
+        <is>
+          <t>26.6</t>
+        </is>
+      </c>
+      <c r="AF327" t="inlineStr">
+        <is>
+          <t>26.5</t>
+        </is>
+      </c>
+      <c r="AG327" t="inlineStr">
+        <is>
+          <t>26.5</t>
+        </is>
+      </c>
+      <c r="AH327" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AI327" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AJ327" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AK327" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AL327" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AM327" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="AN327" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AO327" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP327" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="AQ327" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR327" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="AS327" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="AT327" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="AU327" t="inlineStr">
+        <is>
+          <t>7.63</t>
+        </is>
+      </c>
+      <c r="AV327" t="inlineStr">
+        <is>
+          <t>4481.92</t>
+        </is>
+      </c>
+      <c r="AW327" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AX327" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AY327" t="inlineStr">
+        <is>
+          <t>3634.20</t>
+        </is>
+      </c>
+      <c r="AZ327" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="BA327" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="BB327" t="inlineStr">
+        <is>
+          <t>12872.07</t>
+        </is>
+      </c>
+      <c r="BC327" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="BD327" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BE327" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BF327" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="BG327" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BH327" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="BI327" t="inlineStr">
+        <is>
+          <t>140648452</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>2023-08-16 18:35:20</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>28.7</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>27.5</t>
+        </is>
+      </c>
+      <c r="E328" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F328" t="inlineStr">
+        <is>
+          <t>26.1</t>
+        </is>
+      </c>
+      <c r="G328" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H328" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="I328" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J328" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="L328" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M328" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N328" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="O328" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="P328" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q328" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R328" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S328" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T328" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U328" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V328" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="W328" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="X328" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Y328" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z328" t="inlineStr">
+        <is>
+          <t>13.94</t>
+        </is>
+      </c>
+      <c r="AB328" t="inlineStr">
+        <is>
+          <t>000000</t>
+        </is>
+      </c>
+      <c r="AC328" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="AE328" t="inlineStr">
+        <is>
+          <t>28.6</t>
+        </is>
+      </c>
+      <c r="AF328" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="AG328" t="inlineStr">
+        <is>
+          <t>27.4</t>
+        </is>
+      </c>
+      <c r="AH328" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AI328" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AJ328" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AK328" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AL328" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AM328" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="AN328" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AO328" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP328" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="AQ328" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR328" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="AS328" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="AT328" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="AU328" t="inlineStr">
+        <is>
+          <t>7.74</t>
+        </is>
+      </c>
+      <c r="AV328" t="inlineStr">
+        <is>
+          <t>4482.87</t>
+        </is>
+      </c>
+      <c r="AW328" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AX328" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AY328" t="inlineStr">
+        <is>
+          <t>3634.20</t>
+        </is>
+      </c>
+      <c r="AZ328" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="BA328" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="BB328" t="inlineStr">
+        <is>
+          <t>12872.77</t>
+        </is>
+      </c>
+      <c r="BC328" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="BD328" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BE328" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BF328" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="BG328" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BH328" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="BI328" t="inlineStr">
+        <is>
+          <t>140648452</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>2023-08-16 18:38:22</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>28.6</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>28.1</t>
+        </is>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>27.5</t>
+        </is>
+      </c>
+      <c r="E329" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F329" t="inlineStr">
+        <is>
+          <t>26.1</t>
+        </is>
+      </c>
+      <c r="G329" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H329" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="I329" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J329" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="L329" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M329" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N329" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="O329" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="P329" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q329" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R329" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S329" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T329" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U329" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V329" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="W329" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="X329" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Y329" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z329" t="inlineStr">
+        <is>
+          <t>13.94</t>
+        </is>
+      </c>
+      <c r="AB329" t="inlineStr">
+        <is>
+          <t>000000</t>
+        </is>
+      </c>
+      <c r="AC329" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="AE329" t="inlineStr">
+        <is>
+          <t>28.7</t>
+        </is>
+      </c>
+      <c r="AF329" t="inlineStr">
+        <is>
+          <t>28.1</t>
+        </is>
+      </c>
+      <c r="AG329" t="inlineStr">
+        <is>
+          <t>27.4</t>
+        </is>
+      </c>
+      <c r="AH329" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AI329" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AJ329" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AK329" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AL329" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AM329" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="AN329" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AO329" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP329" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="AQ329" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR329" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="AS329" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="AT329" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="AU329" t="inlineStr">
+        <is>
+          <t>7.74</t>
+        </is>
+      </c>
+      <c r="AV329" t="inlineStr">
+        <is>
+          <t>4482.88</t>
+        </is>
+      </c>
+      <c r="AW329" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AX329" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AY329" t="inlineStr">
+        <is>
+          <t>3634.20</t>
+        </is>
+      </c>
+      <c r="AZ329" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="BA329" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="BB329" t="inlineStr">
+        <is>
+          <t>12872.77</t>
+        </is>
+      </c>
+      <c r="BC329" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="BD329" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BE329" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BF329" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="BG329" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BH329" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="BI329" t="inlineStr">
+        <is>
+          <t>140648452</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>2023-08-21 18:28:38</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>25.5</t>
+        </is>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>27.2</t>
+        </is>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>22.1</t>
+        </is>
+      </c>
+      <c r="E330" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F330" t="inlineStr">
+        <is>
+          <t>24.8</t>
+        </is>
+      </c>
+      <c r="G330" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H330" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="I330" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J330" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="L330" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="M330" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N330" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="O330" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="P330" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q330" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R330" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S330" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T330" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U330" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V330" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="W330" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="X330" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Y330" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z330" t="inlineStr">
+        <is>
+          <t>14.34</t>
+        </is>
+      </c>
+      <c r="AB330" t="inlineStr">
+        <is>
+          <t>000000</t>
+        </is>
+      </c>
+      <c r="AC330" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="AE330" t="inlineStr">
+        <is>
+          <t>25.4</t>
+        </is>
+      </c>
+      <c r="AF330" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="AG330" t="inlineStr">
+        <is>
+          <t>22.2</t>
+        </is>
+      </c>
+      <c r="AH330" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AI330" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AJ330" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AK330" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AL330" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AM330" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="AN330" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AO330" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP330" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="AQ330" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR330" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="AS330" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="AT330" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="AU330" t="inlineStr">
+        <is>
+          <t>7.76</t>
+        </is>
+      </c>
+      <c r="AV330" t="inlineStr">
+        <is>
+          <t>4484.16</t>
+        </is>
+      </c>
+      <c r="AW330" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AX330" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AY330" t="inlineStr">
+        <is>
+          <t>3634.20</t>
+        </is>
+      </c>
+      <c r="AZ330" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="BA330" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="BB330" t="inlineStr">
+        <is>
+          <t>12873.03</t>
+        </is>
+      </c>
+      <c r="BC330" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="BD330" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BE330" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BF330" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="BG330" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BH330" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="BI330" t="inlineStr">
+        <is>
+          <t>140649476</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>2023-08-22 11:37:55</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>25.5</t>
+        </is>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>26.5</t>
+        </is>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>23.5</t>
+        </is>
+      </c>
+      <c r="E331" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F331" t="inlineStr">
+        <is>
+          <t>24.1</t>
+        </is>
+      </c>
+      <c r="G331" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H331" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="I331" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J331" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="L331" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M331" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N331" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="O331" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="P331" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q331" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R331" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S331" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T331" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U331" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V331" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="W331" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="X331" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Y331" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z331" t="inlineStr">
+        <is>
+          <t>13.13</t>
+        </is>
+      </c>
+      <c r="AA331" t="inlineStr"/>
+      <c r="AB331" t="inlineStr">
+        <is>
+          <t>000000</t>
+        </is>
+      </c>
+      <c r="AC331" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="AD331" t="inlineStr"/>
+      <c r="AE331" t="inlineStr">
+        <is>
+          <t>25.7</t>
+        </is>
+      </c>
+      <c r="AF331" t="inlineStr">
+        <is>
+          <t>26.5</t>
+        </is>
+      </c>
+      <c r="AG331" t="inlineStr">
+        <is>
+          <t>23.4</t>
+        </is>
+      </c>
+      <c r="AH331" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AI331" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AJ331" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AK331" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AL331" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AM331" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="AN331" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AO331" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP331" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="AQ331" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR331" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="AS331" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="AT331" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="AU331" t="inlineStr">
+        <is>
+          <t>7.69</t>
+        </is>
+      </c>
+      <c r="AV331" t="inlineStr">
+        <is>
+          <t>4484.34</t>
+        </is>
+      </c>
+      <c r="AW331" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AX331" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AY331" t="inlineStr">
+        <is>
+          <t>3634.20</t>
+        </is>
+      </c>
+      <c r="AZ331" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="BA331" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="BB331" t="inlineStr">
+        <is>
+          <t>12873.04</t>
+        </is>
+      </c>
+      <c r="BC331" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="BD331" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BE331" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BF331" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="BG331" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BH331" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="BI331" t="inlineStr">
         <is>
           <t>140649476</t>
         </is>

--- a/SampleData.xlsx
+++ b/SampleData.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BI331"/>
+  <dimension ref="A1:BI355"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
@@ -89181,7 +89181,6 @@
           <t>13.13</t>
         </is>
       </c>
-      <c r="AA331" t="inlineStr"/>
       <c r="AB331" t="inlineStr">
         <is>
           <t>000000</t>
@@ -89192,7 +89191,6 @@
           <t>000</t>
         </is>
       </c>
-      <c r="AD331" t="inlineStr"/>
       <c r="AE331" t="inlineStr">
         <is>
           <t>25.7</t>
@@ -89346,6 +89344,7136 @@
       <c r="BI331" t="inlineStr">
         <is>
           <t>140649476</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>2023-08-26 20:55:41</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>21.9</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>25.8</t>
+        </is>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>20.1</t>
+        </is>
+      </c>
+      <c r="E332" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F332" t="inlineStr">
+        <is>
+          <t>23.4</t>
+        </is>
+      </c>
+      <c r="G332" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H332" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="I332" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J332" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="L332" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M332" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N332" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="O332" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="P332" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q332" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R332" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S332" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T332" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U332" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V332" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="W332" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="X332" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Y332" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z332" t="inlineStr">
+        <is>
+          <t>13.44</t>
+        </is>
+      </c>
+      <c r="AB332" t="inlineStr">
+        <is>
+          <t>7002200</t>
+        </is>
+      </c>
+      <c r="AC332" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="AE332" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="AF332" t="inlineStr">
+        <is>
+          <t>25.7</t>
+        </is>
+      </c>
+      <c r="AG332" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="AH332" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI332" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AJ332" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AK332" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AL332" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AM332" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AN332" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AO332" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP332" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="AQ332" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR332" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="AS332" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="AT332" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="AU332" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="AV332" t="inlineStr">
+        <is>
+          <t>4485.63</t>
+        </is>
+      </c>
+      <c r="AW332" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AX332" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AY332" t="inlineStr">
+        <is>
+          <t>3634.20</t>
+        </is>
+      </c>
+      <c r="AZ332" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="BA332" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="BB332" t="inlineStr">
+        <is>
+          <t>12873.11</t>
+        </is>
+      </c>
+      <c r="BC332" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="BD332" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BE332" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BF332" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="BG332" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BH332" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="BI332" t="inlineStr">
+        <is>
+          <t>150225924</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>2023-08-29 20:22:21</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>21.6</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>27.1</t>
+        </is>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>19.1</t>
+        </is>
+      </c>
+      <c r="E333" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F333" t="inlineStr">
+        <is>
+          <t>24.7</t>
+        </is>
+      </c>
+      <c r="G333" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H333" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="I333" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J333" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="L333" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M333" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N333" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="O333" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="P333" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q333" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R333" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S333" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T333" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U333" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V333" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="W333" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="X333" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Y333" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z333" t="inlineStr">
+        <is>
+          <t>13.35</t>
+        </is>
+      </c>
+      <c r="AB333" t="inlineStr">
+        <is>
+          <t>7002200</t>
+        </is>
+      </c>
+      <c r="AC333" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="AE333" t="inlineStr">
+        <is>
+          <t>21.4</t>
+        </is>
+      </c>
+      <c r="AF333" t="inlineStr">
+        <is>
+          <t>26.9</t>
+        </is>
+      </c>
+      <c r="AG333" t="inlineStr">
+        <is>
+          <t>18.9</t>
+        </is>
+      </c>
+      <c r="AH333" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI333" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AJ333" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AK333" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AL333" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AM333" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AN333" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AO333" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP333" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="AQ333" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR333" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="AS333" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="AT333" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="AU333" t="inlineStr">
+        <is>
+          <t>8.64</t>
+        </is>
+      </c>
+      <c r="AV333" t="inlineStr">
+        <is>
+          <t>4487.11</t>
+        </is>
+      </c>
+      <c r="AW333" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AX333" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AY333" t="inlineStr">
+        <is>
+          <t>3634.20</t>
+        </is>
+      </c>
+      <c r="AZ333" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="BA333" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="BB333" t="inlineStr">
+        <is>
+          <t>12873.14</t>
+        </is>
+      </c>
+      <c r="BC333" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="BD333" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BE333" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BF333" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="BG333" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BH333" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="BI333" t="inlineStr">
+        <is>
+          <t>150225924</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>2023-09-10 13:23:04</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>25.2</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>27.1</t>
+        </is>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>24.2</t>
+        </is>
+      </c>
+      <c r="E334" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F334" t="inlineStr">
+        <is>
+          <t>24.9</t>
+        </is>
+      </c>
+      <c r="G334" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H334" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="I334" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J334" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="L334" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M334" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N334" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="O334" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="P334" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q334" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R334" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S334" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T334" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U334" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V334" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="W334" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="X334" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Y334" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z334" t="inlineStr">
+        <is>
+          <t>13.50</t>
+        </is>
+      </c>
+      <c r="AB334" t="inlineStr">
+        <is>
+          <t>7002200</t>
+        </is>
+      </c>
+      <c r="AC334" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="AE334" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="AF334" t="inlineStr">
+        <is>
+          <t>27.1</t>
+        </is>
+      </c>
+      <c r="AG334" t="inlineStr">
+        <is>
+          <t>24.2</t>
+        </is>
+      </c>
+      <c r="AH334" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI334" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AJ334" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AK334" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AL334" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AM334" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="AN334" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AO334" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP334" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="AQ334" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR334" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="AS334" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="AT334" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="AU334" t="inlineStr">
+        <is>
+          <t>11.76</t>
+        </is>
+      </c>
+      <c r="AV334" t="inlineStr">
+        <is>
+          <t>4493.33</t>
+        </is>
+      </c>
+      <c r="AW334" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AX334" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AY334" t="inlineStr">
+        <is>
+          <t>3634.20</t>
+        </is>
+      </c>
+      <c r="AZ334" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="BA334" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="BB334" t="inlineStr">
+        <is>
+          <t>12873.45</t>
+        </is>
+      </c>
+      <c r="BC334" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="BD334" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BE334" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BF334" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="BG334" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BH334" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="BI334" t="inlineStr">
+        <is>
+          <t>146030596</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>2023-09-11 21:03:44</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>21.7</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>26.4</t>
+        </is>
+      </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>19.5</t>
+        </is>
+      </c>
+      <c r="E335" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F335" t="inlineStr">
+        <is>
+          <t>25.6</t>
+        </is>
+      </c>
+      <c r="G335" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H335" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="I335" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J335" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="L335" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M335" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N335" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="O335" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="P335" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q335" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R335" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S335" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T335" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U335" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V335" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="W335" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="X335" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Y335" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z335" t="inlineStr">
+        <is>
+          <t>13.81</t>
+        </is>
+      </c>
+      <c r="AB335" t="inlineStr">
+        <is>
+          <t>7002200</t>
+        </is>
+      </c>
+      <c r="AC335" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="AE335" t="inlineStr">
+        <is>
+          <t>21.7</t>
+        </is>
+      </c>
+      <c r="AF335" t="inlineStr">
+        <is>
+          <t>26.4</t>
+        </is>
+      </c>
+      <c r="AG335" t="inlineStr">
+        <is>
+          <t>19.6</t>
+        </is>
+      </c>
+      <c r="AH335" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI335" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AJ335" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AK335" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AL335" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AM335" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="AN335" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AO335" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP335" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="AQ335" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR335" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="AS335" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="AT335" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="AU335" t="inlineStr">
+        <is>
+          <t>12.27</t>
+        </is>
+      </c>
+      <c r="AV335" t="inlineStr">
+        <is>
+          <t>4494.09</t>
+        </is>
+      </c>
+      <c r="AW335" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AX335" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AY335" t="inlineStr">
+        <is>
+          <t>3634.20</t>
+        </is>
+      </c>
+      <c r="AZ335" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="BA335" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="BB335" t="inlineStr">
+        <is>
+          <t>12873.46</t>
+        </is>
+      </c>
+      <c r="BC335" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="BD335" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BE335" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BF335" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="BG335" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BH335" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="BI335" t="inlineStr">
+        <is>
+          <t>146030596</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>2023-09-17 13:27:56</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>19.7</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>26.1</t>
+        </is>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>16.5</t>
+        </is>
+      </c>
+      <c r="E336" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F336" t="inlineStr">
+        <is>
+          <t>24.7</t>
+        </is>
+      </c>
+      <c r="G336" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H336" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="I336" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J336" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="L336" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M336" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N336" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="O336" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="P336" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q336" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R336" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S336" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T336" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U336" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V336" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="W336" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="X336" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Y336" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z336" t="inlineStr">
+        <is>
+          <t>12.44</t>
+        </is>
+      </c>
+      <c r="AB336" t="inlineStr">
+        <is>
+          <t>7002200</t>
+        </is>
+      </c>
+      <c r="AC336" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="AE336" t="inlineStr">
+        <is>
+          <t>19.6</t>
+        </is>
+      </c>
+      <c r="AF336" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="AG336" t="inlineStr">
+        <is>
+          <t>16.7</t>
+        </is>
+      </c>
+      <c r="AH336" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI336" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AJ336" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AK336" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AL336" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AM336" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="AN336" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AO336" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP336" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="AQ336" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR336" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="AS336" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="AT336" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="AU336" t="inlineStr">
+        <is>
+          <t>13.61</t>
+        </is>
+      </c>
+      <c r="AV336" t="inlineStr">
+        <is>
+          <t>4497.10</t>
+        </is>
+      </c>
+      <c r="AW336" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AX336" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AY336" t="inlineStr">
+        <is>
+          <t>3634.20</t>
+        </is>
+      </c>
+      <c r="AZ336" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="BA336" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="BB336" t="inlineStr">
+        <is>
+          <t>12873.85</t>
+        </is>
+      </c>
+      <c r="BC336" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="BD336" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BE336" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BF336" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="BG336" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BH336" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="BI336" t="inlineStr">
+        <is>
+          <t>146030596</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>2023-09-19 10:01:17</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>20.6</t>
+        </is>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>26.9</t>
+        </is>
+      </c>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>13.8</t>
+        </is>
+      </c>
+      <c r="E337" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F337" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="G337" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H337" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="I337" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J337" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="L337" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M337" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N337" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="O337" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="P337" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q337" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R337" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S337" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T337" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U337" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V337" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="W337" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="X337" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Y337" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z337" t="inlineStr">
+        <is>
+          <t>11.05</t>
+        </is>
+      </c>
+      <c r="AB337" t="inlineStr">
+        <is>
+          <t>7002200</t>
+        </is>
+      </c>
+      <c r="AC337" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="AE337" t="inlineStr">
+        <is>
+          <t>20.2</t>
+        </is>
+      </c>
+      <c r="AF337" t="inlineStr">
+        <is>
+          <t>26.7</t>
+        </is>
+      </c>
+      <c r="AG337" t="inlineStr">
+        <is>
+          <t>13.9</t>
+        </is>
+      </c>
+      <c r="AH337" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI337" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AJ337" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AK337" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AL337" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AM337" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="AN337" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AO337" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP337" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="AQ337" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR337" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="AS337" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="AT337" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="AU337" t="inlineStr">
+        <is>
+          <t>14.10</t>
+        </is>
+      </c>
+      <c r="AV337" t="inlineStr">
+        <is>
+          <t>4498.09</t>
+        </is>
+      </c>
+      <c r="AW337" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AX337" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AY337" t="inlineStr">
+        <is>
+          <t>3634.20</t>
+        </is>
+      </c>
+      <c r="AZ337" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="BA337" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="BB337" t="inlineStr">
+        <is>
+          <t>12874.25</t>
+        </is>
+      </c>
+      <c r="BC337" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="BD337" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BE337" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BF337" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="BG337" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BH337" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="BI337" t="inlineStr">
+        <is>
+          <t>146030596</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>2023-09-19 17:27:59</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>21.7</t>
+        </is>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>25.9</t>
+        </is>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>19.6</t>
+        </is>
+      </c>
+      <c r="E338" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F338" t="inlineStr">
+        <is>
+          <t>25.4</t>
+        </is>
+      </c>
+      <c r="G338" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H338" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="I338" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J338" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="L338" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M338" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N338" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="O338" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="P338" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q338" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R338" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S338" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T338" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U338" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V338" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="W338" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="X338" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Y338" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z338" t="inlineStr">
+        <is>
+          <t>12.23</t>
+        </is>
+      </c>
+      <c r="AB338" t="inlineStr">
+        <is>
+          <t>7002200</t>
+        </is>
+      </c>
+      <c r="AC338" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="AE338" t="inlineStr">
+        <is>
+          <t>21.7</t>
+        </is>
+      </c>
+      <c r="AF338" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="AG338" t="inlineStr">
+        <is>
+          <t>19.5</t>
+        </is>
+      </c>
+      <c r="AH338" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI338" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AJ338" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AK338" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AL338" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AM338" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="AN338" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AO338" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP338" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="AQ338" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR338" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="AS338" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="AT338" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="AU338" t="inlineStr">
+        <is>
+          <t>14.32</t>
+        </is>
+      </c>
+      <c r="AV338" t="inlineStr">
+        <is>
+          <t>4498.31</t>
+        </is>
+      </c>
+      <c r="AW338" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AX338" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AY338" t="inlineStr">
+        <is>
+          <t>3634.20</t>
+        </is>
+      </c>
+      <c r="AZ338" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="BA338" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="BB338" t="inlineStr">
+        <is>
+          <t>12874.26</t>
+        </is>
+      </c>
+      <c r="BC338" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="BD338" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BE338" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BF338" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="BG338" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BH338" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="BI338" t="inlineStr">
+        <is>
+          <t>146030596</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>2023-09-20 08:56:22</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>20.5</t>
+        </is>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>25.6</t>
+        </is>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>18.2</t>
+        </is>
+      </c>
+      <c r="E339" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F339" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="G339" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H339" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="I339" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J339" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="L339" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M339" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N339" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="O339" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="P339" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q339" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R339" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S339" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T339" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U339" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V339" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="W339" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="X339" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Y339" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z339" t="inlineStr">
+        <is>
+          <t>12.19</t>
+        </is>
+      </c>
+      <c r="AB339" t="inlineStr">
+        <is>
+          <t>7002200</t>
+        </is>
+      </c>
+      <c r="AC339" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="AE339" t="inlineStr">
+        <is>
+          <t>20.4</t>
+        </is>
+      </c>
+      <c r="AF339" t="inlineStr">
+        <is>
+          <t>25.6</t>
+        </is>
+      </c>
+      <c r="AG339" t="inlineStr">
+        <is>
+          <t>18.2</t>
+        </is>
+      </c>
+      <c r="AH339" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI339" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AJ339" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AK339" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AL339" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AM339" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="AN339" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AO339" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP339" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="AQ339" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR339" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="AS339" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="AT339" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="AU339" t="inlineStr">
+        <is>
+          <t>14.35</t>
+        </is>
+      </c>
+      <c r="AV339" t="inlineStr">
+        <is>
+          <t>4498.59</t>
+        </is>
+      </c>
+      <c r="AW339" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AX339" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AY339" t="inlineStr">
+        <is>
+          <t>3634.20</t>
+        </is>
+      </c>
+      <c r="AZ339" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="BA339" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="BB339" t="inlineStr">
+        <is>
+          <t>12874.27</t>
+        </is>
+      </c>
+      <c r="BC339" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="BD339" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BE339" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BF339" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="BG339" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BH339" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="BI339" t="inlineStr">
+        <is>
+          <t>146030596</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>2023-09-20 19:09:49</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>20.3</t>
+        </is>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>25.7</t>
+        </is>
+      </c>
+      <c r="D340" t="inlineStr">
+        <is>
+          <t>17.6</t>
+        </is>
+      </c>
+      <c r="E340" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F340" t="inlineStr">
+        <is>
+          <t>25.3</t>
+        </is>
+      </c>
+      <c r="G340" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H340" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="I340" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J340" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="L340" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M340" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N340" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="O340" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="P340" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q340" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R340" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S340" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T340" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U340" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V340" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="W340" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="X340" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Y340" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z340" t="inlineStr">
+        <is>
+          <t>13.34</t>
+        </is>
+      </c>
+      <c r="AB340" t="inlineStr">
+        <is>
+          <t>7002200</t>
+        </is>
+      </c>
+      <c r="AC340" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="AE340" t="inlineStr">
+        <is>
+          <t>20.2</t>
+        </is>
+      </c>
+      <c r="AF340" t="inlineStr">
+        <is>
+          <t>25.9</t>
+        </is>
+      </c>
+      <c r="AG340" t="inlineStr">
+        <is>
+          <t>17.6</t>
+        </is>
+      </c>
+      <c r="AH340" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI340" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AJ340" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AK340" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AL340" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AM340" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="AN340" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AO340" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP340" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="AQ340" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR340" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="AS340" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="AT340" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="AU340" t="inlineStr">
+        <is>
+          <t>14.65</t>
+        </is>
+      </c>
+      <c r="AV340" t="inlineStr">
+        <is>
+          <t>4498.89</t>
+        </is>
+      </c>
+      <c r="AW340" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AX340" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AY340" t="inlineStr">
+        <is>
+          <t>3634.20</t>
+        </is>
+      </c>
+      <c r="AZ340" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="BA340" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="BB340" t="inlineStr">
+        <is>
+          <t>12874.27</t>
+        </is>
+      </c>
+      <c r="BC340" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="BD340" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BE340" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BF340" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="BG340" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BH340" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="BI340" t="inlineStr">
+        <is>
+          <t>146030596</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>2023-09-21 20:13:00</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>21.4</t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>26.2</t>
+        </is>
+      </c>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>18.2</t>
+        </is>
+      </c>
+      <c r="E341" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F341" t="inlineStr">
+        <is>
+          <t>25.7</t>
+        </is>
+      </c>
+      <c r="G341" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H341" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="I341" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J341" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="L341" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M341" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N341" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="O341" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="P341" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q341" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R341" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S341" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T341" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U341" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V341" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="W341" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="X341" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Y341" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z341" t="inlineStr">
+        <is>
+          <t>12.93</t>
+        </is>
+      </c>
+      <c r="AB341" t="inlineStr">
+        <is>
+          <t>7002200</t>
+        </is>
+      </c>
+      <c r="AC341" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="AE341" t="inlineStr">
+        <is>
+          <t>21.4</t>
+        </is>
+      </c>
+      <c r="AF341" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="AG341" t="inlineStr">
+        <is>
+          <t>18.2</t>
+        </is>
+      </c>
+      <c r="AH341" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI341" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AJ341" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AK341" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AL341" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AM341" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="AN341" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AO341" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP341" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="AQ341" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR341" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="AS341" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="AT341" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="AU341" t="inlineStr">
+        <is>
+          <t>14.97</t>
+        </is>
+      </c>
+      <c r="AV341" t="inlineStr">
+        <is>
+          <t>4499.46</t>
+        </is>
+      </c>
+      <c r="AW341" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AX341" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AY341" t="inlineStr">
+        <is>
+          <t>3634.20</t>
+        </is>
+      </c>
+      <c r="AZ341" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="BA341" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="BB341" t="inlineStr">
+        <is>
+          <t>12874.29</t>
+        </is>
+      </c>
+      <c r="BC341" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="BD341" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BE341" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BF341" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="BG341" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BH341" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="BI341" t="inlineStr">
+        <is>
+          <t>146030596</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>2023-09-28 17:30:31</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>22.9</t>
+        </is>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>27.3</t>
+        </is>
+      </c>
+      <c r="D342" t="inlineStr">
+        <is>
+          <t>20.9</t>
+        </is>
+      </c>
+      <c r="E342" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F342" t="inlineStr">
+        <is>
+          <t>25.6</t>
+        </is>
+      </c>
+      <c r="G342" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H342" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="I342" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J342" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="L342" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M342" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N342" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="O342" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="P342" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q342" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R342" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S342" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T342" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U342" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V342" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="W342" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="X342" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Y342" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z342" t="inlineStr">
+        <is>
+          <t>12.85</t>
+        </is>
+      </c>
+      <c r="AB342" t="inlineStr">
+        <is>
+          <t>7002200</t>
+        </is>
+      </c>
+      <c r="AC342" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="AE342" t="inlineStr">
+        <is>
+          <t>22.8</t>
+        </is>
+      </c>
+      <c r="AF342" t="inlineStr">
+        <is>
+          <t>27.4</t>
+        </is>
+      </c>
+      <c r="AG342" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="AH342" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI342" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AJ342" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AK342" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AL342" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AM342" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="AN342" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AO342" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP342" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="AQ342" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR342" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="AS342" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="AT342" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="AU342" t="inlineStr">
+        <is>
+          <t>15.92</t>
+        </is>
+      </c>
+      <c r="AV342" t="inlineStr">
+        <is>
+          <t>4503.14</t>
+        </is>
+      </c>
+      <c r="AW342" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AX342" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AY342" t="inlineStr">
+        <is>
+          <t>3634.20</t>
+        </is>
+      </c>
+      <c r="AZ342" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="BA342" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="BB342" t="inlineStr">
+        <is>
+          <t>12874.67</t>
+        </is>
+      </c>
+      <c r="BC342" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="BD342" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BE342" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BF342" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="BG342" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BH342" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="BI342" t="inlineStr">
+        <is>
+          <t>146030596</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>2023-10-06 20:18:00</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>19.9</t>
+        </is>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>26.5</t>
+        </is>
+      </c>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>9.9</t>
+        </is>
+      </c>
+      <c r="E343" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F343" t="inlineStr">
+        <is>
+          <t>24.7</t>
+        </is>
+      </c>
+      <c r="G343" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H343" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="I343" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J343" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="L343" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M343" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N343" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="O343" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="P343" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q343" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R343" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S343" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T343" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U343" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V343" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="W343" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="X343" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Y343" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z343" t="inlineStr">
+        <is>
+          <t>9.96</t>
+        </is>
+      </c>
+      <c r="AB343" t="inlineStr">
+        <is>
+          <t>7002200</t>
+        </is>
+      </c>
+      <c r="AC343" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="AE343" t="inlineStr">
+        <is>
+          <t>19.4</t>
+        </is>
+      </c>
+      <c r="AF343" t="inlineStr">
+        <is>
+          <t>26.6</t>
+        </is>
+      </c>
+      <c r="AG343" t="inlineStr">
+        <is>
+          <t>9.9</t>
+        </is>
+      </c>
+      <c r="AH343" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI343" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AJ343" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AK343" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AL343" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AM343" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="AN343" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AO343" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP343" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="AQ343" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR343" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="AS343" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="AT343" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="AU343" t="inlineStr">
+        <is>
+          <t>16.07</t>
+        </is>
+      </c>
+      <c r="AV343" t="inlineStr">
+        <is>
+          <t>4507.55</t>
+        </is>
+      </c>
+      <c r="AW343" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AX343" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AY343" t="inlineStr">
+        <is>
+          <t>3634.20</t>
+        </is>
+      </c>
+      <c r="AZ343" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="BA343" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="BB343" t="inlineStr">
+        <is>
+          <t>12876.87</t>
+        </is>
+      </c>
+      <c r="BC343" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="BD343" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BE343" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BF343" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="BG343" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BH343" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="BI343" t="inlineStr">
+        <is>
+          <t>146030596</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>2023-10-07 18:12:35</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>20.1</t>
+        </is>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>26.6</t>
+        </is>
+      </c>
+      <c r="D344" t="inlineStr">
+        <is>
+          <t>8.9</t>
+        </is>
+      </c>
+      <c r="E344" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F344" t="inlineStr">
+        <is>
+          <t>24.1</t>
+        </is>
+      </c>
+      <c r="G344" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H344" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="I344" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J344" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="L344" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M344" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N344" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="O344" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="P344" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q344" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R344" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S344" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T344" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U344" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V344" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="W344" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="X344" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Y344" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z344" t="inlineStr">
+        <is>
+          <t>9.39</t>
+        </is>
+      </c>
+      <c r="AB344" t="inlineStr">
+        <is>
+          <t>7002200</t>
+        </is>
+      </c>
+      <c r="AC344" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="AE344" t="inlineStr">
+        <is>
+          <t>19.3</t>
+        </is>
+      </c>
+      <c r="AF344" t="inlineStr">
+        <is>
+          <t>26.6</t>
+        </is>
+      </c>
+      <c r="AG344" t="inlineStr">
+        <is>
+          <t>8.9</t>
+        </is>
+      </c>
+      <c r="AH344" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI344" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AJ344" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AK344" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AL344" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AM344" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="AN344" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AO344" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP344" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="AQ344" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR344" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="AS344" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="AT344" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="AU344" t="inlineStr">
+        <is>
+          <t>16.02</t>
+        </is>
+      </c>
+      <c r="AV344" t="inlineStr">
+        <is>
+          <t>4508.05</t>
+        </is>
+      </c>
+      <c r="AW344" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AX344" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AY344" t="inlineStr">
+        <is>
+          <t>3634.20</t>
+        </is>
+      </c>
+      <c r="AZ344" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="BA344" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="BB344" t="inlineStr">
+        <is>
+          <t>12878.03</t>
+        </is>
+      </c>
+      <c r="BC344" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="BD344" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BE344" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BF344" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="BG344" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BH344" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="BI344" t="inlineStr">
+        <is>
+          <t>144982020</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>2023-10-12 19:47:27</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>18.4</t>
+        </is>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>25.7</t>
+        </is>
+      </c>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>11.3</t>
+        </is>
+      </c>
+      <c r="E345" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F345" t="inlineStr">
+        <is>
+          <t>24.8</t>
+        </is>
+      </c>
+      <c r="G345" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H345" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="I345" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J345" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="L345" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M345" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N345" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="O345" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="P345" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q345" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R345" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S345" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T345" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U345" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V345" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="W345" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="X345" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Y345" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z345" t="inlineStr">
+        <is>
+          <t>8.86</t>
+        </is>
+      </c>
+      <c r="AB345" t="inlineStr">
+        <is>
+          <t>7002200</t>
+        </is>
+      </c>
+      <c r="AC345" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="AE345" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="AF345" t="inlineStr">
+        <is>
+          <t>25.7</t>
+        </is>
+      </c>
+      <c r="AG345" t="inlineStr">
+        <is>
+          <t>11.3</t>
+        </is>
+      </c>
+      <c r="AH345" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI345" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AJ345" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AK345" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AL345" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AM345" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="AN345" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AO345" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP345" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="AQ345" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR345" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="AS345" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="AT345" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="AU345" t="inlineStr">
+        <is>
+          <t>16.19</t>
+        </is>
+      </c>
+      <c r="AV345" t="inlineStr">
+        <is>
+          <t>4510.89</t>
+        </is>
+      </c>
+      <c r="AW345" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AX345" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AY345" t="inlineStr">
+        <is>
+          <t>3634.20</t>
+        </is>
+      </c>
+      <c r="AZ345" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="BA345" t="inlineStr">
+        <is>
+          <t>11.89</t>
+        </is>
+      </c>
+      <c r="BB345" t="inlineStr">
+        <is>
+          <t>12885.36</t>
+        </is>
+      </c>
+      <c r="BC345" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="BD345" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BE345" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BF345" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="BG345" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BH345" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="BI345" t="inlineStr">
+        <is>
+          <t>146030596</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>2023-10-12 19:48:14</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>19.3</t>
+        </is>
+      </c>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>25.7</t>
+        </is>
+      </c>
+      <c r="D346" t="inlineStr">
+        <is>
+          <t>11.3</t>
+        </is>
+      </c>
+      <c r="E346" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F346" t="inlineStr">
+        <is>
+          <t>24.8</t>
+        </is>
+      </c>
+      <c r="G346" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H346" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="I346" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J346" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="L346" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M346" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N346" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="O346" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="P346" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q346" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R346" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S346" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T346" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U346" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V346" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="W346" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="X346" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Y346" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z346" t="inlineStr">
+        <is>
+          <t>8.64</t>
+        </is>
+      </c>
+      <c r="AB346" t="inlineStr">
+        <is>
+          <t>7002200</t>
+        </is>
+      </c>
+      <c r="AC346" t="inline